--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="162">
   <si>
     <t>Environment</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Get Answer Options from Answer Library Button not present on page.</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,8 +553,19 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +580,36 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -652,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -669,6 +713,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1451,7 +1499,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="18" t="s">
         <v>159</v>
       </c>
       <c r="J2" s="4"/>
@@ -1563,7 +1611,9 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>160</v>
       </c>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D76E3DE-99BC-485E-B77D-9F4A92F2080C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="4620" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -12,17 +13,26 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="190">
   <si>
     <t>Environment</t>
   </si>
@@ -501,9 +511,6 @@
     <t>sogo_gmail110</t>
   </si>
   <si>
-    <t xml:space="preserve"> Get Answer Options from Answer Library Button not present on page.</t>
-  </si>
-  <si>
     <t>Smoke_TC8</t>
   </si>
   <si>
@@ -519,15 +526,89 @@
     <t>DMX DP PF REMINDEr</t>
   </si>
   <si>
-    <t>+17054132069 [7 records]</t>
+    <t xml:space="preserve">To send exe invite </t>
+  </si>
+  <si>
+    <t>survey should be distributed</t>
+  </si>
+  <si>
+    <t>INVITE DMX EXE DP</t>
+  </si>
+  <si>
+    <t>1010 NEW DMX DP EXE LIST [1010 records]</t>
+  </si>
+  <si>
+    <t>Salutation;Gender;Last Name</t>
+  </si>
+  <si>
+    <t>Mr;Male;Tandel</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Reminder_EXE DP RA</t>
+  </si>
+  <si>
+    <t>To send Platfrom Invite &amp; PF reminder</t>
+  </si>
+  <si>
+    <t>PALTROMINV DMX DP</t>
+  </si>
+  <si>
+    <t>New DMX DP PF SOGO [16 records]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send SMS invites and reminder </t>
+  </si>
+  <si>
+    <t>SMS numbers.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downloading SAP </t>
+  </si>
+  <si>
+    <t>survey should be downloaded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new list </t>
+  </si>
+  <si>
+    <t>Contact list DP.xlsx</t>
+  </si>
+  <si>
+    <t>Email Address;Status;First Name</t>
+  </si>
+  <si>
+    <t>Smoke_TC3</t>
+  </si>
+  <si>
+    <t>Smoke_TC4</t>
+  </si>
+  <si>
+    <t>Smoke_TC5</t>
+  </si>
+  <si>
+    <t>Smoke_TC6</t>
+  </si>
+  <si>
+    <t>Smoke_TC7</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>First Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,22 +632,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF231F30"/>
-      <name val="Proxima N W01 smbd"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,32 +663,19 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -667,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -680,17 +744,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -971,21 +1034,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -996,12 +1104,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>151</v>
+      <c r="B2" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1009,75 +1117,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -1119,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1135,44 +1198,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CN6"/>
+  <dimension ref="A1:CN9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CP9" sqref="CP9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1513,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:92">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1473,7 +1536,9 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="21" t="s">
+        <v>188</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
         <v>27</v>
@@ -1560,199 +1625,199 @@
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
     </row>
-    <row r="3" spans="1:92">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="14"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14" t="s">
+      <c r="I3" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AU3" s="14" t="s">
+      <c r="AU3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AV3" s="14" t="s">
+      <c r="AV3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AW3" s="14" t="s">
+      <c r="AW3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AX3" s="14" t="s">
+      <c r="AX3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AY3" s="14" t="s">
+      <c r="AY3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="14" t="s">
+      <c r="AZ3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="14" t="s">
+      <c r="BA3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="BB3" s="14" t="s">
+      <c r="BB3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BC3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="BD3" s="14" t="s">
+      <c r="BD3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="BE3" s="15" t="s">
+      <c r="BE3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="BF3" s="14" t="s">
+      <c r="BF3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="BG3" s="14" t="s">
+      <c r="BG3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BH3" s="14" t="s">
+      <c r="BH3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BI3" s="14" t="s">
+      <c r="BI3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BJ3" s="14" t="s">
+      <c r="BJ3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BK3" s="14" t="s">
+      <c r="BK3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="BL3" s="14" t="s">
+      <c r="BL3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BM3" s="14" t="s">
+      <c r="BM3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BN3" s="14" t="s">
+      <c r="BN3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="BO3" s="14" t="s">
+      <c r="BO3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="14" t="s">
+      <c r="BP3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BQ3" s="14" t="s">
+      <c r="BQ3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BR3" s="14" t="s">
+      <c r="BR3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BS3" s="14" t="s">
+      <c r="BS3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="BT3" s="14" t="s">
+      <c r="BT3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BU3" s="14" t="s">
+      <c r="BU3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BV3" s="14" t="s">
+      <c r="BV3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BW3" s="14" t="s">
+      <c r="BW3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BX3" s="14" t="s">
+      <c r="BX3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BY3" s="14" t="s">
+      <c r="BY3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BZ3" s="14" t="s">
+      <c r="BZ3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="CA3" s="14" t="s">
+      <c r="CA3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="CB3" s="14" t="s">
+      <c r="CB3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="CC3" s="14" t="s">
+      <c r="CC3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="CD3" s="14" t="s">
+      <c r="CD3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="CE3" s="14" t="s">
+      <c r="CE3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="CF3" s="14" t="s">
+      <c r="CF3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CG3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
-      <c r="CL3" s="1"/>
-      <c r="CM3" s="1"/>
-      <c r="CN3" s="1"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
     </row>
-    <row r="4" spans="1:92">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1767,17 +1832,19 @@
         <v>155</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="14"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1785,93 +1852,689 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="14" t="s">
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="15"/>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="15"/>
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="15"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="15"/>
+      <c r="CH4" s="1">
+        <v>282</v>
+      </c>
+      <c r="CI4" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="CJ4" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="CK4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="CL4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="CM4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="CN4" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
+      <c r="BR5" s="15"/>
+      <c r="BS5" s="15"/>
+      <c r="BT5" s="15"/>
+      <c r="BU5" s="15"/>
+      <c r="BV5" s="15"/>
+      <c r="BW5" s="15"/>
+      <c r="BX5" s="15"/>
+      <c r="BY5" s="15"/>
+      <c r="BZ5" s="15"/>
+      <c r="CA5" s="15"/>
+      <c r="CB5" s="15"/>
+      <c r="CC5" s="15"/>
+      <c r="CD5" s="15"/>
+      <c r="CE5" s="15"/>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="15"/>
+      <c r="CH5" s="1">
+        <v>283</v>
+      </c>
+      <c r="CI5" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="CJ5" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK5" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="CL5" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="CM5" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="CN5" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
+      <c r="BP6" s="15"/>
+      <c r="BQ6" s="15"/>
+      <c r="BR6" s="15"/>
+      <c r="BS6" s="15"/>
+      <c r="BT6" s="15"/>
+      <c r="BU6" s="15"/>
+      <c r="BV6" s="15"/>
+      <c r="BW6" s="15"/>
+      <c r="BX6" s="15"/>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="15"/>
+      <c r="CC6" s="15"/>
+      <c r="CD6" s="15"/>
+      <c r="CE6" s="15"/>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="15"/>
+      <c r="CH6" s="1">
+        <v>283</v>
+      </c>
+      <c r="CI6" s="16"/>
+      <c r="CJ6" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="CK6" s="16"/>
+      <c r="CL6" s="16"/>
+      <c r="CM6" s="16"/>
+      <c r="CN6" s="16"/>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="15"/>
+      <c r="BS7" s="15"/>
+      <c r="BT7" s="15"/>
+      <c r="BU7" s="15"/>
+      <c r="BV7" s="15"/>
+      <c r="BW7" s="15"/>
+      <c r="BX7" s="15"/>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="15"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CH7" s="1">
+        <v>283</v>
+      </c>
+      <c r="CI7" s="16"/>
+      <c r="CJ7" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="CK7" s="16"/>
+      <c r="CL7" s="16"/>
+      <c r="CM7" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="CN7" s="16"/>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
+      <c r="BK8" s="18"/>
+      <c r="BL8" s="18"/>
+      <c r="BM8" s="18"/>
+      <c r="BN8" s="18"/>
+      <c r="BO8" s="18"/>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="18"/>
+      <c r="BS8" s="18"/>
+      <c r="BT8" s="18"/>
+      <c r="BU8" s="18"/>
+      <c r="BV8" s="18"/>
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="18"/>
+      <c r="BY8" s="18"/>
+      <c r="BZ8" s="18"/>
+      <c r="CA8" s="18"/>
+      <c r="CB8" s="18"/>
+      <c r="CC8" s="18"/>
+      <c r="CD8" s="18"/>
+      <c r="CE8" s="18"/>
+      <c r="CF8" s="18"/>
+      <c r="CG8" s="18"/>
+      <c r="CH8" s="1">
+        <v>283</v>
+      </c>
+      <c r="CI8" s="19"/>
+      <c r="CJ8" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK8" s="19"/>
+      <c r="CL8" s="19"/>
+      <c r="CM8" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="CN8" s="19"/>
+    </row>
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+      <c r="BI9" s="1"/>
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="1"/>
+      <c r="BL9" s="1"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="1"/>
+      <c r="BS9" s="1"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="1"/>
+      <c r="BZ9" s="1"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="1"/>
+      <c r="CG9" s="1"/>
+      <c r="CH9" s="1">
+        <v>114</v>
+      </c>
+      <c r="CI9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="1"/>
-      <c r="BS4" s="1"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="1"/>
-      <c r="BZ4" s="1"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-      <c r="CF4" s="1"/>
-      <c r="CG4" s="1"/>
-      <c r="CH4" s="1">
-        <v>114</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CK4" s="1"/>
-      <c r="CL4" s="1"/>
-      <c r="CM4" s="1"/>
-      <c r="CN4" s="1"/>
-    </row>
-    <row r="6" spans="1:92">
-      <c r="AT6" s="16"/>
+      <c r="CJ9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D76E3DE-99BC-485E-B77D-9F4A92F2080C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B11625-085D-45E4-B01A-B3A1FBFD10E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="229">
   <si>
     <t>Environment</t>
   </si>
@@ -602,13 +602,180 @@
   </si>
   <si>
     <t>First Name</t>
+  </si>
+  <si>
+    <t>RMX</t>
+  </si>
+  <si>
+    <t>Omni report</t>
+  </si>
+  <si>
+    <t>1. Click on Slideshow icon, it will open in new i-Frame. Click on Email, enter given email id in To field and then send the email.
+2. Click on Save button and save the report named as OMNI DP Today's Date
+3. Click on Add report to canvas
+4. Export omni report
+"5. Click on email report. Enter report title as 'OMNI DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNI DP  - </t>
+  </si>
+  <si>
+    <t>jreddy@zarca.com</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>22.0 Backward Survey</t>
+  </si>
+  <si>
+    <t>Advance frequency report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click on Frequency button and select 'Advance Frequency' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Reorder the questions on Reorder Question page and then click on Continue.
+4. Check Display reports with data tables, Display Question Numbers, Display Weighted Score/Average for Rating Questions on Properties page and then click on Continue
+5. Click on Generate button on Data Sources and Filters page.
+6. Click on Slideshow icon, it will open in new i-Frame. Click on Email, enter given email id in To field and then send the email.
+7. Click on Save button and save the report named as 'Advance Freq DP Today's Date'
+8. Click on Download button to export the report.
+"9. Click on email report. Enter report title as 'Adv freq DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."
+</t>
+  </si>
+  <si>
+    <t>Advance Freq DP</t>
+  </si>
+  <si>
+    <t>Individual report</t>
+  </si>
+  <si>
+    <t>1. Click on Raw Data button and select 'Individual' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Click on Continue button on Select Report Properties page.
+4. Click on Generate on Select Filter page.
+5. Click on Download button to export the report.
+6. Click on Save button and save the report named as 'Individual DP Today's Date'
+"7. Click on email report. Enter report title as 'Individual DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."</t>
+  </si>
+  <si>
+    <t>Individual DP</t>
+  </si>
+  <si>
+    <t>Response table report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Raw Data button and select 'Response table' report in drop down
+2. Select All Questions on Survey Questions page and click on Continue.
+3. Click on Continue button on Select Report Properties page.
+4. Click on Generate on Select Filter page.
+5. Click on Download button to export the report.
+6. Click on Save button and save the report named as 'Response table DP Today's Date'
+"7. Click on email report. Enter report title as 'Response table DP Today's date'.
+Enter given email ID in To field, click on continue and sent the email report."
+</t>
+  </si>
+  <si>
+    <t>Response table DP</t>
+  </si>
+  <si>
+    <t>Segmentation report</t>
+  </si>
+  <si>
+    <t>1. Click on Segementation button.
+2. Select Q.1 as segment question. Once the question is selected, select all answer options in same question. Click on Continue
+3. Select All Questions on Survey Questions page and click on Continue.
+4. Check Display reports with data tables, Display Question Numbers, Display Weighted Score/Average for Rating Questions on Properties page and then click on Continue
+5. Click on Continue on 'Comparison Segment Data'
+6. Click on Continue on Customize Cover Page.
+7. Enter the given email id in To field, check All segment reports as multiple Word documents in a zipped file, Individual segment report in separate Word document anf then click on Generate.</t>
+  </si>
+  <si>
+    <t>Q1(b). Gender</t>
+  </si>
+  <si>
+    <t>Engagement report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on Special Reports button and select 'Engagement' report in drop down
+"2. Enter Engagement report DP Today's date as input text in Who are the participants in this study? field. 
+"
+3. Set Nmax as 10,000 and click on Continue.
+4. Select Q.16, 17, 18 as Engagement question (including sub questions) and Click on Continue.
+5. Select Q.19 as Driver question and Click on Continue.
+6. Toggle on Do you want to include additional questions? and Select Q.1 as Additional question and then click on Continue.
+7. Toggle on Individual Composition Report and Select Q.2 as Composion question and then click on Continue.
+8. Toggle on Do you want to generate group-specific reports? and Select Q.2 and name as Location .
+9, Click on Add More, and Select Q.4 and name as School and then click on Continue.
+10. Click on Generate and select export format 
+11. Enter the given email id in pop up and then click on Submit.
+12, Accept the alert.
+</t>
+  </si>
+  <si>
+    <t>Engagement report DP</t>
+  </si>
+  <si>
+    <t>Q 16,Q 17,Q 18</t>
+  </si>
+  <si>
+    <t>Q 19</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Q 1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Smoke_TC9</t>
+  </si>
+  <si>
+    <t>Smoke_TC10</t>
+  </si>
+  <si>
+    <t>Smoke_TC11</t>
+  </si>
+  <si>
+    <t>Smoke_TC12</t>
+  </si>
+  <si>
+    <t>Smoke_TC13</t>
+  </si>
+  <si>
+    <t>Smoke_TC14</t>
+  </si>
+  <si>
+    <t>surveyTitle</t>
+  </si>
+  <si>
+    <t>sogo_snegi-entplus</t>
+  </si>
+  <si>
+    <t>mubashir_SoGo@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,6 +805,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -727,11 +901,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -754,10 +932,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{A465ED18-BD8A-42D4-B0AA-D737FE479309}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{35AA950F-ECBB-43F4-8358-7C4D247435AC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0C0F5A84-9D0A-4A3D-BA7B-55D6CA62B873}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{6870EC88-17AC-4725-A1DF-3A3DEAE4584C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,10 +1315,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,6 +1385,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -1207,10 +1410,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CN9"/>
+  <dimension ref="A1:CO15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1438,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1512,8 +1715,11 @@
       <c r="CN1" s="9" t="s">
         <v>150</v>
       </c>
+      <c r="CO1" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1624,8 +1830,9 @@
       <c r="CL2" s="6"/>
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1814,8 +2021,9 @@
       <c r="CL3" s="15"/>
       <c r="CM3" s="15"/>
       <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>182</v>
       </c>
@@ -1938,8 +2146,9 @@
       <c r="CN4" s="16" t="s">
         <v>171</v>
       </c>
+      <c r="CO4" s="16"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -2062,8 +2271,9 @@
       <c r="CN5" s="16" t="s">
         <v>173</v>
       </c>
+      <c r="CO5" s="16"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>184</v>
       </c>
@@ -2176,8 +2386,9 @@
       <c r="CL6" s="16"/>
       <c r="CM6" s="16"/>
       <c r="CN6" s="16"/>
+      <c r="CO6" s="16"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -2292,8 +2503,9 @@
         <v>170</v>
       </c>
       <c r="CN7" s="16"/>
+      <c r="CO7" s="16"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>186</v>
       </c>
@@ -2408,8 +2620,9 @@
         <v>181</v>
       </c>
       <c r="CN8" s="19"/>
+      <c r="CO8" s="19"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -2530,6 +2743,739 @@
       </c>
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
+      <c r="CO9" s="1"/>
+    </row>
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="25"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" s="25"/>
+      <c r="BM10" s="25"/>
+      <c r="BN10" s="25"/>
+      <c r="BO10" s="25"/>
+      <c r="BP10" s="25"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25"/>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="25"/>
+      <c r="BU10" s="25"/>
+      <c r="BV10" s="25"/>
+      <c r="BW10" s="25"/>
+      <c r="BX10" s="25"/>
+      <c r="BY10" s="25"/>
+      <c r="BZ10" s="25"/>
+      <c r="CA10" s="25"/>
+      <c r="CB10" s="25"/>
+      <c r="CC10" s="25"/>
+      <c r="CD10" s="25"/>
+      <c r="CE10" s="25"/>
+      <c r="CF10" s="25"/>
+      <c r="CG10" s="25"/>
+      <c r="CH10" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI10" s="26"/>
+      <c r="CJ10" s="26"/>
+      <c r="CK10" s="26"/>
+      <c r="CL10" s="26"/>
+      <c r="CM10" s="26"/>
+      <c r="CN10" s="26"/>
+      <c r="CO10" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="26"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
+      <c r="BM11" s="25"/>
+      <c r="BN11" s="25"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="25"/>
+      <c r="BQ11" s="25"/>
+      <c r="BR11" s="25"/>
+      <c r="BS11" s="25"/>
+      <c r="BT11" s="25"/>
+      <c r="BU11" s="25"/>
+      <c r="BV11" s="25"/>
+      <c r="BW11" s="25"/>
+      <c r="BX11" s="25"/>
+      <c r="BY11" s="25"/>
+      <c r="BZ11" s="25"/>
+      <c r="CA11" s="25"/>
+      <c r="CB11" s="25"/>
+      <c r="CC11" s="25"/>
+      <c r="CD11" s="25"/>
+      <c r="CE11" s="25"/>
+      <c r="CF11" s="25"/>
+      <c r="CG11" s="25"/>
+      <c r="CH11" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI11" s="26"/>
+      <c r="CJ11" s="26"/>
+      <c r="CK11" s="26"/>
+      <c r="CL11" s="26"/>
+      <c r="CM11" s="26"/>
+      <c r="CN11" s="26"/>
+      <c r="CO11" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="25"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="25"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="25"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="25"/>
+      <c r="BQ12" s="25"/>
+      <c r="BR12" s="25"/>
+      <c r="BS12" s="25"/>
+      <c r="BT12" s="25"/>
+      <c r="BU12" s="25"/>
+      <c r="BV12" s="25"/>
+      <c r="BW12" s="25"/>
+      <c r="BX12" s="25"/>
+      <c r="BY12" s="25"/>
+      <c r="BZ12" s="25"/>
+      <c r="CA12" s="25"/>
+      <c r="CB12" s="25"/>
+      <c r="CC12" s="25"/>
+      <c r="CD12" s="25"/>
+      <c r="CE12" s="25"/>
+      <c r="CF12" s="25"/>
+      <c r="CG12" s="25"/>
+      <c r="CH12" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI12" s="26"/>
+      <c r="CJ12" s="26"/>
+      <c r="CK12" s="26"/>
+      <c r="CL12" s="26"/>
+      <c r="CM12" s="26"/>
+      <c r="CN12" s="26"/>
+      <c r="CO12" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="25"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="26"/>
+      <c r="BF13" s="25"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="25"/>
+      <c r="BS13" s="25"/>
+      <c r="BT13" s="25"/>
+      <c r="BU13" s="25"/>
+      <c r="BV13" s="25"/>
+      <c r="BW13" s="25"/>
+      <c r="BX13" s="25"/>
+      <c r="BY13" s="25"/>
+      <c r="BZ13" s="25"/>
+      <c r="CA13" s="25"/>
+      <c r="CB13" s="25"/>
+      <c r="CC13" s="25"/>
+      <c r="CD13" s="25"/>
+      <c r="CE13" s="25"/>
+      <c r="CF13" s="25"/>
+      <c r="CG13" s="25"/>
+      <c r="CH13" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI13" s="26"/>
+      <c r="CJ13" s="26"/>
+      <c r="CK13" s="26"/>
+      <c r="CL13" s="26"/>
+      <c r="CM13" s="26"/>
+      <c r="CN13" s="26"/>
+      <c r="CO13" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="22"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="25"/>
+      <c r="BE14" s="26"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BS14" s="25"/>
+      <c r="BT14" s="25"/>
+      <c r="BU14" s="25"/>
+      <c r="BV14" s="25"/>
+      <c r="BW14" s="25"/>
+      <c r="BX14" s="25"/>
+      <c r="BY14" s="25"/>
+      <c r="BZ14" s="25"/>
+      <c r="CA14" s="25"/>
+      <c r="CB14" s="25"/>
+      <c r="CC14" s="25"/>
+      <c r="CD14" s="25"/>
+      <c r="CE14" s="25"/>
+      <c r="CF14" s="25"/>
+      <c r="CG14" s="25"/>
+      <c r="CH14" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI14" s="26"/>
+      <c r="CJ14" s="26"/>
+      <c r="CK14" s="26"/>
+      <c r="CL14" s="26"/>
+      <c r="CM14" s="26"/>
+      <c r="CN14" s="26"/>
+      <c r="CO14" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BQ15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BS15" s="25"/>
+      <c r="BT15" s="25"/>
+      <c r="BU15" s="25"/>
+      <c r="BV15" s="25"/>
+      <c r="BW15" s="25"/>
+      <c r="BX15" s="25"/>
+      <c r="BY15" s="25"/>
+      <c r="BZ15" s="25"/>
+      <c r="CA15" s="25"/>
+      <c r="CB15" s="25"/>
+      <c r="CC15" s="25"/>
+      <c r="CD15" s="25"/>
+      <c r="CE15" s="25"/>
+      <c r="CF15" s="25"/>
+      <c r="CG15" s="25"/>
+      <c r="CH15" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI15" s="26"/>
+      <c r="CJ15" s="26"/>
+      <c r="CK15" s="26"/>
+      <c r="CL15" s="26"/>
+      <c r="CM15" s="26"/>
+      <c r="CN15" s="26"/>
+      <c r="CO15" s="26" t="s">
+        <v>196</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B11625-085D-45E4-B01A-B3A1FBFD10E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889621E-5893-4101-950E-0BE5C77616FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="240">
   <si>
     <t>Environment</t>
   </si>
@@ -769,6 +769,68 @@
   </si>
   <si>
     <t>mubashir_SoGo@123</t>
+  </si>
+  <si>
+    <t>Smoke_TC15</t>
+  </si>
+  <si>
+    <t>Dar report</t>
+  </si>
+  <si>
+    <t>1. Login in to given account.
+2. Enter user credential and click on login. (After every release there will be a banner for some time, "e,g https://www.sogosurvey.com/static/maintenance.aspx", need to continue ahead by clicking X icon on top right corner)
+3. Click on Project dashboard.
+3. Select folder named as 'DAR DP'
+4. Hover over survey named as 'Safe Schools Survey - Students 2018' and click 'Report' icon.
+5. Click on Special Reports button and select 'Dimenssion Analysis' report in drop down
+6. From Time Period 1 column and Target Group 1, select DAR DP folder &gt; Safe Schools Survey - Students 2018
+6. From Time Period 2 column and Target Group 1, select DAR DP folder &gt; Safe Schools Survey - Students 2019
+7. Click on Generate button
+"8. Add follwing elements onto the canvas by clicking on Star icon:
+i) Overall score graph and data table
+ii) Comparion by time graph of overall score and and data table
+iii) Dimension score graph and data table
+iv) Comparion by time graph of Dimenscore score and and data table
+v) Rules and Regulations graph and data table
+vi) Comparion by time graph of Rules and Regulations and and data table
+vii) Highest and Lowerst ranking indicator
+viii) What is your ethnic group graph and data table
+ix) Please respond to the following statements.graph and data table
+x) Response Rate graph and data table
+xi)  Response Sorce graph and data table"
+9. Click on Report Canvas.
+10. Enter Report title as 'DAR DP'
+11. Enter Report description as 'Today's Date'
+12. Click on Segment icon given at top right corner
+13. Select Safe Schools Survey - Students 2018 in Select Survey drop down
+14. Select Q.5 a) in Select Segmentation Question drop down
+15. Select All answer options.
+16. Enter given email id in To field and click on Email Report button
+17. Accept alert message.</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Safe Schools Survey - Students 2018</t>
+  </si>
+  <si>
+    <t>sogo_ruksar_ep</t>
+  </si>
+  <si>
+    <t>Sogo@excx339</t>
+  </si>
+  <si>
+    <t>RMX2</t>
+  </si>
+  <si>
+    <t>DAR DP,Safe Schools Survey - Students 2018,DAR DP,Safe Schools Survey - Students 2019</t>
+  </si>
+  <si>
+    <t>DAR DP</t>
+  </si>
+  <si>
+    <t>9428824</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +1377,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,6 +1461,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -1410,10 +1486,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO15"/>
+  <dimension ref="A1:CO16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,6 +3553,140 @@
         <v>196</v>
       </c>
     </row>
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="22"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="26"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+      <c r="BR16" s="25"/>
+      <c r="BS16" s="25"/>
+      <c r="BT16" s="25"/>
+      <c r="BU16" s="25"/>
+      <c r="BV16" s="25"/>
+      <c r="BW16" s="25"/>
+      <c r="BX16" s="25"/>
+      <c r="BY16" s="25"/>
+      <c r="BZ16" s="25"/>
+      <c r="CA16" s="25"/>
+      <c r="CB16" s="25"/>
+      <c r="CC16" s="25"/>
+      <c r="CD16" s="25"/>
+      <c r="CE16" s="25"/>
+      <c r="CF16" s="25"/>
+      <c r="CG16" s="25"/>
+      <c r="CH16" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="CI16" s="26"/>
+      <c r="CJ16" s="26"/>
+      <c r="CK16" s="26"/>
+      <c r="CL16" s="26"/>
+      <c r="CM16" s="26"/>
+      <c r="CN16" s="26"/>
+      <c r="CO16" s="26" t="s">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3889621E-5893-4101-950E-0BE5C77616FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E10B1-4CE7-4652-A565-8F85D0265B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1489,7 +1489,7 @@
   <dimension ref="A1:CO16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E10B1-4CE7-4652-A565-8F85D0265B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AAA451-975D-4A85-BAD1-3F40AC4F44E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -13,26 +13,17 @@
     <sheet name="Users" sheetId="2" r:id="rId3"/>
     <sheet name="SmokeTC" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="246">
   <si>
     <t>Environment</t>
   </si>
@@ -535,9 +526,6 @@
     <t>INVITE DMX EXE DP</t>
   </si>
   <si>
-    <t>1010 NEW DMX DP EXE LIST [1010 records]</t>
-  </si>
-  <si>
     <t>Salutation;Gender;Last Name</t>
   </si>
   <si>
@@ -556,9 +544,6 @@
     <t>PALTROMINV DMX DP</t>
   </si>
   <si>
-    <t>New DMX DP PF SOGO [16 records]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Send SMS invites and reminder </t>
   </si>
   <si>
@@ -593,9 +578,6 @@
   </si>
   <si>
     <t>Smoke_TC7</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>SKIP</t>
@@ -832,6 +814,33 @@
   <si>
     <t>9428824</t>
   </si>
+  <si>
+    <t>1010 DMX EXE DP LIST NEW [1010 records]</t>
+  </si>
+  <si>
+    <t>Smoke_TC16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To send exe reminder </t>
+  </si>
+  <si>
+    <t>New DMX DP PF SOGO [10 records]</t>
+  </si>
+  <si>
+    <t>Test Invitation List [4 records]</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You have sent not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List Name not present on page.</t>
+  </si>
 </sst>
 </file>
 
@@ -860,12 +869,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -878,8 +881,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,14 +912,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
   </fills>
@@ -966,12 +977,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -992,15 +1003,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1379,8 +1391,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,30 +1460,30 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="A6" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1486,10 +1498,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO16"/>
+  <dimension ref="A1:CO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="CJ9" sqref="CJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1804,7 @@
         <v>150</v>
       </c>
       <c r="CO1" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
@@ -1818,8 +1830,8 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>188</v>
+      <c r="I2" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
@@ -1913,7 +1925,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1931,8 +1943,8 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>187</v>
+      <c r="I3" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1"/>
@@ -2101,7 +2113,7 @@
     </row>
     <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2122,8 +2134,8 @@
       <c r="H4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>187</v>
+      <c r="I4" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="1"/>
@@ -2208,25 +2220,25 @@
         <v>166</v>
       </c>
       <c r="CJ4" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="CK4" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="CK4" s="16" t="s">
+      <c r="CL4" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="CL4" s="16" t="s">
+      <c r="CM4" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="CM4" s="16" t="s">
+      <c r="CN4" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="CN4" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="CO4" s="16"/>
     </row>
     <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2241,14 +2253,14 @@
         <v>155</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>187</v>
+      <c r="I5" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="1"/>
@@ -2330,28 +2342,28 @@
         <v>283</v>
       </c>
       <c r="CI5" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CJ5" s="16" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="CK5" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="CL5" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="CL5" s="16" t="s">
+      <c r="CM5" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="CM5" s="16" t="s">
-        <v>170</v>
-      </c>
       <c r="CN5" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CO5" s="16"/>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -2366,16 +2378,18 @@
         <v>155</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J6" s="14"/>
+      <c r="I6" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>244</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
@@ -2456,7 +2470,7 @@
       </c>
       <c r="CI6" s="16"/>
       <c r="CJ6" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="CK6" s="16"/>
       <c r="CL6" s="16"/>
@@ -2466,7 +2480,7 @@
     </row>
     <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -2481,14 +2495,14 @@
         <v>155</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>242</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="1"/>
@@ -2571,19 +2585,19 @@
       </c>
       <c r="CI7" s="16"/>
       <c r="CJ7" s="16" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="CK7" s="16"/>
       <c r="CL7" s="16"/>
       <c r="CM7" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CN7" s="16"/>
       <c r="CO7" s="16"/>
     </row>
     <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -2598,16 +2612,18 @@
         <v>155</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="17"/>
+        <v>176</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -2688,12 +2704,12 @@
       </c>
       <c r="CI8" s="19"/>
       <c r="CJ8" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="CK8" s="19"/>
       <c r="CL8" s="19"/>
       <c r="CM8" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="CN8" s="19"/>
       <c r="CO8" s="19"/>
@@ -2721,8 +2737,8 @@
       <c r="H9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="20" t="s">
-        <v>187</v>
+      <c r="I9" s="28" t="s">
+        <v>243</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2803,16 +2819,16 @@
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
       <c r="CH9" s="1">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="CI9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CJ9" s="1" t="s">
-        <v>174</v>
+      <c r="CJ9" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>17</v>
@@ -2823,872 +2839,987 @@
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="23"/>
+      <c r="AQ10" s="23"/>
+      <c r="AR10" s="23"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="23"/>
+      <c r="AU10" s="23"/>
+      <c r="AV10" s="23"/>
+      <c r="AW10" s="23"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="23"/>
+      <c r="BA10" s="23"/>
+      <c r="BB10" s="23"/>
+      <c r="BC10" s="23"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="24"/>
+      <c r="BF10" s="23"/>
+      <c r="BG10" s="23"/>
+      <c r="BH10" s="23"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="23"/>
+      <c r="BK10" s="23"/>
+      <c r="BL10" s="23"/>
+      <c r="BM10" s="23"/>
+      <c r="BN10" s="23"/>
+      <c r="BO10" s="23"/>
+      <c r="BP10" s="23"/>
+      <c r="BQ10" s="23"/>
+      <c r="BR10" s="23"/>
+      <c r="BS10" s="23"/>
+      <c r="BT10" s="23"/>
+      <c r="BU10" s="23"/>
+      <c r="BV10" s="23"/>
+      <c r="BW10" s="23"/>
+      <c r="BX10" s="23"/>
+      <c r="BY10" s="23"/>
+      <c r="BZ10" s="23"/>
+      <c r="CA10" s="23"/>
+      <c r="CB10" s="23"/>
+      <c r="CC10" s="23"/>
+      <c r="CD10" s="23"/>
+      <c r="CE10" s="23"/>
+      <c r="CF10" s="23"/>
+      <c r="CG10" s="23"/>
+      <c r="CH10" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22" t="s">
+      <c r="CI10" s="24"/>
+      <c r="CJ10" s="24"/>
+      <c r="CK10" s="24"/>
+      <c r="CL10" s="24"/>
+      <c r="CM10" s="24"/>
+      <c r="CN10" s="24"/>
+      <c r="CO10" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="26"/>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
-      <c r="BJ10" s="25"/>
-      <c r="BK10" s="25"/>
-      <c r="BL10" s="25"/>
-      <c r="BM10" s="25"/>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="25"/>
-      <c r="BP10" s="25"/>
-      <c r="BQ10" s="25"/>
-      <c r="BR10" s="25"/>
-      <c r="BS10" s="25"/>
-      <c r="BT10" s="25"/>
-      <c r="BU10" s="25"/>
-      <c r="BV10" s="25"/>
-      <c r="BW10" s="25"/>
-      <c r="BX10" s="25"/>
-      <c r="BY10" s="25"/>
-      <c r="BZ10" s="25"/>
-      <c r="CA10" s="25"/>
-      <c r="CB10" s="25"/>
-      <c r="CC10" s="25"/>
-      <c r="CD10" s="25"/>
-      <c r="CE10" s="25"/>
-      <c r="CF10" s="25"/>
-      <c r="CG10" s="25"/>
-      <c r="CH10" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="CI10" s="26"/>
-      <c r="CJ10" s="26"/>
-      <c r="CK10" s="26"/>
-      <c r="CL10" s="26"/>
-      <c r="CM10" s="26"/>
-      <c r="CN10" s="26"/>
-      <c r="CO10" s="26" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="25"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="26"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="25"/>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="25"/>
-      <c r="BN11" s="25"/>
-      <c r="BO11" s="25"/>
-      <c r="BP11" s="25"/>
-      <c r="BQ11" s="25"/>
-      <c r="BR11" s="25"/>
-      <c r="BS11" s="25"/>
-      <c r="BT11" s="25"/>
-      <c r="BU11" s="25"/>
-      <c r="BV11" s="25"/>
-      <c r="BW11" s="25"/>
-      <c r="BX11" s="25"/>
-      <c r="BY11" s="25"/>
-      <c r="BZ11" s="25"/>
-      <c r="CA11" s="25"/>
-      <c r="CB11" s="25"/>
-      <c r="CC11" s="25"/>
-      <c r="CD11" s="25"/>
-      <c r="CE11" s="25"/>
-      <c r="CF11" s="25"/>
-      <c r="CG11" s="25"/>
-      <c r="CH11" s="26" t="s">
+      <c r="G11" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="CI11" s="26"/>
-      <c r="CJ11" s="26"/>
-      <c r="CK11" s="26"/>
-      <c r="CL11" s="26"/>
-      <c r="CM11" s="26"/>
-      <c r="CN11" s="26"/>
-      <c r="CO11" s="26" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="20" t="s">
         <v>196</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="23"/>
+      <c r="AP11" s="23"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="23"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="23"/>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="23"/>
+      <c r="BE11" s="24"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="23"/>
+      <c r="BK11" s="23"/>
+      <c r="BL11" s="23"/>
+      <c r="BM11" s="23"/>
+      <c r="BN11" s="23"/>
+      <c r="BO11" s="23"/>
+      <c r="BP11" s="23"/>
+      <c r="BQ11" s="23"/>
+      <c r="BR11" s="23"/>
+      <c r="BS11" s="23"/>
+      <c r="BT11" s="23"/>
+      <c r="BU11" s="23"/>
+      <c r="BV11" s="23"/>
+      <c r="BW11" s="23"/>
+      <c r="BX11" s="23"/>
+      <c r="BY11" s="23"/>
+      <c r="BZ11" s="23"/>
+      <c r="CA11" s="23"/>
+      <c r="CB11" s="23"/>
+      <c r="CC11" s="23"/>
+      <c r="CD11" s="23"/>
+      <c r="CE11" s="23"/>
+      <c r="CF11" s="23"/>
+      <c r="CG11" s="23"/>
+      <c r="CH11" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI11" s="24"/>
+      <c r="CJ11" s="24"/>
+      <c r="CK11" s="24"/>
+      <c r="CL11" s="24"/>
+      <c r="CM11" s="24"/>
+      <c r="CN11" s="24"/>
+      <c r="CO11" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="25"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="25"/>
-      <c r="BB12" s="25"/>
-      <c r="BC12" s="25"/>
-      <c r="BD12" s="25"/>
-      <c r="BE12" s="26"/>
-      <c r="BF12" s="25"/>
-      <c r="BG12" s="25"/>
-      <c r="BH12" s="25"/>
-      <c r="BI12" s="25"/>
-      <c r="BJ12" s="25"/>
-      <c r="BK12" s="25"/>
-      <c r="BL12" s="25"/>
-      <c r="BM12" s="25"/>
-      <c r="BN12" s="25"/>
-      <c r="BO12" s="25"/>
-      <c r="BP12" s="25"/>
-      <c r="BQ12" s="25"/>
-      <c r="BR12" s="25"/>
-      <c r="BS12" s="25"/>
-      <c r="BT12" s="25"/>
-      <c r="BU12" s="25"/>
-      <c r="BV12" s="25"/>
-      <c r="BW12" s="25"/>
-      <c r="BX12" s="25"/>
-      <c r="BY12" s="25"/>
-      <c r="BZ12" s="25"/>
-      <c r="CA12" s="25"/>
-      <c r="CB12" s="25"/>
-      <c r="CC12" s="25"/>
-      <c r="CD12" s="25"/>
-      <c r="CE12" s="25"/>
-      <c r="CF12" s="25"/>
-      <c r="CG12" s="25"/>
-      <c r="CH12" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="CI12" s="26"/>
-      <c r="CJ12" s="26"/>
-      <c r="CK12" s="26"/>
-      <c r="CL12" s="26"/>
-      <c r="CM12" s="26"/>
-      <c r="CN12" s="26"/>
-      <c r="CO12" s="26" t="s">
-        <v>196</v>
+      <c r="F12" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="23"/>
+      <c r="AQ12" s="23"/>
+      <c r="AR12" s="23"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="23"/>
+      <c r="AU12" s="23"/>
+      <c r="AV12" s="23"/>
+      <c r="AW12" s="23"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="23"/>
+      <c r="AZ12" s="23"/>
+      <c r="BA12" s="23"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="23"/>
+      <c r="BD12" s="23"/>
+      <c r="BE12" s="24"/>
+      <c r="BF12" s="23"/>
+      <c r="BG12" s="23"/>
+      <c r="BH12" s="23"/>
+      <c r="BI12" s="23"/>
+      <c r="BJ12" s="23"/>
+      <c r="BK12" s="23"/>
+      <c r="BL12" s="23"/>
+      <c r="BM12" s="23"/>
+      <c r="BN12" s="23"/>
+      <c r="BO12" s="23"/>
+      <c r="BP12" s="23"/>
+      <c r="BQ12" s="23"/>
+      <c r="BR12" s="23"/>
+      <c r="BS12" s="23"/>
+      <c r="BT12" s="23"/>
+      <c r="BU12" s="23"/>
+      <c r="BV12" s="23"/>
+      <c r="BW12" s="23"/>
+      <c r="BX12" s="23"/>
+      <c r="BY12" s="23"/>
+      <c r="BZ12" s="23"/>
+      <c r="CA12" s="23"/>
+      <c r="CB12" s="23"/>
+      <c r="CC12" s="23"/>
+      <c r="CD12" s="23"/>
+      <c r="CE12" s="23"/>
+      <c r="CF12" s="23"/>
+      <c r="CG12" s="23"/>
+      <c r="CH12" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI12" s="24"/>
+      <c r="CJ12" s="24"/>
+      <c r="CK12" s="24"/>
+      <c r="CL12" s="24"/>
+      <c r="CM12" s="24"/>
+      <c r="CN12" s="24"/>
+      <c r="CO12" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="25"/>
-      <c r="BD13" s="25"/>
-      <c r="BE13" s="26"/>
-      <c r="BF13" s="25"/>
-      <c r="BG13" s="25"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="25"/>
-      <c r="BK13" s="25"/>
-      <c r="BL13" s="25"/>
-      <c r="BM13" s="25"/>
-      <c r="BN13" s="25"/>
-      <c r="BO13" s="25"/>
-      <c r="BP13" s="25"/>
-      <c r="BQ13" s="25"/>
-      <c r="BR13" s="25"/>
-      <c r="BS13" s="25"/>
-      <c r="BT13" s="25"/>
-      <c r="BU13" s="25"/>
-      <c r="BV13" s="25"/>
-      <c r="BW13" s="25"/>
-      <c r="BX13" s="25"/>
-      <c r="BY13" s="25"/>
-      <c r="BZ13" s="25"/>
-      <c r="CA13" s="25"/>
-      <c r="CB13" s="25"/>
-      <c r="CC13" s="25"/>
-      <c r="CD13" s="25"/>
-      <c r="CE13" s="25"/>
-      <c r="CF13" s="25"/>
-      <c r="CG13" s="25"/>
-      <c r="CH13" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="CI13" s="26"/>
-      <c r="CJ13" s="26"/>
-      <c r="CK13" s="26"/>
-      <c r="CL13" s="26"/>
-      <c r="CM13" s="26"/>
-      <c r="CN13" s="26"/>
-      <c r="CO13" s="26" t="s">
-        <v>196</v>
+      <c r="F13" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="23"/>
+      <c r="AP13" s="23"/>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="23"/>
+      <c r="BK13" s="23"/>
+      <c r="BL13" s="23"/>
+      <c r="BM13" s="23"/>
+      <c r="BN13" s="23"/>
+      <c r="BO13" s="23"/>
+      <c r="BP13" s="23"/>
+      <c r="BQ13" s="23"/>
+      <c r="BR13" s="23"/>
+      <c r="BS13" s="23"/>
+      <c r="BT13" s="23"/>
+      <c r="BU13" s="23"/>
+      <c r="BV13" s="23"/>
+      <c r="BW13" s="23"/>
+      <c r="BX13" s="23"/>
+      <c r="BY13" s="23"/>
+      <c r="BZ13" s="23"/>
+      <c r="CA13" s="23"/>
+      <c r="CB13" s="23"/>
+      <c r="CC13" s="23"/>
+      <c r="CD13" s="23"/>
+      <c r="CE13" s="23"/>
+      <c r="CF13" s="23"/>
+      <c r="CG13" s="23"/>
+      <c r="CH13" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI13" s="24"/>
+      <c r="CJ13" s="24"/>
+      <c r="CK13" s="24"/>
+      <c r="CL13" s="24"/>
+      <c r="CM13" s="24"/>
+      <c r="CN13" s="24"/>
+      <c r="CO13" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="26"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="25"/>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="25"/>
-      <c r="BN14" s="25"/>
-      <c r="BO14" s="25"/>
-      <c r="BP14" s="25"/>
-      <c r="BQ14" s="25"/>
-      <c r="BR14" s="25"/>
-      <c r="BS14" s="25"/>
-      <c r="BT14" s="25"/>
-      <c r="BU14" s="25"/>
-      <c r="BV14" s="25"/>
-      <c r="BW14" s="25"/>
-      <c r="BX14" s="25"/>
-      <c r="BY14" s="25"/>
-      <c r="BZ14" s="25"/>
-      <c r="CA14" s="25"/>
-      <c r="CB14" s="25"/>
-      <c r="CC14" s="25"/>
-      <c r="CD14" s="25"/>
-      <c r="CE14" s="25"/>
-      <c r="CF14" s="25"/>
-      <c r="CG14" s="25"/>
-      <c r="CH14" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="CI14" s="26"/>
-      <c r="CJ14" s="26"/>
-      <c r="CK14" s="26"/>
-      <c r="CL14" s="26"/>
-      <c r="CM14" s="26"/>
-      <c r="CN14" s="26"/>
-      <c r="CO14" s="26" t="s">
-        <v>196</v>
+      <c r="F14" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="22"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="23"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="24"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="23"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="23"/>
+      <c r="BK14" s="23"/>
+      <c r="BL14" s="23"/>
+      <c r="BM14" s="23"/>
+      <c r="BN14" s="23"/>
+      <c r="BO14" s="23"/>
+      <c r="BP14" s="23"/>
+      <c r="BQ14" s="23"/>
+      <c r="BR14" s="23"/>
+      <c r="BS14" s="23"/>
+      <c r="BT14" s="23"/>
+      <c r="BU14" s="23"/>
+      <c r="BV14" s="23"/>
+      <c r="BW14" s="23"/>
+      <c r="BX14" s="23"/>
+      <c r="BY14" s="23"/>
+      <c r="BZ14" s="23"/>
+      <c r="CA14" s="23"/>
+      <c r="CB14" s="23"/>
+      <c r="CC14" s="23"/>
+      <c r="CD14" s="23"/>
+      <c r="CE14" s="23"/>
+      <c r="CF14" s="23"/>
+      <c r="CG14" s="23"/>
+      <c r="CH14" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI14" s="24"/>
+      <c r="CJ14" s="24"/>
+      <c r="CK14" s="24"/>
+      <c r="CL14" s="24"/>
+      <c r="CM14" s="24"/>
+      <c r="CN14" s="24"/>
+      <c r="CO14" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="22" t="s">
+      <c r="N15" s="20"/>
+      <c r="O15" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="P15" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="Q15" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="24" t="s">
+      <c r="R15" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="T15" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="U15" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="R15" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="T15" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
-      <c r="BD15" s="25"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="25"/>
-      <c r="BG15" s="25"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="25"/>
-      <c r="BN15" s="25"/>
-      <c r="BO15" s="25"/>
-      <c r="BP15" s="25"/>
-      <c r="BQ15" s="25"/>
-      <c r="BR15" s="25"/>
-      <c r="BS15" s="25"/>
-      <c r="BT15" s="25"/>
-      <c r="BU15" s="25"/>
-      <c r="BV15" s="25"/>
-      <c r="BW15" s="25"/>
-      <c r="BX15" s="25"/>
-      <c r="BY15" s="25"/>
-      <c r="BZ15" s="25"/>
-      <c r="CA15" s="25"/>
-      <c r="CB15" s="25"/>
-      <c r="CC15" s="25"/>
-      <c r="CD15" s="25"/>
-      <c r="CE15" s="25"/>
-      <c r="CF15" s="25"/>
-      <c r="CG15" s="25"/>
-      <c r="CH15" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="CI15" s="26"/>
-      <c r="CJ15" s="26"/>
-      <c r="CK15" s="26"/>
-      <c r="CL15" s="26"/>
-      <c r="CM15" s="26"/>
-      <c r="CN15" s="26"/>
-      <c r="CO15" s="26" t="s">
-        <v>196</v>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="20"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="23"/>
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="23"/>
+      <c r="AU15" s="23"/>
+      <c r="AV15" s="23"/>
+      <c r="AW15" s="23"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="23"/>
+      <c r="AZ15" s="23"/>
+      <c r="BA15" s="23"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="23"/>
+      <c r="BD15" s="23"/>
+      <c r="BE15" s="24"/>
+      <c r="BF15" s="23"/>
+      <c r="BG15" s="23"/>
+      <c r="BH15" s="23"/>
+      <c r="BI15" s="23"/>
+      <c r="BJ15" s="23"/>
+      <c r="BK15" s="23"/>
+      <c r="BL15" s="23"/>
+      <c r="BM15" s="23"/>
+      <c r="BN15" s="23"/>
+      <c r="BO15" s="23"/>
+      <c r="BP15" s="23"/>
+      <c r="BQ15" s="23"/>
+      <c r="BR15" s="23"/>
+      <c r="BS15" s="23"/>
+      <c r="BT15" s="23"/>
+      <c r="BU15" s="23"/>
+      <c r="BV15" s="23"/>
+      <c r="BW15" s="23"/>
+      <c r="BX15" s="23"/>
+      <c r="BY15" s="23"/>
+      <c r="BZ15" s="23"/>
+      <c r="CA15" s="23"/>
+      <c r="CB15" s="23"/>
+      <c r="CC15" s="23"/>
+      <c r="CD15" s="23"/>
+      <c r="CE15" s="23"/>
+      <c r="CF15" s="23"/>
+      <c r="CG15" s="23"/>
+      <c r="CH15" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI15" s="24"/>
+      <c r="CJ15" s="24"/>
+      <c r="CK15" s="24"/>
+      <c r="CL15" s="24"/>
+      <c r="CM15" s="24"/>
+      <c r="CN15" s="24"/>
+      <c r="CO15" s="24" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="22"/>
+      <c r="AM16" s="22"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="23"/>
+      <c r="AP16" s="23"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="23"/>
+      <c r="AT16" s="23"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="23"/>
+      <c r="AY16" s="23"/>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="23"/>
+      <c r="BC16" s="23"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="24"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
+      <c r="BK16" s="23"/>
+      <c r="BL16" s="23"/>
+      <c r="BM16" s="23"/>
+      <c r="BN16" s="23"/>
+      <c r="BO16" s="23"/>
+      <c r="BP16" s="23"/>
+      <c r="BQ16" s="23"/>
+      <c r="BR16" s="23"/>
+      <c r="BS16" s="23"/>
+      <c r="BT16" s="23"/>
+      <c r="BU16" s="23"/>
+      <c r="BV16" s="23"/>
+      <c r="BW16" s="23"/>
+      <c r="BX16" s="23"/>
+      <c r="BY16" s="23"/>
+      <c r="BZ16" s="23"/>
+      <c r="CA16" s="23"/>
+      <c r="CB16" s="23"/>
+      <c r="CC16" s="23"/>
+      <c r="CD16" s="23"/>
+      <c r="CE16" s="23"/>
+      <c r="CF16" s="23"/>
+      <c r="CG16" s="23"/>
+      <c r="CH16" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="CI16" s="24"/>
+      <c r="CJ16" s="24"/>
+      <c r="CK16" s="24"/>
+      <c r="CL16" s="24"/>
+      <c r="CM16" s="24"/>
+      <c r="CN16" s="24"/>
+      <c r="CO16" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="M16" s="24" t="s">
+      <c r="E17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="T16" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="25"/>
-      <c r="AZ16" s="25"/>
-      <c r="BA16" s="25"/>
-      <c r="BB16" s="25"/>
-      <c r="BC16" s="25"/>
-      <c r="BD16" s="25"/>
-      <c r="BE16" s="26"/>
-      <c r="BF16" s="25"/>
-      <c r="BG16" s="25"/>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="25"/>
-      <c r="BJ16" s="25"/>
-      <c r="BK16" s="25"/>
-      <c r="BL16" s="25"/>
-      <c r="BM16" s="25"/>
-      <c r="BN16" s="25"/>
-      <c r="BO16" s="25"/>
-      <c r="BP16" s="25"/>
-      <c r="BQ16" s="25"/>
-      <c r="BR16" s="25"/>
-      <c r="BS16" s="25"/>
-      <c r="BT16" s="25"/>
-      <c r="BU16" s="25"/>
-      <c r="BV16" s="25"/>
-      <c r="BW16" s="25"/>
-      <c r="BX16" s="25"/>
-      <c r="BY16" s="25"/>
-      <c r="BZ16" s="25"/>
-      <c r="CA16" s="25"/>
-      <c r="CB16" s="25"/>
-      <c r="CC16" s="25"/>
-      <c r="CD16" s="25"/>
-      <c r="CE16" s="25"/>
-      <c r="CF16" s="25"/>
-      <c r="CG16" s="25"/>
-      <c r="CH16" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="CI16" s="26"/>
-      <c r="CJ16" s="26"/>
-      <c r="CK16" s="26"/>
-      <c r="CL16" s="26"/>
-      <c r="CM16" s="26"/>
-      <c r="CN16" s="26"/>
-      <c r="CO16" s="26" t="s">
-        <v>233</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="15"/>
+      <c r="BO17" s="15"/>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="15"/>
+      <c r="BS17" s="15"/>
+      <c r="BT17" s="15"/>
+      <c r="BU17" s="15"/>
+      <c r="BV17" s="15"/>
+      <c r="BW17" s="15"/>
+      <c r="BX17" s="15"/>
+      <c r="BY17" s="15"/>
+      <c r="BZ17" s="15"/>
+      <c r="CA17" s="15"/>
+      <c r="CB17" s="15"/>
+      <c r="CC17" s="15"/>
+      <c r="CD17" s="15"/>
+      <c r="CE17" s="15"/>
+      <c r="CF17" s="15"/>
+      <c r="CG17" s="15"/>
+      <c r="CH17" s="1">
+        <v>282</v>
+      </c>
+      <c r="CI17" s="16"/>
+      <c r="CJ17" s="16"/>
+      <c r="CK17" s="16"/>
+      <c r="CL17" s="16"/>
+      <c r="CM17" s="16"/>
+      <c r="CN17" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="CO17" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AAA451-975D-4A85-BAD1-3F40AC4F44E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53DCB4-2DD4-4FF9-805B-1AA4BD0B7A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="258">
   <si>
     <t>Environment</t>
   </si>
@@ -601,9 +601,6 @@
   </si>
   <si>
     <t xml:space="preserve">OMNI DP  - </t>
-  </si>
-  <si>
-    <t>jreddy@zarca.com</t>
   </si>
   <si>
     <t>3</t>
@@ -841,12 +838,52 @@
   <si>
     <t xml:space="preserve"> List Name not present on page.</t>
   </si>
+  <si>
+    <t>ggolatkar@zarca.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to find element Toaster - Close on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This report has been saved as is not present on page.</t>
+  </si>
+  <si>
+    <t>Smoke_TC17</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Data Import</t>
+  </si>
+  <si>
+    <t>DATA DP SURVEY 2</t>
+  </si>
+  <si>
+    <t>SoGo Data Import File.xls</t>
+  </si>
+  <si>
+    <t>sogo_mjitender1</t>
+  </si>
+  <si>
+    <t>Jittu@123</t>
+  </si>
+  <si>
+    <t>Smoke_TC18</t>
+  </si>
+  <si>
+    <t>Data Export</t>
+  </si>
+  <si>
+    <t>DATA DP SURVEY 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,8 +923,19 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +966,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -982,7 +1060,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1010,9 +1088,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1307,8 +1391,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,9 +1435,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,18 +1473,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" activeCellId="1" sqref="A7:D8 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,10 +1548,10 @@
         <v>187</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>225</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
@@ -1475,21 +1559,52 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>232</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{702B9475-C84C-4FE3-827C-5DA32183EACA}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{F0C2501D-C643-42A3-B68D-840128CAECCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1498,32 +1613,32 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO17"/>
+  <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CJ9" sqref="CJ9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1804,7 +1919,7 @@
         <v>150</v>
       </c>
       <c r="CO1" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.25">
@@ -1830,7 +1945,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J2" s="4"/>
@@ -1943,7 +2058,7 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J3" s="14"/>
@@ -2116,7 +2231,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -2134,8 +2249,8 @@
       <c r="H4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>242</v>
+      <c r="I4" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="1"/>
@@ -2220,7 +2335,7 @@
         <v>166</v>
       </c>
       <c r="CJ4" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CK4" s="16" t="s">
         <v>167</v>
@@ -2241,7 +2356,7 @@
         <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
@@ -2259,8 +2374,8 @@
       <c r="H5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>242</v>
+      <c r="I5" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="1"/>
@@ -2345,7 +2460,7 @@
         <v>172</v>
       </c>
       <c r="CJ5" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CK5" s="16" t="s">
         <v>167</v>
@@ -2366,7 +2481,7 @@
         <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -2384,11 +2499,11 @@
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -2483,7 +2598,7 @@
         <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2501,8 +2616,8 @@
       <c r="H7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>242</v>
+      <c r="I7" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="1"/>
@@ -2585,7 +2700,7 @@
       </c>
       <c r="CI7" s="16"/>
       <c r="CJ7" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CK7" s="16"/>
       <c r="CL7" s="16"/>
@@ -2600,7 +2715,7 @@
         <v>184</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
@@ -2618,11 +2733,11 @@
       <c r="H8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>243</v>
+      <c r="I8" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
@@ -2719,7 +2834,7 @@
         <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -2737,8 +2852,8 @@
       <c r="H9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>243</v>
+      <c r="I9" s="34" t="s">
+        <v>185</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2825,7 +2940,7 @@
         <v>163</v>
       </c>
       <c r="CJ9" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CK9" s="1" t="s">
         <v>186</v>
@@ -2839,7 +2954,7 @@
     </row>
     <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -2860,10 +2975,12 @@
         <v>189</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="21" t="s">
+        <v>247</v>
+      </c>
       <c r="K10" s="20" t="s">
         <v>190</v>
       </c>
@@ -2878,8 +2995,8 @@
       <c r="T10" s="20"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
-      <c r="W10" s="22" t="s">
-        <v>191</v>
+      <c r="W10" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -2944,7 +3061,7 @@
       <c r="CF10" s="23"/>
       <c r="CG10" s="23"/>
       <c r="CH10" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CI10" s="24"/>
       <c r="CJ10" s="24"/>
@@ -2953,12 +3070,12 @@
       <c r="CM10" s="24"/>
       <c r="CN10" s="24"/>
       <c r="CO10" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -2973,18 +3090,20 @@
         <v>187</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>195</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20" t="s">
-        <v>196</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -2997,8 +3116,8 @@
       <c r="T11" s="20"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
-      <c r="W11" s="22" t="s">
-        <v>191</v>
+      <c r="W11" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3063,7 +3182,7 @@
       <c r="CF11" s="23"/>
       <c r="CG11" s="23"/>
       <c r="CH11" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CI11" s="24"/>
       <c r="CJ11" s="24"/>
@@ -3072,12 +3191,12 @@
       <c r="CM11" s="24"/>
       <c r="CN11" s="24"/>
       <c r="CO11" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -3092,18 +3211,18 @@
         <v>187</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>198</v>
-      </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -3116,8 +3235,8 @@
       <c r="T12" s="20"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
-      <c r="W12" s="22" t="s">
-        <v>191</v>
+      <c r="W12" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3182,7 +3301,7 @@
       <c r="CF12" s="23"/>
       <c r="CG12" s="23"/>
       <c r="CH12" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CI12" s="24"/>
       <c r="CJ12" s="24"/>
@@ -3191,12 +3310,12 @@
       <c r="CM12" s="24"/>
       <c r="CN12" s="24"/>
       <c r="CO12" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -3211,18 +3330,18 @@
         <v>187</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>201</v>
-      </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -3235,8 +3354,8 @@
       <c r="T13" s="20"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
-      <c r="W13" s="22" t="s">
-        <v>191</v>
+      <c r="W13" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3301,7 +3420,7 @@
       <c r="CF13" s="23"/>
       <c r="CG13" s="23"/>
       <c r="CH13" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CI13" s="24"/>
       <c r="CJ13" s="24"/>
@@ -3310,12 +3429,12 @@
       <c r="CM13" s="24"/>
       <c r="CN13" s="24"/>
       <c r="CO13" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -3330,19 +3449,19 @@
         <v>187</v>
       </c>
       <c r="F14" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>204</v>
-      </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="20"/>
       <c r="L14" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="20"/>
@@ -3354,8 +3473,8 @@
       <c r="T14" s="20"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
-      <c r="W14" s="22" t="s">
-        <v>191</v>
+      <c r="W14" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3420,7 +3539,7 @@
       <c r="CF14" s="23"/>
       <c r="CG14" s="23"/>
       <c r="CH14" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CI14" s="24"/>
       <c r="CJ14" s="24"/>
@@ -3429,12 +3548,12 @@
       <c r="CM14" s="24"/>
       <c r="CN14" s="24"/>
       <c r="CO14" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -3449,50 +3568,50 @@
         <v>187</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>207</v>
-      </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="M15" s="21" t="s">
         <v>209</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>210</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="Q15" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="R15" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="R15" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="S15" s="22" t="s">
+      <c r="T15" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="U15" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="U15" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="V15" s="22"/>
-      <c r="W15" s="22" t="s">
-        <v>191</v>
+      <c r="W15" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3557,7 +3676,7 @@
       <c r="CF15" s="23"/>
       <c r="CG15" s="23"/>
       <c r="CH15" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="CI15" s="24"/>
       <c r="CJ15" s="24"/>
@@ -3566,12 +3685,12 @@
       <c r="CM15" s="24"/>
       <c r="CN15" s="24"/>
       <c r="CO15" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -3583,50 +3702,50 @@
         <v>17</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>228</v>
-      </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="S16" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="R16" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="S16" s="22" t="s">
+      <c r="T16" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="U16" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="U16" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="V16" s="22"/>
-      <c r="W16" s="22" t="s">
-        <v>191</v>
+      <c r="W16" s="27" t="s">
+        <v>245</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3691,7 +3810,7 @@
       <c r="CF16" s="23"/>
       <c r="CG16" s="23"/>
       <c r="CH16" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CI16" s="24"/>
       <c r="CJ16" s="24"/>
@@ -3700,12 +3819,12 @@
       <c r="CM16" s="24"/>
       <c r="CN16" s="24"/>
       <c r="CO16" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -3720,13 +3839,13 @@
         <v>155</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="14"/>
@@ -3818,12 +3937,244 @@
       </c>
       <c r="CO17" s="16"/>
     </row>
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="15"/>
+      <c r="BO18" s="15"/>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="15"/>
+      <c r="BS18" s="15"/>
+      <c r="BT18" s="15"/>
+      <c r="BU18" s="15"/>
+      <c r="BV18" s="15"/>
+      <c r="BW18" s="15"/>
+      <c r="BX18" s="15"/>
+      <c r="BY18" s="15"/>
+      <c r="BZ18" s="15"/>
+      <c r="CA18" s="15"/>
+      <c r="CB18" s="15"/>
+      <c r="CC18" s="15"/>
+      <c r="CD18" s="15"/>
+      <c r="CE18" s="15"/>
+      <c r="CF18" s="15"/>
+      <c r="CG18" s="15"/>
+      <c r="CH18" s="1">
+        <v>320</v>
+      </c>
+      <c r="CI18" s="16"/>
+      <c r="CJ18" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="CK18" s="16"/>
+      <c r="CL18" s="16"/>
+      <c r="CM18" s="16"/>
+      <c r="CN18" s="16"/>
+      <c r="CO18" s="16"/>
+    </row>
+    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="16"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="15"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="15"/>
+      <c r="BU19" s="15"/>
+      <c r="BV19" s="15"/>
+      <c r="BW19" s="15"/>
+      <c r="BX19" s="15"/>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="15"/>
+      <c r="CA19" s="15"/>
+      <c r="CB19" s="15"/>
+      <c r="CC19" s="15"/>
+      <c r="CD19" s="15"/>
+      <c r="CE19" s="15"/>
+      <c r="CF19" s="15"/>
+      <c r="CG19" s="15"/>
+      <c r="CH19" s="1">
+        <v>256</v>
+      </c>
+      <c r="CI19" s="16"/>
+      <c r="CJ19" s="16"/>
+      <c r="CK19" s="16"/>
+      <c r="CL19" s="16"/>
+      <c r="CM19" s="16"/>
+      <c r="CN19" s="16"/>
+      <c r="CO19" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W10" r:id="rId2" xr:uid="{9E455840-DC38-468E-816E-C20661A2FB36}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{D0365AAE-CB14-46D7-8BAC-E8A4707EE08D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53DCB4-2DD4-4FF9-805B-1AA4BD0B7A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE06CB-4D86-4F69-ACE7-996FD3292506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="0" windowWidth="15150" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="260">
   <si>
     <t>Environment</t>
   </si>
@@ -830,60 +830,65 @@
     <t>PASS</t>
   </si>
   <si>
+    <t xml:space="preserve"> You have sent not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List Name not present on page.</t>
+  </si>
+  <si>
+    <t>ggolatkar@zarca.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to find element Toaster - Close on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This report has been saved as is not present on page.</t>
+  </si>
+  <si>
+    <t>Smoke_TC17</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Data Import</t>
+  </si>
+  <si>
+    <t>DATA DP SURVEY 2</t>
+  </si>
+  <si>
+    <t>SoGo Data Import File.xls</t>
+  </si>
+  <si>
+    <t>sogo_mjitender1</t>
+  </si>
+  <si>
+    <t>Jittu@123</t>
+  </si>
+  <si>
+    <t>Smoke_TC18</t>
+  </si>
+  <si>
+    <t>Data Export</t>
+  </si>
+  <si>
+    <t>DATA DP SURVEY 3</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t xml:space="preserve"> You have sent not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> List Name not present on page.</t>
-  </si>
-  <si>
-    <t>ggolatkar@zarca.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not able to find element Toaster - Close on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This report has been saved as is not present on page.</t>
-  </si>
-  <si>
-    <t>Smoke_TC17</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>Data Import</t>
-  </si>
-  <si>
-    <t>DATA DP SURVEY 2</t>
-  </si>
-  <si>
-    <t>SoGo Data Import File.xls</t>
-  </si>
-  <si>
-    <t>sogo_mjitender1</t>
-  </si>
-  <si>
-    <t>Jittu@123</t>
-  </si>
-  <si>
-    <t>Smoke_TC18</t>
-  </si>
-  <si>
-    <t>Data Export</t>
-  </si>
-  <si>
-    <t>DATA DP SURVEY 3</t>
+    <t>Q 1(b). Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>DP - Segment group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,19 +928,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,36 +960,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1060,7 +1024,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1089,14 +1053,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1391,8 +1351,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,9 +1395,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,10 +1441,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,13 +1533,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>253</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>254</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
@@ -1587,13 +1547,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>253</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>254</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -1615,30 +1575,30 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1945,7 +1905,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J2" s="4"/>
@@ -2058,7 +2018,7 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J3" s="14"/>
@@ -2249,7 +2209,7 @@
       <c r="H4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J4" s="14"/>
@@ -2374,7 +2334,7 @@
       <c r="H5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J5" s="14"/>
@@ -2499,11 +2459,11 @@
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -2616,7 +2576,7 @@
       <c r="H7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J7" s="14"/>
@@ -2733,11 +2693,11 @@
       <c r="H8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
@@ -2852,7 +2812,7 @@
       <c r="H9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J9" s="1"/>
@@ -2957,7 +2917,7 @@
         <v>216</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>15</v>
@@ -2975,11 +2935,11 @@
         <v>189</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="34" t="s">
-        <v>185</v>
+      <c r="I10" s="29" t="s">
+        <v>241</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>190</v>
@@ -2987,8 +2947,12 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="O10" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
@@ -2996,7 +2960,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -3078,7 +3042,7 @@
         <v>217</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>15</v>
@@ -3096,11 +3060,11 @@
         <v>194</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="34" t="s">
-        <v>185</v>
+      <c r="I11" s="30" t="s">
+        <v>257</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>195</v>
@@ -3117,7 +3081,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3217,7 +3181,7 @@
         <v>197</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J12" s="21"/>
@@ -3236,7 +3200,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3336,7 +3300,7 @@
         <v>200</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J13" s="21"/>
@@ -3355,7 +3319,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3455,7 +3419,7 @@
         <v>203</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="21"/>
@@ -3474,7 +3438,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3574,7 +3538,7 @@
         <v>206</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J15" s="21"/>
@@ -3611,7 +3575,7 @@
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3711,7 +3675,7 @@
         <v>227</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="21"/>
@@ -3745,7 +3709,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3845,7 +3809,7 @@
       <c r="H17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="31" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="14"/>
@@ -3939,10 +3903,10 @@
     </row>
     <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3951,15 +3915,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="32" t="s">
-        <v>241</v>
+      <c r="I18" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="1"/>
@@ -3998,7 +3962,7 @@
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
       <c r="AT18" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
@@ -4044,7 +4008,7 @@
       </c>
       <c r="CI18" s="16"/>
       <c r="CJ18" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CK18" s="16"/>
       <c r="CL18" s="16"/>
@@ -4054,10 +4018,10 @@
     </row>
     <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4066,15 +4030,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="32" t="s">
-        <v>241</v>
+      <c r="I19" s="31" t="s">
+        <v>185</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="1"/>
@@ -4115,7 +4079,7 @@
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53DCB4-2DD4-4FF9-805B-1AA4BD0B7A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403201B-3EA8-4CBB-BEAE-66EDDDA6540D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="260">
   <si>
     <t>Environment</t>
   </si>
@@ -830,18 +830,9 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> You have sent not present on page.</t>
   </si>
   <si>
-    <t xml:space="preserve"> List Name not present on page.</t>
-  </si>
-  <si>
-    <t>ggolatkar@zarca.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Not able to find element Toaster - Close on page.</t>
   </si>
   <si>
@@ -876,6 +867,21 @@
   </si>
   <si>
     <t>DATA DP SURVEY 3</t>
+  </si>
+  <si>
+    <t>ayadav@zarca.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iframe Button not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email Engagement Report not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Success Msgis not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loader did not disappear.</t>
   </si>
 </sst>
 </file>
@@ -935,7 +941,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,11 +967,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1060,7 +1061,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1089,13 +1090,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
@@ -1389,13 +1389,13 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1433,14 +1433,14 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.453125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1479,15 +1479,15 @@
       <selection activeCell="C13" activeCellId="1" sqref="A7:D8 C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="25" t="s">
         <v>187</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="25" t="s">
         <v>232</v>
       </c>
@@ -1571,29 +1571,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>251</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>251</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -1616,32 +1616,32 @@
   <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.54296875" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J2" s="4"/>
@@ -2035,12 +2035,12 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2058,10 +2058,12 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -2226,7 +2228,7 @@
       <c r="CN3" s="15"/>
       <c r="CO3" s="15"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -2249,7 +2251,7 @@
       <c r="H4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J4" s="14"/>
@@ -2351,7 +2353,7 @@
       </c>
       <c r="CO4" s="16"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -2374,7 +2376,7 @@
       <c r="H5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J5" s="14"/>
@@ -2476,7 +2478,7 @@
       </c>
       <c r="CO5" s="16"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -2499,11 +2501,11 @@
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -2593,7 +2595,7 @@
       <c r="CN6" s="16"/>
       <c r="CO6" s="16"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -2616,7 +2618,7 @@
       <c r="H7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J7" s="14"/>
@@ -2710,7 +2712,7 @@
       <c r="CN7" s="16"/>
       <c r="CO7" s="16"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -2733,11 +2735,11 @@
       <c r="H8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
@@ -2829,7 +2831,7 @@
       <c r="CN8" s="19"/>
       <c r="CO8" s="19"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -2852,7 +2854,7 @@
       <c r="H9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J9" s="1"/>
@@ -2952,7 +2954,7 @@
       <c r="CN9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>216</v>
       </c>
@@ -2975,11 +2977,11 @@
         <v>189</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>190</v>
@@ -2996,7 +2998,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -3073,7 +3075,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
@@ -3096,11 +3098,11 @@
         <v>194</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>195</v>
@@ -3117,7 +3119,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3194,7 +3196,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>218</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>197</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J12" s="21"/>
@@ -3236,7 +3238,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3313,7 +3315,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>219</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>200</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J13" s="21"/>
@@ -3355,7 +3357,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3432,7 +3434,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>203</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="21"/>
@@ -3474,7 +3476,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3551,7 +3553,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>221</v>
       </c>
@@ -3574,10 +3576,12 @@
         <v>206</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="K15" s="20" t="s">
         <v>207</v>
       </c>
@@ -3611,7 +3615,7 @@
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3688,7 +3692,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>225</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>227</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="21"/>
@@ -3745,7 +3749,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3822,7 +3826,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>237</v>
       </c>
@@ -3845,7 +3849,7 @@
       <c r="H17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="33" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="14"/>
@@ -3937,12 +3941,12 @@
       </c>
       <c r="CO17" s="16"/>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3951,15 +3955,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="32" t="s">
-        <v>241</v>
+      <c r="I18" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="1"/>
@@ -3998,7 +4002,7 @@
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
       <c r="AT18" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
@@ -4044,7 +4048,7 @@
       </c>
       <c r="CI18" s="16"/>
       <c r="CJ18" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="CK18" s="16"/>
       <c r="CL18" s="16"/>
@@ -4052,12 +4056,12 @@
       <c r="CN18" s="16"/>
       <c r="CO18" s="16"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4066,15 +4070,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="32" t="s">
-        <v>241</v>
+      <c r="I19" s="33" t="s">
+        <v>185</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="1"/>
@@ -4115,7 +4119,7 @@
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
@@ -4172,7 +4176,7 @@
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{9E455840-DC38-468E-816E-C20661A2FB36}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{D0365AAE-CB14-46D7-8BAC-E8A4707EE08D}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{A23C599C-06C4-4A35-BF20-E1EAA2E9C8C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403201B-3EA8-4CBB-BEAE-66EDDDA6540D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53DCB4-2DD4-4FF9-805B-1AA4BD0B7A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="258">
   <si>
     <t>Environment</t>
   </si>
@@ -830,9 +830,18 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t xml:space="preserve"> You have sent not present on page.</t>
   </si>
   <si>
+    <t xml:space="preserve"> List Name not present on page.</t>
+  </si>
+  <si>
+    <t>ggolatkar@zarca.com</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Not able to find element Toaster - Close on page.</t>
   </si>
   <si>
@@ -867,21 +876,6 @@
   </si>
   <si>
     <t>DATA DP SURVEY 3</t>
-  </si>
-  <si>
-    <t>ayadav@zarca.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iframe Button not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email Engagement Report not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Success Msgis not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Loader did not disappear.</t>
   </si>
 </sst>
 </file>
@@ -941,7 +935,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -967,6 +961,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1061,7 +1060,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1090,12 +1089,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
@@ -1389,13 +1389,13 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.81640625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1433,14 +1433,14 @@
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.453125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1479,15 +1479,15 @@
       <selection activeCell="C13" activeCellId="1" sqref="A7:D8 C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.1796875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>187</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>232</v>
       </c>
@@ -1571,29 +1571,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>254</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>254</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -1616,32 +1616,32 @@
   <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.26953125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.54296875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.81640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.81640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.54296875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.1796875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.1796875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.54296875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.453125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J2" s="4"/>
@@ -2035,12 +2035,12 @@
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2058,12 +2058,10 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>259</v>
-      </c>
+      <c r="J3" s="14"/>
       <c r="K3" s="1"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -2228,7 +2226,7 @@
       <c r="CN3" s="15"/>
       <c r="CO3" s="15"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -2251,7 +2249,7 @@
       <c r="H4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J4" s="14"/>
@@ -2353,7 +2351,7 @@
       </c>
       <c r="CO4" s="16"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -2376,7 +2374,7 @@
       <c r="H5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J5" s="14"/>
@@ -2478,7 +2476,7 @@
       </c>
       <c r="CO5" s="16"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -2501,11 +2499,11 @@
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -2595,7 +2593,7 @@
       <c r="CN6" s="16"/>
       <c r="CO6" s="16"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -2618,7 +2616,7 @@
       <c r="H7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J7" s="14"/>
@@ -2712,7 +2710,7 @@
       <c r="CN7" s="16"/>
       <c r="CO7" s="16"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -2735,11 +2733,11 @@
       <c r="H8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
@@ -2831,7 +2829,7 @@
       <c r="CN8" s="19"/>
       <c r="CO8" s="19"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -2854,7 +2852,7 @@
       <c r="H9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J9" s="1"/>
@@ -2954,7 +2952,7 @@
       <c r="CN9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>216</v>
       </c>
@@ -2977,11 +2975,11 @@
         <v>189</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>190</v>
@@ -2998,7 +2996,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -3075,7 +3073,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
@@ -3098,11 +3096,11 @@
         <v>194</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>195</v>
@@ -3119,7 +3117,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3196,7 +3194,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>218</v>
       </c>
@@ -3219,7 +3217,7 @@
         <v>197</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J12" s="21"/>
@@ -3238,7 +3236,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3315,7 +3313,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>219</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>200</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J13" s="21"/>
@@ -3357,7 +3355,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3434,7 +3432,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
@@ -3457,7 +3455,7 @@
         <v>203</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="21"/>
@@ -3476,7 +3474,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3553,7 +3551,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>221</v>
       </c>
@@ -3576,12 +3574,10 @@
         <v>206</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="J15" s="21" t="s">
-        <v>257</v>
-      </c>
+      <c r="J15" s="21"/>
       <c r="K15" s="20" t="s">
         <v>207</v>
       </c>
@@ -3615,7 +3611,7 @@
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3692,7 +3688,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>225</v>
       </c>
@@ -3715,7 +3711,7 @@
         <v>227</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="21"/>
@@ -3749,7 +3745,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3826,7 +3822,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>237</v>
       </c>
@@ -3849,7 +3845,7 @@
       <c r="H17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="34" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="14"/>
@@ -3941,12 +3937,12 @@
       </c>
       <c r="CO17" s="16"/>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3955,15 +3951,15 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="33" t="s">
-        <v>185</v>
+      <c r="I18" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="1"/>
@@ -4002,7 +3998,7 @@
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
       <c r="AT18" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
@@ -4048,7 +4044,7 @@
       </c>
       <c r="CI18" s="16"/>
       <c r="CJ18" s="16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="CK18" s="16"/>
       <c r="CL18" s="16"/>
@@ -4056,12 +4052,12 @@
       <c r="CN18" s="16"/>
       <c r="CO18" s="16"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4070,15 +4066,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="33" t="s">
-        <v>185</v>
+      <c r="I19" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="1"/>
@@ -4119,7 +4115,7 @@
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
@@ -4176,7 +4172,7 @@
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{9E455840-DC38-468E-816E-C20661A2FB36}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{A23C599C-06C4-4A35-BF20-E1EAA2E9C8C6}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{D0365AAE-CB14-46D7-8BAC-E8A4707EE08D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F53DCB4-2DD4-4FF9-805B-1AA4BD0B7A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA90D5A-5F67-48C6-8F9E-6C17DDD9B756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="15150" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="259">
   <si>
     <t>Environment</t>
   </si>
@@ -830,18 +830,12 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> You have sent not present on page.</t>
   </si>
   <si>
     <t xml:space="preserve"> List Name not present on page.</t>
   </si>
   <si>
-    <t>ggolatkar@zarca.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Not able to find element Toaster - Close on page.</t>
   </si>
   <si>
@@ -876,14 +870,22 @@
   </si>
   <si>
     <t>DATA DP SURVEY 3</t>
+  </si>
+  <si>
+    <t>DP - Segment group</t>
+  </si>
+  <si>
+    <t>Q 1(b). Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>ayadav@zarca.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,19 +925,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,41 +952,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1060,7 +1016,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1089,14 +1045,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1391,8 +1342,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,9 +1386,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1481,10 +1432,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,13 +1524,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>252</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
@@ -1587,13 +1538,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>252</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -1616,29 +1567,29 @@
   <dimension ref="A1:CO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
@@ -1945,7 +1896,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J2" s="4"/>
@@ -2058,7 +2009,7 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J3" s="14"/>
@@ -2249,7 +2200,7 @@
       <c r="H4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J4" s="14"/>
@@ -2374,7 +2325,7 @@
       <c r="H5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J5" s="14"/>
@@ -2499,11 +2450,11 @@
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -2616,7 +2567,7 @@
       <c r="H7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J7" s="14"/>
@@ -2733,11 +2684,11 @@
       <c r="H8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
@@ -2852,7 +2803,7 @@
       <c r="H9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J9" s="1"/>
@@ -2975,11 +2926,11 @@
         <v>189</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>190</v>
@@ -2987,8 +2938,12 @@
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="O10" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
       <c r="S10" s="20"/>
@@ -2996,7 +2951,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -3096,11 +3051,11 @@
         <v>194</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>195</v>
@@ -3117,7 +3072,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3217,7 +3172,7 @@
         <v>197</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J12" s="21"/>
@@ -3236,7 +3191,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3336,7 +3291,7 @@
         <v>200</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J13" s="21"/>
@@ -3355,7 +3310,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3455,7 +3410,7 @@
         <v>203</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="21"/>
@@ -3474,7 +3429,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3574,7 +3529,7 @@
         <v>206</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J15" s="21"/>
@@ -3611,7 +3566,7 @@
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3711,7 +3666,7 @@
         <v>227</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="21"/>
@@ -3745,7 +3700,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3845,7 +3800,7 @@
       <c r="H17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="30" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="14"/>
@@ -3939,7 +3894,7 @@
     </row>
     <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -3951,14 +3906,14 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="29" t="s">
         <v>241</v>
       </c>
       <c r="J18" s="14"/>
@@ -3998,7 +3953,7 @@
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
       <c r="AT18" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
@@ -4044,7 +3999,7 @@
       </c>
       <c r="CI18" s="16"/>
       <c r="CJ18" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="CK18" s="16"/>
       <c r="CL18" s="16"/>
@@ -4054,7 +4009,7 @@
     </row>
     <row r="19" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -4066,14 +4021,14 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="29" t="s">
         <v>241</v>
       </c>
       <c r="J19" s="14"/>
@@ -4115,7 +4070,7 @@
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
@@ -4172,7 +4127,7 @@
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" xr:uid="{9E455840-DC38-468E-816E-C20661A2FB36}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ggolatkar@zarca.com" xr:uid="{D0365AAE-CB14-46D7-8BAC-E8A4707EE08D}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{CE6B9826-BFAB-41F0-B871-4C1950B5E4BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA90D5A-5F67-48C6-8F9E-6C17DDD9B756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C96437-0CBD-4942-BC5B-B635E74D9CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="15150" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="280">
   <si>
     <t>Environment</t>
   </si>
@@ -827,58 +827,121 @@
     <t>Test Invitation List [4 records]</t>
   </si>
   <si>
+    <t xml:space="preserve"> List Name not present on page.</t>
+  </si>
+  <si>
+    <t>Smoke_TC17</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Data Import</t>
+  </si>
+  <si>
+    <t>DATA DP SURVEY 2</t>
+  </si>
+  <si>
+    <t>SoGo Data Import File.xls</t>
+  </si>
+  <si>
+    <t>sogo_mjitender1</t>
+  </si>
+  <si>
+    <t>Jittu@123</t>
+  </si>
+  <si>
+    <t>Smoke_TC18</t>
+  </si>
+  <si>
+    <t>Data Export</t>
+  </si>
+  <si>
+    <t>DATA DP SURVEY 3</t>
+  </si>
+  <si>
+    <t>DP - Segment group</t>
+  </si>
+  <si>
+    <t>Q 1(b). Please provide your details: Gender</t>
+  </si>
+  <si>
+    <t>ayadav@zarca.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From fieldis not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Email Engagement Report not present on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The file was not downloaded.</t>
+  </si>
+  <si>
+    <t>SMX</t>
+  </si>
+  <si>
+    <t>Create All Control Survey</t>
+  </si>
+  <si>
+    <t>All Questions</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>quesHint</t>
+  </si>
+  <si>
+    <t>Emp####</t>
+  </si>
+  <si>
+    <t>Custom format</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error occured while reading JSON file. Error : E:\Project\engage\Engage\Sogo-Smoke\src\main\resources\jsonFiles\localData.json (The system cannot find the file specified)</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t xml:space="preserve"> You have sent not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> List Name not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Not able to find element Toaster - Close on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This report has been saved as is not present on page.</t>
-  </si>
-  <si>
-    <t>Smoke_TC17</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>Data Import</t>
-  </si>
-  <si>
-    <t>DATA DP SURVEY 2</t>
-  </si>
-  <si>
-    <t>SoGo Data Import File.xls</t>
-  </si>
-  <si>
-    <t>sogo_mjitender1</t>
-  </si>
-  <si>
-    <t>Jittu@123</t>
-  </si>
-  <si>
-    <t>Smoke_TC18</t>
-  </si>
-  <si>
-    <t>Data Export</t>
-  </si>
-  <si>
-    <t>DATA DP SURVEY 3</t>
-  </si>
-  <si>
-    <t>DP - Segment group</t>
-  </si>
-  <si>
-    <t>Q 1(b). Please provide your details: Gender</t>
-  </si>
-  <si>
-    <t>ayadav@zarca.com</t>
+    <t xml:space="preserve"> Import data module not present on page.</t>
+  </si>
+  <si>
+    <t>subQuestionCount</t>
+  </si>
+  <si>
+    <t>srsFormat</t>
+  </si>
+  <si>
+    <t>Star;Thumb up;Heart;Check mark;Dollar sign;Person</t>
+  </si>
+  <si>
+    <t>Mountain;Harley</t>
+  </si>
+  <si>
+    <t>MTBSubqueCount</t>
+  </si>
+  <si>
+    <t>mtbFormat</t>
+  </si>
+  <si>
+    <t>General;Currency;Email;Phone Number;Number;Percentage;Social Security Number;US ZIP Code;US ZIP Code + 4;Custom</t>
+  </si>
+  <si>
+    <t>Lowest-0;Middle-3;Highest-5;Not Applicable</t>
+  </si>
+  <si>
+    <t>attachmentQDetails1</t>
+  </si>
+  <si>
+    <t>4/~~/Attachment 1/~/Attachment 2/~/Attachment 3/~/Attachment 4/~~/.jpg,.png/~/.pdf/~/.xlsx/~/.pptx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text Box Label Added null not present on page.</t>
+  </si>
+  <si>
+    <t>Smoke_TC119</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1400,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1444,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1490,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" activeCellId="1" sqref="A7:D8 C13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1545,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>158</v>
@@ -1524,13 +1587,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>251</v>
-      </c>
       <c r="C7" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
@@ -1538,13 +1601,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>251</v>
-      </c>
       <c r="C8" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -1564,10 +1627,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CO19"/>
+  <dimension ref="A1:CV20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1655,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1831,49 +1894,70 @@
         <v>137</v>
       </c>
       <c r="CB1" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="CC1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="CK1" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="CL1" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="CM1" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="CN1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CO1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CP1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CQ1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CR1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CS1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CT1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CU1" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="CV1" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1985,8 +2069,15 @@
       <c r="CM2" s="6"/>
       <c r="CN2" s="6"/>
       <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6"/>
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2000,7 +2091,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -2150,25 +2241,25 @@
       <c r="CA3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="CB3" s="15" t="s">
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="CC3" s="15" t="s">
+      <c r="CD3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="CD3" s="15" t="s">
+      <c r="CE3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="CE3" s="15" t="s">
+      <c r="CF3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="CF3" s="15" t="s">
+      <c r="CG3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="CG3" s="15" t="s">
+      <c r="CH3" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="CH3" s="15"/>
       <c r="CI3" s="15"/>
       <c r="CJ3" s="15"/>
       <c r="CK3" s="15"/>
@@ -2176,8 +2267,15 @@
       <c r="CM3" s="15"/>
       <c r="CN3" s="15"/>
       <c r="CO3" s="15"/>
+      <c r="CP3" s="15"/>
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="15"/>
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -2279,30 +2377,37 @@
       <c r="CE4" s="15"/>
       <c r="CF4" s="15"/>
       <c r="CG4" s="15"/>
-      <c r="CH4" s="1">
+      <c r="CH4" s="15"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="1">
         <v>282</v>
       </c>
-      <c r="CI4" s="16" t="s">
+      <c r="CO4" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="CJ4" s="16" t="s">
+      <c r="CP4" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="CK4" s="16" t="s">
+      <c r="CQ4" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="CL4" s="16" t="s">
+      <c r="CR4" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="CM4" s="16" t="s">
+      <c r="CS4" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="CN4" s="16" t="s">
+      <c r="CT4" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="CO4" s="16"/>
+      <c r="CU4" s="16"/>
+      <c r="CV4" s="16"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -2328,7 +2433,9 @@
       <c r="I5" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -2404,30 +2511,37 @@
       <c r="CE5" s="15"/>
       <c r="CF5" s="15"/>
       <c r="CG5" s="15"/>
-      <c r="CH5" s="1">
+      <c r="CH5" s="15"/>
+      <c r="CI5" s="15"/>
+      <c r="CJ5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="15"/>
+      <c r="CM5" s="15"/>
+      <c r="CN5" s="1">
         <v>283</v>
       </c>
-      <c r="CI5" s="16" t="s">
+      <c r="CO5" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="CJ5" s="16" t="s">
+      <c r="CP5" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="CK5" s="16" t="s">
+      <c r="CQ5" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="CL5" s="16" t="s">
+      <c r="CR5" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="CM5" s="16" t="s">
+      <c r="CS5" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="CN5" s="16" t="s">
+      <c r="CT5" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="CO5" s="16"/>
+      <c r="CU5" s="16"/>
+      <c r="CV5" s="16"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -2454,7 +2568,7 @@
         <v>185</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -2531,20 +2645,27 @@
       <c r="CE6" s="15"/>
       <c r="CF6" s="15"/>
       <c r="CG6" s="15"/>
-      <c r="CH6" s="1">
+      <c r="CH6" s="15"/>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="1">
         <v>283</v>
       </c>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16" t="s">
+      <c r="CO6" s="16"/>
+      <c r="CP6" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
+      <c r="CQ6" s="16"/>
+      <c r="CR6" s="16"/>
+      <c r="CS6" s="16"/>
+      <c r="CT6" s="16"/>
+      <c r="CU6" s="16"/>
+      <c r="CV6" s="16"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -2646,22 +2767,29 @@
       <c r="CE7" s="15"/>
       <c r="CF7" s="15"/>
       <c r="CG7" s="15"/>
-      <c r="CH7" s="1">
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15"/>
+      <c r="CN7" s="1">
         <v>283</v>
       </c>
-      <c r="CI7" s="16"/>
-      <c r="CJ7" s="16" t="s">
+      <c r="CO7" s="16"/>
+      <c r="CP7" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="CK7" s="16"/>
-      <c r="CL7" s="16"/>
-      <c r="CM7" s="16" t="s">
+      <c r="CQ7" s="16"/>
+      <c r="CR7" s="16"/>
+      <c r="CS7" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="CN7" s="16"/>
-      <c r="CO7" s="16"/>
+      <c r="CT7" s="16"/>
+      <c r="CU7" s="16"/>
+      <c r="CV7" s="16"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -2688,7 +2816,7 @@
         <v>185</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
@@ -2765,22 +2893,29 @@
       <c r="CE8" s="18"/>
       <c r="CF8" s="18"/>
       <c r="CG8" s="18"/>
-      <c r="CH8" s="1">
+      <c r="CH8" s="18"/>
+      <c r="CI8" s="18"/>
+      <c r="CJ8" s="18"/>
+      <c r="CK8" s="18"/>
+      <c r="CL8" s="18"/>
+      <c r="CM8" s="18"/>
+      <c r="CN8" s="1">
         <v>283</v>
       </c>
-      <c r="CI8" s="19"/>
-      <c r="CJ8" s="19" t="s">
+      <c r="CO8" s="19"/>
+      <c r="CP8" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="CK8" s="19"/>
-      <c r="CL8" s="19"/>
-      <c r="CM8" s="19" t="s">
+      <c r="CQ8" s="19"/>
+      <c r="CR8" s="19"/>
+      <c r="CS8" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="CN8" s="19"/>
-      <c r="CO8" s="19"/>
+      <c r="CT8" s="19"/>
+      <c r="CU8" s="19"/>
+      <c r="CV8" s="19"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -2884,26 +3019,33 @@
       <c r="CE9" s="1"/>
       <c r="CF9" s="1"/>
       <c r="CG9" s="1"/>
-      <c r="CH9" s="1">
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="1"/>
+      <c r="CN9" s="1">
         <v>311</v>
       </c>
-      <c r="CI9" s="1" t="s">
+      <c r="CO9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CJ9" s="16" t="s">
+      <c r="CP9" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="CK9" s="1" t="s">
+      <c r="CQ9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CL9" s="1" t="s">
+      <c r="CR9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="1"/>
+      <c r="CU9" s="1"/>
+      <c r="CV9" s="1"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>216</v>
       </c>
@@ -2930,7 +3072,7 @@
         <v>185</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>190</v>
@@ -2939,10 +3081,10 @@
       <c r="M10" s="21"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
@@ -2951,7 +3093,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -3015,20 +3157,27 @@
       <c r="CE10" s="23"/>
       <c r="CF10" s="23"/>
       <c r="CG10" s="23"/>
-      <c r="CH10" s="24" t="s">
+      <c r="CH10" s="23"/>
+      <c r="CI10" s="23"/>
+      <c r="CJ10" s="23"/>
+      <c r="CK10" s="23"/>
+      <c r="CL10" s="23"/>
+      <c r="CM10" s="23"/>
+      <c r="CN10" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="CI10" s="24"/>
-      <c r="CJ10" s="24"/>
-      <c r="CK10" s="24"/>
-      <c r="CL10" s="24"/>
-      <c r="CM10" s="24"/>
-      <c r="CN10" s="24"/>
-      <c r="CO10" s="24" t="s">
+      <c r="CO10" s="24"/>
+      <c r="CP10" s="24"/>
+      <c r="CQ10" s="24"/>
+      <c r="CR10" s="24"/>
+      <c r="CS10" s="24"/>
+      <c r="CT10" s="24"/>
+      <c r="CU10" s="24"/>
+      <c r="CV10" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
@@ -3055,7 +3204,7 @@
         <v>185</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>195</v>
@@ -3072,7 +3221,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3136,20 +3285,27 @@
       <c r="CE11" s="23"/>
       <c r="CF11" s="23"/>
       <c r="CG11" s="23"/>
-      <c r="CH11" s="24" t="s">
+      <c r="CH11" s="23"/>
+      <c r="CI11" s="23"/>
+      <c r="CJ11" s="23"/>
+      <c r="CK11" s="23"/>
+      <c r="CL11" s="23"/>
+      <c r="CM11" s="23"/>
+      <c r="CN11" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="CI11" s="24"/>
-      <c r="CJ11" s="24"/>
-      <c r="CK11" s="24"/>
-      <c r="CL11" s="24"/>
-      <c r="CM11" s="24"/>
-      <c r="CN11" s="24"/>
-      <c r="CO11" s="24" t="s">
+      <c r="CO11" s="24"/>
+      <c r="CP11" s="24"/>
+      <c r="CQ11" s="24"/>
+      <c r="CR11" s="24"/>
+      <c r="CS11" s="24"/>
+      <c r="CT11" s="24"/>
+      <c r="CU11" s="24"/>
+      <c r="CV11" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>218</v>
       </c>
@@ -3191,7 +3347,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3255,20 +3411,27 @@
       <c r="CE12" s="23"/>
       <c r="CF12" s="23"/>
       <c r="CG12" s="23"/>
-      <c r="CH12" s="24" t="s">
+      <c r="CH12" s="23"/>
+      <c r="CI12" s="23"/>
+      <c r="CJ12" s="23"/>
+      <c r="CK12" s="23"/>
+      <c r="CL12" s="23"/>
+      <c r="CM12" s="23"/>
+      <c r="CN12" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="CI12" s="24"/>
-      <c r="CJ12" s="24"/>
-      <c r="CK12" s="24"/>
-      <c r="CL12" s="24"/>
-      <c r="CM12" s="24"/>
-      <c r="CN12" s="24"/>
-      <c r="CO12" s="24" t="s">
+      <c r="CO12" s="24"/>
+      <c r="CP12" s="24"/>
+      <c r="CQ12" s="24"/>
+      <c r="CR12" s="24"/>
+      <c r="CS12" s="24"/>
+      <c r="CT12" s="24"/>
+      <c r="CU12" s="24"/>
+      <c r="CV12" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>219</v>
       </c>
@@ -3310,7 +3473,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3374,20 +3537,27 @@
       <c r="CE13" s="23"/>
       <c r="CF13" s="23"/>
       <c r="CG13" s="23"/>
-      <c r="CH13" s="24" t="s">
+      <c r="CH13" s="23"/>
+      <c r="CI13" s="23"/>
+      <c r="CJ13" s="23"/>
+      <c r="CK13" s="23"/>
+      <c r="CL13" s="23"/>
+      <c r="CM13" s="23"/>
+      <c r="CN13" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="CI13" s="24"/>
-      <c r="CJ13" s="24"/>
-      <c r="CK13" s="24"/>
-      <c r="CL13" s="24"/>
-      <c r="CM13" s="24"/>
-      <c r="CN13" s="24"/>
-      <c r="CO13" s="24" t="s">
+      <c r="CO13" s="24"/>
+      <c r="CP13" s="24"/>
+      <c r="CQ13" s="24"/>
+      <c r="CR13" s="24"/>
+      <c r="CS13" s="24"/>
+      <c r="CT13" s="24"/>
+      <c r="CU13" s="24"/>
+      <c r="CV13" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
@@ -3429,7 +3599,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3493,20 +3663,27 @@
       <c r="CE14" s="23"/>
       <c r="CF14" s="23"/>
       <c r="CG14" s="23"/>
-      <c r="CH14" s="24" t="s">
+      <c r="CH14" s="23"/>
+      <c r="CI14" s="23"/>
+      <c r="CJ14" s="23"/>
+      <c r="CK14" s="23"/>
+      <c r="CL14" s="23"/>
+      <c r="CM14" s="23"/>
+      <c r="CN14" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="CI14" s="24"/>
-      <c r="CJ14" s="24"/>
-      <c r="CK14" s="24"/>
-      <c r="CL14" s="24"/>
-      <c r="CM14" s="24"/>
-      <c r="CN14" s="24"/>
-      <c r="CO14" s="24" t="s">
+      <c r="CO14" s="24"/>
+      <c r="CP14" s="24"/>
+      <c r="CQ14" s="24"/>
+      <c r="CR14" s="24"/>
+      <c r="CS14" s="24"/>
+      <c r="CT14" s="24"/>
+      <c r="CU14" s="24"/>
+      <c r="CV14" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>221</v>
       </c>
@@ -3532,7 +3709,9 @@
       <c r="I15" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>256</v>
+      </c>
       <c r="K15" s="20" t="s">
         <v>207</v>
       </c>
@@ -3566,7 +3745,7 @@
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3630,20 +3809,27 @@
       <c r="CE15" s="23"/>
       <c r="CF15" s="23"/>
       <c r="CG15" s="23"/>
-      <c r="CH15" s="24" t="s">
+      <c r="CH15" s="23"/>
+      <c r="CI15" s="23"/>
+      <c r="CJ15" s="23"/>
+      <c r="CK15" s="23"/>
+      <c r="CL15" s="23"/>
+      <c r="CM15" s="23"/>
+      <c r="CN15" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="CI15" s="24"/>
-      <c r="CJ15" s="24"/>
-      <c r="CK15" s="24"/>
-      <c r="CL15" s="24"/>
-      <c r="CM15" s="24"/>
-      <c r="CN15" s="24"/>
-      <c r="CO15" s="24" t="s">
+      <c r="CO15" s="24"/>
+      <c r="CP15" s="24"/>
+      <c r="CQ15" s="24"/>
+      <c r="CR15" s="24"/>
+      <c r="CS15" s="24"/>
+      <c r="CT15" s="24"/>
+      <c r="CU15" s="24"/>
+      <c r="CV15" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>225</v>
       </c>
@@ -3700,7 +3886,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3764,20 +3950,27 @@
       <c r="CE16" s="23"/>
       <c r="CF16" s="23"/>
       <c r="CG16" s="23"/>
-      <c r="CH16" s="24" t="s">
+      <c r="CH16" s="23"/>
+      <c r="CI16" s="23"/>
+      <c r="CJ16" s="23"/>
+      <c r="CK16" s="23"/>
+      <c r="CL16" s="23"/>
+      <c r="CM16" s="23"/>
+      <c r="CN16" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="CI16" s="24"/>
-      <c r="CJ16" s="24"/>
-      <c r="CK16" s="24"/>
-      <c r="CL16" s="24"/>
-      <c r="CM16" s="24"/>
-      <c r="CN16" s="24"/>
-      <c r="CO16" s="24" t="s">
+      <c r="CO16" s="24"/>
+      <c r="CP16" s="24"/>
+      <c r="CQ16" s="24"/>
+      <c r="CR16" s="24"/>
+      <c r="CS16" s="24"/>
+      <c r="CT16" s="24"/>
+      <c r="CU16" s="24"/>
+      <c r="CV16" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>237</v>
       </c>
@@ -3879,25 +4072,32 @@
       <c r="CE17" s="15"/>
       <c r="CF17" s="15"/>
       <c r="CG17" s="15"/>
-      <c r="CH17" s="1">
+      <c r="CH17" s="15"/>
+      <c r="CI17" s="15"/>
+      <c r="CJ17" s="15"/>
+      <c r="CK17" s="15"/>
+      <c r="CL17" s="15"/>
+      <c r="CM17" s="15"/>
+      <c r="CN17" s="1">
         <v>282</v>
       </c>
-      <c r="CI17" s="16"/>
-      <c r="CJ17" s="16"/>
-      <c r="CK17" s="16"/>
-      <c r="CL17" s="16"/>
-      <c r="CM17" s="16"/>
-      <c r="CN17" s="16" t="s">
+      <c r="CO17" s="16"/>
+      <c r="CP17" s="16"/>
+      <c r="CQ17" s="16"/>
+      <c r="CR17" s="16"/>
+      <c r="CS17" s="16"/>
+      <c r="CT17" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="CO17" s="16"/>
+      <c r="CU17" s="16"/>
+      <c r="CV17" s="16"/>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -3906,17 +4106,19 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="J18" s="14"/>
+      <c r="I18" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>267</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
@@ -3953,7 +4155,7 @@
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
       <c r="AT18" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
@@ -3994,25 +4196,32 @@
       <c r="CE18" s="15"/>
       <c r="CF18" s="15"/>
       <c r="CG18" s="15"/>
-      <c r="CH18" s="1">
+      <c r="CH18" s="15"/>
+      <c r="CI18" s="15"/>
+      <c r="CJ18" s="15"/>
+      <c r="CK18" s="15"/>
+      <c r="CL18" s="15"/>
+      <c r="CM18" s="15"/>
+      <c r="CN18" s="1">
         <v>320</v>
       </c>
-      <c r="CI18" s="16"/>
-      <c r="CJ18" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="CK18" s="16"/>
-      <c r="CL18" s="16"/>
-      <c r="CM18" s="16"/>
-      <c r="CN18" s="16"/>
       <c r="CO18" s="16"/>
+      <c r="CP18" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="CQ18" s="16"/>
+      <c r="CR18" s="16"/>
+      <c r="CS18" s="16"/>
+      <c r="CT18" s="16"/>
+      <c r="CU18" s="16"/>
+      <c r="CV18" s="16"/>
     </row>
-    <row r="19" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -4021,15 +4230,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="29" t="s">
-        <v>241</v>
+      <c r="I19" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="1"/>
@@ -4070,7 +4279,7 @@
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
@@ -4111,16 +4320,177 @@
       <c r="CE19" s="15"/>
       <c r="CF19" s="15"/>
       <c r="CG19" s="15"/>
-      <c r="CH19" s="1">
+      <c r="CH19" s="15"/>
+      <c r="CI19" s="15"/>
+      <c r="CJ19" s="15"/>
+      <c r="CK19" s="15"/>
+      <c r="CL19" s="15"/>
+      <c r="CM19" s="15"/>
+      <c r="CN19" s="1">
         <v>256</v>
       </c>
-      <c r="CI19" s="16"/>
-      <c r="CJ19" s="16"/>
-      <c r="CK19" s="16"/>
-      <c r="CL19" s="16"/>
-      <c r="CM19" s="16"/>
-      <c r="CN19" s="16"/>
       <c r="CO19" s="16"/>
+      <c r="CP19" s="16"/>
+      <c r="CQ19" s="16"/>
+      <c r="CR19" s="16"/>
+      <c r="CS19" s="16"/>
+      <c r="CT19" s="16"/>
+      <c r="CU19" s="16"/>
+      <c r="CV19" s="16"/>
+    </row>
+    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB20" s="15"/>
+      <c r="BC20" s="15"/>
+      <c r="BD20" s="15"/>
+      <c r="BE20" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="BF20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG20" s="15"/>
+      <c r="BH20" s="15"/>
+      <c r="BI20" s="15"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="15"/>
+      <c r="BL20" s="15"/>
+      <c r="BM20" s="15"/>
+      <c r="BN20" s="15"/>
+      <c r="BO20" s="15"/>
+      <c r="BP20" s="15"/>
+      <c r="BQ20" s="15"/>
+      <c r="BR20" s="15"/>
+      <c r="BS20" s="15"/>
+      <c r="BT20" s="15"/>
+      <c r="BU20" s="15"/>
+      <c r="BV20" s="15"/>
+      <c r="BW20" s="15"/>
+      <c r="BX20" s="15"/>
+      <c r="BY20" s="15"/>
+      <c r="BZ20" s="15"/>
+      <c r="CA20" s="15"/>
+      <c r="CB20" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="CC20" s="15"/>
+      <c r="CD20" s="15"/>
+      <c r="CE20" s="15"/>
+      <c r="CF20" s="15"/>
+      <c r="CG20" s="15"/>
+      <c r="CH20" s="15"/>
+      <c r="CI20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ20" s="15">
+        <v>6</v>
+      </c>
+      <c r="CK20" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="CL20" s="15">
+        <v>10</v>
+      </c>
+      <c r="CM20" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="16"/>
+      <c r="CP20" s="16"/>
+      <c r="CQ20" s="16"/>
+      <c r="CR20" s="16"/>
+      <c r="CS20" s="16"/>
+      <c r="CT20" s="16"/>
+      <c r="CU20" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="CV20" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C96437-0CBD-4942-BC5B-B635E74D9CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7AEFDE-C97B-4AD2-BFE7-A4A5CC2AFDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="368">
   <si>
     <t>Environment</t>
   </si>
@@ -866,9 +866,6 @@
     <t>Q 1(b). Please provide your details: Gender</t>
   </si>
   <si>
-    <t>ayadav@zarca.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> From fieldis not present on page.</t>
   </si>
   <si>
@@ -942,6 +939,273 @@
   </si>
   <si>
     <t>Smoke_TC119</t>
+  </si>
+  <si>
+    <t>Smoke_TC19</t>
+  </si>
+  <si>
+    <t>Smoke_TC20</t>
+  </si>
+  <si>
+    <t>Smoke_TC21</t>
+  </si>
+  <si>
+    <t>Smoke_TC22</t>
+  </si>
+  <si>
+    <t>Smoke_TC23</t>
+  </si>
+  <si>
+    <t>Smoke_TC24</t>
+  </si>
+  <si>
+    <t>Smoke_TC25</t>
+  </si>
+  <si>
+    <t>Smoke_TC26</t>
+  </si>
+  <si>
+    <t>Smoke_TC27</t>
+  </si>
+  <si>
+    <t>Smoke_TC28</t>
+  </si>
+  <si>
+    <t>Smoke_TC29</t>
+  </si>
+  <si>
+    <t>Smoke_TC30</t>
+  </si>
+  <si>
+    <t>Smoke_TC31</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>SMX2</t>
+  </si>
+  <si>
+    <t>sogo_abhandi</t>
+  </si>
+  <si>
+    <t>Sogo@bhandi4</t>
+  </si>
+  <si>
+    <t>Logo Upload From Computer</t>
+  </si>
+  <si>
+    <t>Use account logo</t>
+  </si>
+  <si>
+    <t>Copy from another project</t>
+  </si>
+  <si>
+    <t>Insert logo using URL</t>
+  </si>
+  <si>
+    <t>Uploading JPG file</t>
+  </si>
+  <si>
+    <t>Uploading GIF file</t>
+  </si>
+  <si>
+    <t>Align logo to left</t>
+  </si>
+  <si>
+    <t>Align logo to Right</t>
+  </si>
+  <si>
+    <t>Uploading JPEG file</t>
+  </si>
+  <si>
+    <t>Logo greater than 5mb</t>
+  </si>
+  <si>
+    <t>Unsupported file for logo</t>
+  </si>
+  <si>
+    <t>Delete use account logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer(.png). 4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and deleted</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo</t>
+  </si>
+  <si>
+    <t>logo should be uploaded</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. It will select logo from other survey and use that copied logo as survey logo. 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.With the help of the entered URL it will upload survey logo . 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpg format image.</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .gif format image.</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to left side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to left</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to right side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to right</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpeg format image.</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload image which is greater than 5 mb.</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload unsupported file</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert which format of files is supporting</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo.  4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>Comparison I</t>
+  </si>
+  <si>
+    <t>image of mountain.jpg</t>
+  </si>
+  <si>
+    <t>DANCING_BABY.gif</t>
+  </si>
+  <si>
+    <t>green.jpeg</t>
+  </si>
+  <si>
+    <t>hotel.jpg</t>
+  </si>
+  <si>
+    <t>pdf.pdf</t>
+  </si>
+  <si>
+    <t>Alert Box message: The Image file to upload cannot exceed 5 MB.</t>
+  </si>
+  <si>
+    <t>Alert Box message: Your file should be of the following format .gif, .jpg, .png or .jpeg.</t>
+  </si>
+  <si>
+    <t>amulla@zarca.com,vgrandhi@zarca.com</t>
+  </si>
+  <si>
+    <t>testsogo31@gmail.com</t>
+  </si>
+  <si>
+    <t>DP-POLL</t>
+  </si>
+  <si>
+    <t>Survey-Logo-20</t>
+  </si>
+  <si>
+    <t>Survey-Logo-21</t>
+  </si>
+  <si>
+    <t>1111111 do not delete (dp check)</t>
+  </si>
+  <si>
+    <t>Survey-Logo-22</t>
+  </si>
+  <si>
+    <t>Survey-Logo-23</t>
+  </si>
+  <si>
+    <t>Survey-Logo-24</t>
+  </si>
+  <si>
+    <t>Survey-Logo-25</t>
+  </si>
+  <si>
+    <t>Survey-Logo-26</t>
+  </si>
+  <si>
+    <t>Survey-Logo-27</t>
+  </si>
+  <si>
+    <t>Survey-Logo-28</t>
+  </si>
+  <si>
+    <t>Survey-Logo-29</t>
+  </si>
+  <si>
+    <t>Survey-Logo-30</t>
+  </si>
+  <si>
+    <t>Survey-Logo-31</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>harley-davidson-logo-vector.png</t>
+  </si>
+  <si>
+    <t>question 1</t>
+  </si>
+  <si>
+    <t>question 2</t>
+  </si>
+  <si>
+    <t>question 3</t>
+  </si>
+  <si>
+    <t>https://image.shutterstock.com/image-vector/link-icon-hyperlink-chain-symbol-260nw-1186749931.jpg</t>
+  </si>
+  <si>
+    <t>question 4</t>
+  </si>
+  <si>
+    <t>question 5</t>
+  </si>
+  <si>
+    <t>question 6</t>
+  </si>
+  <si>
+    <t>question 8</t>
+  </si>
+  <si>
+    <t>question 9</t>
+  </si>
+  <si>
+    <t>question 10</t>
+  </si>
+  <si>
+    <t>question 11</t>
+  </si>
+  <si>
+    <t>question 12</t>
+  </si>
+  <si>
+    <t>question 13</t>
+  </si>
+  <si>
+    <t>Much less than others</t>
+  </si>
+  <si>
+    <t>surveyType</t>
+  </si>
+  <si>
+    <t>Survey</t>
   </si>
 </sst>
 </file>
@@ -1487,10 +1751,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1809,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>158</v>
@@ -1610,6 +1874,20 @@
         <v>248</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1619,6 +1897,7 @@
     <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{702B9475-C84C-4FE3-827C-5DA32183EACA}"/>
     <hyperlink ref="C8" r:id="rId3" xr:uid="{F0C2501D-C643-42A3-B68D-840128CAECCA}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{9B47117C-96DC-4F4E-832D-C8206ECDEA30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1627,10 +1906,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CV20"/>
+  <dimension ref="A1:CW33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CV20" sqref="CV20:CV32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1934,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +2173,7 @@
         <v>137</v>
       </c>
       <c r="CB1" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CC1" s="9" t="s">
         <v>138</v>
@@ -1915,19 +2194,19 @@
         <v>143</v>
       </c>
       <c r="CI1" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CJ1" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="CK1" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="CK1" s="9" t="s">
-        <v>269</v>
-      </c>
       <c r="CL1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="CM1" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="CM1" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="CN1" s="9" t="s">
         <v>144</v>
@@ -1951,13 +2230,16 @@
         <v>150</v>
       </c>
       <c r="CU1" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CV1" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="CW1" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2076,8 +2358,9 @@
       <c r="CT2" s="6"/>
       <c r="CU2" s="6"/>
       <c r="CV2" s="6"/>
+      <c r="CW2" s="6"/>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2091,7 +2374,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -2274,8 +2557,9 @@
       <c r="CT3" s="15"/>
       <c r="CU3" s="15"/>
       <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
@@ -2406,8 +2690,9 @@
       </c>
       <c r="CU4" s="16"/>
       <c r="CV4" s="16"/>
+      <c r="CW4" s="16"/>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
@@ -2434,7 +2719,7 @@
         <v>185</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="14"/>
@@ -2540,8 +2825,9 @@
       </c>
       <c r="CU5" s="16"/>
       <c r="CV5" s="16"/>
+      <c r="CW5" s="16"/>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
@@ -2568,7 +2854,7 @@
         <v>185</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -2664,8 +2950,9 @@
       <c r="CT6" s="16"/>
       <c r="CU6" s="16"/>
       <c r="CV6" s="16"/>
+      <c r="CW6" s="16"/>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -2788,8 +3075,9 @@
       <c r="CT7" s="16"/>
       <c r="CU7" s="16"/>
       <c r="CV7" s="16"/>
+      <c r="CW7" s="16"/>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -2914,8 +3202,9 @@
       <c r="CT8" s="19"/>
       <c r="CU8" s="19"/>
       <c r="CV8" s="19"/>
+      <c r="CW8" s="19"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -3044,8 +3333,9 @@
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>216</v>
       </c>
@@ -3072,7 +3362,7 @@
         <v>185</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K10" s="20" t="s">
         <v>190</v>
@@ -3093,7 +3383,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -3173,11 +3463,12 @@
       <c r="CS10" s="24"/>
       <c r="CT10" s="24"/>
       <c r="CU10" s="24"/>
-      <c r="CV10" s="24" t="s">
+      <c r="CV10" s="24"/>
+      <c r="CW10" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
@@ -3204,7 +3495,7 @@
         <v>185</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K11" s="20" t="s">
         <v>195</v>
@@ -3221,7 +3512,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -3301,11 +3592,12 @@
       <c r="CS11" s="24"/>
       <c r="CT11" s="24"/>
       <c r="CU11" s="24"/>
-      <c r="CV11" s="24" t="s">
+      <c r="CV11" s="24"/>
+      <c r="CW11" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>218</v>
       </c>
@@ -3347,7 +3639,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -3427,11 +3719,12 @@
       <c r="CS12" s="24"/>
       <c r="CT12" s="24"/>
       <c r="CU12" s="24"/>
-      <c r="CV12" s="24" t="s">
+      <c r="CV12" s="24"/>
+      <c r="CW12" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>219</v>
       </c>
@@ -3473,7 +3766,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -3553,11 +3846,12 @@
       <c r="CS13" s="24"/>
       <c r="CT13" s="24"/>
       <c r="CU13" s="24"/>
-      <c r="CV13" s="24" t="s">
+      <c r="CV13" s="24"/>
+      <c r="CW13" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
@@ -3599,7 +3893,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -3679,11 +3973,12 @@
       <c r="CS14" s="24"/>
       <c r="CT14" s="24"/>
       <c r="CU14" s="24"/>
-      <c r="CV14" s="24" t="s">
+      <c r="CV14" s="24"/>
+      <c r="CW14" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>221</v>
       </c>
@@ -3710,7 +4005,7 @@
         <v>185</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>207</v>
@@ -3745,7 +4040,7 @@
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -3825,11 +4120,12 @@
       <c r="CS15" s="24"/>
       <c r="CT15" s="24"/>
       <c r="CU15" s="24"/>
-      <c r="CV15" s="24" t="s">
+      <c r="CV15" s="24"/>
+      <c r="CW15" s="24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>225</v>
       </c>
@@ -3886,7 +4182,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -3966,11 +4262,12 @@
       <c r="CS16" s="24"/>
       <c r="CT16" s="24"/>
       <c r="CU16" s="24"/>
-      <c r="CV16" s="24" t="s">
+      <c r="CV16" s="24"/>
+      <c r="CW16" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>237</v>
       </c>
@@ -4091,8 +4388,9 @@
       </c>
       <c r="CU17" s="16"/>
       <c r="CV17" s="16"/>
+      <c r="CW17" s="16"/>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>242</v>
       </c>
@@ -4117,7 +4415,7 @@
         <v>185</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="14"/>
@@ -4215,8 +4513,9 @@
       <c r="CT18" s="16"/>
       <c r="CU18" s="16"/>
       <c r="CV18" s="16"/>
+      <c r="CW18" s="16"/>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
@@ -4337,46 +4636,43 @@
       <c r="CT19" s="16"/>
       <c r="CU19" s="16"/>
       <c r="CV19" s="16"/>
+      <c r="CW19" s="16"/>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>278</v>
-      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="1"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
@@ -4390,9 +4686,7 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
@@ -4401,40 +4695,28 @@
       <c r="AP20" s="15"/>
       <c r="AQ20" s="15"/>
       <c r="AR20" s="15"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AU20" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU20" s="15"/>
       <c r="AV20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AW20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ20" s="15" t="s">
-        <v>38</v>
-      </c>
+      <c r="AW20" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="15"/>
       <c r="BA20" s="15" t="s">
-        <v>39</v>
+        <v>365</v>
       </c>
       <c r="BB20" s="15"/>
       <c r="BC20" s="15"/>
       <c r="BD20" s="15"/>
-      <c r="BE20" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="BF20" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="15"/>
       <c r="BG20" s="15"/>
       <c r="BH20" s="15"/>
       <c r="BI20" s="15"/>
@@ -4456,30 +4738,18 @@
       <c r="BY20" s="15"/>
       <c r="BZ20" s="15"/>
       <c r="CA20" s="15"/>
-      <c r="CB20" s="16" t="s">
-        <v>277</v>
-      </c>
+      <c r="CB20" s="15"/>
       <c r="CC20" s="15"/>
       <c r="CD20" s="15"/>
       <c r="CE20" s="15"/>
       <c r="CF20" s="15"/>
       <c r="CG20" s="15"/>
       <c r="CH20" s="15"/>
-      <c r="CI20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ20" s="15">
-        <v>6</v>
-      </c>
-      <c r="CK20" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="CL20" s="15">
-        <v>10</v>
-      </c>
-      <c r="CM20" s="15" t="s">
-        <v>274</v>
-      </c>
+      <c r="CI20" s="15"/>
+      <c r="CJ20" s="15"/>
+      <c r="CK20" s="15"/>
+      <c r="CL20" s="15"/>
+      <c r="CM20" s="15"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="16"/>
       <c r="CP20" s="16"/>
@@ -4487,19 +4757,1698 @@
       <c r="CR20" s="16"/>
       <c r="CS20" s="16"/>
       <c r="CT20" s="16"/>
-      <c r="CU20" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="CV20" s="16"/>
+      <c r="CU20" s="16"/>
+      <c r="CV20" s="1"/>
+      <c r="CW20" s="16"/>
+    </row>
+    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AU21" s="15"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="15"/>
+      <c r="BD21" s="15"/>
+      <c r="BE21" s="16"/>
+      <c r="BF21" s="15"/>
+      <c r="BG21" s="15"/>
+      <c r="BH21" s="15"/>
+      <c r="BI21" s="15"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="15"/>
+      <c r="BL21" s="15"/>
+      <c r="BM21" s="15"/>
+      <c r="BN21" s="15"/>
+      <c r="BO21" s="15"/>
+      <c r="BP21" s="15"/>
+      <c r="BQ21" s="15"/>
+      <c r="BR21" s="15"/>
+      <c r="BS21" s="15"/>
+      <c r="BT21" s="15"/>
+      <c r="BU21" s="15"/>
+      <c r="BV21" s="15"/>
+      <c r="BW21" s="15"/>
+      <c r="BX21" s="15"/>
+      <c r="BY21" s="15"/>
+      <c r="BZ21" s="15"/>
+      <c r="CA21" s="15"/>
+      <c r="CB21" s="15"/>
+      <c r="CC21" s="15"/>
+      <c r="CD21" s="15"/>
+      <c r="CE21" s="15"/>
+      <c r="CF21" s="15"/>
+      <c r="CG21" s="15"/>
+      <c r="CH21" s="15"/>
+      <c r="CI21" s="15"/>
+      <c r="CJ21" s="15"/>
+      <c r="CK21" s="15"/>
+      <c r="CL21" s="15"/>
+      <c r="CM21" s="15"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="16"/>
+      <c r="CP21" s="16"/>
+      <c r="CQ21" s="16"/>
+      <c r="CR21" s="16"/>
+      <c r="CS21" s="16"/>
+      <c r="CT21" s="16"/>
+      <c r="CU21" s="16"/>
+      <c r="CV21" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW21" s="16"/>
+    </row>
+    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="15"/>
+      <c r="BB22" s="15"/>
+      <c r="BC22" s="15"/>
+      <c r="BD22" s="15"/>
+      <c r="BE22" s="16"/>
+      <c r="BF22" s="15"/>
+      <c r="BG22" s="15"/>
+      <c r="BH22" s="15"/>
+      <c r="BI22" s="15"/>
+      <c r="BJ22" s="15"/>
+      <c r="BK22" s="15"/>
+      <c r="BL22" s="15"/>
+      <c r="BM22" s="15"/>
+      <c r="BN22" s="15"/>
+      <c r="BO22" s="15"/>
+      <c r="BP22" s="15"/>
+      <c r="BQ22" s="15"/>
+      <c r="BR22" s="15"/>
+      <c r="BS22" s="15"/>
+      <c r="BT22" s="15"/>
+      <c r="BU22" s="15"/>
+      <c r="BV22" s="15"/>
+      <c r="BW22" s="15"/>
+      <c r="BX22" s="15"/>
+      <c r="BY22" s="15"/>
+      <c r="BZ22" s="15"/>
+      <c r="CA22" s="15"/>
+      <c r="CB22" s="15"/>
+      <c r="CC22" s="15"/>
+      <c r="CD22" s="15"/>
+      <c r="CE22" s="15"/>
+      <c r="CF22" s="15"/>
+      <c r="CG22" s="15"/>
+      <c r="CH22" s="15"/>
+      <c r="CI22" s="15"/>
+      <c r="CJ22" s="15"/>
+      <c r="CK22" s="15"/>
+      <c r="CL22" s="15"/>
+      <c r="CM22" s="15"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="16"/>
+      <c r="CP22" s="16"/>
+      <c r="CQ22" s="16"/>
+      <c r="CR22" s="16"/>
+      <c r="CS22" s="16"/>
+      <c r="CT22" s="16"/>
+      <c r="CU22" s="16"/>
+      <c r="CV22" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW22" s="16"/>
+    </row>
+    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU23" s="15"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AZ23" s="15"/>
+      <c r="BA23" s="15"/>
+      <c r="BB23" s="15"/>
+      <c r="BC23" s="15"/>
+      <c r="BD23" s="15"/>
+      <c r="BE23" s="16"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
+      <c r="BH23" s="15"/>
+      <c r="BI23" s="15"/>
+      <c r="BJ23" s="15"/>
+      <c r="BK23" s="15"/>
+      <c r="BL23" s="15"/>
+      <c r="BM23" s="15"/>
+      <c r="BN23" s="15"/>
+      <c r="BO23" s="15"/>
+      <c r="BP23" s="15"/>
+      <c r="BQ23" s="15"/>
+      <c r="BR23" s="15"/>
+      <c r="BS23" s="15"/>
+      <c r="BT23" s="15"/>
+      <c r="BU23" s="15"/>
+      <c r="BV23" s="15"/>
+      <c r="BW23" s="15"/>
+      <c r="BX23" s="15"/>
+      <c r="BY23" s="15"/>
+      <c r="BZ23" s="15"/>
+      <c r="CA23" s="15"/>
+      <c r="CB23" s="15"/>
+      <c r="CC23" s="15"/>
+      <c r="CD23" s="15"/>
+      <c r="CE23" s="15"/>
+      <c r="CF23" s="15"/>
+      <c r="CG23" s="15"/>
+      <c r="CH23" s="15"/>
+      <c r="CI23" s="15"/>
+      <c r="CJ23" s="15"/>
+      <c r="CK23" s="15"/>
+      <c r="CL23" s="15"/>
+      <c r="CM23" s="15"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="16"/>
+      <c r="CP23" s="16"/>
+      <c r="CQ23" s="16"/>
+      <c r="CR23" s="16"/>
+      <c r="CS23" s="16"/>
+      <c r="CT23" s="16"/>
+      <c r="CU23" s="16"/>
+      <c r="CV23" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW23" s="16"/>
+    </row>
+    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="16"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="15"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="15"/>
+      <c r="BK24" s="15"/>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="15"/>
+      <c r="BN24" s="15"/>
+      <c r="BO24" s="15"/>
+      <c r="BP24" s="15"/>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="15"/>
+      <c r="BS24" s="15"/>
+      <c r="BT24" s="15"/>
+      <c r="BU24" s="15"/>
+      <c r="BV24" s="15"/>
+      <c r="BW24" s="15"/>
+      <c r="BX24" s="15"/>
+      <c r="BY24" s="15"/>
+      <c r="BZ24" s="15"/>
+      <c r="CA24" s="15"/>
+      <c r="CB24" s="15"/>
+      <c r="CC24" s="15"/>
+      <c r="CD24" s="15"/>
+      <c r="CE24" s="15"/>
+      <c r="CF24" s="15"/>
+      <c r="CG24" s="15"/>
+      <c r="CH24" s="15"/>
+      <c r="CI24" s="15"/>
+      <c r="CJ24" s="15"/>
+      <c r="CK24" s="15"/>
+      <c r="CL24" s="15"/>
+      <c r="CM24" s="15"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="16"/>
+      <c r="CP24" s="16"/>
+      <c r="CQ24" s="16"/>
+      <c r="CR24" s="16"/>
+      <c r="CS24" s="16"/>
+      <c r="CT24" s="16"/>
+      <c r="CU24" s="16"/>
+      <c r="CV24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW24" s="16"/>
+    </row>
+    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="16"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="15"/>
+      <c r="BO25" s="15"/>
+      <c r="BP25" s="15"/>
+      <c r="BQ25" s="15"/>
+      <c r="BR25" s="15"/>
+      <c r="BS25" s="15"/>
+      <c r="BT25" s="15"/>
+      <c r="BU25" s="15"/>
+      <c r="BV25" s="15"/>
+      <c r="BW25" s="15"/>
+      <c r="BX25" s="15"/>
+      <c r="BY25" s="15"/>
+      <c r="BZ25" s="15"/>
+      <c r="CA25" s="15"/>
+      <c r="CB25" s="15"/>
+      <c r="CC25" s="15"/>
+      <c r="CD25" s="15"/>
+      <c r="CE25" s="15"/>
+      <c r="CF25" s="15"/>
+      <c r="CG25" s="15"/>
+      <c r="CH25" s="15"/>
+      <c r="CI25" s="15"/>
+      <c r="CJ25" s="15"/>
+      <c r="CK25" s="15"/>
+      <c r="CL25" s="15"/>
+      <c r="CM25" s="15"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="16"/>
+      <c r="CP25" s="16"/>
+      <c r="CQ25" s="16"/>
+      <c r="CR25" s="16"/>
+      <c r="CS25" s="16"/>
+      <c r="CT25" s="16"/>
+      <c r="CU25" s="16"/>
+      <c r="CV25" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW25" s="16"/>
+    </row>
+    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="16"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="15"/>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="15"/>
+      <c r="BO26" s="15"/>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="15"/>
+      <c r="BR26" s="15"/>
+      <c r="BS26" s="15"/>
+      <c r="BT26" s="15"/>
+      <c r="BU26" s="15"/>
+      <c r="BV26" s="15"/>
+      <c r="BW26" s="15"/>
+      <c r="BX26" s="15"/>
+      <c r="BY26" s="15"/>
+      <c r="BZ26" s="15"/>
+      <c r="CA26" s="15"/>
+      <c r="CB26" s="15"/>
+      <c r="CC26" s="15"/>
+      <c r="CD26" s="15"/>
+      <c r="CE26" s="15"/>
+      <c r="CF26" s="15"/>
+      <c r="CG26" s="15"/>
+      <c r="CH26" s="15"/>
+      <c r="CI26" s="15"/>
+      <c r="CJ26" s="15"/>
+      <c r="CK26" s="15"/>
+      <c r="CL26" s="15"/>
+      <c r="CM26" s="15"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="16"/>
+      <c r="CP26" s="16"/>
+      <c r="CQ26" s="16"/>
+      <c r="CR26" s="16"/>
+      <c r="CS26" s="16"/>
+      <c r="CT26" s="16"/>
+      <c r="CU26" s="16"/>
+      <c r="CV26" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW26" s="16"/>
+    </row>
+    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="16"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="15"/>
+      <c r="BN27" s="15"/>
+      <c r="BO27" s="15"/>
+      <c r="BP27" s="15"/>
+      <c r="BQ27" s="15"/>
+      <c r="BR27" s="15"/>
+      <c r="BS27" s="15"/>
+      <c r="BT27" s="15"/>
+      <c r="BU27" s="15"/>
+      <c r="BV27" s="15"/>
+      <c r="BW27" s="15"/>
+      <c r="BX27" s="15"/>
+      <c r="BY27" s="15"/>
+      <c r="BZ27" s="15"/>
+      <c r="CA27" s="15"/>
+      <c r="CB27" s="15"/>
+      <c r="CC27" s="15"/>
+      <c r="CD27" s="15"/>
+      <c r="CE27" s="15"/>
+      <c r="CF27" s="15"/>
+      <c r="CG27" s="15"/>
+      <c r="CH27" s="15"/>
+      <c r="CI27" s="15"/>
+      <c r="CJ27" s="15"/>
+      <c r="CK27" s="15"/>
+      <c r="CL27" s="15"/>
+      <c r="CM27" s="15"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="16"/>
+      <c r="CP27" s="16"/>
+      <c r="CQ27" s="16"/>
+      <c r="CR27" s="16"/>
+      <c r="CS27" s="16"/>
+      <c r="CT27" s="16"/>
+      <c r="CU27" s="16"/>
+      <c r="CV27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW27" s="16"/>
+    </row>
+    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU28" s="15"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ28" s="15"/>
+      <c r="BA28" s="15"/>
+      <c r="BB28" s="15"/>
+      <c r="BC28" s="15"/>
+      <c r="BD28" s="15"/>
+      <c r="BE28" s="16"/>
+      <c r="BF28" s="15"/>
+      <c r="BG28" s="15"/>
+      <c r="BH28" s="15"/>
+      <c r="BI28" s="15"/>
+      <c r="BJ28" s="15"/>
+      <c r="BK28" s="15"/>
+      <c r="BL28" s="15"/>
+      <c r="BM28" s="15"/>
+      <c r="BN28" s="15"/>
+      <c r="BO28" s="15"/>
+      <c r="BP28" s="15"/>
+      <c r="BQ28" s="15"/>
+      <c r="BR28" s="15"/>
+      <c r="BS28" s="15"/>
+      <c r="BT28" s="15"/>
+      <c r="BU28" s="15"/>
+      <c r="BV28" s="15"/>
+      <c r="BW28" s="15"/>
+      <c r="BX28" s="15"/>
+      <c r="BY28" s="15"/>
+      <c r="BZ28" s="15"/>
+      <c r="CA28" s="15"/>
+      <c r="CB28" s="15"/>
+      <c r="CC28" s="15"/>
+      <c r="CD28" s="15"/>
+      <c r="CE28" s="15"/>
+      <c r="CF28" s="15"/>
+      <c r="CG28" s="15"/>
+      <c r="CH28" s="15"/>
+      <c r="CI28" s="15"/>
+      <c r="CJ28" s="15"/>
+      <c r="CK28" s="15"/>
+      <c r="CL28" s="15"/>
+      <c r="CM28" s="15"/>
+      <c r="CN28" s="1"/>
+      <c r="CO28" s="16"/>
+      <c r="CP28" s="16"/>
+      <c r="CQ28" s="16"/>
+      <c r="CR28" s="16"/>
+      <c r="CS28" s="16"/>
+      <c r="CT28" s="16"/>
+      <c r="CU28" s="16"/>
+      <c r="CV28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW28" s="16"/>
+    </row>
+    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ29" s="15"/>
+      <c r="BA29" s="15"/>
+      <c r="BB29" s="15"/>
+      <c r="BC29" s="15"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="16"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="15"/>
+      <c r="BJ29" s="15"/>
+      <c r="BK29" s="15"/>
+      <c r="BL29" s="15"/>
+      <c r="BM29" s="15"/>
+      <c r="BN29" s="15"/>
+      <c r="BO29" s="15"/>
+      <c r="BP29" s="15"/>
+      <c r="BQ29" s="15"/>
+      <c r="BR29" s="15"/>
+      <c r="BS29" s="15"/>
+      <c r="BT29" s="15"/>
+      <c r="BU29" s="15"/>
+      <c r="BV29" s="15"/>
+      <c r="BW29" s="15"/>
+      <c r="BX29" s="15"/>
+      <c r="BY29" s="15"/>
+      <c r="BZ29" s="15"/>
+      <c r="CA29" s="15"/>
+      <c r="CB29" s="15"/>
+      <c r="CC29" s="15"/>
+      <c r="CD29" s="15"/>
+      <c r="CE29" s="15"/>
+      <c r="CF29" s="15"/>
+      <c r="CG29" s="15"/>
+      <c r="CH29" s="15"/>
+      <c r="CI29" s="15"/>
+      <c r="CJ29" s="15"/>
+      <c r="CK29" s="15"/>
+      <c r="CL29" s="15"/>
+      <c r="CM29" s="15"/>
+      <c r="CN29" s="1"/>
+      <c r="CO29" s="16"/>
+      <c r="CP29" s="16"/>
+      <c r="CQ29" s="16"/>
+      <c r="CR29" s="16"/>
+      <c r="CS29" s="16"/>
+      <c r="CT29" s="16"/>
+      <c r="CU29" s="16"/>
+      <c r="CV29" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW29" s="16"/>
+    </row>
+    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="15"/>
+      <c r="BD30" s="15"/>
+      <c r="BE30" s="16"/>
+      <c r="BF30" s="15"/>
+      <c r="BG30" s="15"/>
+      <c r="BH30" s="15"/>
+      <c r="BI30" s="15"/>
+      <c r="BJ30" s="15"/>
+      <c r="BK30" s="15"/>
+      <c r="BL30" s="15"/>
+      <c r="BM30" s="15"/>
+      <c r="BN30" s="15"/>
+      <c r="BO30" s="15"/>
+      <c r="BP30" s="15"/>
+      <c r="BQ30" s="15"/>
+      <c r="BR30" s="15"/>
+      <c r="BS30" s="15"/>
+      <c r="BT30" s="15"/>
+      <c r="BU30" s="15"/>
+      <c r="BV30" s="15"/>
+      <c r="BW30" s="15"/>
+      <c r="BX30" s="15"/>
+      <c r="BY30" s="15"/>
+      <c r="BZ30" s="15"/>
+      <c r="CA30" s="15"/>
+      <c r="CB30" s="15"/>
+      <c r="CC30" s="15"/>
+      <c r="CD30" s="15"/>
+      <c r="CE30" s="15"/>
+      <c r="CF30" s="15"/>
+      <c r="CG30" s="15"/>
+      <c r="CH30" s="15"/>
+      <c r="CI30" s="15"/>
+      <c r="CJ30" s="15"/>
+      <c r="CK30" s="15"/>
+      <c r="CL30" s="15"/>
+      <c r="CM30" s="15"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="16"/>
+      <c r="CP30" s="16"/>
+      <c r="CQ30" s="16"/>
+      <c r="CR30" s="16"/>
+      <c r="CS30" s="16"/>
+      <c r="CT30" s="16"/>
+      <c r="CU30" s="16"/>
+      <c r="CV30" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW30" s="16"/>
+    </row>
+    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="V31" s="1"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="15"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU31" s="15"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AZ31" s="15"/>
+      <c r="BA31" s="15"/>
+      <c r="BB31" s="15"/>
+      <c r="BC31" s="15"/>
+      <c r="BD31" s="15"/>
+      <c r="BE31" s="16"/>
+      <c r="BF31" s="15"/>
+      <c r="BG31" s="15"/>
+      <c r="BH31" s="15"/>
+      <c r="BI31" s="15"/>
+      <c r="BJ31" s="15"/>
+      <c r="BK31" s="15"/>
+      <c r="BL31" s="15"/>
+      <c r="BM31" s="15"/>
+      <c r="BN31" s="15"/>
+      <c r="BO31" s="15"/>
+      <c r="BP31" s="15"/>
+      <c r="BQ31" s="15"/>
+      <c r="BR31" s="15"/>
+      <c r="BS31" s="15"/>
+      <c r="BT31" s="15"/>
+      <c r="BU31" s="15"/>
+      <c r="BV31" s="15"/>
+      <c r="BW31" s="15"/>
+      <c r="BX31" s="15"/>
+      <c r="BY31" s="15"/>
+      <c r="BZ31" s="15"/>
+      <c r="CA31" s="15"/>
+      <c r="CB31" s="15"/>
+      <c r="CC31" s="15"/>
+      <c r="CD31" s="15"/>
+      <c r="CE31" s="15"/>
+      <c r="CF31" s="15"/>
+      <c r="CG31" s="15"/>
+      <c r="CH31" s="15"/>
+      <c r="CI31" s="15"/>
+      <c r="CJ31" s="15"/>
+      <c r="CK31" s="15"/>
+      <c r="CL31" s="15"/>
+      <c r="CM31" s="15"/>
+      <c r="CN31" s="1"/>
+      <c r="CO31" s="16"/>
+      <c r="CP31" s="16"/>
+      <c r="CQ31" s="16"/>
+      <c r="CR31" s="16"/>
+      <c r="CS31" s="16"/>
+      <c r="CT31" s="16"/>
+      <c r="CU31" s="16"/>
+      <c r="CV31" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW31" s="16"/>
+    </row>
+    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
+      <c r="AR32" s="15"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU32" s="15"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AZ32" s="15"/>
+      <c r="BA32" s="15"/>
+      <c r="BB32" s="15"/>
+      <c r="BC32" s="15"/>
+      <c r="BD32" s="15"/>
+      <c r="BE32" s="16"/>
+      <c r="BF32" s="15"/>
+      <c r="BG32" s="15"/>
+      <c r="BH32" s="15"/>
+      <c r="BI32" s="15"/>
+      <c r="BJ32" s="15"/>
+      <c r="BK32" s="15"/>
+      <c r="BL32" s="15"/>
+      <c r="BM32" s="15"/>
+      <c r="BN32" s="15"/>
+      <c r="BO32" s="15"/>
+      <c r="BP32" s="15"/>
+      <c r="BQ32" s="15"/>
+      <c r="BR32" s="15"/>
+      <c r="BS32" s="15"/>
+      <c r="BT32" s="15"/>
+      <c r="BU32" s="15"/>
+      <c r="BV32" s="15"/>
+      <c r="BW32" s="15"/>
+      <c r="BX32" s="15"/>
+      <c r="BY32" s="15"/>
+      <c r="BZ32" s="15"/>
+      <c r="CA32" s="15"/>
+      <c r="CB32" s="15"/>
+      <c r="CC32" s="15"/>
+      <c r="CD32" s="15"/>
+      <c r="CE32" s="15"/>
+      <c r="CF32" s="15"/>
+      <c r="CG32" s="15"/>
+      <c r="CH32" s="15"/>
+      <c r="CI32" s="15"/>
+      <c r="CJ32" s="15"/>
+      <c r="CK32" s="15"/>
+      <c r="CL32" s="15"/>
+      <c r="CM32" s="15"/>
+      <c r="CN32" s="1"/>
+      <c r="CO32" s="16"/>
+      <c r="CP32" s="16"/>
+      <c r="CQ32" s="16"/>
+      <c r="CR32" s="16"/>
+      <c r="CS32" s="16"/>
+      <c r="CT32" s="16"/>
+      <c r="CU32" s="16"/>
+      <c r="CV32" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="CW32" s="16"/>
+    </row>
+    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA33" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="15"/>
+      <c r="BD33" s="15"/>
+      <c r="BE33" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="BF33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG33" s="15"/>
+      <c r="BH33" s="15"/>
+      <c r="BI33" s="15"/>
+      <c r="BJ33" s="15"/>
+      <c r="BK33" s="15"/>
+      <c r="BL33" s="15"/>
+      <c r="BM33" s="15"/>
+      <c r="BN33" s="15"/>
+      <c r="BO33" s="15"/>
+      <c r="BP33" s="15"/>
+      <c r="BQ33" s="15"/>
+      <c r="BR33" s="15"/>
+      <c r="BS33" s="15"/>
+      <c r="BT33" s="15"/>
+      <c r="BU33" s="15"/>
+      <c r="BV33" s="15"/>
+      <c r="BW33" s="15"/>
+      <c r="BX33" s="15"/>
+      <c r="BY33" s="15"/>
+      <c r="BZ33" s="15"/>
+      <c r="CA33" s="15"/>
+      <c r="CB33" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="CC33" s="15"/>
+      <c r="CD33" s="15"/>
+      <c r="CE33" s="15"/>
+      <c r="CF33" s="15"/>
+      <c r="CG33" s="15"/>
+      <c r="CH33" s="15"/>
+      <c r="CI33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ33" s="15">
+        <v>6</v>
+      </c>
+      <c r="CK33" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="CL33" s="15">
+        <v>10</v>
+      </c>
+      <c r="CM33" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="16"/>
+      <c r="CP33" s="16"/>
+      <c r="CQ33" s="16"/>
+      <c r="CR33" s="16"/>
+      <c r="CS33" s="16"/>
+      <c r="CT33" s="16"/>
+      <c r="CU33" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="CV33" s="16"/>
+      <c r="CW33" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" xr:uid="{9E455840-DC38-468E-816E-C20661A2FB36}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{CE6B9826-BFAB-41F0-B871-4C1950B5E4BF}"/>
+    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com" xr:uid="{9E455840-DC38-468E-816E-C20661A2FB36}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{84B4F6F0-61CD-43DE-8B70-EB09A9D93DC7}"/>
+    <hyperlink ref="W14" r:id="rId4" xr:uid="{8C71C607-2682-4605-B2F2-128FAE06F1D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="505">
   <si>
     <t>Environment</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Jittu@123</t>
   </si>
   <si>
-    <t>SMX2</t>
-  </si>
-  <si>
     <t>sogo_abhandi </t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Pass/Fail/Skip</t>
-  </si>
-  <si>
-    <t>Failure Reason</t>
   </si>
   <si>
     <t>Expected</t>
@@ -663,9 +657,6 @@
   </si>
   <si>
     <t>Q 1(b). Please provide your details: Gender</t>
-  </si>
-  <si>
-    <t>ayadav@zarca.com</t>
   </si>
   <si>
     <t>3</t>
@@ -871,288 +862,817 @@
     <t>Data Import</t>
   </si>
   <si>
+    <t>DATA DP SURVEY 3</t>
+  </si>
+  <si>
+    <t>SoGo Data Import File.xls</t>
+  </si>
+  <si>
+    <t>Smoke_TC18</t>
+  </si>
+  <si>
+    <t>Data Export</t>
+  </si>
+  <si>
+    <t>DATA DP SURVEY 2</t>
+  </si>
+  <si>
+    <t>Smoke_TC19</t>
+  </si>
+  <si>
+    <t>Comparison I</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Much less than others</t>
+  </si>
+  <si>
+    <t>Smoke_TC20</t>
+  </si>
+  <si>
+    <t>surveyType</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>question 1</t>
+  </si>
+  <si>
+    <t>harley-davidson-logo-vector.png</t>
+  </si>
+  <si>
+    <t>DP-POLL</t>
+  </si>
+  <si>
+    <t>https://image.shutterstock.com/image-vector/link-icon-hyperlink-chain-symbol-260nw-1186749931.jpg</t>
+  </si>
+  <si>
+    <t>image of mountain.jpg</t>
+  </si>
+  <si>
+    <t>DANCING_BABY.gif</t>
+  </si>
+  <si>
+    <t>green.jpeg</t>
+  </si>
+  <si>
+    <t>hotel.jpg</t>
+  </si>
+  <si>
+    <t>pdf.pdf</t>
+  </si>
+  <si>
+    <t>Alert Box message: Your file should be of the following format .gif, .jpg, .png or .jpeg.</t>
+  </si>
+  <si>
+    <t>Alert Box message: The Image file to upload cannot exceed 5 MB.</t>
+  </si>
+  <si>
+    <t>1111111 do not delete (dp check)</t>
+  </si>
+  <si>
+    <t>Smoke_TC21</t>
+  </si>
+  <si>
+    <t>Smoke_TC22</t>
+  </si>
+  <si>
+    <t>Smoke_TC23</t>
+  </si>
+  <si>
+    <t>Smoke_TC24</t>
+  </si>
+  <si>
+    <t>Smoke_TC25</t>
+  </si>
+  <si>
+    <t>Smoke_TC26</t>
+  </si>
+  <si>
+    <t>Smoke_TC27</t>
+  </si>
+  <si>
+    <t>Smoke_TC28</t>
+  </si>
+  <si>
+    <t>Smoke_TC29</t>
+  </si>
+  <si>
+    <t>Smoke_TC30</t>
+  </si>
+  <si>
+    <t>Smoke_TC31</t>
+  </si>
+  <si>
+    <t>question 2</t>
+  </si>
+  <si>
+    <t>question 3</t>
+  </si>
+  <si>
+    <t>question 4</t>
+  </si>
+  <si>
+    <t>question 5</t>
+  </si>
+  <si>
+    <t>question 6</t>
+  </si>
+  <si>
+    <t>question 8</t>
+  </si>
+  <si>
+    <t>question 9</t>
+  </si>
+  <si>
+    <t>question 10</t>
+  </si>
+  <si>
+    <t>question 11</t>
+  </si>
+  <si>
+    <t>question 12</t>
+  </si>
+  <si>
+    <t>question 13</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer(.png). 4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and deleted</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo</t>
+  </si>
+  <si>
+    <t>logo should be uploaded</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. It will select logo from other survey and use that copied logo as survey logo. 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.With the help of the entered URL it will upload survey logo . 4.After uploading it will delete the logo</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpg format image.</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .gif format image.</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to left side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to left</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to right side</t>
+  </si>
+  <si>
+    <t>logo should be uploaded and align to right</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpeg format image.</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload image which is greater than 5 mb.</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload unsupported file</t>
+  </si>
+  <si>
+    <t>1. logo should not upload 2. should get an alert which format of files is supporting</t>
+  </si>
+  <si>
+    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo.  4.After uploading  it will delete the uploaded logo</t>
+  </si>
+  <si>
+    <t>Logo Upload From Computer</t>
+  </si>
+  <si>
+    <t>Use account logo</t>
+  </si>
+  <si>
+    <t>Copy from another project</t>
+  </si>
+  <si>
+    <t>Insert logo using URL</t>
+  </si>
+  <si>
+    <t>Uploading JPG file</t>
+  </si>
+  <si>
+    <t>Uploading GIF file</t>
+  </si>
+  <si>
+    <t>Align logo to left</t>
+  </si>
+  <si>
+    <t>Align logo to Right</t>
+  </si>
+  <si>
+    <t>Uploading JPEG file</t>
+  </si>
+  <si>
+    <t>Logo greater than 5mb</t>
+  </si>
+  <si>
+    <t>Unsupported file for logo</t>
+  </si>
+  <si>
+    <t>Delete use account logo</t>
+  </si>
+  <si>
+    <t>Survey-Logo-20</t>
+  </si>
+  <si>
+    <t>Survey-Logo-21</t>
+  </si>
+  <si>
+    <t>Survey-Logo-22</t>
+  </si>
+  <si>
+    <t>Survey-Logo-23</t>
+  </si>
+  <si>
+    <t>Survey-Logo-24</t>
+  </si>
+  <si>
+    <t>Survey-Logo-25</t>
+  </si>
+  <si>
+    <t>Survey-Logo-26</t>
+  </si>
+  <si>
+    <t>Survey-Logo-27</t>
+  </si>
+  <si>
+    <t>Survey-Logo-28</t>
+  </si>
+  <si>
+    <t>Survey-Logo-29</t>
+  </si>
+  <si>
+    <t>Survey-Logo-30</t>
+  </si>
+  <si>
+    <t>Survey-Logo-31</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>questio</t>
+  </si>
+  <si>
+    <t>https://www.sogosurvey.com/static/login.aspx</t>
+  </si>
+  <si>
+    <t>.NET Framework FAQ
+What is .NET Framework used for?
+.NET Framework is used to create and run software applications. .NET apps can run on many operating systems, using different implementations of .NET. .NET Framework is used for running .NET apps on Windows.
+Who uses .NET Framework?
+Software developers and the users of their applications both use .NET Framework:
+Users of applications built with the .NET Framework need to have .NET Framework installed. In most cases, .NET Framework is already installed with Windows. If needed, you can download .NET Framework.
+Software developers use .NET Framework to build many different types of applications—websites, services, desktop apps, and more with Visual Studio. Visual Studio is an integrated development environment (IDE) that provides development productivity tools and debugging capabilities. See the .NET customer showcase for examples of what people are building with .NET.
+Why do I need .NET Framework?
+You need .NET Framework installed to run applications on Windows that were created using .NET Framework. It's already included in many versions of Windows. You only need to download and install .NET Framework if prompted to do so.
+How does .NET Framework work?
+.NET Framework applications are written in C#, F#, or Visual Basic and compiled to Common Intermediate Language (CIL). The Common Language Runtime (CLR) runs .NET applications on a given machine, converting the CIL to machine code. See Architecture of .NET Framework for more info.
+What are the main components/features of .NET Framework?
+The two major components of .NET Framework are the Common Language Runtime (CLR) and the .NET Framework Class Library. The CLR is the execution engine that handles running applications. The Class Library provides a set of APIs and types for common functionality. See Architecture of .NET Framework for more info.
+What is the difference between .NET and .NET Framework?
+.NET and .NET Framework share many of the same components and you can share code across the two. Some key differences include:
+.NET is cross-platform and runs on Linux, macOS, and Windows. .NET Framework only runs on Windows.
+.NET is open-source and accepts contributions from the community. The .NET Framework source code is available but doesn't take direct contributions.
+All of the innovation happens in .NET.
+.NET Framework is included in Windows and automatically updated machine-wide by Windows Update. .NET is shipped independently.
+See .NET vs. .NET Framework for server apps for more details.
+Can you have multiple .NET Frameworks installed?
+Some versions of .NET Framework are installed side-by-side, while others will upgrade an existing version (known as an in-place update). In-place updates occur when two .NET Framework versions share the same CLR version.
+For example, installing .NET Framework 4.8 on a machine with .NET Framework 4.7.2 and 3.5 installed will perform an in-place update of the 4.7.2 installation and leave 3.5 installed separately.
+CLR version used by .NET Framework versions.NET Framework versionCLR version.NET Framework 4.x4.0
+.NET Framework 2.x and 3.x2.0
+.NET Framework 1.11.1</t>
+  </si>
+  <si>
+    <t>Maximum number of characters allowed for 'Header Message' is 3000.</t>
+  </si>
+  <si>
+    <t>Smoke_TC43</t>
+  </si>
+  <si>
+    <t>Smoke_TC44</t>
+  </si>
+  <si>
+    <t>.NET Framework FAQ
+What is .NET Framework used for?
+.NET Framework is used to create and run software applications. .NET apps can run on many operating systems, using different implementations of .NET. .NET Framework is used for running .NET apps on Windows.
+Who uses .NET Framework?
+Software developers and the users of their applications both use .NET Framework:
+Users of applications built with the .NET Framework need to have .NET Framework installed. In most cases, .NET Framework is already installed with Windows. If needed, you can download .NET Framework.
+Software developers use .NET Framework to build many different types of applications—websites, services, desktop apps, and more with Visual Studio. Visual Studio is an integrated development environment (IDE) that provides development productivity tools and debugging capabilities. See the .NET customer showcase for examples of what people are building with .NET.
+Why do I need .NET Framework?
+You need .NET Framework installed to run applications on Windows that were created using .NET Framework. It's already included in many versions of Windows. You only need to download and install .NET Framework if prompted to do so.
+How does .NET Framework work?
+.NET Framework applications are written in C#, F#, or Visual Basic and compiled to Common Intermediate Language (CIL). The Common Language Runtime (CLR) runs .NET applications on a given machine, converting the CIL to machine code. See Architecture of .NET Framework for more info.
+What are the main components/features of .NET Framework?
+The two major components of .NET Framework are the Common Language Runtime (CLR) and the .NET Framework Class Library. The CLR is the execution engine that handles running applications. The Class Library provides a set of APIs and types for common functionality. See Architecture of .NET Framework for more info.
+What is the difference between .NET and .NET Framework?
+.NET and .NET Framework share many of the same components and you can share code across the two. Some key differences include:
+.NET is cross-platform and runs on Linux, macOS, and Windows. .NET Framework only runs on Windows.
+.NET is open-source and accepts contributions from the community. The .NET Framework source code is available but doesn't take direct contributions.
+All of the innovation happens in .NET.
+.NET Framework is included in Windows and automatically updated machine-wide by Windows Update. .NET is shipped independently.
+See .NET vs. .NET Framework for server apps for more details.
+Can you have multiple .NET Frameworks installed?
+Some versions of .NET Framework are installed side-by-side, while others will upgrade an existing version (known as an in-place update). In-place updates occur when two .NET Framework versions share the same CLR version.
+For example, installing .NET Framework 4.8 on a machine with .NET Framework 4.7.2 and 3.5 installed will perform an in-place update of the 4.7.2 installation and leave 3.5 installed separately.
+CLR version used by .NET Framework versions.NET Framework versionCLR version.NET Framework 4.x4.0
+.NET Framework 2.x and 3.x2.0
+.NET Framework 1.11.2</t>
+  </si>
+  <si>
+    <t>SMX</t>
+  </si>
+  <si>
+    <t>Smoke_TC45</t>
+  </si>
+  <si>
+    <t>Smoke_TC46</t>
+  </si>
+  <si>
+    <t>Smoke_TC47</t>
+  </si>
+  <si>
+    <t>Smoke_TC48</t>
+  </si>
+  <si>
+    <t>Smoke_TC49</t>
+  </si>
+  <si>
+    <t>Smoke_TC50</t>
+  </si>
+  <si>
+    <t>Smoke_TC51</t>
+  </si>
+  <si>
+    <t>Smoke_TC52</t>
+  </si>
+  <si>
+    <t>Smoke_TC53</t>
+  </si>
+  <si>
+    <t>Smoke_TC54</t>
+  </si>
+  <si>
+    <t>Smoke_TC55</t>
+  </si>
+  <si>
+    <t>Smoke_TC56</t>
+  </si>
+  <si>
+    <t>Smoke_TC57</t>
+  </si>
+  <si>
+    <t>Smoke_TC58</t>
+  </si>
+  <si>
+    <t>Smoke_TC59</t>
+  </si>
+  <si>
+    <t>Smoke_TC60</t>
+  </si>
+  <si>
+    <t>Smoke_TC61</t>
+  </si>
+  <si>
+    <t>Smoke_TC62</t>
+  </si>
+  <si>
+    <t>Smoke_TC63</t>
+  </si>
+  <si>
+    <t>Smoke_TC64</t>
+  </si>
+  <si>
+    <t>Smoke_TC65</t>
+  </si>
+  <si>
+    <t>Smoke_TC66</t>
+  </si>
+  <si>
+    <t>Smoke_TC67</t>
+  </si>
+  <si>
+    <t>Smoke_TC68</t>
+  </si>
+  <si>
+    <t>Smoke_TC69</t>
+  </si>
+  <si>
+    <t>Smoke_TC70</t>
+  </si>
+  <si>
+    <t>Smoke_TC71</t>
+  </si>
+  <si>
+    <t>Smoke_TC72</t>
+  </si>
+  <si>
+    <t>Smoke_TC73</t>
+  </si>
+  <si>
+    <t>Smoke_TC74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iframe Button not present on page.</t>
+  </si>
+  <si>
+    <t>Maximum number of characters allowed for 'Footer Message' is 3000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create Project Button not present on page.</t>
+  </si>
+  <si>
+    <t>header and footer 43</t>
+  </si>
+  <si>
+    <t>header and footer 44</t>
+  </si>
+  <si>
+    <t>header and footer 45</t>
+  </si>
+  <si>
+    <t>header and footer 46</t>
+  </si>
+  <si>
+    <t>header and footer 47</t>
+  </si>
+  <si>
+    <t>header and footer 48</t>
+  </si>
+  <si>
+    <t>header and footer 49</t>
+  </si>
+  <si>
+    <t>header and footer 50</t>
+  </si>
+  <si>
+    <t>header and footer 51</t>
+  </si>
+  <si>
+    <t>header and footer 52</t>
+  </si>
+  <si>
+    <t>header and footer 53</t>
+  </si>
+  <si>
+    <t>header and footer 54</t>
+  </si>
+  <si>
+    <t>header and footer 55</t>
+  </si>
+  <si>
+    <t>header and footer 56</t>
+  </si>
+  <si>
+    <t>header and footer 57</t>
+  </si>
+  <si>
+    <t>header and footer 58</t>
+  </si>
+  <si>
+    <t>header and footer 59</t>
+  </si>
+  <si>
+    <t>header and footer 60</t>
+  </si>
+  <si>
+    <t>header and footer 61</t>
+  </si>
+  <si>
+    <t>header and footer 62</t>
+  </si>
+  <si>
+    <t>header and footer 63</t>
+  </si>
+  <si>
+    <t>header and footer 64</t>
+  </si>
+  <si>
+    <t>header and footer 65</t>
+  </si>
+  <si>
+    <t>header and footer 66</t>
+  </si>
+  <si>
+    <t>header and footer 67</t>
+  </si>
+  <si>
+    <t>header and footer 68</t>
+  </si>
+  <si>
+    <t>header and footer 69</t>
+  </si>
+  <si>
+    <t>header and footer 70</t>
+  </si>
+  <si>
+    <t>header and footer 71</t>
+  </si>
+  <si>
+    <t>header and footer 72</t>
+  </si>
+  <si>
+    <t>header and footer 73</t>
+  </si>
+  <si>
+    <t>header and footer 74</t>
+  </si>
+  <si>
+    <t>Maroon</t>
+  </si>
+  <si>
+    <t>amulla@zarca.com,vgrandhi@zarca.com</t>
+  </si>
+  <si>
+    <t>amulla@zarca.com</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>DATA DP SURVEY 3</t>
-  </si>
-  <si>
-    <t>SoGo Data Import File.xls</t>
-  </si>
-  <si>
-    <t>Smoke_TC18</t>
-  </si>
-  <si>
-    <t>Data Export</t>
-  </si>
-  <si>
-    <t>DATA DP SURVEY 2</t>
-  </si>
-  <si>
-    <t>Smoke_TC19</t>
-  </si>
-  <si>
-    <t>Comparison I</t>
-  </si>
-  <si>
-    <t>Arabic</t>
-  </si>
-  <si>
-    <t>Much less than others</t>
-  </si>
-  <si>
-    <t>Smoke_TC20</t>
-  </si>
-  <si>
-    <t>surveyType</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>question 1</t>
-  </si>
-  <si>
-    <t>harley-davidson-logo-vector.png</t>
-  </si>
-  <si>
-    <t>DP-POLL</t>
-  </si>
-  <si>
-    <t>https://image.shutterstock.com/image-vector/link-icon-hyperlink-chain-symbol-260nw-1186749931.jpg</t>
-  </si>
-  <si>
-    <t>image of mountain.jpg</t>
-  </si>
-  <si>
-    <t>DANCING_BABY.gif</t>
-  </si>
-  <si>
-    <t>green.jpeg</t>
-  </si>
-  <si>
-    <t>hotel.jpg</t>
-  </si>
-  <si>
-    <t>pdf.pdf</t>
-  </si>
-  <si>
-    <t>Alert Box message: Your file should be of the following format .gif, .jpg, .png or .jpeg.</t>
-  </si>
-  <si>
-    <t>Alert Box message: The Image file to upload cannot exceed 5 MB.</t>
-  </si>
-  <si>
-    <t>1111111 do not delete (dp check)</t>
-  </si>
-  <si>
-    <t>Smoke_TC21</t>
-  </si>
-  <si>
-    <t>Smoke_TC22</t>
-  </si>
-  <si>
-    <t>Smoke_TC23</t>
-  </si>
-  <si>
-    <t>Smoke_TC24</t>
-  </si>
-  <si>
-    <t>Smoke_TC25</t>
-  </si>
-  <si>
-    <t>Smoke_TC26</t>
-  </si>
-  <si>
-    <t>Smoke_TC27</t>
-  </si>
-  <si>
-    <t>Smoke_TC28</t>
-  </si>
-  <si>
-    <t>Smoke_TC29</t>
-  </si>
-  <si>
-    <t>Smoke_TC30</t>
-  </si>
-  <si>
-    <t>Smoke_TC31</t>
-  </si>
-  <si>
-    <t>question 2</t>
-  </si>
-  <si>
-    <t>question 3</t>
-  </si>
-  <si>
-    <t>question 4</t>
-  </si>
-  <si>
-    <t>question 5</t>
-  </si>
-  <si>
-    <t>question 6</t>
-  </si>
-  <si>
-    <t>question 8</t>
-  </si>
-  <si>
-    <t>question 9</t>
-  </si>
-  <si>
-    <t>question 10</t>
-  </si>
-  <si>
-    <t>question 11</t>
-  </si>
-  <si>
-    <t>question 12</t>
-  </si>
-  <si>
-    <t>question 13</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer(.png). 4.After uploading  it will delete the uploaded logo</t>
-  </si>
-  <si>
-    <t>logo should be uploaded and deleted</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo</t>
-  </si>
-  <si>
-    <t>logo should be uploaded</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. It will select logo from other survey and use that copied logo as survey logo. 4.After uploading it will delete the logo</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.With the help of the entered URL it will upload survey logo . 4.After uploading it will delete the logo</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpg format image.</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .gif format image.</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to left side</t>
-  </si>
-  <si>
-    <t>logo should be uploaded and align to left</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer. 4.After uploading  it will align survey logo to right side</t>
-  </si>
-  <si>
-    <t>logo should be uploaded and align to right</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3. Logo is going to upload from computer which is .jpeg format image.</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload image which is greater than 5 mb.</t>
-  </si>
-  <si>
-    <t>1. logo should not upload 2. should get an alert</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.It will try to upload unsupported file</t>
-  </si>
-  <si>
-    <t>1. logo should not upload 2. should get an alert which format of files is supporting</t>
-  </si>
-  <si>
-    <t>1. It will create a new survey. 2. Add textbox question. 3.It will use account logo as survey logo.  4.After uploading  it will delete the uploaded logo</t>
-  </si>
-  <si>
-    <t>Logo Upload From Computer</t>
-  </si>
-  <si>
-    <t>Use account logo</t>
-  </si>
-  <si>
-    <t>Copy from another project</t>
-  </si>
-  <si>
-    <t>Insert logo using URL</t>
-  </si>
-  <si>
-    <t>Uploading JPG file</t>
-  </si>
-  <si>
-    <t>Uploading GIF file</t>
-  </si>
-  <si>
-    <t>Align logo to left</t>
-  </si>
-  <si>
-    <t>Align logo to Right</t>
-  </si>
-  <si>
-    <t>Uploading JPEG file</t>
-  </si>
-  <si>
-    <t>Logo greater than 5mb</t>
-  </si>
-  <si>
-    <t>Unsupported file for logo</t>
-  </si>
-  <si>
-    <t>Delete use account logo</t>
-  </si>
-  <si>
-    <t>Survey-Logo-20</t>
-  </si>
-  <si>
-    <t>Survey-Logo-21</t>
-  </si>
-  <si>
-    <t>Survey-Logo-22</t>
-  </si>
-  <si>
-    <t>Survey-Logo-23</t>
-  </si>
-  <si>
-    <t>Survey-Logo-24</t>
-  </si>
-  <si>
-    <t>Survey-Logo-25</t>
-  </si>
-  <si>
-    <t>Survey-Logo-26</t>
-  </si>
-  <si>
-    <t>Survey-Logo-27</t>
-  </si>
-  <si>
-    <t>Survey-Logo-28</t>
-  </si>
-  <si>
-    <t>Survey-Logo-29</t>
-  </si>
-  <si>
-    <t>Survey-Logo-30</t>
-  </si>
-  <si>
-    <t>Survey-Logo-31</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iframe Button not present on page.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Loader did not disappear.</t>
+    <t>limit Test For Header</t>
+  </si>
+  <si>
+    <t>limit Test For Footer</t>
+  </si>
+  <si>
+    <t>bold Check For Footer</t>
+  </si>
+  <si>
+    <t>bold CheckForHeader</t>
+  </si>
+  <si>
+    <t>Italic check for header</t>
+  </si>
+  <si>
+    <t>Italic check for footer</t>
+  </si>
+  <si>
+    <t>under line check for header</t>
+  </si>
+  <si>
+    <t>under line check for footer</t>
+  </si>
+  <si>
+    <t>remove format for header</t>
+  </si>
+  <si>
+    <t>remove formate for footer</t>
+  </si>
+  <si>
+    <t>alignment for header</t>
+  </si>
+  <si>
+    <t>alignment for footer</t>
+  </si>
+  <si>
+    <t>undo and redo header</t>
+  </si>
+  <si>
+    <t>undo and redo footer</t>
+  </si>
+  <si>
+    <t>number list header</t>
+  </si>
+  <si>
+    <t>number list footer</t>
+  </si>
+  <si>
+    <t>bullet list header</t>
+  </si>
+  <si>
+    <t>bullet list footer</t>
+  </si>
+  <si>
+    <t>increase And Decrease IndentHeader</t>
+  </si>
+  <si>
+    <t>increase And Decrease Indent Footer</t>
+  </si>
+  <si>
+    <t>Source Header</t>
+  </si>
+  <si>
+    <t>Source Footer</t>
+  </si>
+  <si>
+    <t>link Unlink Header</t>
+  </si>
+  <si>
+    <t>link Unlink Footer</t>
+  </si>
+  <si>
+    <t>spell check header</t>
+  </si>
+  <si>
+    <t>spell check footer</t>
+  </si>
+  <si>
+    <t>paste from word header</t>
+  </si>
+  <si>
+    <t>paste from word footer</t>
+  </si>
+  <si>
+    <t>font Colour Header</t>
+  </si>
+  <si>
+    <t>font Colour Footer</t>
+  </si>
+  <si>
+    <t>font Size Header</t>
+  </si>
+  <si>
+    <t>font size footer</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and check for the limit text</t>
+  </si>
+  <si>
+    <t>header should not be uploaded</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and check for the limit text</t>
+  </si>
+  <si>
+    <t>footer should not uploaded</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to bold</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to bold</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to italic</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to italic</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to underline</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to underline</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and changing font style to bold 4. Then removing the font</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and changing font style to bold 4. Then removing the font</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for all alignments</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for all alignments</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for undo and redo</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for undo and redo</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for number list</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed with font style</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed in underline format</t>
+  </si>
+  <si>
+    <t>footer should be uploaded and displayed in underline format</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed with font style</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed in bold style</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed in bold style</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed in italic style</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed in italic style</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed In number list</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for number list</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for bullet list</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed In number list</t>
+  </si>
+  <si>
+    <t>header should be uploaded  and displayed In bullet list</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for bullet list</t>
+  </si>
+  <si>
+    <t>footer should be uploaded  and displayed In bullet list</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking indent</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking indent</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for source type</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for source type</t>
+  </si>
+  <si>
+    <t>header should be uploaded and displayed the content</t>
+  </si>
+  <si>
+    <t>footer should be uploaded and displayed the content</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for link and unlink the url</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for link and unlink the url</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header with wrong spelling and checking for spell check</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer with wrong spelling and checking for spell check</t>
+  </si>
+  <si>
+    <t>spell check should work properly and correct spelling should be displayed</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header by paste from word</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer by paste from word</t>
+  </si>
+  <si>
+    <t>content from word should uploaded and displayed</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for font colour</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add header and checking for font size</t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for font colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">header colour should change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer colour should change </t>
+  </si>
+  <si>
+    <t>1. It will create survey 2.Add textbox question 3.Add footer and checking for font size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footer size should change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">header size should change </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,19 +1723,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1239,31 +1748,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
@@ -1274,7 +1758,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1297,6 +1781,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1306,7 +1801,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1327,12 +1822,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1622,13 +2118,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1666,14 +2162,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1712,15 +2208,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1836,16 +2332,16 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1869,352 +2365,352 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CP32"/>
+  <dimension ref="A1:CP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="19" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="19" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="19" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="19" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="19" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="19" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="19" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="19" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="19" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="19" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="19" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="19" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="19" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="19" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="19" width="14.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="19" width="21.5703125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="19" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="19" width="15.42578125" collapsed="true"/>
-    <col min="19" max="93" style="19" width="9.140625" collapsed="false"/>
-    <col min="94" max="94" customWidth="true" style="19" width="31.140625" collapsed="true"/>
-    <col min="95" max="95" style="19" width="9.140625" collapsed="false"/>
-    <col min="96" max="96" customWidth="true" style="19" width="25.42578125" collapsed="true"/>
-    <col min="97" max="16384" style="19" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="14.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="119" style="19" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.5703125" style="19" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" style="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="93" width="9.140625" style="19" collapsed="1"/>
+    <col min="94" max="94" width="31.140625" style="19" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="9.140625" style="19" collapsed="1"/>
+    <col min="96" max="96" width="25.42578125" style="19" customWidth="1" collapsed="1"/>
+    <col min="97" max="16384" width="9.140625" style="19" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="CP1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:94">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2302,31 +2798,33 @@
     </row>
     <row r="3" spans="1:94">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>380</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -2363,124 +2861,124 @@
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AW3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AX3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="AW3" s="7" t="s">
+      <c r="AY3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="BA3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="BB3" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BC3" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="BB3" s="7" t="s">
+      <c r="BD3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BE3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="BD3" s="7" t="s">
+      <c r="BF3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="BE3" s="8" t="s">
+      <c r="BG3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="BF3" s="7" t="s">
+      <c r="BH3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="BG3" s="7" t="s">
+      <c r="BI3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BJ3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="BI3" s="7" t="s">
+      <c r="BK3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="BJ3" s="7" t="s">
+      <c r="BL3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BM3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="BL3" s="7" t="s">
+      <c r="BN3" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="BM3" s="7" t="s">
+      <c r="BO3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="BN3" s="7" t="s">
+      <c r="BP3" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="BO3" s="7" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="BP3" s="7" t="s">
+      <c r="BR3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="BQ3" s="7" t="s">
+      <c r="BS3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="BR3" s="7" t="s">
+      <c r="BT3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="BS3" s="7" t="s">
+      <c r="BU3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="BT3" s="7" t="s">
+      <c r="BV3" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="BU3" s="7" t="s">
+      <c r="BW3" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="BV3" s="7" t="s">
+      <c r="BX3" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="BW3" s="7" t="s">
+      <c r="BY3" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="BX3" s="7" t="s">
+      <c r="BZ3" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="BY3" s="7" t="s">
+      <c r="CA3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="BZ3" s="7" t="s">
+      <c r="CB3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="CA3" s="7" t="s">
+      <c r="CC3" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="CB3" s="7" t="s">
+      <c r="CD3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="CC3" s="7" t="s">
+      <c r="CE3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="CD3" s="7" t="s">
+      <c r="CF3" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="CE3" s="7" t="s">
+      <c r="CG3" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="CF3" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="CG3" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="CH3" s="7"/>
       <c r="CI3" s="7"/>
@@ -2494,29 +2992,29 @@
     </row>
     <row r="4" spans="1:94">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>128</v>
+        <v>173</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="1"/>
@@ -2598,51 +3096,51 @@
         <v>282</v>
       </c>
       <c r="CI4" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ4" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CK4" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="CJ4" s="8" t="s">
+      <c r="CL4" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="CK4" s="8" t="s">
+      <c r="CM4" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="CL4" s="8" t="s">
+      <c r="CN4" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="CM4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="CN4" s="8" t="s">
-        <v>181</v>
       </c>
       <c r="CO4" s="1"/>
       <c r="CP4" s="8"/>
     </row>
     <row r="5" spans="1:94">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>128</v>
+        <v>173</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="1"/>
@@ -2724,54 +3222,54 @@
         <v>283</v>
       </c>
       <c r="CI5" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="CJ5" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="CK5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="CL5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="CM5" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="CL5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="CM5" s="8" t="s">
-        <v>180</v>
-      </c>
       <c r="CN5" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="CO5" s="1"/>
       <c r="CP5" s="8"/>
     </row>
     <row r="6" spans="1:94">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>128</v>
+        <v>173</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="6"/>
@@ -2853,7 +3351,7 @@
       </c>
       <c r="CI6" s="8"/>
       <c r="CJ6" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="CK6" s="8"/>
       <c r="CL6" s="8"/>
@@ -2864,29 +3362,29 @@
     </row>
     <row r="7" spans="1:94">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>128</v>
+        <v>190</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="1"/>
@@ -2969,12 +3467,12 @@
       </c>
       <c r="CI7" s="8"/>
       <c r="CJ7" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="CK7" s="8"/>
       <c r="CL7" s="8"/>
       <c r="CM7" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="CN7" s="8"/>
       <c r="CO7" s="1"/>
@@ -2982,32 +3480,32 @@
     </row>
     <row r="8" spans="1:94">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>128</v>
+        <v>190</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="6"/>
@@ -3089,12 +3587,12 @@
       </c>
       <c r="CI8" s="8"/>
       <c r="CJ8" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="CK8" s="8"/>
       <c r="CL8" s="8"/>
       <c r="CM8" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="CN8" s="8"/>
       <c r="CO8" s="1"/>
@@ -3102,29 +3600,29 @@
     </row>
     <row r="9" spans="1:94">
       <c r="A9" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>128</v>
+        <v>198</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3163,7 +3661,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
@@ -3208,16 +3706,16 @@
         <v>311</v>
       </c>
       <c r="CI9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CJ9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="CK9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CJ9" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="CK9" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="CL9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="CM9" s="1"/>
       <c r="CN9" s="1"/>
@@ -3226,44 +3724,44 @@
     </row>
     <row r="10" spans="1:94">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -3272,7 +3770,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="14" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
@@ -3337,7 +3835,7 @@
       <c r="CF10" s="9"/>
       <c r="CG10" s="9"/>
       <c r="CH10" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="CI10" s="11"/>
       <c r="CJ10" s="11"/>
@@ -3347,40 +3845,40 @@
       <c r="CN10" s="11"/>
       <c r="CO10" s="1"/>
       <c r="CP10" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:94">
       <c r="A11" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>219</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -3394,7 +3892,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="14" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
@@ -3459,7 +3957,7 @@
       <c r="CF11" s="9"/>
       <c r="CG11" s="9"/>
       <c r="CH11" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="CI11" s="11"/>
       <c r="CJ11" s="11"/>
@@ -3469,38 +3967,38 @@
       <c r="CN11" s="11"/>
       <c r="CO11" s="1"/>
       <c r="CP11" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:94">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="24" t="s">
-        <v>128</v>
+      <c r="I12" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -3514,7 +4012,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="14" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
@@ -3579,7 +4077,7 @@
       <c r="CF12" s="9"/>
       <c r="CG12" s="9"/>
       <c r="CH12" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="CI12" s="11"/>
       <c r="CJ12" s="11"/>
@@ -3589,38 +4087,38 @@
       <c r="CN12" s="11"/>
       <c r="CO12" s="1"/>
       <c r="CP12" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:94">
       <c r="A13" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="24" t="s">
-        <v>128</v>
+      <c r="I13" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -3634,7 +4132,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="14" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
@@ -3699,7 +4197,7 @@
       <c r="CF13" s="9"/>
       <c r="CG13" s="9"/>
       <c r="CH13" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="CI13" s="11"/>
       <c r="CJ13" s="11"/>
@@ -3709,39 +4207,39 @@
       <c r="CN13" s="11"/>
       <c r="CO13" s="1"/>
       <c r="CP13" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:94">
       <c r="A14" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="24" t="s">
-        <v>128</v>
+      <c r="I14" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="9"/>
       <c r="L14" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="9"/>
@@ -3754,7 +4252,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="14" t="s">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
@@ -3819,7 +4317,7 @@
       <c r="CF14" s="9"/>
       <c r="CG14" s="9"/>
       <c r="CH14" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="CI14" s="11"/>
       <c r="CJ14" s="11"/>
@@ -3829,70 +4327,70 @@
       <c r="CN14" s="11"/>
       <c r="CO14" s="1"/>
       <c r="CP14" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:94">
       <c r="A15" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H15" s="9"/>
-      <c r="I15" s="24" t="s">
-        <v>128</v>
+      <c r="I15" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="T15" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="V15" s="11"/>
       <c r="W15" s="14" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
@@ -3957,7 +4455,7 @@
       <c r="CF15" s="9"/>
       <c r="CG15" s="9"/>
       <c r="CH15" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="CI15" s="11"/>
       <c r="CJ15" s="11"/>
@@ -3967,68 +4465,68 @@
       <c r="CN15" s="11"/>
       <c r="CO15" s="1"/>
       <c r="CP15" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:94">
       <c r="A16" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="24" t="s">
-        <v>128</v>
+      <c r="I16" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="U16" s="11" t="s">
-        <v>243</v>
       </c>
       <c r="V16" s="11"/>
       <c r="W16" s="14" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
@@ -4093,7 +4591,7 @@
       <c r="CF16" s="9"/>
       <c r="CG16" s="9"/>
       <c r="CH16" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="CI16" s="11"/>
       <c r="CJ16" s="11"/>
@@ -4103,34 +4601,34 @@
       <c r="CN16" s="11"/>
       <c r="CO16" s="1"/>
       <c r="CP16" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:94">
       <c r="A17" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>128</v>
+        <v>173</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="1"/>
@@ -4217,34 +4715,34 @@
       <c r="CL17" s="8"/>
       <c r="CM17" s="8"/>
       <c r="CN17" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="CO17" s="1"/>
       <c r="CP17" s="8"/>
     </row>
     <row r="18" spans="1:94">
       <c r="A18" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="24" t="s">
-        <v>128</v>
+      <c r="I18" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="1"/>
@@ -4283,7 +4781,7 @@
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AU18" s="7"/>
       <c r="AV18" s="7"/>
@@ -4329,7 +4827,7 @@
       </c>
       <c r="CI18" s="8"/>
       <c r="CJ18" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="CK18" s="8"/>
       <c r="CL18" s="8"/>
@@ -4340,27 +4838,27 @@
     </row>
     <row r="19" spans="1:94">
       <c r="A19" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="24" t="s">
-        <v>128</v>
+      <c r="I19" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="1"/>
@@ -4401,7 +4899,7 @@
       <c r="AR19" s="7"/>
       <c r="AS19" s="7"/>
       <c r="AT19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AU19" s="7"/>
       <c r="AV19" s="7"/>
@@ -4456,25 +4954,25 @@
     </row>
     <row r="20" spans="1:94">
       <c r="A20" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="22" t="s">
-        <v>256</v>
+      <c r="I20" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4483,7 +4981,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -4515,20 +5013,20 @@
       <c r="AR20" s="1"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
@@ -4574,31 +5072,31 @@
     </row>
     <row r="21" spans="1:94">
       <c r="A21" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -4607,7 +5105,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -4639,16 +5137,16 @@
       <c r="AR21" s="1"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AU21" s="1"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
@@ -4692,37 +5190,37 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:94">
       <c r="A22" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -4761,14 +5259,14 @@
       <c r="AR22" s="1"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="2"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
@@ -4812,37 +5310,37 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:94">
       <c r="A23" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -4880,21 +5378,21 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
       <c r="AS23" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
@@ -4938,37 +5436,37 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:94">
       <c r="A24" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -5007,16 +5505,16 @@
       <c r="AR24" s="1"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
@@ -5060,37 +5558,37 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:94">
       <c r="A25" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>256</v>
+        <v>302</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -5099,7 +5597,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -5131,14 +5629,14 @@
       <c r="AR25" s="1"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
@@ -5182,37 +5680,37 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:94">
       <c r="A26" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>256</v>
+        <v>302</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -5222,7 +5720,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -5253,14 +5751,14 @@
       <c r="AR26" s="1"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AU26" s="1"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
@@ -5304,37 +5802,37 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:94">
       <c r="A27" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>256</v>
+        <v>308</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -5373,14 +5871,14 @@
       <c r="AR27" s="1"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
@@ -5424,37 +5922,37 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:94">
       <c r="A28" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>256</v>
+        <v>310</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -5493,14 +5991,14 @@
       <c r="AR28" s="1"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AU28" s="1"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
@@ -5544,37 +6042,37 @@
       <c r="CM28" s="1"/>
       <c r="CN28" s="1"/>
       <c r="CO28" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP28" s="1"/>
     </row>
     <row r="29" spans="1:94">
       <c r="A29" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>256</v>
+        <v>302</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -5585,7 +6083,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -5615,14 +6113,14 @@
       <c r="AR29" s="1"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AU29" s="1"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
@@ -5666,37 +6164,37 @@
       <c r="CM29" s="1"/>
       <c r="CN29" s="1"/>
       <c r="CO29" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP29" s="1"/>
     </row>
     <row r="30" spans="1:94">
       <c r="A30" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>256</v>
+        <v>313</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -5708,12 +6206,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -5739,14 +6237,14 @@
       <c r="AR30" s="1"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AU30" s="1"/>
       <c r="AV30" s="2"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
@@ -5790,37 +6288,37 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP30" s="1"/>
     </row>
     <row r="31" spans="1:94">
       <c r="A31" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>345</v>
+        <v>126</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -5833,10 +6331,10 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -5863,14 +6361,14 @@
       <c r="AR31" s="1"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AU31" s="1"/>
       <c r="AV31" s="2"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
@@ -5914,37 +6412,37 @@
       <c r="CM31" s="1"/>
       <c r="CN31" s="1"/>
       <c r="CO31" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP31" s="1"/>
     </row>
-    <row r="32" spans="1:94">
+    <row r="32" spans="1:94" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>349</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>256</v>
+        <v>300</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -5983,14 +6481,14 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
       <c r="AT32" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
       <c r="AY32" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
@@ -6034,18 +6532,3868 @@
       <c r="CM32" s="1"/>
       <c r="CN32" s="1"/>
       <c r="CO32" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="CP32" s="1"/>
+    </row>
+    <row r="33" spans="1:94" ht="20.25" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW33" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
+      <c r="CN33" s="1"/>
+      <c r="CO33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP33" s="1"/>
+    </row>
+    <row r="34" spans="1:94" ht="19.5" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+      <c r="BH34" s="1"/>
+      <c r="BI34" s="1"/>
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="1"/>
+      <c r="BM34" s="1"/>
+      <c r="BN34" s="1"/>
+      <c r="BO34" s="1"/>
+      <c r="BP34" s="1"/>
+      <c r="BQ34" s="1"/>
+      <c r="BR34" s="1"/>
+      <c r="BS34" s="1"/>
+      <c r="BT34" s="1"/>
+      <c r="BU34" s="1"/>
+      <c r="BV34" s="1"/>
+      <c r="BW34" s="1"/>
+      <c r="BX34" s="1"/>
+      <c r="BY34" s="1"/>
+      <c r="BZ34" s="1"/>
+      <c r="CA34" s="1"/>
+      <c r="CB34" s="1"/>
+      <c r="CC34" s="1"/>
+      <c r="CD34" s="1"/>
+      <c r="CE34" s="1"/>
+      <c r="CF34" s="1"/>
+      <c r="CG34" s="1"/>
+      <c r="CH34" s="1"/>
+      <c r="CI34" s="1"/>
+      <c r="CJ34" s="1"/>
+      <c r="CK34" s="1"/>
+      <c r="CL34" s="1"/>
+      <c r="CM34" s="1"/>
+      <c r="CN34" s="1"/>
+      <c r="CO34" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP34" s="1"/>
+    </row>
+    <row r="35" spans="1:94">
+      <c r="A35" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="21"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="1"/>
+      <c r="BI35" s="1"/>
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="1"/>
+      <c r="BL35" s="1"/>
+      <c r="BM35" s="1"/>
+      <c r="BN35" s="1"/>
+      <c r="BO35" s="1"/>
+      <c r="BP35" s="1"/>
+      <c r="BQ35" s="1"/>
+      <c r="BR35" s="1"/>
+      <c r="BS35" s="1"/>
+      <c r="BT35" s="1"/>
+      <c r="BU35" s="1"/>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="1"/>
+      <c r="BX35" s="1"/>
+      <c r="BY35" s="1"/>
+      <c r="BZ35" s="1"/>
+      <c r="CA35" s="1"/>
+      <c r="CB35" s="1"/>
+      <c r="CC35" s="1"/>
+      <c r="CD35" s="1"/>
+      <c r="CE35" s="1"/>
+      <c r="CF35" s="1"/>
+      <c r="CG35" s="1"/>
+      <c r="CH35" s="1"/>
+      <c r="CI35" s="1"/>
+      <c r="CJ35" s="1"/>
+      <c r="CK35" s="1"/>
+      <c r="CL35" s="1"/>
+      <c r="CM35" s="1"/>
+      <c r="CN35" s="1"/>
+      <c r="CO35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP35" s="1"/>
+    </row>
+    <row r="36" spans="1:94">
+      <c r="A36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="1"/>
+      <c r="BL36" s="1"/>
+      <c r="BM36" s="1"/>
+      <c r="BN36" s="1"/>
+      <c r="BO36" s="1"/>
+      <c r="BP36" s="1"/>
+      <c r="BQ36" s="1"/>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1"/>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1"/>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1"/>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP36" s="1"/>
+    </row>
+    <row r="37" spans="1:94">
+      <c r="A37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="21"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+      <c r="BH37" s="1"/>
+      <c r="BI37" s="1"/>
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="1"/>
+      <c r="BL37" s="1"/>
+      <c r="BM37" s="1"/>
+      <c r="BN37" s="1"/>
+      <c r="BO37" s="1"/>
+      <c r="BP37" s="1"/>
+      <c r="BQ37" s="1"/>
+      <c r="BR37" s="1"/>
+      <c r="BS37" s="1"/>
+      <c r="BT37" s="1"/>
+      <c r="BU37" s="1"/>
+      <c r="BV37" s="1"/>
+      <c r="BW37" s="1"/>
+      <c r="BX37" s="1"/>
+      <c r="BY37" s="1"/>
+      <c r="BZ37" s="1"/>
+      <c r="CA37" s="1"/>
+      <c r="CB37" s="1"/>
+      <c r="CC37" s="1"/>
+      <c r="CD37" s="1"/>
+      <c r="CE37" s="1"/>
+      <c r="CF37" s="1"/>
+      <c r="CG37" s="1"/>
+      <c r="CH37" s="1"/>
+      <c r="CI37" s="1"/>
+      <c r="CJ37" s="1"/>
+      <c r="CK37" s="1"/>
+      <c r="CL37" s="1"/>
+      <c r="CM37" s="1"/>
+      <c r="CN37" s="1"/>
+      <c r="CO37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP37" s="1"/>
+    </row>
+    <row r="38" spans="1:94">
+      <c r="A38" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+      <c r="BH38" s="1"/>
+      <c r="BI38" s="1"/>
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="1"/>
+      <c r="BL38" s="1"/>
+      <c r="BM38" s="1"/>
+      <c r="BN38" s="1"/>
+      <c r="BO38" s="1"/>
+      <c r="BP38" s="1"/>
+      <c r="BQ38" s="1"/>
+      <c r="BR38" s="1"/>
+      <c r="BS38" s="1"/>
+      <c r="BT38" s="1"/>
+      <c r="BU38" s="1"/>
+      <c r="BV38" s="1"/>
+      <c r="BW38" s="1"/>
+      <c r="BX38" s="1"/>
+      <c r="BY38" s="1"/>
+      <c r="BZ38" s="1"/>
+      <c r="CA38" s="1"/>
+      <c r="CB38" s="1"/>
+      <c r="CC38" s="1"/>
+      <c r="CD38" s="1"/>
+      <c r="CE38" s="1"/>
+      <c r="CF38" s="1"/>
+      <c r="CG38" s="1"/>
+      <c r="CH38" s="1"/>
+      <c r="CI38" s="1"/>
+      <c r="CJ38" s="1"/>
+      <c r="CK38" s="1"/>
+      <c r="CL38" s="1"/>
+      <c r="CM38" s="1"/>
+      <c r="CN38" s="1"/>
+      <c r="CO38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP38" s="1"/>
+    </row>
+    <row r="39" spans="1:94">
+      <c r="A39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="21"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP39" s="1"/>
+    </row>
+    <row r="40" spans="1:94">
+      <c r="A40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP40" s="1"/>
+    </row>
+    <row r="41" spans="1:94">
+      <c r="A41" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="21"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP41" s="1"/>
+    </row>
+    <row r="42" spans="1:94">
+      <c r="A42" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="21"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1"/>
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1"/>
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP42" s="1"/>
+    </row>
+    <row r="43" spans="1:94">
+      <c r="A43" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="21"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
+      <c r="BT43" s="1"/>
+      <c r="BU43" s="1"/>
+      <c r="BV43" s="1"/>
+      <c r="BW43" s="1"/>
+      <c r="BX43" s="1"/>
+      <c r="BY43" s="1"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP43" s="1"/>
+    </row>
+    <row r="44" spans="1:94">
+      <c r="A44" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
+      <c r="BT44" s="1"/>
+      <c r="BU44" s="1"/>
+      <c r="BV44" s="1"/>
+      <c r="BW44" s="1"/>
+      <c r="BX44" s="1"/>
+      <c r="BY44" s="1"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP44" s="1"/>
+    </row>
+    <row r="45" spans="1:94">
+      <c r="A45" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="21"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP45" s="1"/>
+    </row>
+    <row r="46" spans="1:94">
+      <c r="A46" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="21"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
+      <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+      <c r="BH46" s="1"/>
+      <c r="BI46" s="1"/>
+      <c r="BJ46" s="1"/>
+      <c r="BK46" s="1"/>
+      <c r="BL46" s="1"/>
+      <c r="BM46" s="1"/>
+      <c r="BN46" s="1"/>
+      <c r="BO46" s="1"/>
+      <c r="BP46" s="1"/>
+      <c r="BQ46" s="1"/>
+      <c r="BR46" s="1"/>
+      <c r="BS46" s="1"/>
+      <c r="BT46" s="1"/>
+      <c r="BU46" s="1"/>
+      <c r="BV46" s="1"/>
+      <c r="BW46" s="1"/>
+      <c r="BX46" s="1"/>
+      <c r="BY46" s="1"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP46" s="1"/>
+    </row>
+    <row r="47" spans="1:94">
+      <c r="A47" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
+      <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+      <c r="BH47" s="1"/>
+      <c r="BI47" s="1"/>
+      <c r="BJ47" s="1"/>
+      <c r="BK47" s="1"/>
+      <c r="BL47" s="1"/>
+      <c r="BM47" s="1"/>
+      <c r="BN47" s="1"/>
+      <c r="BO47" s="1"/>
+      <c r="BP47" s="1"/>
+      <c r="BQ47" s="1"/>
+      <c r="BR47" s="1"/>
+      <c r="BS47" s="1"/>
+      <c r="BT47" s="1"/>
+      <c r="BU47" s="1"/>
+      <c r="BV47" s="1"/>
+      <c r="BW47" s="1"/>
+      <c r="BX47" s="1"/>
+      <c r="BY47" s="1"/>
+      <c r="BZ47" s="1"/>
+      <c r="CA47" s="1"/>
+      <c r="CB47" s="1"/>
+      <c r="CC47" s="1"/>
+      <c r="CD47" s="1"/>
+      <c r="CE47" s="1"/>
+      <c r="CF47" s="1"/>
+      <c r="CG47" s="1"/>
+      <c r="CH47" s="1"/>
+      <c r="CI47" s="1"/>
+      <c r="CJ47" s="1"/>
+      <c r="CK47" s="1"/>
+      <c r="CL47" s="1"/>
+      <c r="CM47" s="1"/>
+      <c r="CN47" s="1"/>
+      <c r="CO47" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP47" s="1"/>
+    </row>
+    <row r="48" spans="1:94">
+      <c r="A48" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="21"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+      <c r="BD48" s="1"/>
+      <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+      <c r="BH48" s="1"/>
+      <c r="BI48" s="1"/>
+      <c r="BJ48" s="1"/>
+      <c r="BK48" s="1"/>
+      <c r="BL48" s="1"/>
+      <c r="BM48" s="1"/>
+      <c r="BN48" s="1"/>
+      <c r="BO48" s="1"/>
+      <c r="BP48" s="1"/>
+      <c r="BQ48" s="1"/>
+      <c r="BR48" s="1"/>
+      <c r="BS48" s="1"/>
+      <c r="BT48" s="1"/>
+      <c r="BU48" s="1"/>
+      <c r="BV48" s="1"/>
+      <c r="BW48" s="1"/>
+      <c r="BX48" s="1"/>
+      <c r="BY48" s="1"/>
+      <c r="BZ48" s="1"/>
+      <c r="CA48" s="1"/>
+      <c r="CB48" s="1"/>
+      <c r="CC48" s="1"/>
+      <c r="CD48" s="1"/>
+      <c r="CE48" s="1"/>
+      <c r="CF48" s="1"/>
+      <c r="CG48" s="1"/>
+      <c r="CH48" s="1"/>
+      <c r="CI48" s="1"/>
+      <c r="CJ48" s="1"/>
+      <c r="CK48" s="1"/>
+      <c r="CL48" s="1"/>
+      <c r="CM48" s="1"/>
+      <c r="CN48" s="1"/>
+      <c r="CO48" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP48" s="1"/>
+    </row>
+    <row r="49" spans="1:94">
+      <c r="A49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="21"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+      <c r="BD49" s="1"/>
+      <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+      <c r="BH49" s="1"/>
+      <c r="BI49" s="1"/>
+      <c r="BJ49" s="1"/>
+      <c r="BK49" s="1"/>
+      <c r="BL49" s="1"/>
+      <c r="BM49" s="1"/>
+      <c r="BN49" s="1"/>
+      <c r="BO49" s="1"/>
+      <c r="BP49" s="1"/>
+      <c r="BQ49" s="1"/>
+      <c r="BR49" s="1"/>
+      <c r="BS49" s="1"/>
+      <c r="BT49" s="1"/>
+      <c r="BU49" s="1"/>
+      <c r="BV49" s="1"/>
+      <c r="BW49" s="1"/>
+      <c r="BX49" s="1"/>
+      <c r="BY49" s="1"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP49" s="1"/>
+    </row>
+    <row r="50" spans="1:94">
+      <c r="A50" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1"/>
+      <c r="AH50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="21"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+      <c r="BD50" s="1"/>
+      <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+      <c r="BH50" s="1"/>
+      <c r="BI50" s="1"/>
+      <c r="BJ50" s="1"/>
+      <c r="BK50" s="1"/>
+      <c r="BL50" s="1"/>
+      <c r="BM50" s="1"/>
+      <c r="BN50" s="1"/>
+      <c r="BO50" s="1"/>
+      <c r="BP50" s="1"/>
+      <c r="BQ50" s="1"/>
+      <c r="BR50" s="1"/>
+      <c r="BS50" s="1"/>
+      <c r="BT50" s="1"/>
+      <c r="BU50" s="1"/>
+      <c r="BV50" s="1"/>
+      <c r="BW50" s="1"/>
+      <c r="BX50" s="1"/>
+      <c r="BY50" s="1"/>
+      <c r="BZ50" s="1"/>
+      <c r="CA50" s="1"/>
+      <c r="CB50" s="1"/>
+      <c r="CC50" s="1"/>
+      <c r="CD50" s="1"/>
+      <c r="CE50" s="1"/>
+      <c r="CF50" s="1"/>
+      <c r="CG50" s="1"/>
+      <c r="CH50" s="1"/>
+      <c r="CI50" s="1"/>
+      <c r="CJ50" s="1"/>
+      <c r="CK50" s="1"/>
+      <c r="CL50" s="1"/>
+      <c r="CM50" s="1"/>
+      <c r="CN50" s="1"/>
+      <c r="CO50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP50" s="1"/>
+    </row>
+    <row r="51" spans="1:94">
+      <c r="A51" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AH51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+      <c r="BD51" s="1"/>
+      <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+      <c r="BH51" s="1"/>
+      <c r="BI51" s="1"/>
+      <c r="BJ51" s="1"/>
+      <c r="BK51" s="1"/>
+      <c r="BL51" s="1"/>
+      <c r="BM51" s="1"/>
+      <c r="BN51" s="1"/>
+      <c r="BO51" s="1"/>
+      <c r="BP51" s="1"/>
+      <c r="BQ51" s="1"/>
+      <c r="BR51" s="1"/>
+      <c r="BS51" s="1"/>
+      <c r="BT51" s="1"/>
+      <c r="BU51" s="1"/>
+      <c r="BV51" s="1"/>
+      <c r="BW51" s="1"/>
+      <c r="BX51" s="1"/>
+      <c r="BY51" s="1"/>
+      <c r="BZ51" s="1"/>
+      <c r="CA51" s="1"/>
+      <c r="CB51" s="1"/>
+      <c r="CC51" s="1"/>
+      <c r="CD51" s="1"/>
+      <c r="CE51" s="1"/>
+      <c r="CF51" s="1"/>
+      <c r="CG51" s="1"/>
+      <c r="CH51" s="1"/>
+      <c r="CI51" s="1"/>
+      <c r="CJ51" s="1"/>
+      <c r="CK51" s="1"/>
+      <c r="CL51" s="1"/>
+      <c r="CM51" s="1"/>
+      <c r="CN51" s="1"/>
+      <c r="CO51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP51" s="1"/>
+    </row>
+    <row r="52" spans="1:94">
+      <c r="A52" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="1"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="1"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="21"/>
+      <c r="AX52" s="1"/>
+      <c r="AY52" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ52" s="1"/>
+      <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+      <c r="BD52" s="1"/>
+      <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+      <c r="BH52" s="1"/>
+      <c r="BI52" s="1"/>
+      <c r="BJ52" s="1"/>
+      <c r="BK52" s="1"/>
+      <c r="BL52" s="1"/>
+      <c r="BM52" s="1"/>
+      <c r="BN52" s="1"/>
+      <c r="BO52" s="1"/>
+      <c r="BP52" s="1"/>
+      <c r="BQ52" s="1"/>
+      <c r="BR52" s="1"/>
+      <c r="BS52" s="1"/>
+      <c r="BT52" s="1"/>
+      <c r="BU52" s="1"/>
+      <c r="BV52" s="1"/>
+      <c r="BW52" s="1"/>
+      <c r="BX52" s="1"/>
+      <c r="BY52" s="1"/>
+      <c r="BZ52" s="1"/>
+      <c r="CA52" s="1"/>
+      <c r="CB52" s="1"/>
+      <c r="CC52" s="1"/>
+      <c r="CD52" s="1"/>
+      <c r="CE52" s="1"/>
+      <c r="CF52" s="1"/>
+      <c r="CG52" s="1"/>
+      <c r="CH52" s="1"/>
+      <c r="CI52" s="1"/>
+      <c r="CJ52" s="1"/>
+      <c r="CK52" s="1"/>
+      <c r="CL52" s="1"/>
+      <c r="CM52" s="1"/>
+      <c r="CN52" s="1"/>
+      <c r="CO52" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP52" s="1"/>
+    </row>
+    <row r="53" spans="1:94">
+      <c r="A53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="21"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="1"/>
+      <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+      <c r="BH53" s="1"/>
+      <c r="BI53" s="1"/>
+      <c r="BJ53" s="1"/>
+      <c r="BK53" s="1"/>
+      <c r="BL53" s="1"/>
+      <c r="BM53" s="1"/>
+      <c r="BN53" s="1"/>
+      <c r="BO53" s="1"/>
+      <c r="BP53" s="1"/>
+      <c r="BQ53" s="1"/>
+      <c r="BR53" s="1"/>
+      <c r="BS53" s="1"/>
+      <c r="BT53" s="1"/>
+      <c r="BU53" s="1"/>
+      <c r="BV53" s="1"/>
+      <c r="BW53" s="1"/>
+      <c r="BX53" s="1"/>
+      <c r="BY53" s="1"/>
+      <c r="BZ53" s="1"/>
+      <c r="CA53" s="1"/>
+      <c r="CB53" s="1"/>
+      <c r="CC53" s="1"/>
+      <c r="CD53" s="1"/>
+      <c r="CE53" s="1"/>
+      <c r="CF53" s="1"/>
+      <c r="CG53" s="1"/>
+      <c r="CH53" s="1"/>
+      <c r="CI53" s="1"/>
+      <c r="CJ53" s="1"/>
+      <c r="CK53" s="1"/>
+      <c r="CL53" s="1"/>
+      <c r="CM53" s="1"/>
+      <c r="CN53" s="1"/>
+      <c r="CO53" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP53" s="1"/>
+    </row>
+    <row r="54" spans="1:94">
+      <c r="A54" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="21"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+      <c r="BD54" s="1"/>
+      <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
+      <c r="BG54" s="1"/>
+      <c r="BH54" s="1"/>
+      <c r="BI54" s="1"/>
+      <c r="BJ54" s="1"/>
+      <c r="BK54" s="1"/>
+      <c r="BL54" s="1"/>
+      <c r="BM54" s="1"/>
+      <c r="BN54" s="1"/>
+      <c r="BO54" s="1"/>
+      <c r="BP54" s="1"/>
+      <c r="BQ54" s="1"/>
+      <c r="BR54" s="1"/>
+      <c r="BS54" s="1"/>
+      <c r="BT54" s="1"/>
+      <c r="BU54" s="1"/>
+      <c r="BV54" s="1"/>
+      <c r="BW54" s="1"/>
+      <c r="BX54" s="1"/>
+      <c r="BY54" s="1"/>
+      <c r="BZ54" s="1"/>
+      <c r="CA54" s="1"/>
+      <c r="CB54" s="1"/>
+      <c r="CC54" s="1"/>
+      <c r="CD54" s="1"/>
+      <c r="CE54" s="1"/>
+      <c r="CF54" s="1"/>
+      <c r="CG54" s="1"/>
+      <c r="CH54" s="1"/>
+      <c r="CI54" s="1"/>
+      <c r="CJ54" s="1"/>
+      <c r="CK54" s="1"/>
+      <c r="CL54" s="1"/>
+      <c r="CM54" s="1"/>
+      <c r="CN54" s="1"/>
+      <c r="CO54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP54" s="1"/>
+    </row>
+    <row r="55" spans="1:94">
+      <c r="A55" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="21"/>
+      <c r="AX55" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AY55" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+      <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
+      <c r="BG55" s="1"/>
+      <c r="BH55" s="1"/>
+      <c r="BI55" s="1"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP55" s="1"/>
+    </row>
+    <row r="56" spans="1:94">
+      <c r="A56" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="21"/>
+      <c r="AX56" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AY56" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+      <c r="BD56" s="1"/>
+      <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
+      <c r="BG56" s="1"/>
+      <c r="BH56" s="1"/>
+      <c r="BI56" s="1"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="1"/>
+      <c r="CA56" s="1"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="CG56" s="1"/>
+      <c r="CH56" s="1"/>
+      <c r="CI56" s="1"/>
+      <c r="CJ56" s="1"/>
+      <c r="CK56" s="1"/>
+      <c r="CL56" s="1"/>
+      <c r="CM56" s="1"/>
+      <c r="CN56" s="1"/>
+      <c r="CO56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP56" s="1"/>
+    </row>
+    <row r="57" spans="1:94">
+      <c r="A57" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="21"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ57" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+      <c r="BD57" s="1"/>
+      <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
+      <c r="BG57" s="1"/>
+      <c r="BH57" s="1"/>
+      <c r="BI57" s="1"/>
+      <c r="BJ57" s="1"/>
+      <c r="BK57" s="1"/>
+      <c r="BL57" s="1"/>
+      <c r="BM57" s="1"/>
+      <c r="BN57" s="1"/>
+      <c r="BO57" s="1"/>
+      <c r="BP57" s="1"/>
+      <c r="BQ57" s="1"/>
+      <c r="BR57" s="1"/>
+      <c r="BS57" s="1"/>
+      <c r="BT57" s="1"/>
+      <c r="BU57" s="1"/>
+      <c r="BV57" s="1"/>
+      <c r="BW57" s="1"/>
+      <c r="BX57" s="1"/>
+      <c r="BY57" s="1"/>
+      <c r="BZ57" s="1"/>
+      <c r="CA57" s="1"/>
+      <c r="CB57" s="1"/>
+      <c r="CC57" s="1"/>
+      <c r="CD57" s="1"/>
+      <c r="CE57" s="1"/>
+      <c r="CF57" s="1"/>
+      <c r="CG57" s="1"/>
+      <c r="CH57" s="1"/>
+      <c r="CI57" s="1"/>
+      <c r="CJ57" s="1"/>
+      <c r="CK57" s="1"/>
+      <c r="CL57" s="1"/>
+      <c r="CM57" s="1"/>
+      <c r="CN57" s="1"/>
+      <c r="CO57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP57" s="1"/>
+    </row>
+    <row r="58" spans="1:94">
+      <c r="A58" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="21"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ58" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+      <c r="BD58" s="1"/>
+      <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
+      <c r="BG58" s="1"/>
+      <c r="BH58" s="1"/>
+      <c r="BI58" s="1"/>
+      <c r="BJ58" s="1"/>
+      <c r="BK58" s="1"/>
+      <c r="BL58" s="1"/>
+      <c r="BM58" s="1"/>
+      <c r="BN58" s="1"/>
+      <c r="BO58" s="1"/>
+      <c r="BP58" s="1"/>
+      <c r="BQ58" s="1"/>
+      <c r="BR58" s="1"/>
+      <c r="BS58" s="1"/>
+      <c r="BT58" s="1"/>
+      <c r="BU58" s="1"/>
+      <c r="BV58" s="1"/>
+      <c r="BW58" s="1"/>
+      <c r="BX58" s="1"/>
+      <c r="BY58" s="1"/>
+      <c r="BZ58" s="1"/>
+      <c r="CA58" s="1"/>
+      <c r="CB58" s="1"/>
+      <c r="CC58" s="1"/>
+      <c r="CD58" s="1"/>
+      <c r="CE58" s="1"/>
+      <c r="CF58" s="1"/>
+      <c r="CG58" s="1"/>
+      <c r="CH58" s="1"/>
+      <c r="CI58" s="1"/>
+      <c r="CJ58" s="1"/>
+      <c r="CK58" s="1"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
+      <c r="CO58" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP58" s="1"/>
+    </row>
+    <row r="59" spans="1:94">
+      <c r="A59" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I59" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="21"/>
+      <c r="AX59" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AY59" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+      <c r="BD59" s="1"/>
+      <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
+      <c r="BG59" s="1"/>
+      <c r="BH59" s="1"/>
+      <c r="BI59" s="1"/>
+      <c r="BJ59" s="1"/>
+      <c r="BK59" s="1"/>
+      <c r="BL59" s="1"/>
+      <c r="BM59" s="1"/>
+      <c r="BN59" s="1"/>
+      <c r="BO59" s="1"/>
+      <c r="BP59" s="1"/>
+      <c r="BQ59" s="1"/>
+      <c r="BR59" s="1"/>
+      <c r="BS59" s="1"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="1"/>
+      <c r="BW59" s="1"/>
+      <c r="BX59" s="1"/>
+      <c r="BY59" s="1"/>
+      <c r="BZ59" s="1"/>
+      <c r="CA59" s="1"/>
+      <c r="CB59" s="1"/>
+      <c r="CC59" s="1"/>
+      <c r="CD59" s="1"/>
+      <c r="CE59" s="1"/>
+      <c r="CF59" s="1"/>
+      <c r="CG59" s="1"/>
+      <c r="CH59" s="1"/>
+      <c r="CI59" s="1"/>
+      <c r="CJ59" s="1"/>
+      <c r="CK59" s="1"/>
+      <c r="CL59" s="1"/>
+      <c r="CM59" s="1"/>
+      <c r="CN59" s="1"/>
+      <c r="CO59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP59" s="1"/>
+    </row>
+    <row r="60" spans="1:94">
+      <c r="A60" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I60" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="21"/>
+      <c r="AX60" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AY60" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+      <c r="BD60" s="1"/>
+      <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
+      <c r="BG60" s="1"/>
+      <c r="BH60" s="1"/>
+      <c r="BI60" s="1"/>
+      <c r="BJ60" s="1"/>
+      <c r="BK60" s="1"/>
+      <c r="BL60" s="1"/>
+      <c r="BM60" s="1"/>
+      <c r="BN60" s="1"/>
+      <c r="BO60" s="1"/>
+      <c r="BP60" s="1"/>
+      <c r="BQ60" s="1"/>
+      <c r="BR60" s="1"/>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
+      <c r="BW60" s="1"/>
+      <c r="BX60" s="1"/>
+      <c r="BY60" s="1"/>
+      <c r="BZ60" s="1"/>
+      <c r="CA60" s="1"/>
+      <c r="CB60" s="1"/>
+      <c r="CC60" s="1"/>
+      <c r="CD60" s="1"/>
+      <c r="CE60" s="1"/>
+      <c r="CF60" s="1"/>
+      <c r="CG60" s="1"/>
+      <c r="CH60" s="1"/>
+      <c r="CI60" s="1"/>
+      <c r="CJ60" s="1"/>
+      <c r="CK60" s="1"/>
+      <c r="CL60" s="1"/>
+      <c r="CM60" s="1"/>
+      <c r="CN60" s="1"/>
+      <c r="CO60" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP60" s="1"/>
+    </row>
+    <row r="61" spans="1:94">
+      <c r="A61" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I61" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AP61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="21"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+      <c r="BD61" s="1"/>
+      <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
+      <c r="BG61" s="1"/>
+      <c r="BH61" s="1"/>
+      <c r="BI61" s="1"/>
+      <c r="BJ61" s="1"/>
+      <c r="BK61" s="1"/>
+      <c r="BL61" s="1"/>
+      <c r="BM61" s="1"/>
+      <c r="BN61" s="1"/>
+      <c r="BO61" s="1"/>
+      <c r="BP61" s="1"/>
+      <c r="BQ61" s="1"/>
+      <c r="BR61" s="1"/>
+      <c r="BS61" s="1"/>
+      <c r="BT61" s="1"/>
+      <c r="BU61" s="1"/>
+      <c r="BV61" s="1"/>
+      <c r="BW61" s="1"/>
+      <c r="BX61" s="1"/>
+      <c r="BY61" s="1"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP61" s="1"/>
+    </row>
+    <row r="62" spans="1:94">
+      <c r="A62" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AO62" s="1"/>
+      <c r="AP62" s="1"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="21"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+      <c r="BD62" s="1"/>
+      <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
+      <c r="BG62" s="1"/>
+      <c r="BH62" s="1"/>
+      <c r="BI62" s="1"/>
+      <c r="BJ62" s="1"/>
+      <c r="BK62" s="1"/>
+      <c r="BL62" s="1"/>
+      <c r="BM62" s="1"/>
+      <c r="BN62" s="1"/>
+      <c r="BO62" s="1"/>
+      <c r="BP62" s="1"/>
+      <c r="BQ62" s="1"/>
+      <c r="BR62" s="1"/>
+      <c r="BS62" s="1"/>
+      <c r="BT62" s="1"/>
+      <c r="BU62" s="1"/>
+      <c r="BV62" s="1"/>
+      <c r="BW62" s="1"/>
+      <c r="BX62" s="1"/>
+      <c r="BY62" s="1"/>
+      <c r="BZ62" s="1"/>
+      <c r="CA62" s="1"/>
+      <c r="CB62" s="1"/>
+      <c r="CC62" s="1"/>
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="1"/>
+      <c r="CF62" s="1"/>
+      <c r="CG62" s="1"/>
+      <c r="CH62" s="1"/>
+      <c r="CI62" s="1"/>
+      <c r="CJ62" s="1"/>
+      <c r="CK62" s="1"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
+      <c r="CO62" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP62" s="1"/>
+    </row>
+    <row r="63" spans="1:94">
+      <c r="A63" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="I63" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="21"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+      <c r="BQ63" s="1"/>
+      <c r="BR63" s="1"/>
+      <c r="BS63" s="1"/>
+      <c r="BT63" s="1"/>
+      <c r="BU63" s="1"/>
+      <c r="BV63" s="1"/>
+      <c r="BW63" s="1"/>
+      <c r="BX63" s="1"/>
+      <c r="BY63" s="1"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="1"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="1"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="1"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="1"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP63" s="1"/>
+    </row>
+    <row r="64" spans="1:94">
+      <c r="A64" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AU64" s="1"/>
+      <c r="AV64" s="1"/>
+      <c r="AW64" s="21"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+      <c r="BD64" s="1"/>
+      <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
+      <c r="BG64" s="1"/>
+      <c r="BH64" s="1"/>
+      <c r="BI64" s="1"/>
+      <c r="BJ64" s="1"/>
+      <c r="BK64" s="1"/>
+      <c r="BL64" s="1"/>
+      <c r="BM64" s="1"/>
+      <c r="BN64" s="1"/>
+      <c r="BO64" s="1"/>
+      <c r="BP64" s="1"/>
+      <c r="BQ64" s="1"/>
+      <c r="BR64" s="1"/>
+      <c r="BS64" s="1"/>
+      <c r="BT64" s="1"/>
+      <c r="BU64" s="1"/>
+      <c r="BV64" s="1"/>
+      <c r="BW64" s="1"/>
+      <c r="BX64" s="1"/>
+      <c r="BY64" s="1"/>
+      <c r="BZ64" s="1"/>
+      <c r="CA64" s="1"/>
+      <c r="CB64" s="1"/>
+      <c r="CC64" s="1"/>
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="1"/>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1"/>
+      <c r="CH64" s="1"/>
+      <c r="CI64" s="1"/>
+      <c r="CJ64" s="1"/>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
+      <c r="CO64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CP64" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
-    <hyperlink ref="W10" r:id="rId2"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="527">
   <si>
     <t>Environment</t>
   </si>
@@ -1729,6 +1729,9 @@
   </si>
   <si>
     <t>header and footer 74</t>
+  </si>
+  <si>
+    <t>Dp poll</t>
   </si>
 </sst>
 </file>
@@ -2435,8 +2438,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CW65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5181,7 +5184,9 @@
       <c r="E20" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="30"/>
@@ -6964,7 +6969,9 @@
       <c r="CU33" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="CV33" s="16"/>
+      <c r="CV33" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="CW33" s="16"/>
     </row>
     <row r="34" spans="1:101" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6992,8 +6999,8 @@
       <c r="H34" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I34" s="29" t="s">
-        <v>265</v>
+      <c r="I34" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -7047,49 +7054,56 @@
       </c>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
-      <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
-      <c r="BO34" s="1"/>
-      <c r="BP34" s="1"/>
-      <c r="BQ34" s="1"/>
-      <c r="BR34" s="1"/>
-      <c r="BS34" s="1"/>
-      <c r="BT34" s="1"/>
-      <c r="BU34" s="1"/>
-      <c r="BV34" s="1"/>
-      <c r="BW34" s="1"/>
-      <c r="BX34" s="1"/>
-      <c r="BY34" s="1"/>
-      <c r="BZ34" s="1"/>
-      <c r="CA34" s="1"/>
-      <c r="CB34" s="1"/>
-      <c r="CC34" s="1"/>
-      <c r="CD34" s="1"/>
-      <c r="CE34" s="1"/>
-      <c r="CF34" s="1"/>
-      <c r="CG34" s="1"/>
-      <c r="CH34" s="1"/>
-      <c r="CI34" s="1"/>
-      <c r="CJ34" s="1"/>
-      <c r="CK34" s="1"/>
-      <c r="CL34" s="1"/>
-      <c r="CM34" s="1"/>
+      <c r="BB34" s="15"/>
+      <c r="BC34" s="15"/>
+      <c r="BD34" s="15"/>
+      <c r="BE34" s="16"/>
+      <c r="BF34" s="15"/>
+      <c r="BG34" s="15"/>
+      <c r="BH34" s="15"/>
+      <c r="BI34" s="15"/>
+      <c r="BJ34" s="15"/>
+      <c r="BK34" s="15"/>
+      <c r="BL34" s="15"/>
+      <c r="BM34" s="15"/>
+      <c r="BN34" s="15"/>
+      <c r="BO34" s="15"/>
+      <c r="BP34" s="15"/>
+      <c r="BQ34" s="15"/>
+      <c r="BR34" s="15"/>
+      <c r="BS34" s="15"/>
+      <c r="BT34" s="15"/>
+      <c r="BU34" s="15"/>
+      <c r="BV34" s="15"/>
+      <c r="BW34" s="15"/>
+      <c r="BX34" s="15"/>
+      <c r="BY34" s="15"/>
+      <c r="BZ34" s="15"/>
+      <c r="CA34" s="15"/>
+      <c r="CB34" s="16"/>
+      <c r="CC34" s="15"/>
+      <c r="CD34" s="15"/>
+      <c r="CE34" s="15"/>
+      <c r="CF34" s="15"/>
+      <c r="CG34" s="15"/>
+      <c r="CH34" s="15"/>
+      <c r="CI34" s="15"/>
+      <c r="CJ34" s="15"/>
+      <c r="CK34" s="15"/>
+      <c r="CL34" s="15"/>
+      <c r="CM34" s="15"/>
       <c r="CN34" s="1"/>
-      <c r="CO34" s="1" t="s">
+      <c r="CO34" s="16"/>
+      <c r="CP34" s="16"/>
+      <c r="CQ34" s="16"/>
+      <c r="CR34" s="16"/>
+      <c r="CS34" s="16"/>
+      <c r="CT34" s="16"/>
+      <c r="CU34" s="16"/>
+      <c r="CV34" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP34" s="1"/>
+      <c r="CW34" s="16"/>
     </row>
     <row r="35" spans="1:101" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -7116,8 +7130,8 @@
       <c r="H35" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I35" s="29" t="s">
-        <v>265</v>
+      <c r="I35" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -7171,49 +7185,56 @@
       <c r="BA35" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
-      <c r="BL35" s="1"/>
-      <c r="BM35" s="1"/>
-      <c r="BN35" s="1"/>
-      <c r="BO35" s="1"/>
-      <c r="BP35" s="1"/>
-      <c r="BQ35" s="1"/>
-      <c r="BR35" s="1"/>
-      <c r="BS35" s="1"/>
-      <c r="BT35" s="1"/>
-      <c r="BU35" s="1"/>
-      <c r="BV35" s="1"/>
-      <c r="BW35" s="1"/>
-      <c r="BX35" s="1"/>
-      <c r="BY35" s="1"/>
-      <c r="BZ35" s="1"/>
-      <c r="CA35" s="1"/>
-      <c r="CB35" s="1"/>
-      <c r="CC35" s="1"/>
-      <c r="CD35" s="1"/>
-      <c r="CE35" s="1"/>
-      <c r="CF35" s="1"/>
-      <c r="CG35" s="1"/>
-      <c r="CH35" s="1"/>
-      <c r="CI35" s="1"/>
-      <c r="CJ35" s="1"/>
-      <c r="CK35" s="1"/>
-      <c r="CL35" s="1"/>
-      <c r="CM35" s="1"/>
+      <c r="BB35" s="15"/>
+      <c r="BC35" s="15"/>
+      <c r="BD35" s="15"/>
+      <c r="BE35" s="16"/>
+      <c r="BF35" s="15"/>
+      <c r="BG35" s="15"/>
+      <c r="BH35" s="15"/>
+      <c r="BI35" s="15"/>
+      <c r="BJ35" s="15"/>
+      <c r="BK35" s="15"/>
+      <c r="BL35" s="15"/>
+      <c r="BM35" s="15"/>
+      <c r="BN35" s="15"/>
+      <c r="BO35" s="15"/>
+      <c r="BP35" s="15"/>
+      <c r="BQ35" s="15"/>
+      <c r="BR35" s="15"/>
+      <c r="BS35" s="15"/>
+      <c r="BT35" s="15"/>
+      <c r="BU35" s="15"/>
+      <c r="BV35" s="15"/>
+      <c r="BW35" s="15"/>
+      <c r="BX35" s="15"/>
+      <c r="BY35" s="15"/>
+      <c r="BZ35" s="15"/>
+      <c r="CA35" s="15"/>
+      <c r="CB35" s="16"/>
+      <c r="CC35" s="15"/>
+      <c r="CD35" s="15"/>
+      <c r="CE35" s="15"/>
+      <c r="CF35" s="15"/>
+      <c r="CG35" s="15"/>
+      <c r="CH35" s="15"/>
+      <c r="CI35" s="15"/>
+      <c r="CJ35" s="15"/>
+      <c r="CK35" s="15"/>
+      <c r="CL35" s="15"/>
+      <c r="CM35" s="15"/>
       <c r="CN35" s="1"/>
-      <c r="CO35" s="1" t="s">
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
+      <c r="CU35" s="16"/>
+      <c r="CV35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP35" s="1"/>
+      <c r="CW35" s="16"/>
     </row>
     <row r="36" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -7240,8 +7261,8 @@
       <c r="H36" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="I36" s="29" t="s">
-        <v>265</v>
+      <c r="I36" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -7291,49 +7312,56 @@
       </c>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
-      <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
-      <c r="BL36" s="1"/>
-      <c r="BM36" s="1"/>
-      <c r="BN36" s="1"/>
-      <c r="BO36" s="1"/>
-      <c r="BP36" s="1"/>
-      <c r="BQ36" s="1"/>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="1"/>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1"/>
-      <c r="BV36" s="1"/>
-      <c r="BW36" s="1"/>
-      <c r="BX36" s="1"/>
-      <c r="BY36" s="1"/>
-      <c r="BZ36" s="1"/>
-      <c r="CA36" s="1"/>
-      <c r="CB36" s="1"/>
-      <c r="CC36" s="1"/>
-      <c r="CD36" s="1"/>
-      <c r="CE36" s="1"/>
-      <c r="CF36" s="1"/>
-      <c r="CG36" s="1"/>
-      <c r="CH36" s="1"/>
-      <c r="CI36" s="1"/>
-      <c r="CJ36" s="1"/>
-      <c r="CK36" s="1"/>
-      <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="15"/>
+      <c r="BD36" s="15"/>
+      <c r="BE36" s="16"/>
+      <c r="BF36" s="15"/>
+      <c r="BG36" s="15"/>
+      <c r="BH36" s="15"/>
+      <c r="BI36" s="15"/>
+      <c r="BJ36" s="15"/>
+      <c r="BK36" s="15"/>
+      <c r="BL36" s="15"/>
+      <c r="BM36" s="15"/>
+      <c r="BN36" s="15"/>
+      <c r="BO36" s="15"/>
+      <c r="BP36" s="15"/>
+      <c r="BQ36" s="15"/>
+      <c r="BR36" s="15"/>
+      <c r="BS36" s="15"/>
+      <c r="BT36" s="15"/>
+      <c r="BU36" s="15"/>
+      <c r="BV36" s="15"/>
+      <c r="BW36" s="15"/>
+      <c r="BX36" s="15"/>
+      <c r="BY36" s="15"/>
+      <c r="BZ36" s="15"/>
+      <c r="CA36" s="15"/>
+      <c r="CB36" s="16"/>
+      <c r="CC36" s="15"/>
+      <c r="CD36" s="15"/>
+      <c r="CE36" s="15"/>
+      <c r="CF36" s="15"/>
+      <c r="CG36" s="15"/>
+      <c r="CH36" s="15"/>
+      <c r="CI36" s="15"/>
+      <c r="CJ36" s="15"/>
+      <c r="CK36" s="15"/>
+      <c r="CL36" s="15"/>
+      <c r="CM36" s="15"/>
       <c r="CN36" s="1"/>
-      <c r="CO36" s="1" t="s">
+      <c r="CO36" s="16"/>
+      <c r="CP36" s="16"/>
+      <c r="CQ36" s="16"/>
+      <c r="CR36" s="16"/>
+      <c r="CS36" s="16"/>
+      <c r="CT36" s="16"/>
+      <c r="CU36" s="16"/>
+      <c r="CV36" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP36" s="1"/>
+      <c r="CW36" s="16"/>
     </row>
     <row r="37" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -7360,8 +7388,8 @@
       <c r="H37" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I37" s="29" t="s">
-        <v>265</v>
+      <c r="I37" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -7411,49 +7439,56 @@
       </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
-      <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
-      <c r="BL37" s="1"/>
-      <c r="BM37" s="1"/>
-      <c r="BN37" s="1"/>
-      <c r="BO37" s="1"/>
-      <c r="BP37" s="1"/>
-      <c r="BQ37" s="1"/>
-      <c r="BR37" s="1"/>
-      <c r="BS37" s="1"/>
-      <c r="BT37" s="1"/>
-      <c r="BU37" s="1"/>
-      <c r="BV37" s="1"/>
-      <c r="BW37" s="1"/>
-      <c r="BX37" s="1"/>
-      <c r="BY37" s="1"/>
-      <c r="BZ37" s="1"/>
-      <c r="CA37" s="1"/>
-      <c r="CB37" s="1"/>
-      <c r="CC37" s="1"/>
-      <c r="CD37" s="1"/>
-      <c r="CE37" s="1"/>
-      <c r="CF37" s="1"/>
-      <c r="CG37" s="1"/>
-      <c r="CH37" s="1"/>
-      <c r="CI37" s="1"/>
-      <c r="CJ37" s="1"/>
-      <c r="CK37" s="1"/>
-      <c r="CL37" s="1"/>
-      <c r="CM37" s="1"/>
+      <c r="BB37" s="15"/>
+      <c r="BC37" s="15"/>
+      <c r="BD37" s="15"/>
+      <c r="BE37" s="16"/>
+      <c r="BF37" s="15"/>
+      <c r="BG37" s="15"/>
+      <c r="BH37" s="15"/>
+      <c r="BI37" s="15"/>
+      <c r="BJ37" s="15"/>
+      <c r="BK37" s="15"/>
+      <c r="BL37" s="15"/>
+      <c r="BM37" s="15"/>
+      <c r="BN37" s="15"/>
+      <c r="BO37" s="15"/>
+      <c r="BP37" s="15"/>
+      <c r="BQ37" s="15"/>
+      <c r="BR37" s="15"/>
+      <c r="BS37" s="15"/>
+      <c r="BT37" s="15"/>
+      <c r="BU37" s="15"/>
+      <c r="BV37" s="15"/>
+      <c r="BW37" s="15"/>
+      <c r="BX37" s="15"/>
+      <c r="BY37" s="15"/>
+      <c r="BZ37" s="15"/>
+      <c r="CA37" s="15"/>
+      <c r="CB37" s="16"/>
+      <c r="CC37" s="15"/>
+      <c r="CD37" s="15"/>
+      <c r="CE37" s="15"/>
+      <c r="CF37" s="15"/>
+      <c r="CG37" s="15"/>
+      <c r="CH37" s="15"/>
+      <c r="CI37" s="15"/>
+      <c r="CJ37" s="15"/>
+      <c r="CK37" s="15"/>
+      <c r="CL37" s="15"/>
+      <c r="CM37" s="15"/>
       <c r="CN37" s="1"/>
-      <c r="CO37" s="1" t="s">
+      <c r="CO37" s="16"/>
+      <c r="CP37" s="16"/>
+      <c r="CQ37" s="16"/>
+      <c r="CR37" s="16"/>
+      <c r="CS37" s="16"/>
+      <c r="CT37" s="16"/>
+      <c r="CU37" s="16"/>
+      <c r="CV37" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP37" s="1"/>
+      <c r="CW37" s="16"/>
     </row>
     <row r="38" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -7480,8 +7515,8 @@
       <c r="H38" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="I38" s="29" t="s">
-        <v>265</v>
+      <c r="I38" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -7531,49 +7566,56 @@
       </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
-      <c r="BV38" s="1"/>
-      <c r="BW38" s="1"/>
-      <c r="BX38" s="1"/>
-      <c r="BY38" s="1"/>
-      <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
-      <c r="CC38" s="1"/>
-      <c r="CD38" s="1"/>
-      <c r="CE38" s="1"/>
-      <c r="CF38" s="1"/>
-      <c r="CG38" s="1"/>
-      <c r="CH38" s="1"/>
-      <c r="CI38" s="1"/>
-      <c r="CJ38" s="1"/>
-      <c r="CK38" s="1"/>
-      <c r="CL38" s="1"/>
-      <c r="CM38" s="1"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="15"/>
+      <c r="BD38" s="15"/>
+      <c r="BE38" s="16"/>
+      <c r="BF38" s="15"/>
+      <c r="BG38" s="15"/>
+      <c r="BH38" s="15"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="15"/>
+      <c r="BK38" s="15"/>
+      <c r="BL38" s="15"/>
+      <c r="BM38" s="15"/>
+      <c r="BN38" s="15"/>
+      <c r="BO38" s="15"/>
+      <c r="BP38" s="15"/>
+      <c r="BQ38" s="15"/>
+      <c r="BR38" s="15"/>
+      <c r="BS38" s="15"/>
+      <c r="BT38" s="15"/>
+      <c r="BU38" s="15"/>
+      <c r="BV38" s="15"/>
+      <c r="BW38" s="15"/>
+      <c r="BX38" s="15"/>
+      <c r="BY38" s="15"/>
+      <c r="BZ38" s="15"/>
+      <c r="CA38" s="15"/>
+      <c r="CB38" s="16"/>
+      <c r="CC38" s="15"/>
+      <c r="CD38" s="15"/>
+      <c r="CE38" s="15"/>
+      <c r="CF38" s="15"/>
+      <c r="CG38" s="15"/>
+      <c r="CH38" s="15"/>
+      <c r="CI38" s="15"/>
+      <c r="CJ38" s="15"/>
+      <c r="CK38" s="15"/>
+      <c r="CL38" s="15"/>
+      <c r="CM38" s="15"/>
       <c r="CN38" s="1"/>
-      <c r="CO38" s="1" t="s">
+      <c r="CO38" s="16"/>
+      <c r="CP38" s="16"/>
+      <c r="CQ38" s="16"/>
+      <c r="CR38" s="16"/>
+      <c r="CS38" s="16"/>
+      <c r="CT38" s="16"/>
+      <c r="CU38" s="16"/>
+      <c r="CV38" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP38" s="1"/>
+      <c r="CW38" s="16"/>
     </row>
     <row r="39" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -7600,8 +7642,8 @@
       <c r="H39" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="I39" s="29" t="s">
-        <v>265</v>
+      <c r="I39" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -7651,49 +7693,56 @@
       </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
-      <c r="BC39" s="1"/>
-      <c r="BD39" s="1"/>
-      <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
-      <c r="BG39" s="1"/>
-      <c r="BH39" s="1"/>
-      <c r="BI39" s="1"/>
-      <c r="BJ39" s="1"/>
-      <c r="BK39" s="1"/>
-      <c r="BL39" s="1"/>
-      <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
-      <c r="BO39" s="1"/>
-      <c r="BP39" s="1"/>
-      <c r="BQ39" s="1"/>
-      <c r="BR39" s="1"/>
-      <c r="BS39" s="1"/>
-      <c r="BT39" s="1"/>
-      <c r="BU39" s="1"/>
-      <c r="BV39" s="1"/>
-      <c r="BW39" s="1"/>
-      <c r="BX39" s="1"/>
-      <c r="BY39" s="1"/>
-      <c r="BZ39" s="1"/>
-      <c r="CA39" s="1"/>
-      <c r="CB39" s="1"/>
-      <c r="CC39" s="1"/>
-      <c r="CD39" s="1"/>
-      <c r="CE39" s="1"/>
-      <c r="CF39" s="1"/>
-      <c r="CG39" s="1"/>
-      <c r="CH39" s="1"/>
-      <c r="CI39" s="1"/>
-      <c r="CJ39" s="1"/>
-      <c r="CK39" s="1"/>
-      <c r="CL39" s="1"/>
-      <c r="CM39" s="1"/>
+      <c r="BB39" s="15"/>
+      <c r="BC39" s="15"/>
+      <c r="BD39" s="15"/>
+      <c r="BE39" s="16"/>
+      <c r="BF39" s="15"/>
+      <c r="BG39" s="15"/>
+      <c r="BH39" s="15"/>
+      <c r="BI39" s="15"/>
+      <c r="BJ39" s="15"/>
+      <c r="BK39" s="15"/>
+      <c r="BL39" s="15"/>
+      <c r="BM39" s="15"/>
+      <c r="BN39" s="15"/>
+      <c r="BO39" s="15"/>
+      <c r="BP39" s="15"/>
+      <c r="BQ39" s="15"/>
+      <c r="BR39" s="15"/>
+      <c r="BS39" s="15"/>
+      <c r="BT39" s="15"/>
+      <c r="BU39" s="15"/>
+      <c r="BV39" s="15"/>
+      <c r="BW39" s="15"/>
+      <c r="BX39" s="15"/>
+      <c r="BY39" s="15"/>
+      <c r="BZ39" s="15"/>
+      <c r="CA39" s="15"/>
+      <c r="CB39" s="16"/>
+      <c r="CC39" s="15"/>
+      <c r="CD39" s="15"/>
+      <c r="CE39" s="15"/>
+      <c r="CF39" s="15"/>
+      <c r="CG39" s="15"/>
+      <c r="CH39" s="15"/>
+      <c r="CI39" s="15"/>
+      <c r="CJ39" s="15"/>
+      <c r="CK39" s="15"/>
+      <c r="CL39" s="15"/>
+      <c r="CM39" s="15"/>
       <c r="CN39" s="1"/>
-      <c r="CO39" s="1" t="s">
+      <c r="CO39" s="16"/>
+      <c r="CP39" s="16"/>
+      <c r="CQ39" s="16"/>
+      <c r="CR39" s="16"/>
+      <c r="CS39" s="16"/>
+      <c r="CT39" s="16"/>
+      <c r="CU39" s="16"/>
+      <c r="CV39" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP39" s="1"/>
+      <c r="CW39" s="16"/>
     </row>
     <row r="40" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -7720,8 +7769,8 @@
       <c r="H40" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="I40" s="29" t="s">
-        <v>265</v>
+      <c r="I40" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -7771,49 +7820,56 @@
       </c>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
-      <c r="BC40" s="1"/>
-      <c r="BD40" s="1"/>
-      <c r="BE40" s="1"/>
-      <c r="BF40" s="1"/>
-      <c r="BG40" s="1"/>
-      <c r="BH40" s="1"/>
-      <c r="BI40" s="1"/>
-      <c r="BJ40" s="1"/>
-      <c r="BK40" s="1"/>
-      <c r="BL40" s="1"/>
-      <c r="BM40" s="1"/>
-      <c r="BN40" s="1"/>
-      <c r="BO40" s="1"/>
-      <c r="BP40" s="1"/>
-      <c r="BQ40" s="1"/>
-      <c r="BR40" s="1"/>
-      <c r="BS40" s="1"/>
-      <c r="BT40" s="1"/>
-      <c r="BU40" s="1"/>
-      <c r="BV40" s="1"/>
-      <c r="BW40" s="1"/>
-      <c r="BX40" s="1"/>
-      <c r="BY40" s="1"/>
-      <c r="BZ40" s="1"/>
-      <c r="CA40" s="1"/>
-      <c r="CB40" s="1"/>
-      <c r="CC40" s="1"/>
-      <c r="CD40" s="1"/>
-      <c r="CE40" s="1"/>
-      <c r="CF40" s="1"/>
-      <c r="CG40" s="1"/>
-      <c r="CH40" s="1"/>
-      <c r="CI40" s="1"/>
-      <c r="CJ40" s="1"/>
-      <c r="CK40" s="1"/>
-      <c r="CL40" s="1"/>
-      <c r="CM40" s="1"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="15"/>
+      <c r="BD40" s="15"/>
+      <c r="BE40" s="16"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="15"/>
+      <c r="BL40" s="15"/>
+      <c r="BM40" s="15"/>
+      <c r="BN40" s="15"/>
+      <c r="BO40" s="15"/>
+      <c r="BP40" s="15"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="15"/>
+      <c r="BS40" s="15"/>
+      <c r="BT40" s="15"/>
+      <c r="BU40" s="15"/>
+      <c r="BV40" s="15"/>
+      <c r="BW40" s="15"/>
+      <c r="BX40" s="15"/>
+      <c r="BY40" s="15"/>
+      <c r="BZ40" s="15"/>
+      <c r="CA40" s="15"/>
+      <c r="CB40" s="16"/>
+      <c r="CC40" s="15"/>
+      <c r="CD40" s="15"/>
+      <c r="CE40" s="15"/>
+      <c r="CF40" s="15"/>
+      <c r="CG40" s="15"/>
+      <c r="CH40" s="15"/>
+      <c r="CI40" s="15"/>
+      <c r="CJ40" s="15"/>
+      <c r="CK40" s="15"/>
+      <c r="CL40" s="15"/>
+      <c r="CM40" s="15"/>
       <c r="CN40" s="1"/>
-      <c r="CO40" s="1" t="s">
+      <c r="CO40" s="16"/>
+      <c r="CP40" s="16"/>
+      <c r="CQ40" s="16"/>
+      <c r="CR40" s="16"/>
+      <c r="CS40" s="16"/>
+      <c r="CT40" s="16"/>
+      <c r="CU40" s="16"/>
+      <c r="CV40" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP40" s="1"/>
+      <c r="CW40" s="16"/>
     </row>
     <row r="41" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -7840,8 +7896,8 @@
       <c r="H41" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I41" s="29" t="s">
-        <v>265</v>
+      <c r="I41" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -7891,49 +7947,56 @@
       </c>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1"/>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1"/>
-      <c r="BI41" s="1"/>
-      <c r="BJ41" s="1"/>
-      <c r="BK41" s="1"/>
-      <c r="BL41" s="1"/>
-      <c r="BM41" s="1"/>
-      <c r="BN41" s="1"/>
-      <c r="BO41" s="1"/>
-      <c r="BP41" s="1"/>
-      <c r="BQ41" s="1"/>
-      <c r="BR41" s="1"/>
-      <c r="BS41" s="1"/>
-      <c r="BT41" s="1"/>
-      <c r="BU41" s="1"/>
-      <c r="BV41" s="1"/>
-      <c r="BW41" s="1"/>
-      <c r="BX41" s="1"/>
-      <c r="BY41" s="1"/>
-      <c r="BZ41" s="1"/>
-      <c r="CA41" s="1"/>
-      <c r="CB41" s="1"/>
-      <c r="CC41" s="1"/>
-      <c r="CD41" s="1"/>
-      <c r="CE41" s="1"/>
-      <c r="CF41" s="1"/>
-      <c r="CG41" s="1"/>
-      <c r="CH41" s="1"/>
-      <c r="CI41" s="1"/>
-      <c r="CJ41" s="1"/>
-      <c r="CK41" s="1"/>
-      <c r="CL41" s="1"/>
-      <c r="CM41" s="1"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="16"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="15"/>
+      <c r="BS41" s="15"/>
+      <c r="BT41" s="15"/>
+      <c r="BU41" s="15"/>
+      <c r="BV41" s="15"/>
+      <c r="BW41" s="15"/>
+      <c r="BX41" s="15"/>
+      <c r="BY41" s="15"/>
+      <c r="BZ41" s="15"/>
+      <c r="CA41" s="15"/>
+      <c r="CB41" s="16"/>
+      <c r="CC41" s="15"/>
+      <c r="CD41" s="15"/>
+      <c r="CE41" s="15"/>
+      <c r="CF41" s="15"/>
+      <c r="CG41" s="15"/>
+      <c r="CH41" s="15"/>
+      <c r="CI41" s="15"/>
+      <c r="CJ41" s="15"/>
+      <c r="CK41" s="15"/>
+      <c r="CL41" s="15"/>
+      <c r="CM41" s="15"/>
       <c r="CN41" s="1"/>
-      <c r="CO41" s="1" t="s">
+      <c r="CO41" s="16"/>
+      <c r="CP41" s="16"/>
+      <c r="CQ41" s="16"/>
+      <c r="CR41" s="16"/>
+      <c r="CS41" s="16"/>
+      <c r="CT41" s="16"/>
+      <c r="CU41" s="16"/>
+      <c r="CV41" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP41" s="1"/>
+      <c r="CW41" s="16"/>
     </row>
     <row r="42" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -7960,8 +8023,8 @@
       <c r="H42" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I42" s="29" t="s">
-        <v>265</v>
+      <c r="I42" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -8011,49 +8074,56 @@
       </c>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
-      <c r="BB42" s="1"/>
-      <c r="BC42" s="1"/>
-      <c r="BD42" s="1"/>
-      <c r="BE42" s="1"/>
-      <c r="BF42" s="1"/>
-      <c r="BG42" s="1"/>
-      <c r="BH42" s="1"/>
-      <c r="BI42" s="1"/>
-      <c r="BJ42" s="1"/>
-      <c r="BK42" s="1"/>
-      <c r="BL42" s="1"/>
-      <c r="BM42" s="1"/>
-      <c r="BN42" s="1"/>
-      <c r="BO42" s="1"/>
-      <c r="BP42" s="1"/>
-      <c r="BQ42" s="1"/>
-      <c r="BR42" s="1"/>
-      <c r="BS42" s="1"/>
-      <c r="BT42" s="1"/>
-      <c r="BU42" s="1"/>
-      <c r="BV42" s="1"/>
-      <c r="BW42" s="1"/>
-      <c r="BX42" s="1"/>
-      <c r="BY42" s="1"/>
-      <c r="BZ42" s="1"/>
-      <c r="CA42" s="1"/>
-      <c r="CB42" s="1"/>
-      <c r="CC42" s="1"/>
-      <c r="CD42" s="1"/>
-      <c r="CE42" s="1"/>
-      <c r="CF42" s="1"/>
-      <c r="CG42" s="1"/>
-      <c r="CH42" s="1"/>
-      <c r="CI42" s="1"/>
-      <c r="CJ42" s="1"/>
-      <c r="CK42" s="1"/>
-      <c r="CL42" s="1"/>
-      <c r="CM42" s="1"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="15"/>
+      <c r="BD42" s="15"/>
+      <c r="BE42" s="16"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="15"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="15"/>
+      <c r="BL42" s="15"/>
+      <c r="BM42" s="15"/>
+      <c r="BN42" s="15"/>
+      <c r="BO42" s="15"/>
+      <c r="BP42" s="15"/>
+      <c r="BQ42" s="15"/>
+      <c r="BR42" s="15"/>
+      <c r="BS42" s="15"/>
+      <c r="BT42" s="15"/>
+      <c r="BU42" s="15"/>
+      <c r="BV42" s="15"/>
+      <c r="BW42" s="15"/>
+      <c r="BX42" s="15"/>
+      <c r="BY42" s="15"/>
+      <c r="BZ42" s="15"/>
+      <c r="CA42" s="15"/>
+      <c r="CB42" s="16"/>
+      <c r="CC42" s="15"/>
+      <c r="CD42" s="15"/>
+      <c r="CE42" s="15"/>
+      <c r="CF42" s="15"/>
+      <c r="CG42" s="15"/>
+      <c r="CH42" s="15"/>
+      <c r="CI42" s="15"/>
+      <c r="CJ42" s="15"/>
+      <c r="CK42" s="15"/>
+      <c r="CL42" s="15"/>
+      <c r="CM42" s="15"/>
       <c r="CN42" s="1"/>
-      <c r="CO42" s="1" t="s">
+      <c r="CO42" s="16"/>
+      <c r="CP42" s="16"/>
+      <c r="CQ42" s="16"/>
+      <c r="CR42" s="16"/>
+      <c r="CS42" s="16"/>
+      <c r="CT42" s="16"/>
+      <c r="CU42" s="16"/>
+      <c r="CV42" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP42" s="1"/>
+      <c r="CW42" s="16"/>
     </row>
     <row r="43" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -8080,8 +8150,8 @@
       <c r="H43" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I43" s="29" t="s">
-        <v>265</v>
+      <c r="I43" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -8131,49 +8201,56 @@
       </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
-      <c r="BC43" s="1"/>
-      <c r="BD43" s="1"/>
-      <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
-      <c r="BG43" s="1"/>
-      <c r="BH43" s="1"/>
-      <c r="BI43" s="1"/>
-      <c r="BJ43" s="1"/>
-      <c r="BK43" s="1"/>
-      <c r="BL43" s="1"/>
-      <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
-      <c r="BP43" s="1"/>
-      <c r="BQ43" s="1"/>
-      <c r="BR43" s="1"/>
-      <c r="BS43" s="1"/>
-      <c r="BT43" s="1"/>
-      <c r="BU43" s="1"/>
-      <c r="BV43" s="1"/>
-      <c r="BW43" s="1"/>
-      <c r="BX43" s="1"/>
-      <c r="BY43" s="1"/>
-      <c r="BZ43" s="1"/>
-      <c r="CA43" s="1"/>
-      <c r="CB43" s="1"/>
-      <c r="CC43" s="1"/>
-      <c r="CD43" s="1"/>
-      <c r="CE43" s="1"/>
-      <c r="CF43" s="1"/>
-      <c r="CG43" s="1"/>
-      <c r="CH43" s="1"/>
-      <c r="CI43" s="1"/>
-      <c r="CJ43" s="1"/>
-      <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
+      <c r="BB43" s="15"/>
+      <c r="BC43" s="15"/>
+      <c r="BD43" s="15"/>
+      <c r="BE43" s="16"/>
+      <c r="BF43" s="15"/>
+      <c r="BG43" s="15"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="15"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="15"/>
+      <c r="BL43" s="15"/>
+      <c r="BM43" s="15"/>
+      <c r="BN43" s="15"/>
+      <c r="BO43" s="15"/>
+      <c r="BP43" s="15"/>
+      <c r="BQ43" s="15"/>
+      <c r="BR43" s="15"/>
+      <c r="BS43" s="15"/>
+      <c r="BT43" s="15"/>
+      <c r="BU43" s="15"/>
+      <c r="BV43" s="15"/>
+      <c r="BW43" s="15"/>
+      <c r="BX43" s="15"/>
+      <c r="BY43" s="15"/>
+      <c r="BZ43" s="15"/>
+      <c r="CA43" s="15"/>
+      <c r="CB43" s="16"/>
+      <c r="CC43" s="15"/>
+      <c r="CD43" s="15"/>
+      <c r="CE43" s="15"/>
+      <c r="CF43" s="15"/>
+      <c r="CG43" s="15"/>
+      <c r="CH43" s="15"/>
+      <c r="CI43" s="15"/>
+      <c r="CJ43" s="15"/>
+      <c r="CK43" s="15"/>
+      <c r="CL43" s="15"/>
+      <c r="CM43" s="15"/>
       <c r="CN43" s="1"/>
-      <c r="CO43" s="1" t="s">
+      <c r="CO43" s="16"/>
+      <c r="CP43" s="16"/>
+      <c r="CQ43" s="16"/>
+      <c r="CR43" s="16"/>
+      <c r="CS43" s="16"/>
+      <c r="CT43" s="16"/>
+      <c r="CU43" s="16"/>
+      <c r="CV43" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP43" s="1"/>
+      <c r="CW43" s="16"/>
     </row>
     <row r="44" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -8198,8 +8275,8 @@
         <v>425</v>
       </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="29" t="s">
-        <v>265</v>
+      <c r="I44" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -8249,49 +8326,56 @@
       </c>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
-      <c r="BC44" s="1"/>
-      <c r="BD44" s="1"/>
-      <c r="BE44" s="1"/>
-      <c r="BF44" s="1"/>
-      <c r="BG44" s="1"/>
-      <c r="BH44" s="1"/>
-      <c r="BI44" s="1"/>
-      <c r="BJ44" s="1"/>
-      <c r="BK44" s="1"/>
-      <c r="BL44" s="1"/>
-      <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
-      <c r="BO44" s="1"/>
-      <c r="BP44" s="1"/>
-      <c r="BQ44" s="1"/>
-      <c r="BR44" s="1"/>
-      <c r="BS44" s="1"/>
-      <c r="BT44" s="1"/>
-      <c r="BU44" s="1"/>
-      <c r="BV44" s="1"/>
-      <c r="BW44" s="1"/>
-      <c r="BX44" s="1"/>
-      <c r="BY44" s="1"/>
-      <c r="BZ44" s="1"/>
-      <c r="CA44" s="1"/>
-      <c r="CB44" s="1"/>
-      <c r="CC44" s="1"/>
-      <c r="CD44" s="1"/>
-      <c r="CE44" s="1"/>
-      <c r="CF44" s="1"/>
-      <c r="CG44" s="1"/>
-      <c r="CH44" s="1"/>
-      <c r="CI44" s="1"/>
-      <c r="CJ44" s="1"/>
-      <c r="CK44" s="1"/>
-      <c r="CL44" s="1"/>
-      <c r="CM44" s="1"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="16"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="15"/>
+      <c r="BO44" s="15"/>
+      <c r="BP44" s="15"/>
+      <c r="BQ44" s="15"/>
+      <c r="BR44" s="15"/>
+      <c r="BS44" s="15"/>
+      <c r="BT44" s="15"/>
+      <c r="BU44" s="15"/>
+      <c r="BV44" s="15"/>
+      <c r="BW44" s="15"/>
+      <c r="BX44" s="15"/>
+      <c r="BY44" s="15"/>
+      <c r="BZ44" s="15"/>
+      <c r="CA44" s="15"/>
+      <c r="CB44" s="16"/>
+      <c r="CC44" s="15"/>
+      <c r="CD44" s="15"/>
+      <c r="CE44" s="15"/>
+      <c r="CF44" s="15"/>
+      <c r="CG44" s="15"/>
+      <c r="CH44" s="15"/>
+      <c r="CI44" s="15"/>
+      <c r="CJ44" s="15"/>
+      <c r="CK44" s="15"/>
+      <c r="CL44" s="15"/>
+      <c r="CM44" s="15"/>
       <c r="CN44" s="1"/>
-      <c r="CO44" s="1" t="s">
+      <c r="CO44" s="16"/>
+      <c r="CP44" s="16"/>
+      <c r="CQ44" s="16"/>
+      <c r="CR44" s="16"/>
+      <c r="CS44" s="16"/>
+      <c r="CT44" s="16"/>
+      <c r="CU44" s="16"/>
+      <c r="CV44" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP44" s="1"/>
+      <c r="CW44" s="16"/>
     </row>
     <row r="45" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -8316,8 +8400,8 @@
         <v>429</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="29" t="s">
-        <v>265</v>
+      <c r="I45" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -8367,49 +8451,56 @@
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
-      <c r="BB45" s="1"/>
-      <c r="BC45" s="1"/>
-      <c r="BD45" s="1"/>
-      <c r="BE45" s="1"/>
-      <c r="BF45" s="1"/>
-      <c r="BG45" s="1"/>
-      <c r="BH45" s="1"/>
-      <c r="BI45" s="1"/>
-      <c r="BJ45" s="1"/>
-      <c r="BK45" s="1"/>
-      <c r="BL45" s="1"/>
-      <c r="BM45" s="1"/>
-      <c r="BN45" s="1"/>
-      <c r="BO45" s="1"/>
-      <c r="BP45" s="1"/>
-      <c r="BQ45" s="1"/>
-      <c r="BR45" s="1"/>
-      <c r="BS45" s="1"/>
-      <c r="BT45" s="1"/>
-      <c r="BU45" s="1"/>
-      <c r="BV45" s="1"/>
-      <c r="BW45" s="1"/>
-      <c r="BX45" s="1"/>
-      <c r="BY45" s="1"/>
-      <c r="BZ45" s="1"/>
-      <c r="CA45" s="1"/>
-      <c r="CB45" s="1"/>
-      <c r="CC45" s="1"/>
-      <c r="CD45" s="1"/>
-      <c r="CE45" s="1"/>
-      <c r="CF45" s="1"/>
-      <c r="CG45" s="1"/>
-      <c r="CH45" s="1"/>
-      <c r="CI45" s="1"/>
-      <c r="CJ45" s="1"/>
-      <c r="CK45" s="1"/>
-      <c r="CL45" s="1"/>
-      <c r="CM45" s="1"/>
+      <c r="BB45" s="15"/>
+      <c r="BC45" s="15"/>
+      <c r="BD45" s="15"/>
+      <c r="BE45" s="16"/>
+      <c r="BF45" s="15"/>
+      <c r="BG45" s="15"/>
+      <c r="BH45" s="15"/>
+      <c r="BI45" s="15"/>
+      <c r="BJ45" s="15"/>
+      <c r="BK45" s="15"/>
+      <c r="BL45" s="15"/>
+      <c r="BM45" s="15"/>
+      <c r="BN45" s="15"/>
+      <c r="BO45" s="15"/>
+      <c r="BP45" s="15"/>
+      <c r="BQ45" s="15"/>
+      <c r="BR45" s="15"/>
+      <c r="BS45" s="15"/>
+      <c r="BT45" s="15"/>
+      <c r="BU45" s="15"/>
+      <c r="BV45" s="15"/>
+      <c r="BW45" s="15"/>
+      <c r="BX45" s="15"/>
+      <c r="BY45" s="15"/>
+      <c r="BZ45" s="15"/>
+      <c r="CA45" s="15"/>
+      <c r="CB45" s="16"/>
+      <c r="CC45" s="15"/>
+      <c r="CD45" s="15"/>
+      <c r="CE45" s="15"/>
+      <c r="CF45" s="15"/>
+      <c r="CG45" s="15"/>
+      <c r="CH45" s="15"/>
+      <c r="CI45" s="15"/>
+      <c r="CJ45" s="15"/>
+      <c r="CK45" s="15"/>
+      <c r="CL45" s="15"/>
+      <c r="CM45" s="15"/>
       <c r="CN45" s="1"/>
-      <c r="CO45" s="1" t="s">
+      <c r="CO45" s="16"/>
+      <c r="CP45" s="16"/>
+      <c r="CQ45" s="16"/>
+      <c r="CR45" s="16"/>
+      <c r="CS45" s="16"/>
+      <c r="CT45" s="16"/>
+      <c r="CU45" s="16"/>
+      <c r="CV45" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP45" s="1"/>
+      <c r="CW45" s="16"/>
     </row>
     <row r="46" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -8434,8 +8525,8 @@
         <v>433</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="29" t="s">
-        <v>265</v>
+      <c r="I46" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -8485,49 +8576,56 @@
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
-      <c r="BC46" s="1"/>
-      <c r="BD46" s="1"/>
-      <c r="BE46" s="1"/>
-      <c r="BF46" s="1"/>
-      <c r="BG46" s="1"/>
-      <c r="BH46" s="1"/>
-      <c r="BI46" s="1"/>
-      <c r="BJ46" s="1"/>
-      <c r="BK46" s="1"/>
-      <c r="BL46" s="1"/>
-      <c r="BM46" s="1"/>
-      <c r="BN46" s="1"/>
-      <c r="BO46" s="1"/>
-      <c r="BP46" s="1"/>
-      <c r="BQ46" s="1"/>
-      <c r="BR46" s="1"/>
-      <c r="BS46" s="1"/>
-      <c r="BT46" s="1"/>
-      <c r="BU46" s="1"/>
-      <c r="BV46" s="1"/>
-      <c r="BW46" s="1"/>
-      <c r="BX46" s="1"/>
-      <c r="BY46" s="1"/>
-      <c r="BZ46" s="1"/>
-      <c r="CA46" s="1"/>
-      <c r="CB46" s="1"/>
-      <c r="CC46" s="1"/>
-      <c r="CD46" s="1"/>
-      <c r="CE46" s="1"/>
-      <c r="CF46" s="1"/>
-      <c r="CG46" s="1"/>
-      <c r="CH46" s="1"/>
-      <c r="CI46" s="1"/>
-      <c r="CJ46" s="1"/>
-      <c r="CK46" s="1"/>
-      <c r="CL46" s="1"/>
-      <c r="CM46" s="1"/>
+      <c r="BB46" s="15"/>
+      <c r="BC46" s="15"/>
+      <c r="BD46" s="15"/>
+      <c r="BE46" s="16"/>
+      <c r="BF46" s="15"/>
+      <c r="BG46" s="15"/>
+      <c r="BH46" s="15"/>
+      <c r="BI46" s="15"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="15"/>
+      <c r="BL46" s="15"/>
+      <c r="BM46" s="15"/>
+      <c r="BN46" s="15"/>
+      <c r="BO46" s="15"/>
+      <c r="BP46" s="15"/>
+      <c r="BQ46" s="15"/>
+      <c r="BR46" s="15"/>
+      <c r="BS46" s="15"/>
+      <c r="BT46" s="15"/>
+      <c r="BU46" s="15"/>
+      <c r="BV46" s="15"/>
+      <c r="BW46" s="15"/>
+      <c r="BX46" s="15"/>
+      <c r="BY46" s="15"/>
+      <c r="BZ46" s="15"/>
+      <c r="CA46" s="15"/>
+      <c r="CB46" s="16"/>
+      <c r="CC46" s="15"/>
+      <c r="CD46" s="15"/>
+      <c r="CE46" s="15"/>
+      <c r="CF46" s="15"/>
+      <c r="CG46" s="15"/>
+      <c r="CH46" s="15"/>
+      <c r="CI46" s="15"/>
+      <c r="CJ46" s="15"/>
+      <c r="CK46" s="15"/>
+      <c r="CL46" s="15"/>
+      <c r="CM46" s="15"/>
       <c r="CN46" s="1"/>
-      <c r="CO46" s="1" t="s">
+      <c r="CO46" s="16"/>
+      <c r="CP46" s="16"/>
+      <c r="CQ46" s="16"/>
+      <c r="CR46" s="16"/>
+      <c r="CS46" s="16"/>
+      <c r="CT46" s="16"/>
+      <c r="CU46" s="16"/>
+      <c r="CV46" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP46" s="1"/>
+      <c r="CW46" s="16"/>
     </row>
     <row r="47" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -8552,8 +8650,8 @@
         <v>437</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="29" t="s">
-        <v>265</v>
+      <c r="I47" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -8603,49 +8701,56 @@
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
-      <c r="BB47" s="1"/>
-      <c r="BC47" s="1"/>
-      <c r="BD47" s="1"/>
-      <c r="BE47" s="1"/>
-      <c r="BF47" s="1"/>
-      <c r="BG47" s="1"/>
-      <c r="BH47" s="1"/>
-      <c r="BI47" s="1"/>
-      <c r="BJ47" s="1"/>
-      <c r="BK47" s="1"/>
-      <c r="BL47" s="1"/>
-      <c r="BM47" s="1"/>
-      <c r="BN47" s="1"/>
-      <c r="BO47" s="1"/>
-      <c r="BP47" s="1"/>
-      <c r="BQ47" s="1"/>
-      <c r="BR47" s="1"/>
-      <c r="BS47" s="1"/>
-      <c r="BT47" s="1"/>
-      <c r="BU47" s="1"/>
-      <c r="BV47" s="1"/>
-      <c r="BW47" s="1"/>
-      <c r="BX47" s="1"/>
-      <c r="BY47" s="1"/>
-      <c r="BZ47" s="1"/>
-      <c r="CA47" s="1"/>
-      <c r="CB47" s="1"/>
-      <c r="CC47" s="1"/>
-      <c r="CD47" s="1"/>
-      <c r="CE47" s="1"/>
-      <c r="CF47" s="1"/>
-      <c r="CG47" s="1"/>
-      <c r="CH47" s="1"/>
-      <c r="CI47" s="1"/>
-      <c r="CJ47" s="1"/>
-      <c r="CK47" s="1"/>
-      <c r="CL47" s="1"/>
-      <c r="CM47" s="1"/>
+      <c r="BB47" s="15"/>
+      <c r="BC47" s="15"/>
+      <c r="BD47" s="15"/>
+      <c r="BE47" s="16"/>
+      <c r="BF47" s="15"/>
+      <c r="BG47" s="15"/>
+      <c r="BH47" s="15"/>
+      <c r="BI47" s="15"/>
+      <c r="BJ47" s="15"/>
+      <c r="BK47" s="15"/>
+      <c r="BL47" s="15"/>
+      <c r="BM47" s="15"/>
+      <c r="BN47" s="15"/>
+      <c r="BO47" s="15"/>
+      <c r="BP47" s="15"/>
+      <c r="BQ47" s="15"/>
+      <c r="BR47" s="15"/>
+      <c r="BS47" s="15"/>
+      <c r="BT47" s="15"/>
+      <c r="BU47" s="15"/>
+      <c r="BV47" s="15"/>
+      <c r="BW47" s="15"/>
+      <c r="BX47" s="15"/>
+      <c r="BY47" s="15"/>
+      <c r="BZ47" s="15"/>
+      <c r="CA47" s="15"/>
+      <c r="CB47" s="16"/>
+      <c r="CC47" s="15"/>
+      <c r="CD47" s="15"/>
+      <c r="CE47" s="15"/>
+      <c r="CF47" s="15"/>
+      <c r="CG47" s="15"/>
+      <c r="CH47" s="15"/>
+      <c r="CI47" s="15"/>
+      <c r="CJ47" s="15"/>
+      <c r="CK47" s="15"/>
+      <c r="CL47" s="15"/>
+      <c r="CM47" s="15"/>
       <c r="CN47" s="1"/>
-      <c r="CO47" s="1" t="s">
+      <c r="CO47" s="16"/>
+      <c r="CP47" s="16"/>
+      <c r="CQ47" s="16"/>
+      <c r="CR47" s="16"/>
+      <c r="CS47" s="16"/>
+      <c r="CT47" s="16"/>
+      <c r="CU47" s="16"/>
+      <c r="CV47" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP47" s="1"/>
+      <c r="CW47" s="16"/>
     </row>
     <row r="48" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -8672,8 +8777,8 @@
       <c r="H48" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I48" s="29" t="s">
-        <v>265</v>
+      <c r="I48" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -8723,51 +8828,58 @@
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
-      <c r="BC48" s="1"/>
-      <c r="BD48" s="1"/>
-      <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
-      <c r="BG48" s="1"/>
-      <c r="BH48" s="1"/>
-      <c r="BI48" s="1"/>
-      <c r="BJ48" s="1"/>
-      <c r="BK48" s="1"/>
-      <c r="BL48" s="1"/>
-      <c r="BM48" s="1"/>
-      <c r="BN48" s="1"/>
-      <c r="BO48" s="1"/>
-      <c r="BP48" s="1"/>
-      <c r="BQ48" s="1"/>
-      <c r="BR48" s="1"/>
-      <c r="BS48" s="1"/>
-      <c r="BT48" s="1"/>
-      <c r="BU48" s="1"/>
-      <c r="BV48" s="1"/>
-      <c r="BW48" s="1"/>
-      <c r="BX48" s="1"/>
-      <c r="BY48" s="1"/>
-      <c r="BZ48" s="1"/>
-      <c r="CA48" s="1"/>
-      <c r="CB48" s="1"/>
-      <c r="CC48" s="1"/>
-      <c r="CD48" s="1"/>
-      <c r="CE48" s="1"/>
-      <c r="CF48" s="1"/>
-      <c r="CG48" s="1"/>
-      <c r="CH48" s="1"/>
-      <c r="CI48" s="1"/>
-      <c r="CJ48" s="1"/>
-      <c r="CK48" s="1"/>
-      <c r="CL48" s="1"/>
-      <c r="CM48" s="1"/>
+      <c r="BB48" s="15"/>
+      <c r="BC48" s="15"/>
+      <c r="BD48" s="15"/>
+      <c r="BE48" s="16"/>
+      <c r="BF48" s="15"/>
+      <c r="BG48" s="15"/>
+      <c r="BH48" s="15"/>
+      <c r="BI48" s="15"/>
+      <c r="BJ48" s="15"/>
+      <c r="BK48" s="15"/>
+      <c r="BL48" s="15"/>
+      <c r="BM48" s="15"/>
+      <c r="BN48" s="15"/>
+      <c r="BO48" s="15"/>
+      <c r="BP48" s="15"/>
+      <c r="BQ48" s="15"/>
+      <c r="BR48" s="15"/>
+      <c r="BS48" s="15"/>
+      <c r="BT48" s="15"/>
+      <c r="BU48" s="15"/>
+      <c r="BV48" s="15"/>
+      <c r="BW48" s="15"/>
+      <c r="BX48" s="15"/>
+      <c r="BY48" s="15"/>
+      <c r="BZ48" s="15"/>
+      <c r="CA48" s="15"/>
+      <c r="CB48" s="16"/>
+      <c r="CC48" s="15"/>
+      <c r="CD48" s="15"/>
+      <c r="CE48" s="15"/>
+      <c r="CF48" s="15"/>
+      <c r="CG48" s="15"/>
+      <c r="CH48" s="15"/>
+      <c r="CI48" s="15"/>
+      <c r="CJ48" s="15"/>
+      <c r="CK48" s="15"/>
+      <c r="CL48" s="15"/>
+      <c r="CM48" s="15"/>
       <c r="CN48" s="1"/>
-      <c r="CO48" s="1" t="s">
+      <c r="CO48" s="16"/>
+      <c r="CP48" s="16"/>
+      <c r="CQ48" s="16"/>
+      <c r="CR48" s="16"/>
+      <c r="CS48" s="16"/>
+      <c r="CT48" s="16"/>
+      <c r="CU48" s="16"/>
+      <c r="CV48" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP48" s="1"/>
+      <c r="CW48" s="16"/>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>444</v>
       </c>
@@ -8792,8 +8904,8 @@
       <c r="H49" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I49" s="29" t="s">
-        <v>265</v>
+      <c r="I49" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -8843,51 +8955,58 @@
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
-      <c r="BC49" s="1"/>
-      <c r="BD49" s="1"/>
-      <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
-      <c r="BG49" s="1"/>
-      <c r="BH49" s="1"/>
-      <c r="BI49" s="1"/>
-      <c r="BJ49" s="1"/>
-      <c r="BK49" s="1"/>
-      <c r="BL49" s="1"/>
-      <c r="BM49" s="1"/>
-      <c r="BN49" s="1"/>
-      <c r="BO49" s="1"/>
-      <c r="BP49" s="1"/>
-      <c r="BQ49" s="1"/>
-      <c r="BR49" s="1"/>
-      <c r="BS49" s="1"/>
-      <c r="BT49" s="1"/>
-      <c r="BU49" s="1"/>
-      <c r="BV49" s="1"/>
-      <c r="BW49" s="1"/>
-      <c r="BX49" s="1"/>
-      <c r="BY49" s="1"/>
-      <c r="BZ49" s="1"/>
-      <c r="CA49" s="1"/>
-      <c r="CB49" s="1"/>
-      <c r="CC49" s="1"/>
-      <c r="CD49" s="1"/>
-      <c r="CE49" s="1"/>
-      <c r="CF49" s="1"/>
-      <c r="CG49" s="1"/>
-      <c r="CH49" s="1"/>
-      <c r="CI49" s="1"/>
-      <c r="CJ49" s="1"/>
-      <c r="CK49" s="1"/>
-      <c r="CL49" s="1"/>
-      <c r="CM49" s="1"/>
+      <c r="BB49" s="15"/>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="15"/>
+      <c r="BE49" s="16"/>
+      <c r="BF49" s="15"/>
+      <c r="BG49" s="15"/>
+      <c r="BH49" s="15"/>
+      <c r="BI49" s="15"/>
+      <c r="BJ49" s="15"/>
+      <c r="BK49" s="15"/>
+      <c r="BL49" s="15"/>
+      <c r="BM49" s="15"/>
+      <c r="BN49" s="15"/>
+      <c r="BO49" s="15"/>
+      <c r="BP49" s="15"/>
+      <c r="BQ49" s="15"/>
+      <c r="BR49" s="15"/>
+      <c r="BS49" s="15"/>
+      <c r="BT49" s="15"/>
+      <c r="BU49" s="15"/>
+      <c r="BV49" s="15"/>
+      <c r="BW49" s="15"/>
+      <c r="BX49" s="15"/>
+      <c r="BY49" s="15"/>
+      <c r="BZ49" s="15"/>
+      <c r="CA49" s="15"/>
+      <c r="CB49" s="16"/>
+      <c r="CC49" s="15"/>
+      <c r="CD49" s="15"/>
+      <c r="CE49" s="15"/>
+      <c r="CF49" s="15"/>
+      <c r="CG49" s="15"/>
+      <c r="CH49" s="15"/>
+      <c r="CI49" s="15"/>
+      <c r="CJ49" s="15"/>
+      <c r="CK49" s="15"/>
+      <c r="CL49" s="15"/>
+      <c r="CM49" s="15"/>
       <c r="CN49" s="1"/>
-      <c r="CO49" s="1" t="s">
+      <c r="CO49" s="16"/>
+      <c r="CP49" s="16"/>
+      <c r="CQ49" s="16"/>
+      <c r="CR49" s="16"/>
+      <c r="CS49" s="16"/>
+      <c r="CT49" s="16"/>
+      <c r="CU49" s="16"/>
+      <c r="CV49" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP49" s="1"/>
+      <c r="CW49" s="16"/>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>449</v>
       </c>
@@ -8912,8 +9031,8 @@
       <c r="H50" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="I50" s="29" t="s">
-        <v>265</v>
+      <c r="I50" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -8963,51 +9082,58 @@
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
-      <c r="BB50" s="1"/>
-      <c r="BC50" s="1"/>
-      <c r="BD50" s="1"/>
-      <c r="BE50" s="1"/>
-      <c r="BF50" s="1"/>
-      <c r="BG50" s="1"/>
-      <c r="BH50" s="1"/>
-      <c r="BI50" s="1"/>
-      <c r="BJ50" s="1"/>
-      <c r="BK50" s="1"/>
-      <c r="BL50" s="1"/>
-      <c r="BM50" s="1"/>
-      <c r="BN50" s="1"/>
-      <c r="BO50" s="1"/>
-      <c r="BP50" s="1"/>
-      <c r="BQ50" s="1"/>
-      <c r="BR50" s="1"/>
-      <c r="BS50" s="1"/>
-      <c r="BT50" s="1"/>
-      <c r="BU50" s="1"/>
-      <c r="BV50" s="1"/>
-      <c r="BW50" s="1"/>
-      <c r="BX50" s="1"/>
-      <c r="BY50" s="1"/>
-      <c r="BZ50" s="1"/>
-      <c r="CA50" s="1"/>
-      <c r="CB50" s="1"/>
-      <c r="CC50" s="1"/>
-      <c r="CD50" s="1"/>
-      <c r="CE50" s="1"/>
-      <c r="CF50" s="1"/>
-      <c r="CG50" s="1"/>
-      <c r="CH50" s="1"/>
-      <c r="CI50" s="1"/>
-      <c r="CJ50" s="1"/>
-      <c r="CK50" s="1"/>
-      <c r="CL50" s="1"/>
-      <c r="CM50" s="1"/>
+      <c r="BB50" s="15"/>
+      <c r="BC50" s="15"/>
+      <c r="BD50" s="15"/>
+      <c r="BE50" s="16"/>
+      <c r="BF50" s="15"/>
+      <c r="BG50" s="15"/>
+      <c r="BH50" s="15"/>
+      <c r="BI50" s="15"/>
+      <c r="BJ50" s="15"/>
+      <c r="BK50" s="15"/>
+      <c r="BL50" s="15"/>
+      <c r="BM50" s="15"/>
+      <c r="BN50" s="15"/>
+      <c r="BO50" s="15"/>
+      <c r="BP50" s="15"/>
+      <c r="BQ50" s="15"/>
+      <c r="BR50" s="15"/>
+      <c r="BS50" s="15"/>
+      <c r="BT50" s="15"/>
+      <c r="BU50" s="15"/>
+      <c r="BV50" s="15"/>
+      <c r="BW50" s="15"/>
+      <c r="BX50" s="15"/>
+      <c r="BY50" s="15"/>
+      <c r="BZ50" s="15"/>
+      <c r="CA50" s="15"/>
+      <c r="CB50" s="16"/>
+      <c r="CC50" s="15"/>
+      <c r="CD50" s="15"/>
+      <c r="CE50" s="15"/>
+      <c r="CF50" s="15"/>
+      <c r="CG50" s="15"/>
+      <c r="CH50" s="15"/>
+      <c r="CI50" s="15"/>
+      <c r="CJ50" s="15"/>
+      <c r="CK50" s="15"/>
+      <c r="CL50" s="15"/>
+      <c r="CM50" s="15"/>
       <c r="CN50" s="1"/>
-      <c r="CO50" s="1" t="s">
+      <c r="CO50" s="16"/>
+      <c r="CP50" s="16"/>
+      <c r="CQ50" s="16"/>
+      <c r="CR50" s="16"/>
+      <c r="CS50" s="16"/>
+      <c r="CT50" s="16"/>
+      <c r="CU50" s="16"/>
+      <c r="CV50" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP50" s="1"/>
+      <c r="CW50" s="16"/>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>454</v>
       </c>
@@ -9032,8 +9158,8 @@
       <c r="H51" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I51" s="29" t="s">
-        <v>265</v>
+      <c r="I51" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -9083,51 +9209,58 @@
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
-      <c r="BB51" s="1"/>
-      <c r="BC51" s="1"/>
-      <c r="BD51" s="1"/>
-      <c r="BE51" s="1"/>
-      <c r="BF51" s="1"/>
-      <c r="BG51" s="1"/>
-      <c r="BH51" s="1"/>
-      <c r="BI51" s="1"/>
-      <c r="BJ51" s="1"/>
-      <c r="BK51" s="1"/>
-      <c r="BL51" s="1"/>
-      <c r="BM51" s="1"/>
-      <c r="BN51" s="1"/>
-      <c r="BO51" s="1"/>
-      <c r="BP51" s="1"/>
-      <c r="BQ51" s="1"/>
-      <c r="BR51" s="1"/>
-      <c r="BS51" s="1"/>
-      <c r="BT51" s="1"/>
-      <c r="BU51" s="1"/>
-      <c r="BV51" s="1"/>
-      <c r="BW51" s="1"/>
-      <c r="BX51" s="1"/>
-      <c r="BY51" s="1"/>
-      <c r="BZ51" s="1"/>
-      <c r="CA51" s="1"/>
-      <c r="CB51" s="1"/>
-      <c r="CC51" s="1"/>
-      <c r="CD51" s="1"/>
-      <c r="CE51" s="1"/>
-      <c r="CF51" s="1"/>
-      <c r="CG51" s="1"/>
-      <c r="CH51" s="1"/>
-      <c r="CI51" s="1"/>
-      <c r="CJ51" s="1"/>
-      <c r="CK51" s="1"/>
-      <c r="CL51" s="1"/>
-      <c r="CM51" s="1"/>
+      <c r="BB51" s="15"/>
+      <c r="BC51" s="15"/>
+      <c r="BD51" s="15"/>
+      <c r="BE51" s="16"/>
+      <c r="BF51" s="15"/>
+      <c r="BG51" s="15"/>
+      <c r="BH51" s="15"/>
+      <c r="BI51" s="15"/>
+      <c r="BJ51" s="15"/>
+      <c r="BK51" s="15"/>
+      <c r="BL51" s="15"/>
+      <c r="BM51" s="15"/>
+      <c r="BN51" s="15"/>
+      <c r="BO51" s="15"/>
+      <c r="BP51" s="15"/>
+      <c r="BQ51" s="15"/>
+      <c r="BR51" s="15"/>
+      <c r="BS51" s="15"/>
+      <c r="BT51" s="15"/>
+      <c r="BU51" s="15"/>
+      <c r="BV51" s="15"/>
+      <c r="BW51" s="15"/>
+      <c r="BX51" s="15"/>
+      <c r="BY51" s="15"/>
+      <c r="BZ51" s="15"/>
+      <c r="CA51" s="15"/>
+      <c r="CB51" s="16"/>
+      <c r="CC51" s="15"/>
+      <c r="CD51" s="15"/>
+      <c r="CE51" s="15"/>
+      <c r="CF51" s="15"/>
+      <c r="CG51" s="15"/>
+      <c r="CH51" s="15"/>
+      <c r="CI51" s="15"/>
+      <c r="CJ51" s="15"/>
+      <c r="CK51" s="15"/>
+      <c r="CL51" s="15"/>
+      <c r="CM51" s="15"/>
       <c r="CN51" s="1"/>
-      <c r="CO51" s="1" t="s">
+      <c r="CO51" s="16"/>
+      <c r="CP51" s="16"/>
+      <c r="CQ51" s="16"/>
+      <c r="CR51" s="16"/>
+      <c r="CS51" s="16"/>
+      <c r="CT51" s="16"/>
+      <c r="CU51" s="16"/>
+      <c r="CV51" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP51" s="1"/>
+      <c r="CW51" s="16"/>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>459</v>
       </c>
@@ -9150,8 +9283,8 @@
         <v>461</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="29" t="s">
-        <v>265</v>
+      <c r="I52" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -9201,51 +9334,58 @@
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
-      <c r="BC52" s="1"/>
-      <c r="BD52" s="1"/>
-      <c r="BE52" s="1"/>
-      <c r="BF52" s="1"/>
-      <c r="BG52" s="1"/>
-      <c r="BH52" s="1"/>
-      <c r="BI52" s="1"/>
-      <c r="BJ52" s="1"/>
-      <c r="BK52" s="1"/>
-      <c r="BL52" s="1"/>
-      <c r="BM52" s="1"/>
-      <c r="BN52" s="1"/>
-      <c r="BO52" s="1"/>
-      <c r="BP52" s="1"/>
-      <c r="BQ52" s="1"/>
-      <c r="BR52" s="1"/>
-      <c r="BS52" s="1"/>
-      <c r="BT52" s="1"/>
-      <c r="BU52" s="1"/>
-      <c r="BV52" s="1"/>
-      <c r="BW52" s="1"/>
-      <c r="BX52" s="1"/>
-      <c r="BY52" s="1"/>
-      <c r="BZ52" s="1"/>
-      <c r="CA52" s="1"/>
-      <c r="CB52" s="1"/>
-      <c r="CC52" s="1"/>
-      <c r="CD52" s="1"/>
-      <c r="CE52" s="1"/>
-      <c r="CF52" s="1"/>
-      <c r="CG52" s="1"/>
-      <c r="CH52" s="1"/>
-      <c r="CI52" s="1"/>
-      <c r="CJ52" s="1"/>
-      <c r="CK52" s="1"/>
-      <c r="CL52" s="1"/>
-      <c r="CM52" s="1"/>
+      <c r="BB52" s="15"/>
+      <c r="BC52" s="15"/>
+      <c r="BD52" s="15"/>
+      <c r="BE52" s="16"/>
+      <c r="BF52" s="15"/>
+      <c r="BG52" s="15"/>
+      <c r="BH52" s="15"/>
+      <c r="BI52" s="15"/>
+      <c r="BJ52" s="15"/>
+      <c r="BK52" s="15"/>
+      <c r="BL52" s="15"/>
+      <c r="BM52" s="15"/>
+      <c r="BN52" s="15"/>
+      <c r="BO52" s="15"/>
+      <c r="BP52" s="15"/>
+      <c r="BQ52" s="15"/>
+      <c r="BR52" s="15"/>
+      <c r="BS52" s="15"/>
+      <c r="BT52" s="15"/>
+      <c r="BU52" s="15"/>
+      <c r="BV52" s="15"/>
+      <c r="BW52" s="15"/>
+      <c r="BX52" s="15"/>
+      <c r="BY52" s="15"/>
+      <c r="BZ52" s="15"/>
+      <c r="CA52" s="15"/>
+      <c r="CB52" s="16"/>
+      <c r="CC52" s="15"/>
+      <c r="CD52" s="15"/>
+      <c r="CE52" s="15"/>
+      <c r="CF52" s="15"/>
+      <c r="CG52" s="15"/>
+      <c r="CH52" s="15"/>
+      <c r="CI52" s="15"/>
+      <c r="CJ52" s="15"/>
+      <c r="CK52" s="15"/>
+      <c r="CL52" s="15"/>
+      <c r="CM52" s="15"/>
       <c r="CN52" s="1"/>
-      <c r="CO52" s="1" t="s">
+      <c r="CO52" s="16"/>
+      <c r="CP52" s="16"/>
+      <c r="CQ52" s="16"/>
+      <c r="CR52" s="16"/>
+      <c r="CS52" s="16"/>
+      <c r="CT52" s="16"/>
+      <c r="CU52" s="16"/>
+      <c r="CV52" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP52" s="1"/>
+      <c r="CW52" s="16"/>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>463</v>
       </c>
@@ -9268,8 +9408,8 @@
         <v>465</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="29" t="s">
-        <v>265</v>
+      <c r="I53" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -9319,51 +9459,58 @@
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
-      <c r="BC53" s="1"/>
-      <c r="BD53" s="1"/>
-      <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
-      <c r="BG53" s="1"/>
-      <c r="BH53" s="1"/>
-      <c r="BI53" s="1"/>
-      <c r="BJ53" s="1"/>
-      <c r="BK53" s="1"/>
-      <c r="BL53" s="1"/>
-      <c r="BM53" s="1"/>
-      <c r="BN53" s="1"/>
-      <c r="BO53" s="1"/>
-      <c r="BP53" s="1"/>
-      <c r="BQ53" s="1"/>
-      <c r="BR53" s="1"/>
-      <c r="BS53" s="1"/>
-      <c r="BT53" s="1"/>
-      <c r="BU53" s="1"/>
-      <c r="BV53" s="1"/>
-      <c r="BW53" s="1"/>
-      <c r="BX53" s="1"/>
-      <c r="BY53" s="1"/>
-      <c r="BZ53" s="1"/>
-      <c r="CA53" s="1"/>
-      <c r="CB53" s="1"/>
-      <c r="CC53" s="1"/>
-      <c r="CD53" s="1"/>
-      <c r="CE53" s="1"/>
-      <c r="CF53" s="1"/>
-      <c r="CG53" s="1"/>
-      <c r="CH53" s="1"/>
-      <c r="CI53" s="1"/>
-      <c r="CJ53" s="1"/>
-      <c r="CK53" s="1"/>
-      <c r="CL53" s="1"/>
-      <c r="CM53" s="1"/>
+      <c r="BB53" s="15"/>
+      <c r="BC53" s="15"/>
+      <c r="BD53" s="15"/>
+      <c r="BE53" s="16"/>
+      <c r="BF53" s="15"/>
+      <c r="BG53" s="15"/>
+      <c r="BH53" s="15"/>
+      <c r="BI53" s="15"/>
+      <c r="BJ53" s="15"/>
+      <c r="BK53" s="15"/>
+      <c r="BL53" s="15"/>
+      <c r="BM53" s="15"/>
+      <c r="BN53" s="15"/>
+      <c r="BO53" s="15"/>
+      <c r="BP53" s="15"/>
+      <c r="BQ53" s="15"/>
+      <c r="BR53" s="15"/>
+      <c r="BS53" s="15"/>
+      <c r="BT53" s="15"/>
+      <c r="BU53" s="15"/>
+      <c r="BV53" s="15"/>
+      <c r="BW53" s="15"/>
+      <c r="BX53" s="15"/>
+      <c r="BY53" s="15"/>
+      <c r="BZ53" s="15"/>
+      <c r="CA53" s="15"/>
+      <c r="CB53" s="16"/>
+      <c r="CC53" s="15"/>
+      <c r="CD53" s="15"/>
+      <c r="CE53" s="15"/>
+      <c r="CF53" s="15"/>
+      <c r="CG53" s="15"/>
+      <c r="CH53" s="15"/>
+      <c r="CI53" s="15"/>
+      <c r="CJ53" s="15"/>
+      <c r="CK53" s="15"/>
+      <c r="CL53" s="15"/>
+      <c r="CM53" s="15"/>
       <c r="CN53" s="1"/>
-      <c r="CO53" s="1" t="s">
+      <c r="CO53" s="16"/>
+      <c r="CP53" s="16"/>
+      <c r="CQ53" s="16"/>
+      <c r="CR53" s="16"/>
+      <c r="CS53" s="16"/>
+      <c r="CT53" s="16"/>
+      <c r="CU53" s="16"/>
+      <c r="CV53" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP53" s="1"/>
+      <c r="CW53" s="16"/>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>467</v>
       </c>
@@ -9388,8 +9535,8 @@
       <c r="H54" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="I54" s="29" t="s">
-        <v>265</v>
+      <c r="I54" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -9439,51 +9586,58 @@
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
-      <c r="BB54" s="1"/>
-      <c r="BC54" s="1"/>
-      <c r="BD54" s="1"/>
-      <c r="BE54" s="1"/>
-      <c r="BF54" s="1"/>
-      <c r="BG54" s="1"/>
-      <c r="BH54" s="1"/>
-      <c r="BI54" s="1"/>
-      <c r="BJ54" s="1"/>
-      <c r="BK54" s="1"/>
-      <c r="BL54" s="1"/>
-      <c r="BM54" s="1"/>
-      <c r="BN54" s="1"/>
-      <c r="BO54" s="1"/>
-      <c r="BP54" s="1"/>
-      <c r="BQ54" s="1"/>
-      <c r="BR54" s="1"/>
-      <c r="BS54" s="1"/>
-      <c r="BT54" s="1"/>
-      <c r="BU54" s="1"/>
-      <c r="BV54" s="1"/>
-      <c r="BW54" s="1"/>
-      <c r="BX54" s="1"/>
-      <c r="BY54" s="1"/>
-      <c r="BZ54" s="1"/>
-      <c r="CA54" s="1"/>
-      <c r="CB54" s="1"/>
-      <c r="CC54" s="1"/>
-      <c r="CD54" s="1"/>
-      <c r="CE54" s="1"/>
-      <c r="CF54" s="1"/>
-      <c r="CG54" s="1"/>
-      <c r="CH54" s="1"/>
-      <c r="CI54" s="1"/>
-      <c r="CJ54" s="1"/>
-      <c r="CK54" s="1"/>
-      <c r="CL54" s="1"/>
-      <c r="CM54" s="1"/>
+      <c r="BB54" s="15"/>
+      <c r="BC54" s="15"/>
+      <c r="BD54" s="15"/>
+      <c r="BE54" s="16"/>
+      <c r="BF54" s="15"/>
+      <c r="BG54" s="15"/>
+      <c r="BH54" s="15"/>
+      <c r="BI54" s="15"/>
+      <c r="BJ54" s="15"/>
+      <c r="BK54" s="15"/>
+      <c r="BL54" s="15"/>
+      <c r="BM54" s="15"/>
+      <c r="BN54" s="15"/>
+      <c r="BO54" s="15"/>
+      <c r="BP54" s="15"/>
+      <c r="BQ54" s="15"/>
+      <c r="BR54" s="15"/>
+      <c r="BS54" s="15"/>
+      <c r="BT54" s="15"/>
+      <c r="BU54" s="15"/>
+      <c r="BV54" s="15"/>
+      <c r="BW54" s="15"/>
+      <c r="BX54" s="15"/>
+      <c r="BY54" s="15"/>
+      <c r="BZ54" s="15"/>
+      <c r="CA54" s="15"/>
+      <c r="CB54" s="16"/>
+      <c r="CC54" s="15"/>
+      <c r="CD54" s="15"/>
+      <c r="CE54" s="15"/>
+      <c r="CF54" s="15"/>
+      <c r="CG54" s="15"/>
+      <c r="CH54" s="15"/>
+      <c r="CI54" s="15"/>
+      <c r="CJ54" s="15"/>
+      <c r="CK54" s="15"/>
+      <c r="CL54" s="15"/>
+      <c r="CM54" s="15"/>
       <c r="CN54" s="1"/>
-      <c r="CO54" s="1" t="s">
+      <c r="CO54" s="16"/>
+      <c r="CP54" s="16"/>
+      <c r="CQ54" s="16"/>
+      <c r="CR54" s="16"/>
+      <c r="CS54" s="16"/>
+      <c r="CT54" s="16"/>
+      <c r="CU54" s="16"/>
+      <c r="CV54" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP54" s="1"/>
+      <c r="CW54" s="16"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>472</v>
       </c>
@@ -9508,8 +9662,8 @@
       <c r="H55" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="I55" s="29" t="s">
-        <v>265</v>
+      <c r="I55" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -9559,51 +9713,58 @@
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
-      <c r="BB55" s="1"/>
-      <c r="BC55" s="1"/>
-      <c r="BD55" s="1"/>
-      <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
-      <c r="BG55" s="1"/>
-      <c r="BH55" s="1"/>
-      <c r="BI55" s="1"/>
-      <c r="BJ55" s="1"/>
-      <c r="BK55" s="1"/>
-      <c r="BL55" s="1"/>
-      <c r="BM55" s="1"/>
-      <c r="BN55" s="1"/>
-      <c r="BO55" s="1"/>
-      <c r="BP55" s="1"/>
-      <c r="BQ55" s="1"/>
-      <c r="BR55" s="1"/>
-      <c r="BS55" s="1"/>
-      <c r="BT55" s="1"/>
-      <c r="BU55" s="1"/>
-      <c r="BV55" s="1"/>
-      <c r="BW55" s="1"/>
-      <c r="BX55" s="1"/>
-      <c r="BY55" s="1"/>
-      <c r="BZ55" s="1"/>
-      <c r="CA55" s="1"/>
-      <c r="CB55" s="1"/>
-      <c r="CC55" s="1"/>
-      <c r="CD55" s="1"/>
-      <c r="CE55" s="1"/>
-      <c r="CF55" s="1"/>
-      <c r="CG55" s="1"/>
-      <c r="CH55" s="1"/>
-      <c r="CI55" s="1"/>
-      <c r="CJ55" s="1"/>
-      <c r="CK55" s="1"/>
-      <c r="CL55" s="1"/>
-      <c r="CM55" s="1"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="15"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="16"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="15"/>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="15"/>
+      <c r="BJ55" s="15"/>
+      <c r="BK55" s="15"/>
+      <c r="BL55" s="15"/>
+      <c r="BM55" s="15"/>
+      <c r="BN55" s="15"/>
+      <c r="BO55" s="15"/>
+      <c r="BP55" s="15"/>
+      <c r="BQ55" s="15"/>
+      <c r="BR55" s="15"/>
+      <c r="BS55" s="15"/>
+      <c r="BT55" s="15"/>
+      <c r="BU55" s="15"/>
+      <c r="BV55" s="15"/>
+      <c r="BW55" s="15"/>
+      <c r="BX55" s="15"/>
+      <c r="BY55" s="15"/>
+      <c r="BZ55" s="15"/>
+      <c r="CA55" s="15"/>
+      <c r="CB55" s="16"/>
+      <c r="CC55" s="15"/>
+      <c r="CD55" s="15"/>
+      <c r="CE55" s="15"/>
+      <c r="CF55" s="15"/>
+      <c r="CG55" s="15"/>
+      <c r="CH55" s="15"/>
+      <c r="CI55" s="15"/>
+      <c r="CJ55" s="15"/>
+      <c r="CK55" s="15"/>
+      <c r="CL55" s="15"/>
+      <c r="CM55" s="15"/>
       <c r="CN55" s="1"/>
-      <c r="CO55" s="1" t="s">
+      <c r="CO55" s="16"/>
+      <c r="CP55" s="16"/>
+      <c r="CQ55" s="16"/>
+      <c r="CR55" s="16"/>
+      <c r="CS55" s="16"/>
+      <c r="CT55" s="16"/>
+      <c r="CU55" s="16"/>
+      <c r="CV55" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP55" s="1"/>
+      <c r="CW55" s="16"/>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>477</v>
       </c>
@@ -9626,8 +9787,8 @@
         <v>479</v>
       </c>
       <c r="H56" s="1"/>
-      <c r="I56" s="29" t="s">
-        <v>265</v>
+      <c r="I56" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -9679,51 +9840,58 @@
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
-      <c r="BC56" s="1"/>
-      <c r="BD56" s="1"/>
-      <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
-      <c r="BG56" s="1"/>
-      <c r="BH56" s="1"/>
-      <c r="BI56" s="1"/>
-      <c r="BJ56" s="1"/>
-      <c r="BK56" s="1"/>
-      <c r="BL56" s="1"/>
-      <c r="BM56" s="1"/>
-      <c r="BN56" s="1"/>
-      <c r="BO56" s="1"/>
-      <c r="BP56" s="1"/>
-      <c r="BQ56" s="1"/>
-      <c r="BR56" s="1"/>
-      <c r="BS56" s="1"/>
-      <c r="BT56" s="1"/>
-      <c r="BU56" s="1"/>
-      <c r="BV56" s="1"/>
-      <c r="BW56" s="1"/>
-      <c r="BX56" s="1"/>
-      <c r="BY56" s="1"/>
-      <c r="BZ56" s="1"/>
-      <c r="CA56" s="1"/>
-      <c r="CB56" s="1"/>
-      <c r="CC56" s="1"/>
-      <c r="CD56" s="1"/>
-      <c r="CE56" s="1"/>
-      <c r="CF56" s="1"/>
-      <c r="CG56" s="1"/>
-      <c r="CH56" s="1"/>
-      <c r="CI56" s="1"/>
-      <c r="CJ56" s="1"/>
-      <c r="CK56" s="1"/>
-      <c r="CL56" s="1"/>
-      <c r="CM56" s="1"/>
+      <c r="BB56" s="15"/>
+      <c r="BC56" s="15"/>
+      <c r="BD56" s="15"/>
+      <c r="BE56" s="16"/>
+      <c r="BF56" s="15"/>
+      <c r="BG56" s="15"/>
+      <c r="BH56" s="15"/>
+      <c r="BI56" s="15"/>
+      <c r="BJ56" s="15"/>
+      <c r="BK56" s="15"/>
+      <c r="BL56" s="15"/>
+      <c r="BM56" s="15"/>
+      <c r="BN56" s="15"/>
+      <c r="BO56" s="15"/>
+      <c r="BP56" s="15"/>
+      <c r="BQ56" s="15"/>
+      <c r="BR56" s="15"/>
+      <c r="BS56" s="15"/>
+      <c r="BT56" s="15"/>
+      <c r="BU56" s="15"/>
+      <c r="BV56" s="15"/>
+      <c r="BW56" s="15"/>
+      <c r="BX56" s="15"/>
+      <c r="BY56" s="15"/>
+      <c r="BZ56" s="15"/>
+      <c r="CA56" s="15"/>
+      <c r="CB56" s="16"/>
+      <c r="CC56" s="15"/>
+      <c r="CD56" s="15"/>
+      <c r="CE56" s="15"/>
+      <c r="CF56" s="15"/>
+      <c r="CG56" s="15"/>
+      <c r="CH56" s="15"/>
+      <c r="CI56" s="15"/>
+      <c r="CJ56" s="15"/>
+      <c r="CK56" s="15"/>
+      <c r="CL56" s="15"/>
+      <c r="CM56" s="15"/>
       <c r="CN56" s="1"/>
-      <c r="CO56" s="1" t="s">
+      <c r="CO56" s="16"/>
+      <c r="CP56" s="16"/>
+      <c r="CQ56" s="16"/>
+      <c r="CR56" s="16"/>
+      <c r="CS56" s="16"/>
+      <c r="CT56" s="16"/>
+      <c r="CU56" s="16"/>
+      <c r="CV56" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP56" s="1"/>
+      <c r="CW56" s="16"/>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>482</v>
       </c>
@@ -9746,8 +9914,8 @@
         <v>484</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="29" t="s">
-        <v>265</v>
+      <c r="I57" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -9799,51 +9967,58 @@
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
-      <c r="BB57" s="1"/>
-      <c r="BC57" s="1"/>
-      <c r="BD57" s="1"/>
-      <c r="BE57" s="1"/>
-      <c r="BF57" s="1"/>
-      <c r="BG57" s="1"/>
-      <c r="BH57" s="1"/>
-      <c r="BI57" s="1"/>
-      <c r="BJ57" s="1"/>
-      <c r="BK57" s="1"/>
-      <c r="BL57" s="1"/>
-      <c r="BM57" s="1"/>
-      <c r="BN57" s="1"/>
-      <c r="BO57" s="1"/>
-      <c r="BP57" s="1"/>
-      <c r="BQ57" s="1"/>
-      <c r="BR57" s="1"/>
-      <c r="BS57" s="1"/>
-      <c r="BT57" s="1"/>
-      <c r="BU57" s="1"/>
-      <c r="BV57" s="1"/>
-      <c r="BW57" s="1"/>
-      <c r="BX57" s="1"/>
-      <c r="BY57" s="1"/>
-      <c r="BZ57" s="1"/>
-      <c r="CA57" s="1"/>
-      <c r="CB57" s="1"/>
-      <c r="CC57" s="1"/>
-      <c r="CD57" s="1"/>
-      <c r="CE57" s="1"/>
-      <c r="CF57" s="1"/>
-      <c r="CG57" s="1"/>
-      <c r="CH57" s="1"/>
-      <c r="CI57" s="1"/>
-      <c r="CJ57" s="1"/>
-      <c r="CK57" s="1"/>
-      <c r="CL57" s="1"/>
-      <c r="CM57" s="1"/>
+      <c r="BB57" s="15"/>
+      <c r="BC57" s="15"/>
+      <c r="BD57" s="15"/>
+      <c r="BE57" s="16"/>
+      <c r="BF57" s="15"/>
+      <c r="BG57" s="15"/>
+      <c r="BH57" s="15"/>
+      <c r="BI57" s="15"/>
+      <c r="BJ57" s="15"/>
+      <c r="BK57" s="15"/>
+      <c r="BL57" s="15"/>
+      <c r="BM57" s="15"/>
+      <c r="BN57" s="15"/>
+      <c r="BO57" s="15"/>
+      <c r="BP57" s="15"/>
+      <c r="BQ57" s="15"/>
+      <c r="BR57" s="15"/>
+      <c r="BS57" s="15"/>
+      <c r="BT57" s="15"/>
+      <c r="BU57" s="15"/>
+      <c r="BV57" s="15"/>
+      <c r="BW57" s="15"/>
+      <c r="BX57" s="15"/>
+      <c r="BY57" s="15"/>
+      <c r="BZ57" s="15"/>
+      <c r="CA57" s="15"/>
+      <c r="CB57" s="16"/>
+      <c r="CC57" s="15"/>
+      <c r="CD57" s="15"/>
+      <c r="CE57" s="15"/>
+      <c r="CF57" s="15"/>
+      <c r="CG57" s="15"/>
+      <c r="CH57" s="15"/>
+      <c r="CI57" s="15"/>
+      <c r="CJ57" s="15"/>
+      <c r="CK57" s="15"/>
+      <c r="CL57" s="15"/>
+      <c r="CM57" s="15"/>
       <c r="CN57" s="1"/>
-      <c r="CO57" s="1" t="s">
+      <c r="CO57" s="16"/>
+      <c r="CP57" s="16"/>
+      <c r="CQ57" s="16"/>
+      <c r="CR57" s="16"/>
+      <c r="CS57" s="16"/>
+      <c r="CT57" s="16"/>
+      <c r="CU57" s="16"/>
+      <c r="CV57" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP57" s="1"/>
+      <c r="CW57" s="16"/>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>486</v>
       </c>
@@ -9868,8 +10043,8 @@
       <c r="H58" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I58" s="29" t="s">
-        <v>265</v>
+      <c r="I58" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -9921,51 +10096,58 @@
         <v>491</v>
       </c>
       <c r="BA58" s="1"/>
-      <c r="BB58" s="1"/>
-      <c r="BC58" s="1"/>
-      <c r="BD58" s="1"/>
-      <c r="BE58" s="1"/>
-      <c r="BF58" s="1"/>
-      <c r="BG58" s="1"/>
-      <c r="BH58" s="1"/>
-      <c r="BI58" s="1"/>
-      <c r="BJ58" s="1"/>
-      <c r="BK58" s="1"/>
-      <c r="BL58" s="1"/>
-      <c r="BM58" s="1"/>
-      <c r="BN58" s="1"/>
-      <c r="BO58" s="1"/>
-      <c r="BP58" s="1"/>
-      <c r="BQ58" s="1"/>
-      <c r="BR58" s="1"/>
-      <c r="BS58" s="1"/>
-      <c r="BT58" s="1"/>
-      <c r="BU58" s="1"/>
-      <c r="BV58" s="1"/>
-      <c r="BW58" s="1"/>
-      <c r="BX58" s="1"/>
-      <c r="BY58" s="1"/>
-      <c r="BZ58" s="1"/>
-      <c r="CA58" s="1"/>
-      <c r="CB58" s="1"/>
-      <c r="CC58" s="1"/>
-      <c r="CD58" s="1"/>
-      <c r="CE58" s="1"/>
-      <c r="CF58" s="1"/>
-      <c r="CG58" s="1"/>
-      <c r="CH58" s="1"/>
-      <c r="CI58" s="1"/>
-      <c r="CJ58" s="1"/>
-      <c r="CK58" s="1"/>
-      <c r="CL58" s="1"/>
-      <c r="CM58" s="1"/>
+      <c r="BB58" s="15"/>
+      <c r="BC58" s="15"/>
+      <c r="BD58" s="15"/>
+      <c r="BE58" s="16"/>
+      <c r="BF58" s="15"/>
+      <c r="BG58" s="15"/>
+      <c r="BH58" s="15"/>
+      <c r="BI58" s="15"/>
+      <c r="BJ58" s="15"/>
+      <c r="BK58" s="15"/>
+      <c r="BL58" s="15"/>
+      <c r="BM58" s="15"/>
+      <c r="BN58" s="15"/>
+      <c r="BO58" s="15"/>
+      <c r="BP58" s="15"/>
+      <c r="BQ58" s="15"/>
+      <c r="BR58" s="15"/>
+      <c r="BS58" s="15"/>
+      <c r="BT58" s="15"/>
+      <c r="BU58" s="15"/>
+      <c r="BV58" s="15"/>
+      <c r="BW58" s="15"/>
+      <c r="BX58" s="15"/>
+      <c r="BY58" s="15"/>
+      <c r="BZ58" s="15"/>
+      <c r="CA58" s="15"/>
+      <c r="CB58" s="16"/>
+      <c r="CC58" s="15"/>
+      <c r="CD58" s="15"/>
+      <c r="CE58" s="15"/>
+      <c r="CF58" s="15"/>
+      <c r="CG58" s="15"/>
+      <c r="CH58" s="15"/>
+      <c r="CI58" s="15"/>
+      <c r="CJ58" s="15"/>
+      <c r="CK58" s="15"/>
+      <c r="CL58" s="15"/>
+      <c r="CM58" s="15"/>
       <c r="CN58" s="1"/>
-      <c r="CO58" s="1" t="s">
+      <c r="CO58" s="16"/>
+      <c r="CP58" s="16"/>
+      <c r="CQ58" s="16"/>
+      <c r="CR58" s="16"/>
+      <c r="CS58" s="16"/>
+      <c r="CT58" s="16"/>
+      <c r="CU58" s="16"/>
+      <c r="CV58" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP58" s="1"/>
+      <c r="CW58" s="16"/>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>492</v>
       </c>
@@ -9990,8 +10172,8 @@
       <c r="H59" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="I59" s="29" t="s">
-        <v>265</v>
+      <c r="I59" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -10043,51 +10225,58 @@
         <v>491</v>
       </c>
       <c r="BA59" s="1"/>
-      <c r="BB59" s="1"/>
-      <c r="BC59" s="1"/>
-      <c r="BD59" s="1"/>
-      <c r="BE59" s="1"/>
-      <c r="BF59" s="1"/>
-      <c r="BG59" s="1"/>
-      <c r="BH59" s="1"/>
-      <c r="BI59" s="1"/>
-      <c r="BJ59" s="1"/>
-      <c r="BK59" s="1"/>
-      <c r="BL59" s="1"/>
-      <c r="BM59" s="1"/>
-      <c r="BN59" s="1"/>
-      <c r="BO59" s="1"/>
-      <c r="BP59" s="1"/>
-      <c r="BQ59" s="1"/>
-      <c r="BR59" s="1"/>
-      <c r="BS59" s="1"/>
-      <c r="BT59" s="1"/>
-      <c r="BU59" s="1"/>
-      <c r="BV59" s="1"/>
-      <c r="BW59" s="1"/>
-      <c r="BX59" s="1"/>
-      <c r="BY59" s="1"/>
-      <c r="BZ59" s="1"/>
-      <c r="CA59" s="1"/>
-      <c r="CB59" s="1"/>
-      <c r="CC59" s="1"/>
-      <c r="CD59" s="1"/>
-      <c r="CE59" s="1"/>
-      <c r="CF59" s="1"/>
-      <c r="CG59" s="1"/>
-      <c r="CH59" s="1"/>
-      <c r="CI59" s="1"/>
-      <c r="CJ59" s="1"/>
-      <c r="CK59" s="1"/>
-      <c r="CL59" s="1"/>
-      <c r="CM59" s="1"/>
+      <c r="BB59" s="15"/>
+      <c r="BC59" s="15"/>
+      <c r="BD59" s="15"/>
+      <c r="BE59" s="16"/>
+      <c r="BF59" s="15"/>
+      <c r="BG59" s="15"/>
+      <c r="BH59" s="15"/>
+      <c r="BI59" s="15"/>
+      <c r="BJ59" s="15"/>
+      <c r="BK59" s="15"/>
+      <c r="BL59" s="15"/>
+      <c r="BM59" s="15"/>
+      <c r="BN59" s="15"/>
+      <c r="BO59" s="15"/>
+      <c r="BP59" s="15"/>
+      <c r="BQ59" s="15"/>
+      <c r="BR59" s="15"/>
+      <c r="BS59" s="15"/>
+      <c r="BT59" s="15"/>
+      <c r="BU59" s="15"/>
+      <c r="BV59" s="15"/>
+      <c r="BW59" s="15"/>
+      <c r="BX59" s="15"/>
+      <c r="BY59" s="15"/>
+      <c r="BZ59" s="15"/>
+      <c r="CA59" s="15"/>
+      <c r="CB59" s="16"/>
+      <c r="CC59" s="15"/>
+      <c r="CD59" s="15"/>
+      <c r="CE59" s="15"/>
+      <c r="CF59" s="15"/>
+      <c r="CG59" s="15"/>
+      <c r="CH59" s="15"/>
+      <c r="CI59" s="15"/>
+      <c r="CJ59" s="15"/>
+      <c r="CK59" s="15"/>
+      <c r="CL59" s="15"/>
+      <c r="CM59" s="15"/>
       <c r="CN59" s="1"/>
-      <c r="CO59" s="1" t="s">
+      <c r="CO59" s="16"/>
+      <c r="CP59" s="16"/>
+      <c r="CQ59" s="16"/>
+      <c r="CR59" s="16"/>
+      <c r="CS59" s="16"/>
+      <c r="CT59" s="16"/>
+      <c r="CU59" s="16"/>
+      <c r="CV59" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP59" s="1"/>
+      <c r="CW59" s="16"/>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>496</v>
       </c>
@@ -10112,8 +10301,8 @@
       <c r="H60" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="I60" s="29" t="s">
-        <v>265</v>
+      <c r="I60" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -10165,51 +10354,58 @@
       </c>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
-      <c r="BB60" s="1"/>
-      <c r="BC60" s="1"/>
-      <c r="BD60" s="1"/>
-      <c r="BE60" s="1"/>
-      <c r="BF60" s="1"/>
-      <c r="BG60" s="1"/>
-      <c r="BH60" s="1"/>
-      <c r="BI60" s="1"/>
-      <c r="BJ60" s="1"/>
-      <c r="BK60" s="1"/>
-      <c r="BL60" s="1"/>
-      <c r="BM60" s="1"/>
-      <c r="BN60" s="1"/>
-      <c r="BO60" s="1"/>
-      <c r="BP60" s="1"/>
-      <c r="BQ60" s="1"/>
-      <c r="BR60" s="1"/>
-      <c r="BS60" s="1"/>
-      <c r="BT60" s="1"/>
-      <c r="BU60" s="1"/>
-      <c r="BV60" s="1"/>
-      <c r="BW60" s="1"/>
-      <c r="BX60" s="1"/>
-      <c r="BY60" s="1"/>
-      <c r="BZ60" s="1"/>
-      <c r="CA60" s="1"/>
-      <c r="CB60" s="1"/>
-      <c r="CC60" s="1"/>
-      <c r="CD60" s="1"/>
-      <c r="CE60" s="1"/>
-      <c r="CF60" s="1"/>
-      <c r="CG60" s="1"/>
-      <c r="CH60" s="1"/>
-      <c r="CI60" s="1"/>
-      <c r="CJ60" s="1"/>
-      <c r="CK60" s="1"/>
-      <c r="CL60" s="1"/>
-      <c r="CM60" s="1"/>
+      <c r="BB60" s="15"/>
+      <c r="BC60" s="15"/>
+      <c r="BD60" s="15"/>
+      <c r="BE60" s="16"/>
+      <c r="BF60" s="15"/>
+      <c r="BG60" s="15"/>
+      <c r="BH60" s="15"/>
+      <c r="BI60" s="15"/>
+      <c r="BJ60" s="15"/>
+      <c r="BK60" s="15"/>
+      <c r="BL60" s="15"/>
+      <c r="BM60" s="15"/>
+      <c r="BN60" s="15"/>
+      <c r="BO60" s="15"/>
+      <c r="BP60" s="15"/>
+      <c r="BQ60" s="15"/>
+      <c r="BR60" s="15"/>
+      <c r="BS60" s="15"/>
+      <c r="BT60" s="15"/>
+      <c r="BU60" s="15"/>
+      <c r="BV60" s="15"/>
+      <c r="BW60" s="15"/>
+      <c r="BX60" s="15"/>
+      <c r="BY60" s="15"/>
+      <c r="BZ60" s="15"/>
+      <c r="CA60" s="15"/>
+      <c r="CB60" s="16"/>
+      <c r="CC60" s="15"/>
+      <c r="CD60" s="15"/>
+      <c r="CE60" s="15"/>
+      <c r="CF60" s="15"/>
+      <c r="CG60" s="15"/>
+      <c r="CH60" s="15"/>
+      <c r="CI60" s="15"/>
+      <c r="CJ60" s="15"/>
+      <c r="CK60" s="15"/>
+      <c r="CL60" s="15"/>
+      <c r="CM60" s="15"/>
       <c r="CN60" s="1"/>
-      <c r="CO60" s="1" t="s">
+      <c r="CO60" s="16"/>
+      <c r="CP60" s="16"/>
+      <c r="CQ60" s="16"/>
+      <c r="CR60" s="16"/>
+      <c r="CS60" s="16"/>
+      <c r="CT60" s="16"/>
+      <c r="CU60" s="16"/>
+      <c r="CV60" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP60" s="1"/>
+      <c r="CW60" s="16"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>501</v>
       </c>
@@ -10234,8 +10430,8 @@
       <c r="H61" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="I61" s="29" t="s">
-        <v>265</v>
+      <c r="I61" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -10287,51 +10483,58 @@
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
-      <c r="BC61" s="1"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
-      <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
-      <c r="BI61" s="1"/>
-      <c r="BJ61" s="1"/>
-      <c r="BK61" s="1"/>
-      <c r="BL61" s="1"/>
-      <c r="BM61" s="1"/>
-      <c r="BN61" s="1"/>
-      <c r="BO61" s="1"/>
-      <c r="BP61" s="1"/>
-      <c r="BQ61" s="1"/>
-      <c r="BR61" s="1"/>
-      <c r="BS61" s="1"/>
-      <c r="BT61" s="1"/>
-      <c r="BU61" s="1"/>
-      <c r="BV61" s="1"/>
-      <c r="BW61" s="1"/>
-      <c r="BX61" s="1"/>
-      <c r="BY61" s="1"/>
-      <c r="BZ61" s="1"/>
-      <c r="CA61" s="1"/>
-      <c r="CB61" s="1"/>
-      <c r="CC61" s="1"/>
-      <c r="CD61" s="1"/>
-      <c r="CE61" s="1"/>
-      <c r="CF61" s="1"/>
-      <c r="CG61" s="1"/>
-      <c r="CH61" s="1"/>
-      <c r="CI61" s="1"/>
-      <c r="CJ61" s="1"/>
-      <c r="CK61" s="1"/>
-      <c r="CL61" s="1"/>
-      <c r="CM61" s="1"/>
+      <c r="BB61" s="15"/>
+      <c r="BC61" s="15"/>
+      <c r="BD61" s="15"/>
+      <c r="BE61" s="16"/>
+      <c r="BF61" s="15"/>
+      <c r="BG61" s="15"/>
+      <c r="BH61" s="15"/>
+      <c r="BI61" s="15"/>
+      <c r="BJ61" s="15"/>
+      <c r="BK61" s="15"/>
+      <c r="BL61" s="15"/>
+      <c r="BM61" s="15"/>
+      <c r="BN61" s="15"/>
+      <c r="BO61" s="15"/>
+      <c r="BP61" s="15"/>
+      <c r="BQ61" s="15"/>
+      <c r="BR61" s="15"/>
+      <c r="BS61" s="15"/>
+      <c r="BT61" s="15"/>
+      <c r="BU61" s="15"/>
+      <c r="BV61" s="15"/>
+      <c r="BW61" s="15"/>
+      <c r="BX61" s="15"/>
+      <c r="BY61" s="15"/>
+      <c r="BZ61" s="15"/>
+      <c r="CA61" s="15"/>
+      <c r="CB61" s="16"/>
+      <c r="CC61" s="15"/>
+      <c r="CD61" s="15"/>
+      <c r="CE61" s="15"/>
+      <c r="CF61" s="15"/>
+      <c r="CG61" s="15"/>
+      <c r="CH61" s="15"/>
+      <c r="CI61" s="15"/>
+      <c r="CJ61" s="15"/>
+      <c r="CK61" s="15"/>
+      <c r="CL61" s="15"/>
+      <c r="CM61" s="15"/>
       <c r="CN61" s="1"/>
-      <c r="CO61" s="1" t="s">
+      <c r="CO61" s="16"/>
+      <c r="CP61" s="16"/>
+      <c r="CQ61" s="16"/>
+      <c r="CR61" s="16"/>
+      <c r="CS61" s="16"/>
+      <c r="CT61" s="16"/>
+      <c r="CU61" s="16"/>
+      <c r="CV61" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP61" s="1"/>
+      <c r="CW61" s="16"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>505</v>
       </c>
@@ -10356,8 +10559,8 @@
       <c r="H62" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I62" s="29" t="s">
-        <v>265</v>
+      <c r="I62" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -10409,51 +10612,58 @@
       <c r="BA62" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="BB62" s="1"/>
-      <c r="BC62" s="1"/>
-      <c r="BD62" s="1"/>
-      <c r="BE62" s="1"/>
-      <c r="BF62" s="1"/>
-      <c r="BG62" s="1"/>
-      <c r="BH62" s="1"/>
-      <c r="BI62" s="1"/>
-      <c r="BJ62" s="1"/>
-      <c r="BK62" s="1"/>
-      <c r="BL62" s="1"/>
-      <c r="BM62" s="1"/>
-      <c r="BN62" s="1"/>
-      <c r="BO62" s="1"/>
-      <c r="BP62" s="1"/>
-      <c r="BQ62" s="1"/>
-      <c r="BR62" s="1"/>
-      <c r="BS62" s="1"/>
-      <c r="BT62" s="1"/>
-      <c r="BU62" s="1"/>
-      <c r="BV62" s="1"/>
-      <c r="BW62" s="1"/>
-      <c r="BX62" s="1"/>
-      <c r="BY62" s="1"/>
-      <c r="BZ62" s="1"/>
-      <c r="CA62" s="1"/>
-      <c r="CB62" s="1"/>
-      <c r="CC62" s="1"/>
-      <c r="CD62" s="1"/>
-      <c r="CE62" s="1"/>
-      <c r="CF62" s="1"/>
-      <c r="CG62" s="1"/>
-      <c r="CH62" s="1"/>
-      <c r="CI62" s="1"/>
-      <c r="CJ62" s="1"/>
-      <c r="CK62" s="1"/>
-      <c r="CL62" s="1"/>
-      <c r="CM62" s="1"/>
+      <c r="BB62" s="15"/>
+      <c r="BC62" s="15"/>
+      <c r="BD62" s="15"/>
+      <c r="BE62" s="16"/>
+      <c r="BF62" s="15"/>
+      <c r="BG62" s="15"/>
+      <c r="BH62" s="15"/>
+      <c r="BI62" s="15"/>
+      <c r="BJ62" s="15"/>
+      <c r="BK62" s="15"/>
+      <c r="BL62" s="15"/>
+      <c r="BM62" s="15"/>
+      <c r="BN62" s="15"/>
+      <c r="BO62" s="15"/>
+      <c r="BP62" s="15"/>
+      <c r="BQ62" s="15"/>
+      <c r="BR62" s="15"/>
+      <c r="BS62" s="15"/>
+      <c r="BT62" s="15"/>
+      <c r="BU62" s="15"/>
+      <c r="BV62" s="15"/>
+      <c r="BW62" s="15"/>
+      <c r="BX62" s="15"/>
+      <c r="BY62" s="15"/>
+      <c r="BZ62" s="15"/>
+      <c r="CA62" s="15"/>
+      <c r="CB62" s="16"/>
+      <c r="CC62" s="15"/>
+      <c r="CD62" s="15"/>
+      <c r="CE62" s="15"/>
+      <c r="CF62" s="15"/>
+      <c r="CG62" s="15"/>
+      <c r="CH62" s="15"/>
+      <c r="CI62" s="15"/>
+      <c r="CJ62" s="15"/>
+      <c r="CK62" s="15"/>
+      <c r="CL62" s="15"/>
+      <c r="CM62" s="15"/>
       <c r="CN62" s="1"/>
-      <c r="CO62" s="1" t="s">
+      <c r="CO62" s="16"/>
+      <c r="CP62" s="16"/>
+      <c r="CQ62" s="16"/>
+      <c r="CR62" s="16"/>
+      <c r="CS62" s="16"/>
+      <c r="CT62" s="16"/>
+      <c r="CU62" s="16"/>
+      <c r="CV62" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP62" s="1"/>
+      <c r="CW62" s="16"/>
     </row>
-    <row r="63" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>511</v>
       </c>
@@ -10478,8 +10688,8 @@
       <c r="H63" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="I63" s="29" t="s">
-        <v>265</v>
+      <c r="I63" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -10531,51 +10741,58 @@
       <c r="BA63" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="BB63" s="1"/>
-      <c r="BC63" s="1"/>
-      <c r="BD63" s="1"/>
-      <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
-      <c r="BG63" s="1"/>
-      <c r="BH63" s="1"/>
-      <c r="BI63" s="1"/>
-      <c r="BJ63" s="1"/>
-      <c r="BK63" s="1"/>
-      <c r="BL63" s="1"/>
-      <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
-      <c r="BO63" s="1"/>
-      <c r="BP63" s="1"/>
-      <c r="BQ63" s="1"/>
-      <c r="BR63" s="1"/>
-      <c r="BS63" s="1"/>
-      <c r="BT63" s="1"/>
-      <c r="BU63" s="1"/>
-      <c r="BV63" s="1"/>
-      <c r="BW63" s="1"/>
-      <c r="BX63" s="1"/>
-      <c r="BY63" s="1"/>
-      <c r="BZ63" s="1"/>
-      <c r="CA63" s="1"/>
-      <c r="CB63" s="1"/>
-      <c r="CC63" s="1"/>
-      <c r="CD63" s="1"/>
-      <c r="CE63" s="1"/>
-      <c r="CF63" s="1"/>
-      <c r="CG63" s="1"/>
-      <c r="CH63" s="1"/>
-      <c r="CI63" s="1"/>
-      <c r="CJ63" s="1"/>
-      <c r="CK63" s="1"/>
-      <c r="CL63" s="1"/>
-      <c r="CM63" s="1"/>
+      <c r="BB63" s="15"/>
+      <c r="BC63" s="15"/>
+      <c r="BD63" s="15"/>
+      <c r="BE63" s="16"/>
+      <c r="BF63" s="15"/>
+      <c r="BG63" s="15"/>
+      <c r="BH63" s="15"/>
+      <c r="BI63" s="15"/>
+      <c r="BJ63" s="15"/>
+      <c r="BK63" s="15"/>
+      <c r="BL63" s="15"/>
+      <c r="BM63" s="15"/>
+      <c r="BN63" s="15"/>
+      <c r="BO63" s="15"/>
+      <c r="BP63" s="15"/>
+      <c r="BQ63" s="15"/>
+      <c r="BR63" s="15"/>
+      <c r="BS63" s="15"/>
+      <c r="BT63" s="15"/>
+      <c r="BU63" s="15"/>
+      <c r="BV63" s="15"/>
+      <c r="BW63" s="15"/>
+      <c r="BX63" s="15"/>
+      <c r="BY63" s="15"/>
+      <c r="BZ63" s="15"/>
+      <c r="CA63" s="15"/>
+      <c r="CB63" s="16"/>
+      <c r="CC63" s="15"/>
+      <c r="CD63" s="15"/>
+      <c r="CE63" s="15"/>
+      <c r="CF63" s="15"/>
+      <c r="CG63" s="15"/>
+      <c r="CH63" s="15"/>
+      <c r="CI63" s="15"/>
+      <c r="CJ63" s="15"/>
+      <c r="CK63" s="15"/>
+      <c r="CL63" s="15"/>
+      <c r="CM63" s="15"/>
       <c r="CN63" s="1"/>
-      <c r="CO63" s="1" t="s">
+      <c r="CO63" s="16"/>
+      <c r="CP63" s="16"/>
+      <c r="CQ63" s="16"/>
+      <c r="CR63" s="16"/>
+      <c r="CS63" s="16"/>
+      <c r="CT63" s="16"/>
+      <c r="CU63" s="16"/>
+      <c r="CV63" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP63" s="1"/>
+      <c r="CW63" s="16"/>
     </row>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>516</v>
       </c>
@@ -10600,8 +10817,8 @@
       <c r="H64" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I64" s="29" t="s">
-        <v>265</v>
+      <c r="I64" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -10653,51 +10870,58 @@
       <c r="BA64" s="1">
         <v>28</v>
       </c>
-      <c r="BB64" s="1"/>
-      <c r="BC64" s="1"/>
-      <c r="BD64" s="1"/>
-      <c r="BE64" s="1"/>
-      <c r="BF64" s="1"/>
-      <c r="BG64" s="1"/>
-      <c r="BH64" s="1"/>
-      <c r="BI64" s="1"/>
-      <c r="BJ64" s="1"/>
-      <c r="BK64" s="1"/>
-      <c r="BL64" s="1"/>
-      <c r="BM64" s="1"/>
-      <c r="BN64" s="1"/>
-      <c r="BO64" s="1"/>
-      <c r="BP64" s="1"/>
-      <c r="BQ64" s="1"/>
-      <c r="BR64" s="1"/>
-      <c r="BS64" s="1"/>
-      <c r="BT64" s="1"/>
-      <c r="BU64" s="1"/>
-      <c r="BV64" s="1"/>
-      <c r="BW64" s="1"/>
-      <c r="BX64" s="1"/>
-      <c r="BY64" s="1"/>
-      <c r="BZ64" s="1"/>
-      <c r="CA64" s="1"/>
-      <c r="CB64" s="1"/>
-      <c r="CC64" s="1"/>
-      <c r="CD64" s="1"/>
-      <c r="CE64" s="1"/>
-      <c r="CF64" s="1"/>
-      <c r="CG64" s="1"/>
-      <c r="CH64" s="1"/>
-      <c r="CI64" s="1"/>
-      <c r="CJ64" s="1"/>
-      <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
-      <c r="CM64" s="1"/>
+      <c r="BB64" s="15"/>
+      <c r="BC64" s="15"/>
+      <c r="BD64" s="15"/>
+      <c r="BE64" s="16"/>
+      <c r="BF64" s="15"/>
+      <c r="BG64" s="15"/>
+      <c r="BH64" s="15"/>
+      <c r="BI64" s="15"/>
+      <c r="BJ64" s="15"/>
+      <c r="BK64" s="15"/>
+      <c r="BL64" s="15"/>
+      <c r="BM64" s="15"/>
+      <c r="BN64" s="15"/>
+      <c r="BO64" s="15"/>
+      <c r="BP64" s="15"/>
+      <c r="BQ64" s="15"/>
+      <c r="BR64" s="15"/>
+      <c r="BS64" s="15"/>
+      <c r="BT64" s="15"/>
+      <c r="BU64" s="15"/>
+      <c r="BV64" s="15"/>
+      <c r="BW64" s="15"/>
+      <c r="BX64" s="15"/>
+      <c r="BY64" s="15"/>
+      <c r="BZ64" s="15"/>
+      <c r="CA64" s="15"/>
+      <c r="CB64" s="16"/>
+      <c r="CC64" s="15"/>
+      <c r="CD64" s="15"/>
+      <c r="CE64" s="15"/>
+      <c r="CF64" s="15"/>
+      <c r="CG64" s="15"/>
+      <c r="CH64" s="15"/>
+      <c r="CI64" s="15"/>
+      <c r="CJ64" s="15"/>
+      <c r="CK64" s="15"/>
+      <c r="CL64" s="15"/>
+      <c r="CM64" s="15"/>
       <c r="CN64" s="1"/>
-      <c r="CO64" s="1" t="s">
+      <c r="CO64" s="16"/>
+      <c r="CP64" s="16"/>
+      <c r="CQ64" s="16"/>
+      <c r="CR64" s="16"/>
+      <c r="CS64" s="16"/>
+      <c r="CT64" s="16"/>
+      <c r="CU64" s="16"/>
+      <c r="CV64" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP64" s="1"/>
+      <c r="CW64" s="16"/>
     </row>
-    <row r="65" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>521</v>
       </c>
@@ -10722,8 +10946,8 @@
       <c r="H65" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I65" s="29" t="s">
-        <v>265</v>
+      <c r="I65" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -10775,49 +10999,56 @@
       <c r="BA65" s="1">
         <v>28</v>
       </c>
-      <c r="BB65" s="1"/>
-      <c r="BC65" s="1"/>
-      <c r="BD65" s="1"/>
-      <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
-      <c r="BG65" s="1"/>
-      <c r="BH65" s="1"/>
-      <c r="BI65" s="1"/>
-      <c r="BJ65" s="1"/>
-      <c r="BK65" s="1"/>
-      <c r="BL65" s="1"/>
-      <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
-      <c r="BO65" s="1"/>
-      <c r="BP65" s="1"/>
-      <c r="BQ65" s="1"/>
-      <c r="BR65" s="1"/>
-      <c r="BS65" s="1"/>
-      <c r="BT65" s="1"/>
-      <c r="BU65" s="1"/>
-      <c r="BV65" s="1"/>
-      <c r="BW65" s="1"/>
-      <c r="BX65" s="1"/>
-      <c r="BY65" s="1"/>
-      <c r="BZ65" s="1"/>
-      <c r="CA65" s="1"/>
-      <c r="CB65" s="1"/>
-      <c r="CC65" s="1"/>
-      <c r="CD65" s="1"/>
-      <c r="CE65" s="1"/>
-      <c r="CF65" s="1"/>
-      <c r="CG65" s="1"/>
-      <c r="CH65" s="1"/>
-      <c r="CI65" s="1"/>
-      <c r="CJ65" s="1"/>
-      <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
-      <c r="CM65" s="1"/>
+      <c r="BB65" s="15"/>
+      <c r="BC65" s="15"/>
+      <c r="BD65" s="15"/>
+      <c r="BE65" s="16"/>
+      <c r="BF65" s="15"/>
+      <c r="BG65" s="15"/>
+      <c r="BH65" s="15"/>
+      <c r="BI65" s="15"/>
+      <c r="BJ65" s="15"/>
+      <c r="BK65" s="15"/>
+      <c r="BL65" s="15"/>
+      <c r="BM65" s="15"/>
+      <c r="BN65" s="15"/>
+      <c r="BO65" s="15"/>
+      <c r="BP65" s="15"/>
+      <c r="BQ65" s="15"/>
+      <c r="BR65" s="15"/>
+      <c r="BS65" s="15"/>
+      <c r="BT65" s="15"/>
+      <c r="BU65" s="15"/>
+      <c r="BV65" s="15"/>
+      <c r="BW65" s="15"/>
+      <c r="BX65" s="15"/>
+      <c r="BY65" s="15"/>
+      <c r="BZ65" s="15"/>
+      <c r="CA65" s="15"/>
+      <c r="CB65" s="16"/>
+      <c r="CC65" s="15"/>
+      <c r="CD65" s="15"/>
+      <c r="CE65" s="15"/>
+      <c r="CF65" s="15"/>
+      <c r="CG65" s="15"/>
+      <c r="CH65" s="15"/>
+      <c r="CI65" s="15"/>
+      <c r="CJ65" s="15"/>
+      <c r="CK65" s="15"/>
+      <c r="CL65" s="15"/>
+      <c r="CM65" s="15"/>
       <c r="CN65" s="1"/>
-      <c r="CO65" s="1" t="s">
+      <c r="CO65" s="16"/>
+      <c r="CP65" s="16"/>
+      <c r="CQ65" s="16"/>
+      <c r="CR65" s="16"/>
+      <c r="CS65" s="16"/>
+      <c r="CT65" s="16"/>
+      <c r="CU65" s="16"/>
+      <c r="CV65" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CP65" s="1"/>
+      <c r="CW65" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="533">
   <si>
     <t>Environment</t>
   </si>
@@ -898,9 +898,6 @@
     <t xml:space="preserve"> Error occured while reading JSON file. Error : E:\Project\engage\Engage\Sogo-Smoke\src\main\resources\jsonFiles\localData.json (The system cannot find the file specified)</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Import data module not present on page.</t>
   </si>
   <si>
@@ -1733,12 +1730,34 @@
   <si>
     <t>Dp poll</t>
   </si>
+  <si>
+    <t>Smoke_TC32</t>
+  </si>
+  <si>
+    <t>Merge DP</t>
+  </si>
+  <si>
+    <t>Publishing &amp; giving response to two surveys,and then merging them both through merge feature</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t>Anas</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to click on Login element.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1778,8 +1797,24 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1804,7 +1839,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1813,7 +1878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1860,6 +1925,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1869,7 +1947,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1899,12 +1977,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2199,8 +2286,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,9 +2330,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2289,10 +2376,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,13 +2496,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>294</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>295</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>3</v>
@@ -2436,32 +2523,32 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CW65"/>
+  <dimension ref="A1:CW66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.25">
@@ -2493,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>21</v>
+        <v>532</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>22</v>
@@ -2703,7 +2790,7 @@
         <v>137</v>
       </c>
       <c r="CB1" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CC1" s="9" t="s">
         <v>138</v>
@@ -2727,16 +2814,16 @@
         <v>261</v>
       </c>
       <c r="CJ1" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="CK1" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="CK1" s="9" t="s">
-        <v>268</v>
-      </c>
       <c r="CL1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="CM1" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="CM1" s="9" t="s">
-        <v>272</v>
       </c>
       <c r="CN1" s="9" t="s">
         <v>144</v>
@@ -2763,7 +2850,7 @@
         <v>263</v>
       </c>
       <c r="CV1" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW1" s="9" t="s">
         <v>222</v>
@@ -2773,7 +2860,7 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2792,7 +2879,7 @@
       <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J2" s="4"/>
@@ -2894,7 +2981,7 @@
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2913,7 +3000,7 @@
       <c r="H3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J3" s="14"/>
@@ -3093,7 +3180,7 @@
       <c r="A4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3112,7 +3199,7 @@
       <c r="H4" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J4" s="14"/>
@@ -3226,7 +3313,7 @@
       <c r="A5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3245,7 +3332,7 @@
       <c r="H5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3361,7 +3448,7 @@
       <c r="A6" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3380,7 +3467,7 @@
       <c r="H6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3486,7 +3573,7 @@
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3505,7 +3592,7 @@
       <c r="H7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J7" s="14"/>
@@ -3611,7 +3698,7 @@
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -3630,7 +3717,7 @@
       <c r="H8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3738,7 +3825,7 @@
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3757,7 +3844,7 @@
       <c r="H9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J9" s="1"/>
@@ -3869,7 +3956,7 @@
       <c r="A10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -3888,7 +3975,7 @@
         <v>189</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -3913,7 +4000,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -4002,7 +4089,7 @@
       <c r="A11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -4021,7 +4108,7 @@
         <v>194</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4042,7 +4129,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -4131,7 +4218,7 @@
       <c r="A12" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4150,7 +4237,7 @@
         <v>197</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J12" s="21"/>
@@ -4169,7 +4256,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -4258,7 +4345,7 @@
       <c r="A13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -4277,7 +4364,7 @@
         <v>200</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J13" s="21"/>
@@ -4296,7 +4383,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -4385,7 +4472,7 @@
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="20" t="s">
@@ -4404,7 +4491,7 @@
         <v>203</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J14" s="21"/>
@@ -4423,7 +4510,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -4512,7 +4599,7 @@
       <c r="A15" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="20" t="s">
@@ -4531,7 +4618,7 @@
         <v>206</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J15" s="21" t="s">
@@ -4570,7 +4657,7 @@
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -4659,7 +4746,7 @@
       <c r="A16" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -4678,7 +4765,7 @@
         <v>227</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J16" s="21"/>
@@ -4712,7 +4799,7 @@
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -4801,7 +4888,7 @@
       <c r="A17" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4820,7 +4907,7 @@
       <c r="H17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="14"/>
@@ -4924,7 +5011,7 @@
       <c r="A18" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4941,11 +5028,11 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="14"/>
@@ -5049,7 +5136,7 @@
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -5066,7 +5153,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J19" s="14"/>
@@ -5170,26 +5257,28 @@
     </row>
     <row r="20" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="30"/>
+      <c r="I20" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J20" s="14"/>
       <c r="K20" s="1"/>
       <c r="L20" s="14"/>
@@ -5197,7 +5286,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5229,20 +5318,20 @@
       <c r="AR20" s="15"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AU20" s="15"/>
       <c r="AV20" s="15" t="s">
         <v>34</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="15"/>
       <c r="BA20" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BB20" s="15"/>
       <c r="BC20" s="15"/>
@@ -5295,30 +5384,32 @@
     </row>
     <row r="21" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J21" s="14"/>
       <c r="K21" s="1"/>
       <c r="L21" s="14"/>
@@ -5326,7 +5417,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5358,16 +5449,16 @@
       <c r="AR21" s="15"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AU21" s="15"/>
       <c r="AV21" s="26"/>
       <c r="AW21" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AZ21" s="15"/>
       <c r="BA21" s="15"/>
@@ -5418,36 +5509,38 @@
       <c r="CT21" s="16"/>
       <c r="CU21" s="16"/>
       <c r="CV21" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW21" s="16"/>
     </row>
     <row r="22" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J22" s="14"/>
       <c r="K22" s="1"/>
       <c r="L22" s="14"/>
@@ -5485,14 +5578,14 @@
       <c r="AR22" s="15"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AU22" s="15"/>
       <c r="AV22" s="26"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AZ22" s="15"/>
       <c r="BA22" s="15"/>
@@ -5543,36 +5636,38 @@
       <c r="CT22" s="16"/>
       <c r="CU22" s="16"/>
       <c r="CV22" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW22" s="16"/>
     </row>
     <row r="23" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I23" s="30"/>
+        <v>308</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J23" s="14"/>
       <c r="K23" s="1"/>
       <c r="L23" s="14"/>
@@ -5609,19 +5704,19 @@
       <c r="AQ23" s="15"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AT23" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="AU23" s="15"/>
       <c r="AV23" s="26"/>
       <c r="AW23" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AZ23" s="15"/>
       <c r="BA23" s="15"/>
@@ -5672,36 +5767,38 @@
       <c r="CT23" s="16"/>
       <c r="CU23" s="16"/>
       <c r="CV23" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW23" s="16"/>
     </row>
     <row r="24" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I24" s="30"/>
+        <v>308</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J24" s="14"/>
       <c r="K24" s="1"/>
       <c r="L24" s="14"/>
@@ -5739,16 +5836,16 @@
       <c r="AR24" s="15"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU24" s="15"/>
       <c r="AV24" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AZ24" s="15"/>
       <c r="BA24" s="15"/>
@@ -5799,36 +5896,38 @@
       <c r="CT24" s="16"/>
       <c r="CU24" s="16"/>
       <c r="CV24" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW24" s="16"/>
     </row>
     <row r="25" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I25" s="30"/>
+        <v>310</v>
+      </c>
+      <c r="I25" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J25" s="14"/>
       <c r="K25" s="1"/>
       <c r="L25" s="14"/>
@@ -5836,7 +5935,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -5868,14 +5967,14 @@
       <c r="AR25" s="15"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU25" s="15"/>
       <c r="AV25" s="26"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AZ25" s="15"/>
       <c r="BA25" s="15"/>
@@ -5926,36 +6025,38 @@
       <c r="CT25" s="16"/>
       <c r="CU25" s="16"/>
       <c r="CV25" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW25" s="16"/>
     </row>
     <row r="26" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B26" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I26" s="30"/>
+        <v>310</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J26" s="14"/>
       <c r="K26" s="1"/>
       <c r="L26" s="14"/>
@@ -5964,7 +6065,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -5995,14 +6096,14 @@
       <c r="AR26" s="15"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU26" s="15"/>
       <c r="AV26" s="26"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ26" s="15"/>
       <c r="BA26" s="15"/>
@@ -6053,36 +6154,38 @@
       <c r="CT26" s="16"/>
       <c r="CU26" s="16"/>
       <c r="CV26" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW26" s="16"/>
     </row>
     <row r="27" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J27" s="14"/>
       <c r="K27" s="1"/>
       <c r="L27" s="14"/>
@@ -6120,14 +6223,14 @@
       <c r="AR27" s="15"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU27" s="15"/>
       <c r="AV27" s="26"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AZ27" s="15"/>
       <c r="BA27" s="15"/>
@@ -6178,36 +6281,38 @@
       <c r="CT27" s="16"/>
       <c r="CU27" s="16"/>
       <c r="CV27" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW27" s="16"/>
     </row>
     <row r="28" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B28" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J28" s="14"/>
       <c r="K28" s="1"/>
       <c r="L28" s="14"/>
@@ -6245,14 +6350,14 @@
       <c r="AR28" s="15"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AU28" s="15"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AZ28" s="15"/>
       <c r="BA28" s="15"/>
@@ -6303,36 +6408,38 @@
       <c r="CT28" s="16"/>
       <c r="CU28" s="16"/>
       <c r="CV28" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW28" s="16"/>
     </row>
     <row r="29" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I29" s="30"/>
+        <v>310</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J29" s="14"/>
       <c r="K29" s="1"/>
       <c r="L29" s="14"/>
@@ -6342,7 +6449,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -6372,14 +6479,14 @@
       <c r="AR29" s="15"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AU29" s="15"/>
       <c r="AV29" s="26"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AZ29" s="15"/>
       <c r="BA29" s="15"/>
@@ -6430,36 +6537,38 @@
       <c r="CT29" s="16"/>
       <c r="CU29" s="16"/>
       <c r="CV29" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW29" s="16"/>
     </row>
     <row r="30" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J30" s="14"/>
       <c r="K30" s="1"/>
       <c r="L30" s="14"/>
@@ -6470,12 +6579,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -6501,14 +6610,14 @@
       <c r="AR30" s="15"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AU30" s="15"/>
       <c r="AV30" s="26"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AZ30" s="15"/>
       <c r="BA30" s="15"/>
@@ -6559,36 +6668,38 @@
       <c r="CT30" s="16"/>
       <c r="CU30" s="16"/>
       <c r="CV30" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW30" s="16"/>
     </row>
     <row r="31" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I31" s="30"/>
+      <c r="I31" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="J31" s="14"/>
       <c r="K31" s="1"/>
       <c r="L31" s="14"/>
@@ -6600,10 +6711,10 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="5"/>
@@ -6630,14 +6741,14 @@
       <c r="AR31" s="15"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU31" s="15"/>
       <c r="AV31" s="26"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AZ31" s="15"/>
       <c r="BA31" s="15"/>
@@ -6688,165 +6799,167 @@
       <c r="CT31" s="16"/>
       <c r="CU31" s="16"/>
       <c r="CV31" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW31" s="16"/>
     </row>
     <row r="32" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="15"/>
-      <c r="AR32" s="15"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ32" s="15"/>
-      <c r="BA32" s="15"/>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="15"/>
-      <c r="BD32" s="15"/>
-      <c r="BE32" s="16"/>
-      <c r="BF32" s="15"/>
-      <c r="BG32" s="15"/>
-      <c r="BH32" s="15"/>
-      <c r="BI32" s="15"/>
-      <c r="BJ32" s="15"/>
-      <c r="BK32" s="15"/>
-      <c r="BL32" s="15"/>
-      <c r="BM32" s="15"/>
-      <c r="BN32" s="15"/>
-      <c r="BO32" s="15"/>
-      <c r="BP32" s="15"/>
-      <c r="BQ32" s="15"/>
-      <c r="BR32" s="15"/>
-      <c r="BS32" s="15"/>
-      <c r="BT32" s="15"/>
-      <c r="BU32" s="15"/>
-      <c r="BV32" s="15"/>
-      <c r="BW32" s="15"/>
-      <c r="BX32" s="15"/>
-      <c r="BY32" s="15"/>
-      <c r="BZ32" s="15"/>
-      <c r="CA32" s="15"/>
-      <c r="CB32" s="15"/>
-      <c r="CC32" s="15"/>
-      <c r="CD32" s="15"/>
-      <c r="CE32" s="15"/>
-      <c r="CF32" s="15"/>
-      <c r="CG32" s="15"/>
-      <c r="CH32" s="15"/>
-      <c r="CI32" s="15"/>
-      <c r="CJ32" s="15"/>
-      <c r="CK32" s="15"/>
-      <c r="CL32" s="15"/>
-      <c r="CM32" s="15"/>
-      <c r="CN32" s="1"/>
-      <c r="CO32" s="16"/>
-      <c r="CP32" s="16"/>
-      <c r="CQ32" s="16"/>
-      <c r="CR32" s="16"/>
-      <c r="CS32" s="16"/>
-      <c r="CT32" s="16"/>
-      <c r="CU32" s="16"/>
-      <c r="CV32" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="CW32" s="16"/>
+      <c r="F32" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="18"/>
+      <c r="AQ32" s="18"/>
+      <c r="AR32" s="18"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU32" s="18"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="AZ32" s="18"/>
+      <c r="BA32" s="18"/>
+      <c r="BB32" s="18"/>
+      <c r="BC32" s="18"/>
+      <c r="BD32" s="18"/>
+      <c r="BE32" s="19"/>
+      <c r="BF32" s="18"/>
+      <c r="BG32" s="18"/>
+      <c r="BH32" s="18"/>
+      <c r="BI32" s="18"/>
+      <c r="BJ32" s="18"/>
+      <c r="BK32" s="18"/>
+      <c r="BL32" s="18"/>
+      <c r="BM32" s="18"/>
+      <c r="BN32" s="18"/>
+      <c r="BO32" s="18"/>
+      <c r="BP32" s="18"/>
+      <c r="BQ32" s="18"/>
+      <c r="BR32" s="18"/>
+      <c r="BS32" s="18"/>
+      <c r="BT32" s="18"/>
+      <c r="BU32" s="18"/>
+      <c r="BV32" s="18"/>
+      <c r="BW32" s="18"/>
+      <c r="BX32" s="18"/>
+      <c r="BY32" s="18"/>
+      <c r="BZ32" s="18"/>
+      <c r="CA32" s="18"/>
+      <c r="CB32" s="18"/>
+      <c r="CC32" s="18"/>
+      <c r="CD32" s="18"/>
+      <c r="CE32" s="18"/>
+      <c r="CF32" s="18"/>
+      <c r="CG32" s="18"/>
+      <c r="CH32" s="18"/>
+      <c r="CI32" s="18"/>
+      <c r="CJ32" s="18"/>
+      <c r="CK32" s="18"/>
+      <c r="CL32" s="18"/>
+      <c r="CM32" s="18"/>
+      <c r="CN32" s="11"/>
+      <c r="CO32" s="19"/>
+      <c r="CP32" s="19"/>
+      <c r="CQ32" s="19"/>
+      <c r="CR32" s="19"/>
+      <c r="CS32" s="19"/>
+      <c r="CT32" s="19"/>
+      <c r="CU32" s="19"/>
+      <c r="CV32" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="CW32" s="19"/>
     </row>
     <row r="33" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>526</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>15</v>
+        <v>529</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>257</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>277</v>
-      </c>
+      <c r="I33" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -6854,263 +6967,251 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
-      <c r="AO33" s="15"/>
-      <c r="AP33" s="15"/>
-      <c r="AQ33" s="15"/>
-      <c r="AR33" s="15"/>
-      <c r="AS33" s="15"/>
-      <c r="AT33" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW33" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX33" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY33" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ33" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA33" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="15"/>
-      <c r="BD33" s="15"/>
-      <c r="BE33" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="BF33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG33" s="15"/>
-      <c r="BH33" s="15"/>
-      <c r="BI33" s="15"/>
-      <c r="BJ33" s="15"/>
-      <c r="BK33" s="15"/>
-      <c r="BL33" s="15"/>
-      <c r="BM33" s="15"/>
-      <c r="BN33" s="15"/>
-      <c r="BO33" s="15"/>
-      <c r="BP33" s="15"/>
-      <c r="BQ33" s="15"/>
-      <c r="BR33" s="15"/>
-      <c r="BS33" s="15"/>
-      <c r="BT33" s="15"/>
-      <c r="BU33" s="15"/>
-      <c r="BV33" s="15"/>
-      <c r="BW33" s="15"/>
-      <c r="BX33" s="15"/>
-      <c r="BY33" s="15"/>
-      <c r="BZ33" s="15"/>
-      <c r="CA33" s="15"/>
-      <c r="CB33" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="CC33" s="15"/>
-      <c r="CD33" s="15"/>
-      <c r="CE33" s="15"/>
-      <c r="CF33" s="15"/>
-      <c r="CG33" s="15"/>
-      <c r="CH33" s="15"/>
-      <c r="CI33" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ33" s="15">
-        <v>6</v>
-      </c>
-      <c r="CK33" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="CL33" s="15">
-        <v>10</v>
-      </c>
-      <c r="CM33" s="15" t="s">
-        <v>273</v>
-      </c>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+      <c r="BH33" s="1"/>
+      <c r="BI33" s="1"/>
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="1"/>
+      <c r="BL33" s="1"/>
+      <c r="BM33" s="1"/>
+      <c r="BN33" s="1"/>
+      <c r="BO33" s="1"/>
+      <c r="BP33" s="1"/>
+      <c r="BQ33" s="1"/>
+      <c r="BR33" s="1"/>
+      <c r="BS33" s="1"/>
+      <c r="BT33" s="1"/>
+      <c r="BU33" s="1"/>
+      <c r="BV33" s="1"/>
+      <c r="BW33" s="1"/>
+      <c r="BX33" s="1"/>
+      <c r="BY33" s="1"/>
+      <c r="BZ33" s="1"/>
+      <c r="CA33" s="1"/>
+      <c r="CB33" s="1"/>
+      <c r="CC33" s="1"/>
+      <c r="CD33" s="1"/>
+      <c r="CE33" s="1"/>
+      <c r="CF33" s="1"/>
+      <c r="CG33" s="1"/>
+      <c r="CH33" s="1"/>
+      <c r="CI33" s="1"/>
+      <c r="CJ33" s="1"/>
+      <c r="CK33" s="1"/>
+      <c r="CL33" s="1"/>
+      <c r="CM33" s="1"/>
       <c r="CN33" s="1"/>
-      <c r="CO33" s="16"/>
+      <c r="CO33" s="1"/>
       <c r="CP33" s="16"/>
       <c r="CQ33" s="16"/>
       <c r="CR33" s="16"/>
       <c r="CS33" s="16"/>
       <c r="CT33" s="16"/>
-      <c r="CU33" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="CV33" s="1" t="s">
-        <v>367</v>
-      </c>
+      <c r="CU33" s="16"/>
+      <c r="CV33" s="1"/>
       <c r="CW33" s="16"/>
     </row>
-    <row r="34" spans="1:101" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I34" s="30" t="s">
+      <c r="F34" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AW34" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="15"/>
-      <c r="BC34" s="15"/>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="16"/>
-      <c r="BF34" s="15"/>
-      <c r="BG34" s="15"/>
-      <c r="BH34" s="15"/>
-      <c r="BI34" s="15"/>
-      <c r="BJ34" s="15"/>
-      <c r="BK34" s="15"/>
-      <c r="BL34" s="15"/>
-      <c r="BM34" s="15"/>
-      <c r="BN34" s="15"/>
-      <c r="BO34" s="15"/>
-      <c r="BP34" s="15"/>
-      <c r="BQ34" s="15"/>
-      <c r="BR34" s="15"/>
-      <c r="BS34" s="15"/>
-      <c r="BT34" s="15"/>
-      <c r="BU34" s="15"/>
-      <c r="BV34" s="15"/>
-      <c r="BW34" s="15"/>
-      <c r="BX34" s="15"/>
-      <c r="BY34" s="15"/>
-      <c r="BZ34" s="15"/>
-      <c r="CA34" s="15"/>
-      <c r="CB34" s="16"/>
-      <c r="CC34" s="15"/>
-      <c r="CD34" s="15"/>
-      <c r="CE34" s="15"/>
-      <c r="CF34" s="15"/>
-      <c r="CG34" s="15"/>
-      <c r="CH34" s="15"/>
-      <c r="CI34" s="15"/>
-      <c r="CJ34" s="15"/>
-      <c r="CK34" s="15"/>
-      <c r="CL34" s="15"/>
-      <c r="CM34" s="15"/>
-      <c r="CN34" s="1"/>
-      <c r="CO34" s="16"/>
-      <c r="CP34" s="16"/>
-      <c r="CQ34" s="16"/>
-      <c r="CR34" s="16"/>
-      <c r="CS34" s="16"/>
-      <c r="CT34" s="16"/>
-      <c r="CU34" s="16"/>
-      <c r="CV34" s="1" t="s">
+      <c r="J34" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="33"/>
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU34" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV34" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW34" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX34" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY34" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA34" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB34" s="34"/>
+      <c r="BC34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BE34" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="BF34" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG34" s="34"/>
+      <c r="BH34" s="34"/>
+      <c r="BI34" s="34"/>
+      <c r="BJ34" s="34"/>
+      <c r="BK34" s="34"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BN34" s="34"/>
+      <c r="BO34" s="34"/>
+      <c r="BP34" s="34"/>
+      <c r="BQ34" s="34"/>
+      <c r="BR34" s="34"/>
+      <c r="BS34" s="34"/>
+      <c r="BT34" s="34"/>
+      <c r="BU34" s="34"/>
+      <c r="BV34" s="34"/>
+      <c r="BW34" s="34"/>
+      <c r="BX34" s="34"/>
+      <c r="BY34" s="34"/>
+      <c r="BZ34" s="34"/>
+      <c r="CA34" s="34"/>
+      <c r="CB34" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="CC34" s="34"/>
+      <c r="CD34" s="34"/>
+      <c r="CE34" s="34"/>
+      <c r="CF34" s="34"/>
+      <c r="CG34" s="34"/>
+      <c r="CH34" s="34"/>
+      <c r="CI34" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ34" s="34">
+        <v>6</v>
+      </c>
+      <c r="CK34" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="CL34" s="34">
+        <v>10</v>
+      </c>
+      <c r="CM34" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="CN34" s="31"/>
+      <c r="CO34" s="35"/>
+      <c r="CP34" s="35"/>
+      <c r="CQ34" s="35"/>
+      <c r="CR34" s="35"/>
+      <c r="CS34" s="35"/>
+      <c r="CT34" s="35"/>
+      <c r="CU34" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="CV34" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="CW34" s="35"/>
+    </row>
+    <row r="35" spans="1:101" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="CW34" s="16"/>
-    </row>
-    <row r="35" spans="1:101" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
+      <c r="B35" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>15</v>
@@ -7122,15 +7223,15 @@
         <v>257</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I35" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="I35" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J35" s="1"/>
@@ -7170,21 +7271,21 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AU35" s="1"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="31" t="s">
-        <v>381</v>
+      <c r="AV35" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AW35" s="29" t="s">
+        <v>373</v>
       </c>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ35" s="1"/>
-      <c r="BA35" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="BA35" s="1"/>
       <c r="BB35" s="15"/>
       <c r="BC35" s="15"/>
       <c r="BD35" s="15"/>
@@ -7232,16 +7333,16 @@
       <c r="CT35" s="16"/>
       <c r="CU35" s="16"/>
       <c r="CV35" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW35" s="16"/>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:101" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>375</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
@@ -7253,15 +7354,15 @@
         <v>257</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>386</v>
-      </c>
-      <c r="I36" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I36" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J36" s="1"/>
@@ -7301,17 +7402,21 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
-      <c r="AW36" s="31"/>
+      <c r="AW36" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
+      <c r="BA36" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="BB36" s="15"/>
       <c r="BC36" s="15"/>
       <c r="BD36" s="15"/>
@@ -7359,16 +7464,16 @@
       <c r="CT36" s="16"/>
       <c r="CU36" s="16"/>
       <c r="CV36" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW36" s="16"/>
     </row>
     <row r="37" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>382</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
@@ -7380,15 +7485,15 @@
         <v>257</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I37" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="I37" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J37" s="1"/>
@@ -7428,14 +7533,14 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
-      <c r="AW37" s="31"/>
+      <c r="AW37" s="29"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -7486,16 +7591,16 @@
       <c r="CT37" s="16"/>
       <c r="CU37" s="16"/>
       <c r="CV37" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW37" s="16"/>
     </row>
     <row r="38" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>387</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
@@ -7507,15 +7612,15 @@
         <v>257</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I38" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="I38" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J38" s="1"/>
@@ -7555,14 +7660,14 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
-      <c r="AW38" s="31"/>
+      <c r="AW38" s="29"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
@@ -7613,16 +7718,16 @@
       <c r="CT38" s="16"/>
       <c r="CU38" s="16"/>
       <c r="CV38" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW38" s="16"/>
     </row>
     <row r="39" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>392</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
@@ -7634,15 +7739,15 @@
         <v>257</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I39" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="I39" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J39" s="1"/>
@@ -7682,14 +7787,14 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
-      <c r="AW39" s="31"/>
+      <c r="AW39" s="29"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
@@ -7740,16 +7845,16 @@
       <c r="CT39" s="16"/>
       <c r="CU39" s="16"/>
       <c r="CV39" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW39" s="16"/>
     </row>
     <row r="40" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>397</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>15</v>
@@ -7761,15 +7866,15 @@
         <v>257</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="I40" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="I40" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J40" s="1"/>
@@ -7809,14 +7914,14 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
-      <c r="AW40" s="31"/>
+      <c r="AW40" s="29"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
@@ -7867,16 +7972,16 @@
       <c r="CT40" s="16"/>
       <c r="CU40" s="16"/>
       <c r="CV40" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW40" s="16"/>
     </row>
     <row r="41" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>402</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>15</v>
@@ -7888,15 +7993,15 @@
         <v>257</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I41" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="I41" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J41" s="1"/>
@@ -7936,14 +8041,14 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
-      <c r="AW41" s="31"/>
+      <c r="AW41" s="29"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
@@ -7994,16 +8099,16 @@
       <c r="CT41" s="16"/>
       <c r="CU41" s="16"/>
       <c r="CV41" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW41" s="16"/>
     </row>
     <row r="42" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>407</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
@@ -8015,15 +8120,15 @@
         <v>257</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="I42" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="I42" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J42" s="1"/>
@@ -8063,14 +8168,14 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
-      <c r="AW42" s="31"/>
+      <c r="AW42" s="29"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
@@ -8121,16 +8226,16 @@
       <c r="CT42" s="16"/>
       <c r="CU42" s="16"/>
       <c r="CV42" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW42" s="16"/>
     </row>
     <row r="43" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>412</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>15</v>
@@ -8142,15 +8247,15 @@
         <v>257</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I43" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="I43" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J43" s="1"/>
@@ -8190,14 +8295,14 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
-      <c r="AW43" s="31"/>
+      <c r="AW43" s="29"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
@@ -8248,16 +8353,16 @@
       <c r="CT43" s="16"/>
       <c r="CU43" s="16"/>
       <c r="CV43" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW43" s="16"/>
     </row>
     <row r="44" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>417</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>15</v>
@@ -8269,13 +8374,15 @@
         <v>257</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I44" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J44" s="1"/>
@@ -8315,14 +8422,14 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
-      <c r="AW44" s="31"/>
+      <c r="AW44" s="29"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
@@ -8373,16 +8480,16 @@
       <c r="CT44" s="16"/>
       <c r="CU44" s="16"/>
       <c r="CV44" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW44" s="16"/>
     </row>
     <row r="45" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>422</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>15</v>
@@ -8394,13 +8501,13 @@
         <v>257</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J45" s="1"/>
@@ -8440,14 +8547,14 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
-      <c r="AW45" s="31"/>
+      <c r="AW45" s="29"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8498,16 +8605,16 @@
       <c r="CT45" s="16"/>
       <c r="CU45" s="16"/>
       <c r="CV45" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW45" s="16"/>
     </row>
     <row r="46" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>426</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>15</v>
@@ -8519,13 +8626,13 @@
         <v>257</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="30" t="s">
+      <c r="I46" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J46" s="1"/>
@@ -8565,14 +8672,14 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
-      <c r="AW46" s="31"/>
+      <c r="AW46" s="29"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
@@ -8623,16 +8730,16 @@
       <c r="CT46" s="16"/>
       <c r="CU46" s="16"/>
       <c r="CV46" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW46" s="16"/>
     </row>
     <row r="47" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>430</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -8644,13 +8751,13 @@
         <v>257</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="30" t="s">
+      <c r="I47" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J47" s="1"/>
@@ -8690,14 +8797,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
-      <c r="AW47" s="31"/>
+      <c r="AW47" s="29"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -8748,16 +8855,16 @@
       <c r="CT47" s="16"/>
       <c r="CU47" s="16"/>
       <c r="CV47" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW47" s="16"/>
     </row>
     <row r="48" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>434</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -8769,15 +8876,13 @@
         <v>257</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I48" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J48" s="1"/>
@@ -8817,14 +8922,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
-      <c r="AW48" s="31"/>
+      <c r="AW48" s="29"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -8875,16 +8980,16 @@
       <c r="CT48" s="16"/>
       <c r="CU48" s="16"/>
       <c r="CV48" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW48" s="16"/>
     </row>
     <row r="49" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>438</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -8896,15 +9001,15 @@
         <v>257</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I49" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="I49" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J49" s="1"/>
@@ -8944,14 +9049,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
-      <c r="AW49" s="31"/>
+      <c r="AW49" s="29"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -9002,16 +9107,16 @@
       <c r="CT49" s="16"/>
       <c r="CU49" s="16"/>
       <c r="CV49" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW49" s="16"/>
     </row>
     <row r="50" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>443</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>15</v>
@@ -9023,15 +9128,15 @@
         <v>257</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I50" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="I50" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J50" s="1"/>
@@ -9071,14 +9176,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
-      <c r="AW50" s="31"/>
+      <c r="AW50" s="29"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -9129,16 +9234,16 @@
       <c r="CT50" s="16"/>
       <c r="CU50" s="16"/>
       <c r="CV50" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW50" s="16"/>
     </row>
     <row r="51" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
+        <v>448</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>15</v>
@@ -9150,15 +9255,15 @@
         <v>257</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="I51" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="I51" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J51" s="1"/>
@@ -9198,14 +9303,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
-      <c r="AW51" s="31"/>
+      <c r="AW51" s="29"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -9256,16 +9361,16 @@
       <c r="CT51" s="16"/>
       <c r="CU51" s="16"/>
       <c r="CV51" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW51" s="16"/>
     </row>
     <row r="52" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>453</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>15</v>
@@ -9277,13 +9382,15 @@
         <v>257</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I52" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1"/>
@@ -9323,14 +9430,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
-      <c r="AW52" s="31"/>
+      <c r="AW52" s="29"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -9381,16 +9488,16 @@
       <c r="CT52" s="16"/>
       <c r="CU52" s="16"/>
       <c r="CV52" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW52" s="16"/>
     </row>
     <row r="53" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>458</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>15</v>
@@ -9402,13 +9509,13 @@
         <v>257</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J53" s="1"/>
@@ -9448,14 +9555,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
-      <c r="AW53" s="31"/>
+      <c r="AW53" s="29"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9506,16 +9613,16 @@
       <c r="CT53" s="16"/>
       <c r="CU53" s="16"/>
       <c r="CV53" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW53" s="16"/>
     </row>
     <row r="54" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
+        <v>462</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>15</v>
@@ -9527,15 +9634,13 @@
         <v>257</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I54" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J54" s="1"/>
@@ -9575,14 +9680,14 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
-      <c r="AW54" s="31"/>
+      <c r="AW54" s="29"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9633,16 +9738,16 @@
       <c r="CT54" s="16"/>
       <c r="CU54" s="16"/>
       <c r="CV54" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW54" s="16"/>
     </row>
     <row r="55" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>466</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>15</v>
@@ -9654,15 +9759,15 @@
         <v>257</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I55" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="I55" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J55" s="1"/>
@@ -9702,14 +9807,14 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
-      <c r="AW55" s="31"/>
+      <c r="AW55" s="29"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9760,16 +9865,16 @@
       <c r="CT55" s="16"/>
       <c r="CU55" s="16"/>
       <c r="CV55" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW55" s="16"/>
     </row>
     <row r="56" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>471</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>15</v>
@@ -9781,13 +9886,15 @@
         <v>257</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I56" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J56" s="1"/>
@@ -9827,16 +9934,14 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
-      <c r="AW56" s="31"/>
-      <c r="AX56" s="1" t="s">
-        <v>481</v>
-      </c>
+      <c r="AW56" s="29"/>
+      <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -9887,16 +9992,16 @@
       <c r="CT56" s="16"/>
       <c r="CU56" s="16"/>
       <c r="CV56" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW56" s="16"/>
     </row>
     <row r="57" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>3</v>
+        <v>476</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>15</v>
@@ -9908,13 +10013,13 @@
         <v>257</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="30" t="s">
+      <c r="I57" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J57" s="1"/>
@@ -9954,16 +10059,16 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
-      <c r="AW57" s="31"/>
+      <c r="AW57" s="29"/>
       <c r="AX57" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY57" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -10014,16 +10119,16 @@
       <c r="CT57" s="16"/>
       <c r="CU57" s="16"/>
       <c r="CV57" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW57" s="16"/>
     </row>
     <row r="58" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>3</v>
+        <v>481</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
@@ -10035,15 +10140,13 @@
         <v>257</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I58" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J58" s="1"/>
@@ -10083,18 +10186,18 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
-      <c r="AW58" s="31"/>
-      <c r="AX58" s="1"/>
+      <c r="AW58" s="29"/>
+      <c r="AX58" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="AY58" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AZ58" s="1" t="s">
-        <v>491</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
       <c r="BB58" s="15"/>
       <c r="BC58" s="15"/>
@@ -10143,16 +10246,16 @@
       <c r="CT58" s="16"/>
       <c r="CU58" s="16"/>
       <c r="CV58" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW58" s="16"/>
     </row>
     <row r="59" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>3</v>
+        <v>485</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
@@ -10164,15 +10267,15 @@
         <v>257</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I59" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="I59" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J59" s="1"/>
@@ -10212,17 +10315,17 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
-      <c r="AW59" s="31"/>
+      <c r="AW59" s="29"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ59" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="BA59" s="1"/>
       <c r="BB59" s="15"/>
@@ -10272,16 +10375,16 @@
       <c r="CT59" s="16"/>
       <c r="CU59" s="16"/>
       <c r="CV59" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW59" s="16"/>
     </row>
     <row r="60" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>3</v>
+        <v>491</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -10293,15 +10396,15 @@
         <v>257</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I60" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="I60" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J60" s="1"/>
@@ -10341,18 +10444,18 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
-      <c r="AW60" s="31"/>
-      <c r="AX60" s="1" t="s">
-        <v>481</v>
-      </c>
+      <c r="AW60" s="29"/>
+      <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AZ60" s="1"/>
+        <v>374</v>
+      </c>
+      <c r="AZ60" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="BA60" s="1"/>
       <c r="BB60" s="15"/>
       <c r="BC60" s="15"/>
@@ -10401,16 +10504,16 @@
       <c r="CT60" s="16"/>
       <c r="CU60" s="16"/>
       <c r="CV60" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW60" s="16"/>
     </row>
     <row r="61" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>495</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
@@ -10422,15 +10525,15 @@
         <v>257</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I61" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="I61" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J61" s="1"/>
@@ -10470,16 +10573,16 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
-      <c r="AW61" s="31"/>
+      <c r="AW61" s="29"/>
       <c r="AX61" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AY61" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
@@ -10530,16 +10633,16 @@
       <c r="CT61" s="16"/>
       <c r="CU61" s="16"/>
       <c r="CV61" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW61" s="16"/>
     </row>
     <row r="62" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -10551,15 +10654,15 @@
         <v>257</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="I62" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="I62" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J62" s="1"/>
@@ -10599,19 +10702,19 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
-      <c r="AW62" s="31"/>
-      <c r="AX62" s="1"/>
+      <c r="AW62" s="29"/>
+      <c r="AX62" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="AY62" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ62" s="1"/>
-      <c r="BA62" s="1" t="s">
-        <v>510</v>
-      </c>
+      <c r="BA62" s="1"/>
       <c r="BB62" s="15"/>
       <c r="BC62" s="15"/>
       <c r="BD62" s="15"/>
@@ -10659,16 +10762,16 @@
       <c r="CT62" s="16"/>
       <c r="CU62" s="16"/>
       <c r="CV62" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW62" s="16"/>
     </row>
     <row r="63" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>504</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>15</v>
@@ -10680,15 +10783,15 @@
         <v>257</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="I63" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="I63" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J63" s="1"/>
@@ -10728,18 +10831,18 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
-      <c r="AW63" s="31"/>
+      <c r="AW63" s="29"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BB63" s="15"/>
       <c r="BC63" s="15"/>
@@ -10788,16 +10891,16 @@
       <c r="CT63" s="16"/>
       <c r="CU63" s="16"/>
       <c r="CV63" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW63" s="16"/>
     </row>
     <row r="64" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>3</v>
+        <v>510</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
@@ -10809,15 +10912,15 @@
         <v>257</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I64" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="I64" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J64" s="1"/>
@@ -10857,18 +10960,18 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
-      <c r="AW64" s="31"/>
+      <c r="AW64" s="29"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ64" s="1"/>
-      <c r="BA64" s="1">
-        <v>28</v>
+      <c r="BA64" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="BB64" s="15"/>
       <c r="BC64" s="15"/>
@@ -10917,16 +11020,16 @@
       <c r="CT64" s="16"/>
       <c r="CU64" s="16"/>
       <c r="CV64" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW64" s="16"/>
     </row>
     <row r="65" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>515</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
@@ -10938,15 +11041,15 @@
         <v>257</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I65" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="I65" s="37" t="s">
         <v>185</v>
       </c>
       <c r="J65" s="1"/>
@@ -10986,14 +11089,14 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
-      <c r="AW65" s="31"/>
+      <c r="AW65" s="29"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1">
@@ -11046,9 +11149,138 @@
       <c r="CT65" s="16"/>
       <c r="CU65" s="16"/>
       <c r="CV65" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CW65" s="16"/>
+    </row>
+    <row r="66" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I66" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="29"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1">
+        <v>28</v>
+      </c>
+      <c r="BB66" s="15"/>
+      <c r="BC66" s="15"/>
+      <c r="BD66" s="15"/>
+      <c r="BE66" s="16"/>
+      <c r="BF66" s="15"/>
+      <c r="BG66" s="15"/>
+      <c r="BH66" s="15"/>
+      <c r="BI66" s="15"/>
+      <c r="BJ66" s="15"/>
+      <c r="BK66" s="15"/>
+      <c r="BL66" s="15"/>
+      <c r="BM66" s="15"/>
+      <c r="BN66" s="15"/>
+      <c r="BO66" s="15"/>
+      <c r="BP66" s="15"/>
+      <c r="BQ66" s="15"/>
+      <c r="BR66" s="15"/>
+      <c r="BS66" s="15"/>
+      <c r="BT66" s="15"/>
+      <c r="BU66" s="15"/>
+      <c r="BV66" s="15"/>
+      <c r="BW66" s="15"/>
+      <c r="BX66" s="15"/>
+      <c r="BY66" s="15"/>
+      <c r="BZ66" s="15"/>
+      <c r="CA66" s="15"/>
+      <c r="CB66" s="16"/>
+      <c r="CC66" s="15"/>
+      <c r="CD66" s="15"/>
+      <c r="CE66" s="15"/>
+      <c r="CF66" s="15"/>
+      <c r="CG66" s="15"/>
+      <c r="CH66" s="15"/>
+      <c r="CI66" s="15"/>
+      <c r="CJ66" s="15"/>
+      <c r="CK66" s="15"/>
+      <c r="CL66" s="15"/>
+      <c r="CM66" s="15"/>
+      <c r="CN66" s="1"/>
+      <c r="CO66" s="16"/>
+      <c r="CP66" s="16"/>
+      <c r="CQ66" s="16"/>
+      <c r="CR66" s="16"/>
+      <c r="CS66" s="16"/>
+      <c r="CT66" s="16"/>
+      <c r="CU66" s="16"/>
+      <c r="CV66" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="CW66" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="548">
   <si>
     <t>Environment</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>ExpectedResult</t>
-  </si>
-  <si>
-    <t>Failure Reason</t>
   </si>
   <si>
     <t>Expected</t>
@@ -1746,18 +1743,65 @@
     <t>Anas</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Not able to click on Login element.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Smoke_TC75</t>
+  </si>
+  <si>
+    <t>Test Invite</t>
+  </si>
+  <si>
+    <t>Send Test Invitations</t>
+  </si>
+  <si>
+    <t>Test Invite Sample TextBox</t>
+  </si>
+  <si>
+    <t>g_golatkar@outlook.com</t>
+  </si>
+  <si>
+    <t>TestInvite</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>gvg3196@test</t>
+  </si>
+  <si>
+    <t>Your Voice Counts</t>
+  </si>
+  <si>
+    <t>SelectTemplate</t>
+  </si>
+  <si>
+    <t>emailhost</t>
+  </si>
+  <si>
+    <t>stremailaddress</t>
+  </si>
+  <si>
+    <t>emailPassword</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>selectET_1</t>
+  </si>
+  <si>
+    <t>Default Classic System Defined Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1802,19 +1846,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,37 +1872,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1947,7 +1966,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1986,12 +2005,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2286,8 +2309,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,7 +2329,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2330,9 +2353,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2351,7 +2374,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2376,10 +2399,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,10 +2424,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2412,13 +2435,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2426,13 +2449,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -2440,13 +2463,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
@@ -2454,13 +2477,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>230</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>231</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>3</v>
@@ -2468,13 +2491,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>248</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
@@ -2482,13 +2505,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>248</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -2496,13 +2519,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>293</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>294</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>3</v>
@@ -2523,35 +2546,35 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:CW66"/>
+  <dimension ref="A1:DB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="CA28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CP68" sqref="CP68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2580,283 +2603,298 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="CC1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="CB1" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="CK1" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="CL1" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="CM1" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="CN1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="CI1" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="CJ1" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="CK1" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="CL1" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="CM1" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CO1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CP1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CQ1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CR1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CS1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CT1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="CT1" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="CU1" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CV1" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW1" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="CX1" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="CY1" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="CZ1" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2873,18 +2911,18 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>185</v>
+        <v>25</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -2976,10 +3014,15 @@
       <c r="CU2" s="6"/>
       <c r="CV2" s="6"/>
       <c r="CW2" s="6"/>
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1"/>
+      <c r="DB2" s="1"/>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>11</v>
@@ -2991,17 +3034,17 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>185</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1"/>
@@ -3040,125 +3083,125 @@
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
       <c r="AT3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AU3" s="15" t="s">
+      <c r="AV3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AV3" s="15" t="s">
+      <c r="AW3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AW3" s="15" t="s">
+      <c r="AX3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AX3" s="15" t="s">
+      <c r="AY3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AY3" s="15" t="s">
+      <c r="AZ3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="BA3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="15" t="s">
+      <c r="BB3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="BB3" s="15" t="s">
+      <c r="BC3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="BC3" s="15" t="s">
+      <c r="BD3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="BD3" s="15" t="s">
+      <c r="BE3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="BE3" s="16" t="s">
+      <c r="BF3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="BF3" s="15" t="s">
+      <c r="BG3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="BG3" s="15" t="s">
+      <c r="BH3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BH3" s="15" t="s">
+      <c r="BI3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BI3" s="15" t="s">
+      <c r="BJ3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BJ3" s="15" t="s">
+      <c r="BK3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BK3" s="15" t="s">
+      <c r="BL3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="BL3" s="15" t="s">
+      <c r="BM3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BM3" s="15" t="s">
+      <c r="BN3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BN3" s="15" t="s">
+      <c r="BO3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="BO3" s="15" t="s">
+      <c r="BP3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="15" t="s">
+      <c r="BQ3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BQ3" s="15" t="s">
+      <c r="BR3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BR3" s="15" t="s">
+      <c r="BS3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BS3" s="15" t="s">
+      <c r="BT3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="BT3" s="15" t="s">
+      <c r="BU3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BU3" s="15" t="s">
+      <c r="BV3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BV3" s="15" t="s">
+      <c r="BW3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BW3" s="15" t="s">
+      <c r="BX3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BX3" s="15" t="s">
+      <c r="BY3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BY3" s="15" t="s">
+      <c r="BZ3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BZ3" s="15" t="s">
+      <c r="CA3" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="CA3" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="CB3" s="15"/>
       <c r="CC3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="CD3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="CD3" s="15" t="s">
+      <c r="CE3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="CE3" s="15" t="s">
+      <c r="CF3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="CF3" s="15" t="s">
+      <c r="CG3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="CG3" s="15" t="s">
+      <c r="CH3" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="CH3" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="CI3" s="15"/>
       <c r="CJ3" s="15"/>
@@ -3175,10 +3218,15 @@
       <c r="CU3" s="15"/>
       <c r="CV3" s="15"/>
       <c r="CW3" s="15"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>11</v>
@@ -3190,17 +3238,17 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>185</v>
+        <v>164</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="1"/>
@@ -3288,30 +3336,35 @@
         <v>282</v>
       </c>
       <c r="CO4" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="CP4" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="CQ4" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="CP4" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="CQ4" s="16" t="s">
+      <c r="CR4" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="CR4" s="16" t="s">
+      <c r="CS4" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="CS4" s="16" t="s">
+      <c r="CT4" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="CT4" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="CU4" s="16"/>
       <c r="CV4" s="16"/>
       <c r="CW4" s="16"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>11</v>
@@ -3323,20 +3376,20 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>185</v>
+        <v>164</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="14"/>
@@ -3423,30 +3476,35 @@
         <v>283</v>
       </c>
       <c r="CO5" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CP5" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CQ5" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="CR5" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="CR5" s="16" t="s">
+      <c r="CS5" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="CS5" s="16" t="s">
-        <v>169</v>
-      </c>
       <c r="CT5" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="CU5" s="16"/>
       <c r="CV5" s="16"/>
       <c r="CW5" s="16"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>11</v>
@@ -3458,20 +3516,20 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>185</v>
+        <v>164</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -3559,7 +3617,7 @@
       </c>
       <c r="CO6" s="16"/>
       <c r="CP6" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="CQ6" s="16"/>
       <c r="CR6" s="16"/>
@@ -3568,10 +3626,15 @@
       <c r="CU6" s="16"/>
       <c r="CV6" s="16"/>
       <c r="CW6" s="16"/>
+      <c r="CX6" s="1"/>
+      <c r="CY6" s="1"/>
+      <c r="CZ6" s="1"/>
+      <c r="DA6" s="1"/>
+      <c r="DB6" s="1"/>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>11</v>
@@ -3583,17 +3646,17 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="1"/>
@@ -3682,21 +3745,26 @@
       </c>
       <c r="CO7" s="16"/>
       <c r="CP7" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CQ7" s="16"/>
       <c r="CR7" s="16"/>
       <c r="CS7" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CT7" s="16"/>
       <c r="CU7" s="16"/>
       <c r="CV7" s="16"/>
       <c r="CW7" s="16"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>11</v>
@@ -3708,20 +3776,20 @@
         <v>17</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
@@ -3809,21 +3877,26 @@
       </c>
       <c r="CO8" s="19"/>
       <c r="CP8" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="CQ8" s="19"/>
       <c r="CR8" s="19"/>
       <c r="CS8" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CT8" s="19"/>
       <c r="CU8" s="19"/>
       <c r="CV8" s="19"/>
       <c r="CW8" s="19"/>
+      <c r="CX8" s="1"/>
+      <c r="CY8" s="1"/>
+      <c r="CZ8" s="1"/>
+      <c r="DA8" s="1"/>
+      <c r="DB8" s="1"/>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>11</v>
@@ -3835,17 +3908,17 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>185</v>
+        <v>160</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -3884,7 +3957,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
@@ -3935,13 +4008,13 @@
         <v>311</v>
       </c>
       <c r="CO9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CP9" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CQ9" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="CR9" s="1" t="s">
         <v>17</v>
@@ -3951,10 +4024,15 @@
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
       <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
+      <c r="CY9" s="1"/>
+      <c r="CZ9" s="1"/>
+      <c r="DA9" s="1"/>
+      <c r="DB9" s="1"/>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>11</v>
@@ -3966,32 +4044,32 @@
         <v>17</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>190</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" s="20" t="s">
         <v>252</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>253</v>
       </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
@@ -4000,7 +4078,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -4071,7 +4149,7 @@
       <c r="CL10" s="23"/>
       <c r="CM10" s="23"/>
       <c r="CN10" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CO10" s="24"/>
       <c r="CP10" s="24"/>
@@ -4082,12 +4160,17 @@
       <c r="CU10" s="24"/>
       <c r="CV10" s="24"/>
       <c r="CW10" s="24" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="CX10" s="1"/>
+      <c r="CY10" s="1"/>
+      <c r="CZ10" s="1"/>
+      <c r="DA10" s="1"/>
+      <c r="DB10" s="1"/>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>11</v>
@@ -4099,23 +4182,23 @@
         <v>17</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>195</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -4129,7 +4212,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -4200,7 +4283,7 @@
       <c r="CL11" s="23"/>
       <c r="CM11" s="23"/>
       <c r="CN11" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CO11" s="24"/>
       <c r="CP11" s="24"/>
@@ -4211,12 +4294,17 @@
       <c r="CU11" s="24"/>
       <c r="CV11" s="24"/>
       <c r="CW11" s="24" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="CX11" s="1"/>
+      <c r="CY11" s="1"/>
+      <c r="CZ11" s="1"/>
+      <c r="DA11" s="1"/>
+      <c r="DB11" s="1"/>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>11</v>
@@ -4228,21 +4316,21 @@
         <v>17</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>197</v>
-      </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="37" t="s">
-        <v>185</v>
+      <c r="I12" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -4256,7 +4344,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -4327,7 +4415,7 @@
       <c r="CL12" s="23"/>
       <c r="CM12" s="23"/>
       <c r="CN12" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CO12" s="24"/>
       <c r="CP12" s="24"/>
@@ -4338,12 +4426,17 @@
       <c r="CU12" s="24"/>
       <c r="CV12" s="24"/>
       <c r="CW12" s="24" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="CX12" s="1"/>
+      <c r="CY12" s="1"/>
+      <c r="CZ12" s="1"/>
+      <c r="DA12" s="1"/>
+      <c r="DB12" s="1"/>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>11</v>
@@ -4355,21 +4448,21 @@
         <v>17</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>200</v>
-      </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="37" t="s">
-        <v>185</v>
+      <c r="I13" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -4383,7 +4476,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -4454,7 +4547,7 @@
       <c r="CL13" s="23"/>
       <c r="CM13" s="23"/>
       <c r="CN13" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CO13" s="24"/>
       <c r="CP13" s="24"/>
@@ -4465,12 +4558,17 @@
       <c r="CU13" s="24"/>
       <c r="CV13" s="24"/>
       <c r="CW13" s="24" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="CX13" s="1"/>
+      <c r="CY13" s="1"/>
+      <c r="CZ13" s="1"/>
+      <c r="DA13" s="1"/>
+      <c r="DB13" s="1"/>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>11</v>
@@ -4482,22 +4580,22 @@
         <v>17</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F14" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>203</v>
-      </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="37" t="s">
-        <v>185</v>
+      <c r="I14" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="20"/>
       <c r="L14" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="20"/>
@@ -4510,7 +4608,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -4581,7 +4679,7 @@
       <c r="CL14" s="23"/>
       <c r="CM14" s="23"/>
       <c r="CN14" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CO14" s="24"/>
       <c r="CP14" s="24"/>
@@ -4592,12 +4690,17 @@
       <c r="CU14" s="24"/>
       <c r="CV14" s="24"/>
       <c r="CW14" s="24" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="CX14" s="1"/>
+      <c r="CY14" s="1"/>
+      <c r="CZ14" s="1"/>
+      <c r="DA14" s="1"/>
+      <c r="DB14" s="1"/>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>11</v>
@@ -4609,55 +4712,55 @@
         <v>17</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="K15" s="20" t="s">
+      <c r="L15" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="M15" s="21" t="s">
         <v>208</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>209</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="Q15" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="R15" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="R15" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="S15" s="22" t="s">
+      <c r="T15" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="U15" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="U15" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -4728,7 +4831,7 @@
       <c r="CL15" s="23"/>
       <c r="CM15" s="23"/>
       <c r="CN15" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CO15" s="24"/>
       <c r="CP15" s="24"/>
@@ -4739,12 +4842,17 @@
       <c r="CU15" s="24"/>
       <c r="CV15" s="24"/>
       <c r="CW15" s="24" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="CX15" s="1"/>
+      <c r="CY15" s="1"/>
+      <c r="CZ15" s="1"/>
+      <c r="DA15" s="1"/>
+      <c r="DB15" s="1"/>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>11</v>
@@ -4756,50 +4864,50 @@
         <v>17</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>227</v>
-      </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="37" t="s">
-        <v>185</v>
+      <c r="I16" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>235</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="S16" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="R16" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="S16" s="22" t="s">
+      <c r="T16" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="U16" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="U16" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -4870,7 +4978,7 @@
       <c r="CL16" s="23"/>
       <c r="CM16" s="23"/>
       <c r="CN16" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CO16" s="24"/>
       <c r="CP16" s="24"/>
@@ -4881,12 +4989,17 @@
       <c r="CU16" s="24"/>
       <c r="CV16" s="24"/>
       <c r="CW16" s="24" t="s">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="CX16" s="1"/>
+      <c r="CY16" s="1"/>
+      <c r="CZ16" s="1"/>
+      <c r="DA16" s="1"/>
+      <c r="DB16" s="1"/>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>11</v>
@@ -4898,17 +5011,17 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>185</v>
+        <v>164</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="1"/>
@@ -5001,15 +5114,20 @@
       <c r="CR17" s="16"/>
       <c r="CS17" s="16"/>
       <c r="CT17" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="CU17" s="16"/>
       <c r="CV17" s="16"/>
       <c r="CW17" s="16"/>
+      <c r="CX17" s="1"/>
+      <c r="CY17" s="1"/>
+      <c r="CZ17" s="1"/>
+      <c r="DA17" s="1"/>
+      <c r="DB17" s="1"/>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>11</v>
@@ -5021,18 +5139,18 @@
         <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="37" t="s">
-        <v>185</v>
+      <c r="I18" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="14"/>
@@ -5070,7 +5188,7 @@
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
       <c r="AT18" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
@@ -5122,7 +5240,7 @@
       </c>
       <c r="CO18" s="16"/>
       <c r="CP18" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="CQ18" s="16"/>
       <c r="CR18" s="16"/>
@@ -5131,10 +5249,15 @@
       <c r="CU18" s="16"/>
       <c r="CV18" s="16"/>
       <c r="CW18" s="16"/>
+      <c r="CX18" s="1"/>
+      <c r="CY18" s="1"/>
+      <c r="CZ18" s="1"/>
+      <c r="DA18" s="1"/>
+      <c r="DB18" s="1"/>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>11</v>
@@ -5146,15 +5269,15 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="37" t="s">
-        <v>185</v>
+      <c r="I19" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="1"/>
@@ -5195,7 +5318,7 @@
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
@@ -5254,10 +5377,15 @@
       <c r="CU19" s="16"/>
       <c r="CV19" s="16"/>
       <c r="CW19" s="16"/>
+      <c r="CX19" s="1"/>
+      <c r="CY19" s="1"/>
+      <c r="CZ19" s="1"/>
+      <c r="DA19" s="1"/>
+      <c r="DB19" s="1"/>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>11</v>
@@ -5266,18 +5394,18 @@
         <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="37" t="s">
-        <v>185</v>
+      <c r="I20" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="1"/>
@@ -5286,7 +5414,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5318,20 +5446,20 @@
       <c r="AR20" s="15"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AU20" s="15"/>
       <c r="AV20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="15"/>
       <c r="BA20" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BB20" s="15"/>
       <c r="BC20" s="15"/>
@@ -5381,10 +5509,15 @@
       <c r="CU20" s="16"/>
       <c r="CV20" s="1"/>
       <c r="CW20" s="16"/>
+      <c r="CX20" s="1"/>
+      <c r="CY20" s="1"/>
+      <c r="CZ20" s="1"/>
+      <c r="DA20" s="1"/>
+      <c r="DB20" s="1"/>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>11</v>
@@ -5393,22 +5526,22 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>185</v>
+      <c r="I21" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="1"/>
@@ -5417,7 +5550,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5449,16 +5582,16 @@
       <c r="AR21" s="15"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AU21" s="15"/>
       <c r="AV21" s="26"/>
       <c r="AW21" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AZ21" s="15"/>
       <c r="BA21" s="15"/>
@@ -5509,13 +5642,18 @@
       <c r="CT21" s="16"/>
       <c r="CU21" s="16"/>
       <c r="CV21" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW21" s="16"/>
+      <c r="CX21" s="1"/>
+      <c r="CY21" s="1"/>
+      <c r="CZ21" s="1"/>
+      <c r="DA21" s="1"/>
+      <c r="DB21" s="1"/>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>11</v>
@@ -5524,22 +5662,22 @@
         <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>185</v>
+      <c r="I22" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="1"/>
@@ -5578,14 +5716,14 @@
       <c r="AR22" s="15"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AU22" s="15"/>
       <c r="AV22" s="26"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AZ22" s="15"/>
       <c r="BA22" s="15"/>
@@ -5636,13 +5774,18 @@
       <c r="CT22" s="16"/>
       <c r="CU22" s="16"/>
       <c r="CV22" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW22" s="16"/>
+      <c r="CX22" s="1"/>
+      <c r="CY22" s="1"/>
+      <c r="CZ22" s="1"/>
+      <c r="DA22" s="1"/>
+      <c r="DB22" s="1"/>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>11</v>
@@ -5651,22 +5794,22 @@
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>185</v>
+        <v>307</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="1"/>
@@ -5704,19 +5847,19 @@
       <c r="AQ23" s="15"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AT23" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="AU23" s="15"/>
       <c r="AV23" s="26"/>
       <c r="AW23" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AZ23" s="15"/>
       <c r="BA23" s="15"/>
@@ -5767,13 +5910,18 @@
       <c r="CT23" s="16"/>
       <c r="CU23" s="16"/>
       <c r="CV23" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW23" s="16"/>
+      <c r="CX23" s="1"/>
+      <c r="CY23" s="1"/>
+      <c r="CZ23" s="1"/>
+      <c r="DA23" s="1"/>
+      <c r="DB23" s="1"/>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
@@ -5782,22 +5930,22 @@
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>185</v>
+        <v>307</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="1"/>
@@ -5836,16 +5984,16 @@
       <c r="AR24" s="15"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AU24" s="15"/>
       <c r="AV24" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AZ24" s="15"/>
       <c r="BA24" s="15"/>
@@ -5896,13 +6044,18 @@
       <c r="CT24" s="16"/>
       <c r="CU24" s="16"/>
       <c r="CV24" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW24" s="16"/>
+      <c r="CX24" s="1"/>
+      <c r="CY24" s="1"/>
+      <c r="CZ24" s="1"/>
+      <c r="DA24" s="1"/>
+      <c r="DB24" s="1"/>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
@@ -5911,22 +6064,22 @@
         <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>185</v>
+        <v>309</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="1"/>
@@ -5935,7 +6088,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -5967,14 +6120,14 @@
       <c r="AR25" s="15"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU25" s="15"/>
       <c r="AV25" s="26"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AZ25" s="15"/>
       <c r="BA25" s="15"/>
@@ -6025,13 +6178,18 @@
       <c r="CT25" s="16"/>
       <c r="CU25" s="16"/>
       <c r="CV25" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW25" s="16"/>
+      <c r="CX25" s="1"/>
+      <c r="CY25" s="1"/>
+      <c r="CZ25" s="1"/>
+      <c r="DA25" s="1"/>
+      <c r="DB25" s="1"/>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
@@ -6040,22 +6198,22 @@
         <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>185</v>
+        <v>309</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="1"/>
@@ -6065,7 +6223,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -6096,14 +6254,14 @@
       <c r="AR26" s="15"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU26" s="15"/>
       <c r="AV26" s="26"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AZ26" s="15"/>
       <c r="BA26" s="15"/>
@@ -6154,13 +6312,18 @@
       <c r="CT26" s="16"/>
       <c r="CU26" s="16"/>
       <c r="CV26" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW26" s="16"/>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="1"/>
+      <c r="CZ26" s="1"/>
+      <c r="DA26" s="1"/>
+      <c r="DB26" s="1"/>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
@@ -6169,22 +6332,22 @@
         <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>185</v>
+      <c r="I27" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="1"/>
@@ -6223,14 +6386,14 @@
       <c r="AR27" s="15"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU27" s="15"/>
       <c r="AV27" s="26"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ27" s="15"/>
       <c r="BA27" s="15"/>
@@ -6281,13 +6444,18 @@
       <c r="CT27" s="16"/>
       <c r="CU27" s="16"/>
       <c r="CV27" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW27" s="16"/>
+      <c r="CX27" s="1"/>
+      <c r="CY27" s="1"/>
+      <c r="CZ27" s="1"/>
+      <c r="DA27" s="1"/>
+      <c r="DB27" s="1"/>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>11</v>
@@ -6296,22 +6464,22 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>185</v>
+      <c r="I28" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="1"/>
@@ -6350,14 +6518,14 @@
       <c r="AR28" s="15"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU28" s="15"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AZ28" s="15"/>
       <c r="BA28" s="15"/>
@@ -6408,13 +6576,18 @@
       <c r="CT28" s="16"/>
       <c r="CU28" s="16"/>
       <c r="CV28" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW28" s="16"/>
+      <c r="CX28" s="1"/>
+      <c r="CY28" s="1"/>
+      <c r="CZ28" s="1"/>
+      <c r="DA28" s="1"/>
+      <c r="DB28" s="1"/>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>11</v>
@@ -6423,22 +6596,22 @@
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>185</v>
+        <v>309</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="1"/>
@@ -6449,7 +6622,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -6479,14 +6652,14 @@
       <c r="AR29" s="15"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AU29" s="15"/>
       <c r="AV29" s="26"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AZ29" s="15"/>
       <c r="BA29" s="15"/>
@@ -6537,13 +6710,18 @@
       <c r="CT29" s="16"/>
       <c r="CU29" s="16"/>
       <c r="CV29" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW29" s="16"/>
+      <c r="CX29" s="1"/>
+      <c r="CY29" s="1"/>
+      <c r="CZ29" s="1"/>
+      <c r="DA29" s="1"/>
+      <c r="DB29" s="1"/>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>11</v>
@@ -6552,22 +6730,22 @@
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>185</v>
+      <c r="I30" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="1"/>
@@ -6579,12 +6757,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -6610,14 +6788,14 @@
       <c r="AR30" s="15"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AU30" s="15"/>
       <c r="AV30" s="26"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AZ30" s="15"/>
       <c r="BA30" s="15"/>
@@ -6668,13 +6846,18 @@
       <c r="CT30" s="16"/>
       <c r="CU30" s="16"/>
       <c r="CV30" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW30" s="16"/>
+      <c r="CX30" s="1"/>
+      <c r="CY30" s="1"/>
+      <c r="CZ30" s="1"/>
+      <c r="DA30" s="1"/>
+      <c r="DB30" s="1"/>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>11</v>
@@ -6683,22 +6866,22 @@
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>185</v>
+      <c r="I31" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="1"/>
@@ -6711,10 +6894,10 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="5"/>
@@ -6741,14 +6924,14 @@
       <c r="AR31" s="15"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AU31" s="15"/>
       <c r="AV31" s="26"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AZ31" s="15"/>
       <c r="BA31" s="15"/>
@@ -6799,13 +6982,18 @@
       <c r="CT31" s="16"/>
       <c r="CU31" s="16"/>
       <c r="CV31" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW31" s="16"/>
+      <c r="CX31" s="1"/>
+      <c r="CY31" s="1"/>
+      <c r="CZ31" s="1"/>
+      <c r="DA31" s="1"/>
+      <c r="DB31" s="1"/>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>11</v>
@@ -6814,22 +7002,22 @@
         <v>15</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="F32" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>185</v>
+        <v>307</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="11"/>
@@ -6868,14 +7056,14 @@
       <c r="AR32" s="18"/>
       <c r="AS32" s="11"/>
       <c r="AT32" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AU32" s="18"/>
       <c r="AV32" s="11"/>
       <c r="AW32" s="11"/>
       <c r="AX32" s="11"/>
       <c r="AY32" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AZ32" s="18"/>
       <c r="BA32" s="18"/>
@@ -6926,34 +7114,39 @@
       <c r="CT32" s="19"/>
       <c r="CU32" s="19"/>
       <c r="CV32" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW32" s="19"/>
+      <c r="CX32" s="1"/>
+      <c r="CY32" s="1"/>
+      <c r="CZ32" s="1"/>
+      <c r="DA32" s="1"/>
+      <c r="DB32" s="1"/>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="36" t="s">
         <v>531</v>
       </c>
       <c r="J33" s="1"/>
@@ -7048,10 +7241,15 @@
       <c r="CU33" s="16"/>
       <c r="CV33" s="1"/>
       <c r="CW33" s="16"/>
+      <c r="CX33" s="1"/>
+      <c r="CY33" s="1"/>
+      <c r="CZ33" s="1"/>
+      <c r="DA33" s="1"/>
+      <c r="DB33" s="1"/>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>11</v>
@@ -7060,21 +7258,21 @@
         <v>15</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E34" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="31" t="s">
         <v>257</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>258</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="37" t="s">
-        <v>185</v>
+      <c r="I34" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K34" s="31"/>
       <c r="L34" s="32"/>
@@ -7102,7 +7300,7 @@
       <c r="AH34" s="33"/>
       <c r="AI34" s="33"/>
       <c r="AJ34" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AK34" s="33"/>
       <c r="AL34" s="33"/>
@@ -7114,37 +7312,37 @@
       <c r="AR34" s="34"/>
       <c r="AS34" s="34"/>
       <c r="AT34" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU34" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV34" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AV34" s="34" t="s">
+      <c r="AW34" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AW34" s="34" t="s">
+      <c r="AX34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AX34" s="34" t="s">
+      <c r="AY34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AY34" s="34" t="s">
+      <c r="AZ34" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AZ34" s="34" t="s">
+      <c r="BA34" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="BA34" s="34" t="s">
-        <v>39</v>
       </c>
       <c r="BB34" s="34"/>
       <c r="BC34" s="34"/>
       <c r="BD34" s="34"/>
       <c r="BE34" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BF34" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BG34" s="34"/>
       <c r="BH34" s="34"/>
@@ -7168,7 +7366,7 @@
       <c r="BZ34" s="34"/>
       <c r="CA34" s="34"/>
       <c r="CB34" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CC34" s="34"/>
       <c r="CD34" s="34"/>
@@ -7177,19 +7375,19 @@
       <c r="CG34" s="34"/>
       <c r="CH34" s="34"/>
       <c r="CI34" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CJ34" s="34">
         <v>6</v>
       </c>
       <c r="CK34" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="CL34" s="34">
         <v>10</v>
       </c>
       <c r="CM34" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CN34" s="31"/>
       <c r="CO34" s="35"/>
@@ -7199,16 +7397,21 @@
       <c r="CS34" s="35"/>
       <c r="CT34" s="35"/>
       <c r="CU34" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CV34" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="CW34" s="35"/>
+      <c r="CX34" s="1"/>
+      <c r="CY34" s="1"/>
+      <c r="CZ34" s="1"/>
+      <c r="DA34" s="1"/>
+      <c r="DB34" s="1"/>
+    </row>
+    <row r="35" spans="1:106" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="CW34" s="35"/>
-    </row>
-    <row r="35" spans="1:101" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>11</v>
@@ -7220,19 +7423,19 @@
         <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>185</v>
+      <c r="I35" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -7271,18 +7474,18 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW35" s="29" t="s">
         <v>372</v>
-      </c>
-      <c r="AW35" s="29" t="s">
-        <v>373</v>
       </c>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
@@ -7333,13 +7536,18 @@
       <c r="CT35" s="16"/>
       <c r="CU35" s="16"/>
       <c r="CV35" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW35" s="16"/>
+      <c r="CX35" s="1"/>
+      <c r="CY35" s="1"/>
+      <c r="CZ35" s="1"/>
+      <c r="DA35" s="1"/>
+      <c r="DB35" s="1"/>
     </row>
-    <row r="36" spans="1:101" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>11</v>
@@ -7351,19 +7559,19 @@
         <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>185</v>
+      <c r="I36" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -7402,20 +7610,20 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BB36" s="15"/>
       <c r="BC36" s="15"/>
@@ -7464,13 +7672,18 @@
       <c r="CT36" s="16"/>
       <c r="CU36" s="16"/>
       <c r="CV36" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW36" s="16"/>
+      <c r="CX36" s="1"/>
+      <c r="CY36" s="1"/>
+      <c r="CZ36" s="1"/>
+      <c r="DA36" s="1"/>
+      <c r="DB36" s="1"/>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>11</v>
@@ -7482,19 +7695,19 @@
         <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="H37" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>185</v>
+      <c r="I37" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -7533,14 +7746,14 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="29"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -7591,13 +7804,18 @@
       <c r="CT37" s="16"/>
       <c r="CU37" s="16"/>
       <c r="CV37" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW37" s="16"/>
+      <c r="CX37" s="1"/>
+      <c r="CY37" s="1"/>
+      <c r="CZ37" s="1"/>
+      <c r="DA37" s="1"/>
+      <c r="DB37" s="1"/>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>11</v>
@@ -7609,19 +7827,19 @@
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>185</v>
+      <c r="I38" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -7660,14 +7878,14 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="29"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
@@ -7718,13 +7936,18 @@
       <c r="CT38" s="16"/>
       <c r="CU38" s="16"/>
       <c r="CV38" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW38" s="16"/>
+      <c r="CX38" s="1"/>
+      <c r="CY38" s="1"/>
+      <c r="CZ38" s="1"/>
+      <c r="DA38" s="1"/>
+      <c r="DB38" s="1"/>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>11</v>
@@ -7736,19 +7959,19 @@
         <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>185</v>
+      <c r="I39" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -7787,14 +8010,14 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="29"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
@@ -7845,13 +8068,18 @@
       <c r="CT39" s="16"/>
       <c r="CU39" s="16"/>
       <c r="CV39" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW39" s="16"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="1"/>
+      <c r="CZ39" s="1"/>
+      <c r="DA39" s="1"/>
+      <c r="DB39" s="1"/>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>11</v>
@@ -7863,19 +8091,19 @@
         <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>185</v>
+      <c r="I40" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -7914,14 +8142,14 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="29"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
@@ -7972,13 +8200,18 @@
       <c r="CT40" s="16"/>
       <c r="CU40" s="16"/>
       <c r="CV40" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW40" s="16"/>
+      <c r="CX40" s="1"/>
+      <c r="CY40" s="1"/>
+      <c r="CZ40" s="1"/>
+      <c r="DA40" s="1"/>
+      <c r="DB40" s="1"/>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>11</v>
@@ -7990,19 +8223,19 @@
         <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>185</v>
+      <c r="I41" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -8041,14 +8274,14 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="29"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
@@ -8099,13 +8332,18 @@
       <c r="CT41" s="16"/>
       <c r="CU41" s="16"/>
       <c r="CV41" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW41" s="16"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="1"/>
+      <c r="CZ41" s="1"/>
+      <c r="DA41" s="1"/>
+      <c r="DB41" s="1"/>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>11</v>
@@ -8117,19 +8355,19 @@
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>185</v>
+      <c r="I42" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -8168,14 +8406,14 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="29"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
@@ -8226,13 +8464,18 @@
       <c r="CT42" s="16"/>
       <c r="CU42" s="16"/>
       <c r="CV42" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW42" s="16"/>
+      <c r="CX42" s="1"/>
+      <c r="CY42" s="1"/>
+      <c r="CZ42" s="1"/>
+      <c r="DA42" s="1"/>
+      <c r="DB42" s="1"/>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>11</v>
@@ -8244,19 +8487,19 @@
         <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>185</v>
+      <c r="I43" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -8295,14 +8538,14 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="29"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
@@ -8353,13 +8596,18 @@
       <c r="CT43" s="16"/>
       <c r="CU43" s="16"/>
       <c r="CV43" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW43" s="16"/>
+      <c r="CX43" s="1"/>
+      <c r="CY43" s="1"/>
+      <c r="CZ43" s="1"/>
+      <c r="DA43" s="1"/>
+      <c r="DB43" s="1"/>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>11</v>
@@ -8371,19 +8619,19 @@
         <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>185</v>
+      <c r="I44" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -8422,14 +8670,14 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="29"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
@@ -8480,13 +8728,18 @@
       <c r="CT44" s="16"/>
       <c r="CU44" s="16"/>
       <c r="CV44" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW44" s="16"/>
+      <c r="CX44" s="1"/>
+      <c r="CY44" s="1"/>
+      <c r="CZ44" s="1"/>
+      <c r="DA44" s="1"/>
+      <c r="DB44" s="1"/>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>11</v>
@@ -8498,17 +8751,17 @@
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="37" t="s">
-        <v>185</v>
+      <c r="I45" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -8547,14 +8800,14 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="29"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8605,13 +8858,18 @@
       <c r="CT45" s="16"/>
       <c r="CU45" s="16"/>
       <c r="CV45" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW45" s="16"/>
+      <c r="CX45" s="1"/>
+      <c r="CY45" s="1"/>
+      <c r="CZ45" s="1"/>
+      <c r="DA45" s="1"/>
+      <c r="DB45" s="1"/>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>11</v>
@@ -8623,17 +8881,17 @@
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="37" t="s">
-        <v>185</v>
+      <c r="I46" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -8672,14 +8930,14 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="29"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
@@ -8730,13 +8988,18 @@
       <c r="CT46" s="16"/>
       <c r="CU46" s="16"/>
       <c r="CV46" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW46" s="16"/>
+      <c r="CX46" s="1"/>
+      <c r="CY46" s="1"/>
+      <c r="CZ46" s="1"/>
+      <c r="DA46" s="1"/>
+      <c r="DB46" s="1"/>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>11</v>
@@ -8748,17 +9011,17 @@
         <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="37" t="s">
-        <v>185</v>
+      <c r="I47" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -8797,14 +9060,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="29"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -8855,13 +9118,18 @@
       <c r="CT47" s="16"/>
       <c r="CU47" s="16"/>
       <c r="CV47" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW47" s="16"/>
+      <c r="CX47" s="1"/>
+      <c r="CY47" s="1"/>
+      <c r="CZ47" s="1"/>
+      <c r="DA47" s="1"/>
+      <c r="DB47" s="1"/>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>11</v>
@@ -8873,17 +9141,17 @@
         <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="37" t="s">
-        <v>185</v>
+      <c r="I48" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -8922,14 +9190,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="29"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -8980,13 +9248,18 @@
       <c r="CT48" s="16"/>
       <c r="CU48" s="16"/>
       <c r="CV48" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW48" s="16"/>
+      <c r="CX48" s="1"/>
+      <c r="CY48" s="1"/>
+      <c r="CZ48" s="1"/>
+      <c r="DA48" s="1"/>
+      <c r="DB48" s="1"/>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>11</v>
@@ -8998,19 +9271,19 @@
         <v>17</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>185</v>
+      <c r="I49" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -9049,14 +9322,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="29"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -9107,13 +9380,18 @@
       <c r="CT49" s="16"/>
       <c r="CU49" s="16"/>
       <c r="CV49" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW49" s="16"/>
+      <c r="CX49" s="1"/>
+      <c r="CY49" s="1"/>
+      <c r="CZ49" s="1"/>
+      <c r="DA49" s="1"/>
+      <c r="DB49" s="1"/>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>11</v>
@@ -9125,19 +9403,19 @@
         <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>185</v>
+      <c r="I50" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -9176,14 +9454,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="29"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -9234,13 +9512,18 @@
       <c r="CT50" s="16"/>
       <c r="CU50" s="16"/>
       <c r="CV50" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW50" s="16"/>
+      <c r="CX50" s="1"/>
+      <c r="CY50" s="1"/>
+      <c r="CZ50" s="1"/>
+      <c r="DA50" s="1"/>
+      <c r="DB50" s="1"/>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>11</v>
@@ -9252,19 +9535,19 @@
         <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>185</v>
+      <c r="I51" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -9303,14 +9586,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="29"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -9361,13 +9644,18 @@
       <c r="CT51" s="16"/>
       <c r="CU51" s="16"/>
       <c r="CV51" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW51" s="16"/>
+      <c r="CX51" s="1"/>
+      <c r="CY51" s="1"/>
+      <c r="CZ51" s="1"/>
+      <c r="DA51" s="1"/>
+      <c r="DB51" s="1"/>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>11</v>
@@ -9379,19 +9667,19 @@
         <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>185</v>
+      <c r="I52" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -9430,14 +9718,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="29"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -9488,13 +9776,18 @@
       <c r="CT52" s="16"/>
       <c r="CU52" s="16"/>
       <c r="CV52" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW52" s="16"/>
+      <c r="CX52" s="1"/>
+      <c r="CY52" s="1"/>
+      <c r="CZ52" s="1"/>
+      <c r="DA52" s="1"/>
+      <c r="DB52" s="1"/>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>11</v>
@@ -9506,17 +9799,17 @@
         <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="37" t="s">
-        <v>185</v>
+      <c r="I53" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -9555,14 +9848,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="29"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9613,13 +9906,18 @@
       <c r="CT53" s="16"/>
       <c r="CU53" s="16"/>
       <c r="CV53" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW53" s="16"/>
+      <c r="CX53" s="1"/>
+      <c r="CY53" s="1"/>
+      <c r="CZ53" s="1"/>
+      <c r="DA53" s="1"/>
+      <c r="DB53" s="1"/>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>11</v>
@@ -9631,17 +9929,17 @@
         <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="37" t="s">
-        <v>185</v>
+      <c r="I54" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -9680,14 +9978,14 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="29"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -9738,13 +10036,18 @@
       <c r="CT54" s="16"/>
       <c r="CU54" s="16"/>
       <c r="CV54" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW54" s="16"/>
+      <c r="CX54" s="1"/>
+      <c r="CY54" s="1"/>
+      <c r="CZ54" s="1"/>
+      <c r="DA54" s="1"/>
+      <c r="DB54" s="1"/>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>11</v>
@@ -9756,19 +10059,19 @@
         <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>185</v>
+      <c r="I55" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -9807,14 +10110,14 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="29"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -9865,13 +10168,18 @@
       <c r="CT55" s="16"/>
       <c r="CU55" s="16"/>
       <c r="CV55" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW55" s="16"/>
+      <c r="CX55" s="1"/>
+      <c r="CY55" s="1"/>
+      <c r="CZ55" s="1"/>
+      <c r="DA55" s="1"/>
+      <c r="DB55" s="1"/>
     </row>
-    <row r="56" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>11</v>
@@ -9883,19 +10191,19 @@
         <v>17</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>185</v>
+      <c r="I56" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -9934,14 +10242,14 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="29"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -9992,13 +10300,18 @@
       <c r="CT56" s="16"/>
       <c r="CU56" s="16"/>
       <c r="CV56" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW56" s="16"/>
+      <c r="CX56" s="1"/>
+      <c r="CY56" s="1"/>
+      <c r="CZ56" s="1"/>
+      <c r="DA56" s="1"/>
+      <c r="DB56" s="1"/>
     </row>
-    <row r="57" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>11</v>
@@ -10010,17 +10323,17 @@
         <v>17</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="37" t="s">
-        <v>185</v>
+      <c r="I57" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -10059,16 +10372,16 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="29"/>
       <c r="AX57" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY57" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -10119,13 +10432,18 @@
       <c r="CT57" s="16"/>
       <c r="CU57" s="16"/>
       <c r="CV57" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW57" s="16"/>
+      <c r="CX57" s="1"/>
+      <c r="CY57" s="1"/>
+      <c r="CZ57" s="1"/>
+      <c r="DA57" s="1"/>
+      <c r="DB57" s="1"/>
     </row>
-    <row r="58" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>11</v>
@@ -10137,17 +10455,17 @@
         <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="37" t="s">
-        <v>185</v>
+      <c r="I58" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -10186,16 +10504,16 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="29"/>
       <c r="AX58" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY58" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -10246,13 +10564,18 @@
       <c r="CT58" s="16"/>
       <c r="CU58" s="16"/>
       <c r="CV58" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW58" s="16"/>
+      <c r="CX58" s="1"/>
+      <c r="CY58" s="1"/>
+      <c r="CZ58" s="1"/>
+      <c r="DA58" s="1"/>
+      <c r="DB58" s="1"/>
     </row>
-    <row r="59" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>11</v>
@@ -10264,19 +10587,19 @@
         <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I59" s="37" t="s">
-        <v>185</v>
+      <c r="I59" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -10315,17 +10638,17 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="29"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ59" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="BA59" s="1"/>
       <c r="BB59" s="15"/>
@@ -10375,13 +10698,18 @@
       <c r="CT59" s="16"/>
       <c r="CU59" s="16"/>
       <c r="CV59" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW59" s="16"/>
+      <c r="CX59" s="1"/>
+      <c r="CY59" s="1"/>
+      <c r="CZ59" s="1"/>
+      <c r="DA59" s="1"/>
+      <c r="DB59" s="1"/>
     </row>
-    <row r="60" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>11</v>
@@ -10393,19 +10721,19 @@
         <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>185</v>
+        <v>487</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -10444,17 +10772,17 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="29"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ60" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="BA60" s="1"/>
       <c r="BB60" s="15"/>
@@ -10504,13 +10832,18 @@
       <c r="CT60" s="16"/>
       <c r="CU60" s="16"/>
       <c r="CV60" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW60" s="16"/>
+      <c r="CX60" s="1"/>
+      <c r="CY60" s="1"/>
+      <c r="CZ60" s="1"/>
+      <c r="DA60" s="1"/>
+      <c r="DB60" s="1"/>
     </row>
-    <row r="61" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>11</v>
@@ -10522,19 +10855,19 @@
         <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>185</v>
+      <c r="I61" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -10573,16 +10906,16 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="29"/>
       <c r="AX61" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY61" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
@@ -10633,13 +10966,18 @@
       <c r="CT61" s="16"/>
       <c r="CU61" s="16"/>
       <c r="CV61" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW61" s="16"/>
+      <c r="CX61" s="1"/>
+      <c r="CY61" s="1"/>
+      <c r="CZ61" s="1"/>
+      <c r="DA61" s="1"/>
+      <c r="DB61" s="1"/>
     </row>
-    <row r="62" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>11</v>
@@ -10651,19 +10989,19 @@
         <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I62" s="37" t="s">
-        <v>185</v>
+        <v>497</v>
+      </c>
+      <c r="I62" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -10702,16 +11040,16 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="29"/>
       <c r="AX62" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AY62" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
@@ -10762,13 +11100,18 @@
       <c r="CT62" s="16"/>
       <c r="CU62" s="16"/>
       <c r="CV62" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW62" s="16"/>
+      <c r="CX62" s="1"/>
+      <c r="CY62" s="1"/>
+      <c r="CZ62" s="1"/>
+      <c r="DA62" s="1"/>
+      <c r="DB62" s="1"/>
     </row>
-    <row r="63" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>11</v>
@@ -10780,19 +11123,19 @@
         <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>185</v>
+      <c r="I63" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -10831,18 +11174,18 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="29"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BB63" s="15"/>
       <c r="BC63" s="15"/>
@@ -10891,13 +11234,18 @@
       <c r="CT63" s="16"/>
       <c r="CU63" s="16"/>
       <c r="CV63" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW63" s="16"/>
+      <c r="CX63" s="1"/>
+      <c r="CY63" s="1"/>
+      <c r="CZ63" s="1"/>
+      <c r="DA63" s="1"/>
+      <c r="DB63" s="1"/>
     </row>
-    <row r="64" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>11</v>
@@ -10909,19 +11257,19 @@
         <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I64" s="37" t="s">
-        <v>185</v>
+      <c r="I64" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -10960,18 +11308,18 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
       <c r="AW64" s="29"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BB64" s="15"/>
       <c r="BC64" s="15"/>
@@ -11020,13 +11368,18 @@
       <c r="CT64" s="16"/>
       <c r="CU64" s="16"/>
       <c r="CV64" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW64" s="16"/>
+      <c r="CX64" s="1"/>
+      <c r="CY64" s="1"/>
+      <c r="CZ64" s="1"/>
+      <c r="DA64" s="1"/>
+      <c r="DB64" s="1"/>
     </row>
-    <row r="65" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>11</v>
@@ -11038,19 +11391,19 @@
         <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I65" s="37" t="s">
-        <v>185</v>
+      <c r="I65" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -11089,14 +11442,14 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="29"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1">
@@ -11149,138 +11502,288 @@
       <c r="CT65" s="16"/>
       <c r="CU65" s="16"/>
       <c r="CV65" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CW65" s="16"/>
+      <c r="CX65" s="1"/>
+      <c r="CY65" s="1"/>
+      <c r="CZ65" s="1"/>
+      <c r="DA65" s="1"/>
+      <c r="DB65" s="1"/>
     </row>
-    <row r="66" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B66" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+      <c r="AH66" s="11"/>
+      <c r="AI66" s="11"/>
+      <c r="AJ66" s="11"/>
+      <c r="AK66" s="11"/>
+      <c r="AL66" s="11"/>
+      <c r="AM66" s="11"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="11"/>
+      <c r="AP66" s="11"/>
+      <c r="AQ66" s="11"/>
+      <c r="AR66" s="11"/>
+      <c r="AS66" s="11"/>
+      <c r="AT66" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="I66" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
-      <c r="AK66" s="1"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="1"/>
-      <c r="AN66" s="1"/>
-      <c r="AO66" s="1"/>
-      <c r="AP66" s="1"/>
-      <c r="AQ66" s="1"/>
-      <c r="AR66" s="1"/>
-      <c r="AS66" s="1"/>
-      <c r="AT66" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AU66" s="1"/>
-      <c r="AV66" s="1"/>
-      <c r="AW66" s="29"/>
-      <c r="AX66" s="1"/>
-      <c r="AY66" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AZ66" s="1"/>
-      <c r="BA66" s="1">
+      <c r="AU66" s="11"/>
+      <c r="AV66" s="11"/>
+      <c r="AW66" s="40"/>
+      <c r="AX66" s="11"/>
+      <c r="AY66" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ66" s="11"/>
+      <c r="BA66" s="11">
         <v>28</v>
       </c>
-      <c r="BB66" s="15"/>
-      <c r="BC66" s="15"/>
-      <c r="BD66" s="15"/>
-      <c r="BE66" s="16"/>
-      <c r="BF66" s="15"/>
-      <c r="BG66" s="15"/>
-      <c r="BH66" s="15"/>
-      <c r="BI66" s="15"/>
-      <c r="BJ66" s="15"/>
-      <c r="BK66" s="15"/>
-      <c r="BL66" s="15"/>
-      <c r="BM66" s="15"/>
-      <c r="BN66" s="15"/>
-      <c r="BO66" s="15"/>
-      <c r="BP66" s="15"/>
-      <c r="BQ66" s="15"/>
-      <c r="BR66" s="15"/>
-      <c r="BS66" s="15"/>
-      <c r="BT66" s="15"/>
-      <c r="BU66" s="15"/>
-      <c r="BV66" s="15"/>
-      <c r="BW66" s="15"/>
-      <c r="BX66" s="15"/>
-      <c r="BY66" s="15"/>
-      <c r="BZ66" s="15"/>
-      <c r="CA66" s="15"/>
-      <c r="CB66" s="16"/>
-      <c r="CC66" s="15"/>
-      <c r="CD66" s="15"/>
-      <c r="CE66" s="15"/>
-      <c r="CF66" s="15"/>
-      <c r="CG66" s="15"/>
-      <c r="CH66" s="15"/>
-      <c r="CI66" s="15"/>
-      <c r="CJ66" s="15"/>
-      <c r="CK66" s="15"/>
-      <c r="CL66" s="15"/>
-      <c r="CM66" s="15"/>
-      <c r="CN66" s="1"/>
-      <c r="CO66" s="16"/>
-      <c r="CP66" s="16"/>
-      <c r="CQ66" s="16"/>
-      <c r="CR66" s="16"/>
-      <c r="CS66" s="16"/>
-      <c r="CT66" s="16"/>
-      <c r="CU66" s="16"/>
-      <c r="CV66" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="CW66" s="16"/>
+      <c r="BB66" s="18"/>
+      <c r="BC66" s="18"/>
+      <c r="BD66" s="18"/>
+      <c r="BE66" s="19"/>
+      <c r="BF66" s="18"/>
+      <c r="BG66" s="18"/>
+      <c r="BH66" s="18"/>
+      <c r="BI66" s="18"/>
+      <c r="BJ66" s="18"/>
+      <c r="BK66" s="18"/>
+      <c r="BL66" s="18"/>
+      <c r="BM66" s="18"/>
+      <c r="BN66" s="18"/>
+      <c r="BO66" s="18"/>
+      <c r="BP66" s="18"/>
+      <c r="BQ66" s="18"/>
+      <c r="BR66" s="18"/>
+      <c r="BS66" s="18"/>
+      <c r="BT66" s="18"/>
+      <c r="BU66" s="18"/>
+      <c r="BV66" s="18"/>
+      <c r="BW66" s="18"/>
+      <c r="BX66" s="18"/>
+      <c r="BY66" s="18"/>
+      <c r="BZ66" s="18"/>
+      <c r="CA66" s="18"/>
+      <c r="CB66" s="19"/>
+      <c r="CC66" s="18"/>
+      <c r="CD66" s="18"/>
+      <c r="CE66" s="18"/>
+      <c r="CF66" s="18"/>
+      <c r="CG66" s="18"/>
+      <c r="CH66" s="18"/>
+      <c r="CI66" s="18"/>
+      <c r="CJ66" s="18"/>
+      <c r="CK66" s="18"/>
+      <c r="CL66" s="18"/>
+      <c r="CM66" s="18"/>
+      <c r="CN66" s="11"/>
+      <c r="CO66" s="19"/>
+      <c r="CP66" s="19"/>
+      <c r="CQ66" s="19"/>
+      <c r="CR66" s="19"/>
+      <c r="CS66" s="19"/>
+      <c r="CT66" s="19"/>
+      <c r="CU66" s="19"/>
+      <c r="CV66" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="CW66" s="19"/>
+      <c r="CX66" s="1"/>
+      <c r="CY66" s="1"/>
+      <c r="CZ66" s="1"/>
+      <c r="DA66" s="1"/>
+      <c r="DB66" s="1"/>
+    </row>
+    <row r="67" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AU67" s="1"/>
+      <c r="AV67" s="1"/>
+      <c r="AW67" s="1"/>
+      <c r="AX67" s="1"/>
+      <c r="AY67" s="1"/>
+      <c r="AZ67" s="1"/>
+      <c r="BA67" s="1"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="1"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="1"/>
+      <c r="CC67" s="1"/>
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="1"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="1"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
+      <c r="CN67" s="1"/>
+      <c r="CO67" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="1"/>
+      <c r="CT67" s="1"/>
+      <c r="CU67" s="1"/>
+      <c r="CV67" s="1"/>
+      <c r="CW67" s="1"/>
+      <c r="CX67" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="CY67" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="CZ67" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="DA67" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="DB67" s="1" t="s">
+        <v>540</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="558">
   <si>
     <t>Environment</t>
   </si>
@@ -1796,12 +1796,42 @@
   <si>
     <t>Default Classic System Defined Email</t>
   </si>
+  <si>
+    <t>Smoke_TC76</t>
+  </si>
+  <si>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>filter management</t>
+  </si>
+  <si>
+    <t>1. It will create filters for the given survey</t>
+  </si>
+  <si>
+    <t>filters should be created and validated</t>
+  </si>
+  <si>
+    <t>102.246.225.52</t>
+  </si>
+  <si>
+    <t>Attach n resp trend</t>
+  </si>
+  <si>
+    <t>GVG3196@test</t>
+  </si>
+  <si>
+    <t>sogo_gauravg</t>
+  </si>
+  <si>
+    <t>SID: 602, Copy (6) of All question survey (Recurring applied daily, monthly n weekly)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,6 +1875,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1958,15 +1994,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2015,10 +2052,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
@@ -2307,13 +2349,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2351,14 +2393,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2369,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2391,13 +2433,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2405,7 +2447,7 @@
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +2461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -2447,7 +2489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>256</v>
       </c>
@@ -2461,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="25" t="s">
         <v>186</v>
       </c>
@@ -2475,7 +2517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="25" t="s">
         <v>231</v>
       </c>
@@ -2489,7 +2531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="25" t="s">
         <v>242</v>
       </c>
@@ -2503,7 +2545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="25" t="s">
         <v>242</v>
       </c>
@@ -2517,7 +2559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
         <v>291</v>
       </c>
@@ -2528,6 +2570,20 @@
         <v>293</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2538,6 +2594,7 @@
     <hyperlink ref="C7" r:id="rId2"/>
     <hyperlink ref="C8" r:id="rId3"/>
     <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2546,13 +2603,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DB67"/>
+  <dimension ref="A1:DB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CP68" sqref="CP68"/>
+    <sheetView tabSelected="1" topLeftCell="AJ55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT68" sqref="AT68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2574,7 +2631,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +2951,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3020,7 +3077,7 @@
       <c r="DA2" s="1"/>
       <c r="DB2" s="1"/>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3224,7 +3281,7 @@
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106">
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
@@ -3362,7 +3419,7 @@
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -3502,7 +3559,7 @@
       <c r="DA5" s="1"/>
       <c r="DB5" s="1"/>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106">
       <c r="A6" s="1" t="s">
         <v>181</v>
       </c>
@@ -3632,7 +3689,7 @@
       <c r="DA6" s="1"/>
       <c r="DB6" s="1"/>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106">
       <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
@@ -3762,7 +3819,7 @@
       <c r="DA7" s="1"/>
       <c r="DB7" s="1"/>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106">
       <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
@@ -3894,7 +3951,7 @@
       <c r="DA8" s="1"/>
       <c r="DB8" s="1"/>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106">
       <c r="A9" s="1" t="s">
         <v>158</v>
       </c>
@@ -4030,7 +4087,7 @@
       <c r="DA9" s="1"/>
       <c r="DB9" s="1"/>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106">
       <c r="A10" s="1" t="s">
         <v>215</v>
       </c>
@@ -4168,7 +4225,7 @@
       <c r="DA10" s="1"/>
       <c r="DB10" s="1"/>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106">
       <c r="A11" s="1" t="s">
         <v>216</v>
       </c>
@@ -4302,7 +4359,7 @@
       <c r="DA11" s="1"/>
       <c r="DB11" s="1"/>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106">
       <c r="A12" s="1" t="s">
         <v>217</v>
       </c>
@@ -4434,7 +4491,7 @@
       <c r="DA12" s="1"/>
       <c r="DB12" s="1"/>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106">
       <c r="A13" s="1" t="s">
         <v>218</v>
       </c>
@@ -4566,7 +4623,7 @@
       <c r="DA13" s="1"/>
       <c r="DB13" s="1"/>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106">
       <c r="A14" s="1" t="s">
         <v>219</v>
       </c>
@@ -4698,7 +4755,7 @@
       <c r="DA14" s="1"/>
       <c r="DB14" s="1"/>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106">
       <c r="A15" s="1" t="s">
         <v>220</v>
       </c>
@@ -4850,7 +4907,7 @@
       <c r="DA15" s="1"/>
       <c r="DB15" s="1"/>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106">
       <c r="A16" s="1" t="s">
         <v>224</v>
       </c>
@@ -4997,7 +5054,7 @@
       <c r="DA16" s="1"/>
       <c r="DB16" s="1"/>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106">
       <c r="A17" s="1" t="s">
         <v>236</v>
       </c>
@@ -5125,7 +5182,7 @@
       <c r="DA17" s="1"/>
       <c r="DB17" s="1"/>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106">
       <c r="A18" s="1" t="s">
         <v>241</v>
       </c>
@@ -5255,7 +5312,7 @@
       <c r="DA18" s="1"/>
       <c r="DB18" s="1"/>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106">
       <c r="A19" s="1" t="s">
         <v>248</v>
       </c>
@@ -5383,7 +5440,7 @@
       <c r="DA19" s="1"/>
       <c r="DB19" s="1"/>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106">
       <c r="A20" s="1" t="s">
         <v>277</v>
       </c>
@@ -5515,7 +5572,7 @@
       <c r="DA20" s="1"/>
       <c r="DB20" s="1"/>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106">
       <c r="A21" s="1" t="s">
         <v>278</v>
       </c>
@@ -5651,7 +5708,7 @@
       <c r="DA21" s="1"/>
       <c r="DB21" s="1"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106">
       <c r="A22" s="1" t="s">
         <v>279</v>
       </c>
@@ -5783,7 +5840,7 @@
       <c r="DA22" s="1"/>
       <c r="DB22" s="1"/>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106">
       <c r="A23" s="1" t="s">
         <v>280</v>
       </c>
@@ -5919,7 +5976,7 @@
       <c r="DA23" s="1"/>
       <c r="DB23" s="1"/>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106">
       <c r="A24" s="1" t="s">
         <v>281</v>
       </c>
@@ -6053,7 +6110,7 @@
       <c r="DA24" s="1"/>
       <c r="DB24" s="1"/>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106">
       <c r="A25" s="1" t="s">
         <v>282</v>
       </c>
@@ -6187,7 +6244,7 @@
       <c r="DA25" s="1"/>
       <c r="DB25" s="1"/>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106">
       <c r="A26" s="1" t="s">
         <v>283</v>
       </c>
@@ -6321,7 +6378,7 @@
       <c r="DA26" s="1"/>
       <c r="DB26" s="1"/>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106">
       <c r="A27" s="1" t="s">
         <v>284</v>
       </c>
@@ -6453,7 +6510,7 @@
       <c r="DA27" s="1"/>
       <c r="DB27" s="1"/>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106">
       <c r="A28" s="1" t="s">
         <v>285</v>
       </c>
@@ -6585,7 +6642,7 @@
       <c r="DA28" s="1"/>
       <c r="DB28" s="1"/>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106">
       <c r="A29" s="1" t="s">
         <v>286</v>
       </c>
@@ -6719,7 +6776,7 @@
       <c r="DA29" s="1"/>
       <c r="DB29" s="1"/>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106">
       <c r="A30" s="1" t="s">
         <v>287</v>
       </c>
@@ -6855,7 +6912,7 @@
       <c r="DA30" s="1"/>
       <c r="DB30" s="1"/>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106">
       <c r="A31" s="1" t="s">
         <v>288</v>
       </c>
@@ -6991,7 +7048,7 @@
       <c r="DA31" s="1"/>
       <c r="DB31" s="1"/>
     </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:106">
       <c r="A32" s="11" t="s">
         <v>289</v>
       </c>
@@ -7123,7 +7180,7 @@
       <c r="DA32" s="1"/>
       <c r="DB32" s="1"/>
     </row>
-    <row r="33" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:106">
       <c r="A33" s="1" t="s">
         <v>525</v>
       </c>
@@ -7247,7 +7304,7 @@
       <c r="DA33" s="1"/>
       <c r="DB33" s="1"/>
     </row>
-    <row r="34" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:106">
       <c r="A34" s="31" t="s">
         <v>276</v>
       </c>
@@ -7409,7 +7466,7 @@
       <c r="DA34" s="1"/>
       <c r="DB34" s="1"/>
     </row>
-    <row r="35" spans="1:106" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:106" ht="20.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>366</v>
       </c>
@@ -7545,7 +7602,7 @@
       <c r="DA35" s="1"/>
       <c r="DB35" s="1"/>
     </row>
-    <row r="36" spans="1:106" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" ht="19.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>374</v>
       </c>
@@ -7681,7 +7738,7 @@
       <c r="DA36" s="1"/>
       <c r="DB36" s="1"/>
     </row>
-    <row r="37" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:106">
       <c r="A37" s="1" t="s">
         <v>381</v>
       </c>
@@ -7813,7 +7870,7 @@
       <c r="DA37" s="1"/>
       <c r="DB37" s="1"/>
     </row>
-    <row r="38" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106">
       <c r="A38" s="1" t="s">
         <v>386</v>
       </c>
@@ -7945,7 +8002,7 @@
       <c r="DA38" s="1"/>
       <c r="DB38" s="1"/>
     </row>
-    <row r="39" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106">
       <c r="A39" s="1" t="s">
         <v>391</v>
       </c>
@@ -8077,7 +8134,7 @@
       <c r="DA39" s="1"/>
       <c r="DB39" s="1"/>
     </row>
-    <row r="40" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:106">
       <c r="A40" s="1" t="s">
         <v>396</v>
       </c>
@@ -8209,7 +8266,7 @@
       <c r="DA40" s="1"/>
       <c r="DB40" s="1"/>
     </row>
-    <row r="41" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:106">
       <c r="A41" s="1" t="s">
         <v>401</v>
       </c>
@@ -8341,7 +8398,7 @@
       <c r="DA41" s="1"/>
       <c r="DB41" s="1"/>
     </row>
-    <row r="42" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:106">
       <c r="A42" s="1" t="s">
         <v>406</v>
       </c>
@@ -8473,7 +8530,7 @@
       <c r="DA42" s="1"/>
       <c r="DB42" s="1"/>
     </row>
-    <row r="43" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:106">
       <c r="A43" s="1" t="s">
         <v>411</v>
       </c>
@@ -8605,7 +8662,7 @@
       <c r="DA43" s="1"/>
       <c r="DB43" s="1"/>
     </row>
-    <row r="44" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:106">
       <c r="A44" s="1" t="s">
         <v>416</v>
       </c>
@@ -8737,7 +8794,7 @@
       <c r="DA44" s="1"/>
       <c r="DB44" s="1"/>
     </row>
-    <row r="45" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:106">
       <c r="A45" s="1" t="s">
         <v>421</v>
       </c>
@@ -8867,7 +8924,7 @@
       <c r="DA45" s="1"/>
       <c r="DB45" s="1"/>
     </row>
-    <row r="46" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:106">
       <c r="A46" s="1" t="s">
         <v>425</v>
       </c>
@@ -8997,7 +9054,7 @@
       <c r="DA46" s="1"/>
       <c r="DB46" s="1"/>
     </row>
-    <row r="47" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:106">
       <c r="A47" s="1" t="s">
         <v>429</v>
       </c>
@@ -9127,7 +9184,7 @@
       <c r="DA47" s="1"/>
       <c r="DB47" s="1"/>
     </row>
-    <row r="48" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:106">
       <c r="A48" s="1" t="s">
         <v>433</v>
       </c>
@@ -9257,7 +9314,7 @@
       <c r="DA48" s="1"/>
       <c r="DB48" s="1"/>
     </row>
-    <row r="49" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:106">
       <c r="A49" s="1" t="s">
         <v>437</v>
       </c>
@@ -9389,7 +9446,7 @@
       <c r="DA49" s="1"/>
       <c r="DB49" s="1"/>
     </row>
-    <row r="50" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:106">
       <c r="A50" s="1" t="s">
         <v>442</v>
       </c>
@@ -9521,7 +9578,7 @@
       <c r="DA50" s="1"/>
       <c r="DB50" s="1"/>
     </row>
-    <row r="51" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:106">
       <c r="A51" s="1" t="s">
         <v>447</v>
       </c>
@@ -9653,7 +9710,7 @@
       <c r="DA51" s="1"/>
       <c r="DB51" s="1"/>
     </row>
-    <row r="52" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:106">
       <c r="A52" s="1" t="s">
         <v>452</v>
       </c>
@@ -9785,7 +9842,7 @@
       <c r="DA52" s="1"/>
       <c r="DB52" s="1"/>
     </row>
-    <row r="53" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:106">
       <c r="A53" s="1" t="s">
         <v>457</v>
       </c>
@@ -9915,7 +9972,7 @@
       <c r="DA53" s="1"/>
       <c r="DB53" s="1"/>
     </row>
-    <row r="54" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:106">
       <c r="A54" s="1" t="s">
         <v>461</v>
       </c>
@@ -10045,7 +10102,7 @@
       <c r="DA54" s="1"/>
       <c r="DB54" s="1"/>
     </row>
-    <row r="55" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:106">
       <c r="A55" s="1" t="s">
         <v>465</v>
       </c>
@@ -10177,7 +10234,7 @@
       <c r="DA55" s="1"/>
       <c r="DB55" s="1"/>
     </row>
-    <row r="56" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:106">
       <c r="A56" s="1" t="s">
         <v>470</v>
       </c>
@@ -10309,7 +10366,7 @@
       <c r="DA56" s="1"/>
       <c r="DB56" s="1"/>
     </row>
-    <row r="57" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:106">
       <c r="A57" s="1" t="s">
         <v>475</v>
       </c>
@@ -10441,7 +10498,7 @@
       <c r="DA57" s="1"/>
       <c r="DB57" s="1"/>
     </row>
-    <row r="58" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:106">
       <c r="A58" s="1" t="s">
         <v>480</v>
       </c>
@@ -10573,7 +10630,7 @@
       <c r="DA58" s="1"/>
       <c r="DB58" s="1"/>
     </row>
-    <row r="59" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:106">
       <c r="A59" s="1" t="s">
         <v>484</v>
       </c>
@@ -10707,7 +10764,7 @@
       <c r="DA59" s="1"/>
       <c r="DB59" s="1"/>
     </row>
-    <row r="60" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:106">
       <c r="A60" s="1" t="s">
         <v>490</v>
       </c>
@@ -10841,7 +10898,7 @@
       <c r="DA60" s="1"/>
       <c r="DB60" s="1"/>
     </row>
-    <row r="61" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:106">
       <c r="A61" s="1" t="s">
         <v>494</v>
       </c>
@@ -10975,7 +11032,7 @@
       <c r="DA61" s="1"/>
       <c r="DB61" s="1"/>
     </row>
-    <row r="62" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:106">
       <c r="A62" s="1" t="s">
         <v>499</v>
       </c>
@@ -11109,7 +11166,7 @@
       <c r="DA62" s="1"/>
       <c r="DB62" s="1"/>
     </row>
-    <row r="63" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:106">
       <c r="A63" s="1" t="s">
         <v>503</v>
       </c>
@@ -11243,7 +11300,7 @@
       <c r="DA63" s="1"/>
       <c r="DB63" s="1"/>
     </row>
-    <row r="64" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:106">
       <c r="A64" s="1" t="s">
         <v>509</v>
       </c>
@@ -11377,7 +11434,7 @@
       <c r="DA64" s="1"/>
       <c r="DB64" s="1"/>
     </row>
-    <row r="65" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:106">
       <c r="A65" s="1" t="s">
         <v>514</v>
       </c>
@@ -11511,7 +11568,7 @@
       <c r="DA65" s="1"/>
       <c r="DB65" s="1"/>
     </row>
-    <row r="66" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:106">
       <c r="A66" s="11" t="s">
         <v>519</v>
       </c>
@@ -11645,7 +11702,7 @@
       <c r="DA66" s="1"/>
       <c r="DB66" s="1"/>
     </row>
-    <row r="67" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:106">
       <c r="A67" s="1" t="s">
         <v>532</v>
       </c>
@@ -11785,6 +11842,148 @@
         <v>540</v>
       </c>
     </row>
+    <row r="68" spans="1:106">
+      <c r="A68" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I68" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="45">
+        <v>44743</v>
+      </c>
+      <c r="P68" s="45">
+        <v>44749</v>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="29"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ68" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="BA68" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="BB68" s="1">
+        <v>10</v>
+      </c>
+      <c r="BC68" s="1">
+        <v>50</v>
+      </c>
+      <c r="BD68" s="1"/>
+      <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
+      <c r="BG68" s="1"/>
+      <c r="BH68" s="1"/>
+      <c r="BI68" s="1"/>
+      <c r="BJ68" s="1"/>
+      <c r="BK68" s="1"/>
+      <c r="BL68" s="1"/>
+      <c r="BM68" s="1"/>
+      <c r="BN68" s="1"/>
+      <c r="BO68" s="1"/>
+      <c r="BP68" s="1"/>
+      <c r="BQ68" s="1"/>
+      <c r="BR68" s="1"/>
+      <c r="BS68" s="1"/>
+      <c r="BT68" s="1"/>
+      <c r="BU68" s="1"/>
+      <c r="BV68" s="1"/>
+      <c r="BW68" s="1"/>
+      <c r="BX68" s="1"/>
+      <c r="BY68" s="1"/>
+      <c r="BZ68" s="1"/>
+      <c r="CA68" s="1"/>
+      <c r="CB68" s="1"/>
+      <c r="CC68" s="1"/>
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
+      <c r="CT68" s="1"/>
+      <c r="CU68" s="1"/>
+      <c r="CV68" s="1"/>
+      <c r="CW68" s="1"/>
+      <c r="CX68" s="1"/>
+      <c r="CY68" s="38"/>
+      <c r="CZ68" s="37"/>
+      <c r="DA68" s="26"/>
+      <c r="DB68" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="557">
   <si>
     <t>Environment</t>
   </si>
@@ -1764,9 +1764,6 @@
     <t>g_golatkar@outlook.com</t>
   </si>
   <si>
-    <t>TestInvite</t>
-  </si>
-  <si>
     <t>outlook</t>
   </si>
   <si>
@@ -1831,7 +1828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1882,6 +1879,11 @@
       <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1907,11 +1909,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
@@ -1920,6 +1917,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2001,9 +2003,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2042,20 +2044,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2577,11 +2585,11 @@
       <c r="A10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>555</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>554</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -2603,10 +2611,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DB68"/>
+  <dimension ref="A1:DC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT68" sqref="AT68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2935,20 +2943,20 @@
       <c r="CW1" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="CX1" s="38" t="s">
+      <c r="CX1" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="CY1" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="CY1" s="38" t="s">
+      <c r="CZ1" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="CZ1" s="38" t="s">
+      <c r="DA1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:106">
@@ -2974,7 +2982,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J2" s="4"/>
@@ -3100,7 +3108,7 @@
       <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J3" s="14"/>
@@ -3304,7 +3312,7 @@
       <c r="H4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J4" s="14"/>
@@ -3442,7 +3450,7 @@
       <c r="H5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3582,7 +3590,7 @@
       <c r="H6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3712,7 +3720,7 @@
       <c r="H7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J7" s="14"/>
@@ -3842,7 +3850,7 @@
       <c r="H8" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3974,7 +3982,7 @@
       <c r="H9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J9" s="1"/>
@@ -4110,7 +4118,7 @@
         <v>188</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4248,7 +4256,7 @@
         <v>193</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4382,7 +4390,7 @@
         <v>196</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J12" s="21"/>
@@ -4514,7 +4522,7 @@
         <v>199</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J13" s="21"/>
@@ -4646,7 +4654,7 @@
         <v>202</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J14" s="21"/>
@@ -4778,8 +4786,8 @@
         <v>205</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="42" t="s">
-        <v>531</v>
+      <c r="I15" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>254</v>
@@ -4930,7 +4938,7 @@
         <v>226</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J16" s="21"/>
@@ -5077,7 +5085,7 @@
       <c r="H17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J17" s="14"/>
@@ -5203,7 +5211,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5333,7 +5341,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J19" s="14"/>
@@ -5461,7 +5469,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J20" s="14"/>
@@ -5597,7 +5605,7 @@
       <c r="H21" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J21" s="14"/>
@@ -5733,7 +5741,7 @@
       <c r="H22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J22" s="14"/>
@@ -5865,7 +5873,7 @@
       <c r="H23" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J23" s="14"/>
@@ -6001,7 +6009,7 @@
       <c r="H24" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J24" s="14"/>
@@ -6135,7 +6143,7 @@
       <c r="H25" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J25" s="14"/>
@@ -6269,7 +6277,7 @@
       <c r="H26" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J26" s="14"/>
@@ -6403,7 +6411,7 @@
       <c r="H27" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J27" s="14"/>
@@ -6535,7 +6543,7 @@
       <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J28" s="14"/>
@@ -6667,7 +6675,7 @@
       <c r="H29" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J29" s="14"/>
@@ -6801,7 +6809,7 @@
       <c r="H30" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J30" s="14"/>
@@ -6937,7 +6945,7 @@
       <c r="H31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J31" s="14"/>
@@ -7073,7 +7081,7 @@
       <c r="H32" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J32" s="17"/>
@@ -7203,7 +7211,7 @@
         <v>527</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="44" t="s">
         <v>531</v>
       </c>
       <c r="J33" s="1"/>
@@ -7325,7 +7333,7 @@
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J34" s="32" t="s">
@@ -7491,7 +7499,7 @@
       <c r="H35" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J35" s="1"/>
@@ -7627,7 +7635,7 @@
       <c r="H36" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J36" s="1"/>
@@ -7763,7 +7771,7 @@
       <c r="H37" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J37" s="1"/>
@@ -7895,7 +7903,7 @@
       <c r="H38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J38" s="1"/>
@@ -8027,7 +8035,7 @@
       <c r="H39" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J39" s="1"/>
@@ -8159,7 +8167,7 @@
       <c r="H40" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J40" s="1"/>
@@ -8291,7 +8299,7 @@
       <c r="H41" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J41" s="1"/>
@@ -8423,7 +8431,7 @@
       <c r="H42" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J42" s="1"/>
@@ -8555,7 +8563,7 @@
       <c r="H43" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J43" s="1"/>
@@ -8687,7 +8695,7 @@
       <c r="H44" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J44" s="1"/>
@@ -8817,7 +8825,7 @@
         <v>423</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J45" s="1"/>
@@ -8947,7 +8955,7 @@
         <v>427</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J46" s="1"/>
@@ -9077,7 +9085,7 @@
         <v>431</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J47" s="1"/>
@@ -9207,7 +9215,7 @@
         <v>435</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J48" s="1"/>
@@ -9339,7 +9347,7 @@
       <c r="H49" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J49" s="1"/>
@@ -9471,7 +9479,7 @@
       <c r="H50" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J50" s="1"/>
@@ -9603,7 +9611,7 @@
       <c r="H51" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1"/>
@@ -9735,7 +9743,7 @@
       <c r="H52" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J52" s="1"/>
@@ -9865,7 +9873,7 @@
         <v>459</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J53" s="1"/>
@@ -9995,7 +10003,7 @@
         <v>463</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J54" s="1"/>
@@ -10127,7 +10135,7 @@
       <c r="H55" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J55" s="1"/>
@@ -10259,7 +10267,7 @@
       <c r="H56" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J56" s="1"/>
@@ -10389,7 +10397,7 @@
         <v>477</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J57" s="1"/>
@@ -10521,7 +10529,7 @@
         <v>482</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="43" t="s">
+      <c r="I58" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J58" s="1"/>
@@ -10655,7 +10663,7 @@
       <c r="H59" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I59" s="43" t="s">
+      <c r="I59" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J59" s="1"/>
@@ -10789,7 +10797,7 @@
       <c r="H60" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="I60" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J60" s="1"/>
@@ -10923,7 +10931,7 @@
       <c r="H61" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I61" s="43" t="s">
+      <c r="I61" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J61" s="1"/>
@@ -11057,7 +11065,7 @@
       <c r="H62" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I62" s="43" t="s">
+      <c r="I62" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J62" s="1"/>
@@ -11191,7 +11199,7 @@
       <c r="H63" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J63" s="1"/>
@@ -11325,7 +11333,7 @@
       <c r="H64" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J64" s="1"/>
@@ -11459,7 +11467,7 @@
       <c r="H65" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J65" s="1"/>
@@ -11572,7 +11580,7 @@
       <c r="A66" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -11593,7 +11601,7 @@
       <c r="H66" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J66" s="11"/>
@@ -11637,7 +11645,7 @@
       </c>
       <c r="AU66" s="11"/>
       <c r="AV66" s="11"/>
-      <c r="AW66" s="40"/>
+      <c r="AW66" s="39"/>
       <c r="AX66" s="11"/>
       <c r="AY66" s="11" t="s">
         <v>373</v>
@@ -11696,17 +11704,17 @@
         <v>365</v>
       </c>
       <c r="CW66" s="19"/>
-      <c r="CX66" s="1"/>
-      <c r="CY66" s="1"/>
-      <c r="CZ66" s="1"/>
-      <c r="DA66" s="1"/>
-      <c r="DB66" s="1"/>
+      <c r="CX66" s="11"/>
+      <c r="CY66" s="11"/>
+      <c r="CZ66" s="11"/>
+      <c r="DA66" s="11"/>
+      <c r="DB66" s="11"/>
     </row>
     <row r="67" spans="1:106">
       <c r="A67" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -11725,7 +11733,7 @@
         <v>534</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -11741,7 +11749,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="37" t="s">
+      <c r="W67" s="2" t="s">
         <v>536</v>
       </c>
       <c r="X67" s="1"/>
@@ -11767,107 +11775,105 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
       <c r="AT67" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
-      <c r="AW67" s="1"/>
+      <c r="AW67" s="29"/>
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
-      <c r="BB67" s="1"/>
-      <c r="BC67" s="1"/>
-      <c r="BD67" s="1"/>
-      <c r="BE67" s="1"/>
-      <c r="BF67" s="1"/>
-      <c r="BG67" s="1"/>
-      <c r="BH67" s="1"/>
-      <c r="BI67" s="1"/>
-      <c r="BJ67" s="1"/>
-      <c r="BK67" s="1"/>
-      <c r="BL67" s="1"/>
-      <c r="BM67" s="1"/>
-      <c r="BN67" s="1"/>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="1"/>
-      <c r="BQ67" s="1"/>
-      <c r="BR67" s="1"/>
-      <c r="BS67" s="1"/>
-      <c r="BT67" s="1"/>
-      <c r="BU67" s="1"/>
-      <c r="BV67" s="1"/>
-      <c r="BW67" s="1"/>
-      <c r="BX67" s="1"/>
-      <c r="BY67" s="1"/>
-      <c r="BZ67" s="1"/>
-      <c r="CA67" s="1"/>
-      <c r="CB67" s="1"/>
-      <c r="CC67" s="1"/>
-      <c r="CD67" s="1"/>
-      <c r="CE67" s="1"/>
-      <c r="CF67" s="1"/>
-      <c r="CG67" s="1"/>
-      <c r="CH67" s="1"/>
-      <c r="CI67" s="1"/>
-      <c r="CJ67" s="1"/>
-      <c r="CK67" s="1"/>
-      <c r="CL67" s="1"/>
-      <c r="CM67" s="1"/>
+      <c r="BB67" s="15"/>
+      <c r="BC67" s="15"/>
+      <c r="BD67" s="15"/>
+      <c r="BE67" s="16"/>
+      <c r="BF67" s="15"/>
+      <c r="BG67" s="15"/>
+      <c r="BH67" s="15"/>
+      <c r="BI67" s="15"/>
+      <c r="BJ67" s="15"/>
+      <c r="BK67" s="15"/>
+      <c r="BL67" s="15"/>
+      <c r="BM67" s="15"/>
+      <c r="BN67" s="15"/>
+      <c r="BO67" s="15"/>
+      <c r="BP67" s="15"/>
+      <c r="BQ67" s="15"/>
+      <c r="BR67" s="15"/>
+      <c r="BS67" s="15"/>
+      <c r="BT67" s="15"/>
+      <c r="BU67" s="15"/>
+      <c r="BV67" s="15"/>
+      <c r="BW67" s="15"/>
+      <c r="BX67" s="15"/>
+      <c r="BY67" s="15"/>
+      <c r="BZ67" s="15"/>
+      <c r="CA67" s="15"/>
+      <c r="CB67" s="16"/>
+      <c r="CC67" s="15"/>
+      <c r="CD67" s="15"/>
+      <c r="CE67" s="15"/>
+      <c r="CF67" s="15"/>
+      <c r="CG67" s="15"/>
+      <c r="CH67" s="15"/>
+      <c r="CI67" s="15"/>
+      <c r="CJ67" s="15"/>
+      <c r="CK67" s="15"/>
+      <c r="CL67" s="15"/>
+      <c r="CM67" s="15"/>
       <c r="CN67" s="1"/>
-      <c r="CO67" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="CP67" s="1"/>
-      <c r="CQ67" s="1"/>
-      <c r="CR67" s="1"/>
-      <c r="CS67" s="1"/>
-      <c r="CT67" s="1"/>
-      <c r="CU67" s="1"/>
+      <c r="CO67" s="16"/>
+      <c r="CP67" s="16"/>
+      <c r="CQ67" s="16"/>
+      <c r="CR67" s="16"/>
+      <c r="CS67" s="16"/>
+      <c r="CT67" s="16"/>
+      <c r="CU67" s="16"/>
       <c r="CV67" s="1"/>
-      <c r="CW67" s="1"/>
+      <c r="CW67" s="16"/>
       <c r="CX67" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="CY67" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="CY67" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="CZ67" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="DA67" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="CZ67" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="DA67" s="26" t="s">
+      <c r="DB67" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="DB67" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:106">
       <c r="A68" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>3</v>
+        <v>547</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>528</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="47" t="s">
         <v>184</v>
       </c>
       <c r="J68" s="1"/>
@@ -11875,10 +11881,10 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="45">
+      <c r="O68" s="41">
         <v>44743</v>
       </c>
-      <c r="P68" s="45">
+      <c r="P68" s="41">
         <v>44749</v>
       </c>
       <c r="Q68" s="1"/>
@@ -11911,7 +11917,7 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
@@ -11921,10 +11927,10 @@
         <v>1</v>
       </c>
       <c r="AZ68" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="BA68" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="BA68" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="BB68" s="1">
         <v>10</v>
@@ -11969,7 +11975,9 @@
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
-      <c r="CO68" s="1"/>
+      <c r="CO68" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="CP68" s="1"/>
       <c r="CQ68" s="1"/>
       <c r="CR68" s="1"/>
@@ -11979,10 +11987,119 @@
       <c r="CV68" s="1"/>
       <c r="CW68" s="1"/>
       <c r="CX68" s="1"/>
-      <c r="CY68" s="38"/>
-      <c r="CZ68" s="37"/>
+      <c r="CY68" s="37"/>
+      <c r="CZ68" s="36"/>
       <c r="DA68" s="26"/>
       <c r="DB68" s="1"/>
+    </row>
+    <row r="82" spans="1:107">
+      <c r="A82" s="48"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="48"/>
+      <c r="T82" s="48"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="48"/>
+      <c r="W82" s="50"/>
+      <c r="X82" s="48"/>
+      <c r="Y82" s="48"/>
+      <c r="Z82" s="48"/>
+      <c r="AA82" s="48"/>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="48"/>
+      <c r="AD82" s="48"/>
+      <c r="AE82" s="48"/>
+      <c r="AF82" s="48"/>
+      <c r="AG82" s="48"/>
+      <c r="AH82" s="48"/>
+      <c r="AI82" s="48"/>
+      <c r="AJ82" s="48"/>
+      <c r="AK82" s="48"/>
+      <c r="AL82" s="48"/>
+      <c r="AM82" s="48"/>
+      <c r="AN82" s="48"/>
+      <c r="AO82" s="48"/>
+      <c r="AP82" s="48"/>
+      <c r="AQ82" s="48"/>
+      <c r="AR82" s="48"/>
+      <c r="AS82" s="48"/>
+      <c r="AT82" s="48"/>
+      <c r="AU82" s="48"/>
+      <c r="AV82" s="48"/>
+      <c r="AW82" s="48"/>
+      <c r="AX82" s="48"/>
+      <c r="AY82" s="48"/>
+      <c r="AZ82" s="48"/>
+      <c r="BA82" s="48"/>
+      <c r="BB82" s="48"/>
+      <c r="BC82" s="48"/>
+      <c r="BD82" s="48"/>
+      <c r="BE82" s="48"/>
+      <c r="BF82" s="48"/>
+      <c r="BG82" s="48"/>
+      <c r="BH82" s="48"/>
+      <c r="BI82" s="48"/>
+      <c r="BJ82" s="48"/>
+      <c r="BK82" s="48"/>
+      <c r="BL82" s="48"/>
+      <c r="BM82" s="48"/>
+      <c r="BN82" s="48"/>
+      <c r="BO82" s="48"/>
+      <c r="BP82" s="48"/>
+      <c r="BQ82" s="48"/>
+      <c r="BR82" s="48"/>
+      <c r="BS82" s="48"/>
+      <c r="BT82" s="48"/>
+      <c r="BU82" s="48"/>
+      <c r="BV82" s="48"/>
+      <c r="BW82" s="48"/>
+      <c r="BX82" s="48"/>
+      <c r="BY82" s="48"/>
+      <c r="BZ82" s="48"/>
+      <c r="CA82" s="48"/>
+      <c r="CB82" s="48"/>
+      <c r="CC82" s="48"/>
+      <c r="CD82" s="48"/>
+      <c r="CE82" s="48"/>
+      <c r="CF82" s="48"/>
+      <c r="CG82" s="48"/>
+      <c r="CH82" s="48"/>
+      <c r="CI82" s="48"/>
+      <c r="CJ82" s="48"/>
+      <c r="CK82" s="48"/>
+      <c r="CL82" s="48"/>
+      <c r="CM82" s="48"/>
+      <c r="CN82" s="48"/>
+      <c r="CO82" s="48"/>
+      <c r="CP82" s="48"/>
+      <c r="CQ82" s="48"/>
+      <c r="CR82" s="48"/>
+      <c r="CS82" s="48"/>
+      <c r="CT82" s="48"/>
+      <c r="CU82" s="48"/>
+      <c r="CV82" s="48"/>
+      <c r="CW82" s="48"/>
+      <c r="CX82" s="48"/>
+      <c r="CY82" s="51"/>
+      <c r="CZ82" s="50"/>
+      <c r="DA82" s="52"/>
+      <c r="DB82" s="48"/>
+      <c r="DC82" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11991,8 +12108,11 @@
     <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
     <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com"/>
     <hyperlink ref="W14" r:id="rId4"/>
+    <hyperlink ref="W67" r:id="rId5"/>
+    <hyperlink ref="CZ67" r:id="rId6"/>
+    <hyperlink ref="DA67" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="558">
   <si>
     <t>Environment</t>
   </si>
@@ -1764,6 +1764,9 @@
     <t>g_golatkar@outlook.com</t>
   </si>
   <si>
+    <t>TestInvite</t>
+  </si>
+  <si>
     <t>outlook</t>
   </si>
   <si>
@@ -1828,7 +1831,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1879,11 +1882,6 @@
       <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1909,6 +1907,11 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
@@ -1917,11 +1920,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2003,9 +2001,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2044,26 +2042,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2585,11 +2577,11 @@
       <c r="A10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>555</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>554</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -2611,10 +2603,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DC82"/>
+  <dimension ref="A1:DB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2943,20 +2935,20 @@
       <c r="CW1" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="CX1" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="CY1" s="37" t="s">
+      <c r="CX1" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="CZ1" s="37" t="s">
+      <c r="CY1" s="38" t="s">
         <v>542</v>
       </c>
+      <c r="CZ1" s="38" t="s">
+        <v>543</v>
+      </c>
       <c r="DA1" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:106">
@@ -2982,7 +2974,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J2" s="4"/>
@@ -3108,7 +3100,7 @@
       <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J3" s="14"/>
@@ -3146,7 +3138,9 @@
       <c r="AP3" s="15"/>
       <c r="AQ3" s="15"/>
       <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
+      <c r="AS3" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="AT3" s="15" t="s">
         <v>31</v>
       </c>
@@ -3312,7 +3306,7 @@
       <c r="H4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J4" s="14"/>
@@ -3450,7 +3444,7 @@
       <c r="H5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3590,7 +3584,7 @@
       <c r="H6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3720,7 +3714,7 @@
       <c r="H7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J7" s="14"/>
@@ -3850,7 +3844,7 @@
       <c r="H8" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3982,7 +3976,7 @@
       <c r="H9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J9" s="1"/>
@@ -4118,7 +4112,7 @@
         <v>188</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4256,7 +4250,7 @@
         <v>193</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4390,7 +4384,7 @@
         <v>196</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J12" s="21"/>
@@ -4522,7 +4516,7 @@
         <v>199</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J13" s="21"/>
@@ -4654,7 +4648,7 @@
         <v>202</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J14" s="21"/>
@@ -4786,8 +4780,8 @@
         <v>205</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="45" t="s">
-        <v>184</v>
+      <c r="I15" s="42" t="s">
+        <v>531</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>254</v>
@@ -4938,7 +4932,7 @@
         <v>226</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J16" s="21"/>
@@ -5085,7 +5079,7 @@
       <c r="H17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J17" s="14"/>
@@ -5211,7 +5205,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5341,7 +5335,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J19" s="14"/>
@@ -5456,7 +5450,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5469,7 +5463,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J20" s="14"/>
@@ -5588,7 +5582,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>290</v>
@@ -5605,7 +5599,7 @@
       <c r="H21" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J21" s="14"/>
@@ -5724,7 +5718,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>290</v>
@@ -5741,7 +5735,7 @@
       <c r="H22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J22" s="14"/>
@@ -5856,7 +5850,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>290</v>
@@ -5873,7 +5867,7 @@
       <c r="H23" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J23" s="14"/>
@@ -5992,7 +5986,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>290</v>
@@ -6009,7 +6003,7 @@
       <c r="H24" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J24" s="14"/>
@@ -6126,7 +6120,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>290</v>
@@ -6143,7 +6137,7 @@
       <c r="H25" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J25" s="14"/>
@@ -6260,7 +6254,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>290</v>
@@ -6277,7 +6271,7 @@
       <c r="H26" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J26" s="14"/>
@@ -6394,7 +6388,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>290</v>
@@ -6411,7 +6405,7 @@
       <c r="H27" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J27" s="14"/>
@@ -6526,7 +6520,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>290</v>
@@ -6543,7 +6537,7 @@
       <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J28" s="14"/>
@@ -6658,7 +6652,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>290</v>
@@ -6675,7 +6669,7 @@
       <c r="H29" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J29" s="14"/>
@@ -6792,7 +6786,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>290</v>
@@ -6809,7 +6803,7 @@
       <c r="H30" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J30" s="14"/>
@@ -6928,7 +6922,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>290</v>
@@ -6945,7 +6939,7 @@
       <c r="H31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J31" s="14"/>
@@ -7063,8 +7057,8 @@
       <c r="B32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>15</v>
+      <c r="C32" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>290</v>
@@ -7081,7 +7075,7 @@
       <c r="H32" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J32" s="17"/>
@@ -7211,7 +7205,7 @@
         <v>527</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="44" t="s">
+      <c r="I33" s="36" t="s">
         <v>531</v>
       </c>
       <c r="J33" s="1"/>
@@ -7319,8 +7313,8 @@
       <c r="B34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>15</v>
+      <c r="C34" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>259</v>
@@ -7333,7 +7327,7 @@
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J34" s="32" t="s">
@@ -7482,10 +7476,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>256</v>
@@ -7499,7 +7493,7 @@
       <c r="H35" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J35" s="1"/>
@@ -7618,10 +7612,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>256</v>
@@ -7635,7 +7629,7 @@
       <c r="H36" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J36" s="1"/>
@@ -7754,10 +7748,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>256</v>
@@ -7771,7 +7765,7 @@
       <c r="H37" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J37" s="1"/>
@@ -7886,10 +7880,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>256</v>
@@ -7903,7 +7897,7 @@
       <c r="H38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J38" s="1"/>
@@ -8018,10 +8012,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>256</v>
@@ -8035,7 +8029,7 @@
       <c r="H39" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J39" s="1"/>
@@ -8150,10 +8144,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>256</v>
@@ -8167,7 +8161,7 @@
       <c r="H40" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J40" s="1"/>
@@ -8282,10 +8276,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>256</v>
@@ -8299,7 +8293,7 @@
       <c r="H41" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J41" s="1"/>
@@ -8414,10 +8408,10 @@
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>256</v>
@@ -8431,7 +8425,7 @@
       <c r="H42" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I42" s="45" t="s">
+      <c r="I42" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J42" s="1"/>
@@ -8546,10 +8540,10 @@
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>256</v>
@@ -8563,7 +8557,7 @@
       <c r="H43" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J43" s="1"/>
@@ -8678,10 +8672,10 @@
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>256</v>
@@ -8695,7 +8689,7 @@
       <c r="H44" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J44" s="1"/>
@@ -8810,10 +8804,10 @@
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>256</v>
@@ -8825,7 +8819,7 @@
         <v>423</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="45" t="s">
+      <c r="I45" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J45" s="1"/>
@@ -8940,10 +8934,10 @@
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>256</v>
@@ -8955,7 +8949,7 @@
         <v>427</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J46" s="1"/>
@@ -9070,10 +9064,10 @@
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>256</v>
@@ -9085,7 +9079,7 @@
         <v>431</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="45" t="s">
+      <c r="I47" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J47" s="1"/>
@@ -9200,10 +9194,10 @@
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>256</v>
@@ -9215,7 +9209,7 @@
         <v>435</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J48" s="1"/>
@@ -9330,10 +9324,10 @@
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>256</v>
@@ -9347,7 +9341,7 @@
       <c r="H49" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J49" s="1"/>
@@ -9462,10 +9456,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>256</v>
@@ -9479,7 +9473,7 @@
       <c r="H50" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I50" s="45" t="s">
+      <c r="I50" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J50" s="1"/>
@@ -9594,10 +9588,10 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>256</v>
@@ -9611,7 +9605,7 @@
       <c r="H51" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I51" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1"/>
@@ -9726,10 +9720,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>256</v>
@@ -9743,7 +9737,7 @@
       <c r="H52" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I52" s="45" t="s">
+      <c r="I52" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J52" s="1"/>
@@ -9858,10 +9852,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>256</v>
@@ -9873,7 +9867,7 @@
         <v>459</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="45" t="s">
+      <c r="I53" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J53" s="1"/>
@@ -9988,10 +9982,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>256</v>
@@ -10003,7 +9997,7 @@
         <v>463</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="45" t="s">
+      <c r="I54" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J54" s="1"/>
@@ -10118,10 +10112,10 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>256</v>
@@ -10135,7 +10129,7 @@
       <c r="H55" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I55" s="45" t="s">
+      <c r="I55" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J55" s="1"/>
@@ -10250,10 +10244,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>256</v>
@@ -10267,7 +10261,7 @@
       <c r="H56" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J56" s="1"/>
@@ -10382,10 +10376,10 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>256</v>
@@ -10397,7 +10391,7 @@
         <v>477</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="45" t="s">
+      <c r="I57" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J57" s="1"/>
@@ -10514,10 +10508,10 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>256</v>
@@ -10529,7 +10523,7 @@
         <v>482</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="45" t="s">
+      <c r="I58" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J58" s="1"/>
@@ -10646,10 +10640,10 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>256</v>
@@ -10663,7 +10657,7 @@
       <c r="H59" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I59" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J59" s="1"/>
@@ -10780,10 +10774,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>256</v>
@@ -10797,7 +10791,7 @@
       <c r="H60" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J60" s="1"/>
@@ -10914,10 +10908,10 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>256</v>
@@ -10931,7 +10925,7 @@
       <c r="H61" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I61" s="45" t="s">
+      <c r="I61" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J61" s="1"/>
@@ -11048,10 +11042,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>256</v>
@@ -11065,7 +11059,7 @@
       <c r="H62" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I62" s="45" t="s">
+      <c r="I62" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J62" s="1"/>
@@ -11182,10 +11176,10 @@
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>256</v>
@@ -11199,7 +11193,7 @@
       <c r="H63" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I63" s="45" t="s">
+      <c r="I63" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J63" s="1"/>
@@ -11316,10 +11310,10 @@
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>256</v>
@@ -11333,7 +11327,7 @@
       <c r="H64" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I64" s="45" t="s">
+      <c r="I64" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J64" s="1"/>
@@ -11450,10 +11444,10 @@
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>528</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>256</v>
@@ -11467,7 +11461,7 @@
       <c r="H65" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I65" s="45" t="s">
+      <c r="I65" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J65" s="1"/>
@@ -11580,14 +11574,14 @@
       <c r="A66" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>17</v>
+      <c r="C66" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>256</v>
@@ -11601,7 +11595,7 @@
       <c r="H66" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="I66" s="45" t="s">
+      <c r="I66" s="43" t="s">
         <v>184</v>
       </c>
       <c r="J66" s="11"/>
@@ -11645,7 +11639,7 @@
       </c>
       <c r="AU66" s="11"/>
       <c r="AV66" s="11"/>
-      <c r="AW66" s="39"/>
+      <c r="AW66" s="40"/>
       <c r="AX66" s="11"/>
       <c r="AY66" s="11" t="s">
         <v>373</v>
@@ -11704,17 +11698,17 @@
         <v>365</v>
       </c>
       <c r="CW66" s="19"/>
-      <c r="CX66" s="11"/>
-      <c r="CY66" s="11"/>
-      <c r="CZ66" s="11"/>
-      <c r="DA66" s="11"/>
-      <c r="DB66" s="11"/>
+      <c r="CX66" s="1"/>
+      <c r="CY66" s="1"/>
+      <c r="CZ66" s="1"/>
+      <c r="DA66" s="1"/>
+      <c r="DB66" s="1"/>
     </row>
     <row r="67" spans="1:106">
       <c r="A67" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -11733,7 +11727,7 @@
         <v>534</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="46"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -11749,7 +11743,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="2" t="s">
+      <c r="W67" s="37" t="s">
         <v>536</v>
       </c>
       <c r="X67" s="1"/>
@@ -11775,105 +11769,107 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
       <c r="AT67" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
-      <c r="AW67" s="29"/>
+      <c r="AW67" s="1"/>
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
-      <c r="BB67" s="15"/>
-      <c r="BC67" s="15"/>
-      <c r="BD67" s="15"/>
-      <c r="BE67" s="16"/>
-      <c r="BF67" s="15"/>
-      <c r="BG67" s="15"/>
-      <c r="BH67" s="15"/>
-      <c r="BI67" s="15"/>
-      <c r="BJ67" s="15"/>
-      <c r="BK67" s="15"/>
-      <c r="BL67" s="15"/>
-      <c r="BM67" s="15"/>
-      <c r="BN67" s="15"/>
-      <c r="BO67" s="15"/>
-      <c r="BP67" s="15"/>
-      <c r="BQ67" s="15"/>
-      <c r="BR67" s="15"/>
-      <c r="BS67" s="15"/>
-      <c r="BT67" s="15"/>
-      <c r="BU67" s="15"/>
-      <c r="BV67" s="15"/>
-      <c r="BW67" s="15"/>
-      <c r="BX67" s="15"/>
-      <c r="BY67" s="15"/>
-      <c r="BZ67" s="15"/>
-      <c r="CA67" s="15"/>
-      <c r="CB67" s="16"/>
-      <c r="CC67" s="15"/>
-      <c r="CD67" s="15"/>
-      <c r="CE67" s="15"/>
-      <c r="CF67" s="15"/>
-      <c r="CG67" s="15"/>
-      <c r="CH67" s="15"/>
-      <c r="CI67" s="15"/>
-      <c r="CJ67" s="15"/>
-      <c r="CK67" s="15"/>
-      <c r="CL67" s="15"/>
-      <c r="CM67" s="15"/>
+      <c r="BB67" s="1"/>
+      <c r="BC67" s="1"/>
+      <c r="BD67" s="1"/>
+      <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
+      <c r="BG67" s="1"/>
+      <c r="BH67" s="1"/>
+      <c r="BI67" s="1"/>
+      <c r="BJ67" s="1"/>
+      <c r="BK67" s="1"/>
+      <c r="BL67" s="1"/>
+      <c r="BM67" s="1"/>
+      <c r="BN67" s="1"/>
+      <c r="BO67" s="1"/>
+      <c r="BP67" s="1"/>
+      <c r="BQ67" s="1"/>
+      <c r="BR67" s="1"/>
+      <c r="BS67" s="1"/>
+      <c r="BT67" s="1"/>
+      <c r="BU67" s="1"/>
+      <c r="BV67" s="1"/>
+      <c r="BW67" s="1"/>
+      <c r="BX67" s="1"/>
+      <c r="BY67" s="1"/>
+      <c r="BZ67" s="1"/>
+      <c r="CA67" s="1"/>
+      <c r="CB67" s="1"/>
+      <c r="CC67" s="1"/>
+      <c r="CD67" s="1"/>
+      <c r="CE67" s="1"/>
+      <c r="CF67" s="1"/>
+      <c r="CG67" s="1"/>
+      <c r="CH67" s="1"/>
+      <c r="CI67" s="1"/>
+      <c r="CJ67" s="1"/>
+      <c r="CK67" s="1"/>
+      <c r="CL67" s="1"/>
+      <c r="CM67" s="1"/>
       <c r="CN67" s="1"/>
-      <c r="CO67" s="16"/>
-      <c r="CP67" s="16"/>
-      <c r="CQ67" s="16"/>
-      <c r="CR67" s="16"/>
-      <c r="CS67" s="16"/>
-      <c r="CT67" s="16"/>
-      <c r="CU67" s="16"/>
+      <c r="CO67" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="CP67" s="1"/>
+      <c r="CQ67" s="1"/>
+      <c r="CR67" s="1"/>
+      <c r="CS67" s="1"/>
+      <c r="CT67" s="1"/>
+      <c r="CU67" s="1"/>
       <c r="CV67" s="1"/>
-      <c r="CW67" s="16"/>
+      <c r="CW67" s="1"/>
       <c r="CX67" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="CY67" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="CZ67" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="CY67" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="CZ67" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="DA67" s="2" t="s">
-        <v>538</v>
+      <c r="DA67" s="26" t="s">
+        <v>539</v>
       </c>
       <c r="DB67" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:106">
       <c r="A68" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>11</v>
+        <v>548</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>528</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I68" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="I68" s="44" t="s">
         <v>184</v>
       </c>
       <c r="J68" s="1"/>
@@ -11881,10 +11877,10 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="41">
+      <c r="O68" s="45">
         <v>44743</v>
       </c>
-      <c r="P68" s="41">
+      <c r="P68" s="45">
         <v>44749</v>
       </c>
       <c r="Q68" s="1"/>
@@ -11917,7 +11913,7 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
@@ -11927,10 +11923,10 @@
         <v>1</v>
       </c>
       <c r="AZ68" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="BA68" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BB68" s="1">
         <v>10</v>
@@ -11975,9 +11971,7 @@
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
-      <c r="CO68" s="1" t="s">
-        <v>546</v>
-      </c>
+      <c r="CO68" s="1"/>
       <c r="CP68" s="1"/>
       <c r="CQ68" s="1"/>
       <c r="CR68" s="1"/>
@@ -11987,119 +11981,10 @@
       <c r="CV68" s="1"/>
       <c r="CW68" s="1"/>
       <c r="CX68" s="1"/>
-      <c r="CY68" s="37"/>
-      <c r="CZ68" s="36"/>
+      <c r="CY68" s="38"/>
+      <c r="CZ68" s="37"/>
       <c r="DA68" s="26"/>
       <c r="DB68" s="1"/>
-    </row>
-    <row r="82" spans="1:107">
-      <c r="A82" s="48"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="48"/>
-      <c r="S82" s="48"/>
-      <c r="T82" s="48"/>
-      <c r="U82" s="48"/>
-      <c r="V82" s="48"/>
-      <c r="W82" s="50"/>
-      <c r="X82" s="48"/>
-      <c r="Y82" s="48"/>
-      <c r="Z82" s="48"/>
-      <c r="AA82" s="48"/>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="48"/>
-      <c r="AD82" s="48"/>
-      <c r="AE82" s="48"/>
-      <c r="AF82" s="48"/>
-      <c r="AG82" s="48"/>
-      <c r="AH82" s="48"/>
-      <c r="AI82" s="48"/>
-      <c r="AJ82" s="48"/>
-      <c r="AK82" s="48"/>
-      <c r="AL82" s="48"/>
-      <c r="AM82" s="48"/>
-      <c r="AN82" s="48"/>
-      <c r="AO82" s="48"/>
-      <c r="AP82" s="48"/>
-      <c r="AQ82" s="48"/>
-      <c r="AR82" s="48"/>
-      <c r="AS82" s="48"/>
-      <c r="AT82" s="48"/>
-      <c r="AU82" s="48"/>
-      <c r="AV82" s="48"/>
-      <c r="AW82" s="48"/>
-      <c r="AX82" s="48"/>
-      <c r="AY82" s="48"/>
-      <c r="AZ82" s="48"/>
-      <c r="BA82" s="48"/>
-      <c r="BB82" s="48"/>
-      <c r="BC82" s="48"/>
-      <c r="BD82" s="48"/>
-      <c r="BE82" s="48"/>
-      <c r="BF82" s="48"/>
-      <c r="BG82" s="48"/>
-      <c r="BH82" s="48"/>
-      <c r="BI82" s="48"/>
-      <c r="BJ82" s="48"/>
-      <c r="BK82" s="48"/>
-      <c r="BL82" s="48"/>
-      <c r="BM82" s="48"/>
-      <c r="BN82" s="48"/>
-      <c r="BO82" s="48"/>
-      <c r="BP82" s="48"/>
-      <c r="BQ82" s="48"/>
-      <c r="BR82" s="48"/>
-      <c r="BS82" s="48"/>
-      <c r="BT82" s="48"/>
-      <c r="BU82" s="48"/>
-      <c r="BV82" s="48"/>
-      <c r="BW82" s="48"/>
-      <c r="BX82" s="48"/>
-      <c r="BY82" s="48"/>
-      <c r="BZ82" s="48"/>
-      <c r="CA82" s="48"/>
-      <c r="CB82" s="48"/>
-      <c r="CC82" s="48"/>
-      <c r="CD82" s="48"/>
-      <c r="CE82" s="48"/>
-      <c r="CF82" s="48"/>
-      <c r="CG82" s="48"/>
-      <c r="CH82" s="48"/>
-      <c r="CI82" s="48"/>
-      <c r="CJ82" s="48"/>
-      <c r="CK82" s="48"/>
-      <c r="CL82" s="48"/>
-      <c r="CM82" s="48"/>
-      <c r="CN82" s="48"/>
-      <c r="CO82" s="48"/>
-      <c r="CP82" s="48"/>
-      <c r="CQ82" s="48"/>
-      <c r="CR82" s="48"/>
-      <c r="CS82" s="48"/>
-      <c r="CT82" s="48"/>
-      <c r="CU82" s="48"/>
-      <c r="CV82" s="48"/>
-      <c r="CW82" s="48"/>
-      <c r="CX82" s="48"/>
-      <c r="CY82" s="51"/>
-      <c r="CZ82" s="50"/>
-      <c r="DA82" s="52"/>
-      <c r="DB82" s="48"/>
-      <c r="DC82" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12108,11 +11993,8 @@
     <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
     <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com"/>
     <hyperlink ref="W14" r:id="rId4"/>
-    <hyperlink ref="W67" r:id="rId5"/>
-    <hyperlink ref="CZ67" r:id="rId6"/>
-    <hyperlink ref="DA67" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="557">
   <si>
     <t>Environment</t>
   </si>
@@ -1764,9 +1764,6 @@
     <t>g_golatkar@outlook.com</t>
   </si>
   <si>
-    <t>TestInvite</t>
-  </si>
-  <si>
     <t>outlook</t>
   </si>
   <si>
@@ -1831,7 +1828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1882,6 +1879,11 @@
       <name val="-Apple-System"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1907,11 +1909,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
@@ -1920,6 +1917,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2001,9 +2003,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2042,20 +2044,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2577,11 +2585,11 @@
       <c r="A10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>556</v>
-      </c>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>555</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>554</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -2603,10 +2611,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DB68"/>
+  <dimension ref="A1:DC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2935,20 +2943,20 @@
       <c r="CW1" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="CX1" s="38" t="s">
+      <c r="CX1" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="CY1" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="CY1" s="38" t="s">
+      <c r="CZ1" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="CZ1" s="38" t="s">
+      <c r="DA1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:106">
@@ -2974,7 +2982,7 @@
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J2" s="4"/>
@@ -3100,7 +3108,7 @@
       <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J3" s="14"/>
@@ -3138,9 +3146,7 @@
       <c r="AP3" s="15"/>
       <c r="AQ3" s="15"/>
       <c r="AR3" s="15"/>
-      <c r="AS3" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="AS3" s="15"/>
       <c r="AT3" s="15" t="s">
         <v>31</v>
       </c>
@@ -3306,7 +3312,7 @@
       <c r="H4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J4" s="14"/>
@@ -3444,7 +3450,7 @@
       <c r="H5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3584,7 +3590,7 @@
       <c r="H6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3714,7 +3720,7 @@
       <c r="H7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J7" s="14"/>
@@ -3844,7 +3850,7 @@
       <c r="H8" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3976,7 +3982,7 @@
       <c r="H9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J9" s="1"/>
@@ -4112,7 +4118,7 @@
         <v>188</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4250,7 +4256,7 @@
         <v>193</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4384,7 +4390,7 @@
         <v>196</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J12" s="21"/>
@@ -4516,7 +4522,7 @@
         <v>199</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J13" s="21"/>
@@ -4648,7 +4654,7 @@
         <v>202</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J14" s="21"/>
@@ -4780,8 +4786,8 @@
         <v>205</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="42" t="s">
-        <v>531</v>
+      <c r="I15" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>254</v>
@@ -4932,7 +4938,7 @@
         <v>226</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J16" s="21"/>
@@ -5079,7 +5085,7 @@
       <c r="H17" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J17" s="14"/>
@@ -5205,7 +5211,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5335,7 +5341,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J19" s="14"/>
@@ -5450,7 +5456,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5463,7 +5469,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J20" s="14"/>
@@ -5582,7 +5588,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>290</v>
@@ -5599,7 +5605,7 @@
       <c r="H21" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J21" s="14"/>
@@ -5718,7 +5724,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>290</v>
@@ -5735,7 +5741,7 @@
       <c r="H22" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J22" s="14"/>
@@ -5850,7 +5856,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>290</v>
@@ -5867,7 +5873,7 @@
       <c r="H23" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J23" s="14"/>
@@ -5986,7 +5992,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>290</v>
@@ -6003,7 +6009,7 @@
       <c r="H24" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J24" s="14"/>
@@ -6120,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>290</v>
@@ -6137,7 +6143,7 @@
       <c r="H25" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J25" s="14"/>
@@ -6254,7 +6260,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>290</v>
@@ -6271,7 +6277,7 @@
       <c r="H26" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J26" s="14"/>
@@ -6388,7 +6394,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>290</v>
@@ -6405,7 +6411,7 @@
       <c r="H27" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J27" s="14"/>
@@ -6520,7 +6526,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>290</v>
@@ -6537,7 +6543,7 @@
       <c r="H28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J28" s="14"/>
@@ -6652,7 +6658,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>290</v>
@@ -6669,7 +6675,7 @@
       <c r="H29" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I29" s="43" t="s">
+      <c r="I29" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J29" s="14"/>
@@ -6786,7 +6792,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>290</v>
@@ -6803,7 +6809,7 @@
       <c r="H30" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I30" s="43" t="s">
+      <c r="I30" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J30" s="14"/>
@@ -6922,7 +6928,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>290</v>
@@ -6939,7 +6945,7 @@
       <c r="H31" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I31" s="43" t="s">
+      <c r="I31" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J31" s="14"/>
@@ -7057,8 +7063,8 @@
       <c r="B32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>528</v>
+      <c r="C32" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>290</v>
@@ -7075,7 +7081,7 @@
       <c r="H32" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="I32" s="43" t="s">
+      <c r="I32" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J32" s="17"/>
@@ -7205,7 +7211,7 @@
         <v>527</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="36" t="s">
+      <c r="I33" s="44" t="s">
         <v>531</v>
       </c>
       <c r="J33" s="1"/>
@@ -7313,8 +7319,8 @@
       <c r="B34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>528</v>
+      <c r="C34" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>259</v>
@@ -7327,7 +7333,7 @@
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J34" s="32" t="s">
@@ -7476,10 +7482,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>256</v>
@@ -7493,7 +7499,7 @@
       <c r="H35" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J35" s="1"/>
@@ -7612,10 +7618,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>256</v>
@@ -7629,7 +7635,7 @@
       <c r="H36" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J36" s="1"/>
@@ -7748,10 +7754,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>256</v>
@@ -7765,7 +7771,7 @@
       <c r="H37" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J37" s="1"/>
@@ -7880,10 +7886,10 @@
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>256</v>
@@ -7897,7 +7903,7 @@
       <c r="H38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J38" s="1"/>
@@ -8012,10 +8018,10 @@
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>256</v>
@@ -8029,7 +8035,7 @@
       <c r="H39" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J39" s="1"/>
@@ -8144,10 +8150,10 @@
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>256</v>
@@ -8161,7 +8167,7 @@
       <c r="H40" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J40" s="1"/>
@@ -8276,10 +8282,10 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>256</v>
@@ -8293,7 +8299,7 @@
       <c r="H41" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J41" s="1"/>
@@ -8408,10 +8414,10 @@
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>256</v>
@@ -8425,7 +8431,7 @@
       <c r="H42" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I42" s="43" t="s">
+      <c r="I42" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J42" s="1"/>
@@ -8540,10 +8546,10 @@
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>256</v>
@@ -8557,7 +8563,7 @@
       <c r="H43" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J43" s="1"/>
@@ -8672,10 +8678,10 @@
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>256</v>
@@ -8689,7 +8695,7 @@
       <c r="H44" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I44" s="43" t="s">
+      <c r="I44" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J44" s="1"/>
@@ -8804,10 +8810,10 @@
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>256</v>
@@ -8819,7 +8825,7 @@
         <v>423</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J45" s="1"/>
@@ -8934,10 +8940,10 @@
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>256</v>
@@ -8949,7 +8955,7 @@
         <v>427</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J46" s="1"/>
@@ -9064,10 +9070,10 @@
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>256</v>
@@ -9079,7 +9085,7 @@
         <v>431</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="43" t="s">
+      <c r="I47" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J47" s="1"/>
@@ -9194,10 +9200,10 @@
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>256</v>
@@ -9209,7 +9215,7 @@
         <v>435</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J48" s="1"/>
@@ -9324,10 +9330,10 @@
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>256</v>
@@ -9341,7 +9347,7 @@
       <c r="H49" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J49" s="1"/>
@@ -9456,10 +9462,10 @@
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>256</v>
@@ -9473,7 +9479,7 @@
       <c r="H50" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J50" s="1"/>
@@ -9588,10 +9594,10 @@
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>256</v>
@@ -9605,7 +9611,7 @@
       <c r="H51" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1"/>
@@ -9720,10 +9726,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>256</v>
@@ -9737,7 +9743,7 @@
       <c r="H52" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J52" s="1"/>
@@ -9852,10 +9858,10 @@
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>256</v>
@@ -9867,7 +9873,7 @@
         <v>459</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J53" s="1"/>
@@ -9982,10 +9988,10 @@
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>256</v>
@@ -9997,7 +10003,7 @@
         <v>463</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J54" s="1"/>
@@ -10112,10 +10118,10 @@
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>256</v>
@@ -10129,7 +10135,7 @@
       <c r="H55" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J55" s="1"/>
@@ -10244,10 +10250,10 @@
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>256</v>
@@ -10261,7 +10267,7 @@
       <c r="H56" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J56" s="1"/>
@@ -10376,10 +10382,10 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>256</v>
@@ -10391,7 +10397,7 @@
         <v>477</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J57" s="1"/>
@@ -10508,10 +10514,10 @@
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>256</v>
@@ -10523,7 +10529,7 @@
         <v>482</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="43" t="s">
+      <c r="I58" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J58" s="1"/>
@@ -10640,10 +10646,10 @@
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>256</v>
@@ -10657,7 +10663,7 @@
       <c r="H59" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I59" s="43" t="s">
+      <c r="I59" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J59" s="1"/>
@@ -10774,10 +10780,10 @@
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>256</v>
@@ -10791,7 +10797,7 @@
       <c r="H60" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I60" s="43" t="s">
+      <c r="I60" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J60" s="1"/>
@@ -10908,10 +10914,10 @@
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>256</v>
@@ -10925,7 +10931,7 @@
       <c r="H61" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I61" s="43" t="s">
+      <c r="I61" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J61" s="1"/>
@@ -11042,10 +11048,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>256</v>
@@ -11059,7 +11065,7 @@
       <c r="H62" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I62" s="43" t="s">
+      <c r="I62" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J62" s="1"/>
@@ -11176,10 +11182,10 @@
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>256</v>
@@ -11193,7 +11199,7 @@
       <c r="H63" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J63" s="1"/>
@@ -11310,10 +11316,10 @@
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>256</v>
@@ -11327,7 +11333,7 @@
       <c r="H64" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J64" s="1"/>
@@ -11444,10 +11450,10 @@
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>528</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>256</v>
@@ -11461,7 +11467,7 @@
       <c r="H65" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J65" s="1"/>
@@ -11574,14 +11580,14 @@
       <c r="A66" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>290</v>
+      <c r="C66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>256</v>
@@ -11595,7 +11601,7 @@
       <c r="H66" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="45" t="s">
         <v>184</v>
       </c>
       <c r="J66" s="11"/>
@@ -11639,7 +11645,7 @@
       </c>
       <c r="AU66" s="11"/>
       <c r="AV66" s="11"/>
-      <c r="AW66" s="40"/>
+      <c r="AW66" s="39"/>
       <c r="AX66" s="11"/>
       <c r="AY66" s="11" t="s">
         <v>373</v>
@@ -11698,17 +11704,17 @@
         <v>365</v>
       </c>
       <c r="CW66" s="19"/>
-      <c r="CX66" s="1"/>
-      <c r="CY66" s="1"/>
-      <c r="CZ66" s="1"/>
-      <c r="DA66" s="1"/>
-      <c r="DB66" s="1"/>
+      <c r="CX66" s="11"/>
+      <c r="CY66" s="11"/>
+      <c r="CZ66" s="11"/>
+      <c r="DA66" s="11"/>
+      <c r="DB66" s="11"/>
     </row>
     <row r="67" spans="1:106">
       <c r="A67" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -11727,7 +11733,7 @@
         <v>534</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -11743,7 +11749,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
-      <c r="W67" s="37" t="s">
+      <c r="W67" s="2" t="s">
         <v>536</v>
       </c>
       <c r="X67" s="1"/>
@@ -11769,107 +11775,105 @@
       <c r="AR67" s="1"/>
       <c r="AS67" s="1"/>
       <c r="AT67" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AU67" s="1"/>
       <c r="AV67" s="1"/>
-      <c r="AW67" s="1"/>
+      <c r="AW67" s="29"/>
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
-      <c r="BB67" s="1"/>
-      <c r="BC67" s="1"/>
-      <c r="BD67" s="1"/>
-      <c r="BE67" s="1"/>
-      <c r="BF67" s="1"/>
-      <c r="BG67" s="1"/>
-      <c r="BH67" s="1"/>
-      <c r="BI67" s="1"/>
-      <c r="BJ67" s="1"/>
-      <c r="BK67" s="1"/>
-      <c r="BL67" s="1"/>
-      <c r="BM67" s="1"/>
-      <c r="BN67" s="1"/>
-      <c r="BO67" s="1"/>
-      <c r="BP67" s="1"/>
-      <c r="BQ67" s="1"/>
-      <c r="BR67" s="1"/>
-      <c r="BS67" s="1"/>
-      <c r="BT67" s="1"/>
-      <c r="BU67" s="1"/>
-      <c r="BV67" s="1"/>
-      <c r="BW67" s="1"/>
-      <c r="BX67" s="1"/>
-      <c r="BY67" s="1"/>
-      <c r="BZ67" s="1"/>
-      <c r="CA67" s="1"/>
-      <c r="CB67" s="1"/>
-      <c r="CC67" s="1"/>
-      <c r="CD67" s="1"/>
-      <c r="CE67" s="1"/>
-      <c r="CF67" s="1"/>
-      <c r="CG67" s="1"/>
-      <c r="CH67" s="1"/>
-      <c r="CI67" s="1"/>
-      <c r="CJ67" s="1"/>
-      <c r="CK67" s="1"/>
-      <c r="CL67" s="1"/>
-      <c r="CM67" s="1"/>
+      <c r="BB67" s="15"/>
+      <c r="BC67" s="15"/>
+      <c r="BD67" s="15"/>
+      <c r="BE67" s="16"/>
+      <c r="BF67" s="15"/>
+      <c r="BG67" s="15"/>
+      <c r="BH67" s="15"/>
+      <c r="BI67" s="15"/>
+      <c r="BJ67" s="15"/>
+      <c r="BK67" s="15"/>
+      <c r="BL67" s="15"/>
+      <c r="BM67" s="15"/>
+      <c r="BN67" s="15"/>
+      <c r="BO67" s="15"/>
+      <c r="BP67" s="15"/>
+      <c r="BQ67" s="15"/>
+      <c r="BR67" s="15"/>
+      <c r="BS67" s="15"/>
+      <c r="BT67" s="15"/>
+      <c r="BU67" s="15"/>
+      <c r="BV67" s="15"/>
+      <c r="BW67" s="15"/>
+      <c r="BX67" s="15"/>
+      <c r="BY67" s="15"/>
+      <c r="BZ67" s="15"/>
+      <c r="CA67" s="15"/>
+      <c r="CB67" s="16"/>
+      <c r="CC67" s="15"/>
+      <c r="CD67" s="15"/>
+      <c r="CE67" s="15"/>
+      <c r="CF67" s="15"/>
+      <c r="CG67" s="15"/>
+      <c r="CH67" s="15"/>
+      <c r="CI67" s="15"/>
+      <c r="CJ67" s="15"/>
+      <c r="CK67" s="15"/>
+      <c r="CL67" s="15"/>
+      <c r="CM67" s="15"/>
       <c r="CN67" s="1"/>
-      <c r="CO67" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="CP67" s="1"/>
-      <c r="CQ67" s="1"/>
-      <c r="CR67" s="1"/>
-      <c r="CS67" s="1"/>
-      <c r="CT67" s="1"/>
-      <c r="CU67" s="1"/>
+      <c r="CO67" s="16"/>
+      <c r="CP67" s="16"/>
+      <c r="CQ67" s="16"/>
+      <c r="CR67" s="16"/>
+      <c r="CS67" s="16"/>
+      <c r="CT67" s="16"/>
+      <c r="CU67" s="16"/>
       <c r="CV67" s="1"/>
-      <c r="CW67" s="1"/>
+      <c r="CW67" s="16"/>
       <c r="CX67" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="CY67" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="CY67" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="CZ67" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="DA67" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="CZ67" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="DA67" s="26" t="s">
+      <c r="DB67" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="DB67" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:106">
       <c r="A68" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>3</v>
+        <v>547</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>528</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I68" s="44" t="s">
+      <c r="I68" s="47" t="s">
         <v>184</v>
       </c>
       <c r="J68" s="1"/>
@@ -11877,10 +11881,10 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="45">
+      <c r="O68" s="41">
         <v>44743</v>
       </c>
-      <c r="P68" s="45">
+      <c r="P68" s="41">
         <v>44749</v>
       </c>
       <c r="Q68" s="1"/>
@@ -11913,7 +11917,7 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
@@ -11923,10 +11927,10 @@
         <v>1</v>
       </c>
       <c r="AZ68" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="BA68" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="BA68" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="BB68" s="1">
         <v>10</v>
@@ -11971,7 +11975,9 @@
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
-      <c r="CO68" s="1"/>
+      <c r="CO68" s="1" t="s">
+        <v>546</v>
+      </c>
       <c r="CP68" s="1"/>
       <c r="CQ68" s="1"/>
       <c r="CR68" s="1"/>
@@ -11981,10 +11987,119 @@
       <c r="CV68" s="1"/>
       <c r="CW68" s="1"/>
       <c r="CX68" s="1"/>
-      <c r="CY68" s="38"/>
-      <c r="CZ68" s="37"/>
+      <c r="CY68" s="37"/>
+      <c r="CZ68" s="36"/>
       <c r="DA68" s="26"/>
       <c r="DB68" s="1"/>
+    </row>
+    <row r="82" spans="1:107">
+      <c r="A82" s="48"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="48"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="48"/>
+      <c r="N82" s="48"/>
+      <c r="O82" s="48"/>
+      <c r="P82" s="48"/>
+      <c r="Q82" s="48"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="48"/>
+      <c r="T82" s="48"/>
+      <c r="U82" s="48"/>
+      <c r="V82" s="48"/>
+      <c r="W82" s="50"/>
+      <c r="X82" s="48"/>
+      <c r="Y82" s="48"/>
+      <c r="Z82" s="48"/>
+      <c r="AA82" s="48"/>
+      <c r="AB82" s="48"/>
+      <c r="AC82" s="48"/>
+      <c r="AD82" s="48"/>
+      <c r="AE82" s="48"/>
+      <c r="AF82" s="48"/>
+      <c r="AG82" s="48"/>
+      <c r="AH82" s="48"/>
+      <c r="AI82" s="48"/>
+      <c r="AJ82" s="48"/>
+      <c r="AK82" s="48"/>
+      <c r="AL82" s="48"/>
+      <c r="AM82" s="48"/>
+      <c r="AN82" s="48"/>
+      <c r="AO82" s="48"/>
+      <c r="AP82" s="48"/>
+      <c r="AQ82" s="48"/>
+      <c r="AR82" s="48"/>
+      <c r="AS82" s="48"/>
+      <c r="AT82" s="48"/>
+      <c r="AU82" s="48"/>
+      <c r="AV82" s="48"/>
+      <c r="AW82" s="48"/>
+      <c r="AX82" s="48"/>
+      <c r="AY82" s="48"/>
+      <c r="AZ82" s="48"/>
+      <c r="BA82" s="48"/>
+      <c r="BB82" s="48"/>
+      <c r="BC82" s="48"/>
+      <c r="BD82" s="48"/>
+      <c r="BE82" s="48"/>
+      <c r="BF82" s="48"/>
+      <c r="BG82" s="48"/>
+      <c r="BH82" s="48"/>
+      <c r="BI82" s="48"/>
+      <c r="BJ82" s="48"/>
+      <c r="BK82" s="48"/>
+      <c r="BL82" s="48"/>
+      <c r="BM82" s="48"/>
+      <c r="BN82" s="48"/>
+      <c r="BO82" s="48"/>
+      <c r="BP82" s="48"/>
+      <c r="BQ82" s="48"/>
+      <c r="BR82" s="48"/>
+      <c r="BS82" s="48"/>
+      <c r="BT82" s="48"/>
+      <c r="BU82" s="48"/>
+      <c r="BV82" s="48"/>
+      <c r="BW82" s="48"/>
+      <c r="BX82" s="48"/>
+      <c r="BY82" s="48"/>
+      <c r="BZ82" s="48"/>
+      <c r="CA82" s="48"/>
+      <c r="CB82" s="48"/>
+      <c r="CC82" s="48"/>
+      <c r="CD82" s="48"/>
+      <c r="CE82" s="48"/>
+      <c r="CF82" s="48"/>
+      <c r="CG82" s="48"/>
+      <c r="CH82" s="48"/>
+      <c r="CI82" s="48"/>
+      <c r="CJ82" s="48"/>
+      <c r="CK82" s="48"/>
+      <c r="CL82" s="48"/>
+      <c r="CM82" s="48"/>
+      <c r="CN82" s="48"/>
+      <c r="CO82" s="48"/>
+      <c r="CP82" s="48"/>
+      <c r="CQ82" s="48"/>
+      <c r="CR82" s="48"/>
+      <c r="CS82" s="48"/>
+      <c r="CT82" s="48"/>
+      <c r="CU82" s="48"/>
+      <c r="CV82" s="48"/>
+      <c r="CW82" s="48"/>
+      <c r="CX82" s="48"/>
+      <c r="CY82" s="51"/>
+      <c r="CZ82" s="50"/>
+      <c r="DA82" s="52"/>
+      <c r="DB82" s="48"/>
+      <c r="DC82" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11993,8 +12108,11 @@
     <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
     <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com"/>
     <hyperlink ref="W14" r:id="rId4"/>
+    <hyperlink ref="W67" r:id="rId5"/>
+    <hyperlink ref="CZ67" r:id="rId6"/>
+    <hyperlink ref="DA67" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0746D836-64ED-4C54-BE30-ED52E37582C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="554">
   <si>
     <t>Environment</t>
   </si>
@@ -67,9 +68,6 @@
   </si>
   <si>
     <t>Lead</t>
-  </si>
-  <si>
-    <t>Nadeem</t>
   </si>
   <si>
     <t>Owner</t>
@@ -1737,98 +1735,93 @@
     <t>Publishing &amp; giving response to two surveys,and then merging them both through merge feature</t>
   </si>
   <si>
-    <t>Sajid</t>
-  </si>
-  <si>
     <t>Anas</t>
   </si>
   <si>
     <t xml:space="preserve"> Not able to click on Login element.</t>
   </si>
   <si>
+    <t>Smoke_TC75</t>
+  </si>
+  <si>
+    <t>Test Invite</t>
+  </si>
+  <si>
+    <t>Send Test Invitations</t>
+  </si>
+  <si>
+    <t>Test Invite Sample TextBox</t>
+  </si>
+  <si>
+    <t>g_golatkar@outlook.com</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>gvg3196@test</t>
+  </si>
+  <si>
+    <t>Your Voice Counts</t>
+  </si>
+  <si>
+    <t>SelectTemplate</t>
+  </si>
+  <si>
+    <t>emailhost</t>
+  </si>
+  <si>
+    <t>stremailaddress</t>
+  </si>
+  <si>
+    <t>emailPassword</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>selectET_1</t>
+  </si>
+  <si>
+    <t>Default Classic System Defined Email</t>
+  </si>
+  <si>
+    <t>Smoke_TC76</t>
+  </si>
+  <si>
+    <t>filter management</t>
+  </si>
+  <si>
+    <t>1. It will create filters for the given survey</t>
+  </si>
+  <si>
+    <t>filters should be created and validated</t>
+  </si>
+  <si>
+    <t>102.246.225.52</t>
+  </si>
+  <si>
+    <t>Attach n resp trend</t>
+  </si>
+  <si>
+    <t>GVG3196@test</t>
+  </si>
+  <si>
+    <t>sogo_gauravg</t>
+  </si>
+  <si>
+    <t>SID: 602, Copy (6) of All question survey (Recurring applied daily, monthly n weekly)</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Smoke_TC75</t>
-  </si>
-  <si>
-    <t>Test Invite</t>
-  </si>
-  <si>
-    <t>Send Test Invitations</t>
-  </si>
-  <si>
-    <t>Test Invite Sample TextBox</t>
-  </si>
-  <si>
-    <t>g_golatkar@outlook.com</t>
-  </si>
-  <si>
-    <t>outlook</t>
-  </si>
-  <si>
-    <t>gvg3196@test</t>
-  </si>
-  <si>
-    <t>Your Voice Counts</t>
-  </si>
-  <si>
-    <t>SelectTemplate</t>
-  </si>
-  <si>
-    <t>emailhost</t>
-  </si>
-  <si>
-    <t>stremailaddress</t>
-  </si>
-  <si>
-    <t>emailPassword</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>selectET_1</t>
-  </si>
-  <si>
-    <t>Default Classic System Defined Email</t>
-  </si>
-  <si>
-    <t>Smoke_TC76</t>
-  </si>
-  <si>
-    <t>vivek</t>
-  </si>
-  <si>
-    <t>filter management</t>
-  </si>
-  <si>
-    <t>1. It will create filters for the given survey</t>
-  </si>
-  <si>
-    <t>filters should be created and validated</t>
-  </si>
-  <si>
-    <t>102.246.225.52</t>
-  </si>
-  <si>
-    <t>Attach n resp trend</t>
-  </si>
-  <si>
-    <t>GVG3196@test</t>
-  </si>
-  <si>
-    <t>sogo_gauravg</t>
-  </si>
-  <si>
-    <t>SID: 602, Copy (6) of All question survey (Recurring applied daily, monthly n weekly)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,6 +1858,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -1874,18 +1873,18 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="-Apple-System"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1927,6 +1926,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2005,7 +2034,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2046,33 +2075,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2349,7 +2374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2359,8 +2384,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2379,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2387,14 +2412,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2403,9 +2428,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2424,7 +2449,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2432,14 +2457,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2449,10 +2474,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2474,10 +2499,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2485,13 +2510,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2499,13 +2524,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
@@ -2513,13 +2538,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
@@ -2527,13 +2552,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>229</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>230</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>3</v>
@@ -2541,13 +2566,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>3</v>
@@ -2555,13 +2580,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>3</v>
@@ -2569,13 +2594,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>293</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>3</v>
@@ -2583,13 +2608,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>555</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>554</v>
+        <v>230</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>550</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -2598,45 +2623,45 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DC82"/>
+  <dimension ref="A1:DB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106">
@@ -2650,313 +2675,313 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AP1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AV1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AW1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AX1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AY1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BC1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BH1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BI1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BL1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BM1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BP1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BR1" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BS1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BT1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BU1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BV1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BW1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BX1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BY1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="CA1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CB1" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="CC1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="CB1" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CD1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CE1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CF1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CG1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CH1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CI1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="CJ1" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="CK1" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="CL1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="CM1" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="CN1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="CI1" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="CJ1" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="CK1" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="CL1" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="CM1" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CO1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CP1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CQ1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CR1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CS1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CT1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="CT1" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="CU1" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CV1" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CW1" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="CX1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="CX1" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="CY1" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="CZ1" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="DA1" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="CY1" s="37" t="s">
+      <c r="DB1" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="CZ1" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:106">
@@ -2967,27 +2992,27 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>184</v>
+        <v>24</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -3087,29 +3112,29 @@
     </row>
     <row r="3" spans="1:106">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>184</v>
+        <v>29</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="1"/>
@@ -3148,125 +3173,125 @@
       <c r="AR3" s="15"/>
       <c r="AS3" s="15"/>
       <c r="AT3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="15" t="s">
+      <c r="AV3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AV3" s="15" t="s">
+      <c r="AW3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AW3" s="15" t="s">
+      <c r="AX3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AX3" s="15" t="s">
+      <c r="AY3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AY3" s="15" t="s">
+      <c r="AZ3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="BA3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="BA3" s="15" t="s">
+      <c r="BB3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="BB3" s="15" t="s">
+      <c r="BC3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="BC3" s="15" t="s">
+      <c r="BD3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="BD3" s="15" t="s">
+      <c r="BE3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="BE3" s="16" t="s">
+      <c r="BF3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="BF3" s="15" t="s">
+      <c r="BG3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="BG3" s="15" t="s">
+      <c r="BH3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="BH3" s="15" t="s">
+      <c r="BI3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BI3" s="15" t="s">
+      <c r="BJ3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BJ3" s="15" t="s">
+      <c r="BK3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="BK3" s="15" t="s">
+      <c r="BL3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="BL3" s="15" t="s">
+      <c r="BM3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="BM3" s="15" t="s">
+      <c r="BN3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BN3" s="15" t="s">
+      <c r="BO3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="BO3" s="15" t="s">
+      <c r="BP3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="BP3" s="15" t="s">
+      <c r="BQ3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BQ3" s="15" t="s">
+      <c r="BR3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BR3" s="15" t="s">
+      <c r="BS3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BS3" s="15" t="s">
+      <c r="BT3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BT3" s="15" t="s">
+      <c r="BU3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="BU3" s="15" t="s">
+      <c r="BV3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BV3" s="15" t="s">
+      <c r="BW3" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BW3" s="15" t="s">
+      <c r="BX3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BX3" s="15" t="s">
+      <c r="BY3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BY3" s="15" t="s">
+      <c r="BZ3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BZ3" s="15" t="s">
+      <c r="CA3" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="CA3" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="CB3" s="15"/>
       <c r="CC3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="CD3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="CD3" s="15" t="s">
+      <c r="CE3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="CE3" s="15" t="s">
+      <c r="CF3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="CF3" s="15" t="s">
+      <c r="CG3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="CG3" s="15" t="s">
+      <c r="CH3" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="CH3" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="CI3" s="15"/>
       <c r="CJ3" s="15"/>
@@ -3291,29 +3316,29 @@
     </row>
     <row r="4" spans="1:106">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="1"/>
@@ -3401,22 +3426,22 @@
         <v>282</v>
       </c>
       <c r="CO4" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP4" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="CQ4" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="CP4" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="CQ4" s="16" t="s">
+      <c r="CR4" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="CR4" s="16" t="s">
+      <c r="CS4" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="CS4" s="16" t="s">
+      <c r="CT4" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="CT4" s="16" t="s">
-        <v>169</v>
       </c>
       <c r="CU4" s="16"/>
       <c r="CV4" s="16"/>
@@ -3429,32 +3454,32 @@
     </row>
     <row r="5" spans="1:106">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="14"/>
@@ -3541,22 +3566,22 @@
         <v>283</v>
       </c>
       <c r="CO5" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CP5" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="CQ5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR5" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="CR5" s="16" t="s">
+      <c r="CS5" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="CS5" s="16" t="s">
-        <v>168</v>
-      </c>
       <c r="CT5" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="CU5" s="16"/>
       <c r="CV5" s="16"/>
@@ -3569,32 +3594,32 @@
     </row>
     <row r="6" spans="1:106">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="14"/>
@@ -3682,7 +3707,7 @@
       </c>
       <c r="CO6" s="16"/>
       <c r="CP6" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="CQ6" s="16"/>
       <c r="CR6" s="16"/>
@@ -3699,29 +3724,29 @@
     </row>
     <row r="7" spans="1:106">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="1"/>
@@ -3810,12 +3835,12 @@
       </c>
       <c r="CO7" s="16"/>
       <c r="CP7" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="CQ7" s="16"/>
       <c r="CR7" s="16"/>
       <c r="CS7" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CT7" s="16"/>
       <c r="CU7" s="16"/>
@@ -3829,32 +3854,32 @@
     </row>
     <row r="8" spans="1:106">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>17</v>
+      <c r="C8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="17"/>
@@ -3942,12 +3967,12 @@
       </c>
       <c r="CO8" s="19"/>
       <c r="CP8" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CQ8" s="19"/>
       <c r="CR8" s="19"/>
       <c r="CS8" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="CT8" s="19"/>
       <c r="CU8" s="19"/>
@@ -3961,29 +3986,29 @@
     </row>
     <row r="9" spans="1:106">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>184</v>
+        <v>159</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -4022,7 +4047,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AU9" s="1"/>
       <c r="AV9" s="1"/>
@@ -4073,16 +4098,16 @@
         <v>311</v>
       </c>
       <c r="CO9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="CP9" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CQ9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CS9" s="1"/>
       <c r="CT9" s="1"/>
@@ -4097,44 +4122,44 @@
     </row>
     <row r="10" spans="1:106">
       <c r="A10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>17</v>
+      <c r="C10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>188</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>189</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="P10" s="20" t="s">
         <v>251</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>252</v>
       </c>
       <c r="Q10" s="20"/>
       <c r="R10" s="20"/>
@@ -4143,7 +4168,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -4214,7 +4239,7 @@
       <c r="CL10" s="23"/>
       <c r="CM10" s="23"/>
       <c r="CN10" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CO10" s="24"/>
       <c r="CP10" s="24"/>
@@ -4225,7 +4250,7 @@
       <c r="CU10" s="24"/>
       <c r="CV10" s="24"/>
       <c r="CW10" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CX10" s="1"/>
       <c r="CY10" s="1"/>
@@ -4235,35 +4260,35 @@
     </row>
     <row r="11" spans="1:106">
       <c r="A11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>17</v>
+      <c r="C11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>193</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>194</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -4277,7 +4302,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -4348,7 +4373,7 @@
       <c r="CL11" s="23"/>
       <c r="CM11" s="23"/>
       <c r="CN11" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CO11" s="24"/>
       <c r="CP11" s="24"/>
@@ -4359,7 +4384,7 @@
       <c r="CU11" s="24"/>
       <c r="CV11" s="24"/>
       <c r="CW11" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CX11" s="1"/>
       <c r="CY11" s="1"/>
@@ -4369,33 +4394,33 @@
     </row>
     <row r="12" spans="1:106">
       <c r="A12" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>17</v>
+      <c r="C12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>196</v>
-      </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="45" t="s">
-        <v>184</v>
+      <c r="I12" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -4409,7 +4434,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -4480,7 +4505,7 @@
       <c r="CL12" s="23"/>
       <c r="CM12" s="23"/>
       <c r="CN12" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CO12" s="24"/>
       <c r="CP12" s="24"/>
@@ -4491,7 +4516,7 @@
       <c r="CU12" s="24"/>
       <c r="CV12" s="24"/>
       <c r="CW12" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CX12" s="1"/>
       <c r="CY12" s="1"/>
@@ -4501,33 +4526,33 @@
     </row>
     <row r="13" spans="1:106">
       <c r="A13" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>17</v>
+      <c r="C13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>199</v>
-      </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="45" t="s">
-        <v>184</v>
+      <c r="I13" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -4541,7 +4566,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -4612,7 +4637,7 @@
       <c r="CL13" s="23"/>
       <c r="CM13" s="23"/>
       <c r="CN13" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CO13" s="24"/>
       <c r="CP13" s="24"/>
@@ -4623,7 +4648,7 @@
       <c r="CU13" s="24"/>
       <c r="CV13" s="24"/>
       <c r="CW13" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CX13" s="1"/>
       <c r="CY13" s="1"/>
@@ -4633,34 +4658,34 @@
     </row>
     <row r="14" spans="1:106">
       <c r="A14" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>17</v>
+      <c r="C14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>202</v>
-      </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="45" t="s">
-        <v>184</v>
+      <c r="I14" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="20"/>
       <c r="L14" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M14" s="21"/>
       <c r="N14" s="20"/>
@@ -4673,7 +4698,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X14" s="22"/>
       <c r="Y14" s="22"/>
@@ -4744,7 +4769,7 @@
       <c r="CL14" s="23"/>
       <c r="CM14" s="23"/>
       <c r="CN14" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CO14" s="24"/>
       <c r="CP14" s="24"/>
@@ -4755,7 +4780,7 @@
       <c r="CU14" s="24"/>
       <c r="CV14" s="24"/>
       <c r="CW14" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CX14" s="1"/>
       <c r="CY14" s="1"/>
@@ -4765,67 +4790,67 @@
     </row>
     <row r="15" spans="1:106">
       <c r="A15" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>17</v>
+      <c r="C15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="K15" s="20" t="s">
+      <c r="L15" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="M15" s="21" t="s">
         <v>207</v>
-      </c>
-      <c r="M15" s="21" t="s">
-        <v>208</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="P15" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="Q15" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="R15" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="S15" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="S15" s="22" t="s">
+      <c r="T15" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="U15" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="U15" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="V15" s="22"/>
       <c r="W15" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
@@ -4896,7 +4921,7 @@
       <c r="CL15" s="23"/>
       <c r="CM15" s="23"/>
       <c r="CN15" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="CO15" s="24"/>
       <c r="CP15" s="24"/>
@@ -4907,7 +4932,7 @@
       <c r="CU15" s="24"/>
       <c r="CV15" s="24"/>
       <c r="CW15" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="CX15" s="1"/>
       <c r="CY15" s="1"/>
@@ -4917,62 +4942,62 @@
     </row>
     <row r="16" spans="1:106">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>17</v>
+      <c r="C16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F16" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>226</v>
-      </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="45" t="s">
-        <v>184</v>
+      <c r="I16" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>234</v>
       </c>
       <c r="N16" s="20"/>
       <c r="O16" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="S16" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="R16" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="S16" s="22" t="s">
+      <c r="T16" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="U16" s="22" t="s">
         <v>213</v>
-      </c>
-      <c r="U16" s="22" t="s">
-        <v>214</v>
       </c>
       <c r="V16" s="22"/>
       <c r="W16" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
@@ -5043,7 +5068,7 @@
       <c r="CL16" s="23"/>
       <c r="CM16" s="23"/>
       <c r="CN16" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CO16" s="24"/>
       <c r="CP16" s="24"/>
@@ -5054,7 +5079,7 @@
       <c r="CU16" s="24"/>
       <c r="CV16" s="24"/>
       <c r="CW16" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CX16" s="1"/>
       <c r="CY16" s="1"/>
@@ -5064,29 +5089,29 @@
     </row>
     <row r="17" spans="1:106">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B17" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="1"/>
@@ -5179,7 +5204,7 @@
       <c r="CR17" s="16"/>
       <c r="CS17" s="16"/>
       <c r="CT17" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CU17" s="16"/>
       <c r="CV17" s="16"/>
@@ -5192,30 +5217,30 @@
     </row>
     <row r="18" spans="1:106">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="45" t="s">
-        <v>184</v>
+      <c r="I18" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="14"/>
@@ -5253,7 +5278,7 @@
       <c r="AR18" s="15"/>
       <c r="AS18" s="15"/>
       <c r="AT18" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
@@ -5305,7 +5330,7 @@
       </c>
       <c r="CO18" s="16"/>
       <c r="CP18" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CQ18" s="16"/>
       <c r="CR18" s="16"/>
@@ -5322,27 +5347,27 @@
     </row>
     <row r="19" spans="1:106">
       <c r="A19" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="45" t="s">
-        <v>184</v>
+      <c r="I19" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="1"/>
@@ -5383,7 +5408,7 @@
       <c r="AR19" s="15"/>
       <c r="AS19" s="15"/>
       <c r="AT19" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
@@ -5450,27 +5475,27 @@
     </row>
     <row r="20" spans="1:106">
       <c r="A20" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="45" t="s">
-        <v>184</v>
+      <c r="I20" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="1"/>
@@ -5479,7 +5504,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -5511,20 +5536,20 @@
       <c r="AR20" s="15"/>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU20" s="15"/>
       <c r="AV20" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AW20" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AX20" s="1"/>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="15"/>
       <c r="BA20" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BB20" s="15"/>
       <c r="BC20" s="15"/>
@@ -5582,31 +5607,31 @@
     </row>
     <row r="21" spans="1:106">
       <c r="A21" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I21" s="45" t="s">
-        <v>184</v>
+      <c r="I21" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="1"/>
@@ -5615,7 +5640,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -5647,16 +5672,16 @@
       <c r="AR21" s="15"/>
       <c r="AS21" s="1"/>
       <c r="AT21" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AU21" s="15"/>
       <c r="AV21" s="26"/>
       <c r="AW21" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AX21" s="1"/>
       <c r="AY21" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AZ21" s="15"/>
       <c r="BA21" s="15"/>
@@ -5707,7 +5732,7 @@
       <c r="CT21" s="16"/>
       <c r="CU21" s="16"/>
       <c r="CV21" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW21" s="16"/>
       <c r="CX21" s="1"/>
@@ -5718,31 +5743,31 @@
     </row>
     <row r="22" spans="1:106">
       <c r="A22" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>184</v>
+      <c r="I22" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="1"/>
@@ -5781,14 +5806,14 @@
       <c r="AR22" s="15"/>
       <c r="AS22" s="1"/>
       <c r="AT22" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AU22" s="15"/>
       <c r="AV22" s="26"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AZ22" s="15"/>
       <c r="BA22" s="15"/>
@@ -5839,7 +5864,7 @@
       <c r="CT22" s="16"/>
       <c r="CU22" s="16"/>
       <c r="CV22" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW22" s="16"/>
       <c r="CX22" s="1"/>
@@ -5850,31 +5875,31 @@
     </row>
     <row r="23" spans="1:106">
       <c r="A23" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>184</v>
+        <v>306</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="1"/>
@@ -5912,19 +5937,19 @@
       <c r="AQ23" s="15"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT23" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="AU23" s="15"/>
       <c r="AV23" s="26"/>
       <c r="AW23" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AX23" s="1"/>
       <c r="AY23" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AZ23" s="15"/>
       <c r="BA23" s="15"/>
@@ -5975,7 +6000,7 @@
       <c r="CT23" s="16"/>
       <c r="CU23" s="16"/>
       <c r="CV23" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW23" s="16"/>
       <c r="CX23" s="1"/>
@@ -5986,31 +6011,31 @@
     </row>
     <row r="24" spans="1:106">
       <c r="A24" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>184</v>
+        <v>306</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="1"/>
@@ -6049,16 +6074,16 @@
       <c r="AR24" s="15"/>
       <c r="AS24" s="1"/>
       <c r="AT24" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AU24" s="15"/>
       <c r="AV24" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
       <c r="AY24" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AZ24" s="15"/>
       <c r="BA24" s="15"/>
@@ -6109,7 +6134,7 @@
       <c r="CT24" s="16"/>
       <c r="CU24" s="16"/>
       <c r="CV24" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW24" s="16"/>
       <c r="CX24" s="1"/>
@@ -6120,31 +6145,31 @@
     </row>
     <row r="25" spans="1:106">
       <c r="A25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I25" s="45" t="s">
-        <v>184</v>
+        <v>308</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="1"/>
@@ -6153,7 +6178,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -6185,14 +6210,14 @@
       <c r="AR25" s="15"/>
       <c r="AS25" s="1"/>
       <c r="AT25" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AU25" s="15"/>
       <c r="AV25" s="26"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AZ25" s="15"/>
       <c r="BA25" s="15"/>
@@ -6243,7 +6268,7 @@
       <c r="CT25" s="16"/>
       <c r="CU25" s="16"/>
       <c r="CV25" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW25" s="16"/>
       <c r="CX25" s="1"/>
@@ -6254,31 +6279,31 @@
     </row>
     <row r="26" spans="1:106">
       <c r="A26" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I26" s="45" t="s">
-        <v>184</v>
+        <v>308</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="1"/>
@@ -6288,7 +6313,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -6319,14 +6344,14 @@
       <c r="AR26" s="15"/>
       <c r="AS26" s="1"/>
       <c r="AT26" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AU26" s="15"/>
       <c r="AV26" s="26"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AZ26" s="15"/>
       <c r="BA26" s="15"/>
@@ -6377,7 +6402,7 @@
       <c r="CT26" s="16"/>
       <c r="CU26" s="16"/>
       <c r="CV26" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW26" s="16"/>
       <c r="CX26" s="1"/>
@@ -6388,31 +6413,31 @@
     </row>
     <row r="27" spans="1:106">
       <c r="A27" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I27" s="45" t="s">
-        <v>184</v>
+      <c r="I27" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="1"/>
@@ -6451,14 +6476,14 @@
       <c r="AR27" s="15"/>
       <c r="AS27" s="1"/>
       <c r="AT27" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AU27" s="15"/>
       <c r="AV27" s="26"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AZ27" s="15"/>
       <c r="BA27" s="15"/>
@@ -6509,7 +6534,7 @@
       <c r="CT27" s="16"/>
       <c r="CU27" s="16"/>
       <c r="CV27" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW27" s="16"/>
       <c r="CX27" s="1"/>
@@ -6520,31 +6545,31 @@
     </row>
     <row r="28" spans="1:106">
       <c r="A28" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I28" s="45" t="s">
-        <v>184</v>
+      <c r="I28" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="1"/>
@@ -6583,14 +6608,14 @@
       <c r="AR28" s="15"/>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU28" s="15"/>
       <c r="AV28" s="26"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AZ28" s="15"/>
       <c r="BA28" s="15"/>
@@ -6641,7 +6666,7 @@
       <c r="CT28" s="16"/>
       <c r="CU28" s="16"/>
       <c r="CV28" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW28" s="16"/>
       <c r="CX28" s="1"/>
@@ -6652,31 +6677,31 @@
     </row>
     <row r="29" spans="1:106">
       <c r="A29" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I29" s="45" t="s">
-        <v>184</v>
+        <v>308</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="1"/>
@@ -6687,7 +6712,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -6717,14 +6742,14 @@
       <c r="AR29" s="15"/>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU29" s="15"/>
       <c r="AV29" s="26"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AZ29" s="15"/>
       <c r="BA29" s="15"/>
@@ -6775,7 +6800,7 @@
       <c r="CT29" s="16"/>
       <c r="CU29" s="16"/>
       <c r="CV29" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW29" s="16"/>
       <c r="CX29" s="1"/>
@@ -6786,31 +6811,31 @@
     </row>
     <row r="30" spans="1:106">
       <c r="A30" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I30" s="45" t="s">
-        <v>184</v>
+      <c r="I30" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="1"/>
@@ -6822,12 +6847,12 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -6853,14 +6878,14 @@
       <c r="AR30" s="15"/>
       <c r="AS30" s="1"/>
       <c r="AT30" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AU30" s="15"/>
       <c r="AV30" s="26"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AZ30" s="15"/>
       <c r="BA30" s="15"/>
@@ -6911,7 +6936,7 @@
       <c r="CT30" s="16"/>
       <c r="CU30" s="16"/>
       <c r="CV30" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW30" s="16"/>
       <c r="CX30" s="1"/>
@@ -6922,31 +6947,31 @@
     </row>
     <row r="31" spans="1:106">
       <c r="A31" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I31" s="45" t="s">
-        <v>184</v>
+      <c r="I31" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="1"/>
@@ -6959,10 +6984,10 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="5"/>
@@ -6989,14 +7014,14 @@
       <c r="AR31" s="15"/>
       <c r="AS31" s="1"/>
       <c r="AT31" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AU31" s="15"/>
       <c r="AV31" s="26"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AZ31" s="15"/>
       <c r="BA31" s="15"/>
@@ -7047,7 +7072,7 @@
       <c r="CT31" s="16"/>
       <c r="CU31" s="16"/>
       <c r="CV31" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW31" s="16"/>
       <c r="CX31" s="1"/>
@@ -7058,31 +7083,31 @@
     </row>
     <row r="32" spans="1:106">
       <c r="A32" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>15</v>
+      <c r="C32" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="D32" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>291</v>
-      </c>
       <c r="F32" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I32" s="45" t="s">
-        <v>184</v>
+        <v>306</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="11"/>
@@ -7121,14 +7146,14 @@
       <c r="AR32" s="18"/>
       <c r="AS32" s="11"/>
       <c r="AT32" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AU32" s="18"/>
       <c r="AV32" s="11"/>
       <c r="AW32" s="11"/>
       <c r="AX32" s="11"/>
       <c r="AY32" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AZ32" s="18"/>
       <c r="BA32" s="18"/>
@@ -7179,7 +7204,7 @@
       <c r="CT32" s="19"/>
       <c r="CU32" s="19"/>
       <c r="CV32" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW32" s="19"/>
       <c r="CX32" s="1"/>
@@ -7190,29 +7215,29 @@
     </row>
     <row r="33" spans="1:106">
       <c r="A33" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>528</v>
+        <v>258</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="44" t="s">
-        <v>531</v>
+      <c r="I33" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -7314,30 +7339,30 @@
     </row>
     <row r="34" spans="1:106">
       <c r="A34" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E34" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34" s="31" t="s">
         <v>256</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>257</v>
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="45" t="s">
-        <v>184</v>
+      <c r="I34" s="46" t="s">
+        <v>553</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K34" s="31"/>
       <c r="L34" s="32"/>
@@ -7365,7 +7390,7 @@
       <c r="AH34" s="33"/>
       <c r="AI34" s="33"/>
       <c r="AJ34" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK34" s="33"/>
       <c r="AL34" s="33"/>
@@ -7377,37 +7402,37 @@
       <c r="AR34" s="34"/>
       <c r="AS34" s="34"/>
       <c r="AT34" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AU34" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV34" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AV34" s="34" t="s">
+      <c r="AW34" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AW34" s="34" t="s">
+      <c r="AX34" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AX34" s="34" t="s">
+      <c r="AY34" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AY34" s="34" t="s">
+      <c r="AZ34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AZ34" s="34" t="s">
+      <c r="BA34" s="34" t="s">
         <v>37</v>
-      </c>
-      <c r="BA34" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="BB34" s="34"/>
       <c r="BC34" s="34"/>
       <c r="BD34" s="34"/>
       <c r="BE34" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BF34" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BG34" s="34"/>
       <c r="BH34" s="34"/>
@@ -7431,7 +7456,7 @@
       <c r="BZ34" s="34"/>
       <c r="CA34" s="34"/>
       <c r="CB34" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CC34" s="34"/>
       <c r="CD34" s="34"/>
@@ -7440,19 +7465,19 @@
       <c r="CG34" s="34"/>
       <c r="CH34" s="34"/>
       <c r="CI34" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CJ34" s="34">
         <v>6</v>
       </c>
       <c r="CK34" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CL34" s="34">
         <v>10</v>
       </c>
       <c r="CM34" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CN34" s="31"/>
       <c r="CO34" s="35"/>
@@ -7462,10 +7487,10 @@
       <c r="CS34" s="35"/>
       <c r="CT34" s="35"/>
       <c r="CU34" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="CV34" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW34" s="35"/>
       <c r="CX34" s="1"/>
@@ -7476,31 +7501,31 @@
     </row>
     <row r="35" spans="1:106" ht="20.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>184</v>
+      <c r="I35" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -7539,18 +7564,18 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
       <c r="AT35" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AU35" s="1"/>
       <c r="AV35" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AW35" s="29" t="s">
         <v>371</v>
-      </c>
-      <c r="AW35" s="29" t="s">
-        <v>372</v>
       </c>
       <c r="AX35" s="1"/>
       <c r="AY35" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
@@ -7601,7 +7626,7 @@
       <c r="CT35" s="16"/>
       <c r="CU35" s="16"/>
       <c r="CV35" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW35" s="16"/>
       <c r="CX35" s="1"/>
@@ -7612,31 +7637,31 @@
     </row>
     <row r="36" spans="1:106" ht="19.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I36" s="45" t="s">
-        <v>184</v>
+      <c r="I36" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -7675,20 +7700,20 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AT36" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
       <c r="AW36" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AX36" s="1"/>
       <c r="AY36" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BB36" s="15"/>
       <c r="BC36" s="15"/>
@@ -7737,7 +7762,7 @@
       <c r="CT36" s="16"/>
       <c r="CU36" s="16"/>
       <c r="CV36" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW36" s="16"/>
       <c r="CX36" s="1"/>
@@ -7748,31 +7773,31 @@
     </row>
     <row r="37" spans="1:106">
       <c r="A37" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B37" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="H37" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="I37" s="45" t="s">
-        <v>184</v>
+      <c r="I37" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -7811,14 +7836,14 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
       <c r="AT37" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
       <c r="AW37" s="29"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
@@ -7869,7 +7894,7 @@
       <c r="CT37" s="16"/>
       <c r="CU37" s="16"/>
       <c r="CV37" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW37" s="16"/>
       <c r="CX37" s="1"/>
@@ -7880,31 +7905,31 @@
     </row>
     <row r="38" spans="1:106">
       <c r="A38" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I38" s="45" t="s">
-        <v>184</v>
+      <c r="I38" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -7943,14 +7968,14 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
       <c r="AT38" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
       <c r="AW38" s="29"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
@@ -8001,7 +8026,7 @@
       <c r="CT38" s="16"/>
       <c r="CU38" s="16"/>
       <c r="CV38" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW38" s="16"/>
       <c r="CX38" s="1"/>
@@ -8012,31 +8037,31 @@
     </row>
     <row r="39" spans="1:106">
       <c r="A39" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I39" s="45" t="s">
-        <v>184</v>
+      <c r="I39" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -8075,14 +8100,14 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
       <c r="AT39" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
       <c r="AW39" s="29"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
@@ -8133,7 +8158,7 @@
       <c r="CT39" s="16"/>
       <c r="CU39" s="16"/>
       <c r="CV39" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW39" s="16"/>
       <c r="CX39" s="1"/>
@@ -8144,31 +8169,31 @@
     </row>
     <row r="40" spans="1:106">
       <c r="A40" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B40" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I40" s="45" t="s">
-        <v>184</v>
+      <c r="I40" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -8207,14 +8232,14 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
       <c r="AW40" s="29"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
@@ -8265,7 +8290,7 @@
       <c r="CT40" s="16"/>
       <c r="CU40" s="16"/>
       <c r="CV40" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW40" s="16"/>
       <c r="CX40" s="1"/>
@@ -8276,31 +8301,31 @@
     </row>
     <row r="41" spans="1:106">
       <c r="A41" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B41" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I41" s="45" t="s">
-        <v>184</v>
+      <c r="I41" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -8339,14 +8364,14 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
       <c r="AW41" s="29"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
@@ -8397,7 +8422,7 @@
       <c r="CT41" s="16"/>
       <c r="CU41" s="16"/>
       <c r="CV41" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW41" s="16"/>
       <c r="CX41" s="1"/>
@@ -8408,31 +8433,31 @@
     </row>
     <row r="42" spans="1:106">
       <c r="A42" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B42" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="I42" s="45" t="s">
-        <v>184</v>
+      <c r="I42" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -8471,14 +8496,14 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
       <c r="AW42" s="29"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ42" s="1"/>
       <c r="BA42" s="1"/>
@@ -8529,7 +8554,7 @@
       <c r="CT42" s="16"/>
       <c r="CU42" s="16"/>
       <c r="CV42" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW42" s="16"/>
       <c r="CX42" s="1"/>
@@ -8540,31 +8565,31 @@
     </row>
     <row r="43" spans="1:106">
       <c r="A43" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="I43" s="45" t="s">
-        <v>184</v>
+      <c r="I43" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -8603,14 +8628,14 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
       <c r="AT43" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
       <c r="AW43" s="29"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
@@ -8661,7 +8686,7 @@
       <c r="CT43" s="16"/>
       <c r="CU43" s="16"/>
       <c r="CV43" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW43" s="16"/>
       <c r="CX43" s="1"/>
@@ -8672,31 +8697,31 @@
     </row>
     <row r="44" spans="1:106">
       <c r="A44" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B44" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I44" s="45" t="s">
-        <v>184</v>
+      <c r="I44" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -8735,14 +8760,14 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
       <c r="AT44" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
       <c r="AW44" s="29"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
@@ -8793,7 +8818,7 @@
       <c r="CT44" s="16"/>
       <c r="CU44" s="16"/>
       <c r="CV44" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW44" s="16"/>
       <c r="CX44" s="1"/>
@@ -8804,29 +8829,29 @@
     </row>
     <row r="45" spans="1:106">
       <c r="A45" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="45" t="s">
-        <v>184</v>
+      <c r="I45" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -8865,14 +8890,14 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
       <c r="AT45" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
       <c r="AW45" s="29"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
@@ -8923,7 +8948,7 @@
       <c r="CT45" s="16"/>
       <c r="CU45" s="16"/>
       <c r="CV45" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW45" s="16"/>
       <c r="CX45" s="1"/>
@@ -8934,29 +8959,29 @@
     </row>
     <row r="46" spans="1:106">
       <c r="A46" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="45" t="s">
-        <v>184</v>
+      <c r="I46" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -8995,14 +9020,14 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
       <c r="AT46" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
       <c r="AW46" s="29"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
@@ -9053,7 +9078,7 @@
       <c r="CT46" s="16"/>
       <c r="CU46" s="16"/>
       <c r="CV46" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW46" s="16"/>
       <c r="CX46" s="1"/>
@@ -9064,29 +9089,29 @@
     </row>
     <row r="47" spans="1:106">
       <c r="A47" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B47" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="45" t="s">
-        <v>184</v>
+      <c r="I47" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -9125,14 +9150,14 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
       <c r="AT47" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
       <c r="AW47" s="29"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
@@ -9183,7 +9208,7 @@
       <c r="CT47" s="16"/>
       <c r="CU47" s="16"/>
       <c r="CV47" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW47" s="16"/>
       <c r="CX47" s="1"/>
@@ -9194,29 +9219,29 @@
     </row>
     <row r="48" spans="1:106">
       <c r="A48" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B48" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="45" t="s">
-        <v>184</v>
+      <c r="I48" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -9255,14 +9280,14 @@
       <c r="AR48" s="1"/>
       <c r="AS48" s="1"/>
       <c r="AT48" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
       <c r="AW48" s="29"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
@@ -9313,7 +9338,7 @@
       <c r="CT48" s="16"/>
       <c r="CU48" s="16"/>
       <c r="CV48" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW48" s="16"/>
       <c r="CX48" s="1"/>
@@ -9324,31 +9349,31 @@
     </row>
     <row r="49" spans="1:106">
       <c r="A49" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>184</v>
+      <c r="I49" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -9387,14 +9412,14 @@
       <c r="AR49" s="1"/>
       <c r="AS49" s="1"/>
       <c r="AT49" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
       <c r="AW49" s="29"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
@@ -9445,7 +9470,7 @@
       <c r="CT49" s="16"/>
       <c r="CU49" s="16"/>
       <c r="CV49" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW49" s="16"/>
       <c r="CX49" s="1"/>
@@ -9456,31 +9481,31 @@
     </row>
     <row r="50" spans="1:106">
       <c r="A50" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B50" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="I50" s="45" t="s">
-        <v>184</v>
+      <c r="I50" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -9519,14 +9544,14 @@
       <c r="AR50" s="1"/>
       <c r="AS50" s="1"/>
       <c r="AT50" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
       <c r="AW50" s="29"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
@@ -9577,7 +9602,7 @@
       <c r="CT50" s="16"/>
       <c r="CU50" s="16"/>
       <c r="CV50" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW50" s="16"/>
       <c r="CX50" s="1"/>
@@ -9588,31 +9613,31 @@
     </row>
     <row r="51" spans="1:106">
       <c r="A51" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B51" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I51" s="45" t="s">
-        <v>184</v>
+      <c r="I51" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -9651,14 +9676,14 @@
       <c r="AR51" s="1"/>
       <c r="AS51" s="1"/>
       <c r="AT51" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
       <c r="AW51" s="29"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
@@ -9709,7 +9734,7 @@
       <c r="CT51" s="16"/>
       <c r="CU51" s="16"/>
       <c r="CV51" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW51" s="16"/>
       <c r="CX51" s="1"/>
@@ -9720,31 +9745,31 @@
     </row>
     <row r="52" spans="1:106">
       <c r="A52" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B52" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="I52" s="45" t="s">
-        <v>184</v>
+      <c r="I52" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -9783,14 +9808,14 @@
       <c r="AR52" s="1"/>
       <c r="AS52" s="1"/>
       <c r="AT52" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
       <c r="AW52" s="29"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
@@ -9841,7 +9866,7 @@
       <c r="CT52" s="16"/>
       <c r="CU52" s="16"/>
       <c r="CV52" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW52" s="16"/>
       <c r="CX52" s="1"/>
@@ -9852,29 +9877,29 @@
     </row>
     <row r="53" spans="1:106">
       <c r="A53" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="45" t="s">
-        <v>184</v>
+      <c r="I53" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -9913,14 +9938,14 @@
       <c r="AR53" s="1"/>
       <c r="AS53" s="1"/>
       <c r="AT53" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
       <c r="AW53" s="29"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
@@ -9971,7 +9996,7 @@
       <c r="CT53" s="16"/>
       <c r="CU53" s="16"/>
       <c r="CV53" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW53" s="16"/>
       <c r="CX53" s="1"/>
@@ -9982,29 +10007,29 @@
     </row>
     <row r="54" spans="1:106">
       <c r="A54" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="45" t="s">
-        <v>184</v>
+      <c r="I54" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -10043,14 +10068,14 @@
       <c r="AR54" s="1"/>
       <c r="AS54" s="1"/>
       <c r="AT54" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
       <c r="AW54" s="29"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
@@ -10101,7 +10126,7 @@
       <c r="CT54" s="16"/>
       <c r="CU54" s="16"/>
       <c r="CV54" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW54" s="16"/>
       <c r="CX54" s="1"/>
@@ -10112,31 +10137,31 @@
     </row>
     <row r="55" spans="1:106">
       <c r="A55" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="I55" s="45" t="s">
-        <v>184</v>
+      <c r="I55" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -10175,14 +10200,14 @@
       <c r="AR55" s="1"/>
       <c r="AS55" s="1"/>
       <c r="AT55" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
       <c r="AW55" s="29"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
@@ -10233,7 +10258,7 @@
       <c r="CT55" s="16"/>
       <c r="CU55" s="16"/>
       <c r="CV55" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW55" s="16"/>
       <c r="CX55" s="1"/>
@@ -10244,31 +10269,31 @@
     </row>
     <row r="56" spans="1:106">
       <c r="A56" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I56" s="45" t="s">
-        <v>184</v>
+      <c r="I56" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -10307,14 +10332,14 @@
       <c r="AR56" s="1"/>
       <c r="AS56" s="1"/>
       <c r="AT56" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
       <c r="AW56" s="29"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
@@ -10365,7 +10390,7 @@
       <c r="CT56" s="16"/>
       <c r="CU56" s="16"/>
       <c r="CV56" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW56" s="16"/>
       <c r="CX56" s="1"/>
@@ -10376,29 +10401,29 @@
     </row>
     <row r="57" spans="1:106">
       <c r="A57" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="45" t="s">
-        <v>184</v>
+      <c r="I57" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -10437,16 +10462,16 @@
       <c r="AR57" s="1"/>
       <c r="AS57" s="1"/>
       <c r="AT57" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
       <c r="AW57" s="29"/>
       <c r="AX57" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AY57" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ57" s="1"/>
       <c r="BA57" s="1"/>
@@ -10497,7 +10522,7 @@
       <c r="CT57" s="16"/>
       <c r="CU57" s="16"/>
       <c r="CV57" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW57" s="16"/>
       <c r="CX57" s="1"/>
@@ -10508,29 +10533,29 @@
     </row>
     <row r="58" spans="1:106">
       <c r="A58" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B58" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="45" t="s">
-        <v>184</v>
+      <c r="I58" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -10569,16 +10594,16 @@
       <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
       <c r="AT58" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
       <c r="AW58" s="29"/>
       <c r="AX58" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AY58" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
@@ -10629,7 +10654,7 @@
       <c r="CT58" s="16"/>
       <c r="CU58" s="16"/>
       <c r="CV58" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW58" s="16"/>
       <c r="CX58" s="1"/>
@@ -10640,31 +10665,31 @@
     </row>
     <row r="59" spans="1:106">
       <c r="A59" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I59" s="45" t="s">
-        <v>184</v>
+      <c r="I59" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -10703,17 +10728,17 @@
       <c r="AR59" s="1"/>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
       <c r="AW59" s="29"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ59" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="BA59" s="1"/>
       <c r="BB59" s="15"/>
@@ -10763,7 +10788,7 @@
       <c r="CT59" s="16"/>
       <c r="CU59" s="16"/>
       <c r="CV59" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW59" s="16"/>
       <c r="CX59" s="1"/>
@@ -10774,31 +10799,31 @@
     </row>
     <row r="60" spans="1:106">
       <c r="A60" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B60" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>492</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I60" s="45" t="s">
-        <v>184</v>
+        <v>486</v>
+      </c>
+      <c r="I60" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -10837,17 +10862,17 @@
       <c r="AR60" s="1"/>
       <c r="AS60" s="1"/>
       <c r="AT60" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
       <c r="AW60" s="29"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ60" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="BA60" s="1"/>
       <c r="BB60" s="15"/>
@@ -10897,7 +10922,7 @@
       <c r="CT60" s="16"/>
       <c r="CU60" s="16"/>
       <c r="CV60" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW60" s="16"/>
       <c r="CX60" s="1"/>
@@ -10908,31 +10933,31 @@
     </row>
     <row r="61" spans="1:106">
       <c r="A61" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B61" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I61" s="45" t="s">
-        <v>184</v>
+      <c r="I61" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -10971,16 +10996,16 @@
       <c r="AR61" s="1"/>
       <c r="AS61" s="1"/>
       <c r="AT61" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
       <c r="AW61" s="29"/>
       <c r="AX61" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AY61" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
@@ -11031,7 +11056,7 @@
       <c r="CT61" s="16"/>
       <c r="CU61" s="16"/>
       <c r="CV61" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW61" s="16"/>
       <c r="CX61" s="1"/>
@@ -11042,31 +11067,31 @@
     </row>
     <row r="62" spans="1:106">
       <c r="A62" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B62" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I62" s="45" t="s">
-        <v>184</v>
+        <v>496</v>
+      </c>
+      <c r="I62" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -11105,16 +11130,16 @@
       <c r="AR62" s="1"/>
       <c r="AS62" s="1"/>
       <c r="AT62" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="29"/>
       <c r="AX62" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AY62" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
@@ -11165,7 +11190,7 @@
       <c r="CT62" s="16"/>
       <c r="CU62" s="16"/>
       <c r="CV62" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW62" s="16"/>
       <c r="CX62" s="1"/>
@@ -11176,31 +11201,31 @@
     </row>
     <row r="63" spans="1:106">
       <c r="A63" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B63" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I63" s="45" t="s">
-        <v>184</v>
+      <c r="I63" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -11239,18 +11264,18 @@
       <c r="AR63" s="1"/>
       <c r="AS63" s="1"/>
       <c r="AT63" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="29"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BB63" s="15"/>
       <c r="BC63" s="15"/>
@@ -11299,7 +11324,7 @@
       <c r="CT63" s="16"/>
       <c r="CU63" s="16"/>
       <c r="CV63" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW63" s="16"/>
       <c r="CX63" s="1"/>
@@ -11310,31 +11335,31 @@
     </row>
     <row r="64" spans="1:106">
       <c r="A64" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B64" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I64" s="45" t="s">
-        <v>184</v>
+      <c r="I64" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -11373,18 +11398,18 @@
       <c r="AR64" s="1"/>
       <c r="AS64" s="1"/>
       <c r="AT64" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
       <c r="AW64" s="29"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="BB64" s="15"/>
       <c r="BC64" s="15"/>
@@ -11433,7 +11458,7 @@
       <c r="CT64" s="16"/>
       <c r="CU64" s="16"/>
       <c r="CV64" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW64" s="16"/>
       <c r="CX64" s="1"/>
@@ -11444,31 +11469,31 @@
     </row>
     <row r="65" spans="1:106">
       <c r="A65" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B65" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>17</v>
+        <v>289</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I65" s="45" t="s">
-        <v>184</v>
+      <c r="I65" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -11507,14 +11532,14 @@
       <c r="AR65" s="1"/>
       <c r="AS65" s="1"/>
       <c r="AT65" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
       <c r="AW65" s="29"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1">
@@ -11567,7 +11592,7 @@
       <c r="CT65" s="16"/>
       <c r="CU65" s="16"/>
       <c r="CV65" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW65" s="16"/>
       <c r="CX65" s="1"/>
@@ -11578,31 +11603,31 @@
     </row>
     <row r="66" spans="1:106">
       <c r="A66" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="B66" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F66" s="11" t="s">
+      <c r="G66" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="H66" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="I66" s="45" t="s">
-        <v>184</v>
+      <c r="I66" s="48" t="s">
+        <v>183</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
@@ -11641,14 +11666,14 @@
       <c r="AR66" s="11"/>
       <c r="AS66" s="11"/>
       <c r="AT66" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AU66" s="11"/>
       <c r="AV66" s="11"/>
-      <c r="AW66" s="39"/>
+      <c r="AW66" s="38"/>
       <c r="AX66" s="11"/>
       <c r="AY66" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AZ66" s="11"/>
       <c r="BA66" s="11">
@@ -11701,7 +11726,7 @@
       <c r="CT66" s="19"/>
       <c r="CU66" s="19"/>
       <c r="CV66" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CW66" s="19"/>
       <c r="CX66" s="11"/>
@@ -11711,180 +11736,182 @@
       <c r="DB66" s="11"/>
     </row>
     <row r="67" spans="1:106">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F67" s="1" t="s">
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+      <c r="AH67" s="11"/>
+      <c r="AI67" s="11"/>
+      <c r="AJ67" s="11"/>
+      <c r="AK67" s="11"/>
+      <c r="AL67" s="11"/>
+      <c r="AM67" s="11"/>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="11"/>
+      <c r="AP67" s="11"/>
+      <c r="AQ67" s="11"/>
+      <c r="AR67" s="11"/>
+      <c r="AS67" s="11"/>
+      <c r="AT67" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="AU67" s="11"/>
+      <c r="AV67" s="11"/>
+      <c r="AW67" s="38"/>
+      <c r="AX67" s="11"/>
+      <c r="AY67" s="11"/>
+      <c r="AZ67" s="11"/>
+      <c r="BA67" s="11"/>
+      <c r="BB67" s="18"/>
+      <c r="BC67" s="18"/>
+      <c r="BD67" s="18"/>
+      <c r="BE67" s="19"/>
+      <c r="BF67" s="18"/>
+      <c r="BG67" s="18"/>
+      <c r="BH67" s="18"/>
+      <c r="BI67" s="18"/>
+      <c r="BJ67" s="18"/>
+      <c r="BK67" s="18"/>
+      <c r="BL67" s="18"/>
+      <c r="BM67" s="18"/>
+      <c r="BN67" s="18"/>
+      <c r="BO67" s="18"/>
+      <c r="BP67" s="18"/>
+      <c r="BQ67" s="18"/>
+      <c r="BR67" s="18"/>
+      <c r="BS67" s="18"/>
+      <c r="BT67" s="18"/>
+      <c r="BU67" s="18"/>
+      <c r="BV67" s="18"/>
+      <c r="BW67" s="18"/>
+      <c r="BX67" s="18"/>
+      <c r="BY67" s="18"/>
+      <c r="BZ67" s="18"/>
+      <c r="CA67" s="18"/>
+      <c r="CB67" s="19"/>
+      <c r="CC67" s="18"/>
+      <c r="CD67" s="18"/>
+      <c r="CE67" s="18"/>
+      <c r="CF67" s="18"/>
+      <c r="CG67" s="18"/>
+      <c r="CH67" s="18"/>
+      <c r="CI67" s="18"/>
+      <c r="CJ67" s="18"/>
+      <c r="CK67" s="18"/>
+      <c r="CL67" s="18"/>
+      <c r="CM67" s="18"/>
+      <c r="CN67" s="11"/>
+      <c r="CO67" s="19"/>
+      <c r="CP67" s="19"/>
+      <c r="CQ67" s="19"/>
+      <c r="CR67" s="19"/>
+      <c r="CS67" s="19"/>
+      <c r="CT67" s="19"/>
+      <c r="CU67" s="19"/>
+      <c r="CV67" s="11"/>
+      <c r="CW67" s="19"/>
+      <c r="CX67" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="CY67" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1" t="s">
+      <c r="CZ67" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="DA67" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="2" t="s">
+      <c r="DB67" s="11" t="s">
         <v>536</v>
-      </c>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
-      <c r="AK67" s="1"/>
-      <c r="AL67" s="1"/>
-      <c r="AM67" s="1"/>
-      <c r="AN67" s="1"/>
-      <c r="AO67" s="1"/>
-      <c r="AP67" s="1"/>
-      <c r="AQ67" s="1"/>
-      <c r="AR67" s="1"/>
-      <c r="AS67" s="1"/>
-      <c r="AT67" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AU67" s="1"/>
-      <c r="AV67" s="1"/>
-      <c r="AW67" s="29"/>
-      <c r="AX67" s="1"/>
-      <c r="AY67" s="1"/>
-      <c r="AZ67" s="1"/>
-      <c r="BA67" s="1"/>
-      <c r="BB67" s="15"/>
-      <c r="BC67" s="15"/>
-      <c r="BD67" s="15"/>
-      <c r="BE67" s="16"/>
-      <c r="BF67" s="15"/>
-      <c r="BG67" s="15"/>
-      <c r="BH67" s="15"/>
-      <c r="BI67" s="15"/>
-      <c r="BJ67" s="15"/>
-      <c r="BK67" s="15"/>
-      <c r="BL67" s="15"/>
-      <c r="BM67" s="15"/>
-      <c r="BN67" s="15"/>
-      <c r="BO67" s="15"/>
-      <c r="BP67" s="15"/>
-      <c r="BQ67" s="15"/>
-      <c r="BR67" s="15"/>
-      <c r="BS67" s="15"/>
-      <c r="BT67" s="15"/>
-      <c r="BU67" s="15"/>
-      <c r="BV67" s="15"/>
-      <c r="BW67" s="15"/>
-      <c r="BX67" s="15"/>
-      <c r="BY67" s="15"/>
-      <c r="BZ67" s="15"/>
-      <c r="CA67" s="15"/>
-      <c r="CB67" s="16"/>
-      <c r="CC67" s="15"/>
-      <c r="CD67" s="15"/>
-      <c r="CE67" s="15"/>
-      <c r="CF67" s="15"/>
-      <c r="CG67" s="15"/>
-      <c r="CH67" s="15"/>
-      <c r="CI67" s="15"/>
-      <c r="CJ67" s="15"/>
-      <c r="CK67" s="15"/>
-      <c r="CL67" s="15"/>
-      <c r="CM67" s="15"/>
-      <c r="CN67" s="1"/>
-      <c r="CO67" s="16"/>
-      <c r="CP67" s="16"/>
-      <c r="CQ67" s="16"/>
-      <c r="CR67" s="16"/>
-      <c r="CS67" s="16"/>
-      <c r="CT67" s="16"/>
-      <c r="CU67" s="16"/>
-      <c r="CV67" s="1"/>
-      <c r="CW67" s="16"/>
-      <c r="CX67" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="CY67" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="CZ67" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="DA67" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="DB67" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:106">
       <c r="A68" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B68" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I68" s="47" t="s">
-        <v>184</v>
+      <c r="I68" s="42" t="s">
+        <v>183</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="41">
+      <c r="O68" s="39">
         <v>44743</v>
       </c>
-      <c r="P68" s="41">
+      <c r="P68" s="39">
         <v>44749</v>
       </c>
       <c r="Q68" s="1"/>
@@ -11917,7 +11944,7 @@
       <c r="AR68" s="1"/>
       <c r="AS68" s="1"/>
       <c r="AT68" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
@@ -11927,10 +11954,10 @@
         <v>1</v>
       </c>
       <c r="AZ68" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="BA68" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="BB68" s="1">
         <v>10</v>
@@ -11976,7 +12003,7 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="CP68" s="1"/>
       <c r="CQ68" s="1"/>
@@ -11992,125 +12019,16 @@
       <c r="DA68" s="26"/>
       <c r="DB68" s="1"/>
     </row>
-    <row r="82" spans="1:107">
-      <c r="A82" s="48"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
-      <c r="L82" s="48"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="48"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
-      <c r="Q82" s="48"/>
-      <c r="R82" s="48"/>
-      <c r="S82" s="48"/>
-      <c r="T82" s="48"/>
-      <c r="U82" s="48"/>
-      <c r="V82" s="48"/>
-      <c r="W82" s="50"/>
-      <c r="X82" s="48"/>
-      <c r="Y82" s="48"/>
-      <c r="Z82" s="48"/>
-      <c r="AA82" s="48"/>
-      <c r="AB82" s="48"/>
-      <c r="AC82" s="48"/>
-      <c r="AD82" s="48"/>
-      <c r="AE82" s="48"/>
-      <c r="AF82" s="48"/>
-      <c r="AG82" s="48"/>
-      <c r="AH82" s="48"/>
-      <c r="AI82" s="48"/>
-      <c r="AJ82" s="48"/>
-      <c r="AK82" s="48"/>
-      <c r="AL82" s="48"/>
-      <c r="AM82" s="48"/>
-      <c r="AN82" s="48"/>
-      <c r="AO82" s="48"/>
-      <c r="AP82" s="48"/>
-      <c r="AQ82" s="48"/>
-      <c r="AR82" s="48"/>
-      <c r="AS82" s="48"/>
-      <c r="AT82" s="48"/>
-      <c r="AU82" s="48"/>
-      <c r="AV82" s="48"/>
-      <c r="AW82" s="48"/>
-      <c r="AX82" s="48"/>
-      <c r="AY82" s="48"/>
-      <c r="AZ82" s="48"/>
-      <c r="BA82" s="48"/>
-      <c r="BB82" s="48"/>
-      <c r="BC82" s="48"/>
-      <c r="BD82" s="48"/>
-      <c r="BE82" s="48"/>
-      <c r="BF82" s="48"/>
-      <c r="BG82" s="48"/>
-      <c r="BH82" s="48"/>
-      <c r="BI82" s="48"/>
-      <c r="BJ82" s="48"/>
-      <c r="BK82" s="48"/>
-      <c r="BL82" s="48"/>
-      <c r="BM82" s="48"/>
-      <c r="BN82" s="48"/>
-      <c r="BO82" s="48"/>
-      <c r="BP82" s="48"/>
-      <c r="BQ82" s="48"/>
-      <c r="BR82" s="48"/>
-      <c r="BS82" s="48"/>
-      <c r="BT82" s="48"/>
-      <c r="BU82" s="48"/>
-      <c r="BV82" s="48"/>
-      <c r="BW82" s="48"/>
-      <c r="BX82" s="48"/>
-      <c r="BY82" s="48"/>
-      <c r="BZ82" s="48"/>
-      <c r="CA82" s="48"/>
-      <c r="CB82" s="48"/>
-      <c r="CC82" s="48"/>
-      <c r="CD82" s="48"/>
-      <c r="CE82" s="48"/>
-      <c r="CF82" s="48"/>
-      <c r="CG82" s="48"/>
-      <c r="CH82" s="48"/>
-      <c r="CI82" s="48"/>
-      <c r="CJ82" s="48"/>
-      <c r="CK82" s="48"/>
-      <c r="CL82" s="48"/>
-      <c r="CM82" s="48"/>
-      <c r="CN82" s="48"/>
-      <c r="CO82" s="48"/>
-      <c r="CP82" s="48"/>
-      <c r="CQ82" s="48"/>
-      <c r="CR82" s="48"/>
-      <c r="CS82" s="48"/>
-      <c r="CT82" s="48"/>
-      <c r="CU82" s="48"/>
-      <c r="CV82" s="48"/>
-      <c r="CW82" s="48"/>
-      <c r="CX82" s="48"/>
-      <c r="CY82" s="51"/>
-      <c r="CZ82" s="50"/>
-      <c r="DA82" s="52"/>
-      <c r="DB82" s="48"/>
-      <c r="DC82" s="48"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
-    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com"/>
-    <hyperlink ref="W14" r:id="rId4"/>
-    <hyperlink ref="W67" r:id="rId5"/>
-    <hyperlink ref="CZ67" r:id="rId6"/>
-    <hyperlink ref="DA67" r:id="rId7"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="W14" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="W67" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="CZ67" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="DA67" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0746D836-64ED-4C54-BE30-ED52E37582C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="563">
   <si>
     <t>Environment</t>
   </si>
@@ -1815,11 +1814,38 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>Smoke_TC77</t>
+  </si>
+  <si>
+    <t>Smoke_TC78</t>
+  </si>
+  <si>
+    <t>Smoke_TC79</t>
+  </si>
+  <si>
+    <t>Smoke_TC80</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook Login </t>
+  </si>
+  <si>
+    <t>Google Login</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Valid Credentials</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="10">
     <font>
@@ -2034,7 +2060,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2085,6 +2111,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -2092,12 +2125,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2374,7 +2407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2412,14 +2445,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2457,14 +2490,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2623,23 +2656,23 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DB68"/>
+  <dimension ref="A1:DB72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3007,7 +3040,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J2" s="4"/>
@@ -3133,7 +3166,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="14"/>
@@ -3337,7 +3370,7 @@
       <c r="H4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="14"/>
@@ -3475,7 +3508,7 @@
       <c r="H5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3615,7 +3648,7 @@
       <c r="H6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3745,7 +3778,7 @@
       <c r="H7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J7" s="14"/>
@@ -3875,7 +3908,7 @@
       <c r="H8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -4007,7 +4040,7 @@
       <c r="H9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J9" s="1"/>
@@ -4143,7 +4176,7 @@
         <v>187</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4281,7 +4314,7 @@
         <v>192</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4415,7 +4448,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J12" s="21"/>
@@ -4547,7 +4580,7 @@
         <v>198</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="21"/>
@@ -4679,7 +4712,7 @@
         <v>201</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J14" s="21"/>
@@ -4811,7 +4844,7 @@
         <v>204</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J15" s="21" t="s">
@@ -4963,7 +4996,7 @@
         <v>225</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J16" s="21"/>
@@ -5110,7 +5143,7 @@
       <c r="H17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J17" s="14"/>
@@ -5236,7 +5269,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5366,7 +5399,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J19" s="14"/>
@@ -5494,7 +5527,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J20" s="14"/>
@@ -5630,7 +5663,7 @@
       <c r="H21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J21" s="14"/>
@@ -5766,7 +5799,7 @@
       <c r="H22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J22" s="14"/>
@@ -5898,7 +5931,7 @@
       <c r="H23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J23" s="14"/>
@@ -6034,7 +6067,7 @@
       <c r="H24" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J24" s="14"/>
@@ -6168,7 +6201,7 @@
       <c r="H25" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J25" s="14"/>
@@ -6302,7 +6335,7 @@
       <c r="H26" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J26" s="14"/>
@@ -6436,7 +6469,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J27" s="14"/>
@@ -6568,7 +6601,7 @@
       <c r="H28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J28" s="14"/>
@@ -6700,7 +6733,7 @@
       <c r="H29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J29" s="14"/>
@@ -6834,7 +6867,7 @@
       <c r="H30" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J30" s="14"/>
@@ -6970,7 +7003,7 @@
       <c r="H31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J31" s="14"/>
@@ -7106,7 +7139,7 @@
       <c r="H32" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J32" s="17"/>
@@ -7236,7 +7269,7 @@
         <v>526</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J33" s="1"/>
@@ -7342,7 +7375,7 @@
         <v>275</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>258</v>
@@ -7358,8 +7391,8 @@
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="46" t="s">
-        <v>553</v>
+      <c r="I34" s="55" t="s">
+        <v>183</v>
       </c>
       <c r="J34" s="32" t="s">
         <v>274</v>
@@ -7524,7 +7557,7 @@
       <c r="H35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J35" s="1"/>
@@ -7660,7 +7693,7 @@
       <c r="H36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J36" s="1"/>
@@ -7796,7 +7829,7 @@
       <c r="H37" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J37" s="1"/>
@@ -7928,7 +7961,7 @@
       <c r="H38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J38" s="1"/>
@@ -8060,7 +8093,7 @@
       <c r="H39" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J39" s="1"/>
@@ -8192,7 +8225,7 @@
       <c r="H40" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I40" s="48" t="s">
+      <c r="I40" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J40" s="1"/>
@@ -8324,7 +8357,7 @@
       <c r="H41" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J41" s="1"/>
@@ -8456,7 +8489,7 @@
       <c r="H42" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J42" s="1"/>
@@ -8588,7 +8621,7 @@
       <c r="H43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J43" s="1"/>
@@ -8720,7 +8753,7 @@
       <c r="H44" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J44" s="1"/>
@@ -8850,7 +8883,7 @@
         <v>422</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="48" t="s">
+      <c r="I45" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J45" s="1"/>
@@ -8980,7 +9013,7 @@
         <v>426</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J46" s="1"/>
@@ -9110,7 +9143,7 @@
         <v>430</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J47" s="1"/>
@@ -9240,7 +9273,7 @@
         <v>434</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J48" s="1"/>
@@ -9372,7 +9405,7 @@
       <c r="H49" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I49" s="48" t="s">
+      <c r="I49" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J49" s="1"/>
@@ -9504,7 +9537,7 @@
       <c r="H50" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I50" s="48" t="s">
+      <c r="I50" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1"/>
@@ -9636,7 +9669,7 @@
       <c r="H51" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I51" s="48" t="s">
+      <c r="I51" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J51" s="1"/>
@@ -9768,7 +9801,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="I52" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J52" s="1"/>
@@ -9898,7 +9931,7 @@
         <v>458</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="48" t="s">
+      <c r="I53" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J53" s="1"/>
@@ -10028,7 +10061,7 @@
         <v>462</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="48" t="s">
+      <c r="I54" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J54" s="1"/>
@@ -10160,7 +10193,7 @@
       <c r="H55" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I55" s="48" t="s">
+      <c r="I55" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J55" s="1"/>
@@ -10292,7 +10325,7 @@
       <c r="H56" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J56" s="1"/>
@@ -10422,7 +10455,7 @@
         <v>476</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="48" t="s">
+      <c r="I57" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J57" s="1"/>
@@ -10554,7 +10587,7 @@
         <v>481</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="48" t="s">
+      <c r="I58" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J58" s="1"/>
@@ -10688,7 +10721,7 @@
       <c r="H59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="I59" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J59" s="1"/>
@@ -10822,7 +10855,7 @@
       <c r="H60" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J60" s="1"/>
@@ -10956,7 +10989,7 @@
       <c r="H61" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I61" s="48" t="s">
+      <c r="I61" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J61" s="1"/>
@@ -11090,7 +11123,7 @@
       <c r="H62" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J62" s="1"/>
@@ -11224,7 +11257,7 @@
       <c r="H63" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J63" s="1"/>
@@ -11358,7 +11391,7 @@
       <c r="H64" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I64" s="48" t="s">
+      <c r="I64" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J64" s="1"/>
@@ -11492,7 +11525,7 @@
       <c r="H65" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J65" s="1"/>
@@ -11626,7 +11659,7 @@
       <c r="H66" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="I66" s="48" t="s">
+      <c r="I66" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J66" s="11"/>
@@ -11740,7 +11773,7 @@
         <v>529</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>258</v>
@@ -11758,8 +11791,8 @@
         <v>531</v>
       </c>
       <c r="H67" s="11"/>
-      <c r="I67" s="42" t="s">
-        <v>183</v>
+      <c r="I67" s="53" t="s">
+        <v>553</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
@@ -11876,159 +11909,647 @@
       </c>
     </row>
     <row r="68" spans="1:106">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="11" t="s">
         <v>547</v>
       </c>
       <c r="I68" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="39">
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="48">
         <v>44743</v>
       </c>
-      <c r="P68" s="39">
+      <c r="P68" s="48">
         <v>44749</v>
       </c>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
-      <c r="AK68" s="1"/>
-      <c r="AL68" s="1"/>
-      <c r="AM68" s="1"/>
-      <c r="AN68" s="1"/>
-      <c r="AO68" s="1"/>
-      <c r="AP68" s="1"/>
-      <c r="AQ68" s="1"/>
-      <c r="AR68" s="1"/>
-      <c r="AS68" s="1"/>
-      <c r="AT68" s="1" t="s">
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="11"/>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="11"/>
+      <c r="AR68" s="11"/>
+      <c r="AS68" s="11"/>
+      <c r="AT68" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="AU68" s="1"/>
-      <c r="AV68" s="1"/>
-      <c r="AW68" s="29"/>
-      <c r="AX68" s="1"/>
-      <c r="AY68" s="1">
+      <c r="AU68" s="11"/>
+      <c r="AV68" s="11"/>
+      <c r="AW68" s="38"/>
+      <c r="AX68" s="11"/>
+      <c r="AY68" s="11">
         <v>1</v>
       </c>
-      <c r="AZ68" s="1" t="s">
+      <c r="AZ68" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="BA68" s="1" t="s">
+      <c r="BA68" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="BB68" s="1">
+      <c r="BB68" s="11">
         <v>10</v>
       </c>
-      <c r="BC68" s="1">
+      <c r="BC68" s="11">
         <v>50</v>
       </c>
-      <c r="BD68" s="1"/>
-      <c r="BE68" s="1"/>
-      <c r="BF68" s="1"/>
-      <c r="BG68" s="1"/>
-      <c r="BH68" s="1"/>
-      <c r="BI68" s="1"/>
-      <c r="BJ68" s="1"/>
-      <c r="BK68" s="1"/>
-      <c r="BL68" s="1"/>
-      <c r="BM68" s="1"/>
-      <c r="BN68" s="1"/>
-      <c r="BO68" s="1"/>
-      <c r="BP68" s="1"/>
-      <c r="BQ68" s="1"/>
-      <c r="BR68" s="1"/>
-      <c r="BS68" s="1"/>
-      <c r="BT68" s="1"/>
-      <c r="BU68" s="1"/>
-      <c r="BV68" s="1"/>
-      <c r="BW68" s="1"/>
-      <c r="BX68" s="1"/>
-      <c r="BY68" s="1"/>
-      <c r="BZ68" s="1"/>
-      <c r="CA68" s="1"/>
-      <c r="CB68" s="1"/>
-      <c r="CC68" s="1"/>
-      <c r="CD68" s="1"/>
-      <c r="CE68" s="1"/>
-      <c r="CF68" s="1"/>
-      <c r="CG68" s="1"/>
-      <c r="CH68" s="1"/>
-      <c r="CI68" s="1"/>
-      <c r="CJ68" s="1"/>
-      <c r="CK68" s="1"/>
-      <c r="CL68" s="1"/>
-      <c r="CM68" s="1"/>
-      <c r="CN68" s="1"/>
-      <c r="CO68" s="1" t="s">
+      <c r="BD68" s="11"/>
+      <c r="BE68" s="11"/>
+      <c r="BF68" s="11"/>
+      <c r="BG68" s="11"/>
+      <c r="BH68" s="11"/>
+      <c r="BI68" s="11"/>
+      <c r="BJ68" s="11"/>
+      <c r="BK68" s="11"/>
+      <c r="BL68" s="11"/>
+      <c r="BM68" s="11"/>
+      <c r="BN68" s="11"/>
+      <c r="BO68" s="11"/>
+      <c r="BP68" s="11"/>
+      <c r="BQ68" s="11"/>
+      <c r="BR68" s="11"/>
+      <c r="BS68" s="11"/>
+      <c r="BT68" s="11"/>
+      <c r="BU68" s="11"/>
+      <c r="BV68" s="11"/>
+      <c r="BW68" s="11"/>
+      <c r="BX68" s="11"/>
+      <c r="BY68" s="11"/>
+      <c r="BZ68" s="11"/>
+      <c r="CA68" s="11"/>
+      <c r="CB68" s="11"/>
+      <c r="CC68" s="11"/>
+      <c r="CD68" s="11"/>
+      <c r="CE68" s="11"/>
+      <c r="CF68" s="11"/>
+      <c r="CG68" s="11"/>
+      <c r="CH68" s="11"/>
+      <c r="CI68" s="11"/>
+      <c r="CJ68" s="11"/>
+      <c r="CK68" s="11"/>
+      <c r="CL68" s="11"/>
+      <c r="CM68" s="11"/>
+      <c r="CN68" s="11"/>
+      <c r="CO68" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
-      <c r="CR68" s="1"/>
-      <c r="CS68" s="1"/>
-      <c r="CT68" s="1"/>
-      <c r="CU68" s="1"/>
-      <c r="CV68" s="1"/>
-      <c r="CW68" s="1"/>
-      <c r="CX68" s="1"/>
-      <c r="CY68" s="37"/>
-      <c r="CZ68" s="36"/>
-      <c r="DA68" s="26"/>
-      <c r="DB68" s="1"/>
+      <c r="CP68" s="11"/>
+      <c r="CQ68" s="11"/>
+      <c r="CR68" s="11"/>
+      <c r="CS68" s="11"/>
+      <c r="CT68" s="11"/>
+      <c r="CU68" s="11"/>
+      <c r="CV68" s="11"/>
+      <c r="CW68" s="11"/>
+      <c r="CX68" s="11"/>
+      <c r="CY68" s="49"/>
+      <c r="CZ68" s="50"/>
+      <c r="DA68" s="51"/>
+      <c r="DB68" s="11"/>
+    </row>
+    <row r="69" spans="1:106">
+      <c r="A69" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F69" s="46" t="s">
+        <v>559</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="29"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="1"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="1"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1"/>
+      <c r="CO69" s="1"/>
+      <c r="CP69" s="1"/>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="1"/>
+      <c r="CT69" s="1"/>
+      <c r="CU69" s="1"/>
+      <c r="CV69" s="1"/>
+      <c r="CW69" s="1"/>
+      <c r="CX69" s="1"/>
+      <c r="CY69" s="37"/>
+      <c r="CZ69" s="36"/>
+      <c r="DA69" s="26"/>
+      <c r="DB69" s="1"/>
+    </row>
+    <row r="70" spans="1:106">
+      <c r="A70" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="D70" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="E70" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F70" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="29"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="1"/>
+      <c r="CA70" s="1"/>
+      <c r="CB70" s="1"/>
+      <c r="CC70" s="1"/>
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="1"/>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="1"/>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="1"/>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="1"/>
+      <c r="CO70" s="1"/>
+      <c r="CP70" s="1"/>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="1"/>
+      <c r="CS70" s="1"/>
+      <c r="CT70" s="1"/>
+      <c r="CU70" s="1"/>
+      <c r="CV70" s="1"/>
+      <c r="CW70" s="1"/>
+      <c r="CX70" s="1"/>
+      <c r="CY70" s="37"/>
+      <c r="CZ70" s="36"/>
+      <c r="DA70" s="26"/>
+      <c r="DB70" s="1"/>
+    </row>
+    <row r="71" spans="1:106">
+      <c r="A71" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="D71" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F71" s="46" t="s">
+        <v>561</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="29"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1"/>
+      <c r="CO71" s="1"/>
+      <c r="CP71" s="1"/>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1"/>
+      <c r="CV71" s="1"/>
+      <c r="CW71" s="1"/>
+      <c r="CX71" s="1"/>
+      <c r="CY71" s="37"/>
+      <c r="CZ71" s="36"/>
+      <c r="DA71" s="26"/>
+      <c r="DB71" s="1"/>
+    </row>
+    <row r="72" spans="1:106">
+      <c r="A72" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="D72" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="E72" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="53" t="s">
+        <v>553</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="29"/>
+      <c r="AX72" s="1"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+      <c r="BD72" s="1"/>
+      <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
+      <c r="BG72" s="1"/>
+      <c r="BH72" s="1"/>
+      <c r="BI72" s="1"/>
+      <c r="BJ72" s="1"/>
+      <c r="BK72" s="1"/>
+      <c r="BL72" s="1"/>
+      <c r="BM72" s="1"/>
+      <c r="BN72" s="1"/>
+      <c r="BO72" s="1"/>
+      <c r="BP72" s="1"/>
+      <c r="BQ72" s="1"/>
+      <c r="BR72" s="1"/>
+      <c r="BS72" s="1"/>
+      <c r="BT72" s="1"/>
+      <c r="BU72" s="1"/>
+      <c r="BV72" s="1"/>
+      <c r="BW72" s="1"/>
+      <c r="BX72" s="1"/>
+      <c r="BY72" s="1"/>
+      <c r="BZ72" s="1"/>
+      <c r="CA72" s="1"/>
+      <c r="CB72" s="1"/>
+      <c r="CC72" s="1"/>
+      <c r="CD72" s="1"/>
+      <c r="CE72" s="1"/>
+      <c r="CF72" s="1"/>
+      <c r="CG72" s="1"/>
+      <c r="CH72" s="1"/>
+      <c r="CI72" s="1"/>
+      <c r="CJ72" s="1"/>
+      <c r="CK72" s="1"/>
+      <c r="CL72" s="1"/>
+      <c r="CM72" s="1"/>
+      <c r="CN72" s="1"/>
+      <c r="CO72" s="1"/>
+      <c r="CP72" s="1"/>
+      <c r="CQ72" s="1"/>
+      <c r="CR72" s="1"/>
+      <c r="CS72" s="1"/>
+      <c r="CT72" s="1"/>
+      <c r="CU72" s="1"/>
+      <c r="CV72" s="1"/>
+      <c r="CW72" s="1"/>
+      <c r="CX72" s="1"/>
+      <c r="CY72" s="37"/>
+      <c r="CZ72" s="36"/>
+      <c r="DA72" s="26"/>
+      <c r="DB72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="W14" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="W67" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="CZ67" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="DA67" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com"/>
+    <hyperlink ref="W14" r:id="rId4"/>
+    <hyperlink ref="W67" r:id="rId5"/>
+    <hyperlink ref="CZ67" r:id="rId6"/>
+    <hyperlink ref="DA67" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="564">
   <si>
     <t>Environment</t>
   </si>
@@ -1812,34 +1812,37 @@
     <t>SID: 602, Copy (6) of All question survey (Recurring applied daily, monthly n weekly)</t>
   </si>
   <si>
+    <t>Smoke_TC77</t>
+  </si>
+  <si>
+    <t>Smoke_TC78</t>
+  </si>
+  <si>
+    <t>Smoke_TC79</t>
+  </si>
+  <si>
+    <t>Smoke_TC80</t>
+  </si>
+  <si>
+    <t>Sajid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook Login </t>
+  </si>
+  <si>
+    <t>Google Login</t>
+  </si>
+  <si>
+    <t>Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Valid Credentials</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Smoke_TC77</t>
-  </si>
-  <si>
-    <t>Smoke_TC78</t>
-  </si>
-  <si>
-    <t>Smoke_TC79</t>
-  </si>
-  <si>
-    <t>Smoke_TC80</t>
-  </si>
-  <si>
-    <t>Sajid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook Login </t>
-  </si>
-  <si>
-    <t>Google Login</t>
-  </si>
-  <si>
-    <t>Invalid Credentials</t>
-  </si>
-  <si>
-    <t>Valid Credentials</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1850,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1909,8 +1912,19 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1951,7 +1965,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2060,7 +2104,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2107,21 +2151,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2671,8 +2718,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DB72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3040,7 +3087,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J2" s="4"/>
@@ -3166,7 +3213,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="14"/>
@@ -3370,7 +3417,7 @@
       <c r="H4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="14"/>
@@ -3508,7 +3555,7 @@
       <c r="H5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3648,7 +3695,7 @@
       <c r="H6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3778,7 +3825,7 @@
       <c r="H7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J7" s="14"/>
@@ -3908,7 +3955,7 @@
       <c r="H8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -4040,7 +4087,7 @@
       <c r="H9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J9" s="1"/>
@@ -4176,7 +4223,7 @@
         <v>187</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4314,7 +4361,7 @@
         <v>192</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4448,7 +4495,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J12" s="21"/>
@@ -4580,7 +4627,7 @@
         <v>198</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="21"/>
@@ -4712,7 +4759,7 @@
         <v>201</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J14" s="21"/>
@@ -4844,7 +4891,7 @@
         <v>204</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J15" s="21" t="s">
@@ -4996,7 +5043,7 @@
         <v>225</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J16" s="21"/>
@@ -5143,7 +5190,7 @@
       <c r="H17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J17" s="14"/>
@@ -5269,7 +5316,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5399,7 +5446,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J19" s="14"/>
@@ -5527,7 +5574,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J20" s="14"/>
@@ -5663,7 +5710,7 @@
       <c r="H21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J21" s="14"/>
@@ -5799,7 +5846,7 @@
       <c r="H22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J22" s="14"/>
@@ -5931,7 +5978,7 @@
       <c r="H23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J23" s="14"/>
@@ -6067,7 +6114,7 @@
       <c r="H24" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J24" s="14"/>
@@ -6201,7 +6248,7 @@
       <c r="H25" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I25" s="55" t="s">
+      <c r="I25" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J25" s="14"/>
@@ -6335,7 +6382,7 @@
       <c r="H26" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J26" s="14"/>
@@ -6469,7 +6516,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J27" s="14"/>
@@ -6601,7 +6648,7 @@
       <c r="H28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="I28" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J28" s="14"/>
@@ -6733,7 +6780,7 @@
       <c r="H29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J29" s="14"/>
@@ -6867,7 +6914,7 @@
       <c r="H30" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I30" s="55" t="s">
+      <c r="I30" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J30" s="14"/>
@@ -7003,7 +7050,7 @@
       <c r="H31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I31" s="55" t="s">
+      <c r="I31" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J31" s="14"/>
@@ -7139,7 +7186,7 @@
       <c r="H32" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="I32" s="55" t="s">
+      <c r="I32" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J32" s="17"/>
@@ -7269,7 +7316,7 @@
         <v>526</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="55" t="s">
+      <c r="I33" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J33" s="1"/>
@@ -7391,7 +7438,7 @@
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="55" t="s">
+      <c r="I34" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J34" s="32" t="s">
@@ -7557,7 +7604,7 @@
       <c r="H35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I35" s="55" t="s">
+      <c r="I35" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J35" s="1"/>
@@ -7693,7 +7740,7 @@
       <c r="H36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I36" s="55" t="s">
+      <c r="I36" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J36" s="1"/>
@@ -7829,7 +7876,7 @@
       <c r="H37" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="I37" s="55" t="s">
+      <c r="I37" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J37" s="1"/>
@@ -7961,7 +8008,7 @@
       <c r="H38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I38" s="55" t="s">
+      <c r="I38" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J38" s="1"/>
@@ -8093,7 +8140,7 @@
       <c r="H39" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I39" s="55" t="s">
+      <c r="I39" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J39" s="1"/>
@@ -8225,7 +8272,7 @@
       <c r="H40" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I40" s="55" t="s">
+      <c r="I40" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J40" s="1"/>
@@ -8357,7 +8404,7 @@
       <c r="H41" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I41" s="55" t="s">
+      <c r="I41" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J41" s="1"/>
@@ -8489,7 +8536,7 @@
       <c r="H42" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I42" s="55" t="s">
+      <c r="I42" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J42" s="1"/>
@@ -8621,7 +8668,7 @@
       <c r="H43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I43" s="55" t="s">
+      <c r="I43" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J43" s="1"/>
@@ -8753,7 +8800,7 @@
       <c r="H44" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I44" s="55" t="s">
+      <c r="I44" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J44" s="1"/>
@@ -8883,7 +8930,7 @@
         <v>422</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="55" t="s">
+      <c r="I45" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J45" s="1"/>
@@ -9013,7 +9060,7 @@
         <v>426</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="55" t="s">
+      <c r="I46" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J46" s="1"/>
@@ -9143,7 +9190,7 @@
         <v>430</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="55" t="s">
+      <c r="I47" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J47" s="1"/>
@@ -9273,7 +9320,7 @@
         <v>434</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="55" t="s">
+      <c r="I48" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J48" s="1"/>
@@ -9405,7 +9452,7 @@
       <c r="H49" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I49" s="55" t="s">
+      <c r="I49" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J49" s="1"/>
@@ -9537,7 +9584,7 @@
       <c r="H50" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I50" s="55" t="s">
+      <c r="I50" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1"/>
@@ -9669,7 +9716,7 @@
       <c r="H51" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I51" s="55" t="s">
+      <c r="I51" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J51" s="1"/>
@@ -9801,7 +9848,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="55" t="s">
+      <c r="I52" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J52" s="1"/>
@@ -9931,7 +9978,7 @@
         <v>458</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="55" t="s">
+      <c r="I53" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J53" s="1"/>
@@ -10061,7 +10108,7 @@
         <v>462</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="55" t="s">
+      <c r="I54" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J54" s="1"/>
@@ -10193,7 +10240,7 @@
       <c r="H55" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I55" s="55" t="s">
+      <c r="I55" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J55" s="1"/>
@@ -10325,7 +10372,7 @@
       <c r="H56" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I56" s="55" t="s">
+      <c r="I56" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J56" s="1"/>
@@ -10455,7 +10502,7 @@
         <v>476</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="55" t="s">
+      <c r="I57" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J57" s="1"/>
@@ -10587,7 +10634,7 @@
         <v>481</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="55" t="s">
+      <c r="I58" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J58" s="1"/>
@@ -10721,7 +10768,7 @@
       <c r="H59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I59" s="55" t="s">
+      <c r="I59" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J59" s="1"/>
@@ -10855,7 +10902,7 @@
       <c r="H60" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I60" s="55" t="s">
+      <c r="I60" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J60" s="1"/>
@@ -10989,7 +11036,7 @@
       <c r="H61" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I61" s="55" t="s">
+      <c r="I61" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J61" s="1"/>
@@ -11123,7 +11170,7 @@
       <c r="H62" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I62" s="55" t="s">
+      <c r="I62" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J62" s="1"/>
@@ -11257,7 +11304,7 @@
       <c r="H63" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I63" s="55" t="s">
+      <c r="I63" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J63" s="1"/>
@@ -11391,7 +11438,7 @@
       <c r="H64" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I64" s="55" t="s">
+      <c r="I64" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J64" s="1"/>
@@ -11525,7 +11572,7 @@
       <c r="H65" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I65" s="55" t="s">
+      <c r="I65" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J65" s="1"/>
@@ -11659,7 +11706,7 @@
       <c r="H66" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="I66" s="55" t="s">
+      <c r="I66" s="58" t="s">
         <v>183</v>
       </c>
       <c r="J66" s="11"/>
@@ -11773,7 +11820,7 @@
         <v>529</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>258</v>
@@ -11791,8 +11838,8 @@
         <v>531</v>
       </c>
       <c r="H67" s="11"/>
-      <c r="I67" s="53" t="s">
-        <v>553</v>
+      <c r="I67" s="58" t="s">
+        <v>183</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
@@ -11809,7 +11856,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
-      <c r="W67" s="43" t="s">
+      <c r="W67" s="42" t="s">
         <v>533</v>
       </c>
       <c r="X67" s="11"/>
@@ -11898,10 +11945,10 @@
       <c r="CY67" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="CZ67" s="43" t="s">
+      <c r="CZ67" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="DA67" s="43" t="s">
+      <c r="DA67" s="42" t="s">
         <v>535</v>
       </c>
       <c r="DB67" s="11" t="s">
@@ -11912,7 +11959,7 @@
       <c r="A68" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -11933,7 +11980,7 @@
       <c r="H68" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="I68" s="42" t="s">
+      <c r="I68" s="49" t="s">
         <v>183</v>
       </c>
       <c r="J68" s="11"/>
@@ -11941,10 +11988,10 @@
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
-      <c r="O68" s="48">
+      <c r="O68" s="45">
         <v>44743</v>
       </c>
-      <c r="P68" s="48">
+      <c r="P68" s="45">
         <v>44749</v>
       </c>
       <c r="Q68" s="11"/>
@@ -12047,34 +12094,34 @@
       <c r="CV68" s="11"/>
       <c r="CW68" s="11"/>
       <c r="CX68" s="11"/>
-      <c r="CY68" s="49"/>
-      <c r="CZ68" s="50"/>
-      <c r="DA68" s="51"/>
+      <c r="CY68" s="46"/>
+      <c r="CZ68" s="47"/>
+      <c r="DA68" s="48"/>
       <c r="DB68" s="11"/>
     </row>
     <row r="69" spans="1:106">
       <c r="A69" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B69" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="B69" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="F69" s="43" t="s">
         <v>558</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="E69" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="F69" s="46" t="s">
-        <v>559</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="53" t="s">
-        <v>553</v>
+      <c r="I69" s="56" t="s">
+        <v>563</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -12176,27 +12223,27 @@
     </row>
     <row r="70" spans="1:106">
       <c r="A70" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B70" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="B70" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="D70" s="46" t="s">
+      <c r="C70" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="D70" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="E70" s="46" t="s">
+      <c r="E70" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="F70" s="46" t="s">
-        <v>560</v>
+      <c r="F70" s="43" t="s">
+        <v>559</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="53" t="s">
-        <v>553</v>
+      <c r="I70" s="56" t="s">
+        <v>563</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -12298,27 +12345,27 @@
     </row>
     <row r="71" spans="1:106">
       <c r="A71" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B71" s="46" t="s">
+        <v>555</v>
+      </c>
+      <c r="B71" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="D71" s="46" t="s">
+      <c r="C71" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="D71" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="F71" s="46" t="s">
-        <v>561</v>
+      <c r="F71" s="43" t="s">
+        <v>560</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="53" t="s">
-        <v>553</v>
+      <c r="I71" s="56" t="s">
+        <v>563</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -12420,27 +12467,27 @@
     </row>
     <row r="72" spans="1:106">
       <c r="A72" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="43" t="s">
         <v>557</v>
       </c>
-      <c r="B72" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="F72" s="46" t="s">
-        <v>562</v>
+      <c r="F72" s="43" t="s">
+        <v>561</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="53" t="s">
-        <v>553</v>
+      <c r="I72" s="56" t="s">
+        <v>563</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="565">
   <si>
     <t>Environment</t>
   </si>
@@ -1839,10 +1839,13 @@
     <t>Valid Credentials</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>RMX3</t>
   </si>
 </sst>
 </file>
@@ -1850,7 +1853,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1912,19 +1915,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="22">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1965,37 +1957,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2104,7 +2071,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2153,7 +2120,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -2161,14 +2127,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2549,7 +2512,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2688,7 +2651,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>230</v>
+        <v>564</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>551</v>
@@ -2718,8 +2681,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DB72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3087,7 +3050,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J2" s="4"/>
@@ -3213,7 +3176,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="14"/>
@@ -3417,7 +3380,7 @@
       <c r="H4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="14"/>
@@ -3555,7 +3518,7 @@
       <c r="H5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3695,7 +3658,7 @@
       <c r="H6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3825,7 +3788,7 @@
       <c r="H7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J7" s="14"/>
@@ -3955,7 +3918,7 @@
       <c r="H8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -4087,7 +4050,7 @@
       <c r="H9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J9" s="1"/>
@@ -4223,7 +4186,7 @@
         <v>187</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4361,7 +4324,7 @@
         <v>192</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4495,7 +4458,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J12" s="21"/>
@@ -4627,7 +4590,7 @@
         <v>198</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="21"/>
@@ -4759,7 +4722,7 @@
         <v>201</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J14" s="21"/>
@@ -4891,7 +4854,7 @@
         <v>204</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="58" t="s">
+      <c r="I15" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J15" s="21" t="s">
@@ -5025,7 +4988,7 @@
         <v>223</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>258</v>
@@ -5043,8 +5006,8 @@
         <v>225</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="58" t="s">
-        <v>183</v>
+      <c r="I16" s="52" t="s">
+        <v>562</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="20" t="s">
@@ -5190,7 +5153,7 @@
       <c r="H17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J17" s="14"/>
@@ -5316,7 +5279,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5446,7 +5409,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J19" s="14"/>
@@ -5574,7 +5537,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="58" t="s">
+      <c r="I20" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J20" s="14"/>
@@ -5710,7 +5673,7 @@
       <c r="H21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I21" s="58" t="s">
+      <c r="I21" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J21" s="14"/>
@@ -5846,7 +5809,7 @@
       <c r="H22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J22" s="14"/>
@@ -5978,7 +5941,7 @@
       <c r="H23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J23" s="14"/>
@@ -6114,7 +6077,7 @@
       <c r="H24" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J24" s="14"/>
@@ -6248,7 +6211,7 @@
       <c r="H25" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I25" s="58" t="s">
+      <c r="I25" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J25" s="14"/>
@@ -6382,7 +6345,7 @@
       <c r="H26" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I26" s="58" t="s">
+      <c r="I26" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J26" s="14"/>
@@ -6516,7 +6479,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J27" s="14"/>
@@ -6648,7 +6611,7 @@
       <c r="H28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I28" s="58" t="s">
+      <c r="I28" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J28" s="14"/>
@@ -6780,7 +6743,7 @@
       <c r="H29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I29" s="58" t="s">
+      <c r="I29" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J29" s="14"/>
@@ -6914,7 +6877,7 @@
       <c r="H30" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J30" s="14"/>
@@ -7050,7 +7013,7 @@
       <c r="H31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I31" s="58" t="s">
+      <c r="I31" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J31" s="14"/>
@@ -7186,7 +7149,7 @@
       <c r="H32" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="I32" s="58" t="s">
+      <c r="I32" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J32" s="17"/>
@@ -7316,7 +7279,7 @@
         <v>526</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="58" t="s">
+      <c r="I33" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J33" s="1"/>
@@ -7438,7 +7401,7 @@
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J34" s="32" t="s">
@@ -7604,7 +7567,7 @@
       <c r="H35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I35" s="58" t="s">
+      <c r="I35" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J35" s="1"/>
@@ -7740,7 +7703,7 @@
       <c r="H36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I36" s="58" t="s">
+      <c r="I36" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J36" s="1"/>
@@ -7876,7 +7839,7 @@
       <c r="H37" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="I37" s="58" t="s">
+      <c r="I37" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J37" s="1"/>
@@ -8008,7 +7971,7 @@
       <c r="H38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I38" s="58" t="s">
+      <c r="I38" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J38" s="1"/>
@@ -8140,7 +8103,7 @@
       <c r="H39" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I39" s="58" t="s">
+      <c r="I39" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J39" s="1"/>
@@ -8272,7 +8235,7 @@
       <c r="H40" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I40" s="58" t="s">
+      <c r="I40" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J40" s="1"/>
@@ -8404,7 +8367,7 @@
       <c r="H41" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I41" s="58" t="s">
+      <c r="I41" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J41" s="1"/>
@@ -8536,7 +8499,7 @@
       <c r="H42" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I42" s="58" t="s">
+      <c r="I42" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J42" s="1"/>
@@ -8668,7 +8631,7 @@
       <c r="H43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I43" s="58" t="s">
+      <c r="I43" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J43" s="1"/>
@@ -8800,7 +8763,7 @@
       <c r="H44" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I44" s="58" t="s">
+      <c r="I44" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J44" s="1"/>
@@ -8930,7 +8893,7 @@
         <v>422</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="58" t="s">
+      <c r="I45" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J45" s="1"/>
@@ -9060,7 +9023,7 @@
         <v>426</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="58" t="s">
+      <c r="I46" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J46" s="1"/>
@@ -9190,7 +9153,7 @@
         <v>430</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="58" t="s">
+      <c r="I47" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J47" s="1"/>
@@ -9320,7 +9283,7 @@
         <v>434</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="58" t="s">
+      <c r="I48" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J48" s="1"/>
@@ -9452,7 +9415,7 @@
       <c r="H49" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I49" s="58" t="s">
+      <c r="I49" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J49" s="1"/>
@@ -9584,7 +9547,7 @@
       <c r="H50" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I50" s="58" t="s">
+      <c r="I50" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1"/>
@@ -9716,7 +9679,7 @@
       <c r="H51" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I51" s="58" t="s">
+      <c r="I51" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J51" s="1"/>
@@ -9848,7 +9811,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="58" t="s">
+      <c r="I52" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J52" s="1"/>
@@ -9978,7 +9941,7 @@
         <v>458</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="58" t="s">
+      <c r="I53" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J53" s="1"/>
@@ -10108,7 +10071,7 @@
         <v>462</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="58" t="s">
+      <c r="I54" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J54" s="1"/>
@@ -10240,7 +10203,7 @@
       <c r="H55" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I55" s="58" t="s">
+      <c r="I55" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J55" s="1"/>
@@ -10372,7 +10335,7 @@
       <c r="H56" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I56" s="58" t="s">
+      <c r="I56" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J56" s="1"/>
@@ -10502,7 +10465,7 @@
         <v>476</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="58" t="s">
+      <c r="I57" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J57" s="1"/>
@@ -10634,7 +10597,7 @@
         <v>481</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="58" t="s">
+      <c r="I58" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J58" s="1"/>
@@ -10768,7 +10731,7 @@
       <c r="H59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I59" s="58" t="s">
+      <c r="I59" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J59" s="1"/>
@@ -10902,7 +10865,7 @@
       <c r="H60" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I60" s="58" t="s">
+      <c r="I60" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J60" s="1"/>
@@ -11036,7 +10999,7 @@
       <c r="H61" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I61" s="58" t="s">
+      <c r="I61" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J61" s="1"/>
@@ -11170,7 +11133,7 @@
       <c r="H62" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I62" s="58" t="s">
+      <c r="I62" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J62" s="1"/>
@@ -11304,7 +11267,7 @@
       <c r="H63" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I63" s="58" t="s">
+      <c r="I63" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J63" s="1"/>
@@ -11438,7 +11401,7 @@
       <c r="H64" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I64" s="58" t="s">
+      <c r="I64" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J64" s="1"/>
@@ -11572,7 +11535,7 @@
       <c r="H65" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I65" s="58" t="s">
+      <c r="I65" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J65" s="1"/>
@@ -11706,7 +11669,7 @@
       <c r="H66" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="I66" s="58" t="s">
+      <c r="I66" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J66" s="11"/>
@@ -11838,7 +11801,7 @@
         <v>531</v>
       </c>
       <c r="H67" s="11"/>
-      <c r="I67" s="58" t="s">
+      <c r="I67" s="54" t="s">
         <v>183</v>
       </c>
       <c r="J67" s="11"/>
@@ -11959,7 +11922,7 @@
       <c r="A68" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -11969,7 +11932,7 @@
         <v>289</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>230</v>
+        <v>564</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>545</v>
@@ -11980,7 +11943,7 @@
       <c r="H68" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="I68" s="49" t="s">
+      <c r="I68" s="48" t="s">
         <v>183</v>
       </c>
       <c r="J68" s="11"/>
@@ -11988,10 +11951,10 @@
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
-      <c r="O68" s="45">
+      <c r="O68" s="44">
         <v>44743</v>
       </c>
-      <c r="P68" s="45">
+      <c r="P68" s="44">
         <v>44749</v>
       </c>
       <c r="Q68" s="11"/>
@@ -12094,17 +12057,17 @@
       <c r="CV68" s="11"/>
       <c r="CW68" s="11"/>
       <c r="CX68" s="11"/>
-      <c r="CY68" s="46"/>
-      <c r="CZ68" s="47"/>
-      <c r="DA68" s="48"/>
+      <c r="CY68" s="45"/>
+      <c r="CZ68" s="46"/>
+      <c r="DA68" s="47"/>
       <c r="DB68" s="11"/>
     </row>
     <row r="69" spans="1:106">
       <c r="A69" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B69" s="31" t="s">
-        <v>3</v>
+      <c r="B69" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C69" s="43" t="s">
         <v>557</v>
@@ -12120,8 +12083,8 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="56" t="s">
-        <v>563</v>
+      <c r="I69" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -12225,8 +12188,8 @@
       <c r="A70" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>3</v>
+      <c r="B70" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C70" s="43" t="s">
         <v>557</v>
@@ -12242,8 +12205,8 @@
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="56" t="s">
-        <v>563</v>
+      <c r="I70" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -12347,8 +12310,8 @@
       <c r="A71" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>3</v>
+      <c r="B71" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C71" s="43" t="s">
         <v>557</v>
@@ -12364,8 +12327,8 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="56" t="s">
-        <v>563</v>
+      <c r="I71" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -12469,8 +12432,8 @@
       <c r="A72" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>3</v>
+      <c r="B72" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C72" s="43" t="s">
         <v>557</v>
@@ -12486,8 +12449,8 @@
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="56" t="s">
-        <v>563</v>
+      <c r="I72" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0746D836-64ED-4C54-BE30-ED52E37582C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCBCDE2-C01B-402F-966F-646BF89813D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="572">
   <si>
     <t>Environment</t>
   </si>
@@ -1815,13 +1815,67 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>Smoke_TC101</t>
+  </si>
+  <si>
+    <t>USER9</t>
+  </si>
+  <si>
+    <t>RMSFandD</t>
+  </si>
+  <si>
+    <t>sogo_nayan_ent</t>
+  </si>
+  <si>
+    <t>Maxrunner@1234</t>
+  </si>
+  <si>
+    <t>salesforceFields</t>
+  </si>
+  <si>
+    <t>Contact ID,Account ID,Full Name,Mobile Phone,Email</t>
+  </si>
+  <si>
+    <t>Email,Id,AccountId,Name,MobilePhone</t>
+  </si>
+  <si>
+    <t>Smoke_TC102</t>
+  </si>
+  <si>
+    <t>Lead ID,Full Name,Mobile Phone,Email</t>
+  </si>
+  <si>
+    <t>Email,Id,Name,MobilePhone</t>
+  </si>
+  <si>
+    <t>Smoke_TC103</t>
+  </si>
+  <si>
+    <t>Account ID,Account Name,Account Phone,Email</t>
+  </si>
+  <si>
+    <t>Id,Name,Phone,Email__c</t>
+  </si>
+  <si>
+    <t>Create contact list via salesforce by using Contact object</t>
+  </si>
+  <si>
+    <t>Create contact list via salesforce by using Lead object</t>
+  </si>
+  <si>
+    <t>Create contact list via salesforce by using Account object</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,6 +1927,41 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1884,7 +1973,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1926,6 +2015,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2034,7 +2183,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2085,10 +2234,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2466,10 +2629,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2620,6 +2783,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -2628,6 +2805,7 @@
     <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
     <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{E92E2B5B-B269-498D-B490-AE6E9447F3EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2636,10 +2814,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DB68"/>
+  <dimension ref="A1:DC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2664,7 +2842,7 @@
     <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106">
+    <row r="1" spans="1:107">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2981,10 +3159,13 @@
         <v>540</v>
       </c>
       <c r="DB1" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="DC1" s="9" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="2" spans="1:106">
+    <row r="2" spans="1:107">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3007,7 +3188,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J2" s="4"/>
@@ -3107,10 +3288,11 @@
       <c r="CX2" s="1"/>
       <c r="CY2" s="1"/>
       <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
+      <c r="DA2" s="47"/>
+      <c r="DB2" s="47"/>
+      <c r="DC2" s="1"/>
     </row>
-    <row r="3" spans="1:106">
+    <row r="3" spans="1:107">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3133,7 +3315,7 @@
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="14"/>
@@ -3311,10 +3493,11 @@
       <c r="CX3" s="1"/>
       <c r="CY3" s="1"/>
       <c r="CZ3" s="1"/>
-      <c r="DA3" s="1"/>
-      <c r="DB3" s="1"/>
+      <c r="DA3" s="47"/>
+      <c r="DB3" s="47"/>
+      <c r="DC3" s="1"/>
     </row>
-    <row r="4" spans="1:106">
+    <row r="4" spans="1:107">
       <c r="A4" s="1" t="s">
         <v>178</v>
       </c>
@@ -3337,7 +3520,7 @@
       <c r="H4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="14"/>
@@ -3449,10 +3632,11 @@
       <c r="CX4" s="1"/>
       <c r="CY4" s="1"/>
       <c r="CZ4" s="1"/>
-      <c r="DA4" s="1"/>
-      <c r="DB4" s="1"/>
+      <c r="DA4" s="47"/>
+      <c r="DB4" s="47"/>
+      <c r="DC4" s="1"/>
     </row>
-    <row r="5" spans="1:106">
+    <row r="5" spans="1:107">
       <c r="A5" s="1" t="s">
         <v>179</v>
       </c>
@@ -3475,7 +3659,7 @@
       <c r="H5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3589,10 +3773,11 @@
       <c r="CX5" s="1"/>
       <c r="CY5" s="1"/>
       <c r="CZ5" s="1"/>
-      <c r="DA5" s="1"/>
-      <c r="DB5" s="1"/>
+      <c r="DA5" s="47"/>
+      <c r="DB5" s="47"/>
+      <c r="DC5" s="1"/>
     </row>
-    <row r="6" spans="1:106">
+    <row r="6" spans="1:107">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -3615,7 +3800,7 @@
       <c r="H6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3719,10 +3904,11 @@
       <c r="CX6" s="1"/>
       <c r="CY6" s="1"/>
       <c r="CZ6" s="1"/>
-      <c r="DA6" s="1"/>
-      <c r="DB6" s="1"/>
+      <c r="DA6" s="47"/>
+      <c r="DB6" s="47"/>
+      <c r="DC6" s="1"/>
     </row>
-    <row r="7" spans="1:106">
+    <row r="7" spans="1:107">
       <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
@@ -3745,7 +3931,7 @@
       <c r="H7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J7" s="14"/>
@@ -3849,10 +4035,11 @@
       <c r="CX7" s="1"/>
       <c r="CY7" s="1"/>
       <c r="CZ7" s="1"/>
-      <c r="DA7" s="1"/>
-      <c r="DB7" s="1"/>
+      <c r="DA7" s="47"/>
+      <c r="DB7" s="47"/>
+      <c r="DC7" s="1"/>
     </row>
-    <row r="8" spans="1:106">
+    <row r="8" spans="1:107">
       <c r="A8" s="1" t="s">
         <v>182</v>
       </c>
@@ -3875,7 +4062,7 @@
       <c r="H8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3981,10 +4168,11 @@
       <c r="CX8" s="1"/>
       <c r="CY8" s="1"/>
       <c r="CZ8" s="1"/>
-      <c r="DA8" s="1"/>
-      <c r="DB8" s="1"/>
+      <c r="DA8" s="47"/>
+      <c r="DB8" s="47"/>
+      <c r="DC8" s="1"/>
     </row>
-    <row r="9" spans="1:106">
+    <row r="9" spans="1:107">
       <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
@@ -4007,7 +4195,7 @@
       <c r="H9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J9" s="1"/>
@@ -4117,10 +4305,11 @@
       <c r="CX9" s="1"/>
       <c r="CY9" s="1"/>
       <c r="CZ9" s="1"/>
-      <c r="DA9" s="1"/>
-      <c r="DB9" s="1"/>
+      <c r="DA9" s="47"/>
+      <c r="DB9" s="47"/>
+      <c r="DC9" s="1"/>
     </row>
-    <row r="10" spans="1:106">
+    <row r="10" spans="1:107">
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
@@ -4143,7 +4332,7 @@
         <v>187</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4255,10 +4444,11 @@
       <c r="CX10" s="1"/>
       <c r="CY10" s="1"/>
       <c r="CZ10" s="1"/>
-      <c r="DA10" s="1"/>
-      <c r="DB10" s="1"/>
+      <c r="DA10" s="47"/>
+      <c r="DB10" s="47"/>
+      <c r="DC10" s="1"/>
     </row>
-    <row r="11" spans="1:106">
+    <row r="11" spans="1:107">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
@@ -4281,7 +4471,7 @@
         <v>192</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4389,10 +4579,11 @@
       <c r="CX11" s="1"/>
       <c r="CY11" s="1"/>
       <c r="CZ11" s="1"/>
-      <c r="DA11" s="1"/>
-      <c r="DB11" s="1"/>
+      <c r="DA11" s="47"/>
+      <c r="DB11" s="47"/>
+      <c r="DC11" s="1"/>
     </row>
-    <row r="12" spans="1:106">
+    <row r="12" spans="1:107">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
@@ -4415,7 +4606,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J12" s="21"/>
@@ -4521,10 +4712,11 @@
       <c r="CX12" s="1"/>
       <c r="CY12" s="1"/>
       <c r="CZ12" s="1"/>
-      <c r="DA12" s="1"/>
-      <c r="DB12" s="1"/>
+      <c r="DA12" s="47"/>
+      <c r="DB12" s="47"/>
+      <c r="DC12" s="1"/>
     </row>
-    <row r="13" spans="1:106">
+    <row r="13" spans="1:107">
       <c r="A13" s="1" t="s">
         <v>217</v>
       </c>
@@ -4547,7 +4739,7 @@
         <v>198</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="21"/>
@@ -4653,10 +4845,11 @@
       <c r="CX13" s="1"/>
       <c r="CY13" s="1"/>
       <c r="CZ13" s="1"/>
-      <c r="DA13" s="1"/>
-      <c r="DB13" s="1"/>
+      <c r="DA13" s="47"/>
+      <c r="DB13" s="47"/>
+      <c r="DC13" s="1"/>
     </row>
-    <row r="14" spans="1:106">
+    <row r="14" spans="1:107">
       <c r="A14" s="1" t="s">
         <v>218</v>
       </c>
@@ -4679,7 +4872,7 @@
         <v>201</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J14" s="21"/>
@@ -4785,10 +4978,11 @@
       <c r="CX14" s="1"/>
       <c r="CY14" s="1"/>
       <c r="CZ14" s="1"/>
-      <c r="DA14" s="1"/>
-      <c r="DB14" s="1"/>
+      <c r="DA14" s="47"/>
+      <c r="DB14" s="47"/>
+      <c r="DC14" s="1"/>
     </row>
-    <row r="15" spans="1:106">
+    <row r="15" spans="1:107">
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
@@ -4811,7 +5005,7 @@
         <v>204</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J15" s="21" t="s">
@@ -4937,10 +5131,11 @@
       <c r="CX15" s="1"/>
       <c r="CY15" s="1"/>
       <c r="CZ15" s="1"/>
-      <c r="DA15" s="1"/>
-      <c r="DB15" s="1"/>
+      <c r="DA15" s="47"/>
+      <c r="DB15" s="47"/>
+      <c r="DC15" s="1"/>
     </row>
-    <row r="16" spans="1:106">
+    <row r="16" spans="1:107">
       <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
@@ -4963,7 +5158,7 @@
         <v>225</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J16" s="21"/>
@@ -5084,10 +5279,11 @@
       <c r="CX16" s="1"/>
       <c r="CY16" s="1"/>
       <c r="CZ16" s="1"/>
-      <c r="DA16" s="1"/>
-      <c r="DB16" s="1"/>
+      <c r="DA16" s="47"/>
+      <c r="DB16" s="47"/>
+      <c r="DC16" s="1"/>
     </row>
-    <row r="17" spans="1:106">
+    <row r="17" spans="1:107">
       <c r="A17" s="1" t="s">
         <v>235</v>
       </c>
@@ -5110,7 +5306,7 @@
       <c r="H17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I17" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J17" s="14"/>
@@ -5212,10 +5408,11 @@
       <c r="CX17" s="1"/>
       <c r="CY17" s="1"/>
       <c r="CZ17" s="1"/>
-      <c r="DA17" s="1"/>
-      <c r="DB17" s="1"/>
+      <c r="DA17" s="47"/>
+      <c r="DB17" s="47"/>
+      <c r="DC17" s="1"/>
     </row>
-    <row r="18" spans="1:106">
+    <row r="18" spans="1:107">
       <c r="A18" s="1" t="s">
         <v>240</v>
       </c>
@@ -5236,7 +5433,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5342,10 +5539,11 @@
       <c r="CX18" s="1"/>
       <c r="CY18" s="1"/>
       <c r="CZ18" s="1"/>
-      <c r="DA18" s="1"/>
-      <c r="DB18" s="1"/>
+      <c r="DA18" s="47"/>
+      <c r="DB18" s="47"/>
+      <c r="DC18" s="1"/>
     </row>
-    <row r="19" spans="1:106">
+    <row r="19" spans="1:107">
       <c r="A19" s="1" t="s">
         <v>247</v>
       </c>
@@ -5366,7 +5564,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J19" s="14"/>
@@ -5470,10 +5668,11 @@
       <c r="CX19" s="1"/>
       <c r="CY19" s="1"/>
       <c r="CZ19" s="1"/>
-      <c r="DA19" s="1"/>
-      <c r="DB19" s="1"/>
+      <c r="DA19" s="47"/>
+      <c r="DB19" s="47"/>
+      <c r="DC19" s="1"/>
     </row>
-    <row r="20" spans="1:106">
+    <row r="20" spans="1:107">
       <c r="A20" s="1" t="s">
         <v>276</v>
       </c>
@@ -5494,7 +5693,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J20" s="14"/>
@@ -5602,10 +5801,11 @@
       <c r="CX20" s="1"/>
       <c r="CY20" s="1"/>
       <c r="CZ20" s="1"/>
-      <c r="DA20" s="1"/>
-      <c r="DB20" s="1"/>
+      <c r="DA20" s="47"/>
+      <c r="DB20" s="47"/>
+      <c r="DC20" s="1"/>
     </row>
-    <row r="21" spans="1:106">
+    <row r="21" spans="1:107">
       <c r="A21" s="1" t="s">
         <v>277</v>
       </c>
@@ -5630,7 +5830,7 @@
       <c r="H21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J21" s="14"/>
@@ -5738,10 +5938,11 @@
       <c r="CX21" s="1"/>
       <c r="CY21" s="1"/>
       <c r="CZ21" s="1"/>
-      <c r="DA21" s="1"/>
-      <c r="DB21" s="1"/>
+      <c r="DA21" s="47"/>
+      <c r="DB21" s="47"/>
+      <c r="DC21" s="1"/>
     </row>
-    <row r="22" spans="1:106">
+    <row r="22" spans="1:107">
       <c r="A22" s="1" t="s">
         <v>278</v>
       </c>
@@ -5766,7 +5967,7 @@
       <c r="H22" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I22" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J22" s="14"/>
@@ -5870,10 +6071,11 @@
       <c r="CX22" s="1"/>
       <c r="CY22" s="1"/>
       <c r="CZ22" s="1"/>
-      <c r="DA22" s="1"/>
-      <c r="DB22" s="1"/>
+      <c r="DA22" s="47"/>
+      <c r="DB22" s="47"/>
+      <c r="DC22" s="1"/>
     </row>
-    <row r="23" spans="1:106">
+    <row r="23" spans="1:107">
       <c r="A23" s="1" t="s">
         <v>279</v>
       </c>
@@ -5898,7 +6100,7 @@
       <c r="H23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J23" s="14"/>
@@ -6006,10 +6208,11 @@
       <c r="CX23" s="1"/>
       <c r="CY23" s="1"/>
       <c r="CZ23" s="1"/>
-      <c r="DA23" s="1"/>
-      <c r="DB23" s="1"/>
+      <c r="DA23" s="47"/>
+      <c r="DB23" s="47"/>
+      <c r="DC23" s="1"/>
     </row>
-    <row r="24" spans="1:106">
+    <row r="24" spans="1:107">
       <c r="A24" s="1" t="s">
         <v>280</v>
       </c>
@@ -6034,7 +6237,7 @@
       <c r="H24" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J24" s="14"/>
@@ -6140,10 +6343,11 @@
       <c r="CX24" s="1"/>
       <c r="CY24" s="1"/>
       <c r="CZ24" s="1"/>
-      <c r="DA24" s="1"/>
-      <c r="DB24" s="1"/>
+      <c r="DA24" s="47"/>
+      <c r="DB24" s="47"/>
+      <c r="DC24" s="1"/>
     </row>
-    <row r="25" spans="1:106">
+    <row r="25" spans="1:107">
       <c r="A25" s="1" t="s">
         <v>281</v>
       </c>
@@ -6168,7 +6372,7 @@
       <c r="H25" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J25" s="14"/>
@@ -6274,10 +6478,11 @@
       <c r="CX25" s="1"/>
       <c r="CY25" s="1"/>
       <c r="CZ25" s="1"/>
-      <c r="DA25" s="1"/>
-      <c r="DB25" s="1"/>
+      <c r="DA25" s="47"/>
+      <c r="DB25" s="47"/>
+      <c r="DC25" s="1"/>
     </row>
-    <row r="26" spans="1:106">
+    <row r="26" spans="1:107">
       <c r="A26" s="1" t="s">
         <v>282</v>
       </c>
@@ -6302,7 +6507,7 @@
       <c r="H26" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J26" s="14"/>
@@ -6408,10 +6613,11 @@
       <c r="CX26" s="1"/>
       <c r="CY26" s="1"/>
       <c r="CZ26" s="1"/>
-      <c r="DA26" s="1"/>
-      <c r="DB26" s="1"/>
+      <c r="DA26" s="47"/>
+      <c r="DB26" s="47"/>
+      <c r="DC26" s="1"/>
     </row>
-    <row r="27" spans="1:106">
+    <row r="27" spans="1:107">
       <c r="A27" s="1" t="s">
         <v>283</v>
       </c>
@@ -6436,7 +6642,7 @@
       <c r="H27" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I27" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J27" s="14"/>
@@ -6540,10 +6746,11 @@
       <c r="CX27" s="1"/>
       <c r="CY27" s="1"/>
       <c r="CZ27" s="1"/>
-      <c r="DA27" s="1"/>
-      <c r="DB27" s="1"/>
+      <c r="DA27" s="47"/>
+      <c r="DB27" s="47"/>
+      <c r="DC27" s="1"/>
     </row>
-    <row r="28" spans="1:106">
+    <row r="28" spans="1:107">
       <c r="A28" s="1" t="s">
         <v>284</v>
       </c>
@@ -6568,7 +6775,7 @@
       <c r="H28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J28" s="14"/>
@@ -6672,10 +6879,11 @@
       <c r="CX28" s="1"/>
       <c r="CY28" s="1"/>
       <c r="CZ28" s="1"/>
-      <c r="DA28" s="1"/>
-      <c r="DB28" s="1"/>
+      <c r="DA28" s="47"/>
+      <c r="DB28" s="47"/>
+      <c r="DC28" s="1"/>
     </row>
-    <row r="29" spans="1:106">
+    <row r="29" spans="1:107">
       <c r="A29" s="1" t="s">
         <v>285</v>
       </c>
@@ -6700,7 +6908,7 @@
       <c r="H29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J29" s="14"/>
@@ -6806,10 +7014,11 @@
       <c r="CX29" s="1"/>
       <c r="CY29" s="1"/>
       <c r="CZ29" s="1"/>
-      <c r="DA29" s="1"/>
-      <c r="DB29" s="1"/>
+      <c r="DA29" s="47"/>
+      <c r="DB29" s="47"/>
+      <c r="DC29" s="1"/>
     </row>
-    <row r="30" spans="1:106">
+    <row r="30" spans="1:107">
       <c r="A30" s="1" t="s">
         <v>286</v>
       </c>
@@ -6834,7 +7043,7 @@
       <c r="H30" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J30" s="14"/>
@@ -6942,10 +7151,11 @@
       <c r="CX30" s="1"/>
       <c r="CY30" s="1"/>
       <c r="CZ30" s="1"/>
-      <c r="DA30" s="1"/>
-      <c r="DB30" s="1"/>
+      <c r="DA30" s="47"/>
+      <c r="DB30" s="47"/>
+      <c r="DC30" s="1"/>
     </row>
-    <row r="31" spans="1:106">
+    <row r="31" spans="1:107">
       <c r="A31" s="1" t="s">
         <v>287</v>
       </c>
@@ -6970,7 +7180,7 @@
       <c r="H31" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J31" s="14"/>
@@ -7078,10 +7288,11 @@
       <c r="CX31" s="1"/>
       <c r="CY31" s="1"/>
       <c r="CZ31" s="1"/>
-      <c r="DA31" s="1"/>
-      <c r="DB31" s="1"/>
+      <c r="DA31" s="47"/>
+      <c r="DB31" s="47"/>
+      <c r="DC31" s="1"/>
     </row>
-    <row r="32" spans="1:106">
+    <row r="32" spans="1:107">
       <c r="A32" s="11" t="s">
         <v>288</v>
       </c>
@@ -7106,7 +7317,7 @@
       <c r="H32" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J32" s="17"/>
@@ -7210,10 +7421,11 @@
       <c r="CX32" s="1"/>
       <c r="CY32" s="1"/>
       <c r="CZ32" s="1"/>
-      <c r="DA32" s="1"/>
-      <c r="DB32" s="1"/>
+      <c r="DA32" s="47"/>
+      <c r="DB32" s="47"/>
+      <c r="DC32" s="1"/>
     </row>
-    <row r="33" spans="1:106">
+    <row r="33" spans="1:107">
       <c r="A33" s="1" t="s">
         <v>524</v>
       </c>
@@ -7236,7 +7448,7 @@
         <v>526</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="48" t="s">
+      <c r="I33" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J33" s="1"/>
@@ -7334,15 +7546,16 @@
       <c r="CX33" s="1"/>
       <c r="CY33" s="1"/>
       <c r="CZ33" s="1"/>
-      <c r="DA33" s="1"/>
-      <c r="DB33" s="1"/>
+      <c r="DA33" s="47"/>
+      <c r="DB33" s="47"/>
+      <c r="DC33" s="1"/>
     </row>
-    <row r="34" spans="1:106">
+    <row r="34" spans="1:107">
       <c r="A34" s="31" t="s">
         <v>275</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>258</v>
@@ -7358,8 +7571,8 @@
       </c>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="46" t="s">
-        <v>553</v>
+      <c r="I34" s="62" t="s">
+        <v>183</v>
       </c>
       <c r="J34" s="32" t="s">
         <v>274</v>
@@ -7496,10 +7709,11 @@
       <c r="CX34" s="1"/>
       <c r="CY34" s="1"/>
       <c r="CZ34" s="1"/>
-      <c r="DA34" s="1"/>
-      <c r="DB34" s="1"/>
+      <c r="DA34" s="47"/>
+      <c r="DB34" s="47"/>
+      <c r="DC34" s="1"/>
     </row>
-    <row r="35" spans="1:106" ht="20.25" customHeight="1">
+    <row r="35" spans="1:107" ht="20.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>365</v>
       </c>
@@ -7524,7 +7738,7 @@
       <c r="H35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J35" s="1"/>
@@ -7632,10 +7846,11 @@
       <c r="CX35" s="1"/>
       <c r="CY35" s="1"/>
       <c r="CZ35" s="1"/>
-      <c r="DA35" s="1"/>
-      <c r="DB35" s="1"/>
+      <c r="DA35" s="47"/>
+      <c r="DB35" s="47"/>
+      <c r="DC35" s="1"/>
     </row>
-    <row r="36" spans="1:106" ht="19.5" customHeight="1">
+    <row r="36" spans="1:107" ht="19.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>373</v>
       </c>
@@ -7660,7 +7875,7 @@
       <c r="H36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J36" s="1"/>
@@ -7768,10 +7983,11 @@
       <c r="CX36" s="1"/>
       <c r="CY36" s="1"/>
       <c r="CZ36" s="1"/>
-      <c r="DA36" s="1"/>
-      <c r="DB36" s="1"/>
+      <c r="DA36" s="47"/>
+      <c r="DB36" s="47"/>
+      <c r="DC36" s="1"/>
     </row>
-    <row r="37" spans="1:106">
+    <row r="37" spans="1:107">
       <c r="A37" s="1" t="s">
         <v>380</v>
       </c>
@@ -7796,7 +8012,7 @@
       <c r="H37" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="I37" s="48" t="s">
+      <c r="I37" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J37" s="1"/>
@@ -7900,10 +8116,11 @@
       <c r="CX37" s="1"/>
       <c r="CY37" s="1"/>
       <c r="CZ37" s="1"/>
-      <c r="DA37" s="1"/>
-      <c r="DB37" s="1"/>
+      <c r="DA37" s="47"/>
+      <c r="DB37" s="47"/>
+      <c r="DC37" s="1"/>
     </row>
-    <row r="38" spans="1:106">
+    <row r="38" spans="1:107">
       <c r="A38" s="1" t="s">
         <v>385</v>
       </c>
@@ -7928,7 +8145,7 @@
       <c r="H38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J38" s="1"/>
@@ -8032,10 +8249,11 @@
       <c r="CX38" s="1"/>
       <c r="CY38" s="1"/>
       <c r="CZ38" s="1"/>
-      <c r="DA38" s="1"/>
-      <c r="DB38" s="1"/>
+      <c r="DA38" s="47"/>
+      <c r="DB38" s="47"/>
+      <c r="DC38" s="1"/>
     </row>
-    <row r="39" spans="1:106">
+    <row r="39" spans="1:107">
       <c r="A39" s="1" t="s">
         <v>390</v>
       </c>
@@ -8060,7 +8278,7 @@
       <c r="H39" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="I39" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J39" s="1"/>
@@ -8164,10 +8382,11 @@
       <c r="CX39" s="1"/>
       <c r="CY39" s="1"/>
       <c r="CZ39" s="1"/>
-      <c r="DA39" s="1"/>
-      <c r="DB39" s="1"/>
+      <c r="DA39" s="47"/>
+      <c r="DB39" s="47"/>
+      <c r="DC39" s="1"/>
     </row>
-    <row r="40" spans="1:106">
+    <row r="40" spans="1:107">
       <c r="A40" s="1" t="s">
         <v>395</v>
       </c>
@@ -8192,7 +8411,7 @@
       <c r="H40" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I40" s="48" t="s">
+      <c r="I40" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J40" s="1"/>
@@ -8296,10 +8515,11 @@
       <c r="CX40" s="1"/>
       <c r="CY40" s="1"/>
       <c r="CZ40" s="1"/>
-      <c r="DA40" s="1"/>
-      <c r="DB40" s="1"/>
+      <c r="DA40" s="47"/>
+      <c r="DB40" s="47"/>
+      <c r="DC40" s="1"/>
     </row>
-    <row r="41" spans="1:106">
+    <row r="41" spans="1:107">
       <c r="A41" s="1" t="s">
         <v>400</v>
       </c>
@@ -8324,7 +8544,7 @@
       <c r="H41" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I41" s="48" t="s">
+      <c r="I41" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J41" s="1"/>
@@ -8428,10 +8648,11 @@
       <c r="CX41" s="1"/>
       <c r="CY41" s="1"/>
       <c r="CZ41" s="1"/>
-      <c r="DA41" s="1"/>
-      <c r="DB41" s="1"/>
+      <c r="DA41" s="47"/>
+      <c r="DB41" s="47"/>
+      <c r="DC41" s="1"/>
     </row>
-    <row r="42" spans="1:106">
+    <row r="42" spans="1:107">
       <c r="A42" s="1" t="s">
         <v>405</v>
       </c>
@@ -8456,7 +8677,7 @@
       <c r="H42" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J42" s="1"/>
@@ -8560,10 +8781,11 @@
       <c r="CX42" s="1"/>
       <c r="CY42" s="1"/>
       <c r="CZ42" s="1"/>
-      <c r="DA42" s="1"/>
-      <c r="DB42" s="1"/>
+      <c r="DA42" s="47"/>
+      <c r="DB42" s="47"/>
+      <c r="DC42" s="1"/>
     </row>
-    <row r="43" spans="1:106">
+    <row r="43" spans="1:107">
       <c r="A43" s="1" t="s">
         <v>410</v>
       </c>
@@ -8588,7 +8810,7 @@
       <c r="H43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I43" s="48" t="s">
+      <c r="I43" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J43" s="1"/>
@@ -8692,10 +8914,11 @@
       <c r="CX43" s="1"/>
       <c r="CY43" s="1"/>
       <c r="CZ43" s="1"/>
-      <c r="DA43" s="1"/>
-      <c r="DB43" s="1"/>
+      <c r="DA43" s="47"/>
+      <c r="DB43" s="47"/>
+      <c r="DC43" s="1"/>
     </row>
-    <row r="44" spans="1:106">
+    <row r="44" spans="1:107">
       <c r="A44" s="1" t="s">
         <v>415</v>
       </c>
@@ -8720,7 +8943,7 @@
       <c r="H44" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="I44" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J44" s="1"/>
@@ -8824,10 +9047,11 @@
       <c r="CX44" s="1"/>
       <c r="CY44" s="1"/>
       <c r="CZ44" s="1"/>
-      <c r="DA44" s="1"/>
-      <c r="DB44" s="1"/>
+      <c r="DA44" s="47"/>
+      <c r="DB44" s="47"/>
+      <c r="DC44" s="1"/>
     </row>
-    <row r="45" spans="1:106">
+    <row r="45" spans="1:107">
       <c r="A45" s="1" t="s">
         <v>420</v>
       </c>
@@ -8850,7 +9074,7 @@
         <v>422</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="48" t="s">
+      <c r="I45" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J45" s="1"/>
@@ -8954,10 +9178,11 @@
       <c r="CX45" s="1"/>
       <c r="CY45" s="1"/>
       <c r="CZ45" s="1"/>
-      <c r="DA45" s="1"/>
-      <c r="DB45" s="1"/>
+      <c r="DA45" s="47"/>
+      <c r="DB45" s="47"/>
+      <c r="DC45" s="1"/>
     </row>
-    <row r="46" spans="1:106">
+    <row r="46" spans="1:107">
       <c r="A46" s="1" t="s">
         <v>424</v>
       </c>
@@ -8980,7 +9205,7 @@
         <v>426</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J46" s="1"/>
@@ -9084,10 +9309,11 @@
       <c r="CX46" s="1"/>
       <c r="CY46" s="1"/>
       <c r="CZ46" s="1"/>
-      <c r="DA46" s="1"/>
-      <c r="DB46" s="1"/>
+      <c r="DA46" s="47"/>
+      <c r="DB46" s="47"/>
+      <c r="DC46" s="1"/>
     </row>
-    <row r="47" spans="1:106">
+    <row r="47" spans="1:107">
       <c r="A47" s="1" t="s">
         <v>428</v>
       </c>
@@ -9110,7 +9336,7 @@
         <v>430</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="48" t="s">
+      <c r="I47" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J47" s="1"/>
@@ -9214,10 +9440,11 @@
       <c r="CX47" s="1"/>
       <c r="CY47" s="1"/>
       <c r="CZ47" s="1"/>
-      <c r="DA47" s="1"/>
-      <c r="DB47" s="1"/>
+      <c r="DA47" s="47"/>
+      <c r="DB47" s="47"/>
+      <c r="DC47" s="1"/>
     </row>
-    <row r="48" spans="1:106">
+    <row r="48" spans="1:107">
       <c r="A48" s="1" t="s">
         <v>432</v>
       </c>
@@ -9240,7 +9467,7 @@
         <v>434</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="48" t="s">
+      <c r="I48" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J48" s="1"/>
@@ -9344,10 +9571,11 @@
       <c r="CX48" s="1"/>
       <c r="CY48" s="1"/>
       <c r="CZ48" s="1"/>
-      <c r="DA48" s="1"/>
-      <c r="DB48" s="1"/>
+      <c r="DA48" s="47"/>
+      <c r="DB48" s="47"/>
+      <c r="DC48" s="1"/>
     </row>
-    <row r="49" spans="1:106">
+    <row r="49" spans="1:107">
       <c r="A49" s="1" t="s">
         <v>436</v>
       </c>
@@ -9372,7 +9600,7 @@
       <c r="H49" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I49" s="48" t="s">
+      <c r="I49" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J49" s="1"/>
@@ -9476,10 +9704,11 @@
       <c r="CX49" s="1"/>
       <c r="CY49" s="1"/>
       <c r="CZ49" s="1"/>
-      <c r="DA49" s="1"/>
-      <c r="DB49" s="1"/>
+      <c r="DA49" s="47"/>
+      <c r="DB49" s="47"/>
+      <c r="DC49" s="1"/>
     </row>
-    <row r="50" spans="1:106">
+    <row r="50" spans="1:107">
       <c r="A50" s="1" t="s">
         <v>441</v>
       </c>
@@ -9504,7 +9733,7 @@
       <c r="H50" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="I50" s="48" t="s">
+      <c r="I50" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1"/>
@@ -9608,10 +9837,11 @@
       <c r="CX50" s="1"/>
       <c r="CY50" s="1"/>
       <c r="CZ50" s="1"/>
-      <c r="DA50" s="1"/>
-      <c r="DB50" s="1"/>
+      <c r="DA50" s="47"/>
+      <c r="DB50" s="47"/>
+      <c r="DC50" s="1"/>
     </row>
-    <row r="51" spans="1:106">
+    <row r="51" spans="1:107">
       <c r="A51" s="1" t="s">
         <v>446</v>
       </c>
@@ -9636,7 +9866,7 @@
       <c r="H51" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="I51" s="48" t="s">
+      <c r="I51" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J51" s="1"/>
@@ -9740,10 +9970,11 @@
       <c r="CX51" s="1"/>
       <c r="CY51" s="1"/>
       <c r="CZ51" s="1"/>
-      <c r="DA51" s="1"/>
-      <c r="DB51" s="1"/>
+      <c r="DA51" s="47"/>
+      <c r="DB51" s="47"/>
+      <c r="DC51" s="1"/>
     </row>
-    <row r="52" spans="1:106">
+    <row r="52" spans="1:107">
       <c r="A52" s="1" t="s">
         <v>451</v>
       </c>
@@ -9768,7 +9999,7 @@
       <c r="H52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="I52" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J52" s="1"/>
@@ -9872,10 +10103,11 @@
       <c r="CX52" s="1"/>
       <c r="CY52" s="1"/>
       <c r="CZ52" s="1"/>
-      <c r="DA52" s="1"/>
-      <c r="DB52" s="1"/>
+      <c r="DA52" s="47"/>
+      <c r="DB52" s="47"/>
+      <c r="DC52" s="1"/>
     </row>
-    <row r="53" spans="1:106">
+    <row r="53" spans="1:107">
       <c r="A53" s="1" t="s">
         <v>456</v>
       </c>
@@ -9898,7 +10130,7 @@
         <v>458</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="48" t="s">
+      <c r="I53" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J53" s="1"/>
@@ -10002,10 +10234,11 @@
       <c r="CX53" s="1"/>
       <c r="CY53" s="1"/>
       <c r="CZ53" s="1"/>
-      <c r="DA53" s="1"/>
-      <c r="DB53" s="1"/>
+      <c r="DA53" s="47"/>
+      <c r="DB53" s="47"/>
+      <c r="DC53" s="1"/>
     </row>
-    <row r="54" spans="1:106">
+    <row r="54" spans="1:107">
       <c r="A54" s="1" t="s">
         <v>460</v>
       </c>
@@ -10028,7 +10261,7 @@
         <v>462</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="48" t="s">
+      <c r="I54" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J54" s="1"/>
@@ -10132,10 +10365,11 @@
       <c r="CX54" s="1"/>
       <c r="CY54" s="1"/>
       <c r="CZ54" s="1"/>
-      <c r="DA54" s="1"/>
-      <c r="DB54" s="1"/>
+      <c r="DA54" s="47"/>
+      <c r="DB54" s="47"/>
+      <c r="DC54" s="1"/>
     </row>
-    <row r="55" spans="1:106">
+    <row r="55" spans="1:107">
       <c r="A55" s="1" t="s">
         <v>464</v>
       </c>
@@ -10160,7 +10394,7 @@
       <c r="H55" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I55" s="48" t="s">
+      <c r="I55" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J55" s="1"/>
@@ -10264,10 +10498,11 @@
       <c r="CX55" s="1"/>
       <c r="CY55" s="1"/>
       <c r="CZ55" s="1"/>
-      <c r="DA55" s="1"/>
-      <c r="DB55" s="1"/>
+      <c r="DA55" s="47"/>
+      <c r="DB55" s="47"/>
+      <c r="DC55" s="1"/>
     </row>
-    <row r="56" spans="1:106">
+    <row r="56" spans="1:107">
       <c r="A56" s="1" t="s">
         <v>469</v>
       </c>
@@ -10292,7 +10527,7 @@
       <c r="H56" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="I56" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J56" s="1"/>
@@ -10396,10 +10631,11 @@
       <c r="CX56" s="1"/>
       <c r="CY56" s="1"/>
       <c r="CZ56" s="1"/>
-      <c r="DA56" s="1"/>
-      <c r="DB56" s="1"/>
+      <c r="DA56" s="47"/>
+      <c r="DB56" s="47"/>
+      <c r="DC56" s="1"/>
     </row>
-    <row r="57" spans="1:106">
+    <row r="57" spans="1:107">
       <c r="A57" s="1" t="s">
         <v>474</v>
       </c>
@@ -10422,7 +10658,7 @@
         <v>476</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="48" t="s">
+      <c r="I57" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J57" s="1"/>
@@ -10528,10 +10764,11 @@
       <c r="CX57" s="1"/>
       <c r="CY57" s="1"/>
       <c r="CZ57" s="1"/>
-      <c r="DA57" s="1"/>
-      <c r="DB57" s="1"/>
+      <c r="DA57" s="47"/>
+      <c r="DB57" s="47"/>
+      <c r="DC57" s="1"/>
     </row>
-    <row r="58" spans="1:106">
+    <row r="58" spans="1:107">
       <c r="A58" s="1" t="s">
         <v>479</v>
       </c>
@@ -10554,7 +10791,7 @@
         <v>481</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="48" t="s">
+      <c r="I58" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J58" s="1"/>
@@ -10660,10 +10897,11 @@
       <c r="CX58" s="1"/>
       <c r="CY58" s="1"/>
       <c r="CZ58" s="1"/>
-      <c r="DA58" s="1"/>
-      <c r="DB58" s="1"/>
+      <c r="DA58" s="47"/>
+      <c r="DB58" s="47"/>
+      <c r="DC58" s="1"/>
     </row>
-    <row r="59" spans="1:106">
+    <row r="59" spans="1:107">
       <c r="A59" s="1" t="s">
         <v>483</v>
       </c>
@@ -10688,7 +10926,7 @@
       <c r="H59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="I59" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J59" s="1"/>
@@ -10794,10 +11032,11 @@
       <c r="CX59" s="1"/>
       <c r="CY59" s="1"/>
       <c r="CZ59" s="1"/>
-      <c r="DA59" s="1"/>
-      <c r="DB59" s="1"/>
+      <c r="DA59" s="47"/>
+      <c r="DB59" s="47"/>
+      <c r="DC59" s="1"/>
     </row>
-    <row r="60" spans="1:106">
+    <row r="60" spans="1:107">
       <c r="A60" s="1" t="s">
         <v>489</v>
       </c>
@@ -10822,7 +11061,7 @@
       <c r="H60" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J60" s="1"/>
@@ -10928,10 +11167,11 @@
       <c r="CX60" s="1"/>
       <c r="CY60" s="1"/>
       <c r="CZ60" s="1"/>
-      <c r="DA60" s="1"/>
-      <c r="DB60" s="1"/>
+      <c r="DA60" s="47"/>
+      <c r="DB60" s="47"/>
+      <c r="DC60" s="1"/>
     </row>
-    <row r="61" spans="1:106">
+    <row r="61" spans="1:107">
       <c r="A61" s="1" t="s">
         <v>493</v>
       </c>
@@ -10956,7 +11196,7 @@
       <c r="H61" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I61" s="48" t="s">
+      <c r="I61" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J61" s="1"/>
@@ -11062,10 +11302,11 @@
       <c r="CX61" s="1"/>
       <c r="CY61" s="1"/>
       <c r="CZ61" s="1"/>
-      <c r="DA61" s="1"/>
-      <c r="DB61" s="1"/>
+      <c r="DA61" s="47"/>
+      <c r="DB61" s="47"/>
+      <c r="DC61" s="1"/>
     </row>
-    <row r="62" spans="1:106">
+    <row r="62" spans="1:107">
       <c r="A62" s="1" t="s">
         <v>498</v>
       </c>
@@ -11090,7 +11331,7 @@
       <c r="H62" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I62" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J62" s="1"/>
@@ -11196,10 +11437,11 @@
       <c r="CX62" s="1"/>
       <c r="CY62" s="1"/>
       <c r="CZ62" s="1"/>
-      <c r="DA62" s="1"/>
-      <c r="DB62" s="1"/>
+      <c r="DA62" s="47"/>
+      <c r="DB62" s="47"/>
+      <c r="DC62" s="1"/>
     </row>
-    <row r="63" spans="1:106">
+    <row r="63" spans="1:107">
       <c r="A63" s="1" t="s">
         <v>502</v>
       </c>
@@ -11224,7 +11466,7 @@
       <c r="H63" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="I63" s="48" t="s">
+      <c r="I63" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J63" s="1"/>
@@ -11330,10 +11572,11 @@
       <c r="CX63" s="1"/>
       <c r="CY63" s="1"/>
       <c r="CZ63" s="1"/>
-      <c r="DA63" s="1"/>
-      <c r="DB63" s="1"/>
+      <c r="DA63" s="47"/>
+      <c r="DB63" s="47"/>
+      <c r="DC63" s="1"/>
     </row>
-    <row r="64" spans="1:106">
+    <row r="64" spans="1:107">
       <c r="A64" s="1" t="s">
         <v>508</v>
       </c>
@@ -11358,7 +11601,7 @@
       <c r="H64" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I64" s="48" t="s">
+      <c r="I64" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J64" s="1"/>
@@ -11464,10 +11707,11 @@
       <c r="CX64" s="1"/>
       <c r="CY64" s="1"/>
       <c r="CZ64" s="1"/>
-      <c r="DA64" s="1"/>
-      <c r="DB64" s="1"/>
+      <c r="DA64" s="47"/>
+      <c r="DB64" s="47"/>
+      <c r="DC64" s="1"/>
     </row>
-    <row r="65" spans="1:106">
+    <row r="65" spans="1:107">
       <c r="A65" s="1" t="s">
         <v>513</v>
       </c>
@@ -11492,7 +11736,7 @@
       <c r="H65" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I65" s="48" t="s">
+      <c r="I65" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J65" s="1"/>
@@ -11598,10 +11842,11 @@
       <c r="CX65" s="1"/>
       <c r="CY65" s="1"/>
       <c r="CZ65" s="1"/>
-      <c r="DA65" s="1"/>
-      <c r="DB65" s="1"/>
+      <c r="DA65" s="47"/>
+      <c r="DB65" s="47"/>
+      <c r="DC65" s="1"/>
     </row>
-    <row r="66" spans="1:106">
+    <row r="66" spans="1:107">
       <c r="A66" s="11" t="s">
         <v>518</v>
       </c>
@@ -11626,7 +11871,7 @@
       <c r="H66" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="I66" s="48" t="s">
+      <c r="I66" s="62" t="s">
         <v>183</v>
       </c>
       <c r="J66" s="11"/>
@@ -11732,10 +11977,11 @@
       <c r="CX66" s="11"/>
       <c r="CY66" s="11"/>
       <c r="CZ66" s="11"/>
-      <c r="DA66" s="11"/>
-      <c r="DB66" s="11"/>
+      <c r="DA66" s="48"/>
+      <c r="DB66" s="48"/>
+      <c r="DC66" s="11"/>
     </row>
-    <row r="67" spans="1:106">
+    <row r="67" spans="1:107">
       <c r="A67" s="11" t="s">
         <v>529</v>
       </c>
@@ -11868,14 +12114,15 @@
       <c r="CZ67" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="DA67" s="43" t="s">
+      <c r="DA67" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="DB67" s="11" t="s">
+      <c r="DB67" s="49"/>
+      <c r="DC67" s="11" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="68" spans="1:106">
+    <row r="68" spans="1:107">
       <c r="A68" s="1" t="s">
         <v>544</v>
       </c>
@@ -12016,8 +12263,408 @@
       <c r="CX68" s="1"/>
       <c r="CY68" s="37"/>
       <c r="CZ68" s="36"/>
-      <c r="DA68" s="26"/>
-      <c r="DB68" s="1"/>
+      <c r="DA68" s="50"/>
+      <c r="DB68" s="50"/>
+      <c r="DC68" s="1"/>
+    </row>
+    <row r="69" spans="1:107">
+      <c r="A69" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="29"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+      <c r="BD69" s="1"/>
+      <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
+      <c r="BG69" s="1"/>
+      <c r="BH69" s="1"/>
+      <c r="BI69" s="1"/>
+      <c r="BJ69" s="1"/>
+      <c r="BK69" s="1"/>
+      <c r="BL69" s="1"/>
+      <c r="BM69" s="1"/>
+      <c r="BN69" s="1"/>
+      <c r="BO69" s="1"/>
+      <c r="BP69" s="1"/>
+      <c r="BQ69" s="1"/>
+      <c r="BR69" s="1"/>
+      <c r="BS69" s="1"/>
+      <c r="BT69" s="1"/>
+      <c r="BU69" s="1"/>
+      <c r="BV69" s="1"/>
+      <c r="BW69" s="1"/>
+      <c r="BX69" s="1"/>
+      <c r="BY69" s="1"/>
+      <c r="BZ69" s="1"/>
+      <c r="CA69" s="1"/>
+      <c r="CB69" s="1"/>
+      <c r="CC69" s="1"/>
+      <c r="CD69" s="1"/>
+      <c r="CE69" s="1"/>
+      <c r="CF69" s="1"/>
+      <c r="CG69" s="1"/>
+      <c r="CH69" s="1"/>
+      <c r="CI69" s="1"/>
+      <c r="CJ69" s="1"/>
+      <c r="CK69" s="1"/>
+      <c r="CL69" s="1"/>
+      <c r="CM69" s="1"/>
+      <c r="CN69" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP69" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CQ69" s="1"/>
+      <c r="CR69" s="1"/>
+      <c r="CS69" s="1"/>
+      <c r="CT69" s="1"/>
+      <c r="CU69" s="1"/>
+      <c r="CV69" s="1"/>
+      <c r="CW69" s="1"/>
+      <c r="CX69" s="1"/>
+      <c r="CY69" s="37"/>
+      <c r="CZ69" s="36"/>
+      <c r="DA69" s="50"/>
+      <c r="DB69" s="51" t="s">
+        <v>561</v>
+      </c>
+      <c r="DC69" s="1"/>
+    </row>
+    <row r="70" spans="1:107">
+      <c r="A70" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="1"/>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="29"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+      <c r="BD70" s="1"/>
+      <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
+      <c r="BG70" s="1"/>
+      <c r="BH70" s="1"/>
+      <c r="BI70" s="1"/>
+      <c r="BJ70" s="1"/>
+      <c r="BK70" s="1"/>
+      <c r="BL70" s="1"/>
+      <c r="BM70" s="1"/>
+      <c r="BN70" s="1"/>
+      <c r="BO70" s="1"/>
+      <c r="BP70" s="1"/>
+      <c r="BQ70" s="1"/>
+      <c r="BR70" s="1"/>
+      <c r="BS70" s="1"/>
+      <c r="BT70" s="1"/>
+      <c r="BU70" s="1"/>
+      <c r="BV70" s="1"/>
+      <c r="BW70" s="1"/>
+      <c r="BX70" s="1"/>
+      <c r="BY70" s="1"/>
+      <c r="BZ70" s="1"/>
+      <c r="CA70" s="1"/>
+      <c r="CB70" s="1"/>
+      <c r="CC70" s="1"/>
+      <c r="CD70" s="1"/>
+      <c r="CE70" s="1"/>
+      <c r="CF70" s="1"/>
+      <c r="CG70" s="1"/>
+      <c r="CH70" s="1"/>
+      <c r="CI70" s="1"/>
+      <c r="CJ70" s="1"/>
+      <c r="CK70" s="1"/>
+      <c r="CL70" s="1"/>
+      <c r="CM70" s="1"/>
+      <c r="CN70" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP70" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="CQ70" s="1"/>
+      <c r="CR70" s="1"/>
+      <c r="CS70" s="1"/>
+      <c r="CT70" s="1"/>
+      <c r="CU70" s="1"/>
+      <c r="CV70" s="1"/>
+      <c r="CW70" s="1"/>
+      <c r="CX70" s="1"/>
+      <c r="CY70" s="37"/>
+      <c r="CZ70" s="36"/>
+      <c r="DA70" s="50"/>
+      <c r="DB70" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="DC70" s="1"/>
+    </row>
+    <row r="71" spans="1:107">
+      <c r="A71" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="29"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+      <c r="BD71" s="1"/>
+      <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
+      <c r="BG71" s="1"/>
+      <c r="BH71" s="1"/>
+      <c r="BI71" s="1"/>
+      <c r="BJ71" s="1"/>
+      <c r="BK71" s="1"/>
+      <c r="BL71" s="1"/>
+      <c r="BM71" s="1"/>
+      <c r="BN71" s="1"/>
+      <c r="BO71" s="1"/>
+      <c r="BP71" s="1"/>
+      <c r="BQ71" s="1"/>
+      <c r="BR71" s="1"/>
+      <c r="BS71" s="1"/>
+      <c r="BT71" s="1"/>
+      <c r="BU71" s="1"/>
+      <c r="BV71" s="1"/>
+      <c r="BW71" s="1"/>
+      <c r="BX71" s="1"/>
+      <c r="BY71" s="1"/>
+      <c r="BZ71" s="1"/>
+      <c r="CA71" s="1"/>
+      <c r="CB71" s="1"/>
+      <c r="CC71" s="1"/>
+      <c r="CD71" s="1"/>
+      <c r="CE71" s="1"/>
+      <c r="CF71" s="1"/>
+      <c r="CG71" s="1"/>
+      <c r="CH71" s="1"/>
+      <c r="CI71" s="1"/>
+      <c r="CJ71" s="1"/>
+      <c r="CK71" s="1"/>
+      <c r="CL71" s="1"/>
+      <c r="CM71" s="1"/>
+      <c r="CN71" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP71" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="CQ71" s="1"/>
+      <c r="CR71" s="1"/>
+      <c r="CS71" s="1"/>
+      <c r="CT71" s="1"/>
+      <c r="CU71" s="1"/>
+      <c r="CV71" s="1"/>
+      <c r="CW71" s="1"/>
+      <c r="CX71" s="1"/>
+      <c r="CY71" s="37"/>
+      <c r="CZ71" s="36"/>
+      <c r="DA71" s="50"/>
+      <c r="DB71" s="51" t="s">
+        <v>567</v>
+      </c>
+      <c r="DC71" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9752A13-E156-446C-A721-89C143AD58D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="654">
   <si>
     <t>Environment</t>
   </si>
@@ -1822,9 +1821,6 @@
     <t>Smoke_TC79</t>
   </si>
   <si>
-    <t>Smoke_TC80</t>
-  </si>
-  <si>
     <t>Sajid</t>
   </si>
   <si>
@@ -1840,69 +1836,290 @@
     <t>Valid Credentials</t>
   </si>
   <si>
+    <t>RMX3</t>
+  </si>
+  <si>
+    <t>Smoke_TC101</t>
+  </si>
+  <si>
+    <t>User9</t>
+  </si>
+  <si>
+    <t>Create a contact list by using Contact object</t>
+  </si>
+  <si>
+    <t>Smoke_TC102</t>
+  </si>
+  <si>
+    <t>Smoke_TC103</t>
+  </si>
+  <si>
+    <t>Create a contact list by using Lead object</t>
+  </si>
+  <si>
+    <t>Create a contact list by using Account object</t>
+  </si>
+  <si>
+    <t>sogo_nayan_ent</t>
+  </si>
+  <si>
+    <t>Maxrunner@1234</t>
+  </si>
+  <si>
+    <t>RMSFandD</t>
+  </si>
+  <si>
+    <t>Contact ID,Account ID,Full Name,Mobile Phone,Email</t>
+  </si>
+  <si>
+    <t>salesforceFields</t>
+  </si>
+  <si>
+    <t>Id,AccountId,Name,MobilePhone,Email</t>
+  </si>
+  <si>
+    <t>Lead ID,Full Name,Mobile Phone,Email</t>
+  </si>
+  <si>
+    <t>Id,Name,MobilePhone,Email</t>
+  </si>
+  <si>
+    <t>Account ID,Account Name,Account Phone,Email</t>
+  </si>
+  <si>
+    <t>Id,Name,Phone,Email__c</t>
+  </si>
+  <si>
+    <t>Smoke_TC81</t>
+  </si>
+  <si>
+    <t>Smoke_TC82</t>
+  </si>
+  <si>
+    <t>Smoke_TC83</t>
+  </si>
+  <si>
+    <t>Smoke_TC84</t>
+  </si>
+  <si>
+    <t>Smoke_TC85</t>
+  </si>
+  <si>
+    <t>Smoke_TC86</t>
+  </si>
+  <si>
+    <t>Smoke_TC87</t>
+  </si>
+  <si>
+    <t>Smoke_TC88</t>
+  </si>
+  <si>
+    <t>Smoke_TC89</t>
+  </si>
+  <si>
+    <t>Smoke_TC90</t>
+  </si>
+  <si>
+    <t>Smoke_TC91</t>
+  </si>
+  <si>
+    <t>Smoke_TC92</t>
+  </si>
+  <si>
+    <t>Smoke_TC93</t>
+  </si>
+  <si>
+    <t>Smoke_TC94</t>
+  </si>
+  <si>
+    <t>Smoke_TC95</t>
+  </si>
+  <si>
+    <t>Smoke_TC96</t>
+  </si>
+  <si>
+    <t>Smoke_TC97</t>
+  </si>
+  <si>
+    <t>Smoke_TC98</t>
+  </si>
+  <si>
+    <t>Smoke_TC99</t>
+  </si>
+  <si>
+    <t>Smoke_TC100</t>
+  </si>
+  <si>
+    <t>Smoke_TC104</t>
+  </si>
+  <si>
+    <t>Smoke_TC105</t>
+  </si>
+  <si>
+    <t>Smoke_TC106</t>
+  </si>
+  <si>
+    <t>Smoke_TC107</t>
+  </si>
+  <si>
+    <t>Smoke_TC108</t>
+  </si>
+  <si>
+    <t>File Library</t>
+  </si>
+  <si>
+    <t>Upload .xls format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xlsx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .doc format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .docx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .ppt format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pptx format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pps format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .pdf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .txt format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .rtf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xml format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mpg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .swf format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .jpg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .jpeg format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .bmp format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .gif format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .png format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .htm format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .html format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .xhtml format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .csv format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mp3 format file in File Library</t>
+  </si>
+  <si>
+    <t>Upload .mp4 format file in File Library</t>
+  </si>
+  <si>
+    <t>sogo_data_import_file.xls</t>
+  </si>
+  <si>
+    <t>smsnumber.xlsx</t>
+  </si>
+  <si>
+    <t>docfile.doc</t>
+  </si>
+  <si>
+    <t>docxfile.docx</t>
+  </si>
+  <si>
+    <t>ppt.ppt</t>
+  </si>
+  <si>
+    <t>pptx.pptx</t>
+  </si>
+  <si>
+    <t>pps.pps</t>
+  </si>
+  <si>
+    <t>txt.txt</t>
+  </si>
+  <si>
+    <t>rtf.rtf</t>
+  </si>
+  <si>
+    <t>xml.xml</t>
+  </si>
+  <si>
+    <t>mpg.mpg</t>
+  </si>
+  <si>
+    <t>swf.swf</t>
+  </si>
+  <si>
+    <t>jpg.jpg</t>
+  </si>
+  <si>
+    <t>jpeg.jpeg</t>
+  </si>
+  <si>
+    <t>bmp.bmp</t>
+  </si>
+  <si>
+    <t>gif.gif</t>
+  </si>
+  <si>
+    <t>png.png</t>
+  </si>
+  <si>
+    <t>htm.htm</t>
+  </si>
+  <si>
+    <t>html.html</t>
+  </si>
+  <si>
+    <t>xhtml.xhtml</t>
+  </si>
+  <si>
+    <t>csv.csv</t>
+  </si>
+  <si>
+    <t>mp3.mp3</t>
+  </si>
+  <si>
+    <t>mp4.mp4</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>RMX3</t>
-  </si>
-  <si>
-    <t>Smoke_TC101</t>
-  </si>
-  <si>
-    <t>User9</t>
-  </si>
-  <si>
-    <t>Create a contact list by using Contact object</t>
-  </si>
-  <si>
-    <t>Smoke_TC102</t>
-  </si>
-  <si>
-    <t>Smoke_TC103</t>
-  </si>
-  <si>
-    <t>Create a contact list by using Lead object</t>
-  </si>
-  <si>
-    <t>Create a contact list by using Account object</t>
-  </si>
-  <si>
-    <t>sogo_nayan_ent</t>
-  </si>
-  <si>
-    <t>Maxrunner@1234</t>
-  </si>
-  <si>
-    <t>RMSFandD</t>
-  </si>
-  <si>
-    <t>Contact ID,Account ID,Full Name,Mobile Phone,Email</t>
-  </si>
-  <si>
-    <t>salesforceFields</t>
-  </si>
-  <si>
-    <t>Id,AccountId,Name,MobilePhone,Email</t>
-  </si>
-  <si>
-    <t>Lead ID,Full Name,Mobile Phone,Email</t>
-  </si>
-  <si>
-    <t>Id,Name,MobilePhone,Email</t>
-  </si>
-  <si>
-    <t>Account ID,Account Name,Account Phone,Email</t>
-  </si>
-  <si>
-    <t>Id,Name,Phone,Email__c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1950,22 +2167,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2000,6 +2223,16 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
@@ -2011,31 +2244,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -2168,23 +2376,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2461,7 +2669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2471,8 +2679,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2499,14 +2707,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2515,9 +2723,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2544,14 +2752,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2561,10 +2769,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2695,7 +2903,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>551</v>
@@ -2709,13 +2917,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>571</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>572</v>
+        <v>569</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>570</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -2724,49 +2932,49 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{B9DE157B-9AF0-4007-B82E-B098F4F3DC03}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DC75"/>
+  <dimension ref="A1:DD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:108">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3083,13 +3291,16 @@
         <v>540</v>
       </c>
       <c r="DB1" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="DC1" s="9" t="s">
         <v>541</v>
       </c>
+      <c r="DD1" s="3" t="s">
+        <v>652</v>
+      </c>
     </row>
-    <row r="2" spans="1:107">
+    <row r="2" spans="1:108">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3112,7 +3323,7 @@
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J2" s="4"/>
@@ -3215,8 +3426,9 @@
       <c r="DA2" s="1"/>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:108">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3420,8 +3632,9 @@
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:108">
       <c r="A4" s="1" t="s">
         <v>178</v>
       </c>
@@ -3444,7 +3657,7 @@
       <c r="H4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J4" s="14"/>
@@ -3559,8 +3772,9 @@
       <c r="DA4" s="1"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
     </row>
-    <row r="5" spans="1:107">
+    <row r="5" spans="1:108">
       <c r="A5" s="1" t="s">
         <v>179</v>
       </c>
@@ -3583,7 +3797,7 @@
       <c r="H5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -3700,8 +3914,9 @@
       <c r="DA5" s="1"/>
       <c r="DB5" s="1"/>
       <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
     </row>
-    <row r="6" spans="1:107">
+    <row r="6" spans="1:108">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -3724,7 +3939,7 @@
       <c r="H6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -3831,8 +4046,9 @@
       <c r="DA6" s="1"/>
       <c r="DB6" s="1"/>
       <c r="DC6" s="1"/>
+      <c r="DD6" s="1"/>
     </row>
-    <row r="7" spans="1:107">
+    <row r="7" spans="1:108">
       <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
@@ -3855,7 +4071,7 @@
       <c r="H7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J7" s="14"/>
@@ -3962,8 +4178,9 @@
       <c r="DA7" s="1"/>
       <c r="DB7" s="1"/>
       <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
     </row>
-    <row r="8" spans="1:107">
+    <row r="8" spans="1:108">
       <c r="A8" s="1" t="s">
         <v>182</v>
       </c>
@@ -3986,7 +4203,7 @@
       <c r="H8" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -4095,8 +4312,9 @@
       <c r="DA8" s="1"/>
       <c r="DB8" s="1"/>
       <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
     </row>
-    <row r="9" spans="1:107">
+    <row r="9" spans="1:108">
       <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
@@ -4119,7 +4337,7 @@
       <c r="H9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J9" s="1"/>
@@ -4232,13 +4450,14 @@
       <c r="DA9" s="1"/>
       <c r="DB9" s="1"/>
       <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
     </row>
-    <row r="10" spans="1:107">
+    <row r="10" spans="1:108">
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>258</v>
@@ -4256,7 +4475,7 @@
         <v>187</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J10" s="21" t="s">
@@ -4371,13 +4590,14 @@
       <c r="DA10" s="1"/>
       <c r="DB10" s="1"/>
       <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
     </row>
-    <row r="11" spans="1:107">
+    <row r="11" spans="1:108">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>258</v>
@@ -4395,7 +4615,7 @@
         <v>192</v>
       </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J11" s="21" t="s">
@@ -4506,13 +4726,14 @@
       <c r="DA11" s="1"/>
       <c r="DB11" s="1"/>
       <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
     </row>
-    <row r="12" spans="1:107">
+    <row r="12" spans="1:108">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>258</v>
@@ -4530,7 +4751,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J12" s="21"/>
@@ -4639,13 +4860,14 @@
       <c r="DA12" s="1"/>
       <c r="DB12" s="1"/>
       <c r="DC12" s="1"/>
+      <c r="DD12" s="1"/>
     </row>
-    <row r="13" spans="1:107">
+    <row r="13" spans="1:108">
       <c r="A13" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>258</v>
@@ -4663,7 +4885,7 @@
         <v>198</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J13" s="21"/>
@@ -4772,13 +4994,14 @@
       <c r="DA13" s="1"/>
       <c r="DB13" s="1"/>
       <c r="DC13" s="1"/>
+      <c r="DD13" s="1"/>
     </row>
-    <row r="14" spans="1:107">
+    <row r="14" spans="1:108">
       <c r="A14" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>258</v>
@@ -4796,7 +5019,7 @@
         <v>201</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="54" t="s">
+      <c r="I14" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J14" s="21"/>
@@ -4905,13 +5128,14 @@
       <c r="DA14" s="1"/>
       <c r="DB14" s="1"/>
       <c r="DC14" s="1"/>
+      <c r="DD14" s="1"/>
     </row>
-    <row r="15" spans="1:107">
+    <row r="15" spans="1:108">
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>258</v>
@@ -4929,7 +5153,7 @@
         <v>204</v>
       </c>
       <c r="H15" s="20"/>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J15" s="21" t="s">
@@ -5058,13 +5282,14 @@
       <c r="DA15" s="1"/>
       <c r="DB15" s="1"/>
       <c r="DC15" s="1"/>
+      <c r="DD15" s="1"/>
     </row>
-    <row r="16" spans="1:107">
+    <row r="16" spans="1:108">
       <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>258</v>
@@ -5082,7 +5307,7 @@
         <v>225</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J16" s="21"/>
@@ -5206,8 +5431,9 @@
       <c r="DA16" s="1"/>
       <c r="DB16" s="1"/>
       <c r="DC16" s="1"/>
+      <c r="DD16" s="1"/>
     </row>
-    <row r="17" spans="1:107">
+    <row r="17" spans="1:108">
       <c r="A17" s="1" t="s">
         <v>235</v>
       </c>
@@ -5230,7 +5456,7 @@
       <c r="H17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J17" s="14"/>
@@ -5335,13 +5561,14 @@
       <c r="DA17" s="1"/>
       <c r="DB17" s="1"/>
       <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
     </row>
-    <row r="18" spans="1:107">
+    <row r="18" spans="1:108">
       <c r="A18" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>258</v>
@@ -5357,7 +5584,7 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5466,13 +5693,14 @@
       <c r="DA18" s="1"/>
       <c r="DB18" s="1"/>
       <c r="DC18" s="1"/>
+      <c r="DD18" s="1"/>
     </row>
-    <row r="19" spans="1:107">
+    <row r="19" spans="1:108">
       <c r="A19" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>258</v>
@@ -5488,7 +5716,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J19" s="14"/>
@@ -5595,8 +5823,9 @@
       <c r="DA19" s="1"/>
       <c r="DB19" s="1"/>
       <c r="DC19" s="1"/>
+      <c r="DD19" s="1"/>
     </row>
-    <row r="20" spans="1:107">
+    <row r="20" spans="1:108">
       <c r="A20" s="1" t="s">
         <v>276</v>
       </c>
@@ -5728,8 +5957,9 @@
       <c r="DA20" s="1"/>
       <c r="DB20" s="1"/>
       <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
     </row>
-    <row r="21" spans="1:107">
+    <row r="21" spans="1:108">
       <c r="A21" s="1" t="s">
         <v>277</v>
       </c>
@@ -5865,8 +6095,9 @@
       <c r="DA21" s="1"/>
       <c r="DB21" s="1"/>
       <c r="DC21" s="1"/>
+      <c r="DD21" s="1"/>
     </row>
-    <row r="22" spans="1:107">
+    <row r="22" spans="1:108">
       <c r="A22" s="1" t="s">
         <v>278</v>
       </c>
@@ -5998,8 +6229,9 @@
       <c r="DA22" s="1"/>
       <c r="DB22" s="1"/>
       <c r="DC22" s="1"/>
+      <c r="DD22" s="1"/>
     </row>
-    <row r="23" spans="1:107">
+    <row r="23" spans="1:108">
       <c r="A23" s="1" t="s">
         <v>279</v>
       </c>
@@ -6135,8 +6367,9 @@
       <c r="DA23" s="1"/>
       <c r="DB23" s="1"/>
       <c r="DC23" s="1"/>
+      <c r="DD23" s="1"/>
     </row>
-    <row r="24" spans="1:107">
+    <row r="24" spans="1:108">
       <c r="A24" s="1" t="s">
         <v>280</v>
       </c>
@@ -6270,8 +6503,9 @@
       <c r="DA24" s="1"/>
       <c r="DB24" s="1"/>
       <c r="DC24" s="1"/>
+      <c r="DD24" s="1"/>
     </row>
-    <row r="25" spans="1:107">
+    <row r="25" spans="1:108">
       <c r="A25" s="1" t="s">
         <v>281</v>
       </c>
@@ -6405,8 +6639,9 @@
       <c r="DA25" s="1"/>
       <c r="DB25" s="1"/>
       <c r="DC25" s="1"/>
+      <c r="DD25" s="1"/>
     </row>
-    <row r="26" spans="1:107">
+    <row r="26" spans="1:108">
       <c r="A26" s="1" t="s">
         <v>282</v>
       </c>
@@ -6540,8 +6775,9 @@
       <c r="DA26" s="1"/>
       <c r="DB26" s="1"/>
       <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
     </row>
-    <row r="27" spans="1:107">
+    <row r="27" spans="1:108">
       <c r="A27" s="1" t="s">
         <v>283</v>
       </c>
@@ -6673,8 +6909,9 @@
       <c r="DA27" s="1"/>
       <c r="DB27" s="1"/>
       <c r="DC27" s="1"/>
+      <c r="DD27" s="1"/>
     </row>
-    <row r="28" spans="1:107">
+    <row r="28" spans="1:108">
       <c r="A28" s="1" t="s">
         <v>284</v>
       </c>
@@ -6806,8 +7043,9 @@
       <c r="DA28" s="1"/>
       <c r="DB28" s="1"/>
       <c r="DC28" s="1"/>
+      <c r="DD28" s="1"/>
     </row>
-    <row r="29" spans="1:107">
+    <row r="29" spans="1:108">
       <c r="A29" s="1" t="s">
         <v>285</v>
       </c>
@@ -6941,8 +7179,9 @@
       <c r="DA29" s="1"/>
       <c r="DB29" s="1"/>
       <c r="DC29" s="1"/>
+      <c r="DD29" s="1"/>
     </row>
-    <row r="30" spans="1:107">
+    <row r="30" spans="1:108">
       <c r="A30" s="1" t="s">
         <v>286</v>
       </c>
@@ -7078,8 +7317,9 @@
       <c r="DA30" s="1"/>
       <c r="DB30" s="1"/>
       <c r="DC30" s="1"/>
+      <c r="DD30" s="1"/>
     </row>
-    <row r="31" spans="1:107">
+    <row r="31" spans="1:108">
       <c r="A31" s="1" t="s">
         <v>287</v>
       </c>
@@ -7215,8 +7455,9 @@
       <c r="DA31" s="1"/>
       <c r="DB31" s="1"/>
       <c r="DC31" s="1"/>
+      <c r="DD31" s="1"/>
     </row>
-    <row r="32" spans="1:107">
+    <row r="32" spans="1:108">
       <c r="A32" s="11" t="s">
         <v>288</v>
       </c>
@@ -7348,13 +7589,14 @@
       <c r="DA32" s="1"/>
       <c r="DB32" s="1"/>
       <c r="DC32" s="1"/>
+      <c r="DD32" s="1"/>
     </row>
-    <row r="33" spans="1:107">
+    <row r="33" spans="1:108">
       <c r="A33" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>258</v>
@@ -7473,8 +7715,9 @@
       <c r="DA33" s="1"/>
       <c r="DB33" s="1"/>
       <c r="DC33" s="1"/>
+      <c r="DD33" s="1"/>
     </row>
-    <row r="34" spans="1:107">
+    <row r="34" spans="1:108">
       <c r="A34" s="31" t="s">
         <v>275</v>
       </c>
@@ -7636,8 +7879,9 @@
       <c r="DA34" s="1"/>
       <c r="DB34" s="1"/>
       <c r="DC34" s="1"/>
+      <c r="DD34" s="1"/>
     </row>
-    <row r="35" spans="1:107" ht="20.25" customHeight="1">
+    <row r="35" spans="1:108" ht="20.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>365</v>
       </c>
@@ -7773,8 +8017,9 @@
       <c r="DA35" s="1"/>
       <c r="DB35" s="1"/>
       <c r="DC35" s="1"/>
+      <c r="DD35" s="1"/>
     </row>
-    <row r="36" spans="1:107" ht="19.5" customHeight="1">
+    <row r="36" spans="1:108" ht="19.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>373</v>
       </c>
@@ -7910,8 +8155,9 @@
       <c r="DA36" s="1"/>
       <c r="DB36" s="1"/>
       <c r="DC36" s="1"/>
+      <c r="DD36" s="1"/>
     </row>
-    <row r="37" spans="1:107">
+    <row r="37" spans="1:108">
       <c r="A37" s="1" t="s">
         <v>380</v>
       </c>
@@ -8043,8 +8289,9 @@
       <c r="DA37" s="1"/>
       <c r="DB37" s="1"/>
       <c r="DC37" s="1"/>
+      <c r="DD37" s="1"/>
     </row>
-    <row r="38" spans="1:107">
+    <row r="38" spans="1:108">
       <c r="A38" s="1" t="s">
         <v>385</v>
       </c>
@@ -8176,8 +8423,9 @@
       <c r="DA38" s="1"/>
       <c r="DB38" s="1"/>
       <c r="DC38" s="1"/>
+      <c r="DD38" s="1"/>
     </row>
-    <row r="39" spans="1:107">
+    <row r="39" spans="1:108">
       <c r="A39" s="1" t="s">
         <v>390</v>
       </c>
@@ -8309,8 +8557,9 @@
       <c r="DA39" s="1"/>
       <c r="DB39" s="1"/>
       <c r="DC39" s="1"/>
+      <c r="DD39" s="1"/>
     </row>
-    <row r="40" spans="1:107">
+    <row r="40" spans="1:108">
       <c r="A40" s="1" t="s">
         <v>395</v>
       </c>
@@ -8442,8 +8691,9 @@
       <c r="DA40" s="1"/>
       <c r="DB40" s="1"/>
       <c r="DC40" s="1"/>
+      <c r="DD40" s="1"/>
     </row>
-    <row r="41" spans="1:107">
+    <row r="41" spans="1:108">
       <c r="A41" s="1" t="s">
         <v>400</v>
       </c>
@@ -8575,8 +8825,9 @@
       <c r="DA41" s="1"/>
       <c r="DB41" s="1"/>
       <c r="DC41" s="1"/>
+      <c r="DD41" s="1"/>
     </row>
-    <row r="42" spans="1:107">
+    <row r="42" spans="1:108">
       <c r="A42" s="1" t="s">
         <v>405</v>
       </c>
@@ -8708,8 +8959,9 @@
       <c r="DA42" s="1"/>
       <c r="DB42" s="1"/>
       <c r="DC42" s="1"/>
+      <c r="DD42" s="1"/>
     </row>
-    <row r="43" spans="1:107">
+    <row r="43" spans="1:108">
       <c r="A43" s="1" t="s">
         <v>410</v>
       </c>
@@ -8841,8 +9093,9 @@
       <c r="DA43" s="1"/>
       <c r="DB43" s="1"/>
       <c r="DC43" s="1"/>
+      <c r="DD43" s="1"/>
     </row>
-    <row r="44" spans="1:107">
+    <row r="44" spans="1:108">
       <c r="A44" s="1" t="s">
         <v>415</v>
       </c>
@@ -8974,8 +9227,9 @@
       <c r="DA44" s="1"/>
       <c r="DB44" s="1"/>
       <c r="DC44" s="1"/>
+      <c r="DD44" s="1"/>
     </row>
-    <row r="45" spans="1:107">
+    <row r="45" spans="1:108">
       <c r="A45" s="1" t="s">
         <v>420</v>
       </c>
@@ -9105,8 +9359,9 @@
       <c r="DA45" s="1"/>
       <c r="DB45" s="1"/>
       <c r="DC45" s="1"/>
+      <c r="DD45" s="1"/>
     </row>
-    <row r="46" spans="1:107">
+    <row r="46" spans="1:108">
       <c r="A46" s="1" t="s">
         <v>424</v>
       </c>
@@ -9236,8 +9491,9 @@
       <c r="DA46" s="1"/>
       <c r="DB46" s="1"/>
       <c r="DC46" s="1"/>
+      <c r="DD46" s="1"/>
     </row>
-    <row r="47" spans="1:107">
+    <row r="47" spans="1:108">
       <c r="A47" s="1" t="s">
         <v>428</v>
       </c>
@@ -9367,8 +9623,9 @@
       <c r="DA47" s="1"/>
       <c r="DB47" s="1"/>
       <c r="DC47" s="1"/>
+      <c r="DD47" s="1"/>
     </row>
-    <row r="48" spans="1:107">
+    <row r="48" spans="1:108">
       <c r="A48" s="1" t="s">
         <v>432</v>
       </c>
@@ -9498,8 +9755,9 @@
       <c r="DA48" s="1"/>
       <c r="DB48" s="1"/>
       <c r="DC48" s="1"/>
+      <c r="DD48" s="1"/>
     </row>
-    <row r="49" spans="1:107">
+    <row r="49" spans="1:108">
       <c r="A49" s="1" t="s">
         <v>436</v>
       </c>
@@ -9631,8 +9889,9 @@
       <c r="DA49" s="1"/>
       <c r="DB49" s="1"/>
       <c r="DC49" s="1"/>
+      <c r="DD49" s="1"/>
     </row>
-    <row r="50" spans="1:107">
+    <row r="50" spans="1:108">
       <c r="A50" s="1" t="s">
         <v>441</v>
       </c>
@@ -9764,8 +10023,9 @@
       <c r="DA50" s="1"/>
       <c r="DB50" s="1"/>
       <c r="DC50" s="1"/>
+      <c r="DD50" s="1"/>
     </row>
-    <row r="51" spans="1:107">
+    <row r="51" spans="1:108">
       <c r="A51" s="1" t="s">
         <v>446</v>
       </c>
@@ -9897,8 +10157,9 @@
       <c r="DA51" s="1"/>
       <c r="DB51" s="1"/>
       <c r="DC51" s="1"/>
+      <c r="DD51" s="1"/>
     </row>
-    <row r="52" spans="1:107">
+    <row r="52" spans="1:108">
       <c r="A52" s="1" t="s">
         <v>451</v>
       </c>
@@ -10030,8 +10291,9 @@
       <c r="DA52" s="1"/>
       <c r="DB52" s="1"/>
       <c r="DC52" s="1"/>
+      <c r="DD52" s="1"/>
     </row>
-    <row r="53" spans="1:107">
+    <row r="53" spans="1:108">
       <c r="A53" s="1" t="s">
         <v>456</v>
       </c>
@@ -10161,8 +10423,9 @@
       <c r="DA53" s="1"/>
       <c r="DB53" s="1"/>
       <c r="DC53" s="1"/>
+      <c r="DD53" s="1"/>
     </row>
-    <row r="54" spans="1:107">
+    <row r="54" spans="1:108">
       <c r="A54" s="1" t="s">
         <v>460</v>
       </c>
@@ -10292,8 +10555,9 @@
       <c r="DA54" s="1"/>
       <c r="DB54" s="1"/>
       <c r="DC54" s="1"/>
+      <c r="DD54" s="1"/>
     </row>
-    <row r="55" spans="1:107">
+    <row r="55" spans="1:108">
       <c r="A55" s="1" t="s">
         <v>464</v>
       </c>
@@ -10425,8 +10689,9 @@
       <c r="DA55" s="1"/>
       <c r="DB55" s="1"/>
       <c r="DC55" s="1"/>
+      <c r="DD55" s="1"/>
     </row>
-    <row r="56" spans="1:107">
+    <row r="56" spans="1:108">
       <c r="A56" s="1" t="s">
         <v>469</v>
       </c>
@@ -10558,8 +10823,9 @@
       <c r="DA56" s="1"/>
       <c r="DB56" s="1"/>
       <c r="DC56" s="1"/>
+      <c r="DD56" s="1"/>
     </row>
-    <row r="57" spans="1:107">
+    <row r="57" spans="1:108">
       <c r="A57" s="1" t="s">
         <v>474</v>
       </c>
@@ -10691,8 +10957,9 @@
       <c r="DA57" s="1"/>
       <c r="DB57" s="1"/>
       <c r="DC57" s="1"/>
+      <c r="DD57" s="1"/>
     </row>
-    <row r="58" spans="1:107">
+    <row r="58" spans="1:108">
       <c r="A58" s="1" t="s">
         <v>479</v>
       </c>
@@ -10824,8 +11091,9 @@
       <c r="DA58" s="1"/>
       <c r="DB58" s="1"/>
       <c r="DC58" s="1"/>
+      <c r="DD58" s="1"/>
     </row>
-    <row r="59" spans="1:107">
+    <row r="59" spans="1:108">
       <c r="A59" s="1" t="s">
         <v>483</v>
       </c>
@@ -10959,8 +11227,9 @@
       <c r="DA59" s="1"/>
       <c r="DB59" s="1"/>
       <c r="DC59" s="1"/>
+      <c r="DD59" s="1"/>
     </row>
-    <row r="60" spans="1:107">
+    <row r="60" spans="1:108">
       <c r="A60" s="1" t="s">
         <v>489</v>
       </c>
@@ -11094,8 +11363,9 @@
       <c r="DA60" s="1"/>
       <c r="DB60" s="1"/>
       <c r="DC60" s="1"/>
+      <c r="DD60" s="1"/>
     </row>
-    <row r="61" spans="1:107">
+    <row r="61" spans="1:108">
       <c r="A61" s="1" t="s">
         <v>493</v>
       </c>
@@ -11229,8 +11499,9 @@
       <c r="DA61" s="1"/>
       <c r="DB61" s="1"/>
       <c r="DC61" s="1"/>
+      <c r="DD61" s="1"/>
     </row>
-    <row r="62" spans="1:107">
+    <row r="62" spans="1:108">
       <c r="A62" s="1" t="s">
         <v>498</v>
       </c>
@@ -11364,8 +11635,9 @@
       <c r="DA62" s="1"/>
       <c r="DB62" s="1"/>
       <c r="DC62" s="1"/>
+      <c r="DD62" s="1"/>
     </row>
-    <row r="63" spans="1:107">
+    <row r="63" spans="1:108">
       <c r="A63" s="1" t="s">
         <v>502</v>
       </c>
@@ -11499,8 +11771,9 @@
       <c r="DA63" s="1"/>
       <c r="DB63" s="1"/>
       <c r="DC63" s="1"/>
+      <c r="DD63" s="1"/>
     </row>
-    <row r="64" spans="1:107">
+    <row r="64" spans="1:108">
       <c r="A64" s="1" t="s">
         <v>508</v>
       </c>
@@ -11634,8 +11907,9 @@
       <c r="DA64" s="1"/>
       <c r="DB64" s="1"/>
       <c r="DC64" s="1"/>
+      <c r="DD64" s="1"/>
     </row>
-    <row r="65" spans="1:107">
+    <row r="65" spans="1:108">
       <c r="A65" s="1" t="s">
         <v>513</v>
       </c>
@@ -11769,8 +12043,9 @@
       <c r="DA65" s="1"/>
       <c r="DB65" s="1"/>
       <c r="DC65" s="1"/>
+      <c r="DD65" s="1"/>
     </row>
-    <row r="66" spans="1:107">
+    <row r="66" spans="1:108">
       <c r="A66" s="11" t="s">
         <v>518</v>
       </c>
@@ -11904,8 +12179,9 @@
       <c r="DA66" s="11"/>
       <c r="DB66" s="11"/>
       <c r="DC66" s="11"/>
+      <c r="DD66" s="1"/>
     </row>
-    <row r="67" spans="1:107">
+    <row r="67" spans="1:108">
       <c r="A67" s="11" t="s">
         <v>529</v>
       </c>
@@ -11928,7 +12204,7 @@
         <v>531</v>
       </c>
       <c r="H67" s="11"/>
-      <c r="I67" s="54" t="s">
+      <c r="I67" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J67" s="11"/>
@@ -12045,8 +12321,9 @@
       <c r="DC67" s="11" t="s">
         <v>536</v>
       </c>
+      <c r="DD67" s="50"/>
     </row>
-    <row r="68" spans="1:107">
+    <row r="68" spans="1:108">
       <c r="A68" s="11" t="s">
         <v>544</v>
       </c>
@@ -12060,7 +12337,7 @@
         <v>289</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>545</v>
@@ -12071,7 +12348,7 @@
       <c r="H68" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="I68" s="48" t="s">
+      <c r="I68" s="52" t="s">
         <v>183</v>
       </c>
       <c r="J68" s="11"/>
@@ -12190,8 +12467,9 @@
       <c r="DA68" s="47"/>
       <c r="DB68" s="11"/>
       <c r="DC68" s="11"/>
+      <c r="DD68" s="1"/>
     </row>
-    <row r="69" spans="1:107">
+    <row r="69" spans="1:108">
       <c r="A69" s="1" t="s">
         <v>553</v>
       </c>
@@ -12199,7 +12477,7 @@
         <v>11</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D69" s="43" t="s">
         <v>527</v>
@@ -12208,11 +12486,11 @@
         <v>290</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="54" t="s">
+      <c r="I69" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J69" s="1"/>
@@ -12313,8 +12591,9 @@
       <c r="DA69" s="26"/>
       <c r="DB69" s="1"/>
       <c r="DC69" s="1"/>
+      <c r="DD69" s="1"/>
     </row>
-    <row r="70" spans="1:107">
+    <row r="70" spans="1:108">
       <c r="A70" s="1" t="s">
         <v>554</v>
       </c>
@@ -12322,7 +12601,7 @@
         <v>11</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D70" s="43" t="s">
         <v>527</v>
@@ -12331,11 +12610,11 @@
         <v>290</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="54" t="s">
+      <c r="I70" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J70" s="1"/>
@@ -12436,8 +12715,9 @@
       <c r="DA70" s="26"/>
       <c r="DB70" s="1"/>
       <c r="DC70" s="1"/>
+      <c r="DD70" s="1"/>
     </row>
-    <row r="71" spans="1:107">
+    <row r="71" spans="1:108">
       <c r="A71" s="1" t="s">
         <v>555</v>
       </c>
@@ -12445,7 +12725,7 @@
         <v>11</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D71" s="43" t="s">
         <v>527</v>
@@ -12454,11 +12734,11 @@
         <v>290</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="54" t="s">
+      <c r="I71" s="55" t="s">
         <v>183</v>
       </c>
       <c r="J71" s="1"/>
@@ -12559,16 +12839,17 @@
       <c r="DA71" s="26"/>
       <c r="DB71" s="1"/>
       <c r="DC71" s="1"/>
+      <c r="DD71" s="1"/>
     </row>
-    <row r="72" spans="1:107">
+    <row r="72" spans="1:108">
       <c r="A72" s="1" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="B72" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D72" s="43" t="s">
         <v>527</v>
@@ -12577,11 +12858,11 @@
         <v>290</v>
       </c>
       <c r="F72" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="54" t="s">
+      <c r="I72" s="49" t="s">
         <v>183</v>
       </c>
       <c r="J72" s="1"/>
@@ -12682,30 +12963,33 @@
       <c r="DA72" s="26"/>
       <c r="DB72" s="1"/>
       <c r="DC72" s="1"/>
+      <c r="DD72" s="1"/>
     </row>
-    <row r="73" spans="1:107">
+    <row r="73" spans="1:108" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>258</v>
+        <v>556</v>
       </c>
       <c r="D73" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>565</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>566</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G73" s="51" t="s">
+        <v>605</v>
+      </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="52" t="s">
-        <v>562</v>
+      <c r="I73" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -12743,12 +13027,12 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
-      <c r="AT73" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="AT73" s="1"/>
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
-      <c r="AW73" s="29"/>
+      <c r="AW73" s="29" t="s">
+        <v>629</v>
+      </c>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
@@ -12791,15 +13075,9 @@
       <c r="CK73" s="1"/>
       <c r="CL73" s="1"/>
       <c r="CM73" s="1"/>
-      <c r="CN73" s="1">
-        <v>168</v>
-      </c>
-      <c r="CO73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP73" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="1"/>
+      <c r="CP73" s="1"/>
       <c r="CQ73" s="1"/>
       <c r="CR73" s="1"/>
       <c r="CS73" s="1"/>
@@ -12811,34 +13089,37 @@
       <c r="CY73" s="37"/>
       <c r="CZ73" s="36"/>
       <c r="DA73" s="26"/>
-      <c r="DB73" s="1" t="s">
-        <v>576</v>
-      </c>
+      <c r="DB73" s="1"/>
       <c r="DC73" s="1"/>
+      <c r="DD73" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="74" spans="1:107">
+    <row r="74" spans="1:108" ht="16.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>258</v>
+        <v>556</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>565</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>569</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G74" s="51" t="s">
+        <v>606</v>
+      </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="52" t="s">
-        <v>562</v>
+      <c r="I74" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -12876,12 +13157,12 @@
       <c r="AQ74" s="1"/>
       <c r="AR74" s="1"/>
       <c r="AS74" s="1"/>
-      <c r="AT74" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="AT74" s="1"/>
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
-      <c r="AW74" s="29"/>
+      <c r="AW74" s="29" t="s">
+        <v>630</v>
+      </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
@@ -12924,15 +13205,9 @@
       <c r="CK74" s="1"/>
       <c r="CL74" s="1"/>
       <c r="CM74" s="1"/>
-      <c r="CN74" s="1">
-        <v>168</v>
-      </c>
-      <c r="CO74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP74" s="1" t="s">
-        <v>577</v>
-      </c>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
       <c r="CQ74" s="1"/>
       <c r="CR74" s="1"/>
       <c r="CS74" s="1"/>
@@ -12944,34 +13219,37 @@
       <c r="CY74" s="37"/>
       <c r="CZ74" s="36"/>
       <c r="DA74" s="26"/>
-      <c r="DB74" s="1" t="s">
-        <v>578</v>
-      </c>
+      <c r="DB74" s="1"/>
       <c r="DC74" s="1"/>
+      <c r="DD74" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="75" spans="1:107">
+    <row r="75" spans="1:108" ht="18.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>258</v>
+        <v>556</v>
       </c>
       <c r="D75" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>565</v>
-      </c>
-      <c r="F75" s="43" t="s">
-        <v>570</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>527</v>
+      </c>
+      <c r="E75" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F75" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G75" s="51" t="s">
+        <v>607</v>
+      </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="52" t="s">
-        <v>562</v>
+      <c r="I75" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -13009,12 +13287,12 @@
       <c r="AQ75" s="1"/>
       <c r="AR75" s="1"/>
       <c r="AS75" s="1"/>
-      <c r="AT75" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="AT75" s="1"/>
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
-      <c r="AW75" s="29"/>
+      <c r="AW75" s="29" t="s">
+        <v>631</v>
+      </c>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
@@ -13057,15 +13335,9 @@
       <c r="CK75" s="1"/>
       <c r="CL75" s="1"/>
       <c r="CM75" s="1"/>
-      <c r="CN75" s="1">
-        <v>168</v>
-      </c>
-      <c r="CO75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP75" s="1" t="s">
-        <v>579</v>
-      </c>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1"/>
+      <c r="CP75" s="1"/>
       <c r="CQ75" s="1"/>
       <c r="CR75" s="1"/>
       <c r="CS75" s="1"/>
@@ -13077,21 +13349,3154 @@
       <c r="CY75" s="37"/>
       <c r="CZ75" s="36"/>
       <c r="DA75" s="26"/>
-      <c r="DB75" s="1" t="s">
-        <v>580</v>
-      </c>
+      <c r="DB75" s="1"/>
       <c r="DC75" s="1"/>
+      <c r="DD75" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:108" ht="18.75" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E76" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G76" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="1"/>
+      <c r="BX76" s="1"/>
+      <c r="BY76" s="1"/>
+      <c r="BZ76" s="1"/>
+      <c r="CA76" s="1"/>
+      <c r="CB76" s="1"/>
+      <c r="CC76" s="1"/>
+      <c r="CD76" s="1"/>
+      <c r="CE76" s="1"/>
+      <c r="CF76" s="1"/>
+      <c r="CG76" s="1"/>
+      <c r="CH76" s="1"/>
+      <c r="CI76" s="1"/>
+      <c r="CJ76" s="1"/>
+      <c r="CK76" s="1"/>
+      <c r="CL76" s="1"/>
+      <c r="CM76" s="1"/>
+      <c r="CN76" s="1"/>
+      <c r="CO76" s="1"/>
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="1"/>
+      <c r="CS76" s="1"/>
+      <c r="CT76" s="1"/>
+      <c r="CU76" s="1"/>
+      <c r="CV76" s="1"/>
+      <c r="CW76" s="1"/>
+      <c r="CX76" s="1"/>
+      <c r="CY76" s="37"/>
+      <c r="CZ76" s="36"/>
+      <c r="DA76" s="26"/>
+      <c r="DB76" s="1"/>
+      <c r="DC76" s="1"/>
+      <c r="DD76" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:108">
+      <c r="A77" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E77" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G77" s="51" t="s">
+        <v>609</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="39"/>
+      <c r="P77" s="39"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="1"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="1"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="1"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="1"/>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="1"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="1"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="1"/>
+      <c r="CT77" s="1"/>
+      <c r="CU77" s="1"/>
+      <c r="CV77" s="1"/>
+      <c r="CW77" s="1"/>
+      <c r="CX77" s="1"/>
+      <c r="CY77" s="37"/>
+      <c r="CZ77" s="36"/>
+      <c r="DA77" s="26"/>
+      <c r="DB77" s="1"/>
+      <c r="DC77" s="1"/>
+      <c r="DD77" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:108" ht="15" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E78" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G78" s="51" t="s">
+        <v>610</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="1"/>
+      <c r="BQ78" s="1"/>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="1"/>
+      <c r="BX78" s="1"/>
+      <c r="BY78" s="1"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
+      <c r="CT78" s="1"/>
+      <c r="CU78" s="1"/>
+      <c r="CV78" s="1"/>
+      <c r="CW78" s="1"/>
+      <c r="CX78" s="1"/>
+      <c r="CY78" s="37"/>
+      <c r="CZ78" s="36"/>
+      <c r="DA78" s="26"/>
+      <c r="DB78" s="1"/>
+      <c r="DC78" s="1"/>
+      <c r="DD78" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:108">
+      <c r="A79" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G79" s="51" t="s">
+        <v>611</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="39"/>
+      <c r="P79" s="39"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="1"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="1"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="1"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="1"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="1"/>
+      <c r="CB79" s="1"/>
+      <c r="CC79" s="1"/>
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="1"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="1"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="1"/>
+      <c r="CJ79" s="1"/>
+      <c r="CK79" s="1"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="1"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="1"/>
+      <c r="CS79" s="1"/>
+      <c r="CT79" s="1"/>
+      <c r="CU79" s="1"/>
+      <c r="CV79" s="1"/>
+      <c r="CW79" s="1"/>
+      <c r="CX79" s="1"/>
+      <c r="CY79" s="37"/>
+      <c r="CZ79" s="36"/>
+      <c r="DA79" s="26"/>
+      <c r="DB79" s="1"/>
+      <c r="DC79" s="1"/>
+      <c r="DD79" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:108">
+      <c r="A80" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E80" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F80" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G80" s="51" t="s">
+        <v>612</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="39"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="1"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="1"/>
+      <c r="BX80" s="1"/>
+      <c r="BY80" s="1"/>
+      <c r="BZ80" s="1"/>
+      <c r="CA80" s="1"/>
+      <c r="CB80" s="1"/>
+      <c r="CC80" s="1"/>
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="1"/>
+      <c r="CF80" s="1"/>
+      <c r="CG80" s="1"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="1"/>
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="1"/>
+      <c r="CS80" s="1"/>
+      <c r="CT80" s="1"/>
+      <c r="CU80" s="1"/>
+      <c r="CV80" s="1"/>
+      <c r="CW80" s="1"/>
+      <c r="CX80" s="1"/>
+      <c r="CY80" s="37"/>
+      <c r="CZ80" s="36"/>
+      <c r="DA80" s="26"/>
+      <c r="DB80" s="1"/>
+      <c r="DC80" s="1"/>
+      <c r="DD80" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:108">
+      <c r="A81" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F81" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G81" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="1"/>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="1"/>
+      <c r="BT81" s="1"/>
+      <c r="BU81" s="1"/>
+      <c r="BV81" s="1"/>
+      <c r="BW81" s="1"/>
+      <c r="BX81" s="1"/>
+      <c r="BY81" s="1"/>
+      <c r="BZ81" s="1"/>
+      <c r="CA81" s="1"/>
+      <c r="CB81" s="1"/>
+      <c r="CC81" s="1"/>
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="1"/>
+      <c r="CF81" s="1"/>
+      <c r="CG81" s="1"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="1"/>
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="1"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="1"/>
+      <c r="CS81" s="1"/>
+      <c r="CT81" s="1"/>
+      <c r="CU81" s="1"/>
+      <c r="CV81" s="1"/>
+      <c r="CW81" s="1"/>
+      <c r="CX81" s="1"/>
+      <c r="CY81" s="37"/>
+      <c r="CZ81" s="36"/>
+      <c r="DA81" s="26"/>
+      <c r="DB81" s="1"/>
+      <c r="DC81" s="1"/>
+      <c r="DD81" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:108">
+      <c r="A82" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E82" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G82" s="51" t="s">
+        <v>614</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="1"/>
+      <c r="BR82" s="1"/>
+      <c r="BS82" s="1"/>
+      <c r="BT82" s="1"/>
+      <c r="BU82" s="1"/>
+      <c r="BV82" s="1"/>
+      <c r="BW82" s="1"/>
+      <c r="BX82" s="1"/>
+      <c r="BY82" s="1"/>
+      <c r="BZ82" s="1"/>
+      <c r="CA82" s="1"/>
+      <c r="CB82" s="1"/>
+      <c r="CC82" s="1"/>
+      <c r="CD82" s="1"/>
+      <c r="CE82" s="1"/>
+      <c r="CF82" s="1"/>
+      <c r="CG82" s="1"/>
+      <c r="CH82" s="1"/>
+      <c r="CI82" s="1"/>
+      <c r="CJ82" s="1"/>
+      <c r="CK82" s="1"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="1"/>
+      <c r="CS82" s="1"/>
+      <c r="CT82" s="1"/>
+      <c r="CU82" s="1"/>
+      <c r="CV82" s="1"/>
+      <c r="CW82" s="1"/>
+      <c r="CX82" s="1"/>
+      <c r="CY82" s="37"/>
+      <c r="CZ82" s="36"/>
+      <c r="DA82" s="26"/>
+      <c r="DB82" s="1"/>
+      <c r="DC82" s="1"/>
+      <c r="DD82" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:108">
+      <c r="A83" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E83" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F83" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G83" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="1"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="1"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="1"/>
+      <c r="BX83" s="1"/>
+      <c r="BY83" s="1"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="1"/>
+      <c r="CB83" s="1"/>
+      <c r="CC83" s="1"/>
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="1"/>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="1"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="1"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="1"/>
+      <c r="CT83" s="1"/>
+      <c r="CU83" s="1"/>
+      <c r="CV83" s="1"/>
+      <c r="CW83" s="1"/>
+      <c r="CX83" s="1"/>
+      <c r="CY83" s="37"/>
+      <c r="CZ83" s="36"/>
+      <c r="DA83" s="26"/>
+      <c r="DB83" s="1"/>
+      <c r="DC83" s="1"/>
+      <c r="DD83" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:108" ht="15.75" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E84" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F84" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G84" s="51" t="s">
+        <v>616</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="1"/>
+      <c r="BM84" s="1"/>
+      <c r="BN84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="1"/>
+      <c r="BR84" s="1"/>
+      <c r="BS84" s="1"/>
+      <c r="BT84" s="1"/>
+      <c r="BU84" s="1"/>
+      <c r="BV84" s="1"/>
+      <c r="BW84" s="1"/>
+      <c r="BX84" s="1"/>
+      <c r="BY84" s="1"/>
+      <c r="BZ84" s="1"/>
+      <c r="CA84" s="1"/>
+      <c r="CB84" s="1"/>
+      <c r="CC84" s="1"/>
+      <c r="CD84" s="1"/>
+      <c r="CE84" s="1"/>
+      <c r="CF84" s="1"/>
+      <c r="CG84" s="1"/>
+      <c r="CH84" s="1"/>
+      <c r="CI84" s="1"/>
+      <c r="CJ84" s="1"/>
+      <c r="CK84" s="1"/>
+      <c r="CL84" s="1"/>
+      <c r="CM84" s="1"/>
+      <c r="CN84" s="1"/>
+      <c r="CO84" s="1"/>
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="1"/>
+      <c r="CS84" s="1"/>
+      <c r="CT84" s="1"/>
+      <c r="CU84" s="1"/>
+      <c r="CV84" s="1"/>
+      <c r="CW84" s="1"/>
+      <c r="CX84" s="1"/>
+      <c r="CY84" s="37"/>
+      <c r="CZ84" s="36"/>
+      <c r="DA84" s="26"/>
+      <c r="DB84" s="1"/>
+      <c r="DC84" s="1"/>
+      <c r="DD84" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:108">
+      <c r="A85" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E85" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G85" s="51" t="s">
+        <v>617</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="1"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="1"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="1"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="1"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="1"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="1"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="1"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="1"/>
+      <c r="CT85" s="1"/>
+      <c r="CU85" s="1"/>
+      <c r="CV85" s="1"/>
+      <c r="CW85" s="1"/>
+      <c r="CX85" s="1"/>
+      <c r="CY85" s="37"/>
+      <c r="CZ85" s="36"/>
+      <c r="DA85" s="26"/>
+      <c r="DB85" s="1"/>
+      <c r="DC85" s="1"/>
+      <c r="DD85" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:108">
+      <c r="A86" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E86" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G86" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
+      <c r="CT86" s="1"/>
+      <c r="CU86" s="1"/>
+      <c r="CV86" s="1"/>
+      <c r="CW86" s="1"/>
+      <c r="CX86" s="1"/>
+      <c r="CY86" s="37"/>
+      <c r="CZ86" s="36"/>
+      <c r="DA86" s="26"/>
+      <c r="DB86" s="1"/>
+      <c r="DC86" s="1"/>
+      <c r="DD86" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:108" ht="17.25" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E87" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G87" s="51" t="s">
+        <v>619</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="1"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="1"/>
+      <c r="BT87" s="1"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="1"/>
+      <c r="BX87" s="1"/>
+      <c r="BY87" s="1"/>
+      <c r="BZ87" s="1"/>
+      <c r="CA87" s="1"/>
+      <c r="CB87" s="1"/>
+      <c r="CC87" s="1"/>
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="1"/>
+      <c r="CF87" s="1"/>
+      <c r="CG87" s="1"/>
+      <c r="CH87" s="1"/>
+      <c r="CI87" s="1"/>
+      <c r="CJ87" s="1"/>
+      <c r="CK87" s="1"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="1"/>
+      <c r="CS87" s="1"/>
+      <c r="CT87" s="1"/>
+      <c r="CU87" s="1"/>
+      <c r="CV87" s="1"/>
+      <c r="CW87" s="1"/>
+      <c r="CX87" s="1"/>
+      <c r="CY87" s="37"/>
+      <c r="CZ87" s="36"/>
+      <c r="DA87" s="26"/>
+      <c r="DB87" s="1"/>
+      <c r="DC87" s="1"/>
+      <c r="DD87" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:108" ht="17.25" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E88" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F88" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G88" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
+      <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="1"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+      <c r="CC88" s="1"/>
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="1"/>
+      <c r="CF88" s="1"/>
+      <c r="CG88" s="1"/>
+      <c r="CH88" s="1"/>
+      <c r="CI88" s="1"/>
+      <c r="CJ88" s="1"/>
+      <c r="CK88" s="1"/>
+      <c r="CL88" s="1"/>
+      <c r="CM88" s="1"/>
+      <c r="CN88" s="1"/>
+      <c r="CO88" s="1"/>
+      <c r="CP88" s="1"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="1"/>
+      <c r="CS88" s="1"/>
+      <c r="CT88" s="1"/>
+      <c r="CU88" s="1"/>
+      <c r="CV88" s="1"/>
+      <c r="CW88" s="1"/>
+      <c r="CX88" s="1"/>
+      <c r="CY88" s="37"/>
+      <c r="CZ88" s="36"/>
+      <c r="DA88" s="26"/>
+      <c r="DB88" s="1"/>
+      <c r="DC88" s="1"/>
+      <c r="DD88" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:108">
+      <c r="A89" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E89" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F89" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G89" s="51" t="s">
+        <v>621</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="1"/>
+      <c r="BR89" s="1"/>
+      <c r="BS89" s="1"/>
+      <c r="BT89" s="1"/>
+      <c r="BU89" s="1"/>
+      <c r="BV89" s="1"/>
+      <c r="BW89" s="1"/>
+      <c r="BX89" s="1"/>
+      <c r="BY89" s="1"/>
+      <c r="BZ89" s="1"/>
+      <c r="CA89" s="1"/>
+      <c r="CB89" s="1"/>
+      <c r="CC89" s="1"/>
+      <c r="CD89" s="1"/>
+      <c r="CE89" s="1"/>
+      <c r="CF89" s="1"/>
+      <c r="CG89" s="1"/>
+      <c r="CH89" s="1"/>
+      <c r="CI89" s="1"/>
+      <c r="CJ89" s="1"/>
+      <c r="CK89" s="1"/>
+      <c r="CL89" s="1"/>
+      <c r="CM89" s="1"/>
+      <c r="CN89" s="1"/>
+      <c r="CO89" s="1"/>
+      <c r="CP89" s="1"/>
+      <c r="CQ89" s="1"/>
+      <c r="CR89" s="1"/>
+      <c r="CS89" s="1"/>
+      <c r="CT89" s="1"/>
+      <c r="CU89" s="1"/>
+      <c r="CV89" s="1"/>
+      <c r="CW89" s="1"/>
+      <c r="CX89" s="1"/>
+      <c r="CY89" s="37"/>
+      <c r="CZ89" s="36"/>
+      <c r="DA89" s="26"/>
+      <c r="DB89" s="1"/>
+      <c r="DC89" s="1"/>
+      <c r="DD89" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:108">
+      <c r="A90" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E90" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G90" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="1"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="1"/>
+      <c r="CS90" s="1"/>
+      <c r="CT90" s="1"/>
+      <c r="CU90" s="1"/>
+      <c r="CV90" s="1"/>
+      <c r="CW90" s="1"/>
+      <c r="CX90" s="1"/>
+      <c r="CY90" s="37"/>
+      <c r="CZ90" s="36"/>
+      <c r="DA90" s="26"/>
+      <c r="DB90" s="1"/>
+      <c r="DC90" s="1"/>
+      <c r="DD90" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:108">
+      <c r="A91" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E91" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G91" s="51" t="s">
+        <v>623</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="1"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="1"/>
+      <c r="CA91" s="1"/>
+      <c r="CB91" s="1"/>
+      <c r="CC91" s="1"/>
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="1"/>
+      <c r="CF91" s="1"/>
+      <c r="CG91" s="1"/>
+      <c r="CH91" s="1"/>
+      <c r="CI91" s="1"/>
+      <c r="CJ91" s="1"/>
+      <c r="CK91" s="1"/>
+      <c r="CL91" s="1"/>
+      <c r="CM91" s="1"/>
+      <c r="CN91" s="1"/>
+      <c r="CO91" s="1"/>
+      <c r="CP91" s="1"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="1"/>
+      <c r="CS91" s="1"/>
+      <c r="CT91" s="1"/>
+      <c r="CU91" s="1"/>
+      <c r="CV91" s="1"/>
+      <c r="CW91" s="1"/>
+      <c r="CX91" s="1"/>
+      <c r="CY91" s="37"/>
+      <c r="CZ91" s="36"/>
+      <c r="DA91" s="26"/>
+      <c r="DB91" s="1"/>
+      <c r="DC91" s="1"/>
+      <c r="DD91" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:108" ht="16.5" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E92" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F92" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G92" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="1"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="1"/>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="1"/>
+      <c r="BT92" s="1"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BY92" s="1"/>
+      <c r="BZ92" s="1"/>
+      <c r="CA92" s="1"/>
+      <c r="CB92" s="1"/>
+      <c r="CC92" s="1"/>
+      <c r="CD92" s="1"/>
+      <c r="CE92" s="1"/>
+      <c r="CF92" s="1"/>
+      <c r="CG92" s="1"/>
+      <c r="CH92" s="1"/>
+      <c r="CI92" s="1"/>
+      <c r="CJ92" s="1"/>
+      <c r="CK92" s="1"/>
+      <c r="CL92" s="1"/>
+      <c r="CM92" s="1"/>
+      <c r="CN92" s="1"/>
+      <c r="CO92" s="1"/>
+      <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="1"/>
+      <c r="CS92" s="1"/>
+      <c r="CT92" s="1"/>
+      <c r="CU92" s="1"/>
+      <c r="CV92" s="1"/>
+      <c r="CW92" s="1"/>
+      <c r="CX92" s="1"/>
+      <c r="CY92" s="37"/>
+      <c r="CZ92" s="36"/>
+      <c r="DA92" s="26"/>
+      <c r="DB92" s="1"/>
+      <c r="DC92" s="1"/>
+      <c r="DD92" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:108" ht="14.25" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F93" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G93" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="1"/>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" s="1"/>
+      <c r="CH93" s="1"/>
+      <c r="CI93" s="1"/>
+      <c r="CJ93" s="1"/>
+      <c r="CK93" s="1"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="1"/>
+      <c r="CS93" s="1"/>
+      <c r="CT93" s="1"/>
+      <c r="CU93" s="1"/>
+      <c r="CV93" s="1"/>
+      <c r="CW93" s="1"/>
+      <c r="CX93" s="1"/>
+      <c r="CY93" s="37"/>
+      <c r="CZ93" s="36"/>
+      <c r="DA93" s="26"/>
+      <c r="DB93" s="1"/>
+      <c r="DC93" s="1"/>
+      <c r="DD93" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:108">
+      <c r="A94" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G94" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="29" t="s">
+        <v>649</v>
+      </c>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="1"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="1"/>
+      <c r="CA94" s="1"/>
+      <c r="CB94" s="1"/>
+      <c r="CC94" s="1"/>
+      <c r="CD94" s="1"/>
+      <c r="CE94" s="1"/>
+      <c r="CF94" s="1"/>
+      <c r="CG94" s="1"/>
+      <c r="CH94" s="1"/>
+      <c r="CI94" s="1"/>
+      <c r="CJ94" s="1"/>
+      <c r="CK94" s="1"/>
+      <c r="CL94" s="1"/>
+      <c r="CM94" s="1"/>
+      <c r="CN94" s="1"/>
+      <c r="CO94" s="1"/>
+      <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="1"/>
+      <c r="CS94" s="1"/>
+      <c r="CT94" s="1"/>
+      <c r="CU94" s="1"/>
+      <c r="CV94" s="1"/>
+      <c r="CW94" s="1"/>
+      <c r="CX94" s="1"/>
+      <c r="CY94" s="37"/>
+      <c r="CZ94" s="36"/>
+      <c r="DA94" s="26"/>
+      <c r="DB94" s="1"/>
+      <c r="DC94" s="1"/>
+      <c r="DD94" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:108" ht="15.75" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F95" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G95" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="53" t="s">
+        <v>653</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="1"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="1"/>
+      <c r="BR95" s="1"/>
+      <c r="BS95" s="1"/>
+      <c r="BT95" s="1"/>
+      <c r="BU95" s="1"/>
+      <c r="BV95" s="1"/>
+      <c r="BW95" s="1"/>
+      <c r="BX95" s="1"/>
+      <c r="BY95" s="1"/>
+      <c r="BZ95" s="1"/>
+      <c r="CA95" s="1"/>
+      <c r="CB95" s="1"/>
+      <c r="CC95" s="1"/>
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="1"/>
+      <c r="CF95" s="1"/>
+      <c r="CG95" s="1"/>
+      <c r="CH95" s="1"/>
+      <c r="CI95" s="1"/>
+      <c r="CJ95" s="1"/>
+      <c r="CK95" s="1"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
+      <c r="CT95" s="1"/>
+      <c r="CU95" s="1"/>
+      <c r="CV95" s="1"/>
+      <c r="CW95" s="1"/>
+      <c r="CX95" s="1"/>
+      <c r="CY95" s="37"/>
+      <c r="CZ95" s="36"/>
+      <c r="DA95" s="26"/>
+      <c r="DB95" s="1"/>
+      <c r="DC95" s="1"/>
+      <c r="DD95" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:108" ht="15" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>556</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>527</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="F96" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="G96" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="53" t="s">
+        <v>653</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+      <c r="BO96" s="1"/>
+      <c r="BP96" s="1"/>
+      <c r="BQ96" s="1"/>
+      <c r="BR96" s="1"/>
+      <c r="BS96" s="1"/>
+      <c r="BT96" s="1"/>
+      <c r="BU96" s="1"/>
+      <c r="BV96" s="1"/>
+      <c r="BW96" s="1"/>
+      <c r="BX96" s="1"/>
+      <c r="BY96" s="1"/>
+      <c r="BZ96" s="1"/>
+      <c r="CA96" s="1"/>
+      <c r="CB96" s="1"/>
+      <c r="CC96" s="1"/>
+      <c r="CD96" s="1"/>
+      <c r="CE96" s="1"/>
+      <c r="CF96" s="1"/>
+      <c r="CG96" s="1"/>
+      <c r="CH96" s="1"/>
+      <c r="CI96" s="1"/>
+      <c r="CJ96" s="1"/>
+      <c r="CK96" s="1"/>
+      <c r="CL96" s="1"/>
+      <c r="CM96" s="1"/>
+      <c r="CN96" s="1"/>
+      <c r="CO96" s="1"/>
+      <c r="CP96" s="1"/>
+      <c r="CQ96" s="1"/>
+      <c r="CR96" s="1"/>
+      <c r="CS96" s="1"/>
+      <c r="CT96" s="1"/>
+      <c r="CU96" s="1"/>
+      <c r="CV96" s="1"/>
+      <c r="CW96" s="1"/>
+      <c r="CX96" s="1"/>
+      <c r="CY96" s="37"/>
+      <c r="CZ96" s="36"/>
+      <c r="DA96" s="26"/>
+      <c r="DB96" s="1"/>
+      <c r="DC96" s="1"/>
+      <c r="DD96" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:108">
+      <c r="A97" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="F97" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="29"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="1"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1"/>
+      <c r="BN97" s="1"/>
+      <c r="BO97" s="1"/>
+      <c r="BP97" s="1"/>
+      <c r="BQ97" s="1"/>
+      <c r="BR97" s="1"/>
+      <c r="BS97" s="1"/>
+      <c r="BT97" s="1"/>
+      <c r="BU97" s="1"/>
+      <c r="BV97" s="1"/>
+      <c r="BW97" s="1"/>
+      <c r="BX97" s="1"/>
+      <c r="BY97" s="1"/>
+      <c r="BZ97" s="1"/>
+      <c r="CA97" s="1"/>
+      <c r="CB97" s="1"/>
+      <c r="CC97" s="1"/>
+      <c r="CD97" s="1"/>
+      <c r="CE97" s="1"/>
+      <c r="CF97" s="1"/>
+      <c r="CG97" s="1"/>
+      <c r="CH97" s="1"/>
+      <c r="CI97" s="1"/>
+      <c r="CJ97" s="1"/>
+      <c r="CK97" s="1"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
+      <c r="CN97" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP97" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="1"/>
+      <c r="CS97" s="1"/>
+      <c r="CT97" s="1"/>
+      <c r="CU97" s="1"/>
+      <c r="CV97" s="1"/>
+      <c r="CW97" s="1"/>
+      <c r="CX97" s="1"/>
+      <c r="CY97" s="37"/>
+      <c r="CZ97" s="36"/>
+      <c r="DA97" s="26"/>
+      <c r="DB97" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="DC97" s="1"/>
+      <c r="DD97" s="1"/>
+    </row>
+    <row r="98" spans="1:108">
+      <c r="A98" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="F98" s="43" t="s">
+        <v>567</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="29"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="1"/>
+      <c r="BM98" s="1"/>
+      <c r="BN98" s="1"/>
+      <c r="BO98" s="1"/>
+      <c r="BP98" s="1"/>
+      <c r="BQ98" s="1"/>
+      <c r="BR98" s="1"/>
+      <c r="BS98" s="1"/>
+      <c r="BT98" s="1"/>
+      <c r="BU98" s="1"/>
+      <c r="BV98" s="1"/>
+      <c r="BW98" s="1"/>
+      <c r="BX98" s="1"/>
+      <c r="BY98" s="1"/>
+      <c r="BZ98" s="1"/>
+      <c r="CA98" s="1"/>
+      <c r="CB98" s="1"/>
+      <c r="CC98" s="1"/>
+      <c r="CD98" s="1"/>
+      <c r="CE98" s="1"/>
+      <c r="CF98" s="1"/>
+      <c r="CG98" s="1"/>
+      <c r="CH98" s="1"/>
+      <c r="CI98" s="1"/>
+      <c r="CJ98" s="1"/>
+      <c r="CK98" s="1"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
+      <c r="CN98" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP98" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="1"/>
+      <c r="CS98" s="1"/>
+      <c r="CT98" s="1"/>
+      <c r="CU98" s="1"/>
+      <c r="CV98" s="1"/>
+      <c r="CW98" s="1"/>
+      <c r="CX98" s="1"/>
+      <c r="CY98" s="37"/>
+      <c r="CZ98" s="36"/>
+      <c r="DA98" s="26"/>
+      <c r="DB98" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="DC98" s="1"/>
+      <c r="DD98" s="1"/>
+    </row>
+    <row r="99" spans="1:108">
+      <c r="A99" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="F99" s="43" t="s">
+        <v>568</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="29"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="1"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1"/>
+      <c r="BN99" s="1"/>
+      <c r="BO99" s="1"/>
+      <c r="BP99" s="1"/>
+      <c r="BQ99" s="1"/>
+      <c r="BR99" s="1"/>
+      <c r="BS99" s="1"/>
+      <c r="BT99" s="1"/>
+      <c r="BU99" s="1"/>
+      <c r="BV99" s="1"/>
+      <c r="BW99" s="1"/>
+      <c r="BX99" s="1"/>
+      <c r="BY99" s="1"/>
+      <c r="BZ99" s="1"/>
+      <c r="CA99" s="1"/>
+      <c r="CB99" s="1"/>
+      <c r="CC99" s="1"/>
+      <c r="CD99" s="1"/>
+      <c r="CE99" s="1"/>
+      <c r="CF99" s="1"/>
+      <c r="CG99" s="1"/>
+      <c r="CH99" s="1"/>
+      <c r="CI99" s="1"/>
+      <c r="CJ99" s="1"/>
+      <c r="CK99" s="1"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
+      <c r="CN99" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP99" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="1"/>
+      <c r="CS99" s="1"/>
+      <c r="CT99" s="1"/>
+      <c r="CU99" s="1"/>
+      <c r="CV99" s="1"/>
+      <c r="CW99" s="1"/>
+      <c r="CX99" s="1"/>
+      <c r="CY99" s="37"/>
+      <c r="CZ99" s="36"/>
+      <c r="DA99" s="26"/>
+      <c r="DB99" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="DC99" s="1"/>
+      <c r="DD99" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="W14" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="W67" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="CZ67" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="DA67" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
+    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com"/>
+    <hyperlink ref="W14" r:id="rId4"/>
+    <hyperlink ref="W67" r:id="rId5"/>
+    <hyperlink ref="CZ67" r:id="rId6"/>
+    <hyperlink ref="DA67" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9752A13-E156-446C-A721-89C143AD58D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED52ADEF-8B90-44C1-A8EA-58412CA508CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="581">
   <si>
     <t>Environment</t>
   </si>
@@ -1901,8 +1901,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1947,25 +1946,21 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2007,36 +2002,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2115,7 +2080,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2137,10 +2102,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -2167,15 +2130,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2471,8 +2435,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2515,9 +2479,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2556,15 +2520,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2624,72 +2588,72 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>221</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2697,10 +2661,10 @@
       <c r="A10" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>550</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2711,10 +2675,10 @@
       <c r="A11" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>571</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="46" t="s">
         <v>572</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2730,6 +2694,7 @@
     <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
     <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
     <hyperlink ref="C11" r:id="rId6" xr:uid="{B9DE157B-9AF0-4007-B82E-B098F4F3DC03}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{11778AE1-15B3-404A-98DB-0F8F9FD074C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2740,30 +2705,30 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:107">
@@ -3093,8 +3058,8 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>11</v>
+      <c r="B2" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>258</v>
@@ -3212,7 +3177,7 @@
       <c r="CX2" s="1"/>
       <c r="CY2" s="1"/>
       <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
+      <c r="DA2" s="47"/>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
     </row>
@@ -3220,8 +3185,8 @@
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>11</v>
+      <c r="B3" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>258</v>
@@ -3417,7 +3382,7 @@
       <c r="CX3" s="1"/>
       <c r="CY3" s="1"/>
       <c r="CZ3" s="1"/>
-      <c r="DA3" s="1"/>
+      <c r="DA3" s="47"/>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
     </row>
@@ -3425,8 +3390,8 @@
       <c r="A4" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>11</v>
+      <c r="B4" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>258</v>
@@ -3556,7 +3521,7 @@
       <c r="CX4" s="1"/>
       <c r="CY4" s="1"/>
       <c r="CZ4" s="1"/>
-      <c r="DA4" s="1"/>
+      <c r="DA4" s="47"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1"/>
     </row>
@@ -3564,8 +3529,8 @@
       <c r="A5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>11</v>
+      <c r="B5" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>258</v>
@@ -3697,7 +3662,7 @@
       <c r="CX5" s="1"/>
       <c r="CY5" s="1"/>
       <c r="CZ5" s="1"/>
-      <c r="DA5" s="1"/>
+      <c r="DA5" s="47"/>
       <c r="DB5" s="1"/>
       <c r="DC5" s="1"/>
     </row>
@@ -3705,8 +3670,8 @@
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>11</v>
+      <c r="B6" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>258</v>
@@ -3828,7 +3793,7 @@
       <c r="CX6" s="1"/>
       <c r="CY6" s="1"/>
       <c r="CZ6" s="1"/>
-      <c r="DA6" s="1"/>
+      <c r="DA6" s="47"/>
       <c r="DB6" s="1"/>
       <c r="DC6" s="1"/>
     </row>
@@ -3836,8 +3801,8 @@
       <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>11</v>
+      <c r="B7" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>258</v>
@@ -3959,7 +3924,7 @@
       <c r="CX7" s="1"/>
       <c r="CY7" s="1"/>
       <c r="CZ7" s="1"/>
-      <c r="DA7" s="1"/>
+      <c r="DA7" s="47"/>
       <c r="DB7" s="1"/>
       <c r="DC7" s="1"/>
     </row>
@@ -3967,8 +3932,8 @@
       <c r="A8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>11</v>
+      <c r="B8" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>258</v>
@@ -4092,7 +4057,7 @@
       <c r="CX8" s="1"/>
       <c r="CY8" s="1"/>
       <c r="CZ8" s="1"/>
-      <c r="DA8" s="1"/>
+      <c r="DA8" s="47"/>
       <c r="DB8" s="1"/>
       <c r="DC8" s="1"/>
     </row>
@@ -4100,8 +4065,8 @@
       <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>11</v>
+      <c r="B9" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>258</v>
@@ -4229,7 +4194,7 @@
       <c r="CX9" s="1"/>
       <c r="CY9" s="1"/>
       <c r="CZ9" s="1"/>
-      <c r="DA9" s="1"/>
+      <c r="DA9" s="47"/>
       <c r="DB9" s="1"/>
       <c r="DC9" s="1"/>
     </row>
@@ -4237,8 +4202,8 @@
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>11</v>
+      <c r="B10" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>258</v>
@@ -4280,8 +4245,8 @@
       <c r="T10" s="20"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
-      <c r="W10" s="27" t="s">
-        <v>331</v>
+      <c r="W10" s="25" t="s">
+        <v>533</v>
       </c>
       <c r="X10" s="22"/>
       <c r="Y10" s="22"/>
@@ -4300,84 +4265,88 @@
       <c r="AL10" s="22"/>
       <c r="AM10" s="22"/>
       <c r="AN10" s="20"/>
-      <c r="AO10" s="23"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="23"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23"/>
-      <c r="AV10" s="23"/>
-      <c r="AW10" s="23"/>
-      <c r="AX10" s="23"/>
-      <c r="AY10" s="23"/>
-      <c r="AZ10" s="23"/>
-      <c r="BA10" s="23"/>
-      <c r="BB10" s="23"/>
-      <c r="BC10" s="23"/>
-      <c r="BD10" s="23"/>
-      <c r="BE10" s="24"/>
-      <c r="BF10" s="23"/>
-      <c r="BG10" s="23"/>
-      <c r="BH10" s="23"/>
-      <c r="BI10" s="23"/>
-      <c r="BJ10" s="23"/>
-      <c r="BK10" s="23"/>
-      <c r="BL10" s="23"/>
-      <c r="BM10" s="23"/>
-      <c r="BN10" s="23"/>
-      <c r="BO10" s="23"/>
-      <c r="BP10" s="23"/>
-      <c r="BQ10" s="23"/>
-      <c r="BR10" s="23"/>
-      <c r="BS10" s="23"/>
-      <c r="BT10" s="23"/>
-      <c r="BU10" s="23"/>
-      <c r="BV10" s="23"/>
-      <c r="BW10" s="23"/>
-      <c r="BX10" s="23"/>
-      <c r="BY10" s="23"/>
-      <c r="BZ10" s="23"/>
-      <c r="CA10" s="23"/>
-      <c r="CB10" s="23"/>
-      <c r="CC10" s="23"/>
-      <c r="CD10" s="23"/>
-      <c r="CE10" s="23"/>
-      <c r="CF10" s="23"/>
-      <c r="CG10" s="23"/>
-      <c r="CH10" s="23"/>
-      <c r="CI10" s="23"/>
-      <c r="CJ10" s="23"/>
-      <c r="CK10" s="23"/>
-      <c r="CL10" s="23"/>
-      <c r="CM10" s="23"/>
-      <c r="CN10" s="24" t="s">
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="20"/>
+      <c r="AT10" s="20"/>
+      <c r="AU10" s="20"/>
+      <c r="AV10" s="20"/>
+      <c r="AW10" s="20"/>
+      <c r="AX10" s="20"/>
+      <c r="AY10" s="20"/>
+      <c r="AZ10" s="20"/>
+      <c r="BA10" s="20"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="20"/>
+      <c r="BG10" s="20"/>
+      <c r="BH10" s="20"/>
+      <c r="BI10" s="20"/>
+      <c r="BJ10" s="20"/>
+      <c r="BK10" s="20"/>
+      <c r="BL10" s="20"/>
+      <c r="BM10" s="20"/>
+      <c r="BN10" s="20"/>
+      <c r="BO10" s="20"/>
+      <c r="BP10" s="20"/>
+      <c r="BQ10" s="20"/>
+      <c r="BR10" s="20"/>
+      <c r="BS10" s="20"/>
+      <c r="BT10" s="20"/>
+      <c r="BU10" s="20"/>
+      <c r="BV10" s="20"/>
+      <c r="BW10" s="20"/>
+      <c r="BX10" s="20"/>
+      <c r="BY10" s="20"/>
+      <c r="BZ10" s="20"/>
+      <c r="CA10" s="20"/>
+      <c r="CB10" s="20"/>
+      <c r="CC10" s="20"/>
+      <c r="CD10" s="20"/>
+      <c r="CE10" s="20"/>
+      <c r="CF10" s="20"/>
+      <c r="CG10" s="20"/>
+      <c r="CH10" s="20"/>
+      <c r="CI10" s="20"/>
+      <c r="CJ10" s="20"/>
+      <c r="CK10" s="20"/>
+      <c r="CL10" s="20"/>
+      <c r="CM10" s="20"/>
+      <c r="CN10" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="CO10" s="24"/>
-      <c r="CP10" s="24"/>
-      <c r="CQ10" s="24"/>
-      <c r="CR10" s="24"/>
-      <c r="CS10" s="24"/>
-      <c r="CT10" s="24"/>
-      <c r="CU10" s="24"/>
-      <c r="CV10" s="24"/>
-      <c r="CW10" s="24" t="s">
+      <c r="CO10" s="22"/>
+      <c r="CP10" s="22"/>
+      <c r="CQ10" s="22"/>
+      <c r="CR10" s="22"/>
+      <c r="CS10" s="22"/>
+      <c r="CT10" s="22"/>
+      <c r="CU10" s="22"/>
+      <c r="CV10" s="22"/>
+      <c r="CW10" s="22" t="s">
         <v>190</v>
       </c>
       <c r="CX10" s="1"/>
-      <c r="CY10" s="1"/>
+      <c r="CY10" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="CZ10" s="1"/>
-      <c r="DA10" s="1"/>
-      <c r="DB10" s="1"/>
+      <c r="DA10" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="DB10" s="2"/>
       <c r="DC10" s="1"/>
     </row>
     <row r="11" spans="1:107">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>11</v>
+      <c r="B11" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>258</v>
@@ -4415,8 +4384,8 @@
       <c r="T11" s="20"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
-      <c r="W11" s="27" t="s">
-        <v>331</v>
+      <c r="W11" s="25" t="s">
+        <v>533</v>
       </c>
       <c r="X11" s="22"/>
       <c r="Y11" s="22"/>
@@ -4435,75 +4404,79 @@
       <c r="AL11" s="22"/>
       <c r="AM11" s="22"/>
       <c r="AN11" s="20"/>
-      <c r="AO11" s="23"/>
-      <c r="AP11" s="23"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="23"/>
-      <c r="AW11" s="23"/>
-      <c r="AX11" s="23"/>
-      <c r="AY11" s="23"/>
-      <c r="AZ11" s="23"/>
-      <c r="BA11" s="23"/>
-      <c r="BB11" s="23"/>
-      <c r="BC11" s="23"/>
-      <c r="BD11" s="23"/>
-      <c r="BE11" s="24"/>
-      <c r="BF11" s="23"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="23"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="23"/>
-      <c r="BK11" s="23"/>
-      <c r="BL11" s="23"/>
-      <c r="BM11" s="23"/>
-      <c r="BN11" s="23"/>
-      <c r="BO11" s="23"/>
-      <c r="BP11" s="23"/>
-      <c r="BQ11" s="23"/>
-      <c r="BR11" s="23"/>
-      <c r="BS11" s="23"/>
-      <c r="BT11" s="23"/>
-      <c r="BU11" s="23"/>
-      <c r="BV11" s="23"/>
-      <c r="BW11" s="23"/>
-      <c r="BX11" s="23"/>
-      <c r="BY11" s="23"/>
-      <c r="BZ11" s="23"/>
-      <c r="CA11" s="23"/>
-      <c r="CB11" s="23"/>
-      <c r="CC11" s="23"/>
-      <c r="CD11" s="23"/>
-      <c r="CE11" s="23"/>
-      <c r="CF11" s="23"/>
-      <c r="CG11" s="23"/>
-      <c r="CH11" s="23"/>
-      <c r="CI11" s="23"/>
-      <c r="CJ11" s="23"/>
-      <c r="CK11" s="23"/>
-      <c r="CL11" s="23"/>
-      <c r="CM11" s="23"/>
-      <c r="CN11" s="24" t="s">
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+      <c r="AT11" s="20"/>
+      <c r="AU11" s="20"/>
+      <c r="AV11" s="20"/>
+      <c r="AW11" s="20"/>
+      <c r="AX11" s="20"/>
+      <c r="AY11" s="20"/>
+      <c r="AZ11" s="20"/>
+      <c r="BA11" s="20"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="22"/>
+      <c r="BF11" s="20"/>
+      <c r="BG11" s="20"/>
+      <c r="BH11" s="20"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="20"/>
+      <c r="BK11" s="20"/>
+      <c r="BL11" s="20"/>
+      <c r="BM11" s="20"/>
+      <c r="BN11" s="20"/>
+      <c r="BO11" s="20"/>
+      <c r="BP11" s="20"/>
+      <c r="BQ11" s="20"/>
+      <c r="BR11" s="20"/>
+      <c r="BS11" s="20"/>
+      <c r="BT11" s="20"/>
+      <c r="BU11" s="20"/>
+      <c r="BV11" s="20"/>
+      <c r="BW11" s="20"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="20"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="20"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="20"/>
+      <c r="CD11" s="20"/>
+      <c r="CE11" s="20"/>
+      <c r="CF11" s="20"/>
+      <c r="CG11" s="20"/>
+      <c r="CH11" s="20"/>
+      <c r="CI11" s="20"/>
+      <c r="CJ11" s="20"/>
+      <c r="CK11" s="20"/>
+      <c r="CL11" s="20"/>
+      <c r="CM11" s="20"/>
+      <c r="CN11" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="CO11" s="24"/>
-      <c r="CP11" s="24"/>
-      <c r="CQ11" s="24"/>
-      <c r="CR11" s="24"/>
-      <c r="CS11" s="24"/>
-      <c r="CT11" s="24"/>
-      <c r="CU11" s="24"/>
-      <c r="CV11" s="24"/>
-      <c r="CW11" s="24" t="s">
+      <c r="CO11" s="22"/>
+      <c r="CP11" s="22"/>
+      <c r="CQ11" s="22"/>
+      <c r="CR11" s="22"/>
+      <c r="CS11" s="22"/>
+      <c r="CT11" s="22"/>
+      <c r="CU11" s="22"/>
+      <c r="CV11" s="22"/>
+      <c r="CW11" s="22" t="s">
         <v>190</v>
       </c>
       <c r="CX11" s="1"/>
-      <c r="CY11" s="1"/>
+      <c r="CY11" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="CZ11" s="1"/>
-      <c r="DA11" s="1"/>
+      <c r="DA11" s="48" t="s">
+        <v>535</v>
+      </c>
       <c r="DB11" s="1"/>
       <c r="DC11" s="1"/>
     </row>
@@ -4511,8 +4484,8 @@
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>11</v>
+      <c r="B12" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>258</v>
@@ -4548,8 +4521,8 @@
       <c r="T12" s="20"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
-      <c r="W12" s="27" t="s">
-        <v>331</v>
+      <c r="W12" s="25" t="s">
+        <v>533</v>
       </c>
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
@@ -4568,75 +4541,79 @@
       <c r="AL12" s="22"/>
       <c r="AM12" s="22"/>
       <c r="AN12" s="20"/>
-      <c r="AO12" s="23"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23"/>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23"/>
-      <c r="AZ12" s="23"/>
-      <c r="BA12" s="23"/>
-      <c r="BB12" s="23"/>
-      <c r="BC12" s="23"/>
-      <c r="BD12" s="23"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="23"/>
-      <c r="BG12" s="23"/>
-      <c r="BH12" s="23"/>
-      <c r="BI12" s="23"/>
-      <c r="BJ12" s="23"/>
-      <c r="BK12" s="23"/>
-      <c r="BL12" s="23"/>
-      <c r="BM12" s="23"/>
-      <c r="BN12" s="23"/>
-      <c r="BO12" s="23"/>
-      <c r="BP12" s="23"/>
-      <c r="BQ12" s="23"/>
-      <c r="BR12" s="23"/>
-      <c r="BS12" s="23"/>
-      <c r="BT12" s="23"/>
-      <c r="BU12" s="23"/>
-      <c r="BV12" s="23"/>
-      <c r="BW12" s="23"/>
-      <c r="BX12" s="23"/>
-      <c r="BY12" s="23"/>
-      <c r="BZ12" s="23"/>
-      <c r="CA12" s="23"/>
-      <c r="CB12" s="23"/>
-      <c r="CC12" s="23"/>
-      <c r="CD12" s="23"/>
-      <c r="CE12" s="23"/>
-      <c r="CF12" s="23"/>
-      <c r="CG12" s="23"/>
-      <c r="CH12" s="23"/>
-      <c r="CI12" s="23"/>
-      <c r="CJ12" s="23"/>
-      <c r="CK12" s="23"/>
-      <c r="CL12" s="23"/>
-      <c r="CM12" s="23"/>
-      <c r="CN12" s="24" t="s">
+      <c r="AO12" s="20"/>
+      <c r="AP12" s="20"/>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20"/>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20"/>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="20"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="20"/>
+      <c r="BG12" s="20"/>
+      <c r="BH12" s="20"/>
+      <c r="BI12" s="20"/>
+      <c r="BJ12" s="20"/>
+      <c r="BK12" s="20"/>
+      <c r="BL12" s="20"/>
+      <c r="BM12" s="20"/>
+      <c r="BN12" s="20"/>
+      <c r="BO12" s="20"/>
+      <c r="BP12" s="20"/>
+      <c r="BQ12" s="20"/>
+      <c r="BR12" s="20"/>
+      <c r="BS12" s="20"/>
+      <c r="BT12" s="20"/>
+      <c r="BU12" s="20"/>
+      <c r="BV12" s="20"/>
+      <c r="BW12" s="20"/>
+      <c r="BX12" s="20"/>
+      <c r="BY12" s="20"/>
+      <c r="BZ12" s="20"/>
+      <c r="CA12" s="20"/>
+      <c r="CB12" s="20"/>
+      <c r="CC12" s="20"/>
+      <c r="CD12" s="20"/>
+      <c r="CE12" s="20"/>
+      <c r="CF12" s="20"/>
+      <c r="CG12" s="20"/>
+      <c r="CH12" s="20"/>
+      <c r="CI12" s="20"/>
+      <c r="CJ12" s="20"/>
+      <c r="CK12" s="20"/>
+      <c r="CL12" s="20"/>
+      <c r="CM12" s="20"/>
+      <c r="CN12" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="CO12" s="24"/>
-      <c r="CP12" s="24"/>
-      <c r="CQ12" s="24"/>
-      <c r="CR12" s="24"/>
-      <c r="CS12" s="24"/>
-      <c r="CT12" s="24"/>
-      <c r="CU12" s="24"/>
-      <c r="CV12" s="24"/>
-      <c r="CW12" s="24" t="s">
+      <c r="CO12" s="22"/>
+      <c r="CP12" s="22"/>
+      <c r="CQ12" s="22"/>
+      <c r="CR12" s="22"/>
+      <c r="CS12" s="22"/>
+      <c r="CT12" s="22"/>
+      <c r="CU12" s="22"/>
+      <c r="CV12" s="22"/>
+      <c r="CW12" s="22" t="s">
         <v>190</v>
       </c>
       <c r="CX12" s="1"/>
-      <c r="CY12" s="1"/>
+      <c r="CY12" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="CZ12" s="1"/>
-      <c r="DA12" s="1"/>
+      <c r="DA12" s="48" t="s">
+        <v>535</v>
+      </c>
       <c r="DB12" s="1"/>
       <c r="DC12" s="1"/>
     </row>
@@ -4644,8 +4621,8 @@
       <c r="A13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>11</v>
+      <c r="B13" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>258</v>
@@ -4681,8 +4658,8 @@
       <c r="T13" s="20"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
-      <c r="W13" s="27" t="s">
-        <v>331</v>
+      <c r="W13" s="25" t="s">
+        <v>533</v>
       </c>
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
@@ -4701,75 +4678,79 @@
       <c r="AL13" s="22"/>
       <c r="AM13" s="22"/>
       <c r="AN13" s="20"/>
-      <c r="AO13" s="23"/>
-      <c r="AP13" s="23"/>
-      <c r="AQ13" s="23"/>
-      <c r="AR13" s="23"/>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AV13" s="23"/>
-      <c r="AW13" s="23"/>
-      <c r="AX13" s="23"/>
-      <c r="AY13" s="23"/>
-      <c r="AZ13" s="23"/>
-      <c r="BA13" s="23"/>
-      <c r="BB13" s="23"/>
-      <c r="BC13" s="23"/>
-      <c r="BD13" s="23"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="23"/>
-      <c r="BG13" s="23"/>
-      <c r="BH13" s="23"/>
-      <c r="BI13" s="23"/>
-      <c r="BJ13" s="23"/>
-      <c r="BK13" s="23"/>
-      <c r="BL13" s="23"/>
-      <c r="BM13" s="23"/>
-      <c r="BN13" s="23"/>
-      <c r="BO13" s="23"/>
-      <c r="BP13" s="23"/>
-      <c r="BQ13" s="23"/>
-      <c r="BR13" s="23"/>
-      <c r="BS13" s="23"/>
-      <c r="BT13" s="23"/>
-      <c r="BU13" s="23"/>
-      <c r="BV13" s="23"/>
-      <c r="BW13" s="23"/>
-      <c r="BX13" s="23"/>
-      <c r="BY13" s="23"/>
-      <c r="BZ13" s="23"/>
-      <c r="CA13" s="23"/>
-      <c r="CB13" s="23"/>
-      <c r="CC13" s="23"/>
-      <c r="CD13" s="23"/>
-      <c r="CE13" s="23"/>
-      <c r="CF13" s="23"/>
-      <c r="CG13" s="23"/>
-      <c r="CH13" s="23"/>
-      <c r="CI13" s="23"/>
-      <c r="CJ13" s="23"/>
-      <c r="CK13" s="23"/>
-      <c r="CL13" s="23"/>
-      <c r="CM13" s="23"/>
-      <c r="CN13" s="24" t="s">
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="20"/>
+      <c r="BH13" s="20"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="20"/>
+      <c r="BK13" s="20"/>
+      <c r="BL13" s="20"/>
+      <c r="BM13" s="20"/>
+      <c r="BN13" s="20"/>
+      <c r="BO13" s="20"/>
+      <c r="BP13" s="20"/>
+      <c r="BQ13" s="20"/>
+      <c r="BR13" s="20"/>
+      <c r="BS13" s="20"/>
+      <c r="BT13" s="20"/>
+      <c r="BU13" s="20"/>
+      <c r="BV13" s="20"/>
+      <c r="BW13" s="20"/>
+      <c r="BX13" s="20"/>
+      <c r="BY13" s="20"/>
+      <c r="BZ13" s="20"/>
+      <c r="CA13" s="20"/>
+      <c r="CB13" s="20"/>
+      <c r="CC13" s="20"/>
+      <c r="CD13" s="20"/>
+      <c r="CE13" s="20"/>
+      <c r="CF13" s="20"/>
+      <c r="CG13" s="20"/>
+      <c r="CH13" s="20"/>
+      <c r="CI13" s="20"/>
+      <c r="CJ13" s="20"/>
+      <c r="CK13" s="20"/>
+      <c r="CL13" s="20"/>
+      <c r="CM13" s="20"/>
+      <c r="CN13" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="CO13" s="24"/>
-      <c r="CP13" s="24"/>
-      <c r="CQ13" s="24"/>
-      <c r="CR13" s="24"/>
-      <c r="CS13" s="24"/>
-      <c r="CT13" s="24"/>
-      <c r="CU13" s="24"/>
-      <c r="CV13" s="24"/>
-      <c r="CW13" s="24" t="s">
+      <c r="CO13" s="22"/>
+      <c r="CP13" s="22"/>
+      <c r="CQ13" s="22"/>
+      <c r="CR13" s="22"/>
+      <c r="CS13" s="22"/>
+      <c r="CT13" s="22"/>
+      <c r="CU13" s="22"/>
+      <c r="CV13" s="22"/>
+      <c r="CW13" s="22" t="s">
         <v>190</v>
       </c>
       <c r="CX13" s="1"/>
-      <c r="CY13" s="1"/>
+      <c r="CY13" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="CZ13" s="1"/>
-      <c r="DA13" s="1"/>
+      <c r="DA13" s="48" t="s">
+        <v>535</v>
+      </c>
       <c r="DB13" s="1"/>
       <c r="DC13" s="1"/>
     </row>
@@ -4777,8 +4758,8 @@
       <c r="A14" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>11</v>
+      <c r="B14" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>258</v>
@@ -4814,7 +4795,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
-      <c r="W14" s="27" t="s">
+      <c r="W14" s="25" t="s">
         <v>332</v>
       </c>
       <c r="X14" s="22"/>
@@ -4834,75 +4815,75 @@
       <c r="AL14" s="22"/>
       <c r="AM14" s="22"/>
       <c r="AN14" s="20"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="23"/>
-      <c r="BC14" s="23"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="24"/>
-      <c r="BF14" s="23"/>
-      <c r="BG14" s="23"/>
-      <c r="BH14" s="23"/>
-      <c r="BI14" s="23"/>
-      <c r="BJ14" s="23"/>
-      <c r="BK14" s="23"/>
-      <c r="BL14" s="23"/>
-      <c r="BM14" s="23"/>
-      <c r="BN14" s="23"/>
-      <c r="BO14" s="23"/>
-      <c r="BP14" s="23"/>
-      <c r="BQ14" s="23"/>
-      <c r="BR14" s="23"/>
-      <c r="BS14" s="23"/>
-      <c r="BT14" s="23"/>
-      <c r="BU14" s="23"/>
-      <c r="BV14" s="23"/>
-      <c r="BW14" s="23"/>
-      <c r="BX14" s="23"/>
-      <c r="BY14" s="23"/>
-      <c r="BZ14" s="23"/>
-      <c r="CA14" s="23"/>
-      <c r="CB14" s="23"/>
-      <c r="CC14" s="23"/>
-      <c r="CD14" s="23"/>
-      <c r="CE14" s="23"/>
-      <c r="CF14" s="23"/>
-      <c r="CG14" s="23"/>
-      <c r="CH14" s="23"/>
-      <c r="CI14" s="23"/>
-      <c r="CJ14" s="23"/>
-      <c r="CK14" s="23"/>
-      <c r="CL14" s="23"/>
-      <c r="CM14" s="23"/>
-      <c r="CN14" s="24" t="s">
+      <c r="AO14" s="20"/>
+      <c r="AP14" s="20"/>
+      <c r="AQ14" s="20"/>
+      <c r="AR14" s="20"/>
+      <c r="AS14" s="20"/>
+      <c r="AT14" s="20"/>
+      <c r="AU14" s="20"/>
+      <c r="AV14" s="20"/>
+      <c r="AW14" s="20"/>
+      <c r="AX14" s="20"/>
+      <c r="AY14" s="20"/>
+      <c r="AZ14" s="20"/>
+      <c r="BA14" s="20"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="20"/>
+      <c r="BG14" s="20"/>
+      <c r="BH14" s="20"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="20"/>
+      <c r="BK14" s="20"/>
+      <c r="BL14" s="20"/>
+      <c r="BM14" s="20"/>
+      <c r="BN14" s="20"/>
+      <c r="BO14" s="20"/>
+      <c r="BP14" s="20"/>
+      <c r="BQ14" s="20"/>
+      <c r="BR14" s="20"/>
+      <c r="BS14" s="20"/>
+      <c r="BT14" s="20"/>
+      <c r="BU14" s="20"/>
+      <c r="BV14" s="20"/>
+      <c r="BW14" s="20"/>
+      <c r="BX14" s="20"/>
+      <c r="BY14" s="20"/>
+      <c r="BZ14" s="20"/>
+      <c r="CA14" s="20"/>
+      <c r="CB14" s="20"/>
+      <c r="CC14" s="20"/>
+      <c r="CD14" s="20"/>
+      <c r="CE14" s="20"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
+      <c r="CH14" s="20"/>
+      <c r="CI14" s="20"/>
+      <c r="CJ14" s="20"/>
+      <c r="CK14" s="20"/>
+      <c r="CL14" s="20"/>
+      <c r="CM14" s="20"/>
+      <c r="CN14" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="CO14" s="24"/>
-      <c r="CP14" s="24"/>
-      <c r="CQ14" s="24"/>
-      <c r="CR14" s="24"/>
-      <c r="CS14" s="24"/>
-      <c r="CT14" s="24"/>
-      <c r="CU14" s="24"/>
-      <c r="CV14" s="24"/>
-      <c r="CW14" s="24" t="s">
+      <c r="CO14" s="22"/>
+      <c r="CP14" s="22"/>
+      <c r="CQ14" s="22"/>
+      <c r="CR14" s="22"/>
+      <c r="CS14" s="22"/>
+      <c r="CT14" s="22"/>
+      <c r="CU14" s="22"/>
+      <c r="CV14" s="22"/>
+      <c r="CW14" s="22" t="s">
         <v>190</v>
       </c>
       <c r="CX14" s="1"/>
       <c r="CY14" s="1"/>
       <c r="CZ14" s="1"/>
-      <c r="DA14" s="1"/>
+      <c r="DA14" s="47"/>
       <c r="DB14" s="1"/>
       <c r="DC14" s="1"/>
     </row>
@@ -4910,8 +4891,8 @@
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>11</v>
+      <c r="B15" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>258</v>
@@ -4967,7 +4948,7 @@
         <v>213</v>
       </c>
       <c r="V15" s="22"/>
-      <c r="W15" s="27" t="s">
+      <c r="W15" s="25" t="s">
         <v>331</v>
       </c>
       <c r="X15" s="22"/>
@@ -4987,75 +4968,75 @@
       <c r="AL15" s="22"/>
       <c r="AM15" s="22"/>
       <c r="AN15" s="20"/>
-      <c r="AO15" s="23"/>
-      <c r="AP15" s="23"/>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="23"/>
-      <c r="AW15" s="23"/>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="23"/>
-      <c r="BB15" s="23"/>
-      <c r="BC15" s="23"/>
-      <c r="BD15" s="23"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="23"/>
-      <c r="BG15" s="23"/>
-      <c r="BH15" s="23"/>
-      <c r="BI15" s="23"/>
-      <c r="BJ15" s="23"/>
-      <c r="BK15" s="23"/>
-      <c r="BL15" s="23"/>
-      <c r="BM15" s="23"/>
-      <c r="BN15" s="23"/>
-      <c r="BO15" s="23"/>
-      <c r="BP15" s="23"/>
-      <c r="BQ15" s="23"/>
-      <c r="BR15" s="23"/>
-      <c r="BS15" s="23"/>
-      <c r="BT15" s="23"/>
-      <c r="BU15" s="23"/>
-      <c r="BV15" s="23"/>
-      <c r="BW15" s="23"/>
-      <c r="BX15" s="23"/>
-      <c r="BY15" s="23"/>
-      <c r="BZ15" s="23"/>
-      <c r="CA15" s="23"/>
-      <c r="CB15" s="23"/>
-      <c r="CC15" s="23"/>
-      <c r="CD15" s="23"/>
-      <c r="CE15" s="23"/>
-      <c r="CF15" s="23"/>
-      <c r="CG15" s="23"/>
-      <c r="CH15" s="23"/>
-      <c r="CI15" s="23"/>
-      <c r="CJ15" s="23"/>
-      <c r="CK15" s="23"/>
-      <c r="CL15" s="23"/>
-      <c r="CM15" s="23"/>
-      <c r="CN15" s="24" t="s">
+      <c r="AO15" s="20"/>
+      <c r="AP15" s="20"/>
+      <c r="AQ15" s="20"/>
+      <c r="AR15" s="20"/>
+      <c r="AS15" s="20"/>
+      <c r="AT15" s="20"/>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20"/>
+      <c r="AW15" s="20"/>
+      <c r="AX15" s="20"/>
+      <c r="AY15" s="20"/>
+      <c r="AZ15" s="20"/>
+      <c r="BA15" s="20"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="20"/>
+      <c r="BG15" s="20"/>
+      <c r="BH15" s="20"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="20"/>
+      <c r="BK15" s="20"/>
+      <c r="BL15" s="20"/>
+      <c r="BM15" s="20"/>
+      <c r="BN15" s="20"/>
+      <c r="BO15" s="20"/>
+      <c r="BP15" s="20"/>
+      <c r="BQ15" s="20"/>
+      <c r="BR15" s="20"/>
+      <c r="BS15" s="20"/>
+      <c r="BT15" s="20"/>
+      <c r="BU15" s="20"/>
+      <c r="BV15" s="20"/>
+      <c r="BW15" s="20"/>
+      <c r="BX15" s="20"/>
+      <c r="BY15" s="20"/>
+      <c r="BZ15" s="20"/>
+      <c r="CA15" s="20"/>
+      <c r="CB15" s="20"/>
+      <c r="CC15" s="20"/>
+      <c r="CD15" s="20"/>
+      <c r="CE15" s="20"/>
+      <c r="CF15" s="20"/>
+      <c r="CG15" s="20"/>
+      <c r="CH15" s="20"/>
+      <c r="CI15" s="20"/>
+      <c r="CJ15" s="20"/>
+      <c r="CK15" s="20"/>
+      <c r="CL15" s="20"/>
+      <c r="CM15" s="20"/>
+      <c r="CN15" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="CO15" s="24"/>
-      <c r="CP15" s="24"/>
-      <c r="CQ15" s="24"/>
-      <c r="CR15" s="24"/>
-      <c r="CS15" s="24"/>
-      <c r="CT15" s="24"/>
-      <c r="CU15" s="24"/>
-      <c r="CV15" s="24"/>
-      <c r="CW15" s="24" t="s">
+      <c r="CO15" s="22"/>
+      <c r="CP15" s="22"/>
+      <c r="CQ15" s="22"/>
+      <c r="CR15" s="22"/>
+      <c r="CS15" s="22"/>
+      <c r="CT15" s="22"/>
+      <c r="CU15" s="22"/>
+      <c r="CV15" s="22"/>
+      <c r="CW15" s="22" t="s">
         <v>190</v>
       </c>
       <c r="CX15" s="1"/>
       <c r="CY15" s="1"/>
       <c r="CZ15" s="1"/>
-      <c r="DA15" s="1"/>
+      <c r="DA15" s="47"/>
       <c r="DB15" s="1"/>
       <c r="DC15" s="1"/>
     </row>
@@ -5063,8 +5044,8 @@
       <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>11</v>
+      <c r="B16" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>258</v>
@@ -5072,7 +5053,7 @@
       <c r="D16" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>230</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -5115,7 +5096,7 @@
         <v>213</v>
       </c>
       <c r="V16" s="22"/>
-      <c r="W16" s="27" t="s">
+      <c r="W16" s="25" t="s">
         <v>331</v>
       </c>
       <c r="X16" s="22"/>
@@ -5135,75 +5116,75 @@
       <c r="AL16" s="22"/>
       <c r="AM16" s="22"/>
       <c r="AN16" s="20"/>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="23"/>
-      <c r="BD16" s="23"/>
-      <c r="BE16" s="24"/>
-      <c r="BF16" s="23"/>
-      <c r="BG16" s="23"/>
-      <c r="BH16" s="23"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="23"/>
-      <c r="BK16" s="23"/>
-      <c r="BL16" s="23"/>
-      <c r="BM16" s="23"/>
-      <c r="BN16" s="23"/>
-      <c r="BO16" s="23"/>
-      <c r="BP16" s="23"/>
-      <c r="BQ16" s="23"/>
-      <c r="BR16" s="23"/>
-      <c r="BS16" s="23"/>
-      <c r="BT16" s="23"/>
-      <c r="BU16" s="23"/>
-      <c r="BV16" s="23"/>
-      <c r="BW16" s="23"/>
-      <c r="BX16" s="23"/>
-      <c r="BY16" s="23"/>
-      <c r="BZ16" s="23"/>
-      <c r="CA16" s="23"/>
-      <c r="CB16" s="23"/>
-      <c r="CC16" s="23"/>
-      <c r="CD16" s="23"/>
-      <c r="CE16" s="23"/>
-      <c r="CF16" s="23"/>
-      <c r="CG16" s="23"/>
-      <c r="CH16" s="23"/>
-      <c r="CI16" s="23"/>
-      <c r="CJ16" s="23"/>
-      <c r="CK16" s="23"/>
-      <c r="CL16" s="23"/>
-      <c r="CM16" s="23"/>
-      <c r="CN16" s="24" t="s">
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
+      <c r="AU16" s="20"/>
+      <c r="AV16" s="20"/>
+      <c r="AW16" s="20"/>
+      <c r="AX16" s="20"/>
+      <c r="AY16" s="20"/>
+      <c r="AZ16" s="20"/>
+      <c r="BA16" s="20"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="22"/>
+      <c r="BF16" s="20"/>
+      <c r="BG16" s="20"/>
+      <c r="BH16" s="20"/>
+      <c r="BI16" s="20"/>
+      <c r="BJ16" s="20"/>
+      <c r="BK16" s="20"/>
+      <c r="BL16" s="20"/>
+      <c r="BM16" s="20"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="20"/>
+      <c r="BP16" s="20"/>
+      <c r="BQ16" s="20"/>
+      <c r="BR16" s="20"/>
+      <c r="BS16" s="20"/>
+      <c r="BT16" s="20"/>
+      <c r="BU16" s="20"/>
+      <c r="BV16" s="20"/>
+      <c r="BW16" s="20"/>
+      <c r="BX16" s="20"/>
+      <c r="BY16" s="20"/>
+      <c r="BZ16" s="20"/>
+      <c r="CA16" s="20"/>
+      <c r="CB16" s="20"/>
+      <c r="CC16" s="20"/>
+      <c r="CD16" s="20"/>
+      <c r="CE16" s="20"/>
+      <c r="CF16" s="20"/>
+      <c r="CG16" s="20"/>
+      <c r="CH16" s="20"/>
+      <c r="CI16" s="20"/>
+      <c r="CJ16" s="20"/>
+      <c r="CK16" s="20"/>
+      <c r="CL16" s="20"/>
+      <c r="CM16" s="20"/>
+      <c r="CN16" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="CO16" s="24"/>
-      <c r="CP16" s="24"/>
-      <c r="CQ16" s="24"/>
-      <c r="CR16" s="24"/>
-      <c r="CS16" s="24"/>
-      <c r="CT16" s="24"/>
-      <c r="CU16" s="24"/>
-      <c r="CV16" s="24"/>
-      <c r="CW16" s="24" t="s">
+      <c r="CO16" s="22"/>
+      <c r="CP16" s="22"/>
+      <c r="CQ16" s="22"/>
+      <c r="CR16" s="22"/>
+      <c r="CS16" s="22"/>
+      <c r="CT16" s="22"/>
+      <c r="CU16" s="22"/>
+      <c r="CV16" s="22"/>
+      <c r="CW16" s="22" t="s">
         <v>227</v>
       </c>
       <c r="CX16" s="1"/>
       <c r="CY16" s="1"/>
       <c r="CZ16" s="1"/>
-      <c r="DA16" s="1"/>
+      <c r="DA16" s="47"/>
       <c r="DB16" s="1"/>
       <c r="DC16" s="1"/>
     </row>
@@ -5211,8 +5192,8 @@
       <c r="A17" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>11</v>
+      <c r="B17" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>258</v>
@@ -5332,7 +5313,7 @@
       <c r="CX17" s="1"/>
       <c r="CY17" s="1"/>
       <c r="CZ17" s="1"/>
-      <c r="DA17" s="1"/>
+      <c r="DA17" s="47"/>
       <c r="DB17" s="1"/>
       <c r="DC17" s="1"/>
     </row>
@@ -5340,8 +5321,8 @@
       <c r="A18" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>11</v>
+      <c r="B18" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>258</v>
@@ -5463,7 +5444,7 @@
       <c r="CX18" s="1"/>
       <c r="CY18" s="1"/>
       <c r="CZ18" s="1"/>
-      <c r="DA18" s="1"/>
+      <c r="DA18" s="47"/>
       <c r="DB18" s="1"/>
       <c r="DC18" s="1"/>
     </row>
@@ -5471,8 +5452,8 @@
       <c r="A19" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>11</v>
+      <c r="B19" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>258</v>
@@ -5592,7 +5573,7 @@
       <c r="CX19" s="1"/>
       <c r="CY19" s="1"/>
       <c r="CZ19" s="1"/>
-      <c r="DA19" s="1"/>
+      <c r="DA19" s="47"/>
       <c r="DB19" s="1"/>
       <c r="DC19" s="1"/>
     </row>
@@ -5600,8 +5581,8 @@
       <c r="A20" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>11</v>
+      <c r="B20" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>258</v>
@@ -5725,7 +5706,7 @@
       <c r="CX20" s="1"/>
       <c r="CY20" s="1"/>
       <c r="CZ20" s="1"/>
-      <c r="DA20" s="1"/>
+      <c r="DA20" s="47"/>
       <c r="DB20" s="1"/>
       <c r="DC20" s="1"/>
     </row>
@@ -5733,8 +5714,8 @@
       <c r="A21" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>11</v>
+      <c r="B21" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>258</v>
@@ -5799,7 +5780,7 @@
         <v>334</v>
       </c>
       <c r="AU21" s="15"/>
-      <c r="AV21" s="26"/>
+      <c r="AV21" s="24"/>
       <c r="AW21" s="1" t="s">
         <v>348</v>
       </c>
@@ -5862,7 +5843,7 @@
       <c r="CX21" s="1"/>
       <c r="CY21" s="1"/>
       <c r="CZ21" s="1"/>
-      <c r="DA21" s="1"/>
+      <c r="DA21" s="47"/>
       <c r="DB21" s="1"/>
       <c r="DC21" s="1"/>
     </row>
@@ -5870,8 +5851,8 @@
       <c r="A22" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>11</v>
+      <c r="B22" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>258</v>
@@ -5934,7 +5915,7 @@
         <v>335</v>
       </c>
       <c r="AU22" s="15"/>
-      <c r="AV22" s="26"/>
+      <c r="AV22" s="24"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
       <c r="AY22" s="1" t="s">
@@ -5995,7 +5976,7 @@
       <c r="CX22" s="1"/>
       <c r="CY22" s="1"/>
       <c r="CZ22" s="1"/>
-      <c r="DA22" s="1"/>
+      <c r="DA22" s="47"/>
       <c r="DB22" s="1"/>
       <c r="DC22" s="1"/>
     </row>
@@ -6003,8 +5984,8 @@
       <c r="A23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>11</v>
+      <c r="B23" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>258</v>
@@ -6069,7 +6050,7 @@
         <v>337</v>
       </c>
       <c r="AU23" s="15"/>
-      <c r="AV23" s="26"/>
+      <c r="AV23" s="24"/>
       <c r="AW23" s="1" t="s">
         <v>348</v>
       </c>
@@ -6132,7 +6113,7 @@
       <c r="CX23" s="1"/>
       <c r="CY23" s="1"/>
       <c r="CZ23" s="1"/>
-      <c r="DA23" s="1"/>
+      <c r="DA23" s="47"/>
       <c r="DB23" s="1"/>
       <c r="DC23" s="1"/>
     </row>
@@ -6140,8 +6121,8 @@
       <c r="A24" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>11</v>
+      <c r="B24" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>258</v>
@@ -6204,7 +6185,7 @@
         <v>338</v>
       </c>
       <c r="AU24" s="15"/>
-      <c r="AV24" s="26" t="s">
+      <c r="AV24" s="24" t="s">
         <v>352</v>
       </c>
       <c r="AW24" s="1"/>
@@ -6267,7 +6248,7 @@
       <c r="CX24" s="1"/>
       <c r="CY24" s="1"/>
       <c r="CZ24" s="1"/>
-      <c r="DA24" s="1"/>
+      <c r="DA24" s="47"/>
       <c r="DB24" s="1"/>
       <c r="DC24" s="1"/>
     </row>
@@ -6275,8 +6256,8 @@
       <c r="A25" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>11</v>
+      <c r="B25" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>258</v>
@@ -6341,7 +6322,7 @@
         <v>339</v>
       </c>
       <c r="AU25" s="15"/>
-      <c r="AV25" s="26"/>
+      <c r="AV25" s="24"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
       <c r="AY25" s="1" t="s">
@@ -6402,7 +6383,7 @@
       <c r="CX25" s="1"/>
       <c r="CY25" s="1"/>
       <c r="CZ25" s="1"/>
-      <c r="DA25" s="1"/>
+      <c r="DA25" s="47"/>
       <c r="DB25" s="1"/>
       <c r="DC25" s="1"/>
     </row>
@@ -6410,8 +6391,8 @@
       <c r="A26" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>11</v>
+      <c r="B26" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>258</v>
@@ -6476,7 +6457,7 @@
         <v>340</v>
       </c>
       <c r="AU26" s="15"/>
-      <c r="AV26" s="26"/>
+      <c r="AV26" s="24"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
       <c r="AY26" s="1" t="s">
@@ -6537,7 +6518,7 @@
       <c r="CX26" s="1"/>
       <c r="CY26" s="1"/>
       <c r="CZ26" s="1"/>
-      <c r="DA26" s="1"/>
+      <c r="DA26" s="47"/>
       <c r="DB26" s="1"/>
       <c r="DC26" s="1"/>
     </row>
@@ -6545,8 +6526,8 @@
       <c r="A27" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>11</v>
+      <c r="B27" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>258</v>
@@ -6609,7 +6590,7 @@
         <v>341</v>
       </c>
       <c r="AU27" s="15"/>
-      <c r="AV27" s="26"/>
+      <c r="AV27" s="24"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
       <c r="AY27" s="1" t="s">
@@ -6670,7 +6651,7 @@
       <c r="CX27" s="1"/>
       <c r="CY27" s="1"/>
       <c r="CZ27" s="1"/>
-      <c r="DA27" s="1"/>
+      <c r="DA27" s="47"/>
       <c r="DB27" s="1"/>
       <c r="DC27" s="1"/>
     </row>
@@ -6678,8 +6659,8 @@
       <c r="A28" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>11</v>
+      <c r="B28" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>258</v>
@@ -6742,7 +6723,7 @@
         <v>342</v>
       </c>
       <c r="AU28" s="15"/>
-      <c r="AV28" s="26"/>
+      <c r="AV28" s="24"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
       <c r="AY28" s="1" t="s">
@@ -6803,7 +6784,7 @@
       <c r="CX28" s="1"/>
       <c r="CY28" s="1"/>
       <c r="CZ28" s="1"/>
-      <c r="DA28" s="1"/>
+      <c r="DA28" s="47"/>
       <c r="DB28" s="1"/>
       <c r="DC28" s="1"/>
     </row>
@@ -6811,8 +6792,8 @@
       <c r="A29" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>11</v>
+      <c r="B29" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>258</v>
@@ -6877,7 +6858,7 @@
         <v>343</v>
       </c>
       <c r="AU29" s="15"/>
-      <c r="AV29" s="26"/>
+      <c r="AV29" s="24"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
       <c r="AY29" s="1" t="s">
@@ -6938,7 +6919,7 @@
       <c r="CX29" s="1"/>
       <c r="CY29" s="1"/>
       <c r="CZ29" s="1"/>
-      <c r="DA29" s="1"/>
+      <c r="DA29" s="47"/>
       <c r="DB29" s="1"/>
       <c r="DC29" s="1"/>
     </row>
@@ -6946,8 +6927,8 @@
       <c r="A30" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>11</v>
+      <c r="B30" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>258</v>
@@ -7014,7 +6995,7 @@
         <v>344</v>
       </c>
       <c r="AU30" s="15"/>
-      <c r="AV30" s="26"/>
+      <c r="AV30" s="24"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
       <c r="AY30" s="1" t="s">
@@ -7075,7 +7056,7 @@
       <c r="CX30" s="1"/>
       <c r="CY30" s="1"/>
       <c r="CZ30" s="1"/>
-      <c r="DA30" s="1"/>
+      <c r="DA30" s="47"/>
       <c r="DB30" s="1"/>
       <c r="DC30" s="1"/>
     </row>
@@ -7083,8 +7064,8 @@
       <c r="A31" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>11</v>
+      <c r="B31" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>258</v>
@@ -7151,7 +7132,7 @@
         <v>345</v>
       </c>
       <c r="AU31" s="15"/>
-      <c r="AV31" s="26"/>
+      <c r="AV31" s="24"/>
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
       <c r="AY31" s="1" t="s">
@@ -7212,7 +7193,7 @@
       <c r="CX31" s="1"/>
       <c r="CY31" s="1"/>
       <c r="CZ31" s="1"/>
-      <c r="DA31" s="1"/>
+      <c r="DA31" s="47"/>
       <c r="DB31" s="1"/>
       <c r="DC31" s="1"/>
     </row>
@@ -7220,8 +7201,8 @@
       <c r="A32" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>11</v>
+      <c r="B32" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>258</v>
@@ -7345,7 +7326,7 @@
       <c r="CX32" s="1"/>
       <c r="CY32" s="1"/>
       <c r="CZ32" s="1"/>
-      <c r="DA32" s="1"/>
+      <c r="DA32" s="47"/>
       <c r="DB32" s="1"/>
       <c r="DC32" s="1"/>
     </row>
@@ -7353,8 +7334,8 @@
       <c r="A33" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>11</v>
+      <c r="B33" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>258</v>
@@ -7470,170 +7451,170 @@
       <c r="CX33" s="1"/>
       <c r="CY33" s="1"/>
       <c r="CZ33" s="1"/>
-      <c r="DA33" s="1"/>
+      <c r="DA33" s="47"/>
       <c r="DB33" s="1"/>
       <c r="DC33" s="1"/>
     </row>
     <row r="34" spans="1:107">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>11</v>
+      <c r="B34" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="F34" s="31" t="s">
+      <c r="F34" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33" t="s">
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34" t="s">
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="AU34" s="34" t="s">
+      <c r="AU34" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AV34" s="34" t="s">
+      <c r="AV34" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AW34" s="34" t="s">
+      <c r="AW34" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AX34" s="34" t="s">
+      <c r="AX34" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AY34" s="34" t="s">
+      <c r="AY34" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AZ34" s="34" t="s">
+      <c r="AZ34" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="BA34" s="34" t="s">
+      <c r="BA34" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="BB34" s="34"/>
-      <c r="BC34" s="34"/>
-      <c r="BD34" s="34"/>
-      <c r="BE34" s="35" t="s">
+      <c r="BB34" s="32"/>
+      <c r="BC34" s="32"/>
+      <c r="BD34" s="32"/>
+      <c r="BE34" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="BF34" s="34" t="s">
+      <c r="BF34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BG34" s="34"/>
-      <c r="BH34" s="34"/>
-      <c r="BI34" s="34"/>
-      <c r="BJ34" s="34"/>
-      <c r="BK34" s="34"/>
-      <c r="BL34" s="34"/>
-      <c r="BM34" s="34"/>
-      <c r="BN34" s="34"/>
-      <c r="BO34" s="34"/>
-      <c r="BP34" s="34"/>
-      <c r="BQ34" s="34"/>
-      <c r="BR34" s="34"/>
-      <c r="BS34" s="34"/>
-      <c r="BT34" s="34"/>
-      <c r="BU34" s="34"/>
-      <c r="BV34" s="34"/>
-      <c r="BW34" s="34"/>
-      <c r="BX34" s="34"/>
-      <c r="BY34" s="34"/>
-      <c r="BZ34" s="34"/>
-      <c r="CA34" s="34"/>
-      <c r="CB34" s="35" t="s">
+      <c r="BG34" s="32"/>
+      <c r="BH34" s="32"/>
+      <c r="BI34" s="32"/>
+      <c r="BJ34" s="32"/>
+      <c r="BK34" s="32"/>
+      <c r="BL34" s="32"/>
+      <c r="BM34" s="32"/>
+      <c r="BN34" s="32"/>
+      <c r="BO34" s="32"/>
+      <c r="BP34" s="32"/>
+      <c r="BQ34" s="32"/>
+      <c r="BR34" s="32"/>
+      <c r="BS34" s="32"/>
+      <c r="BT34" s="32"/>
+      <c r="BU34" s="32"/>
+      <c r="BV34" s="32"/>
+      <c r="BW34" s="32"/>
+      <c r="BX34" s="32"/>
+      <c r="BY34" s="32"/>
+      <c r="BZ34" s="32"/>
+      <c r="CA34" s="32"/>
+      <c r="CB34" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="CC34" s="34"/>
-      <c r="CD34" s="34"/>
-      <c r="CE34" s="34"/>
-      <c r="CF34" s="34"/>
-      <c r="CG34" s="34"/>
-      <c r="CH34" s="34"/>
-      <c r="CI34" s="34" t="s">
+      <c r="CC34" s="32"/>
+      <c r="CD34" s="32"/>
+      <c r="CE34" s="32"/>
+      <c r="CF34" s="32"/>
+      <c r="CG34" s="32"/>
+      <c r="CH34" s="32"/>
+      <c r="CI34" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="CJ34" s="34">
+      <c r="CJ34" s="32">
         <v>6</v>
       </c>
-      <c r="CK34" s="34" t="s">
+      <c r="CK34" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="CL34" s="34">
+      <c r="CL34" s="32">
         <v>10</v>
       </c>
-      <c r="CM34" s="34" t="s">
+      <c r="CM34" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="CN34" s="31"/>
-      <c r="CO34" s="35"/>
-      <c r="CP34" s="35"/>
-      <c r="CQ34" s="35"/>
-      <c r="CR34" s="35"/>
-      <c r="CS34" s="35"/>
-      <c r="CT34" s="35"/>
-      <c r="CU34" s="35" t="s">
+      <c r="CN34" s="29"/>
+      <c r="CO34" s="33"/>
+      <c r="CP34" s="33"/>
+      <c r="CQ34" s="33"/>
+      <c r="CR34" s="33"/>
+      <c r="CS34" s="33"/>
+      <c r="CT34" s="33"/>
+      <c r="CU34" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="CV34" s="31" t="s">
+      <c r="CV34" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="CW34" s="35"/>
+      <c r="CW34" s="33"/>
       <c r="CX34" s="1"/>
       <c r="CY34" s="1"/>
       <c r="CZ34" s="1"/>
-      <c r="DA34" s="1"/>
+      <c r="DA34" s="47"/>
       <c r="DB34" s="1"/>
       <c r="DC34" s="1"/>
     </row>
@@ -7641,8 +7622,8 @@
       <c r="A35" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>11</v>
+      <c r="B35" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>258</v>
@@ -7708,7 +7689,7 @@
       <c r="AV35" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AW35" s="29" t="s">
+      <c r="AW35" s="27" t="s">
         <v>371</v>
       </c>
       <c r="AX35" s="1"/>
@@ -7770,7 +7751,7 @@
       <c r="CX35" s="1"/>
       <c r="CY35" s="1"/>
       <c r="CZ35" s="1"/>
-      <c r="DA35" s="1"/>
+      <c r="DA35" s="47"/>
       <c r="DB35" s="1"/>
       <c r="DC35" s="1"/>
     </row>
@@ -7778,8 +7759,8 @@
       <c r="A36" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>11</v>
+      <c r="B36" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>258</v>
@@ -7843,7 +7824,7 @@
       </c>
       <c r="AU36" s="1"/>
       <c r="AV36" s="1"/>
-      <c r="AW36" s="29" t="s">
+      <c r="AW36" s="27" t="s">
         <v>378</v>
       </c>
       <c r="AX36" s="1"/>
@@ -7907,7 +7888,7 @@
       <c r="CX36" s="1"/>
       <c r="CY36" s="1"/>
       <c r="CZ36" s="1"/>
-      <c r="DA36" s="1"/>
+      <c r="DA36" s="47"/>
       <c r="DB36" s="1"/>
       <c r="DC36" s="1"/>
     </row>
@@ -7915,8 +7896,8 @@
       <c r="A37" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>11</v>
+      <c r="B37" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>258</v>
@@ -7933,7 +7914,7 @@
       <c r="G37" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="28" t="s">
         <v>383</v>
       </c>
       <c r="I37" s="54" t="s">
@@ -7980,7 +7961,7 @@
       </c>
       <c r="AU37" s="1"/>
       <c r="AV37" s="1"/>
-      <c r="AW37" s="29"/>
+      <c r="AW37" s="27"/>
       <c r="AX37" s="1"/>
       <c r="AY37" s="1" t="s">
         <v>372</v>
@@ -8040,7 +8021,7 @@
       <c r="CX37" s="1"/>
       <c r="CY37" s="1"/>
       <c r="CZ37" s="1"/>
-      <c r="DA37" s="1"/>
+      <c r="DA37" s="47"/>
       <c r="DB37" s="1"/>
       <c r="DC37" s="1"/>
     </row>
@@ -8048,8 +8029,8 @@
       <c r="A38" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>11</v>
+      <c r="B38" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>258</v>
@@ -8113,7 +8094,7 @@
       </c>
       <c r="AU38" s="1"/>
       <c r="AV38" s="1"/>
-      <c r="AW38" s="29"/>
+      <c r="AW38" s="27"/>
       <c r="AX38" s="1"/>
       <c r="AY38" s="1" t="s">
         <v>372</v>
@@ -8173,7 +8154,7 @@
       <c r="CX38" s="1"/>
       <c r="CY38" s="1"/>
       <c r="CZ38" s="1"/>
-      <c r="DA38" s="1"/>
+      <c r="DA38" s="47"/>
       <c r="DB38" s="1"/>
       <c r="DC38" s="1"/>
     </row>
@@ -8181,8 +8162,8 @@
       <c r="A39" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>11</v>
+      <c r="B39" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>258</v>
@@ -8246,7 +8227,7 @@
       </c>
       <c r="AU39" s="1"/>
       <c r="AV39" s="1"/>
-      <c r="AW39" s="29"/>
+      <c r="AW39" s="27"/>
       <c r="AX39" s="1"/>
       <c r="AY39" s="1" t="s">
         <v>372</v>
@@ -8306,7 +8287,7 @@
       <c r="CX39" s="1"/>
       <c r="CY39" s="1"/>
       <c r="CZ39" s="1"/>
-      <c r="DA39" s="1"/>
+      <c r="DA39" s="47"/>
       <c r="DB39" s="1"/>
       <c r="DC39" s="1"/>
     </row>
@@ -8314,8 +8295,8 @@
       <c r="A40" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>11</v>
+      <c r="B40" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>258</v>
@@ -8379,7 +8360,7 @@
       </c>
       <c r="AU40" s="1"/>
       <c r="AV40" s="1"/>
-      <c r="AW40" s="29"/>
+      <c r="AW40" s="27"/>
       <c r="AX40" s="1"/>
       <c r="AY40" s="1" t="s">
         <v>372</v>
@@ -8439,7 +8420,7 @@
       <c r="CX40" s="1"/>
       <c r="CY40" s="1"/>
       <c r="CZ40" s="1"/>
-      <c r="DA40" s="1"/>
+      <c r="DA40" s="47"/>
       <c r="DB40" s="1"/>
       <c r="DC40" s="1"/>
     </row>
@@ -8447,8 +8428,8 @@
       <c r="A41" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>11</v>
+      <c r="B41" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>258</v>
@@ -8512,7 +8493,7 @@
       </c>
       <c r="AU41" s="1"/>
       <c r="AV41" s="1"/>
-      <c r="AW41" s="29"/>
+      <c r="AW41" s="27"/>
       <c r="AX41" s="1"/>
       <c r="AY41" s="1" t="s">
         <v>372</v>
@@ -8572,7 +8553,7 @@
       <c r="CX41" s="1"/>
       <c r="CY41" s="1"/>
       <c r="CZ41" s="1"/>
-      <c r="DA41" s="1"/>
+      <c r="DA41" s="47"/>
       <c r="DB41" s="1"/>
       <c r="DC41" s="1"/>
     </row>
@@ -8580,8 +8561,8 @@
       <c r="A42" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>11</v>
+      <c r="B42" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>258</v>
@@ -8645,7 +8626,7 @@
       </c>
       <c r="AU42" s="1"/>
       <c r="AV42" s="1"/>
-      <c r="AW42" s="29"/>
+      <c r="AW42" s="27"/>
       <c r="AX42" s="1"/>
       <c r="AY42" s="1" t="s">
         <v>372</v>
@@ -8705,7 +8686,7 @@
       <c r="CX42" s="1"/>
       <c r="CY42" s="1"/>
       <c r="CZ42" s="1"/>
-      <c r="DA42" s="1"/>
+      <c r="DA42" s="47"/>
       <c r="DB42" s="1"/>
       <c r="DC42" s="1"/>
     </row>
@@ -8713,8 +8694,8 @@
       <c r="A43" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>11</v>
+      <c r="B43" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>258</v>
@@ -8778,7 +8759,7 @@
       </c>
       <c r="AU43" s="1"/>
       <c r="AV43" s="1"/>
-      <c r="AW43" s="29"/>
+      <c r="AW43" s="27"/>
       <c r="AX43" s="1"/>
       <c r="AY43" s="1" t="s">
         <v>372</v>
@@ -8838,7 +8819,7 @@
       <c r="CX43" s="1"/>
       <c r="CY43" s="1"/>
       <c r="CZ43" s="1"/>
-      <c r="DA43" s="1"/>
+      <c r="DA43" s="47"/>
       <c r="DB43" s="1"/>
       <c r="DC43" s="1"/>
     </row>
@@ -8846,8 +8827,8 @@
       <c r="A44" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>11</v>
+      <c r="B44" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>258</v>
@@ -8911,7 +8892,7 @@
       </c>
       <c r="AU44" s="1"/>
       <c r="AV44" s="1"/>
-      <c r="AW44" s="29"/>
+      <c r="AW44" s="27"/>
       <c r="AX44" s="1"/>
       <c r="AY44" s="1" t="s">
         <v>372</v>
@@ -8971,7 +8952,7 @@
       <c r="CX44" s="1"/>
       <c r="CY44" s="1"/>
       <c r="CZ44" s="1"/>
-      <c r="DA44" s="1"/>
+      <c r="DA44" s="47"/>
       <c r="DB44" s="1"/>
       <c r="DC44" s="1"/>
     </row>
@@ -8979,8 +8960,8 @@
       <c r="A45" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>11</v>
+      <c r="B45" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>258</v>
@@ -9042,7 +9023,7 @@
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="1"/>
-      <c r="AW45" s="29"/>
+      <c r="AW45" s="27"/>
       <c r="AX45" s="1"/>
       <c r="AY45" s="1" t="s">
         <v>372</v>
@@ -9102,7 +9083,7 @@
       <c r="CX45" s="1"/>
       <c r="CY45" s="1"/>
       <c r="CZ45" s="1"/>
-      <c r="DA45" s="1"/>
+      <c r="DA45" s="47"/>
       <c r="DB45" s="1"/>
       <c r="DC45" s="1"/>
     </row>
@@ -9110,8 +9091,8 @@
       <c r="A46" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>11</v>
+      <c r="B46" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>258</v>
@@ -9173,7 +9154,7 @@
       </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="1"/>
-      <c r="AW46" s="29"/>
+      <c r="AW46" s="27"/>
       <c r="AX46" s="1"/>
       <c r="AY46" s="1" t="s">
         <v>372</v>
@@ -9233,7 +9214,7 @@
       <c r="CX46" s="1"/>
       <c r="CY46" s="1"/>
       <c r="CZ46" s="1"/>
-      <c r="DA46" s="1"/>
+      <c r="DA46" s="47"/>
       <c r="DB46" s="1"/>
       <c r="DC46" s="1"/>
     </row>
@@ -9241,8 +9222,8 @@
       <c r="A47" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>11</v>
+      <c r="B47" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>258</v>
@@ -9304,7 +9285,7 @@
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="1"/>
-      <c r="AW47" s="29"/>
+      <c r="AW47" s="27"/>
       <c r="AX47" s="1"/>
       <c r="AY47" s="1" t="s">
         <v>372</v>
@@ -9364,7 +9345,7 @@
       <c r="CX47" s="1"/>
       <c r="CY47" s="1"/>
       <c r="CZ47" s="1"/>
-      <c r="DA47" s="1"/>
+      <c r="DA47" s="47"/>
       <c r="DB47" s="1"/>
       <c r="DC47" s="1"/>
     </row>
@@ -9372,8 +9353,8 @@
       <c r="A48" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>11</v>
+      <c r="B48" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>258</v>
@@ -9435,7 +9416,7 @@
       </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="1"/>
-      <c r="AW48" s="29"/>
+      <c r="AW48" s="27"/>
       <c r="AX48" s="1"/>
       <c r="AY48" s="1" t="s">
         <v>372</v>
@@ -9495,7 +9476,7 @@
       <c r="CX48" s="1"/>
       <c r="CY48" s="1"/>
       <c r="CZ48" s="1"/>
-      <c r="DA48" s="1"/>
+      <c r="DA48" s="47"/>
       <c r="DB48" s="1"/>
       <c r="DC48" s="1"/>
     </row>
@@ -9503,8 +9484,8 @@
       <c r="A49" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>11</v>
+      <c r="B49" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>258</v>
@@ -9568,7 +9549,7 @@
       </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="1"/>
-      <c r="AW49" s="29"/>
+      <c r="AW49" s="27"/>
       <c r="AX49" s="1"/>
       <c r="AY49" s="1" t="s">
         <v>372</v>
@@ -9628,7 +9609,7 @@
       <c r="CX49" s="1"/>
       <c r="CY49" s="1"/>
       <c r="CZ49" s="1"/>
-      <c r="DA49" s="1"/>
+      <c r="DA49" s="47"/>
       <c r="DB49" s="1"/>
       <c r="DC49" s="1"/>
     </row>
@@ -9636,8 +9617,8 @@
       <c r="A50" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B50" s="31" t="s">
-        <v>11</v>
+      <c r="B50" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>258</v>
@@ -9701,7 +9682,7 @@
       </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="1"/>
-      <c r="AW50" s="29"/>
+      <c r="AW50" s="27"/>
       <c r="AX50" s="1"/>
       <c r="AY50" s="1" t="s">
         <v>372</v>
@@ -9761,7 +9742,7 @@
       <c r="CX50" s="1"/>
       <c r="CY50" s="1"/>
       <c r="CZ50" s="1"/>
-      <c r="DA50" s="1"/>
+      <c r="DA50" s="47"/>
       <c r="DB50" s="1"/>
       <c r="DC50" s="1"/>
     </row>
@@ -9769,8 +9750,8 @@
       <c r="A51" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>11</v>
+      <c r="B51" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>258</v>
@@ -9834,7 +9815,7 @@
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="1"/>
-      <c r="AW51" s="29"/>
+      <c r="AW51" s="27"/>
       <c r="AX51" s="1"/>
       <c r="AY51" s="1" t="s">
         <v>372</v>
@@ -9894,7 +9875,7 @@
       <c r="CX51" s="1"/>
       <c r="CY51" s="1"/>
       <c r="CZ51" s="1"/>
-      <c r="DA51" s="1"/>
+      <c r="DA51" s="47"/>
       <c r="DB51" s="1"/>
       <c r="DC51" s="1"/>
     </row>
@@ -9902,8 +9883,8 @@
       <c r="A52" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>11</v>
+      <c r="B52" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>258</v>
@@ -9967,7 +9948,7 @@
       </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="1"/>
-      <c r="AW52" s="29"/>
+      <c r="AW52" s="27"/>
       <c r="AX52" s="1"/>
       <c r="AY52" s="1" t="s">
         <v>372</v>
@@ -10027,7 +10008,7 @@
       <c r="CX52" s="1"/>
       <c r="CY52" s="1"/>
       <c r="CZ52" s="1"/>
-      <c r="DA52" s="1"/>
+      <c r="DA52" s="47"/>
       <c r="DB52" s="1"/>
       <c r="DC52" s="1"/>
     </row>
@@ -10035,8 +10016,8 @@
       <c r="A53" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>11</v>
+      <c r="B53" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>258</v>
@@ -10098,7 +10079,7 @@
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="1"/>
-      <c r="AW53" s="29"/>
+      <c r="AW53" s="27"/>
       <c r="AX53" s="1"/>
       <c r="AY53" s="1" t="s">
         <v>372</v>
@@ -10158,7 +10139,7 @@
       <c r="CX53" s="1"/>
       <c r="CY53" s="1"/>
       <c r="CZ53" s="1"/>
-      <c r="DA53" s="1"/>
+      <c r="DA53" s="47"/>
       <c r="DB53" s="1"/>
       <c r="DC53" s="1"/>
     </row>
@@ -10166,8 +10147,8 @@
       <c r="A54" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>11</v>
+      <c r="B54" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>258</v>
@@ -10229,7 +10210,7 @@
       </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="1"/>
-      <c r="AW54" s="29"/>
+      <c r="AW54" s="27"/>
       <c r="AX54" s="1"/>
       <c r="AY54" s="1" t="s">
         <v>372</v>
@@ -10289,7 +10270,7 @@
       <c r="CX54" s="1"/>
       <c r="CY54" s="1"/>
       <c r="CZ54" s="1"/>
-      <c r="DA54" s="1"/>
+      <c r="DA54" s="47"/>
       <c r="DB54" s="1"/>
       <c r="DC54" s="1"/>
     </row>
@@ -10297,8 +10278,8 @@
       <c r="A55" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>11</v>
+      <c r="B55" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>258</v>
@@ -10362,7 +10343,7 @@
       </c>
       <c r="AU55" s="1"/>
       <c r="AV55" s="1"/>
-      <c r="AW55" s="29"/>
+      <c r="AW55" s="27"/>
       <c r="AX55" s="1"/>
       <c r="AY55" s="1" t="s">
         <v>372</v>
@@ -10422,7 +10403,7 @@
       <c r="CX55" s="1"/>
       <c r="CY55" s="1"/>
       <c r="CZ55" s="1"/>
-      <c r="DA55" s="1"/>
+      <c r="DA55" s="47"/>
       <c r="DB55" s="1"/>
       <c r="DC55" s="1"/>
     </row>
@@ -10430,8 +10411,8 @@
       <c r="A56" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>11</v>
+      <c r="B56" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>258</v>
@@ -10495,7 +10476,7 @@
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="1"/>
-      <c r="AW56" s="29"/>
+      <c r="AW56" s="27"/>
       <c r="AX56" s="1"/>
       <c r="AY56" s="1" t="s">
         <v>372</v>
@@ -10555,7 +10536,7 @@
       <c r="CX56" s="1"/>
       <c r="CY56" s="1"/>
       <c r="CZ56" s="1"/>
-      <c r="DA56" s="1"/>
+      <c r="DA56" s="47"/>
       <c r="DB56" s="1"/>
       <c r="DC56" s="1"/>
     </row>
@@ -10563,8 +10544,8 @@
       <c r="A57" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>11</v>
+      <c r="B57" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>258</v>
@@ -10626,7 +10607,7 @@
       </c>
       <c r="AU57" s="1"/>
       <c r="AV57" s="1"/>
-      <c r="AW57" s="29"/>
+      <c r="AW57" s="27"/>
       <c r="AX57" s="1" t="s">
         <v>478</v>
       </c>
@@ -10688,7 +10669,7 @@
       <c r="CX57" s="1"/>
       <c r="CY57" s="1"/>
       <c r="CZ57" s="1"/>
-      <c r="DA57" s="1"/>
+      <c r="DA57" s="47"/>
       <c r="DB57" s="1"/>
       <c r="DC57" s="1"/>
     </row>
@@ -10696,8 +10677,8 @@
       <c r="A58" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B58" s="31" t="s">
-        <v>11</v>
+      <c r="B58" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>258</v>
@@ -10759,7 +10740,7 @@
       </c>
       <c r="AU58" s="1"/>
       <c r="AV58" s="1"/>
-      <c r="AW58" s="29"/>
+      <c r="AW58" s="27"/>
       <c r="AX58" s="1" t="s">
         <v>478</v>
       </c>
@@ -10821,7 +10802,7 @@
       <c r="CX58" s="1"/>
       <c r="CY58" s="1"/>
       <c r="CZ58" s="1"/>
-      <c r="DA58" s="1"/>
+      <c r="DA58" s="47"/>
       <c r="DB58" s="1"/>
       <c r="DC58" s="1"/>
     </row>
@@ -10829,8 +10810,8 @@
       <c r="A59" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>11</v>
+      <c r="B59" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>258</v>
@@ -10894,7 +10875,7 @@
       </c>
       <c r="AU59" s="1"/>
       <c r="AV59" s="1"/>
-      <c r="AW59" s="29"/>
+      <c r="AW59" s="27"/>
       <c r="AX59" s="1"/>
       <c r="AY59" s="1" t="s">
         <v>372</v>
@@ -10956,7 +10937,7 @@
       <c r="CX59" s="1"/>
       <c r="CY59" s="1"/>
       <c r="CZ59" s="1"/>
-      <c r="DA59" s="1"/>
+      <c r="DA59" s="47"/>
       <c r="DB59" s="1"/>
       <c r="DC59" s="1"/>
     </row>
@@ -10964,8 +10945,8 @@
       <c r="A60" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>11</v>
+      <c r="B60" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>258</v>
@@ -11029,7 +11010,7 @@
       </c>
       <c r="AU60" s="1"/>
       <c r="AV60" s="1"/>
-      <c r="AW60" s="29"/>
+      <c r="AW60" s="27"/>
       <c r="AX60" s="1"/>
       <c r="AY60" s="1" t="s">
         <v>372</v>
@@ -11091,7 +11072,7 @@
       <c r="CX60" s="1"/>
       <c r="CY60" s="1"/>
       <c r="CZ60" s="1"/>
-      <c r="DA60" s="1"/>
+      <c r="DA60" s="47"/>
       <c r="DB60" s="1"/>
       <c r="DC60" s="1"/>
     </row>
@@ -11099,8 +11080,8 @@
       <c r="A61" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>11</v>
+      <c r="B61" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>258</v>
@@ -11164,7 +11145,7 @@
       </c>
       <c r="AU61" s="1"/>
       <c r="AV61" s="1"/>
-      <c r="AW61" s="29"/>
+      <c r="AW61" s="27"/>
       <c r="AX61" s="1" t="s">
         <v>478</v>
       </c>
@@ -11226,7 +11207,7 @@
       <c r="CX61" s="1"/>
       <c r="CY61" s="1"/>
       <c r="CZ61" s="1"/>
-      <c r="DA61" s="1"/>
+      <c r="DA61" s="47"/>
       <c r="DB61" s="1"/>
       <c r="DC61" s="1"/>
     </row>
@@ -11234,8 +11215,8 @@
       <c r="A62" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>11</v>
+      <c r="B62" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>258</v>
@@ -11299,7 +11280,7 @@
       </c>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
-      <c r="AW62" s="29"/>
+      <c r="AW62" s="27"/>
       <c r="AX62" s="1" t="s">
         <v>478</v>
       </c>
@@ -11361,7 +11342,7 @@
       <c r="CX62" s="1"/>
       <c r="CY62" s="1"/>
       <c r="CZ62" s="1"/>
-      <c r="DA62" s="1"/>
+      <c r="DA62" s="47"/>
       <c r="DB62" s="1"/>
       <c r="DC62" s="1"/>
     </row>
@@ -11369,8 +11350,8 @@
       <c r="A63" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>11</v>
+      <c r="B63" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>258</v>
@@ -11434,7 +11415,7 @@
       </c>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
-      <c r="AW63" s="29"/>
+      <c r="AW63" s="27"/>
       <c r="AX63" s="1"/>
       <c r="AY63" s="1" t="s">
         <v>372</v>
@@ -11496,7 +11477,7 @@
       <c r="CX63" s="1"/>
       <c r="CY63" s="1"/>
       <c r="CZ63" s="1"/>
-      <c r="DA63" s="1"/>
+      <c r="DA63" s="47"/>
       <c r="DB63" s="1"/>
       <c r="DC63" s="1"/>
     </row>
@@ -11504,8 +11485,8 @@
       <c r="A64" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>11</v>
+      <c r="B64" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>258</v>
@@ -11569,7 +11550,7 @@
       </c>
       <c r="AU64" s="1"/>
       <c r="AV64" s="1"/>
-      <c r="AW64" s="29"/>
+      <c r="AW64" s="27"/>
       <c r="AX64" s="1"/>
       <c r="AY64" s="1" t="s">
         <v>372</v>
@@ -11631,7 +11612,7 @@
       <c r="CX64" s="1"/>
       <c r="CY64" s="1"/>
       <c r="CZ64" s="1"/>
-      <c r="DA64" s="1"/>
+      <c r="DA64" s="47"/>
       <c r="DB64" s="1"/>
       <c r="DC64" s="1"/>
     </row>
@@ -11639,8 +11620,8 @@
       <c r="A65" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B65" s="31" t="s">
-        <v>11</v>
+      <c r="B65" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>258</v>
@@ -11704,7 +11685,7 @@
       </c>
       <c r="AU65" s="1"/>
       <c r="AV65" s="1"/>
-      <c r="AW65" s="29"/>
+      <c r="AW65" s="27"/>
       <c r="AX65" s="1"/>
       <c r="AY65" s="1" t="s">
         <v>372</v>
@@ -11766,7 +11747,7 @@
       <c r="CX65" s="1"/>
       <c r="CY65" s="1"/>
       <c r="CZ65" s="1"/>
-      <c r="DA65" s="1"/>
+      <c r="DA65" s="47"/>
       <c r="DB65" s="1"/>
       <c r="DC65" s="1"/>
     </row>
@@ -11774,8 +11755,8 @@
       <c r="A66" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B66" s="31" t="s">
-        <v>11</v>
+      <c r="B66" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>258</v>
@@ -11839,7 +11820,7 @@
       </c>
       <c r="AU66" s="11"/>
       <c r="AV66" s="11"/>
-      <c r="AW66" s="38"/>
+      <c r="AW66" s="36"/>
       <c r="AX66" s="11"/>
       <c r="AY66" s="11" t="s">
         <v>372</v>
@@ -11901,7 +11882,7 @@
       <c r="CX66" s="11"/>
       <c r="CY66" s="11"/>
       <c r="CZ66" s="11"/>
-      <c r="DA66" s="11"/>
+      <c r="DA66" s="49"/>
       <c r="DB66" s="11"/>
       <c r="DC66" s="11"/>
     </row>
@@ -11909,8 +11890,8 @@
       <c r="A67" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B67" s="31" t="s">
-        <v>11</v>
+      <c r="B67" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>258</v>
@@ -11946,7 +11927,7 @@
       <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
-      <c r="W67" s="42" t="s">
+      <c r="W67" s="40" t="s">
         <v>533</v>
       </c>
       <c r="X67" s="11"/>
@@ -11976,7 +11957,7 @@
       </c>
       <c r="AU67" s="11"/>
       <c r="AV67" s="11"/>
-      <c r="AW67" s="38"/>
+      <c r="AW67" s="36"/>
       <c r="AX67" s="11"/>
       <c r="AY67" s="11"/>
       <c r="AZ67" s="11"/>
@@ -12035,10 +12016,10 @@
       <c r="CY67" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="CZ67" s="42" t="s">
+      <c r="CZ67" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="DA67" s="42" t="s">
+      <c r="DA67" s="50" t="s">
         <v>535</v>
       </c>
       <c r="DB67" s="11"/>
@@ -12050,8 +12031,8 @@
       <c r="A68" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="B68" s="31" t="s">
-        <v>11</v>
+      <c r="B68" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>258</v>
@@ -12071,7 +12052,7 @@
       <c r="H68" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="I68" s="48" t="s">
+      <c r="I68" s="45" t="s">
         <v>183</v>
       </c>
       <c r="J68" s="11"/>
@@ -12079,10 +12060,10 @@
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
-      <c r="O68" s="44">
+      <c r="O68" s="42">
         <v>44743</v>
       </c>
-      <c r="P68" s="44">
+      <c r="P68" s="42">
         <v>44749</v>
       </c>
       <c r="Q68" s="11"/>
@@ -12119,7 +12100,7 @@
       </c>
       <c r="AU68" s="11"/>
       <c r="AV68" s="11"/>
-      <c r="AW68" s="38"/>
+      <c r="AW68" s="36"/>
       <c r="AX68" s="11"/>
       <c r="AY68" s="11">
         <v>1</v>
@@ -12185,9 +12166,9 @@
       <c r="CV68" s="11"/>
       <c r="CW68" s="11"/>
       <c r="CX68" s="11"/>
-      <c r="CY68" s="45"/>
-      <c r="CZ68" s="46"/>
-      <c r="DA68" s="47"/>
+      <c r="CY68" s="43"/>
+      <c r="CZ68" s="44"/>
+      <c r="DA68" s="51"/>
       <c r="DB68" s="11"/>
       <c r="DC68" s="11"/>
     </row>
@@ -12195,19 +12176,19 @@
       <c r="A69" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B69" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="43" t="s">
+      <c r="B69" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="E69" s="43" t="s">
+      <c r="E69" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="41" t="s">
         <v>558</v>
       </c>
       <c r="G69" s="1"/>
@@ -12220,8 +12201,8 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -12254,7 +12235,7 @@
       <c r="AT69" s="1"/>
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
-      <c r="AW69" s="29"/>
+      <c r="AW69" s="27"/>
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
@@ -12308,9 +12289,9 @@
       <c r="CV69" s="1"/>
       <c r="CW69" s="1"/>
       <c r="CX69" s="1"/>
-      <c r="CY69" s="37"/>
-      <c r="CZ69" s="36"/>
-      <c r="DA69" s="26"/>
+      <c r="CY69" s="35"/>
+      <c r="CZ69" s="34"/>
+      <c r="DA69" s="52"/>
       <c r="DB69" s="1"/>
       <c r="DC69" s="1"/>
     </row>
@@ -12318,19 +12299,19 @@
       <c r="A70" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="43" t="s">
+      <c r="B70" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="41" t="s">
         <v>559</v>
       </c>
       <c r="G70" s="1"/>
@@ -12343,8 +12324,8 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -12377,7 +12358,7 @@
       <c r="AT70" s="1"/>
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
-      <c r="AW70" s="29"/>
+      <c r="AW70" s="27"/>
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
@@ -12431,9 +12412,9 @@
       <c r="CV70" s="1"/>
       <c r="CW70" s="1"/>
       <c r="CX70" s="1"/>
-      <c r="CY70" s="37"/>
-      <c r="CZ70" s="36"/>
-      <c r="DA70" s="26"/>
+      <c r="CY70" s="35"/>
+      <c r="CZ70" s="34"/>
+      <c r="DA70" s="52"/>
       <c r="DB70" s="1"/>
       <c r="DC70" s="1"/>
     </row>
@@ -12441,19 +12422,19 @@
       <c r="A71" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="43" t="s">
+      <c r="B71" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="D71" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="E71" s="43" t="s">
+      <c r="E71" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F71" s="43" t="s">
+      <c r="F71" s="41" t="s">
         <v>560</v>
       </c>
       <c r="G71" s="1"/>
@@ -12466,8 +12447,8 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -12500,7 +12481,7 @@
       <c r="AT71" s="1"/>
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
-      <c r="AW71" s="29"/>
+      <c r="AW71" s="27"/>
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
@@ -12554,9 +12535,9 @@
       <c r="CV71" s="1"/>
       <c r="CW71" s="1"/>
       <c r="CX71" s="1"/>
-      <c r="CY71" s="37"/>
-      <c r="CZ71" s="36"/>
-      <c r="DA71" s="26"/>
+      <c r="CY71" s="35"/>
+      <c r="CZ71" s="34"/>
+      <c r="DA71" s="52"/>
       <c r="DB71" s="1"/>
       <c r="DC71" s="1"/>
     </row>
@@ -12564,19 +12545,19 @@
       <c r="A72" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="43" t="s">
+      <c r="B72" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="E72" s="43" t="s">
+      <c r="E72" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="F72" s="43" t="s">
+      <c r="F72" s="41" t="s">
         <v>561</v>
       </c>
       <c r="G72" s="1"/>
@@ -12589,8 +12570,8 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -12623,7 +12604,7 @@
       <c r="AT72" s="1"/>
       <c r="AU72" s="1"/>
       <c r="AV72" s="1"/>
-      <c r="AW72" s="29"/>
+      <c r="AW72" s="27"/>
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
@@ -12677,9 +12658,9 @@
       <c r="CV72" s="1"/>
       <c r="CW72" s="1"/>
       <c r="CX72" s="1"/>
-      <c r="CY72" s="37"/>
-      <c r="CZ72" s="36"/>
-      <c r="DA72" s="26"/>
+      <c r="CY72" s="35"/>
+      <c r="CZ72" s="34"/>
+      <c r="DA72" s="52"/>
       <c r="DB72" s="1"/>
       <c r="DC72" s="1"/>
     </row>
@@ -12687,24 +12668,24 @@
       <c r="A73" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="D73" s="43" t="s">
+      <c r="D73" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="E73" s="43" t="s">
+      <c r="E73" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="F73" s="43" t="s">
+      <c r="F73" s="41" t="s">
         <v>566</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="52" t="s">
+      <c r="I73" s="53" t="s">
         <v>562</v>
       </c>
       <c r="J73" s="1"/>
@@ -12712,8 +12693,8 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -12748,7 +12729,7 @@
       </c>
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
-      <c r="AW73" s="29"/>
+      <c r="AW73" s="27"/>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
@@ -12808,9 +12789,9 @@
       <c r="CV73" s="1"/>
       <c r="CW73" s="1"/>
       <c r="CX73" s="1"/>
-      <c r="CY73" s="37"/>
-      <c r="CZ73" s="36"/>
-      <c r="DA73" s="26"/>
+      <c r="CY73" s="35"/>
+      <c r="CZ73" s="34"/>
+      <c r="DA73" s="52"/>
       <c r="DB73" s="1" t="s">
         <v>576</v>
       </c>
@@ -12820,24 +12801,24 @@
       <c r="A74" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="E74" s="43" t="s">
+      <c r="E74" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="F74" s="43" t="s">
+      <c r="F74" s="41" t="s">
         <v>569</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="52" t="s">
+      <c r="I74" s="53" t="s">
         <v>562</v>
       </c>
       <c r="J74" s="1"/>
@@ -12845,8 +12826,8 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -12881,7 +12862,7 @@
       </c>
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
-      <c r="AW74" s="29"/>
+      <c r="AW74" s="27"/>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
@@ -12941,9 +12922,9 @@
       <c r="CV74" s="1"/>
       <c r="CW74" s="1"/>
       <c r="CX74" s="1"/>
-      <c r="CY74" s="37"/>
-      <c r="CZ74" s="36"/>
-      <c r="DA74" s="26"/>
+      <c r="CY74" s="35"/>
+      <c r="CZ74" s="34"/>
+      <c r="DA74" s="52"/>
       <c r="DB74" s="1" t="s">
         <v>578</v>
       </c>
@@ -12953,24 +12934,24 @@
       <c r="A75" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="F75" s="43" t="s">
+      <c r="F75" s="41" t="s">
         <v>570</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="52" t="s">
+      <c r="I75" s="53" t="s">
         <v>562</v>
       </c>
       <c r="J75" s="1"/>
@@ -12978,8 +12959,8 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -13014,7 +12995,7 @@
       </c>
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
-      <c r="AW75" s="29"/>
+      <c r="AW75" s="27"/>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
@@ -13074,9 +13055,9 @@
       <c r="CV75" s="1"/>
       <c r="CW75" s="1"/>
       <c r="CX75" s="1"/>
-      <c r="CY75" s="37"/>
-      <c r="CZ75" s="36"/>
-      <c r="DA75" s="26"/>
+      <c r="CY75" s="35"/>
+      <c r="CZ75" s="34"/>
+      <c r="DA75" s="52"/>
       <c r="DB75" s="1" t="s">
         <v>580</v>
       </c>
@@ -13087,13 +13068,19 @@
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W11:W16" r:id="rId3" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="W14" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="W67" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="CZ67" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="DA67" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="W14" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="W67" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="CZ67" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="DA67" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="DA10" r:id="rId7" xr:uid="{95B862D2-CEFD-40FA-AD6A-FDF26CB57F31}"/>
+    <hyperlink ref="W11" r:id="rId8" display="ayadav@zarca.com" xr:uid="{F86BBE52-BE5E-441D-97C7-91831F68C31D}"/>
+    <hyperlink ref="DA11" r:id="rId9" xr:uid="{7A18C947-31A7-4820-9B54-021FF2662E0D}"/>
+    <hyperlink ref="W12" r:id="rId10" display="ayadav@zarca.com" xr:uid="{0ABFE05D-D8AE-4A0A-8FED-79E65A52F351}"/>
+    <hyperlink ref="DA12" r:id="rId11" xr:uid="{9DCA2ABA-E7E6-4198-BDC5-59A63065470E}"/>
+    <hyperlink ref="W13" r:id="rId12" display="ayadav@zarca.com" xr:uid="{E092D7AF-678B-4227-9318-87652C6263A0}"/>
+    <hyperlink ref="DA13" r:id="rId13" xr:uid="{51D05367-5DB1-47EB-B5EA-5AC2C51F5E7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED52ADEF-8B90-44C1-A8EA-58412CA508CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A244190-5B02-44E3-ACD6-CA653F7A227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="654">
   <si>
     <t>Environment</t>
   </si>
@@ -1822,9 +1822,6 @@
     <t>Smoke_TC79</t>
   </si>
   <si>
-    <t>Smoke_TC80</t>
-  </si>
-  <si>
     <t>Sajid</t>
   </si>
   <si>
@@ -1895,13 +1892,235 @@
   </si>
   <si>
     <t>Id,Name,Phone,Email__c</t>
+  </si>
+  <si>
+    <t>Smoke_TC81</t>
+  </si>
+  <si>
+    <t>Smoke_TC82</t>
+  </si>
+  <si>
+    <t>File Library</t>
+  </si>
+  <si>
+    <t>Upload .xls format file in File Library</t>
+  </si>
+  <si>
+    <t>sogo_data_import_file.xls</t>
+  </si>
+  <si>
+    <t>Smoke_TC83</t>
+  </si>
+  <si>
+    <t>Upload .xlsx format file in File Library</t>
+  </si>
+  <si>
+    <t>smsnumber.xlsx</t>
+  </si>
+  <si>
+    <t>Smoke_TC84</t>
+  </si>
+  <si>
+    <t>Upload .doc format file in File Library</t>
+  </si>
+  <si>
+    <t>docfile.doc</t>
+  </si>
+  <si>
+    <t>Smoke_TC85</t>
+  </si>
+  <si>
+    <t>Upload .docx format file in File Library</t>
+  </si>
+  <si>
+    <t>docxfile.docx</t>
+  </si>
+  <si>
+    <t>Smoke_TC86</t>
+  </si>
+  <si>
+    <t>Upload .ppt format file in File Library</t>
+  </si>
+  <si>
+    <t>ppt.ppt</t>
+  </si>
+  <si>
+    <t>Smoke_TC87</t>
+  </si>
+  <si>
+    <t>Upload .pptx format file in File Library</t>
+  </si>
+  <si>
+    <t>pptx.pptx</t>
+  </si>
+  <si>
+    <t>Smoke_TC88</t>
+  </si>
+  <si>
+    <t>Upload .pps format file in File Library</t>
+  </si>
+  <si>
+    <t>pps.pps</t>
+  </si>
+  <si>
+    <t>Smoke_TC89</t>
+  </si>
+  <si>
+    <t>Upload .pdf format file in File Library</t>
+  </si>
+  <si>
+    <t>Smoke_TC90</t>
+  </si>
+  <si>
+    <t>Upload .txt format file in File Library</t>
+  </si>
+  <si>
+    <t>txt.txt</t>
+  </si>
+  <si>
+    <t>Smoke_TC91</t>
+  </si>
+  <si>
+    <t>Upload .rtf format file in File Library</t>
+  </si>
+  <si>
+    <t>rtf.rtf</t>
+  </si>
+  <si>
+    <t>Smoke_TC92</t>
+  </si>
+  <si>
+    <t>Upload .xml format file in File Library</t>
+  </si>
+  <si>
+    <t>xml.xml</t>
+  </si>
+  <si>
+    <t>Smoke_TC93</t>
+  </si>
+  <si>
+    <t>Upload .mpg format file in File Library</t>
+  </si>
+  <si>
+    <t>mpg.mpg</t>
+  </si>
+  <si>
+    <t>Smoke_TC94</t>
+  </si>
+  <si>
+    <t>Upload .swf format file in File Library</t>
+  </si>
+  <si>
+    <t>swf.swf</t>
+  </si>
+  <si>
+    <t>Smoke_TC95</t>
+  </si>
+  <si>
+    <t>Upload .jpg format file in File Library</t>
+  </si>
+  <si>
+    <t>jpg.jpg</t>
+  </si>
+  <si>
+    <t>Smoke_TC96</t>
+  </si>
+  <si>
+    <t>Upload .jpeg format file in File Library</t>
+  </si>
+  <si>
+    <t>jpeg.jpeg</t>
+  </si>
+  <si>
+    <t>Smoke_TC97</t>
+  </si>
+  <si>
+    <t>Upload .bmp format file in File Library</t>
+  </si>
+  <si>
+    <t>bmp.bmp</t>
+  </si>
+  <si>
+    <t>Smoke_TC98</t>
+  </si>
+  <si>
+    <t>Upload .gif format file in File Library</t>
+  </si>
+  <si>
+    <t>gif.gif</t>
+  </si>
+  <si>
+    <t>Smoke_TC99</t>
+  </si>
+  <si>
+    <t>Upload .png format file in File Library</t>
+  </si>
+  <si>
+    <t>png.png</t>
+  </si>
+  <si>
+    <t>Smoke_TC100</t>
+  </si>
+  <si>
+    <t>Upload .htm format file in File Library</t>
+  </si>
+  <si>
+    <t>htm.htm</t>
+  </si>
+  <si>
+    <t>Upload .html format file in File Library</t>
+  </si>
+  <si>
+    <t>html.html</t>
+  </si>
+  <si>
+    <t>Upload .xhtml format file in File Library</t>
+  </si>
+  <si>
+    <t>xhtml.xhtml</t>
+  </si>
+  <si>
+    <t>Upload .csv format file in File Library</t>
+  </si>
+  <si>
+    <t>csv.csv</t>
+  </si>
+  <si>
+    <t>Smoke_TC104</t>
+  </si>
+  <si>
+    <t>Upload .mp3 format file in File Library</t>
+  </si>
+  <si>
+    <t>mp3.mp3</t>
+  </si>
+  <si>
+    <t>Smoke_TC105</t>
+  </si>
+  <si>
+    <t>Upload .mp4 format file in File Library</t>
+  </si>
+  <si>
+    <t>mp4.mp4</t>
+  </si>
+  <si>
+    <t>Smoke_TC106</t>
+  </si>
+  <si>
+    <t>Smoke_TC107</t>
+  </si>
+  <si>
+    <t>Smoke_TC108</t>
+  </si>
+  <si>
+    <t>account_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1958,6 +2177,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2080,7 +2306,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2140,6 +2366,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2659,7 +2887,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>551</v>
@@ -2673,13 +2901,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>571</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>572</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -2703,10 +2931,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DC75"/>
+  <dimension ref="A1:DD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DC6" sqref="DC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2731,7 +2959,7 @@
     <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:108">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3048,13 +3276,16 @@
         <v>540</v>
       </c>
       <c r="DB1" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="DC1" s="9" t="s">
         <v>541</v>
       </c>
+      <c r="DD1" s="3" t="s">
+        <v>653</v>
+      </c>
     </row>
-    <row r="2" spans="1:107">
+    <row r="2" spans="1:108">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3180,8 +3411,9 @@
       <c r="DA2" s="47"/>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:108">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -3385,8 +3617,9 @@
       <c r="DA3" s="47"/>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:108">
       <c r="A4" s="1" t="s">
         <v>178</v>
       </c>
@@ -3524,8 +3757,9 @@
       <c r="DA4" s="47"/>
       <c r="DB4" s="1"/>
       <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
     </row>
-    <row r="5" spans="1:107">
+    <row r="5" spans="1:108">
       <c r="A5" s="1" t="s">
         <v>179</v>
       </c>
@@ -3665,8 +3899,9 @@
       <c r="DA5" s="47"/>
       <c r="DB5" s="1"/>
       <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
     </row>
-    <row r="6" spans="1:107">
+    <row r="6" spans="1:108">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -3796,8 +4031,9 @@
       <c r="DA6" s="47"/>
       <c r="DB6" s="1"/>
       <c r="DC6" s="1"/>
+      <c r="DD6" s="1"/>
     </row>
-    <row r="7" spans="1:107">
+    <row r="7" spans="1:108">
       <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
@@ -3927,8 +4163,9 @@
       <c r="DA7" s="47"/>
       <c r="DB7" s="1"/>
       <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
     </row>
-    <row r="8" spans="1:107">
+    <row r="8" spans="1:108">
       <c r="A8" s="1" t="s">
         <v>182</v>
       </c>
@@ -4060,8 +4297,9 @@
       <c r="DA8" s="47"/>
       <c r="DB8" s="1"/>
       <c r="DC8" s="1"/>
+      <c r="DD8" s="1"/>
     </row>
-    <row r="9" spans="1:107">
+    <row r="9" spans="1:108">
       <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
@@ -4197,8 +4435,9 @@
       <c r="DA9" s="47"/>
       <c r="DB9" s="1"/>
       <c r="DC9" s="1"/>
+      <c r="DD9" s="1"/>
     </row>
-    <row r="10" spans="1:107">
+    <row r="10" spans="1:108">
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
@@ -4340,8 +4579,9 @@
       </c>
       <c r="DB10" s="2"/>
       <c r="DC10" s="1"/>
+      <c r="DD10" s="1"/>
     </row>
-    <row r="11" spans="1:107">
+    <row r="11" spans="1:108">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
@@ -4479,8 +4719,9 @@
       </c>
       <c r="DB11" s="1"/>
       <c r="DC11" s="1"/>
+      <c r="DD11" s="1"/>
     </row>
-    <row r="12" spans="1:107">
+    <row r="12" spans="1:108">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
@@ -4616,8 +4857,9 @@
       </c>
       <c r="DB12" s="1"/>
       <c r="DC12" s="1"/>
+      <c r="DD12" s="1"/>
     </row>
-    <row r="13" spans="1:107">
+    <row r="13" spans="1:108">
       <c r="A13" s="1" t="s">
         <v>217</v>
       </c>
@@ -4753,8 +4995,9 @@
       </c>
       <c r="DB13" s="1"/>
       <c r="DC13" s="1"/>
+      <c r="DD13" s="1"/>
     </row>
-    <row r="14" spans="1:107">
+    <row r="14" spans="1:108">
       <c r="A14" s="1" t="s">
         <v>218</v>
       </c>
@@ -4886,8 +5129,9 @@
       <c r="DA14" s="47"/>
       <c r="DB14" s="1"/>
       <c r="DC14" s="1"/>
+      <c r="DD14" s="1"/>
     </row>
-    <row r="15" spans="1:107">
+    <row r="15" spans="1:108">
       <c r="A15" s="1" t="s">
         <v>219</v>
       </c>
@@ -5039,8 +5283,9 @@
       <c r="DA15" s="47"/>
       <c r="DB15" s="1"/>
       <c r="DC15" s="1"/>
+      <c r="DD15" s="1"/>
     </row>
-    <row r="16" spans="1:107">
+    <row r="16" spans="1:108">
       <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
@@ -5187,8 +5432,9 @@
       <c r="DA16" s="47"/>
       <c r="DB16" s="1"/>
       <c r="DC16" s="1"/>
+      <c r="DD16" s="1"/>
     </row>
-    <row r="17" spans="1:107">
+    <row r="17" spans="1:108">
       <c r="A17" s="1" t="s">
         <v>235</v>
       </c>
@@ -5316,8 +5562,9 @@
       <c r="DA17" s="47"/>
       <c r="DB17" s="1"/>
       <c r="DC17" s="1"/>
+      <c r="DD17" s="1"/>
     </row>
-    <row r="18" spans="1:107">
+    <row r="18" spans="1:108">
       <c r="A18" s="1" t="s">
         <v>240</v>
       </c>
@@ -5447,8 +5694,9 @@
       <c r="DA18" s="47"/>
       <c r="DB18" s="1"/>
       <c r="DC18" s="1"/>
+      <c r="DD18" s="1"/>
     </row>
-    <row r="19" spans="1:107">
+    <row r="19" spans="1:108">
       <c r="A19" s="1" t="s">
         <v>247</v>
       </c>
@@ -5576,8 +5824,9 @@
       <c r="DA19" s="47"/>
       <c r="DB19" s="1"/>
       <c r="DC19" s="1"/>
+      <c r="DD19" s="1"/>
     </row>
-    <row r="20" spans="1:107">
+    <row r="20" spans="1:108">
       <c r="A20" s="1" t="s">
         <v>276</v>
       </c>
@@ -5709,8 +5958,9 @@
       <c r="DA20" s="47"/>
       <c r="DB20" s="1"/>
       <c r="DC20" s="1"/>
+      <c r="DD20" s="1"/>
     </row>
-    <row r="21" spans="1:107">
+    <row r="21" spans="1:108">
       <c r="A21" s="1" t="s">
         <v>277</v>
       </c>
@@ -5846,8 +6096,9 @@
       <c r="DA21" s="47"/>
       <c r="DB21" s="1"/>
       <c r="DC21" s="1"/>
+      <c r="DD21" s="1"/>
     </row>
-    <row r="22" spans="1:107">
+    <row r="22" spans="1:108">
       <c r="A22" s="1" t="s">
         <v>278</v>
       </c>
@@ -5979,8 +6230,9 @@
       <c r="DA22" s="47"/>
       <c r="DB22" s="1"/>
       <c r="DC22" s="1"/>
+      <c r="DD22" s="1"/>
     </row>
-    <row r="23" spans="1:107">
+    <row r="23" spans="1:108">
       <c r="A23" s="1" t="s">
         <v>279</v>
       </c>
@@ -6116,8 +6368,9 @@
       <c r="DA23" s="47"/>
       <c r="DB23" s="1"/>
       <c r="DC23" s="1"/>
+      <c r="DD23" s="1"/>
     </row>
-    <row r="24" spans="1:107">
+    <row r="24" spans="1:108">
       <c r="A24" s="1" t="s">
         <v>280</v>
       </c>
@@ -6251,8 +6504,9 @@
       <c r="DA24" s="47"/>
       <c r="DB24" s="1"/>
       <c r="DC24" s="1"/>
+      <c r="DD24" s="1"/>
     </row>
-    <row r="25" spans="1:107">
+    <row r="25" spans="1:108">
       <c r="A25" s="1" t="s">
         <v>281</v>
       </c>
@@ -6386,8 +6640,9 @@
       <c r="DA25" s="47"/>
       <c r="DB25" s="1"/>
       <c r="DC25" s="1"/>
+      <c r="DD25" s="1"/>
     </row>
-    <row r="26" spans="1:107">
+    <row r="26" spans="1:108">
       <c r="A26" s="1" t="s">
         <v>282</v>
       </c>
@@ -6521,8 +6776,9 @@
       <c r="DA26" s="47"/>
       <c r="DB26" s="1"/>
       <c r="DC26" s="1"/>
+      <c r="DD26" s="1"/>
     </row>
-    <row r="27" spans="1:107">
+    <row r="27" spans="1:108">
       <c r="A27" s="1" t="s">
         <v>283</v>
       </c>
@@ -6654,8 +6910,9 @@
       <c r="DA27" s="47"/>
       <c r="DB27" s="1"/>
       <c r="DC27" s="1"/>
+      <c r="DD27" s="1"/>
     </row>
-    <row r="28" spans="1:107">
+    <row r="28" spans="1:108">
       <c r="A28" s="1" t="s">
         <v>284</v>
       </c>
@@ -6787,8 +7044,9 @@
       <c r="DA28" s="47"/>
       <c r="DB28" s="1"/>
       <c r="DC28" s="1"/>
+      <c r="DD28" s="1"/>
     </row>
-    <row r="29" spans="1:107">
+    <row r="29" spans="1:108">
       <c r="A29" s="1" t="s">
         <v>285</v>
       </c>
@@ -6922,8 +7180,9 @@
       <c r="DA29" s="47"/>
       <c r="DB29" s="1"/>
       <c r="DC29" s="1"/>
+      <c r="DD29" s="1"/>
     </row>
-    <row r="30" spans="1:107">
+    <row r="30" spans="1:108">
       <c r="A30" s="1" t="s">
         <v>286</v>
       </c>
@@ -7059,8 +7318,9 @@
       <c r="DA30" s="47"/>
       <c r="DB30" s="1"/>
       <c r="DC30" s="1"/>
+      <c r="DD30" s="1"/>
     </row>
-    <row r="31" spans="1:107">
+    <row r="31" spans="1:108">
       <c r="A31" s="1" t="s">
         <v>287</v>
       </c>
@@ -7196,8 +7456,9 @@
       <c r="DA31" s="47"/>
       <c r="DB31" s="1"/>
       <c r="DC31" s="1"/>
+      <c r="DD31" s="1"/>
     </row>
-    <row r="32" spans="1:107">
+    <row r="32" spans="1:108">
       <c r="A32" s="11" t="s">
         <v>288</v>
       </c>
@@ -7329,8 +7590,9 @@
       <c r="DA32" s="47"/>
       <c r="DB32" s="1"/>
       <c r="DC32" s="1"/>
+      <c r="DD32" s="1"/>
     </row>
-    <row r="33" spans="1:107">
+    <row r="33" spans="1:108">
       <c r="A33" s="1" t="s">
         <v>524</v>
       </c>
@@ -7454,8 +7716,9 @@
       <c r="DA33" s="47"/>
       <c r="DB33" s="1"/>
       <c r="DC33" s="1"/>
+      <c r="DD33" s="1"/>
     </row>
-    <row r="34" spans="1:107">
+    <row r="34" spans="1:108">
       <c r="A34" s="29" t="s">
         <v>275</v>
       </c>
@@ -7617,8 +7880,9 @@
       <c r="DA34" s="47"/>
       <c r="DB34" s="1"/>
       <c r="DC34" s="1"/>
+      <c r="DD34" s="1"/>
     </row>
-    <row r="35" spans="1:107" ht="20.25" customHeight="1">
+    <row r="35" spans="1:108" ht="20.25" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>365</v>
       </c>
@@ -7754,8 +8018,9 @@
       <c r="DA35" s="47"/>
       <c r="DB35" s="1"/>
       <c r="DC35" s="1"/>
+      <c r="DD35" s="1"/>
     </row>
-    <row r="36" spans="1:107" ht="19.5" customHeight="1">
+    <row r="36" spans="1:108" ht="19.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>373</v>
       </c>
@@ -7891,8 +8156,9 @@
       <c r="DA36" s="47"/>
       <c r="DB36" s="1"/>
       <c r="DC36" s="1"/>
+      <c r="DD36" s="1"/>
     </row>
-    <row r="37" spans="1:107">
+    <row r="37" spans="1:108">
       <c r="A37" s="1" t="s">
         <v>380</v>
       </c>
@@ -8024,8 +8290,9 @@
       <c r="DA37" s="47"/>
       <c r="DB37" s="1"/>
       <c r="DC37" s="1"/>
+      <c r="DD37" s="1"/>
     </row>
-    <row r="38" spans="1:107">
+    <row r="38" spans="1:108">
       <c r="A38" s="1" t="s">
         <v>385</v>
       </c>
@@ -8157,8 +8424,9 @@
       <c r="DA38" s="47"/>
       <c r="DB38" s="1"/>
       <c r="DC38" s="1"/>
+      <c r="DD38" s="1"/>
     </row>
-    <row r="39" spans="1:107">
+    <row r="39" spans="1:108">
       <c r="A39" s="1" t="s">
         <v>390</v>
       </c>
@@ -8290,8 +8558,9 @@
       <c r="DA39" s="47"/>
       <c r="DB39" s="1"/>
       <c r="DC39" s="1"/>
+      <c r="DD39" s="1"/>
     </row>
-    <row r="40" spans="1:107">
+    <row r="40" spans="1:108">
       <c r="A40" s="1" t="s">
         <v>395</v>
       </c>
@@ -8423,8 +8692,9 @@
       <c r="DA40" s="47"/>
       <c r="DB40" s="1"/>
       <c r="DC40" s="1"/>
+      <c r="DD40" s="1"/>
     </row>
-    <row r="41" spans="1:107">
+    <row r="41" spans="1:108">
       <c r="A41" s="1" t="s">
         <v>400</v>
       </c>
@@ -8556,8 +8826,9 @@
       <c r="DA41" s="47"/>
       <c r="DB41" s="1"/>
       <c r="DC41" s="1"/>
+      <c r="DD41" s="1"/>
     </row>
-    <row r="42" spans="1:107">
+    <row r="42" spans="1:108">
       <c r="A42" s="1" t="s">
         <v>405</v>
       </c>
@@ -8689,8 +8960,9 @@
       <c r="DA42" s="47"/>
       <c r="DB42" s="1"/>
       <c r="DC42" s="1"/>
+      <c r="DD42" s="1"/>
     </row>
-    <row r="43" spans="1:107">
+    <row r="43" spans="1:108">
       <c r="A43" s="1" t="s">
         <v>410</v>
       </c>
@@ -8822,8 +9094,9 @@
       <c r="DA43" s="47"/>
       <c r="DB43" s="1"/>
       <c r="DC43" s="1"/>
+      <c r="DD43" s="1"/>
     </row>
-    <row r="44" spans="1:107">
+    <row r="44" spans="1:108">
       <c r="A44" s="1" t="s">
         <v>415</v>
       </c>
@@ -8955,8 +9228,9 @@
       <c r="DA44" s="47"/>
       <c r="DB44" s="1"/>
       <c r="DC44" s="1"/>
+      <c r="DD44" s="1"/>
     </row>
-    <row r="45" spans="1:107">
+    <row r="45" spans="1:108">
       <c r="A45" s="1" t="s">
         <v>420</v>
       </c>
@@ -9086,8 +9360,9 @@
       <c r="DA45" s="47"/>
       <c r="DB45" s="1"/>
       <c r="DC45" s="1"/>
+      <c r="DD45" s="1"/>
     </row>
-    <row r="46" spans="1:107">
+    <row r="46" spans="1:108">
       <c r="A46" s="1" t="s">
         <v>424</v>
       </c>
@@ -9217,8 +9492,9 @@
       <c r="DA46" s="47"/>
       <c r="DB46" s="1"/>
       <c r="DC46" s="1"/>
+      <c r="DD46" s="1"/>
     </row>
-    <row r="47" spans="1:107">
+    <row r="47" spans="1:108">
       <c r="A47" s="1" t="s">
         <v>428</v>
       </c>
@@ -9348,8 +9624,9 @@
       <c r="DA47" s="47"/>
       <c r="DB47" s="1"/>
       <c r="DC47" s="1"/>
+      <c r="DD47" s="1"/>
     </row>
-    <row r="48" spans="1:107">
+    <row r="48" spans="1:108">
       <c r="A48" s="1" t="s">
         <v>432</v>
       </c>
@@ -9479,8 +9756,9 @@
       <c r="DA48" s="47"/>
       <c r="DB48" s="1"/>
       <c r="DC48" s="1"/>
+      <c r="DD48" s="1"/>
     </row>
-    <row r="49" spans="1:107">
+    <row r="49" spans="1:108">
       <c r="A49" s="1" t="s">
         <v>436</v>
       </c>
@@ -9612,8 +9890,9 @@
       <c r="DA49" s="47"/>
       <c r="DB49" s="1"/>
       <c r="DC49" s="1"/>
+      <c r="DD49" s="1"/>
     </row>
-    <row r="50" spans="1:107">
+    <row r="50" spans="1:108">
       <c r="A50" s="1" t="s">
         <v>441</v>
       </c>
@@ -9745,8 +10024,9 @@
       <c r="DA50" s="47"/>
       <c r="DB50" s="1"/>
       <c r="DC50" s="1"/>
+      <c r="DD50" s="1"/>
     </row>
-    <row r="51" spans="1:107">
+    <row r="51" spans="1:108">
       <c r="A51" s="1" t="s">
         <v>446</v>
       </c>
@@ -9878,8 +10158,9 @@
       <c r="DA51" s="47"/>
       <c r="DB51" s="1"/>
       <c r="DC51" s="1"/>
+      <c r="DD51" s="1"/>
     </row>
-    <row r="52" spans="1:107">
+    <row r="52" spans="1:108">
       <c r="A52" s="1" t="s">
         <v>451</v>
       </c>
@@ -10011,8 +10292,9 @@
       <c r="DA52" s="47"/>
       <c r="DB52" s="1"/>
       <c r="DC52" s="1"/>
+      <c r="DD52" s="1"/>
     </row>
-    <row r="53" spans="1:107">
+    <row r="53" spans="1:108">
       <c r="A53" s="1" t="s">
         <v>456</v>
       </c>
@@ -10142,8 +10424,9 @@
       <c r="DA53" s="47"/>
       <c r="DB53" s="1"/>
       <c r="DC53" s="1"/>
+      <c r="DD53" s="1"/>
     </row>
-    <row r="54" spans="1:107">
+    <row r="54" spans="1:108">
       <c r="A54" s="1" t="s">
         <v>460</v>
       </c>
@@ -10273,8 +10556,9 @@
       <c r="DA54" s="47"/>
       <c r="DB54" s="1"/>
       <c r="DC54" s="1"/>
+      <c r="DD54" s="1"/>
     </row>
-    <row r="55" spans="1:107">
+    <row r="55" spans="1:108">
       <c r="A55" s="1" t="s">
         <v>464</v>
       </c>
@@ -10406,8 +10690,9 @@
       <c r="DA55" s="47"/>
       <c r="DB55" s="1"/>
       <c r="DC55" s="1"/>
+      <c r="DD55" s="1"/>
     </row>
-    <row r="56" spans="1:107">
+    <row r="56" spans="1:108">
       <c r="A56" s="1" t="s">
         <v>469</v>
       </c>
@@ -10539,8 +10824,9 @@
       <c r="DA56" s="47"/>
       <c r="DB56" s="1"/>
       <c r="DC56" s="1"/>
+      <c r="DD56" s="1"/>
     </row>
-    <row r="57" spans="1:107">
+    <row r="57" spans="1:108">
       <c r="A57" s="1" t="s">
         <v>474</v>
       </c>
@@ -10672,8 +10958,9 @@
       <c r="DA57" s="47"/>
       <c r="DB57" s="1"/>
       <c r="DC57" s="1"/>
+      <c r="DD57" s="1"/>
     </row>
-    <row r="58" spans="1:107">
+    <row r="58" spans="1:108">
       <c r="A58" s="1" t="s">
         <v>479</v>
       </c>
@@ -10805,8 +11092,9 @@
       <c r="DA58" s="47"/>
       <c r="DB58" s="1"/>
       <c r="DC58" s="1"/>
+      <c r="DD58" s="1"/>
     </row>
-    <row r="59" spans="1:107">
+    <row r="59" spans="1:108">
       <c r="A59" s="1" t="s">
         <v>483</v>
       </c>
@@ -10940,8 +11228,9 @@
       <c r="DA59" s="47"/>
       <c r="DB59" s="1"/>
       <c r="DC59" s="1"/>
+      <c r="DD59" s="1"/>
     </row>
-    <row r="60" spans="1:107">
+    <row r="60" spans="1:108">
       <c r="A60" s="1" t="s">
         <v>489</v>
       </c>
@@ -11075,8 +11364,9 @@
       <c r="DA60" s="47"/>
       <c r="DB60" s="1"/>
       <c r="DC60" s="1"/>
+      <c r="DD60" s="1"/>
     </row>
-    <row r="61" spans="1:107">
+    <row r="61" spans="1:108">
       <c r="A61" s="1" t="s">
         <v>493</v>
       </c>
@@ -11210,8 +11500,9 @@
       <c r="DA61" s="47"/>
       <c r="DB61" s="1"/>
       <c r="DC61" s="1"/>
+      <c r="DD61" s="1"/>
     </row>
-    <row r="62" spans="1:107">
+    <row r="62" spans="1:108">
       <c r="A62" s="1" t="s">
         <v>498</v>
       </c>
@@ -11345,8 +11636,9 @@
       <c r="DA62" s="47"/>
       <c r="DB62" s="1"/>
       <c r="DC62" s="1"/>
+      <c r="DD62" s="1"/>
     </row>
-    <row r="63" spans="1:107">
+    <row r="63" spans="1:108">
       <c r="A63" s="1" t="s">
         <v>502</v>
       </c>
@@ -11480,8 +11772,9 @@
       <c r="DA63" s="47"/>
       <c r="DB63" s="1"/>
       <c r="DC63" s="1"/>
+      <c r="DD63" s="1"/>
     </row>
-    <row r="64" spans="1:107">
+    <row r="64" spans="1:108">
       <c r="A64" s="1" t="s">
         <v>508</v>
       </c>
@@ -11615,8 +11908,9 @@
       <c r="DA64" s="47"/>
       <c r="DB64" s="1"/>
       <c r="DC64" s="1"/>
+      <c r="DD64" s="1"/>
     </row>
-    <row r="65" spans="1:107">
+    <row r="65" spans="1:108">
       <c r="A65" s="1" t="s">
         <v>513</v>
       </c>
@@ -11750,8 +12044,9 @@
       <c r="DA65" s="47"/>
       <c r="DB65" s="1"/>
       <c r="DC65" s="1"/>
+      <c r="DD65" s="1"/>
     </row>
-    <row r="66" spans="1:107">
+    <row r="66" spans="1:108">
       <c r="A66" s="11" t="s">
         <v>518</v>
       </c>
@@ -11885,8 +12180,9 @@
       <c r="DA66" s="49"/>
       <c r="DB66" s="11"/>
       <c r="DC66" s="11"/>
+      <c r="DD66" s="1"/>
     </row>
-    <row r="67" spans="1:107">
+    <row r="67" spans="1:108">
       <c r="A67" s="11" t="s">
         <v>529</v>
       </c>
@@ -12026,8 +12322,9 @@
       <c r="DC67" s="11" t="s">
         <v>536</v>
       </c>
+      <c r="DD67" s="41"/>
     </row>
-    <row r="68" spans="1:107">
+    <row r="68" spans="1:108">
       <c r="A68" s="11" t="s">
         <v>544</v>
       </c>
@@ -12041,7 +12338,7 @@
         <v>289</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>545</v>
@@ -12171,8 +12468,9 @@
       <c r="DA68" s="51"/>
       <c r="DB68" s="11"/>
       <c r="DC68" s="11"/>
+      <c r="DD68" s="1"/>
     </row>
-    <row r="69" spans="1:107">
+    <row r="69" spans="1:108">
       <c r="A69" s="1" t="s">
         <v>553</v>
       </c>
@@ -12180,7 +12478,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D69" s="41" t="s">
         <v>527</v>
@@ -12189,7 +12487,7 @@
         <v>290</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -12294,8 +12592,9 @@
       <c r="DA69" s="52"/>
       <c r="DB69" s="1"/>
       <c r="DC69" s="1"/>
+      <c r="DD69" s="1"/>
     </row>
-    <row r="70" spans="1:107">
+    <row r="70" spans="1:108">
       <c r="A70" s="1" t="s">
         <v>554</v>
       </c>
@@ -12303,7 +12602,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D70" s="41" t="s">
         <v>527</v>
@@ -12312,7 +12611,7 @@
         <v>290</v>
       </c>
       <c r="F70" s="41" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -12417,8 +12716,9 @@
       <c r="DA70" s="52"/>
       <c r="DB70" s="1"/>
       <c r="DC70" s="1"/>
+      <c r="DD70" s="1"/>
     </row>
-    <row r="71" spans="1:107">
+    <row r="71" spans="1:108">
       <c r="A71" s="1" t="s">
         <v>555</v>
       </c>
@@ -12426,7 +12726,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D71" s="41" t="s">
         <v>527</v>
@@ -12435,7 +12735,7 @@
         <v>290</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -12540,16 +12840,17 @@
       <c r="DA71" s="52"/>
       <c r="DB71" s="1"/>
       <c r="DC71" s="1"/>
+      <c r="DD71" s="1"/>
     </row>
-    <row r="72" spans="1:107">
+    <row r="72" spans="1:108">
       <c r="A72" s="1" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D72" s="41" t="s">
         <v>527</v>
@@ -12558,7 +12859,7 @@
         <v>290</v>
       </c>
       <c r="F72" s="41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -12663,30 +12964,33 @@
       <c r="DA72" s="52"/>
       <c r="DB72" s="1"/>
       <c r="DC72" s="1"/>
+      <c r="DD72" s="1"/>
     </row>
-    <row r="73" spans="1:107">
+    <row r="73" spans="1:108" ht="45">
       <c r="A73" s="1" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>258</v>
+        <v>556</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>258</v>
+        <v>527</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>565</v>
+        <v>290</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>566</v>
-      </c>
-      <c r="G73" s="1"/>
+        <v>582</v>
+      </c>
+      <c r="G73" s="55" t="s">
+        <v>583</v>
+      </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="53" t="s">
-        <v>562</v>
+      <c r="I73" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -12724,12 +13028,12 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
       <c r="AS73" s="1"/>
-      <c r="AT73" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="AT73" s="1"/>
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
-      <c r="AW73" s="27"/>
+      <c r="AW73" s="27" t="s">
+        <v>584</v>
+      </c>
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
@@ -12772,15 +13076,9 @@
       <c r="CK73" s="1"/>
       <c r="CL73" s="1"/>
       <c r="CM73" s="1"/>
-      <c r="CN73" s="1">
-        <v>168</v>
-      </c>
-      <c r="CO73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP73" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="CN73" s="1"/>
+      <c r="CO73" s="1"/>
+      <c r="CP73" s="1"/>
       <c r="CQ73" s="1"/>
       <c r="CR73" s="1"/>
       <c r="CS73" s="1"/>
@@ -12790,36 +13088,39 @@
       <c r="CW73" s="1"/>
       <c r="CX73" s="1"/>
       <c r="CY73" s="35"/>
-      <c r="CZ73" s="34"/>
-      <c r="DA73" s="52"/>
-      <c r="DB73" s="1" t="s">
-        <v>576</v>
-      </c>
+      <c r="CZ73" s="56"/>
+      <c r="DA73" s="39"/>
+      <c r="DB73" s="1"/>
       <c r="DC73" s="1"/>
+      <c r="DD73" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="74" spans="1:107">
+    <row r="74" spans="1:108" ht="30">
       <c r="A74" s="1" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>258</v>
+        <v>556</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>258</v>
+        <v>527</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>565</v>
+        <v>290</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>569</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>582</v>
+      </c>
+      <c r="G74" s="55" t="s">
+        <v>586</v>
+      </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="53" t="s">
-        <v>562</v>
+      <c r="I74" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -12857,12 +13158,12 @@
       <c r="AQ74" s="1"/>
       <c r="AR74" s="1"/>
       <c r="AS74" s="1"/>
-      <c r="AT74" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="AT74" s="1"/>
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
-      <c r="AW74" s="27"/>
+      <c r="AW74" s="27" t="s">
+        <v>587</v>
+      </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
@@ -12905,15 +13206,9 @@
       <c r="CK74" s="1"/>
       <c r="CL74" s="1"/>
       <c r="CM74" s="1"/>
-      <c r="CN74" s="1">
-        <v>168</v>
-      </c>
-      <c r="CO74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP74" s="1" t="s">
-        <v>577</v>
-      </c>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
       <c r="CQ74" s="1"/>
       <c r="CR74" s="1"/>
       <c r="CS74" s="1"/>
@@ -12923,36 +13218,39 @@
       <c r="CW74" s="1"/>
       <c r="CX74" s="1"/>
       <c r="CY74" s="35"/>
-      <c r="CZ74" s="34"/>
-      <c r="DA74" s="52"/>
-      <c r="DB74" s="1" t="s">
-        <v>578</v>
-      </c>
+      <c r="CZ74" s="56"/>
+      <c r="DA74" s="39"/>
+      <c r="DB74" s="1"/>
       <c r="DC74" s="1"/>
+      <c r="DD74" s="1" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="75" spans="1:107">
+    <row r="75" spans="1:108" ht="30">
       <c r="A75" s="1" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>258</v>
+        <v>556</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>258</v>
+        <v>527</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>565</v>
+        <v>290</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>570</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>582</v>
+      </c>
+      <c r="G75" s="55" t="s">
+        <v>589</v>
+      </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="53" t="s">
-        <v>562</v>
+      <c r="I75" s="54" t="s">
+        <v>183</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -12990,12 +13288,12 @@
       <c r="AQ75" s="1"/>
       <c r="AR75" s="1"/>
       <c r="AS75" s="1"/>
-      <c r="AT75" s="1" t="s">
-        <v>573</v>
-      </c>
+      <c r="AT75" s="1"/>
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
-      <c r="AW75" s="27"/>
+      <c r="AW75" s="27" t="s">
+        <v>590</v>
+      </c>
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
@@ -13038,15 +13336,9 @@
       <c r="CK75" s="1"/>
       <c r="CL75" s="1"/>
       <c r="CM75" s="1"/>
-      <c r="CN75" s="1">
-        <v>168</v>
-      </c>
-      <c r="CO75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CP75" s="1" t="s">
-        <v>579</v>
-      </c>
+      <c r="CN75" s="1"/>
+      <c r="CO75" s="1"/>
+      <c r="CP75" s="1"/>
       <c r="CQ75" s="1"/>
       <c r="CR75" s="1"/>
       <c r="CS75" s="1"/>
@@ -13056,12 +13348,3145 @@
       <c r="CW75" s="1"/>
       <c r="CX75" s="1"/>
       <c r="CY75" s="35"/>
-      <c r="CZ75" s="34"/>
-      <c r="DA75" s="52"/>
-      <c r="DB75" s="1" t="s">
-        <v>580</v>
-      </c>
+      <c r="CZ75" s="56"/>
+      <c r="DA75" s="39"/>
+      <c r="DB75" s="1"/>
       <c r="DC75" s="1"/>
+      <c r="DD75" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:108" ht="30">
+      <c r="A76" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F76" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G76" s="55" t="s">
+        <v>592</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1"/>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+      <c r="BD76" s="1"/>
+      <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
+      <c r="BG76" s="1"/>
+      <c r="BH76" s="1"/>
+      <c r="BI76" s="1"/>
+      <c r="BJ76" s="1"/>
+      <c r="BK76" s="1"/>
+      <c r="BL76" s="1"/>
+      <c r="BM76" s="1"/>
+      <c r="BN76" s="1"/>
+      <c r="BO76" s="1"/>
+      <c r="BP76" s="1"/>
+      <c r="BQ76" s="1"/>
+      <c r="BR76" s="1"/>
+      <c r="BS76" s="1"/>
+      <c r="BT76" s="1"/>
+      <c r="BU76" s="1"/>
+      <c r="BV76" s="1"/>
+      <c r="BW76" s="1"/>
+      <c r="BX76" s="1"/>
+      <c r="BY76" s="1"/>
+      <c r="BZ76" s="1"/>
+      <c r="CA76" s="1"/>
+      <c r="CB76" s="1"/>
+      <c r="CC76" s="1"/>
+      <c r="CD76" s="1"/>
+      <c r="CE76" s="1"/>
+      <c r="CF76" s="1"/>
+      <c r="CG76" s="1"/>
+      <c r="CH76" s="1"/>
+      <c r="CI76" s="1"/>
+      <c r="CJ76" s="1"/>
+      <c r="CK76" s="1"/>
+      <c r="CL76" s="1"/>
+      <c r="CM76" s="1"/>
+      <c r="CN76" s="1"/>
+      <c r="CO76" s="1"/>
+      <c r="CP76" s="1"/>
+      <c r="CQ76" s="1"/>
+      <c r="CR76" s="1"/>
+      <c r="CS76" s="1"/>
+      <c r="CT76" s="1"/>
+      <c r="CU76" s="1"/>
+      <c r="CV76" s="1"/>
+      <c r="CW76" s="1"/>
+      <c r="CX76" s="1"/>
+      <c r="CY76" s="35"/>
+      <c r="CZ76" s="56"/>
+      <c r="DA76" s="39"/>
+      <c r="DB76" s="1"/>
+      <c r="DC76" s="1"/>
+      <c r="DD76" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:108">
+      <c r="A77" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E77" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F77" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G77" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+      <c r="BD77" s="1"/>
+      <c r="BE77" s="1"/>
+      <c r="BF77" s="1"/>
+      <c r="BG77" s="1"/>
+      <c r="BH77" s="1"/>
+      <c r="BI77" s="1"/>
+      <c r="BJ77" s="1"/>
+      <c r="BK77" s="1"/>
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="1"/>
+      <c r="BN77" s="1"/>
+      <c r="BO77" s="1"/>
+      <c r="BP77" s="1"/>
+      <c r="BQ77" s="1"/>
+      <c r="BR77" s="1"/>
+      <c r="BS77" s="1"/>
+      <c r="BT77" s="1"/>
+      <c r="BU77" s="1"/>
+      <c r="BV77" s="1"/>
+      <c r="BW77" s="1"/>
+      <c r="BX77" s="1"/>
+      <c r="BY77" s="1"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="1"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="1"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="1"/>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="1"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="1"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="1"/>
+      <c r="CT77" s="1"/>
+      <c r="CU77" s="1"/>
+      <c r="CV77" s="1"/>
+      <c r="CW77" s="1"/>
+      <c r="CX77" s="1"/>
+      <c r="CY77" s="35"/>
+      <c r="CZ77" s="56"/>
+      <c r="DA77" s="39"/>
+      <c r="DB77" s="1"/>
+      <c r="DC77" s="1"/>
+      <c r="DD77" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:108" ht="30">
+      <c r="A78" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E78" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G78" s="55" t="s">
+        <v>598</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+      <c r="BD78" s="1"/>
+      <c r="BE78" s="1"/>
+      <c r="BF78" s="1"/>
+      <c r="BG78" s="1"/>
+      <c r="BH78" s="1"/>
+      <c r="BI78" s="1"/>
+      <c r="BJ78" s="1"/>
+      <c r="BK78" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="1"/>
+      <c r="BN78" s="1"/>
+      <c r="BO78" s="1"/>
+      <c r="BP78" s="1"/>
+      <c r="BQ78" s="1"/>
+      <c r="BR78" s="1"/>
+      <c r="BS78" s="1"/>
+      <c r="BT78" s="1"/>
+      <c r="BU78" s="1"/>
+      <c r="BV78" s="1"/>
+      <c r="BW78" s="1"/>
+      <c r="BX78" s="1"/>
+      <c r="BY78" s="1"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
+      <c r="CT78" s="1"/>
+      <c r="CU78" s="1"/>
+      <c r="CV78" s="1"/>
+      <c r="CW78" s="1"/>
+      <c r="CX78" s="1"/>
+      <c r="CY78" s="35"/>
+      <c r="CZ78" s="56"/>
+      <c r="DA78" s="39"/>
+      <c r="DB78" s="1"/>
+      <c r="DC78" s="1"/>
+      <c r="DD78" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:108">
+      <c r="A79" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G79" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="1"/>
+      <c r="BF79" s="1"/>
+      <c r="BG79" s="1"/>
+      <c r="BH79" s="1"/>
+      <c r="BI79" s="1"/>
+      <c r="BJ79" s="1"/>
+      <c r="BK79" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="1"/>
+      <c r="BN79" s="1"/>
+      <c r="BO79" s="1"/>
+      <c r="BP79" s="1"/>
+      <c r="BQ79" s="1"/>
+      <c r="BR79" s="1"/>
+      <c r="BS79" s="1"/>
+      <c r="BT79" s="1"/>
+      <c r="BU79" s="1"/>
+      <c r="BV79" s="1"/>
+      <c r="BW79" s="1"/>
+      <c r="BX79" s="1"/>
+      <c r="BY79" s="1"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="1"/>
+      <c r="CB79" s="1"/>
+      <c r="CC79" s="1"/>
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="1"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="1"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="1"/>
+      <c r="CJ79" s="1"/>
+      <c r="CK79" s="1"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="1"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="1"/>
+      <c r="CS79" s="1"/>
+      <c r="CT79" s="1"/>
+      <c r="CU79" s="1"/>
+      <c r="CV79" s="1"/>
+      <c r="CW79" s="1"/>
+      <c r="CX79" s="1"/>
+      <c r="CY79" s="35"/>
+      <c r="CZ79" s="56"/>
+      <c r="DA79" s="39"/>
+      <c r="DB79" s="1"/>
+      <c r="DC79" s="1"/>
+      <c r="DD79" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:108">
+      <c r="A80" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F80" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G80" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+      <c r="BQ80" s="1"/>
+      <c r="BR80" s="1"/>
+      <c r="BS80" s="1"/>
+      <c r="BT80" s="1"/>
+      <c r="BU80" s="1"/>
+      <c r="BV80" s="1"/>
+      <c r="BW80" s="1"/>
+      <c r="BX80" s="1"/>
+      <c r="BY80" s="1"/>
+      <c r="BZ80" s="1"/>
+      <c r="CA80" s="1"/>
+      <c r="CB80" s="1"/>
+      <c r="CC80" s="1"/>
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="1"/>
+      <c r="CF80" s="1"/>
+      <c r="CG80" s="1"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="1"/>
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="1"/>
+      <c r="CS80" s="1"/>
+      <c r="CT80" s="1"/>
+      <c r="CU80" s="1"/>
+      <c r="CV80" s="1"/>
+      <c r="CW80" s="1"/>
+      <c r="CX80" s="1"/>
+      <c r="CY80" s="35"/>
+      <c r="CZ80" s="56"/>
+      <c r="DA80" s="39"/>
+      <c r="DB80" s="1"/>
+      <c r="DC80" s="1"/>
+      <c r="DD80" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:108">
+      <c r="A81" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G81" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AP81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+      <c r="AV81" s="1"/>
+      <c r="AW81" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="AX81" s="1"/>
+      <c r="AY81" s="1"/>
+      <c r="AZ81" s="1"/>
+      <c r="BA81" s="1"/>
+      <c r="BB81" s="1"/>
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="1"/>
+      <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
+      <c r="BG81" s="1"/>
+      <c r="BH81" s="1"/>
+      <c r="BI81" s="1"/>
+      <c r="BJ81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="1"/>
+      <c r="BM81" s="1"/>
+      <c r="BN81" s="1"/>
+      <c r="BO81" s="1"/>
+      <c r="BP81" s="1"/>
+      <c r="BQ81" s="1"/>
+      <c r="BR81" s="1"/>
+      <c r="BS81" s="1"/>
+      <c r="BT81" s="1"/>
+      <c r="BU81" s="1"/>
+      <c r="BV81" s="1"/>
+      <c r="BW81" s="1"/>
+      <c r="BX81" s="1"/>
+      <c r="BY81" s="1"/>
+      <c r="BZ81" s="1"/>
+      <c r="CA81" s="1"/>
+      <c r="CB81" s="1"/>
+      <c r="CC81" s="1"/>
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="1"/>
+      <c r="CF81" s="1"/>
+      <c r="CG81" s="1"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="1"/>
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="1"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="1"/>
+      <c r="CS81" s="1"/>
+      <c r="CT81" s="1"/>
+      <c r="CU81" s="1"/>
+      <c r="CV81" s="1"/>
+      <c r="CW81" s="1"/>
+      <c r="CX81" s="1"/>
+      <c r="CY81" s="35"/>
+      <c r="CZ81" s="56"/>
+      <c r="DA81" s="39"/>
+      <c r="DB81" s="1"/>
+      <c r="DC81" s="1"/>
+      <c r="DD81" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:108">
+      <c r="A82" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E82" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F82" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G82" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="1"/>
+      <c r="AO82" s="1"/>
+      <c r="AP82" s="1"/>
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+      <c r="AV82" s="1"/>
+      <c r="AW82" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="AX82" s="1"/>
+      <c r="AY82" s="1"/>
+      <c r="AZ82" s="1"/>
+      <c r="BA82" s="1"/>
+      <c r="BB82" s="1"/>
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="1"/>
+      <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
+      <c r="BG82" s="1"/>
+      <c r="BH82" s="1"/>
+      <c r="BI82" s="1"/>
+      <c r="BJ82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="1"/>
+      <c r="BM82" s="1"/>
+      <c r="BN82" s="1"/>
+      <c r="BO82" s="1"/>
+      <c r="BP82" s="1"/>
+      <c r="BQ82" s="1"/>
+      <c r="BR82" s="1"/>
+      <c r="BS82" s="1"/>
+      <c r="BT82" s="1"/>
+      <c r="BU82" s="1"/>
+      <c r="BV82" s="1"/>
+      <c r="BW82" s="1"/>
+      <c r="BX82" s="1"/>
+      <c r="BY82" s="1"/>
+      <c r="BZ82" s="1"/>
+      <c r="CA82" s="1"/>
+      <c r="CB82" s="1"/>
+      <c r="CC82" s="1"/>
+      <c r="CD82" s="1"/>
+      <c r="CE82" s="1"/>
+      <c r="CF82" s="1"/>
+      <c r="CG82" s="1"/>
+      <c r="CH82" s="1"/>
+      <c r="CI82" s="1"/>
+      <c r="CJ82" s="1"/>
+      <c r="CK82" s="1"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="1"/>
+      <c r="CS82" s="1"/>
+      <c r="CT82" s="1"/>
+      <c r="CU82" s="1"/>
+      <c r="CV82" s="1"/>
+      <c r="CW82" s="1"/>
+      <c r="CX82" s="1"/>
+      <c r="CY82" s="35"/>
+      <c r="CZ82" s="56"/>
+      <c r="DA82" s="39"/>
+      <c r="DB82" s="1"/>
+      <c r="DC82" s="1"/>
+      <c r="DD82" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:108">
+      <c r="A83" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E83" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G83" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AP83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+      <c r="AV83" s="1"/>
+      <c r="AW83" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="AX83" s="1"/>
+      <c r="AY83" s="1"/>
+      <c r="AZ83" s="1"/>
+      <c r="BA83" s="1"/>
+      <c r="BB83" s="1"/>
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="1"/>
+      <c r="BE83" s="1"/>
+      <c r="BF83" s="1"/>
+      <c r="BG83" s="1"/>
+      <c r="BH83" s="1"/>
+      <c r="BI83" s="1"/>
+      <c r="BJ83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="1"/>
+      <c r="BM83" s="1"/>
+      <c r="BN83" s="1"/>
+      <c r="BO83" s="1"/>
+      <c r="BP83" s="1"/>
+      <c r="BQ83" s="1"/>
+      <c r="BR83" s="1"/>
+      <c r="BS83" s="1"/>
+      <c r="BT83" s="1"/>
+      <c r="BU83" s="1"/>
+      <c r="BV83" s="1"/>
+      <c r="BW83" s="1"/>
+      <c r="BX83" s="1"/>
+      <c r="BY83" s="1"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="1"/>
+      <c r="CB83" s="1"/>
+      <c r="CC83" s="1"/>
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="1"/>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="1"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="1"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="1"/>
+      <c r="CT83" s="1"/>
+      <c r="CU83" s="1"/>
+      <c r="CV83" s="1"/>
+      <c r="CW83" s="1"/>
+      <c r="CX83" s="1"/>
+      <c r="CY83" s="35"/>
+      <c r="CZ83" s="56"/>
+      <c r="DA83" s="39"/>
+      <c r="DB83" s="1"/>
+      <c r="DC83" s="1"/>
+      <c r="DD83" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:108" ht="30">
+      <c r="A84" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E84" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F84" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G84" s="55" t="s">
+        <v>615</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+      <c r="AA84" s="1"/>
+      <c r="AB84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="1"/>
+      <c r="AF84" s="1"/>
+      <c r="AG84" s="1"/>
+      <c r="AH84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AJ84" s="1"/>
+      <c r="AK84" s="1"/>
+      <c r="AL84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="1"/>
+      <c r="AO84" s="1"/>
+      <c r="AP84" s="1"/>
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+      <c r="AV84" s="1"/>
+      <c r="AW84" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="AX84" s="1"/>
+      <c r="AY84" s="1"/>
+      <c r="AZ84" s="1"/>
+      <c r="BA84" s="1"/>
+      <c r="BB84" s="1"/>
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="1"/>
+      <c r="BE84" s="1"/>
+      <c r="BF84" s="1"/>
+      <c r="BG84" s="1"/>
+      <c r="BH84" s="1"/>
+      <c r="BI84" s="1"/>
+      <c r="BJ84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="1"/>
+      <c r="BM84" s="1"/>
+      <c r="BN84" s="1"/>
+      <c r="BO84" s="1"/>
+      <c r="BP84" s="1"/>
+      <c r="BQ84" s="1"/>
+      <c r="BR84" s="1"/>
+      <c r="BS84" s="1"/>
+      <c r="BT84" s="1"/>
+      <c r="BU84" s="1"/>
+      <c r="BV84" s="1"/>
+      <c r="BW84" s="1"/>
+      <c r="BX84" s="1"/>
+      <c r="BY84" s="1"/>
+      <c r="BZ84" s="1"/>
+      <c r="CA84" s="1"/>
+      <c r="CB84" s="1"/>
+      <c r="CC84" s="1"/>
+      <c r="CD84" s="1"/>
+      <c r="CE84" s="1"/>
+      <c r="CF84" s="1"/>
+      <c r="CG84" s="1"/>
+      <c r="CH84" s="1"/>
+      <c r="CI84" s="1"/>
+      <c r="CJ84" s="1"/>
+      <c r="CK84" s="1"/>
+      <c r="CL84" s="1"/>
+      <c r="CM84" s="1"/>
+      <c r="CN84" s="1"/>
+      <c r="CO84" s="1"/>
+      <c r="CP84" s="1"/>
+      <c r="CQ84" s="1"/>
+      <c r="CR84" s="1"/>
+      <c r="CS84" s="1"/>
+      <c r="CT84" s="1"/>
+      <c r="CU84" s="1"/>
+      <c r="CV84" s="1"/>
+      <c r="CW84" s="1"/>
+      <c r="CX84" s="1"/>
+      <c r="CY84" s="35"/>
+      <c r="CZ84" s="56"/>
+      <c r="DA84" s="39"/>
+      <c r="DB84" s="1"/>
+      <c r="DC84" s="1"/>
+      <c r="DD84" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:108">
+      <c r="A85" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E85" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G85" s="55" t="s">
+        <v>618</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AB85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AF85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AH85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AJ85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AL85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AP85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+      <c r="AV85" s="1"/>
+      <c r="AW85" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="AX85" s="1"/>
+      <c r="AY85" s="1"/>
+      <c r="AZ85" s="1"/>
+      <c r="BA85" s="1"/>
+      <c r="BB85" s="1"/>
+      <c r="BC85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
+      <c r="BG85" s="1"/>
+      <c r="BH85" s="1"/>
+      <c r="BI85" s="1"/>
+      <c r="BJ85" s="1"/>
+      <c r="BK85" s="1"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="1"/>
+      <c r="BN85" s="1"/>
+      <c r="BO85" s="1"/>
+      <c r="BP85" s="1"/>
+      <c r="BQ85" s="1"/>
+      <c r="BR85" s="1"/>
+      <c r="BS85" s="1"/>
+      <c r="BT85" s="1"/>
+      <c r="BU85" s="1"/>
+      <c r="BV85" s="1"/>
+      <c r="BW85" s="1"/>
+      <c r="BX85" s="1"/>
+      <c r="BY85" s="1"/>
+      <c r="BZ85" s="1"/>
+      <c r="CA85" s="1"/>
+      <c r="CB85" s="1"/>
+      <c r="CC85" s="1"/>
+      <c r="CD85" s="1"/>
+      <c r="CE85" s="1"/>
+      <c r="CF85" s="1"/>
+      <c r="CG85" s="1"/>
+      <c r="CH85" s="1"/>
+      <c r="CI85" s="1"/>
+      <c r="CJ85" s="1"/>
+      <c r="CK85" s="1"/>
+      <c r="CL85" s="1"/>
+      <c r="CM85" s="1"/>
+      <c r="CN85" s="1"/>
+      <c r="CO85" s="1"/>
+      <c r="CP85" s="1"/>
+      <c r="CQ85" s="1"/>
+      <c r="CR85" s="1"/>
+      <c r="CS85" s="1"/>
+      <c r="CT85" s="1"/>
+      <c r="CU85" s="1"/>
+      <c r="CV85" s="1"/>
+      <c r="CW85" s="1"/>
+      <c r="CX85" s="1"/>
+      <c r="CY85" s="35"/>
+      <c r="CZ85" s="56"/>
+      <c r="DA85" s="39"/>
+      <c r="DB85" s="1"/>
+      <c r="DC85" s="1"/>
+      <c r="DD85" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:108">
+      <c r="A86" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E86" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G86" s="55" t="s">
+        <v>621</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+      <c r="AA86" s="1"/>
+      <c r="AB86" s="1"/>
+      <c r="AC86" s="1"/>
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="1"/>
+      <c r="AG86" s="1"/>
+      <c r="AH86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AJ86" s="1"/>
+      <c r="AK86" s="1"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="1"/>
+      <c r="AO86" s="1"/>
+      <c r="AP86" s="1"/>
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+      <c r="AV86" s="1"/>
+      <c r="AW86" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="AX86" s="1"/>
+      <c r="AY86" s="1"/>
+      <c r="AZ86" s="1"/>
+      <c r="BA86" s="1"/>
+      <c r="BB86" s="1"/>
+      <c r="BC86" s="1"/>
+      <c r="BD86" s="1"/>
+      <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
+      <c r="BG86" s="1"/>
+      <c r="BH86" s="1"/>
+      <c r="BI86" s="1"/>
+      <c r="BJ86" s="1"/>
+      <c r="BK86" s="1"/>
+      <c r="BL86" s="1"/>
+      <c r="BM86" s="1"/>
+      <c r="BN86" s="1"/>
+      <c r="BO86" s="1"/>
+      <c r="BP86" s="1"/>
+      <c r="BQ86" s="1"/>
+      <c r="BR86" s="1"/>
+      <c r="BS86" s="1"/>
+      <c r="BT86" s="1"/>
+      <c r="BU86" s="1"/>
+      <c r="BV86" s="1"/>
+      <c r="BW86" s="1"/>
+      <c r="BX86" s="1"/>
+      <c r="BY86" s="1"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
+      <c r="CT86" s="1"/>
+      <c r="CU86" s="1"/>
+      <c r="CV86" s="1"/>
+      <c r="CW86" s="1"/>
+      <c r="CX86" s="1"/>
+      <c r="CY86" s="35"/>
+      <c r="CZ86" s="56"/>
+      <c r="DA86" s="39"/>
+      <c r="DB86" s="1"/>
+      <c r="DC86" s="1"/>
+      <c r="DD86" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:108" ht="30">
+      <c r="A87" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>624</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+      <c r="BD87" s="1"/>
+      <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
+      <c r="BG87" s="1"/>
+      <c r="BH87" s="1"/>
+      <c r="BI87" s="1"/>
+      <c r="BJ87" s="1"/>
+      <c r="BK87" s="1"/>
+      <c r="BL87" s="1"/>
+      <c r="BM87" s="1"/>
+      <c r="BN87" s="1"/>
+      <c r="BO87" s="1"/>
+      <c r="BP87" s="1"/>
+      <c r="BQ87" s="1"/>
+      <c r="BR87" s="1"/>
+      <c r="BS87" s="1"/>
+      <c r="BT87" s="1"/>
+      <c r="BU87" s="1"/>
+      <c r="BV87" s="1"/>
+      <c r="BW87" s="1"/>
+      <c r="BX87" s="1"/>
+      <c r="BY87" s="1"/>
+      <c r="BZ87" s="1"/>
+      <c r="CA87" s="1"/>
+      <c r="CB87" s="1"/>
+      <c r="CC87" s="1"/>
+      <c r="CD87" s="1"/>
+      <c r="CE87" s="1"/>
+      <c r="CF87" s="1"/>
+      <c r="CG87" s="1"/>
+      <c r="CH87" s="1"/>
+      <c r="CI87" s="1"/>
+      <c r="CJ87" s="1"/>
+      <c r="CK87" s="1"/>
+      <c r="CL87" s="1"/>
+      <c r="CM87" s="1"/>
+      <c r="CN87" s="1"/>
+      <c r="CO87" s="1"/>
+      <c r="CP87" s="1"/>
+      <c r="CQ87" s="1"/>
+      <c r="CR87" s="1"/>
+      <c r="CS87" s="1"/>
+      <c r="CT87" s="1"/>
+      <c r="CU87" s="1"/>
+      <c r="CV87" s="1"/>
+      <c r="CW87" s="1"/>
+      <c r="CX87" s="1"/>
+      <c r="CY87" s="35"/>
+      <c r="CZ87" s="56"/>
+      <c r="DA87" s="39"/>
+      <c r="DB87" s="1"/>
+      <c r="DC87" s="1"/>
+      <c r="DD87" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:108" ht="30">
+      <c r="A88" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E88" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F88" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+      <c r="BD88" s="1"/>
+      <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
+      <c r="BG88" s="1"/>
+      <c r="BH88" s="1"/>
+      <c r="BI88" s="1"/>
+      <c r="BJ88" s="1"/>
+      <c r="BK88" s="1"/>
+      <c r="BL88" s="1"/>
+      <c r="BM88" s="1"/>
+      <c r="BN88" s="1"/>
+      <c r="BO88" s="1"/>
+      <c r="BP88" s="1"/>
+      <c r="BQ88" s="1"/>
+      <c r="BR88" s="1"/>
+      <c r="BS88" s="1"/>
+      <c r="BT88" s="1"/>
+      <c r="BU88" s="1"/>
+      <c r="BV88" s="1"/>
+      <c r="BW88" s="1"/>
+      <c r="BX88" s="1"/>
+      <c r="BY88" s="1"/>
+      <c r="BZ88" s="1"/>
+      <c r="CA88" s="1"/>
+      <c r="CB88" s="1"/>
+      <c r="CC88" s="1"/>
+      <c r="CD88" s="1"/>
+      <c r="CE88" s="1"/>
+      <c r="CF88" s="1"/>
+      <c r="CG88" s="1"/>
+      <c r="CH88" s="1"/>
+      <c r="CI88" s="1"/>
+      <c r="CJ88" s="1"/>
+      <c r="CK88" s="1"/>
+      <c r="CL88" s="1"/>
+      <c r="CM88" s="1"/>
+      <c r="CN88" s="1"/>
+      <c r="CO88" s="1"/>
+      <c r="CP88" s="1"/>
+      <c r="CQ88" s="1"/>
+      <c r="CR88" s="1"/>
+      <c r="CS88" s="1"/>
+      <c r="CT88" s="1"/>
+      <c r="CU88" s="1"/>
+      <c r="CV88" s="1"/>
+      <c r="CW88" s="1"/>
+      <c r="CX88" s="1"/>
+      <c r="CY88" s="35"/>
+      <c r="CZ88" s="56"/>
+      <c r="DA88" s="39"/>
+      <c r="DB88" s="1"/>
+      <c r="DC88" s="1"/>
+      <c r="DD88" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:108">
+      <c r="A89" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G89" s="55" t="s">
+        <v>630</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+      <c r="AA89" s="1"/>
+      <c r="AB89" s="1"/>
+      <c r="AC89" s="1"/>
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AJ89" s="1"/>
+      <c r="AK89" s="1"/>
+      <c r="AL89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="1"/>
+      <c r="AO89" s="1"/>
+      <c r="AP89" s="1"/>
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+      <c r="AV89" s="1"/>
+      <c r="AW89" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="AX89" s="1"/>
+      <c r="AY89" s="1"/>
+      <c r="AZ89" s="1"/>
+      <c r="BA89" s="1"/>
+      <c r="BB89" s="1"/>
+      <c r="BC89" s="1"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
+      <c r="BG89" s="1"/>
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="1"/>
+      <c r="BJ89" s="1"/>
+      <c r="BK89" s="1"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="1"/>
+      <c r="BN89" s="1"/>
+      <c r="BO89" s="1"/>
+      <c r="BP89" s="1"/>
+      <c r="BQ89" s="1"/>
+      <c r="BR89" s="1"/>
+      <c r="BS89" s="1"/>
+      <c r="BT89" s="1"/>
+      <c r="BU89" s="1"/>
+      <c r="BV89" s="1"/>
+      <c r="BW89" s="1"/>
+      <c r="BX89" s="1"/>
+      <c r="BY89" s="1"/>
+      <c r="BZ89" s="1"/>
+      <c r="CA89" s="1"/>
+      <c r="CB89" s="1"/>
+      <c r="CC89" s="1"/>
+      <c r="CD89" s="1"/>
+      <c r="CE89" s="1"/>
+      <c r="CF89" s="1"/>
+      <c r="CG89" s="1"/>
+      <c r="CH89" s="1"/>
+      <c r="CI89" s="1"/>
+      <c r="CJ89" s="1"/>
+      <c r="CK89" s="1"/>
+      <c r="CL89" s="1"/>
+      <c r="CM89" s="1"/>
+      <c r="CN89" s="1"/>
+      <c r="CO89" s="1"/>
+      <c r="CP89" s="1"/>
+      <c r="CQ89" s="1"/>
+      <c r="CR89" s="1"/>
+      <c r="CS89" s="1"/>
+      <c r="CT89" s="1"/>
+      <c r="CU89" s="1"/>
+      <c r="CV89" s="1"/>
+      <c r="CW89" s="1"/>
+      <c r="CX89" s="1"/>
+      <c r="CY89" s="35"/>
+      <c r="CZ89" s="56"/>
+      <c r="DA89" s="39"/>
+      <c r="DB89" s="1"/>
+      <c r="DC89" s="1"/>
+      <c r="DD89" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:108">
+      <c r="A90" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G90" s="55" t="s">
+        <v>633</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1"/>
+      <c r="AA90" s="1"/>
+      <c r="AB90" s="1"/>
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AK90" s="1"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="AW90" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
+      <c r="BA90" s="1"/>
+      <c r="BB90" s="1"/>
+      <c r="BC90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="1"/>
+      <c r="BN90" s="1"/>
+      <c r="BO90" s="1"/>
+      <c r="BP90" s="1"/>
+      <c r="BQ90" s="1"/>
+      <c r="BR90" s="1"/>
+      <c r="BS90" s="1"/>
+      <c r="BT90" s="1"/>
+      <c r="BU90" s="1"/>
+      <c r="BV90" s="1"/>
+      <c r="BW90" s="1"/>
+      <c r="BX90" s="1"/>
+      <c r="BY90" s="1"/>
+      <c r="BZ90" s="1"/>
+      <c r="CA90" s="1"/>
+      <c r="CB90" s="1"/>
+      <c r="CC90" s="1"/>
+      <c r="CD90" s="1"/>
+      <c r="CE90" s="1"/>
+      <c r="CF90" s="1"/>
+      <c r="CG90" s="1"/>
+      <c r="CH90" s="1"/>
+      <c r="CI90" s="1"/>
+      <c r="CJ90" s="1"/>
+      <c r="CK90" s="1"/>
+      <c r="CL90" s="1"/>
+      <c r="CM90" s="1"/>
+      <c r="CN90" s="1"/>
+      <c r="CO90" s="1"/>
+      <c r="CP90" s="1"/>
+      <c r="CQ90" s="1"/>
+      <c r="CR90" s="1"/>
+      <c r="CS90" s="1"/>
+      <c r="CT90" s="1"/>
+      <c r="CU90" s="1"/>
+      <c r="CV90" s="1"/>
+      <c r="CW90" s="1"/>
+      <c r="CX90" s="1"/>
+      <c r="CY90" s="35"/>
+      <c r="CZ90" s="56"/>
+      <c r="DA90" s="39"/>
+      <c r="DB90" s="1"/>
+      <c r="DC90" s="1"/>
+      <c r="DD90" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:108">
+      <c r="A91" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E91" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G91" s="55" t="s">
+        <v>636</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1"/>
+      <c r="AA91" s="1"/>
+      <c r="AB91" s="1"/>
+      <c r="AC91" s="1"/>
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="1"/>
+      <c r="AF91" s="1"/>
+      <c r="AG91" s="1"/>
+      <c r="AH91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AJ91" s="1"/>
+      <c r="AK91" s="1"/>
+      <c r="AL91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="1"/>
+      <c r="AO91" s="1"/>
+      <c r="AP91" s="1"/>
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+      <c r="AV91" s="1"/>
+      <c r="AW91" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="AX91" s="1"/>
+      <c r="AY91" s="1"/>
+      <c r="AZ91" s="1"/>
+      <c r="BA91" s="1"/>
+      <c r="BB91" s="1"/>
+      <c r="BC91" s="1"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
+      <c r="BG91" s="1"/>
+      <c r="BH91" s="1"/>
+      <c r="BI91" s="1"/>
+      <c r="BJ91" s="1"/>
+      <c r="BK91" s="1"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="1"/>
+      <c r="BN91" s="1"/>
+      <c r="BO91" s="1"/>
+      <c r="BP91" s="1"/>
+      <c r="BQ91" s="1"/>
+      <c r="BR91" s="1"/>
+      <c r="BS91" s="1"/>
+      <c r="BT91" s="1"/>
+      <c r="BU91" s="1"/>
+      <c r="BV91" s="1"/>
+      <c r="BW91" s="1"/>
+      <c r="BX91" s="1"/>
+      <c r="BY91" s="1"/>
+      <c r="BZ91" s="1"/>
+      <c r="CA91" s="1"/>
+      <c r="CB91" s="1"/>
+      <c r="CC91" s="1"/>
+      <c r="CD91" s="1"/>
+      <c r="CE91" s="1"/>
+      <c r="CF91" s="1"/>
+      <c r="CG91" s="1"/>
+      <c r="CH91" s="1"/>
+      <c r="CI91" s="1"/>
+      <c r="CJ91" s="1"/>
+      <c r="CK91" s="1"/>
+      <c r="CL91" s="1"/>
+      <c r="CM91" s="1"/>
+      <c r="CN91" s="1"/>
+      <c r="CO91" s="1"/>
+      <c r="CP91" s="1"/>
+      <c r="CQ91" s="1"/>
+      <c r="CR91" s="1"/>
+      <c r="CS91" s="1"/>
+      <c r="CT91" s="1"/>
+      <c r="CU91" s="1"/>
+      <c r="CV91" s="1"/>
+      <c r="CW91" s="1"/>
+      <c r="CX91" s="1"/>
+      <c r="CY91" s="35"/>
+      <c r="CZ91" s="56"/>
+      <c r="DA91" s="39"/>
+      <c r="DB91" s="1"/>
+      <c r="DC91" s="1"/>
+      <c r="DD91" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:108" ht="30">
+      <c r="A92" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E92" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G92" s="55" t="s">
+        <v>638</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="1"/>
+      <c r="AK92" s="1"/>
+      <c r="AL92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="1"/>
+      <c r="AO92" s="1"/>
+      <c r="AP92" s="1"/>
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+      <c r="AV92" s="1"/>
+      <c r="AW92" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="AX92" s="1"/>
+      <c r="AY92" s="1"/>
+      <c r="AZ92" s="1"/>
+      <c r="BA92" s="1"/>
+      <c r="BB92" s="1"/>
+      <c r="BC92" s="1"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
+      <c r="BG92" s="1"/>
+      <c r="BH92" s="1"/>
+      <c r="BI92" s="1"/>
+      <c r="BJ92" s="1"/>
+      <c r="BK92" s="1"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="1"/>
+      <c r="BN92" s="1"/>
+      <c r="BO92" s="1"/>
+      <c r="BP92" s="1"/>
+      <c r="BQ92" s="1"/>
+      <c r="BR92" s="1"/>
+      <c r="BS92" s="1"/>
+      <c r="BT92" s="1"/>
+      <c r="BU92" s="1"/>
+      <c r="BV92" s="1"/>
+      <c r="BW92" s="1"/>
+      <c r="BX92" s="1"/>
+      <c r="BY92" s="1"/>
+      <c r="BZ92" s="1"/>
+      <c r="CA92" s="1"/>
+      <c r="CB92" s="1"/>
+      <c r="CC92" s="1"/>
+      <c r="CD92" s="1"/>
+      <c r="CE92" s="1"/>
+      <c r="CF92" s="1"/>
+      <c r="CG92" s="1"/>
+      <c r="CH92" s="1"/>
+      <c r="CI92" s="1"/>
+      <c r="CJ92" s="1"/>
+      <c r="CK92" s="1"/>
+      <c r="CL92" s="1"/>
+      <c r="CM92" s="1"/>
+      <c r="CN92" s="1"/>
+      <c r="CO92" s="1"/>
+      <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="1"/>
+      <c r="CS92" s="1"/>
+      <c r="CT92" s="1"/>
+      <c r="CU92" s="1"/>
+      <c r="CV92" s="1"/>
+      <c r="CW92" s="1"/>
+      <c r="CX92" s="1"/>
+      <c r="CY92" s="35"/>
+      <c r="CZ92" s="56"/>
+      <c r="DA92" s="39"/>
+      <c r="DB92" s="1"/>
+      <c r="DC92" s="1"/>
+      <c r="DD92" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:108" ht="30">
+      <c r="A93" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G93" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="1"/>
+      <c r="AO93" s="1"/>
+      <c r="AP93" s="1"/>
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+      <c r="AV93" s="1"/>
+      <c r="AW93" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="AX93" s="1"/>
+      <c r="AY93" s="1"/>
+      <c r="AZ93" s="1"/>
+      <c r="BA93" s="1"/>
+      <c r="BB93" s="1"/>
+      <c r="BC93" s="1"/>
+      <c r="BD93" s="1"/>
+      <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
+      <c r="BG93" s="1"/>
+      <c r="BH93" s="1"/>
+      <c r="BI93" s="1"/>
+      <c r="BJ93" s="1"/>
+      <c r="BK93" s="1"/>
+      <c r="BL93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+      <c r="BP93" s="1"/>
+      <c r="BQ93" s="1"/>
+      <c r="BR93" s="1"/>
+      <c r="BS93" s="1"/>
+      <c r="BT93" s="1"/>
+      <c r="BU93" s="1"/>
+      <c r="BV93" s="1"/>
+      <c r="BW93" s="1"/>
+      <c r="BX93" s="1"/>
+      <c r="BY93" s="1"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" s="1"/>
+      <c r="CH93" s="1"/>
+      <c r="CI93" s="1"/>
+      <c r="CJ93" s="1"/>
+      <c r="CK93" s="1"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="1"/>
+      <c r="CS93" s="1"/>
+      <c r="CT93" s="1"/>
+      <c r="CU93" s="1"/>
+      <c r="CV93" s="1"/>
+      <c r="CW93" s="1"/>
+      <c r="CX93" s="1"/>
+      <c r="CY93" s="35"/>
+      <c r="CZ93" s="56"/>
+      <c r="DA93" s="39"/>
+      <c r="DB93" s="1"/>
+      <c r="DC93" s="1"/>
+      <c r="DD93" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:108">
+      <c r="A94" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G94" s="55" t="s">
+        <v>642</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="X94" s="1"/>
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1"/>
+      <c r="AA94" s="1"/>
+      <c r="AB94" s="1"/>
+      <c r="AC94" s="1"/>
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="1"/>
+      <c r="AF94" s="1"/>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="1"/>
+      <c r="AO94" s="1"/>
+      <c r="AP94" s="1"/>
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+      <c r="AV94" s="1"/>
+      <c r="AW94" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="AX94" s="1"/>
+      <c r="AY94" s="1"/>
+      <c r="AZ94" s="1"/>
+      <c r="BA94" s="1"/>
+      <c r="BB94" s="1"/>
+      <c r="BC94" s="1"/>
+      <c r="BD94" s="1"/>
+      <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
+      <c r="BG94" s="1"/>
+      <c r="BH94" s="1"/>
+      <c r="BI94" s="1"/>
+      <c r="BJ94" s="1"/>
+      <c r="BK94" s="1"/>
+      <c r="BL94" s="1"/>
+      <c r="BM94" s="1"/>
+      <c r="BN94" s="1"/>
+      <c r="BO94" s="1"/>
+      <c r="BP94" s="1"/>
+      <c r="BQ94" s="1"/>
+      <c r="BR94" s="1"/>
+      <c r="BS94" s="1"/>
+      <c r="BT94" s="1"/>
+      <c r="BU94" s="1"/>
+      <c r="BV94" s="1"/>
+      <c r="BW94" s="1"/>
+      <c r="BX94" s="1"/>
+      <c r="BY94" s="1"/>
+      <c r="BZ94" s="1"/>
+      <c r="CA94" s="1"/>
+      <c r="CB94" s="1"/>
+      <c r="CC94" s="1"/>
+      <c r="CD94" s="1"/>
+      <c r="CE94" s="1"/>
+      <c r="CF94" s="1"/>
+      <c r="CG94" s="1"/>
+      <c r="CH94" s="1"/>
+      <c r="CI94" s="1"/>
+      <c r="CJ94" s="1"/>
+      <c r="CK94" s="1"/>
+      <c r="CL94" s="1"/>
+      <c r="CM94" s="1"/>
+      <c r="CN94" s="1"/>
+      <c r="CO94" s="1"/>
+      <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="1"/>
+      <c r="CS94" s="1"/>
+      <c r="CT94" s="1"/>
+      <c r="CU94" s="1"/>
+      <c r="CV94" s="1"/>
+      <c r="CW94" s="1"/>
+      <c r="CX94" s="1"/>
+      <c r="CY94" s="35"/>
+      <c r="CZ94" s="56"/>
+      <c r="DA94" s="39"/>
+      <c r="DB94" s="1"/>
+      <c r="DC94" s="1"/>
+      <c r="DD94" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:108" ht="30">
+      <c r="A95" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B95" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G95" s="55" t="s">
+        <v>645</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="X95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="1"/>
+      <c r="AF95" s="1"/>
+      <c r="AG95" s="1"/>
+      <c r="AH95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AJ95" s="1"/>
+      <c r="AK95" s="1"/>
+      <c r="AL95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="1"/>
+      <c r="AO95" s="1"/>
+      <c r="AP95" s="1"/>
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+      <c r="AV95" s="1"/>
+      <c r="AW95" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="AX95" s="1"/>
+      <c r="AY95" s="1"/>
+      <c r="AZ95" s="1"/>
+      <c r="BA95" s="1"/>
+      <c r="BB95" s="1"/>
+      <c r="BC95" s="1"/>
+      <c r="BD95" s="1"/>
+      <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
+      <c r="BG95" s="1"/>
+      <c r="BH95" s="1"/>
+      <c r="BI95" s="1"/>
+      <c r="BJ95" s="1"/>
+      <c r="BK95" s="1"/>
+      <c r="BL95" s="1"/>
+      <c r="BM95" s="1"/>
+      <c r="BN95" s="1"/>
+      <c r="BO95" s="1"/>
+      <c r="BP95" s="1"/>
+      <c r="BQ95" s="1"/>
+      <c r="BR95" s="1"/>
+      <c r="BS95" s="1"/>
+      <c r="BT95" s="1"/>
+      <c r="BU95" s="1"/>
+      <c r="BV95" s="1"/>
+      <c r="BW95" s="1"/>
+      <c r="BX95" s="1"/>
+      <c r="BY95" s="1"/>
+      <c r="BZ95" s="1"/>
+      <c r="CA95" s="1"/>
+      <c r="CB95" s="1"/>
+      <c r="CC95" s="1"/>
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="1"/>
+      <c r="CF95" s="1"/>
+      <c r="CG95" s="1"/>
+      <c r="CH95" s="1"/>
+      <c r="CI95" s="1"/>
+      <c r="CJ95" s="1"/>
+      <c r="CK95" s="1"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
+      <c r="CT95" s="1"/>
+      <c r="CU95" s="1"/>
+      <c r="CV95" s="1"/>
+      <c r="CW95" s="1"/>
+      <c r="CX95" s="1"/>
+      <c r="CY95" s="35"/>
+      <c r="CZ95" s="56"/>
+      <c r="DA95" s="39"/>
+      <c r="DB95" s="1"/>
+      <c r="DC95" s="1"/>
+      <c r="DD95" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:108" ht="30">
+      <c r="A96" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>527</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F96" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="G96" s="55" t="s">
+        <v>648</v>
+      </c>
+      <c r="H96" s="1"/>
+      <c r="I96" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
+      <c r="AV96" s="1"/>
+      <c r="AW96" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="AX96" s="1"/>
+      <c r="AY96" s="1"/>
+      <c r="AZ96" s="1"/>
+      <c r="BA96" s="1"/>
+      <c r="BB96" s="1"/>
+      <c r="BC96" s="1"/>
+      <c r="BD96" s="1"/>
+      <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
+      <c r="BG96" s="1"/>
+      <c r="BH96" s="1"/>
+      <c r="BI96" s="1"/>
+      <c r="BJ96" s="1"/>
+      <c r="BK96" s="1"/>
+      <c r="BL96" s="1"/>
+      <c r="BM96" s="1"/>
+      <c r="BN96" s="1"/>
+      <c r="BO96" s="1"/>
+      <c r="BP96" s="1"/>
+      <c r="BQ96" s="1"/>
+      <c r="BR96" s="1"/>
+      <c r="BS96" s="1"/>
+      <c r="BT96" s="1"/>
+      <c r="BU96" s="1"/>
+      <c r="BV96" s="1"/>
+      <c r="BW96" s="1"/>
+      <c r="BX96" s="1"/>
+      <c r="BY96" s="1"/>
+      <c r="BZ96" s="1"/>
+      <c r="CA96" s="1"/>
+      <c r="CB96" s="1"/>
+      <c r="CC96" s="1"/>
+      <c r="CD96" s="1"/>
+      <c r="CE96" s="1"/>
+      <c r="CF96" s="1"/>
+      <c r="CG96" s="1"/>
+      <c r="CH96" s="1"/>
+      <c r="CI96" s="1"/>
+      <c r="CJ96" s="1"/>
+      <c r="CK96" s="1"/>
+      <c r="CL96" s="1"/>
+      <c r="CM96" s="1"/>
+      <c r="CN96" s="1"/>
+      <c r="CO96" s="1"/>
+      <c r="CP96" s="1"/>
+      <c r="CQ96" s="1"/>
+      <c r="CR96" s="1"/>
+      <c r="CS96" s="1"/>
+      <c r="CT96" s="1"/>
+      <c r="CU96" s="1"/>
+      <c r="CV96" s="1"/>
+      <c r="CW96" s="1"/>
+      <c r="CX96" s="1"/>
+      <c r="CY96" s="35"/>
+      <c r="CZ96" s="56"/>
+      <c r="DA96" s="39"/>
+      <c r="DB96" s="1"/>
+      <c r="DC96" s="1"/>
+      <c r="DD96" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:108">
+      <c r="A97" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="F97" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="X97" s="1"/>
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1"/>
+      <c r="AA97" s="1"/>
+      <c r="AB97" s="1"/>
+      <c r="AC97" s="1"/>
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="1"/>
+      <c r="AF97" s="1"/>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="1"/>
+      <c r="AO97" s="1"/>
+      <c r="AP97" s="1"/>
+      <c r="AQ97" s="1"/>
+      <c r="AR97" s="1"/>
+      <c r="AS97" s="1"/>
+      <c r="AT97" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU97" s="1"/>
+      <c r="AV97" s="1"/>
+      <c r="AW97" s="27"/>
+      <c r="AX97" s="1"/>
+      <c r="AY97" s="1"/>
+      <c r="AZ97" s="1"/>
+      <c r="BA97" s="1"/>
+      <c r="BB97" s="1"/>
+      <c r="BC97" s="1"/>
+      <c r="BD97" s="1"/>
+      <c r="BE97" s="1"/>
+      <c r="BF97" s="1"/>
+      <c r="BG97" s="1"/>
+      <c r="BH97" s="1"/>
+      <c r="BI97" s="1"/>
+      <c r="BJ97" s="1"/>
+      <c r="BK97" s="1"/>
+      <c r="BL97" s="1"/>
+      <c r="BM97" s="1"/>
+      <c r="BN97" s="1"/>
+      <c r="BO97" s="1"/>
+      <c r="BP97" s="1"/>
+      <c r="BQ97" s="1"/>
+      <c r="BR97" s="1"/>
+      <c r="BS97" s="1"/>
+      <c r="BT97" s="1"/>
+      <c r="BU97" s="1"/>
+      <c r="BV97" s="1"/>
+      <c r="BW97" s="1"/>
+      <c r="BX97" s="1"/>
+      <c r="BY97" s="1"/>
+      <c r="BZ97" s="1"/>
+      <c r="CA97" s="1"/>
+      <c r="CB97" s="1"/>
+      <c r="CC97" s="1"/>
+      <c r="CD97" s="1"/>
+      <c r="CE97" s="1"/>
+      <c r="CF97" s="1"/>
+      <c r="CG97" s="1"/>
+      <c r="CH97" s="1"/>
+      <c r="CI97" s="1"/>
+      <c r="CJ97" s="1"/>
+      <c r="CK97" s="1"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
+      <c r="CN97" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP97" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="1"/>
+      <c r="CS97" s="1"/>
+      <c r="CT97" s="1"/>
+      <c r="CU97" s="1"/>
+      <c r="CV97" s="1"/>
+      <c r="CW97" s="1"/>
+      <c r="CX97" s="1"/>
+      <c r="CY97" s="35"/>
+      <c r="CZ97" s="34"/>
+      <c r="DA97" s="52"/>
+      <c r="DB97" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="DC97" s="1"/>
+      <c r="DD97" s="1"/>
+    </row>
+    <row r="98" spans="1:108">
+      <c r="A98" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E98" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="F98" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="X98" s="1"/>
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1"/>
+      <c r="AA98" s="1"/>
+      <c r="AB98" s="1"/>
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+      <c r="AK98" s="1"/>
+      <c r="AL98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="1"/>
+      <c r="AO98" s="1"/>
+      <c r="AP98" s="1"/>
+      <c r="AQ98" s="1"/>
+      <c r="AR98" s="1"/>
+      <c r="AS98" s="1"/>
+      <c r="AT98" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU98" s="1"/>
+      <c r="AV98" s="1"/>
+      <c r="AW98" s="27"/>
+      <c r="AX98" s="1"/>
+      <c r="AY98" s="1"/>
+      <c r="AZ98" s="1"/>
+      <c r="BA98" s="1"/>
+      <c r="BB98" s="1"/>
+      <c r="BC98" s="1"/>
+      <c r="BD98" s="1"/>
+      <c r="BE98" s="1"/>
+      <c r="BF98" s="1"/>
+      <c r="BG98" s="1"/>
+      <c r="BH98" s="1"/>
+      <c r="BI98" s="1"/>
+      <c r="BJ98" s="1"/>
+      <c r="BK98" s="1"/>
+      <c r="BL98" s="1"/>
+      <c r="BM98" s="1"/>
+      <c r="BN98" s="1"/>
+      <c r="BO98" s="1"/>
+      <c r="BP98" s="1"/>
+      <c r="BQ98" s="1"/>
+      <c r="BR98" s="1"/>
+      <c r="BS98" s="1"/>
+      <c r="BT98" s="1"/>
+      <c r="BU98" s="1"/>
+      <c r="BV98" s="1"/>
+      <c r="BW98" s="1"/>
+      <c r="BX98" s="1"/>
+      <c r="BY98" s="1"/>
+      <c r="BZ98" s="1"/>
+      <c r="CA98" s="1"/>
+      <c r="CB98" s="1"/>
+      <c r="CC98" s="1"/>
+      <c r="CD98" s="1"/>
+      <c r="CE98" s="1"/>
+      <c r="CF98" s="1"/>
+      <c r="CG98" s="1"/>
+      <c r="CH98" s="1"/>
+      <c r="CI98" s="1"/>
+      <c r="CJ98" s="1"/>
+      <c r="CK98" s="1"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
+      <c r="CN98" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP98" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="1"/>
+      <c r="CS98" s="1"/>
+      <c r="CT98" s="1"/>
+      <c r="CU98" s="1"/>
+      <c r="CV98" s="1"/>
+      <c r="CW98" s="1"/>
+      <c r="CX98" s="1"/>
+      <c r="CY98" s="35"/>
+      <c r="CZ98" s="34"/>
+      <c r="DA98" s="52"/>
+      <c r="DB98" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="DC98" s="1"/>
+      <c r="DD98" s="1"/>
+    </row>
+    <row r="99" spans="1:108">
+      <c r="A99" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="F99" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1"/>
+      <c r="AA99" s="1"/>
+      <c r="AB99" s="1"/>
+      <c r="AC99" s="1"/>
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AF99" s="1"/>
+      <c r="AG99" s="1"/>
+      <c r="AH99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AJ99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AL99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="1"/>
+      <c r="AO99" s="1"/>
+      <c r="AP99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AR99" s="1"/>
+      <c r="AS99" s="1"/>
+      <c r="AT99" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU99" s="1"/>
+      <c r="AV99" s="1"/>
+      <c r="AW99" s="27"/>
+      <c r="AX99" s="1"/>
+      <c r="AY99" s="1"/>
+      <c r="AZ99" s="1"/>
+      <c r="BA99" s="1"/>
+      <c r="BB99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BD99" s="1"/>
+      <c r="BE99" s="1"/>
+      <c r="BF99" s="1"/>
+      <c r="BG99" s="1"/>
+      <c r="BH99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BJ99" s="1"/>
+      <c r="BK99" s="1"/>
+      <c r="BL99" s="1"/>
+      <c r="BM99" s="1"/>
+      <c r="BN99" s="1"/>
+      <c r="BO99" s="1"/>
+      <c r="BP99" s="1"/>
+      <c r="BQ99" s="1"/>
+      <c r="BR99" s="1"/>
+      <c r="BS99" s="1"/>
+      <c r="BT99" s="1"/>
+      <c r="BU99" s="1"/>
+      <c r="BV99" s="1"/>
+      <c r="BW99" s="1"/>
+      <c r="BX99" s="1"/>
+      <c r="BY99" s="1"/>
+      <c r="BZ99" s="1"/>
+      <c r="CA99" s="1"/>
+      <c r="CB99" s="1"/>
+      <c r="CC99" s="1"/>
+      <c r="CD99" s="1"/>
+      <c r="CE99" s="1"/>
+      <c r="CF99" s="1"/>
+      <c r="CG99" s="1"/>
+      <c r="CH99" s="1"/>
+      <c r="CI99" s="1"/>
+      <c r="CJ99" s="1"/>
+      <c r="CK99" s="1"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
+      <c r="CN99" s="1">
+        <v>168</v>
+      </c>
+      <c r="CO99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CP99" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="1"/>
+      <c r="CS99" s="1"/>
+      <c r="CT99" s="1"/>
+      <c r="CU99" s="1"/>
+      <c r="CV99" s="1"/>
+      <c r="CW99" s="1"/>
+      <c r="CX99" s="1"/>
+      <c r="CY99" s="35"/>
+      <c r="CZ99" s="34"/>
+      <c r="DA99" s="52"/>
+      <c r="DB99" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="DC99" s="1"/>
+      <c r="DD99" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A244190-5B02-44E3-ACD6-CA653F7A227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="659">
   <si>
     <t>Environment</t>
   </si>
@@ -2115,11 +2114,26 @@
   <si>
     <t>account_id</t>
   </si>
+  <si>
+    <t>Smoke_TC109</t>
+  </si>
+  <si>
+    <t>Multi Question Branching data testing</t>
+  </si>
+  <si>
+    <t>SID: 699, mqb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page </t>
+  </si>
+  <si>
+    <t>Qtitle, AnswerOptions, Page no validation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -2371,12 +2385,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2653,7 +2667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2691,14 +2705,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2736,19 +2750,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2916,25 +2930,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{B9DE157B-9AF0-4007-B82E-B098F4F3DC03}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{11778AE1-15B3-404A-98DB-0F8F9FD074C3}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DD99"/>
+  <dimension ref="A1:DD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DC6" sqref="DC6"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16488,22 +16502,154 @@
       <c r="DC99" s="1"/>
       <c r="DD99" s="1"/>
     </row>
+    <row r="100" spans="1:108">
+      <c r="A100" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E100" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="F100" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="P100" s="37"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1"/>
+      <c r="AA100" s="1"/>
+      <c r="AB100" s="1"/>
+      <c r="AC100" s="1"/>
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AF100" s="1"/>
+      <c r="AG100" s="1"/>
+      <c r="AH100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AJ100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AL100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="1"/>
+      <c r="AO100" s="1"/>
+      <c r="AP100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AR100" s="1"/>
+      <c r="AS100" s="1"/>
+      <c r="AT100" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="AU100" s="1"/>
+      <c r="AV100" s="1"/>
+      <c r="AW100" s="27"/>
+      <c r="AX100" s="1"/>
+      <c r="AY100" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ100" s="1"/>
+      <c r="BA100" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="BB100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BD100" s="1"/>
+      <c r="BE100" s="1"/>
+      <c r="BF100" s="1"/>
+      <c r="BG100" s="1"/>
+      <c r="BH100" s="1"/>
+      <c r="BI100" s="1"/>
+      <c r="BJ100" s="1"/>
+      <c r="BK100" s="1"/>
+      <c r="BL100" s="1"/>
+      <c r="BM100" s="1"/>
+      <c r="BN100" s="1"/>
+      <c r="BO100" s="1"/>
+      <c r="BP100" s="1"/>
+      <c r="BQ100" s="1"/>
+      <c r="BR100" s="1"/>
+      <c r="BS100" s="1"/>
+      <c r="BT100" s="1"/>
+      <c r="BU100" s="1"/>
+      <c r="BV100" s="1"/>
+      <c r="BW100" s="1"/>
+      <c r="BX100" s="1"/>
+      <c r="BY100" s="1"/>
+      <c r="BZ100" s="1"/>
+      <c r="CA100" s="1"/>
+      <c r="CB100" s="1"/>
+      <c r="CC100" s="1"/>
+      <c r="CD100" s="1"/>
+      <c r="CE100" s="1"/>
+      <c r="CF100" s="1"/>
+      <c r="CG100" s="1"/>
+      <c r="CH100" s="1"/>
+      <c r="CI100" s="1"/>
+      <c r="CJ100" s="1"/>
+      <c r="CK100" s="1"/>
+      <c r="CL100" s="1"/>
+      <c r="CM100" s="1"/>
+      <c r="CN100" s="1"/>
+      <c r="CO100" s="1"/>
+      <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="1"/>
+      <c r="CS100" s="1"/>
+      <c r="CT100" s="1"/>
+      <c r="CU100" s="1"/>
+      <c r="CV100" s="1"/>
+      <c r="CW100" s="1"/>
+      <c r="CX100" s="1"/>
+      <c r="CY100" s="35"/>
+      <c r="CZ100" s="34"/>
+      <c r="DA100" s="52"/>
+      <c r="DB100" s="1"/>
+      <c r="DC100" s="1"/>
+      <c r="DD100" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W14" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="W67" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="CZ67" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="DA67" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="DA10" r:id="rId7" xr:uid="{95B862D2-CEFD-40FA-AD6A-FDF26CB57F31}"/>
-    <hyperlink ref="W11" r:id="rId8" display="ayadav@zarca.com" xr:uid="{F86BBE52-BE5E-441D-97C7-91831F68C31D}"/>
-    <hyperlink ref="DA11" r:id="rId9" xr:uid="{7A18C947-31A7-4820-9B54-021FF2662E0D}"/>
-    <hyperlink ref="W12" r:id="rId10" display="ayadav@zarca.com" xr:uid="{0ABFE05D-D8AE-4A0A-8FED-79E65A52F351}"/>
-    <hyperlink ref="DA12" r:id="rId11" xr:uid="{9DCA2ABA-E7E6-4198-BDC5-59A63065470E}"/>
-    <hyperlink ref="W13" r:id="rId12" display="ayadav@zarca.com" xr:uid="{E092D7AF-678B-4227-9318-87652C6263A0}"/>
-    <hyperlink ref="DA13" r:id="rId13" xr:uid="{51D05367-5DB1-47EB-B5EA-5AC2C51F5E7C}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
+    <hyperlink ref="W14" r:id="rId3"/>
+    <hyperlink ref="W67" r:id="rId4"/>
+    <hyperlink ref="CZ67" r:id="rId5"/>
+    <hyperlink ref="DA67" r:id="rId6"/>
+    <hyperlink ref="DA10" r:id="rId7"/>
+    <hyperlink ref="W11" r:id="rId8" display="ayadav@zarca.com"/>
+    <hyperlink ref="DA11" r:id="rId9"/>
+    <hyperlink ref="W12" r:id="rId10" display="ayadav@zarca.com"/>
+    <hyperlink ref="DA12" r:id="rId11"/>
+    <hyperlink ref="W13" r:id="rId12" display="ayadav@zarca.com"/>
+    <hyperlink ref="DA13" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="776">
   <si>
     <t>Environment</t>
   </si>
@@ -2473,6 +2473,12 @@
   </si>
   <si>
     <t>aplhabet_number</t>
+  </si>
+  <si>
+    <t>Data Import Completed</t>
+  </si>
+  <si>
+    <t>Data Export Completed</t>
   </si>
 </sst>
 </file>
@@ -2700,7 +2706,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2768,6 +2774,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3333,8 +3340,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DG142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CX66" sqref="CX66"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DC18" sqref="DC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6172,11 +6179,19 @@
       <c r="CV18" s="15"/>
       <c r="CW18" s="15"/>
       <c r="CX18" s="1"/>
-      <c r="CY18" s="1"/>
-      <c r="CZ18" s="1"/>
-      <c r="DA18" s="46"/>
-      <c r="DB18" s="1"/>
-      <c r="DC18" s="1"/>
+      <c r="CY18" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="CZ18" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="DA18" s="63" t="s">
+        <v>528</v>
+      </c>
+      <c r="DB18" s="11"/>
+      <c r="DC18" s="1" t="s">
+        <v>774</v>
+      </c>
       <c r="DD18" s="1"/>
       <c r="DE18" s="61"/>
       <c r="DF18" s="1"/>
@@ -6305,11 +6320,19 @@
       <c r="CV19" s="15"/>
       <c r="CW19" s="15"/>
       <c r="CX19" s="1"/>
-      <c r="CY19" s="1"/>
-      <c r="CZ19" s="1"/>
-      <c r="DA19" s="46"/>
+      <c r="CY19" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="CZ19" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="DA19" s="63" t="s">
+        <v>528</v>
+      </c>
       <c r="DB19" s="1"/>
-      <c r="DC19" s="1"/>
+      <c r="DC19" s="1" t="s">
+        <v>775</v>
+      </c>
       <c r="DD19" s="1"/>
       <c r="DE19" s="61"/>
       <c r="DF19" s="1"/>
@@ -22916,8 +22939,12 @@
     <hyperlink ref="W13" r:id="rId12" display="ayadav@zarca.com"/>
     <hyperlink ref="DA13" r:id="rId13"/>
     <hyperlink ref="W104" r:id="rId14"/>
+    <hyperlink ref="CZ18" r:id="rId15"/>
+    <hyperlink ref="DA18" r:id="rId16"/>
+    <hyperlink ref="CZ19" r:id="rId17"/>
+    <hyperlink ref="DA19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -3340,8 +3340,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DG142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="DC18" sqref="DC18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B8:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4741,7 +4741,7 @@
         <v>156</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>251</v>
@@ -4908,7 +4908,7 @@
         <v>208</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>251</v>
@@ -5055,7 +5055,7 @@
         <v>209</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>251</v>
@@ -5198,7 +5198,7 @@
         <v>210</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>251</v>
@@ -5339,7 +5339,7 @@
         <v>211</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>251</v>
@@ -5480,7 +5480,7 @@
         <v>212</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>251</v>
@@ -5617,7 +5617,7 @@
         <v>213</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>251</v>
@@ -5774,7 +5774,7 @@
         <v>217</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>251</v>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D8127-1FFC-4C77-A4E1-4D2C6E155979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="784">
   <si>
     <t>Environment</t>
   </si>
@@ -2463,11 +2462,53 @@
   <si>
     <t>Failure Reason</t>
   </si>
+  <si>
+    <t>//img[@src='/AllImages/ProductImages/Product_specifics/error-symbol-login.png']</t>
+  </si>
+  <si>
+    <t>From Sogolytics: Reset Password</t>
+  </si>
+  <si>
+    <t>//img[@id='eyeShow']</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Smoke_TC160</t>
+  </si>
+  <si>
+    <t>SMX3</t>
+  </si>
+  <si>
+    <t>Privacy Policy | Sogolytics</t>
+  </si>
+  <si>
+    <t>Terms of Service | Sogolytics</t>
+  </si>
+  <si>
+    <t>Anti-Spam Policy | Sogolytics</t>
+  </si>
+  <si>
+    <t>Data Privacy and Security | Sogolytics</t>
+  </si>
+  <si>
+    <t>url("https://www.sogolytics.com/AllImages/ProductImages/Product_specifics/Product-login-google.svg")</t>
+  </si>
+  <si>
+    <t>url("https://www.sogolytics.com/AllImages/ProductImages/Product_specifics/facebook-logo-new.svg")</t>
+  </si>
+  <si>
+    <t>Enterprise Online Survey Software &amp; Tools for Businesses | Sogolytics</t>
+  </si>
+  <si>
+    <t>https://www.sogolytics.com/AllImages/ProductImages/Login_ProdIcon.svg?key=13032018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -2766,12 +2807,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3048,7 +3089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3086,14 +3127,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,14 +3172,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -3311,25 +3352,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C10" r:id="rId5"/>
+    <hyperlink ref="C11" r:id="rId6"/>
+    <hyperlink ref="C5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DG142"/>
+  <dimension ref="A1:DG143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="E52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12648,7 +12689,7 @@
         <v>514</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>247</v>
@@ -12942,7 +12983,7 @@
         <v>538</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>541</v>
@@ -12962,7 +13003,9 @@
         <v>178</v>
       </c>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
+      <c r="K68" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -13069,7 +13112,7 @@
         <v>539</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>541</v>
@@ -13089,7 +13132,9 @@
         <v>178</v>
       </c>
       <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
+      <c r="K69" s="1" t="s">
+        <v>780</v>
+      </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -13196,7 +13241,7 @@
         <v>540</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>541</v>
@@ -13216,14 +13261,30 @@
         <v>178</v>
       </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
+      <c r="K70" s="1">
+        <v>40</v>
+      </c>
+      <c r="L70" s="1">
+        <v>10</v>
+      </c>
+      <c r="M70" s="1">
+        <v>20</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="P70" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>773</v>
+      </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
@@ -13308,11 +13369,19 @@
       <c r="CV70" s="1"/>
       <c r="CW70" s="1"/>
       <c r="CX70" s="1"/>
-      <c r="CY70" s="21"/>
-      <c r="CZ70" s="20"/>
-      <c r="DA70" s="29"/>
+      <c r="CY70" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="CZ70" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="DA70" s="2" t="s">
+        <v>520</v>
+      </c>
       <c r="DB70" s="1"/>
-      <c r="DC70" s="1"/>
+      <c r="DC70" s="1" t="s">
+        <v>771</v>
+      </c>
       <c r="DD70" s="1"/>
       <c r="DE70" s="51"/>
       <c r="DF70" s="1"/>
@@ -13435,11 +13504,6 @@
       <c r="CV71" s="1"/>
       <c r="CW71" s="1"/>
       <c r="CX71" s="1"/>
-      <c r="CY71" s="21"/>
-      <c r="CZ71" s="20"/>
-      <c r="DA71" s="29"/>
-      <c r="DB71" s="1"/>
-      <c r="DC71" s="1"/>
       <c r="DD71" s="1"/>
       <c r="DE71" s="51"/>
       <c r="DF71" s="1"/>
@@ -17189,7 +17253,7 @@
       <c r="A100" s="38" t="s">
         <v>647</v>
       </c>
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="38" t="s">
@@ -17322,7 +17386,7 @@
       <c r="A101" s="48" t="s">
         <v>652</v>
       </c>
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="48" t="s">
@@ -17455,7 +17519,7 @@
       <c r="A102" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="38" t="s">
@@ -17588,7 +17652,7 @@
       <c r="A103" s="48" t="s">
         <v>658</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="48" t="s">
@@ -17717,7 +17781,7 @@
       <c r="A104" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="38" t="s">
@@ -17856,7 +17920,7 @@
       <c r="A105" s="48" t="s">
         <v>665</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="48" t="s">
@@ -17989,7 +18053,7 @@
       <c r="A106" s="48" t="s">
         <v>668</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="48" t="s">
@@ -18122,7 +18186,7 @@
       <c r="A107" s="48" t="s">
         <v>671</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="48" t="s">
@@ -18255,7 +18319,7 @@
       <c r="A108" s="48" t="s">
         <v>674</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="48" t="s">
@@ -18388,7 +18452,7 @@
       <c r="A109" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="48" t="s">
@@ -18521,7 +18585,7 @@
       <c r="A110" s="48" t="s">
         <v>679</v>
       </c>
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="48" t="s">
@@ -18654,7 +18718,7 @@
       <c r="A111" s="48" t="s">
         <v>682</v>
       </c>
-      <c r="B111" s="39" t="s">
+      <c r="B111" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="48" t="s">
@@ -18787,7 +18851,7 @@
       <c r="A112" s="48" t="s">
         <v>685</v>
       </c>
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="48" t="s">
@@ -18920,7 +18984,7 @@
       <c r="A113" s="48" t="s">
         <v>688</v>
       </c>
-      <c r="B113" s="39" t="s">
+      <c r="B113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="48" t="s">
@@ -19053,7 +19117,7 @@
       <c r="A114" s="48" t="s">
         <v>691</v>
       </c>
-      <c r="B114" s="39" t="s">
+      <c r="B114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="48" t="s">
@@ -19186,7 +19250,7 @@
       <c r="A115" s="48" t="s">
         <v>694</v>
       </c>
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="48" t="s">
@@ -19319,7 +19383,7 @@
       <c r="A116" s="48" t="s">
         <v>697</v>
       </c>
-      <c r="B116" s="39" t="s">
+      <c r="B116" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="48" t="s">
@@ -19452,7 +19516,7 @@
       <c r="A117" s="48" t="s">
         <v>700</v>
       </c>
-      <c r="B117" s="39" t="s">
+      <c r="B117" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="48" t="s">
@@ -19585,7 +19649,7 @@
       <c r="A118" s="48" t="s">
         <v>703</v>
       </c>
-      <c r="B118" s="39" t="s">
+      <c r="B118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="48" t="s">
@@ -19718,7 +19782,7 @@
       <c r="A119" s="48" t="s">
         <v>706</v>
       </c>
-      <c r="B119" s="39" t="s">
+      <c r="B119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="48" t="s">
@@ -19851,7 +19915,7 @@
       <c r="A120" s="48" t="s">
         <v>709</v>
       </c>
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="48" t="s">
@@ -19984,7 +20048,7 @@
       <c r="A121" s="48" t="s">
         <v>712</v>
       </c>
-      <c r="B121" s="39" t="s">
+      <c r="B121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="48" t="s">
@@ -20117,7 +20181,7 @@
       <c r="A122" s="48" t="s">
         <v>715</v>
       </c>
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="48" t="s">
@@ -20250,7 +20314,7 @@
       <c r="A123" s="48" t="s">
         <v>718</v>
       </c>
-      <c r="B123" s="39" t="s">
+      <c r="B123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="48" t="s">
@@ -20383,7 +20447,7 @@
       <c r="A124" s="48" t="s">
         <v>721</v>
       </c>
-      <c r="B124" s="39" t="s">
+      <c r="B124" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="48" t="s">
@@ -20516,7 +20580,7 @@
       <c r="A125" s="48" t="s">
         <v>724</v>
       </c>
-      <c r="B125" s="39" t="s">
+      <c r="B125" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="48" t="s">
@@ -20649,7 +20713,7 @@
       <c r="A126" s="48" t="s">
         <v>727</v>
       </c>
-      <c r="B126" s="39" t="s">
+      <c r="B126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="48" t="s">
@@ -20782,7 +20846,7 @@
       <c r="A127" s="48" t="s">
         <v>730</v>
       </c>
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="48" t="s">
@@ -20915,7 +20979,7 @@
       <c r="A128" s="48" t="s">
         <v>733</v>
       </c>
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="48" t="s">
@@ -21048,7 +21112,7 @@
       <c r="A129" s="48" t="s">
         <v>736</v>
       </c>
-      <c r="B129" s="39" t="s">
+      <c r="B129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="48" t="s">
@@ -21181,7 +21245,7 @@
       <c r="A130" s="38" t="s">
         <v>739</v>
       </c>
-      <c r="B130" s="39" t="s">
+      <c r="B130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="38" t="s">
@@ -21314,7 +21378,7 @@
       <c r="A131" s="48" t="s">
         <v>742</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="48" t="s">
@@ -21447,7 +21511,7 @@
       <c r="A132" s="48" t="s">
         <v>744</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C132" s="48" t="s">
@@ -21580,7 +21644,7 @@
       <c r="A133" s="48" t="s">
         <v>746</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="48" t="s">
@@ -21713,7 +21777,7 @@
       <c r="A134" s="48" t="s">
         <v>748</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C134" s="48" t="s">
@@ -21846,7 +21910,7 @@
       <c r="A135" s="48" t="s">
         <v>750</v>
       </c>
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C135" s="48" t="s">
@@ -21979,7 +22043,7 @@
       <c r="A136" s="48" t="s">
         <v>752</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C136" s="48" t="s">
@@ -22112,7 +22176,7 @@
       <c r="A137" s="48" t="s">
         <v>754</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="48" t="s">
@@ -22245,7 +22309,7 @@
       <c r="A138" s="48" t="s">
         <v>756</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C138" s="48" t="s">
@@ -22378,7 +22442,7 @@
       <c r="A139" s="38" t="s">
         <v>758</v>
       </c>
-      <c r="B139" s="39" t="s">
+      <c r="B139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="38" t="s">
@@ -22511,7 +22575,7 @@
       <c r="A140" s="48" t="s">
         <v>760</v>
       </c>
-      <c r="B140" s="39" t="s">
+      <c r="B140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="48" t="s">
@@ -22644,7 +22708,7 @@
       <c r="A141" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="B141" s="39" t="s">
+      <c r="B141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="48" t="s">
@@ -22773,7 +22837,7 @@
       <c r="A142" s="48" t="s">
         <v>764</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C142" s="48" t="s">
@@ -22900,26 +22964,158 @@
       <c r="DF142" s="1"/>
       <c r="DG142" s="48"/>
     </row>
+    <row r="143" spans="1:111">
+      <c r="A143" s="48" t="s">
+        <v>774</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48" t="s">
+        <v>775</v>
+      </c>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="P143" s="22"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+      <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="W143" s="24"/>
+      <c r="X143" s="1"/>
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1"/>
+      <c r="AA143" s="1"/>
+      <c r="AB143" s="1"/>
+      <c r="AC143" s="1"/>
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="1"/>
+      <c r="AF143" s="1"/>
+      <c r="AG143" s="1"/>
+      <c r="AH143" s="1"/>
+      <c r="AI143" s="1"/>
+      <c r="AJ143" s="1"/>
+      <c r="AK143" s="1"/>
+      <c r="AL143" s="1"/>
+      <c r="AM143" s="1"/>
+      <c r="AN143" s="1"/>
+      <c r="AO143" s="1"/>
+      <c r="AP143" s="1"/>
+      <c r="AQ143" s="1"/>
+      <c r="AR143" s="1"/>
+      <c r="AS143" s="1"/>
+      <c r="AT143" s="1"/>
+      <c r="AU143" s="1"/>
+      <c r="AV143" s="1"/>
+      <c r="AW143" s="19"/>
+      <c r="AX143" s="1"/>
+      <c r="AY143" s="1"/>
+      <c r="AZ143" s="1"/>
+      <c r="BA143" s="1"/>
+      <c r="BB143" s="1"/>
+      <c r="BC143" s="1"/>
+      <c r="BD143" s="1"/>
+      <c r="BE143" s="1"/>
+      <c r="BF143" s="1"/>
+      <c r="BG143" s="1"/>
+      <c r="BH143" s="1"/>
+      <c r="BI143" s="1"/>
+      <c r="BJ143" s="1"/>
+      <c r="BK143" s="1"/>
+      <c r="BL143" s="1"/>
+      <c r="BM143" s="1"/>
+      <c r="BN143" s="1"/>
+      <c r="BO143" s="1"/>
+      <c r="BP143" s="1"/>
+      <c r="BQ143" s="1"/>
+      <c r="BR143" s="1"/>
+      <c r="BS143" s="1"/>
+      <c r="BT143" s="1"/>
+      <c r="BU143" s="1"/>
+      <c r="BV143" s="1"/>
+      <c r="BW143" s="1"/>
+      <c r="BX143" s="1"/>
+      <c r="BY143" s="1"/>
+      <c r="BZ143" s="1"/>
+      <c r="CA143" s="1"/>
+      <c r="CB143" s="1"/>
+      <c r="CC143" s="1"/>
+      <c r="CD143" s="1"/>
+      <c r="CE143" s="1"/>
+      <c r="CF143" s="1"/>
+      <c r="CG143" s="1"/>
+      <c r="CH143" s="1"/>
+      <c r="CI143" s="1"/>
+      <c r="CJ143" s="1"/>
+      <c r="CK143" s="1"/>
+      <c r="CL143" s="1"/>
+      <c r="CM143" s="1"/>
+      <c r="CN143" s="1"/>
+      <c r="CO143" s="1"/>
+      <c r="CP143" s="1"/>
+      <c r="CQ143" s="1"/>
+      <c r="CR143" s="1"/>
+      <c r="CS143" s="1"/>
+      <c r="CT143" s="1"/>
+      <c r="CU143" s="1"/>
+      <c r="CV143" s="1"/>
+      <c r="CW143" s="1"/>
+      <c r="CX143" s="1"/>
+      <c r="CY143" s="21"/>
+      <c r="CZ143" s="49"/>
+      <c r="DA143" s="24"/>
+      <c r="DB143" s="1"/>
+      <c r="DC143" s="1"/>
+      <c r="DD143" s="1"/>
+      <c r="DE143" s="1"/>
+      <c r="DF143" s="1"/>
+      <c r="DG143" s="48"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="W14" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="W66" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="CZ66" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="DA66" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="DA10" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="W11" r:id="rId8" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="DA11" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="W12" r:id="rId10" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="DA12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="W13" r:id="rId12" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="DA13" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="CZ5" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="W104" r:id="rId15" xr:uid="{E1F40E4E-EA70-413B-A945-2F31DAA701C1}"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
+    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
+    <hyperlink ref="W14" r:id="rId3"/>
+    <hyperlink ref="W66" r:id="rId4"/>
+    <hyperlink ref="CZ66" r:id="rId5"/>
+    <hyperlink ref="DA66" r:id="rId6"/>
+    <hyperlink ref="DA10" r:id="rId7"/>
+    <hyperlink ref="W11" r:id="rId8" display="ayadav@zarca.com"/>
+    <hyperlink ref="DA11" r:id="rId9"/>
+    <hyperlink ref="W12" r:id="rId10" display="ayadav@zarca.com"/>
+    <hyperlink ref="DA12" r:id="rId11"/>
+    <hyperlink ref="W13" r:id="rId12" display="ayadav@zarca.com"/>
+    <hyperlink ref="DA13" r:id="rId13"/>
+    <hyperlink ref="CZ5" r:id="rId14"/>
+    <hyperlink ref="W104" r:id="rId15"/>
+    <hyperlink ref="CZ70" r:id="rId16"/>
+    <hyperlink ref="DA70" r:id="rId17"/>
+    <hyperlink ref="N70" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD309B-96E2-4960-B793-E0073EC05281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="797">
   <si>
     <t>Environment</t>
   </si>
@@ -2504,11 +2505,50 @@
   <si>
     <t>https://www.sogolytics.com/AllImages/ProductImages/Login_ProdIcon.svg?key=13032018</t>
   </si>
+  <si>
+    <t>Numan</t>
+  </si>
+  <si>
+    <t>Basic Signup</t>
+  </si>
+  <si>
+    <t>Basic signup</t>
+  </si>
+  <si>
+    <t>Smoke_TC161</t>
+  </si>
+  <si>
+    <t>Trial Plus Signup</t>
+  </si>
+  <si>
+    <t>Smoke_TC162</t>
+  </si>
+  <si>
+    <t>Smoke_TC163</t>
+  </si>
+  <si>
+    <t>Smoke_TC164</t>
+  </si>
+  <si>
+    <t>Trial Plus</t>
+  </si>
+  <si>
+    <t>Trial Pro</t>
+  </si>
+  <si>
+    <t>Trial Premium</t>
+  </si>
+  <si>
+    <t>Trial Pro Signup</t>
+  </si>
+  <si>
+    <t>Trial Premium Signup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="11"/>
@@ -2807,12 +2847,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3"/>
-    <cellStyle name="Hyperlink 2 2" xfId="6"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3089,12 +3129,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3127,14 +3167,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.google.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3172,14 +3212,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -3352,25 +3392,25 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C9" r:id="rId4"/>
-    <hyperlink ref="C10" r:id="rId5"/>
-    <hyperlink ref="C11" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId1" display="Prod_17.1v@2019" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DG143"/>
+  <dimension ref="A1:DG148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3380,7 +3420,7 @@
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3866,7 +3906,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>247</v>
@@ -4218,7 +4258,7 @@
         <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>247</v>
@@ -4371,7 +4411,7 @@
         <v>175</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>247</v>
@@ -4506,7 +4546,7 @@
         <v>176</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>247</v>
@@ -4645,7 +4685,7 @@
         <v>177</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>247</v>
@@ -5958,7 +5998,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>247</v>
@@ -6359,7 +6399,7 @@
         <v>262</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>247</v>
@@ -12983,7 +13023,7 @@
         <v>538</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>541</v>
@@ -13112,7 +13152,7 @@
         <v>539</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>541</v>
@@ -13241,7 +13281,7 @@
         <v>540</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>541</v>
@@ -22969,7 +23009,7 @@
         <v>774</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C143" s="48"/>
       <c r="D143" s="48"/>
@@ -22978,142 +23018,763 @@
       </c>
       <c r="F143" s="48"/>
       <c r="G143" s="48"/>
-      <c r="H143" s="1"/>
+      <c r="H143" s="40"/>
       <c r="I143" s="41"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="1" t="s">
+      <c r="J143" s="40"/>
+      <c r="K143" s="40" t="s">
         <v>776</v>
       </c>
-      <c r="L143" s="1" t="s">
+      <c r="L143" s="40" t="s">
         <v>777</v>
       </c>
-      <c r="M143" s="1" t="s">
+      <c r="M143" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="N143" s="1" t="s">
+      <c r="N143" s="40" t="s">
         <v>779</v>
       </c>
-      <c r="O143" s="1" t="s">
+      <c r="O143" s="40" t="s">
         <v>782</v>
       </c>
-      <c r="P143" s="22"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
-      <c r="V143" s="1"/>
-      <c r="W143" s="24"/>
-      <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
-      <c r="AA143" s="1"/>
-      <c r="AB143" s="1"/>
-      <c r="AC143" s="1"/>
-      <c r="AD143" s="1"/>
-      <c r="AE143" s="1"/>
-      <c r="AF143" s="1"/>
-      <c r="AG143" s="1"/>
-      <c r="AH143" s="1"/>
-      <c r="AI143" s="1"/>
-      <c r="AJ143" s="1"/>
-      <c r="AK143" s="1"/>
-      <c r="AL143" s="1"/>
-      <c r="AM143" s="1"/>
-      <c r="AN143" s="1"/>
-      <c r="AO143" s="1"/>
-      <c r="AP143" s="1"/>
-      <c r="AQ143" s="1"/>
-      <c r="AR143" s="1"/>
-      <c r="AS143" s="1"/>
-      <c r="AT143" s="1"/>
-      <c r="AU143" s="1"/>
-      <c r="AV143" s="1"/>
-      <c r="AW143" s="19"/>
-      <c r="AX143" s="1"/>
-      <c r="AY143" s="1"/>
-      <c r="AZ143" s="1"/>
-      <c r="BA143" s="1"/>
-      <c r="BB143" s="1"/>
-      <c r="BC143" s="1"/>
-      <c r="BD143" s="1"/>
-      <c r="BE143" s="1"/>
-      <c r="BF143" s="1"/>
-      <c r="BG143" s="1"/>
-      <c r="BH143" s="1"/>
-      <c r="BI143" s="1"/>
-      <c r="BJ143" s="1"/>
-      <c r="BK143" s="1"/>
-      <c r="BL143" s="1"/>
-      <c r="BM143" s="1"/>
-      <c r="BN143" s="1"/>
-      <c r="BO143" s="1"/>
-      <c r="BP143" s="1"/>
-      <c r="BQ143" s="1"/>
-      <c r="BR143" s="1"/>
-      <c r="BS143" s="1"/>
-      <c r="BT143" s="1"/>
-      <c r="BU143" s="1"/>
-      <c r="BV143" s="1"/>
-      <c r="BW143" s="1"/>
-      <c r="BX143" s="1"/>
-      <c r="BY143" s="1"/>
-      <c r="BZ143" s="1"/>
-      <c r="CA143" s="1"/>
-      <c r="CB143" s="1"/>
-      <c r="CC143" s="1"/>
-      <c r="CD143" s="1"/>
-      <c r="CE143" s="1"/>
-      <c r="CF143" s="1"/>
-      <c r="CG143" s="1"/>
-      <c r="CH143" s="1"/>
-      <c r="CI143" s="1"/>
-      <c r="CJ143" s="1"/>
-      <c r="CK143" s="1"/>
-      <c r="CL143" s="1"/>
-      <c r="CM143" s="1"/>
-      <c r="CN143" s="1"/>
-      <c r="CO143" s="1"/>
-      <c r="CP143" s="1"/>
-      <c r="CQ143" s="1"/>
-      <c r="CR143" s="1"/>
-      <c r="CS143" s="1"/>
-      <c r="CT143" s="1"/>
-      <c r="CU143" s="1"/>
-      <c r="CV143" s="1"/>
-      <c r="CW143" s="1"/>
-      <c r="CX143" s="1"/>
-      <c r="CY143" s="21"/>
-      <c r="CZ143" s="49"/>
-      <c r="DA143" s="24"/>
-      <c r="DB143" s="1"/>
-      <c r="DC143" s="1"/>
-      <c r="DD143" s="1"/>
-      <c r="DE143" s="1"/>
-      <c r="DF143" s="1"/>
-      <c r="DG143" s="48"/>
+      <c r="P143" s="42"/>
+      <c r="Q143" s="40"/>
+      <c r="R143" s="40"/>
+      <c r="S143" s="40"/>
+      <c r="T143" s="40"/>
+      <c r="U143" s="40"/>
+      <c r="V143" s="40"/>
+      <c r="W143" s="46"/>
+      <c r="X143" s="40"/>
+      <c r="Y143" s="40"/>
+      <c r="Z143" s="40"/>
+      <c r="AA143" s="40"/>
+      <c r="AB143" s="40"/>
+      <c r="AC143" s="40"/>
+      <c r="AD143" s="40"/>
+      <c r="AE143" s="40"/>
+      <c r="AF143" s="40"/>
+      <c r="AG143" s="40"/>
+      <c r="AH143" s="40"/>
+      <c r="AI143" s="40"/>
+      <c r="AJ143" s="40"/>
+      <c r="AK143" s="40"/>
+      <c r="AL143" s="40"/>
+      <c r="AM143" s="40"/>
+      <c r="AN143" s="40"/>
+      <c r="AO143" s="40"/>
+      <c r="AP143" s="40"/>
+      <c r="AQ143" s="40"/>
+      <c r="AR143" s="40"/>
+      <c r="AS143" s="40"/>
+      <c r="AT143" s="40"/>
+      <c r="AU143" s="40"/>
+      <c r="AV143" s="40"/>
+      <c r="AW143" s="43"/>
+      <c r="AX143" s="40"/>
+      <c r="AY143" s="40"/>
+      <c r="AZ143" s="40"/>
+      <c r="BA143" s="40"/>
+      <c r="BB143" s="40"/>
+      <c r="BC143" s="40"/>
+      <c r="BD143" s="40"/>
+      <c r="BE143" s="40"/>
+      <c r="BF143" s="40"/>
+      <c r="BG143" s="40"/>
+      <c r="BH143" s="40"/>
+      <c r="BI143" s="40"/>
+      <c r="BJ143" s="40"/>
+      <c r="BK143" s="40"/>
+      <c r="BL143" s="40"/>
+      <c r="BM143" s="40"/>
+      <c r="BN143" s="40"/>
+      <c r="BO143" s="40"/>
+      <c r="BP143" s="40"/>
+      <c r="BQ143" s="40"/>
+      <c r="BR143" s="40"/>
+      <c r="BS143" s="40"/>
+      <c r="BT143" s="40"/>
+      <c r="BU143" s="40"/>
+      <c r="BV143" s="40"/>
+      <c r="BW143" s="40"/>
+      <c r="BX143" s="40"/>
+      <c r="BY143" s="40"/>
+      <c r="BZ143" s="40"/>
+      <c r="CA143" s="40"/>
+      <c r="CB143" s="40"/>
+      <c r="CC143" s="40"/>
+      <c r="CD143" s="40"/>
+      <c r="CE143" s="40"/>
+      <c r="CF143" s="40"/>
+      <c r="CG143" s="40"/>
+      <c r="CH143" s="40"/>
+      <c r="CI143" s="40"/>
+      <c r="CJ143" s="40"/>
+      <c r="CK143" s="40"/>
+      <c r="CL143" s="40"/>
+      <c r="CM143" s="40"/>
+      <c r="CN143" s="40"/>
+      <c r="CO143" s="40"/>
+      <c r="CP143" s="40"/>
+      <c r="CQ143" s="40"/>
+      <c r="CR143" s="40"/>
+      <c r="CS143" s="40"/>
+      <c r="CT143" s="40"/>
+      <c r="CU143" s="40"/>
+      <c r="CV143" s="40"/>
+      <c r="CW143" s="40"/>
+      <c r="CX143" s="40"/>
+      <c r="CY143" s="44"/>
+      <c r="CZ143" s="45"/>
+      <c r="DA143" s="46"/>
+      <c r="DB143" s="40"/>
+      <c r="DC143" s="40"/>
+      <c r="DD143" s="40"/>
+      <c r="DE143" s="40"/>
+      <c r="DF143" s="40"/>
+      <c r="DG143" s="38"/>
+    </row>
+    <row r="144" spans="1:111">
+      <c r="A144" s="48" t="s">
+        <v>787</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D144" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E144" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" s="48" t="s">
+        <v>785</v>
+      </c>
+      <c r="G144" s="48" t="s">
+        <v>786</v>
+      </c>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+      <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="X144" s="1"/>
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1"/>
+      <c r="AA144" s="1"/>
+      <c r="AB144" s="1"/>
+      <c r="AC144" s="1"/>
+      <c r="AD144" s="1"/>
+      <c r="AE144" s="1"/>
+      <c r="AF144" s="1"/>
+      <c r="AG144" s="1"/>
+      <c r="AH144" s="1"/>
+      <c r="AI144" s="1"/>
+      <c r="AJ144" s="1"/>
+      <c r="AK144" s="1"/>
+      <c r="AL144" s="1"/>
+      <c r="AM144" s="1"/>
+      <c r="AN144" s="1"/>
+      <c r="AO144" s="1"/>
+      <c r="AP144" s="1"/>
+      <c r="AQ144" s="1"/>
+      <c r="AR144" s="1"/>
+      <c r="AS144" s="1"/>
+      <c r="AT144" s="1"/>
+      <c r="AU144" s="1"/>
+      <c r="AV144" s="1"/>
+      <c r="AW144" s="1"/>
+      <c r="AX144" s="1"/>
+      <c r="AY144" s="1"/>
+      <c r="AZ144" s="1"/>
+      <c r="BA144" s="1"/>
+      <c r="BB144" s="1"/>
+      <c r="BC144" s="1"/>
+      <c r="BD144" s="1"/>
+      <c r="BE144" s="1"/>
+      <c r="BF144" s="1"/>
+      <c r="BG144" s="1"/>
+      <c r="BH144" s="1"/>
+      <c r="BI144" s="1"/>
+      <c r="BJ144" s="1"/>
+      <c r="BK144" s="1"/>
+      <c r="BL144" s="1"/>
+      <c r="BM144" s="1"/>
+      <c r="BN144" s="1"/>
+      <c r="BO144" s="1"/>
+      <c r="BP144" s="1"/>
+      <c r="BQ144" s="1"/>
+      <c r="BR144" s="1"/>
+      <c r="BS144" s="1"/>
+      <c r="BT144" s="1"/>
+      <c r="BU144" s="1"/>
+      <c r="BV144" s="1"/>
+      <c r="BW144" s="1"/>
+      <c r="BX144" s="1"/>
+      <c r="BY144" s="1"/>
+      <c r="BZ144" s="1"/>
+      <c r="CA144" s="1"/>
+      <c r="CB144" s="1"/>
+      <c r="CC144" s="1"/>
+      <c r="CD144" s="1"/>
+      <c r="CE144" s="1"/>
+      <c r="CF144" s="1"/>
+      <c r="CG144" s="1"/>
+      <c r="CH144" s="1"/>
+      <c r="CI144" s="1"/>
+      <c r="CJ144" s="1"/>
+      <c r="CK144" s="1"/>
+      <c r="CL144" s="1"/>
+      <c r="CM144" s="1"/>
+      <c r="CN144" s="1"/>
+      <c r="CO144" s="1"/>
+      <c r="CP144" s="1"/>
+      <c r="CQ144" s="1"/>
+      <c r="CR144" s="1"/>
+      <c r="CS144" s="1"/>
+      <c r="CT144" s="1"/>
+      <c r="CU144" s="1"/>
+      <c r="CV144" s="1"/>
+      <c r="CW144" s="1"/>
+      <c r="CX144" s="1"/>
+      <c r="CY144" s="1"/>
+      <c r="CZ144" s="1"/>
+      <c r="DA144" s="1"/>
+      <c r="DB144" s="1"/>
+      <c r="DC144" s="1"/>
+      <c r="DD144" s="1"/>
+      <c r="DE144" s="1"/>
+      <c r="DF144" s="1"/>
+      <c r="DG144" s="1"/>
+    </row>
+    <row r="145" spans="1:111">
+      <c r="A145" s="48" t="s">
+        <v>789</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E145" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" s="48" t="s">
+        <v>792</v>
+      </c>
+      <c r="G145" s="48" t="s">
+        <v>788</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+      <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="X145" s="1"/>
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1"/>
+      <c r="AA145" s="1"/>
+      <c r="AB145" s="1"/>
+      <c r="AC145" s="1"/>
+      <c r="AD145" s="1"/>
+      <c r="AE145" s="1"/>
+      <c r="AF145" s="1"/>
+      <c r="AG145" s="1"/>
+      <c r="AH145" s="1"/>
+      <c r="AI145" s="1"/>
+      <c r="AJ145" s="1"/>
+      <c r="AK145" s="1"/>
+      <c r="AL145" s="1"/>
+      <c r="AM145" s="1"/>
+      <c r="AN145" s="1"/>
+      <c r="AO145" s="1"/>
+      <c r="AP145" s="1"/>
+      <c r="AQ145" s="1"/>
+      <c r="AR145" s="1"/>
+      <c r="AS145" s="1"/>
+      <c r="AT145" s="1"/>
+      <c r="AU145" s="1"/>
+      <c r="AV145" s="1"/>
+      <c r="AW145" s="1"/>
+      <c r="AX145" s="1"/>
+      <c r="AY145" s="1"/>
+      <c r="AZ145" s="1"/>
+      <c r="BA145" s="1"/>
+      <c r="BB145" s="1"/>
+      <c r="BC145" s="1"/>
+      <c r="BD145" s="1"/>
+      <c r="BE145" s="1"/>
+      <c r="BF145" s="1"/>
+      <c r="BG145" s="1"/>
+      <c r="BH145" s="1"/>
+      <c r="BI145" s="1"/>
+      <c r="BJ145" s="1"/>
+      <c r="BK145" s="1"/>
+      <c r="BL145" s="1"/>
+      <c r="BM145" s="1"/>
+      <c r="BN145" s="1"/>
+      <c r="BO145" s="1"/>
+      <c r="BP145" s="1"/>
+      <c r="BQ145" s="1"/>
+      <c r="BR145" s="1"/>
+      <c r="BS145" s="1"/>
+      <c r="BT145" s="1"/>
+      <c r="BU145" s="1"/>
+      <c r="BV145" s="1"/>
+      <c r="BW145" s="1"/>
+      <c r="BX145" s="1"/>
+      <c r="BY145" s="1"/>
+      <c r="BZ145" s="1"/>
+      <c r="CA145" s="1"/>
+      <c r="CB145" s="1"/>
+      <c r="CC145" s="1"/>
+      <c r="CD145" s="1"/>
+      <c r="CE145" s="1"/>
+      <c r="CF145" s="1"/>
+      <c r="CG145" s="1"/>
+      <c r="CH145" s="1"/>
+      <c r="CI145" s="1"/>
+      <c r="CJ145" s="1"/>
+      <c r="CK145" s="1"/>
+      <c r="CL145" s="1"/>
+      <c r="CM145" s="1"/>
+      <c r="CN145" s="1"/>
+      <c r="CO145" s="1"/>
+      <c r="CP145" s="1"/>
+      <c r="CQ145" s="1"/>
+      <c r="CR145" s="1"/>
+      <c r="CS145" s="1"/>
+      <c r="CT145" s="1"/>
+      <c r="CU145" s="1"/>
+      <c r="CV145" s="1"/>
+      <c r="CW145" s="1"/>
+      <c r="CX145" s="1"/>
+      <c r="CY145" s="1"/>
+      <c r="CZ145" s="1"/>
+      <c r="DA145" s="1"/>
+      <c r="DB145" s="1"/>
+      <c r="DC145" s="1"/>
+      <c r="DD145" s="1"/>
+      <c r="DE145" s="1"/>
+      <c r="DF145" s="1"/>
+      <c r="DG145" s="1"/>
+    </row>
+    <row r="146" spans="1:111">
+      <c r="A146" s="48" t="s">
+        <v>790</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D146" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E146" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" s="48" t="s">
+        <v>793</v>
+      </c>
+      <c r="G146" s="48" t="s">
+        <v>795</v>
+      </c>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1"/>
+      <c r="AA146" s="1"/>
+      <c r="AB146" s="1"/>
+      <c r="AC146" s="1"/>
+      <c r="AD146" s="1"/>
+      <c r="AE146" s="1"/>
+      <c r="AF146" s="1"/>
+      <c r="AG146" s="1"/>
+      <c r="AH146" s="1"/>
+      <c r="AI146" s="1"/>
+      <c r="AJ146" s="1"/>
+      <c r="AK146" s="1"/>
+      <c r="AL146" s="1"/>
+      <c r="AM146" s="1"/>
+      <c r="AN146" s="1"/>
+      <c r="AO146" s="1"/>
+      <c r="AP146" s="1"/>
+      <c r="AQ146" s="1"/>
+      <c r="AR146" s="1"/>
+      <c r="AS146" s="1"/>
+      <c r="AT146" s="1"/>
+      <c r="AU146" s="1"/>
+      <c r="AV146" s="1"/>
+      <c r="AW146" s="1"/>
+      <c r="AX146" s="1"/>
+      <c r="AY146" s="1"/>
+      <c r="AZ146" s="1"/>
+      <c r="BA146" s="1"/>
+      <c r="BB146" s="1"/>
+      <c r="BC146" s="1"/>
+      <c r="BD146" s="1"/>
+      <c r="BE146" s="1"/>
+      <c r="BF146" s="1"/>
+      <c r="BG146" s="1"/>
+      <c r="BH146" s="1"/>
+      <c r="BI146" s="1"/>
+      <c r="BJ146" s="1"/>
+      <c r="BK146" s="1"/>
+      <c r="BL146" s="1"/>
+      <c r="BM146" s="1"/>
+      <c r="BN146" s="1"/>
+      <c r="BO146" s="1"/>
+      <c r="BP146" s="1"/>
+      <c r="BQ146" s="1"/>
+      <c r="BR146" s="1"/>
+      <c r="BS146" s="1"/>
+      <c r="BT146" s="1"/>
+      <c r="BU146" s="1"/>
+      <c r="BV146" s="1"/>
+      <c r="BW146" s="1"/>
+      <c r="BX146" s="1"/>
+      <c r="BY146" s="1"/>
+      <c r="BZ146" s="1"/>
+      <c r="CA146" s="1"/>
+      <c r="CB146" s="1"/>
+      <c r="CC146" s="1"/>
+      <c r="CD146" s="1"/>
+      <c r="CE146" s="1"/>
+      <c r="CF146" s="1"/>
+      <c r="CG146" s="1"/>
+      <c r="CH146" s="1"/>
+      <c r="CI146" s="1"/>
+      <c r="CJ146" s="1"/>
+      <c r="CK146" s="1"/>
+      <c r="CL146" s="1"/>
+      <c r="CM146" s="1"/>
+      <c r="CN146" s="1"/>
+      <c r="CO146" s="1"/>
+      <c r="CP146" s="1"/>
+      <c r="CQ146" s="1"/>
+      <c r="CR146" s="1"/>
+      <c r="CS146" s="1"/>
+      <c r="CT146" s="1"/>
+      <c r="CU146" s="1"/>
+      <c r="CV146" s="1"/>
+      <c r="CW146" s="1"/>
+      <c r="CX146" s="1"/>
+      <c r="CY146" s="1"/>
+      <c r="CZ146" s="1"/>
+      <c r="DA146" s="1"/>
+      <c r="DB146" s="1"/>
+      <c r="DC146" s="1"/>
+      <c r="DD146" s="1"/>
+      <c r="DE146" s="1"/>
+      <c r="DF146" s="1"/>
+      <c r="DG146" s="1"/>
+    </row>
+    <row r="147" spans="1:111">
+      <c r="A147" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D147" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E147" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F147" s="48" t="s">
+        <v>794</v>
+      </c>
+      <c r="G147" s="48" t="s">
+        <v>796</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+      <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="X147" s="1"/>
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1"/>
+      <c r="AA147" s="1"/>
+      <c r="AB147" s="1"/>
+      <c r="AC147" s="1"/>
+      <c r="AD147" s="1"/>
+      <c r="AE147" s="1"/>
+      <c r="AF147" s="1"/>
+      <c r="AG147" s="1"/>
+      <c r="AH147" s="1"/>
+      <c r="AI147" s="1"/>
+      <c r="AJ147" s="1"/>
+      <c r="AK147" s="1"/>
+      <c r="AL147" s="1"/>
+      <c r="AM147" s="1"/>
+      <c r="AN147" s="1"/>
+      <c r="AO147" s="1"/>
+      <c r="AP147" s="1"/>
+      <c r="AQ147" s="1"/>
+      <c r="AR147" s="1"/>
+      <c r="AS147" s="1"/>
+      <c r="AT147" s="1"/>
+      <c r="AU147" s="1"/>
+      <c r="AV147" s="1"/>
+      <c r="AW147" s="1"/>
+      <c r="AX147" s="1"/>
+      <c r="AY147" s="1"/>
+      <c r="AZ147" s="1"/>
+      <c r="BA147" s="1"/>
+      <c r="BB147" s="1"/>
+      <c r="BC147" s="1"/>
+      <c r="BD147" s="1"/>
+      <c r="BE147" s="1"/>
+      <c r="BF147" s="1"/>
+      <c r="BG147" s="1"/>
+      <c r="BH147" s="1"/>
+      <c r="BI147" s="1"/>
+      <c r="BJ147" s="1"/>
+      <c r="BK147" s="1"/>
+      <c r="BL147" s="1"/>
+      <c r="BM147" s="1"/>
+      <c r="BN147" s="1"/>
+      <c r="BO147" s="1"/>
+      <c r="BP147" s="1"/>
+      <c r="BQ147" s="1"/>
+      <c r="BR147" s="1"/>
+      <c r="BS147" s="1"/>
+      <c r="BT147" s="1"/>
+      <c r="BU147" s="1"/>
+      <c r="BV147" s="1"/>
+      <c r="BW147" s="1"/>
+      <c r="BX147" s="1"/>
+      <c r="BY147" s="1"/>
+      <c r="BZ147" s="1"/>
+      <c r="CA147" s="1"/>
+      <c r="CB147" s="1"/>
+      <c r="CC147" s="1"/>
+      <c r="CD147" s="1"/>
+      <c r="CE147" s="1"/>
+      <c r="CF147" s="1"/>
+      <c r="CG147" s="1"/>
+      <c r="CH147" s="1"/>
+      <c r="CI147" s="1"/>
+      <c r="CJ147" s="1"/>
+      <c r="CK147" s="1"/>
+      <c r="CL147" s="1"/>
+      <c r="CM147" s="1"/>
+      <c r="CN147" s="1"/>
+      <c r="CO147" s="1"/>
+      <c r="CP147" s="1"/>
+      <c r="CQ147" s="1"/>
+      <c r="CR147" s="1"/>
+      <c r="CS147" s="1"/>
+      <c r="CT147" s="1"/>
+      <c r="CU147" s="1"/>
+      <c r="CV147" s="1"/>
+      <c r="CW147" s="1"/>
+      <c r="CX147" s="1"/>
+      <c r="CY147" s="1"/>
+      <c r="CZ147" s="1"/>
+      <c r="DA147" s="1"/>
+      <c r="DB147" s="1"/>
+      <c r="DC147" s="1"/>
+      <c r="DD147" s="1"/>
+      <c r="DE147" s="1"/>
+      <c r="DF147" s="1"/>
+      <c r="DG147" s="1"/>
+    </row>
+    <row r="148" spans="1:111">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+      <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="X148" s="1"/>
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1"/>
+      <c r="AA148" s="1"/>
+      <c r="AB148" s="1"/>
+      <c r="AC148" s="1"/>
+      <c r="AD148" s="1"/>
+      <c r="AE148" s="1"/>
+      <c r="AF148" s="1"/>
+      <c r="AG148" s="1"/>
+      <c r="AH148" s="1"/>
+      <c r="AI148" s="1"/>
+      <c r="AJ148" s="1"/>
+      <c r="AK148" s="1"/>
+      <c r="AL148" s="1"/>
+      <c r="AM148" s="1"/>
+      <c r="AN148" s="1"/>
+      <c r="AO148" s="1"/>
+      <c r="AP148" s="1"/>
+      <c r="AQ148" s="1"/>
+      <c r="AR148" s="1"/>
+      <c r="AS148" s="1"/>
+      <c r="AT148" s="1"/>
+      <c r="AU148" s="1"/>
+      <c r="AV148" s="1"/>
+      <c r="AW148" s="1"/>
+      <c r="AX148" s="1"/>
+      <c r="AY148" s="1"/>
+      <c r="AZ148" s="1"/>
+      <c r="BA148" s="1"/>
+      <c r="BB148" s="1"/>
+      <c r="BC148" s="1"/>
+      <c r="BD148" s="1"/>
+      <c r="BE148" s="1"/>
+      <c r="BF148" s="1"/>
+      <c r="BG148" s="1"/>
+      <c r="BH148" s="1"/>
+      <c r="BI148" s="1"/>
+      <c r="BJ148" s="1"/>
+      <c r="BK148" s="1"/>
+      <c r="BL148" s="1"/>
+      <c r="BM148" s="1"/>
+      <c r="BN148" s="1"/>
+      <c r="BO148" s="1"/>
+      <c r="BP148" s="1"/>
+      <c r="BQ148" s="1"/>
+      <c r="BR148" s="1"/>
+      <c r="BS148" s="1"/>
+      <c r="BT148" s="1"/>
+      <c r="BU148" s="1"/>
+      <c r="BV148" s="1"/>
+      <c r="BW148" s="1"/>
+      <c r="BX148" s="1"/>
+      <c r="BY148" s="1"/>
+      <c r="BZ148" s="1"/>
+      <c r="CA148" s="1"/>
+      <c r="CB148" s="1"/>
+      <c r="CC148" s="1"/>
+      <c r="CD148" s="1"/>
+      <c r="CE148" s="1"/>
+      <c r="CF148" s="1"/>
+      <c r="CG148" s="1"/>
+      <c r="CH148" s="1"/>
+      <c r="CI148" s="1"/>
+      <c r="CJ148" s="1"/>
+      <c r="CK148" s="1"/>
+      <c r="CL148" s="1"/>
+      <c r="CM148" s="1"/>
+      <c r="CN148" s="1"/>
+      <c r="CO148" s="1"/>
+      <c r="CP148" s="1"/>
+      <c r="CQ148" s="1"/>
+      <c r="CR148" s="1"/>
+      <c r="CS148" s="1"/>
+      <c r="CT148" s="1"/>
+      <c r="CU148" s="1"/>
+      <c r="CV148" s="1"/>
+      <c r="CW148" s="1"/>
+      <c r="CX148" s="1"/>
+      <c r="CY148" s="1"/>
+      <c r="CZ148" s="1"/>
+      <c r="DA148" s="1"/>
+      <c r="DB148" s="1"/>
+      <c r="DC148" s="1"/>
+      <c r="DD148" s="1"/>
+      <c r="DE148" s="1"/>
+      <c r="DF148" s="1"/>
+      <c r="DG148" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com"/>
-    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com"/>
-    <hyperlink ref="W14" r:id="rId3"/>
-    <hyperlink ref="W66" r:id="rId4"/>
-    <hyperlink ref="CZ66" r:id="rId5"/>
-    <hyperlink ref="DA66" r:id="rId6"/>
-    <hyperlink ref="DA10" r:id="rId7"/>
-    <hyperlink ref="W11" r:id="rId8" display="ayadav@zarca.com"/>
-    <hyperlink ref="DA11" r:id="rId9"/>
-    <hyperlink ref="W12" r:id="rId10" display="ayadav@zarca.com"/>
-    <hyperlink ref="DA12" r:id="rId11"/>
-    <hyperlink ref="W13" r:id="rId12" display="ayadav@zarca.com"/>
-    <hyperlink ref="DA13" r:id="rId13"/>
-    <hyperlink ref="CZ5" r:id="rId14"/>
-    <hyperlink ref="W104" r:id="rId15"/>
-    <hyperlink ref="CZ70" r:id="rId16"/>
-    <hyperlink ref="DA70" r:id="rId17"/>
-    <hyperlink ref="N70" r:id="rId18"/>
+    <hyperlink ref="Q2" r:id="rId1" display="nehatest100@gmail.com" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="W10" r:id="rId2" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="W14" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="W66" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="CZ66" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="DA66" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="DA10" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="W11" r:id="rId8" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="DA11" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="W12" r:id="rId10" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="DA12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="W13" r:id="rId12" display="ayadav@zarca.com" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="DA13" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="CZ5" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="W104" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="CZ70" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="DA70" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="N70" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId19"/>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD309B-96E2-4960-B793-E0073EC05281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B133B0A-80E5-45C1-8DD1-D1D887513299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="847">
   <si>
     <t>Environment</t>
   </si>
@@ -2543,6 +2543,156 @@
   </si>
   <si>
     <t>Trial Premium Signup</t>
+  </si>
+  <si>
+    <t>Smoke_TC165</t>
+  </si>
+  <si>
+    <t>Blocked Mail all signup</t>
+  </si>
+  <si>
+    <t>Blocked mail</t>
+  </si>
+  <si>
+    <t>Smoke_TC166</t>
+  </si>
+  <si>
+    <t>Empty First Name</t>
+  </si>
+  <si>
+    <t>Smoke_TC167</t>
+  </si>
+  <si>
+    <t>Empty Last Name</t>
+  </si>
+  <si>
+    <t>Smoke_TC168</t>
+  </si>
+  <si>
+    <t>User id less than 4 characters</t>
+  </si>
+  <si>
+    <t>Smoke_TC169</t>
+  </si>
+  <si>
+    <t>User id more than 30 characters</t>
+  </si>
+  <si>
+    <t>Missing requisite characters in password</t>
+  </si>
+  <si>
+    <t>Smoke_TC170</t>
+  </si>
+  <si>
+    <t>Smoke_TC171</t>
+  </si>
+  <si>
+    <t>Invalid User ID</t>
+  </si>
+  <si>
+    <t>Smoke_TC172</t>
+  </si>
+  <si>
+    <t>All Fields Empty</t>
+  </si>
+  <si>
+    <t>Smoke_TC173</t>
+  </si>
+  <si>
+    <t>Invalid characters user id</t>
+  </si>
+  <si>
+    <t>Smoke_TC174</t>
+  </si>
+  <si>
+    <t>Empty Company Info</t>
+  </si>
+  <si>
+    <t>Smoke_TC175</t>
+  </si>
+  <si>
+    <t>Smoke_TC176</t>
+  </si>
+  <si>
+    <t>Smoke_TC177</t>
+  </si>
+  <si>
+    <t>Smoke_TC178</t>
+  </si>
+  <si>
+    <t>Empty Org Name</t>
+  </si>
+  <si>
+    <t>Empty Phone Number</t>
+  </si>
+  <si>
+    <t>Invalid Phone Number</t>
+  </si>
+  <si>
+    <t>Smoke_TC179</t>
+  </si>
+  <si>
+    <t>Empty Work Info</t>
+  </si>
+  <si>
+    <t>Smoke_TC180</t>
+  </si>
+  <si>
+    <t>Empty Project Info</t>
+  </si>
+  <si>
+    <t>Smoke_TC181</t>
+  </si>
+  <si>
+    <t>Existing User ID</t>
+  </si>
+  <si>
+    <t>QAUC</t>
+  </si>
+  <si>
+    <t>https://sogolyticsqauc.sevenpv.com/</t>
+  </si>
+  <si>
+    <t>Smoke_TC182</t>
+  </si>
+  <si>
+    <t>Smoke_TC183</t>
+  </si>
+  <si>
+    <t>Create Plus Yearly Paid account</t>
+  </si>
+  <si>
+    <t>Create Pro Yearly Paid account</t>
+  </si>
+  <si>
+    <t>Smoke_TC184</t>
+  </si>
+  <si>
+    <t>Create Pro Monthly Paid account</t>
+  </si>
+  <si>
+    <t>Smoke_TC185</t>
+  </si>
+  <si>
+    <t>Smoke_TC186</t>
+  </si>
+  <si>
+    <t>Create Premium Yearly Paid account</t>
+  </si>
+  <si>
+    <t>Create Premium Monthly Paid account</t>
+  </si>
+  <si>
+    <t>Smoke_TC187</t>
+  </si>
+  <si>
+    <t>Incorrect CC</t>
+  </si>
+  <si>
+    <t>Smoke_TC188</t>
+  </si>
+  <si>
+    <t>Incorrect Date</t>
   </si>
 </sst>
 </file>
@@ -3131,10 +3281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3163,6 +3313,17 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3407,10 +3568,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:DG148"/>
+  <dimension ref="A1:DG171"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I147" sqref="I147"/>
+    <sheetView topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3421,7 +3582,7 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="42.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -23019,7 +23180,9 @@
       <c r="F143" s="48"/>
       <c r="G143" s="48"/>
       <c r="H143" s="40"/>
-      <c r="I143" s="41"/>
+      <c r="I143" s="41" t="s">
+        <v>178</v>
+      </c>
       <c r="J143" s="40"/>
       <c r="K143" s="40" t="s">
         <v>776</v>
@@ -23156,7 +23319,9 @@
         <v>786</v>
       </c>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
+      <c r="I144" s="41" t="s">
+        <v>178</v>
+      </c>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -23283,7 +23448,9 @@
         <v>788</v>
       </c>
       <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
+      <c r="I145" s="41" t="s">
+        <v>178</v>
+      </c>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -23410,7 +23577,9 @@
         <v>795</v>
       </c>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
+      <c r="I146" s="41" t="s">
+        <v>178</v>
+      </c>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -23537,7 +23706,9 @@
         <v>796</v>
       </c>
       <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
+      <c r="I147" s="41" t="s">
+        <v>178</v>
+      </c>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -23642,15 +23813,31 @@
       <c r="DG147" s="1"/>
     </row>
     <row r="148" spans="1:111">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="A148" s="48" t="s">
+        <v>797</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D148" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E148" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F148" s="48" t="s">
+        <v>798</v>
+      </c>
+      <c r="G148" s="48" t="s">
+        <v>799</v>
+      </c>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
+      <c r="I148" s="41" t="s">
+        <v>178</v>
+      </c>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -23754,6 +23941,2973 @@
       <c r="DF148" s="1"/>
       <c r="DG148" s="1"/>
     </row>
+    <row r="149" spans="1:111">
+      <c r="A149" s="48" t="s">
+        <v>800</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D149" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E149" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F149" s="48" t="s">
+        <v>801</v>
+      </c>
+      <c r="G149" s="48" t="s">
+        <v>801</v>
+      </c>
+      <c r="H149" s="1"/>
+      <c r="I149" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1"/>
+      <c r="AA149" s="1"/>
+      <c r="AB149" s="1"/>
+      <c r="AC149" s="1"/>
+      <c r="AD149" s="1"/>
+      <c r="AE149" s="1"/>
+      <c r="AF149" s="1"/>
+      <c r="AG149" s="1"/>
+      <c r="AH149" s="1"/>
+      <c r="AI149" s="1"/>
+      <c r="AJ149" s="1"/>
+      <c r="AK149" s="1"/>
+      <c r="AL149" s="1"/>
+      <c r="AM149" s="1"/>
+      <c r="AN149" s="1"/>
+      <c r="AO149" s="1"/>
+      <c r="AP149" s="1"/>
+      <c r="AQ149" s="1"/>
+      <c r="AR149" s="1"/>
+      <c r="AS149" s="1"/>
+      <c r="AT149" s="1"/>
+      <c r="AU149" s="1"/>
+      <c r="AV149" s="1"/>
+      <c r="AW149" s="1"/>
+      <c r="AX149" s="1"/>
+      <c r="AY149" s="1"/>
+      <c r="AZ149" s="1"/>
+      <c r="BA149" s="1"/>
+      <c r="BB149" s="1"/>
+      <c r="BC149" s="1"/>
+      <c r="BD149" s="1"/>
+      <c r="BE149" s="1"/>
+      <c r="BF149" s="1"/>
+      <c r="BG149" s="1"/>
+      <c r="BH149" s="1"/>
+      <c r="BI149" s="1"/>
+      <c r="BJ149" s="1"/>
+      <c r="BK149" s="1"/>
+      <c r="BL149" s="1"/>
+      <c r="BM149" s="1"/>
+      <c r="BN149" s="1"/>
+      <c r="BO149" s="1"/>
+      <c r="BP149" s="1"/>
+      <c r="BQ149" s="1"/>
+      <c r="BR149" s="1"/>
+      <c r="BS149" s="1"/>
+      <c r="BT149" s="1"/>
+      <c r="BU149" s="1"/>
+      <c r="BV149" s="1"/>
+      <c r="BW149" s="1"/>
+      <c r="BX149" s="1"/>
+      <c r="BY149" s="1"/>
+      <c r="BZ149" s="1"/>
+      <c r="CA149" s="1"/>
+      <c r="CB149" s="1"/>
+      <c r="CC149" s="1"/>
+      <c r="CD149" s="1"/>
+      <c r="CE149" s="1"/>
+      <c r="CF149" s="1"/>
+      <c r="CG149" s="1"/>
+      <c r="CH149" s="1"/>
+      <c r="CI149" s="1"/>
+      <c r="CJ149" s="1"/>
+      <c r="CK149" s="1"/>
+      <c r="CL149" s="1"/>
+      <c r="CM149" s="1"/>
+      <c r="CN149" s="1"/>
+      <c r="CO149" s="1"/>
+      <c r="CP149" s="1"/>
+      <c r="CQ149" s="1"/>
+      <c r="CR149" s="1"/>
+      <c r="CS149" s="1"/>
+      <c r="CT149" s="1"/>
+      <c r="CU149" s="1"/>
+      <c r="CV149" s="1"/>
+      <c r="CW149" s="1"/>
+      <c r="CX149" s="1"/>
+      <c r="CY149" s="1"/>
+      <c r="CZ149" s="1"/>
+      <c r="DA149" s="1"/>
+      <c r="DB149" s="1"/>
+      <c r="DC149" s="1"/>
+      <c r="DD149" s="1"/>
+      <c r="DE149" s="1"/>
+      <c r="DF149" s="1"/>
+      <c r="DG149" s="1"/>
+    </row>
+    <row r="150" spans="1:111">
+      <c r="A150" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D150" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E150" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F150" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="G150" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="H150" s="1"/>
+      <c r="I150" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+      <c r="AH150" s="1"/>
+      <c r="AI150" s="1"/>
+      <c r="AJ150" s="1"/>
+      <c r="AK150" s="1"/>
+      <c r="AL150" s="1"/>
+      <c r="AM150" s="1"/>
+      <c r="AN150" s="1"/>
+      <c r="AO150" s="1"/>
+      <c r="AP150" s="1"/>
+      <c r="AQ150" s="1"/>
+      <c r="AR150" s="1"/>
+      <c r="AS150" s="1"/>
+      <c r="AT150" s="1"/>
+      <c r="AU150" s="1"/>
+      <c r="AV150" s="1"/>
+      <c r="AW150" s="1"/>
+      <c r="AX150" s="1"/>
+      <c r="AY150" s="1"/>
+      <c r="AZ150" s="1"/>
+      <c r="BA150" s="1"/>
+      <c r="BB150" s="1"/>
+      <c r="BC150" s="1"/>
+      <c r="BD150" s="1"/>
+      <c r="BE150" s="1"/>
+      <c r="BF150" s="1"/>
+      <c r="BG150" s="1"/>
+      <c r="BH150" s="1"/>
+      <c r="BI150" s="1"/>
+      <c r="BJ150" s="1"/>
+      <c r="BK150" s="1"/>
+      <c r="BL150" s="1"/>
+      <c r="BM150" s="1"/>
+      <c r="BN150" s="1"/>
+      <c r="BO150" s="1"/>
+      <c r="BP150" s="1"/>
+      <c r="BQ150" s="1"/>
+      <c r="BR150" s="1"/>
+      <c r="BS150" s="1"/>
+      <c r="BT150" s="1"/>
+      <c r="BU150" s="1"/>
+      <c r="BV150" s="1"/>
+      <c r="BW150" s="1"/>
+      <c r="BX150" s="1"/>
+      <c r="BY150" s="1"/>
+      <c r="BZ150" s="1"/>
+      <c r="CA150" s="1"/>
+      <c r="CB150" s="1"/>
+      <c r="CC150" s="1"/>
+      <c r="CD150" s="1"/>
+      <c r="CE150" s="1"/>
+      <c r="CF150" s="1"/>
+      <c r="CG150" s="1"/>
+      <c r="CH150" s="1"/>
+      <c r="CI150" s="1"/>
+      <c r="CJ150" s="1"/>
+      <c r="CK150" s="1"/>
+      <c r="CL150" s="1"/>
+      <c r="CM150" s="1"/>
+      <c r="CN150" s="1"/>
+      <c r="CO150" s="1"/>
+      <c r="CP150" s="1"/>
+      <c r="CQ150" s="1"/>
+      <c r="CR150" s="1"/>
+      <c r="CS150" s="1"/>
+      <c r="CT150" s="1"/>
+      <c r="CU150" s="1"/>
+      <c r="CV150" s="1"/>
+      <c r="CW150" s="1"/>
+      <c r="CX150" s="1"/>
+      <c r="CY150" s="1"/>
+      <c r="CZ150" s="1"/>
+      <c r="DA150" s="1"/>
+      <c r="DB150" s="1"/>
+      <c r="DC150" s="1"/>
+      <c r="DD150" s="1"/>
+      <c r="DE150" s="1"/>
+      <c r="DF150" s="1"/>
+      <c r="DG150" s="1"/>
+    </row>
+    <row r="151" spans="1:111">
+      <c r="A151" s="48" t="s">
+        <v>804</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D151" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E151" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F151" s="48" t="s">
+        <v>805</v>
+      </c>
+      <c r="G151" s="48" t="s">
+        <v>805</v>
+      </c>
+      <c r="H151" s="1"/>
+      <c r="I151" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="X151" s="1"/>
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1"/>
+      <c r="AA151" s="1"/>
+      <c r="AB151" s="1"/>
+      <c r="AC151" s="1"/>
+      <c r="AD151" s="1"/>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+      <c r="AG151" s="1"/>
+      <c r="AH151" s="1"/>
+      <c r="AI151" s="1"/>
+      <c r="AJ151" s="1"/>
+      <c r="AK151" s="1"/>
+      <c r="AL151" s="1"/>
+      <c r="AM151" s="1"/>
+      <c r="AN151" s="1"/>
+      <c r="AO151" s="1"/>
+      <c r="AP151" s="1"/>
+      <c r="AQ151" s="1"/>
+      <c r="AR151" s="1"/>
+      <c r="AS151" s="1"/>
+      <c r="AT151" s="1"/>
+      <c r="AU151" s="1"/>
+      <c r="AV151" s="1"/>
+      <c r="AW151" s="1"/>
+      <c r="AX151" s="1"/>
+      <c r="AY151" s="1"/>
+      <c r="AZ151" s="1"/>
+      <c r="BA151" s="1"/>
+      <c r="BB151" s="1"/>
+      <c r="BC151" s="1"/>
+      <c r="BD151" s="1"/>
+      <c r="BE151" s="1"/>
+      <c r="BF151" s="1"/>
+      <c r="BG151" s="1"/>
+      <c r="BH151" s="1"/>
+      <c r="BI151" s="1"/>
+      <c r="BJ151" s="1"/>
+      <c r="BK151" s="1"/>
+      <c r="BL151" s="1"/>
+      <c r="BM151" s="1"/>
+      <c r="BN151" s="1"/>
+      <c r="BO151" s="1"/>
+      <c r="BP151" s="1"/>
+      <c r="BQ151" s="1"/>
+      <c r="BR151" s="1"/>
+      <c r="BS151" s="1"/>
+      <c r="BT151" s="1"/>
+      <c r="BU151" s="1"/>
+      <c r="BV151" s="1"/>
+      <c r="BW151" s="1"/>
+      <c r="BX151" s="1"/>
+      <c r="BY151" s="1"/>
+      <c r="BZ151" s="1"/>
+      <c r="CA151" s="1"/>
+      <c r="CB151" s="1"/>
+      <c r="CC151" s="1"/>
+      <c r="CD151" s="1"/>
+      <c r="CE151" s="1"/>
+      <c r="CF151" s="1"/>
+      <c r="CG151" s="1"/>
+      <c r="CH151" s="1"/>
+      <c r="CI151" s="1"/>
+      <c r="CJ151" s="1"/>
+      <c r="CK151" s="1"/>
+      <c r="CL151" s="1"/>
+      <c r="CM151" s="1"/>
+      <c r="CN151" s="1"/>
+      <c r="CO151" s="1"/>
+      <c r="CP151" s="1"/>
+      <c r="CQ151" s="1"/>
+      <c r="CR151" s="1"/>
+      <c r="CS151" s="1"/>
+      <c r="CT151" s="1"/>
+      <c r="CU151" s="1"/>
+      <c r="CV151" s="1"/>
+      <c r="CW151" s="1"/>
+      <c r="CX151" s="1"/>
+      <c r="CY151" s="1"/>
+      <c r="CZ151" s="1"/>
+      <c r="DA151" s="1"/>
+      <c r="DB151" s="1"/>
+      <c r="DC151" s="1"/>
+      <c r="DD151" s="1"/>
+      <c r="DE151" s="1"/>
+      <c r="DF151" s="1"/>
+      <c r="DG151" s="1"/>
+    </row>
+    <row r="152" spans="1:111">
+      <c r="A152" s="48" t="s">
+        <v>806</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D152" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E152" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F152" s="48" t="s">
+        <v>807</v>
+      </c>
+      <c r="G152" s="48" t="s">
+        <v>807</v>
+      </c>
+      <c r="H152" s="1"/>
+      <c r="I152" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
+      <c r="AA152" s="1"/>
+      <c r="AB152" s="1"/>
+      <c r="AC152" s="1"/>
+      <c r="AD152" s="1"/>
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1"/>
+      <c r="AG152" s="1"/>
+      <c r="AH152" s="1"/>
+      <c r="AI152" s="1"/>
+      <c r="AJ152" s="1"/>
+      <c r="AK152" s="1"/>
+      <c r="AL152" s="1"/>
+      <c r="AM152" s="1"/>
+      <c r="AN152" s="1"/>
+      <c r="AO152" s="1"/>
+      <c r="AP152" s="1"/>
+      <c r="AQ152" s="1"/>
+      <c r="AR152" s="1"/>
+      <c r="AS152" s="1"/>
+      <c r="AT152" s="1"/>
+      <c r="AU152" s="1"/>
+      <c r="AV152" s="1"/>
+      <c r="AW152" s="1"/>
+      <c r="AX152" s="1"/>
+      <c r="AY152" s="1"/>
+      <c r="AZ152" s="1"/>
+      <c r="BA152" s="1"/>
+      <c r="BB152" s="1"/>
+      <c r="BC152" s="1"/>
+      <c r="BD152" s="1"/>
+      <c r="BE152" s="1"/>
+      <c r="BF152" s="1"/>
+      <c r="BG152" s="1"/>
+      <c r="BH152" s="1"/>
+      <c r="BI152" s="1"/>
+      <c r="BJ152" s="1"/>
+      <c r="BK152" s="1"/>
+      <c r="BL152" s="1"/>
+      <c r="BM152" s="1"/>
+      <c r="BN152" s="1"/>
+      <c r="BO152" s="1"/>
+      <c r="BP152" s="1"/>
+      <c r="BQ152" s="1"/>
+      <c r="BR152" s="1"/>
+      <c r="BS152" s="1"/>
+      <c r="BT152" s="1"/>
+      <c r="BU152" s="1"/>
+      <c r="BV152" s="1"/>
+      <c r="BW152" s="1"/>
+      <c r="BX152" s="1"/>
+      <c r="BY152" s="1"/>
+      <c r="BZ152" s="1"/>
+      <c r="CA152" s="1"/>
+      <c r="CB152" s="1"/>
+      <c r="CC152" s="1"/>
+      <c r="CD152" s="1"/>
+      <c r="CE152" s="1"/>
+      <c r="CF152" s="1"/>
+      <c r="CG152" s="1"/>
+      <c r="CH152" s="1"/>
+      <c r="CI152" s="1"/>
+      <c r="CJ152" s="1"/>
+      <c r="CK152" s="1"/>
+      <c r="CL152" s="1"/>
+      <c r="CM152" s="1"/>
+      <c r="CN152" s="1"/>
+      <c r="CO152" s="1"/>
+      <c r="CP152" s="1"/>
+      <c r="CQ152" s="1"/>
+      <c r="CR152" s="1"/>
+      <c r="CS152" s="1"/>
+      <c r="CT152" s="1"/>
+      <c r="CU152" s="1"/>
+      <c r="CV152" s="1"/>
+      <c r="CW152" s="1"/>
+      <c r="CX152" s="1"/>
+      <c r="CY152" s="1"/>
+      <c r="CZ152" s="1"/>
+      <c r="DA152" s="1"/>
+      <c r="DB152" s="1"/>
+      <c r="DC152" s="1"/>
+      <c r="DD152" s="1"/>
+      <c r="DE152" s="1"/>
+      <c r="DF152" s="1"/>
+      <c r="DG152" s="1"/>
+    </row>
+    <row r="153" spans="1:111">
+      <c r="A153" s="48" t="s">
+        <v>809</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D153" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E153" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F153" s="48" t="s">
+        <v>808</v>
+      </c>
+      <c r="G153" s="48" t="s">
+        <v>808</v>
+      </c>
+      <c r="H153" s="1"/>
+      <c r="I153" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="1"/>
+      <c r="Z153" s="1"/>
+      <c r="AA153" s="1"/>
+      <c r="AB153" s="1"/>
+      <c r="AC153" s="1"/>
+      <c r="AD153" s="1"/>
+      <c r="AE153" s="1"/>
+      <c r="AF153" s="1"/>
+      <c r="AG153" s="1"/>
+      <c r="AH153" s="1"/>
+      <c r="AI153" s="1"/>
+      <c r="AJ153" s="1"/>
+      <c r="AK153" s="1"/>
+      <c r="AL153" s="1"/>
+      <c r="AM153" s="1"/>
+      <c r="AN153" s="1"/>
+      <c r="AO153" s="1"/>
+      <c r="AP153" s="1"/>
+      <c r="AQ153" s="1"/>
+      <c r="AR153" s="1"/>
+      <c r="AS153" s="1"/>
+      <c r="AT153" s="1"/>
+      <c r="AU153" s="1"/>
+      <c r="AV153" s="1"/>
+      <c r="AW153" s="1"/>
+      <c r="AX153" s="1"/>
+      <c r="AY153" s="1"/>
+      <c r="AZ153" s="1"/>
+      <c r="BA153" s="1"/>
+      <c r="BB153" s="1"/>
+      <c r="BC153" s="1"/>
+      <c r="BD153" s="1"/>
+      <c r="BE153" s="1"/>
+      <c r="BF153" s="1"/>
+      <c r="BG153" s="1"/>
+      <c r="BH153" s="1"/>
+      <c r="BI153" s="1"/>
+      <c r="BJ153" s="1"/>
+      <c r="BK153" s="1"/>
+      <c r="BL153" s="1"/>
+      <c r="BM153" s="1"/>
+      <c r="BN153" s="1"/>
+      <c r="BO153" s="1"/>
+      <c r="BP153" s="1"/>
+      <c r="BQ153" s="1"/>
+      <c r="BR153" s="1"/>
+      <c r="BS153" s="1"/>
+      <c r="BT153" s="1"/>
+      <c r="BU153" s="1"/>
+      <c r="BV153" s="1"/>
+      <c r="BW153" s="1"/>
+      <c r="BX153" s="1"/>
+      <c r="BY153" s="1"/>
+      <c r="BZ153" s="1"/>
+      <c r="CA153" s="1"/>
+      <c r="CB153" s="1"/>
+      <c r="CC153" s="1"/>
+      <c r="CD153" s="1"/>
+      <c r="CE153" s="1"/>
+      <c r="CF153" s="1"/>
+      <c r="CG153" s="1"/>
+      <c r="CH153" s="1"/>
+      <c r="CI153" s="1"/>
+      <c r="CJ153" s="1"/>
+      <c r="CK153" s="1"/>
+      <c r="CL153" s="1"/>
+      <c r="CM153" s="1"/>
+      <c r="CN153" s="1"/>
+      <c r="CO153" s="1"/>
+      <c r="CP153" s="1"/>
+      <c r="CQ153" s="1"/>
+      <c r="CR153" s="1"/>
+      <c r="CS153" s="1"/>
+      <c r="CT153" s="1"/>
+      <c r="CU153" s="1"/>
+      <c r="CV153" s="1"/>
+      <c r="CW153" s="1"/>
+      <c r="CX153" s="1"/>
+      <c r="CY153" s="1"/>
+      <c r="CZ153" s="1"/>
+      <c r="DA153" s="1"/>
+      <c r="DB153" s="1"/>
+      <c r="DC153" s="1"/>
+      <c r="DD153" s="1"/>
+      <c r="DE153" s="1"/>
+      <c r="DF153" s="1"/>
+      <c r="DG153" s="1"/>
+    </row>
+    <row r="154" spans="1:111">
+      <c r="A154" s="48" t="s">
+        <v>810</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D154" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E154" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F154" s="48" t="s">
+        <v>811</v>
+      </c>
+      <c r="G154" s="48" t="s">
+        <v>811</v>
+      </c>
+      <c r="H154" s="1"/>
+      <c r="I154" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="X154" s="1"/>
+      <c r="Y154" s="1"/>
+      <c r="Z154" s="1"/>
+      <c r="AA154" s="1"/>
+      <c r="AB154" s="1"/>
+      <c r="AC154" s="1"/>
+      <c r="AD154" s="1"/>
+      <c r="AE154" s="1"/>
+      <c r="AF154" s="1"/>
+      <c r="AG154" s="1"/>
+      <c r="AH154" s="1"/>
+      <c r="AI154" s="1"/>
+      <c r="AJ154" s="1"/>
+      <c r="AK154" s="1"/>
+      <c r="AL154" s="1"/>
+      <c r="AM154" s="1"/>
+      <c r="AN154" s="1"/>
+      <c r="AO154" s="1"/>
+      <c r="AP154" s="1"/>
+      <c r="AQ154" s="1"/>
+      <c r="AR154" s="1"/>
+      <c r="AS154" s="1"/>
+      <c r="AT154" s="1"/>
+      <c r="AU154" s="1"/>
+      <c r="AV154" s="1"/>
+      <c r="AW154" s="1"/>
+      <c r="AX154" s="1"/>
+      <c r="AY154" s="1"/>
+      <c r="AZ154" s="1"/>
+      <c r="BA154" s="1"/>
+      <c r="BB154" s="1"/>
+      <c r="BC154" s="1"/>
+      <c r="BD154" s="1"/>
+      <c r="BE154" s="1"/>
+      <c r="BF154" s="1"/>
+      <c r="BG154" s="1"/>
+      <c r="BH154" s="1"/>
+      <c r="BI154" s="1"/>
+      <c r="BJ154" s="1"/>
+      <c r="BK154" s="1"/>
+      <c r="BL154" s="1"/>
+      <c r="BM154" s="1"/>
+      <c r="BN154" s="1"/>
+      <c r="BO154" s="1"/>
+      <c r="BP154" s="1"/>
+      <c r="BQ154" s="1"/>
+      <c r="BR154" s="1"/>
+      <c r="BS154" s="1"/>
+      <c r="BT154" s="1"/>
+      <c r="BU154" s="1"/>
+      <c r="BV154" s="1"/>
+      <c r="BW154" s="1"/>
+      <c r="BX154" s="1"/>
+      <c r="BY154" s="1"/>
+      <c r="BZ154" s="1"/>
+      <c r="CA154" s="1"/>
+      <c r="CB154" s="1"/>
+      <c r="CC154" s="1"/>
+      <c r="CD154" s="1"/>
+      <c r="CE154" s="1"/>
+      <c r="CF154" s="1"/>
+      <c r="CG154" s="1"/>
+      <c r="CH154" s="1"/>
+      <c r="CI154" s="1"/>
+      <c r="CJ154" s="1"/>
+      <c r="CK154" s="1"/>
+      <c r="CL154" s="1"/>
+      <c r="CM154" s="1"/>
+      <c r="CN154" s="1"/>
+      <c r="CO154" s="1"/>
+      <c r="CP154" s="1"/>
+      <c r="CQ154" s="1"/>
+      <c r="CR154" s="1"/>
+      <c r="CS154" s="1"/>
+      <c r="CT154" s="1"/>
+      <c r="CU154" s="1"/>
+      <c r="CV154" s="1"/>
+      <c r="CW154" s="1"/>
+      <c r="CX154" s="1"/>
+      <c r="CY154" s="1"/>
+      <c r="CZ154" s="1"/>
+      <c r="DA154" s="1"/>
+      <c r="DB154" s="1"/>
+      <c r="DC154" s="1"/>
+      <c r="DD154" s="1"/>
+      <c r="DE154" s="1"/>
+      <c r="DF154" s="1"/>
+      <c r="DG154" s="1"/>
+    </row>
+    <row r="155" spans="1:111">
+      <c r="A155" s="48" t="s">
+        <v>812</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D155" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E155" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F155" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="G155" s="48" t="s">
+        <v>813</v>
+      </c>
+      <c r="H155" s="1"/>
+      <c r="I155" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="X155" s="1"/>
+      <c r="Y155" s="1"/>
+      <c r="Z155" s="1"/>
+      <c r="AA155" s="1"/>
+      <c r="AB155" s="1"/>
+      <c r="AC155" s="1"/>
+      <c r="AD155" s="1"/>
+      <c r="AE155" s="1"/>
+      <c r="AF155" s="1"/>
+      <c r="AG155" s="1"/>
+      <c r="AH155" s="1"/>
+      <c r="AI155" s="1"/>
+      <c r="AJ155" s="1"/>
+      <c r="AK155" s="1"/>
+      <c r="AL155" s="1"/>
+      <c r="AM155" s="1"/>
+      <c r="AN155" s="1"/>
+      <c r="AO155" s="1"/>
+      <c r="AP155" s="1"/>
+      <c r="AQ155" s="1"/>
+      <c r="AR155" s="1"/>
+      <c r="AS155" s="1"/>
+      <c r="AT155" s="1"/>
+      <c r="AU155" s="1"/>
+      <c r="AV155" s="1"/>
+      <c r="AW155" s="1"/>
+      <c r="AX155" s="1"/>
+      <c r="AY155" s="1"/>
+      <c r="AZ155" s="1"/>
+      <c r="BA155" s="1"/>
+      <c r="BB155" s="1"/>
+      <c r="BC155" s="1"/>
+      <c r="BD155" s="1"/>
+      <c r="BE155" s="1"/>
+      <c r="BF155" s="1"/>
+      <c r="BG155" s="1"/>
+      <c r="BH155" s="1"/>
+      <c r="BI155" s="1"/>
+      <c r="BJ155" s="1"/>
+      <c r="BK155" s="1"/>
+      <c r="BL155" s="1"/>
+      <c r="BM155" s="1"/>
+      <c r="BN155" s="1"/>
+      <c r="BO155" s="1"/>
+      <c r="BP155" s="1"/>
+      <c r="BQ155" s="1"/>
+      <c r="BR155" s="1"/>
+      <c r="BS155" s="1"/>
+      <c r="BT155" s="1"/>
+      <c r="BU155" s="1"/>
+      <c r="BV155" s="1"/>
+      <c r="BW155" s="1"/>
+      <c r="BX155" s="1"/>
+      <c r="BY155" s="1"/>
+      <c r="BZ155" s="1"/>
+      <c r="CA155" s="1"/>
+      <c r="CB155" s="1"/>
+      <c r="CC155" s="1"/>
+      <c r="CD155" s="1"/>
+      <c r="CE155" s="1"/>
+      <c r="CF155" s="1"/>
+      <c r="CG155" s="1"/>
+      <c r="CH155" s="1"/>
+      <c r="CI155" s="1"/>
+      <c r="CJ155" s="1"/>
+      <c r="CK155" s="1"/>
+      <c r="CL155" s="1"/>
+      <c r="CM155" s="1"/>
+      <c r="CN155" s="1"/>
+      <c r="CO155" s="1"/>
+      <c r="CP155" s="1"/>
+      <c r="CQ155" s="1"/>
+      <c r="CR155" s="1"/>
+      <c r="CS155" s="1"/>
+      <c r="CT155" s="1"/>
+      <c r="CU155" s="1"/>
+      <c r="CV155" s="1"/>
+      <c r="CW155" s="1"/>
+      <c r="CX155" s="1"/>
+      <c r="CY155" s="1"/>
+      <c r="CZ155" s="1"/>
+      <c r="DA155" s="1"/>
+      <c r="DB155" s="1"/>
+      <c r="DC155" s="1"/>
+      <c r="DD155" s="1"/>
+      <c r="DE155" s="1"/>
+      <c r="DF155" s="1"/>
+      <c r="DG155" s="1"/>
+    </row>
+    <row r="156" spans="1:111">
+      <c r="A156" s="48" t="s">
+        <v>814</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D156" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E156" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F156" s="48" t="s">
+        <v>815</v>
+      </c>
+      <c r="G156" s="48" t="s">
+        <v>815</v>
+      </c>
+      <c r="H156" s="1"/>
+      <c r="I156" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="X156" s="1"/>
+      <c r="Y156" s="1"/>
+      <c r="Z156" s="1"/>
+      <c r="AA156" s="1"/>
+      <c r="AB156" s="1"/>
+      <c r="AC156" s="1"/>
+      <c r="AD156" s="1"/>
+      <c r="AE156" s="1"/>
+      <c r="AF156" s="1"/>
+      <c r="AG156" s="1"/>
+      <c r="AH156" s="1"/>
+      <c r="AI156" s="1"/>
+      <c r="AJ156" s="1"/>
+      <c r="AK156" s="1"/>
+      <c r="AL156" s="1"/>
+      <c r="AM156" s="1"/>
+      <c r="AN156" s="1"/>
+      <c r="AO156" s="1"/>
+      <c r="AP156" s="1"/>
+      <c r="AQ156" s="1"/>
+      <c r="AR156" s="1"/>
+      <c r="AS156" s="1"/>
+      <c r="AT156" s="1"/>
+      <c r="AU156" s="1"/>
+      <c r="AV156" s="1"/>
+      <c r="AW156" s="1"/>
+      <c r="AX156" s="1"/>
+      <c r="AY156" s="1"/>
+      <c r="AZ156" s="1"/>
+      <c r="BA156" s="1"/>
+      <c r="BB156" s="1"/>
+      <c r="BC156" s="1"/>
+      <c r="BD156" s="1"/>
+      <c r="BE156" s="1"/>
+      <c r="BF156" s="1"/>
+      <c r="BG156" s="1"/>
+      <c r="BH156" s="1"/>
+      <c r="BI156" s="1"/>
+      <c r="BJ156" s="1"/>
+      <c r="BK156" s="1"/>
+      <c r="BL156" s="1"/>
+      <c r="BM156" s="1"/>
+      <c r="BN156" s="1"/>
+      <c r="BO156" s="1"/>
+      <c r="BP156" s="1"/>
+      <c r="BQ156" s="1"/>
+      <c r="BR156" s="1"/>
+      <c r="BS156" s="1"/>
+      <c r="BT156" s="1"/>
+      <c r="BU156" s="1"/>
+      <c r="BV156" s="1"/>
+      <c r="BW156" s="1"/>
+      <c r="BX156" s="1"/>
+      <c r="BY156" s="1"/>
+      <c r="BZ156" s="1"/>
+      <c r="CA156" s="1"/>
+      <c r="CB156" s="1"/>
+      <c r="CC156" s="1"/>
+      <c r="CD156" s="1"/>
+      <c r="CE156" s="1"/>
+      <c r="CF156" s="1"/>
+      <c r="CG156" s="1"/>
+      <c r="CH156" s="1"/>
+      <c r="CI156" s="1"/>
+      <c r="CJ156" s="1"/>
+      <c r="CK156" s="1"/>
+      <c r="CL156" s="1"/>
+      <c r="CM156" s="1"/>
+      <c r="CN156" s="1"/>
+      <c r="CO156" s="1"/>
+      <c r="CP156" s="1"/>
+      <c r="CQ156" s="1"/>
+      <c r="CR156" s="1"/>
+      <c r="CS156" s="1"/>
+      <c r="CT156" s="1"/>
+      <c r="CU156" s="1"/>
+      <c r="CV156" s="1"/>
+      <c r="CW156" s="1"/>
+      <c r="CX156" s="1"/>
+      <c r="CY156" s="1"/>
+      <c r="CZ156" s="1"/>
+      <c r="DA156" s="1"/>
+      <c r="DB156" s="1"/>
+      <c r="DC156" s="1"/>
+      <c r="DD156" s="1"/>
+      <c r="DE156" s="1"/>
+      <c r="DF156" s="1"/>
+      <c r="DG156" s="1"/>
+    </row>
+    <row r="157" spans="1:111">
+      <c r="A157" s="48" t="s">
+        <v>816</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D157" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F157" s="48" t="s">
+        <v>817</v>
+      </c>
+      <c r="G157" s="48" t="s">
+        <v>817</v>
+      </c>
+      <c r="H157" s="1"/>
+      <c r="I157" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="1"/>
+      <c r="AG157" s="1"/>
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+      <c r="AJ157" s="1"/>
+      <c r="AK157" s="1"/>
+      <c r="AL157" s="1"/>
+      <c r="AM157" s="1"/>
+      <c r="AN157" s="1"/>
+      <c r="AO157" s="1"/>
+      <c r="AP157" s="1"/>
+      <c r="AQ157" s="1"/>
+      <c r="AR157" s="1"/>
+      <c r="AS157" s="1"/>
+      <c r="AT157" s="1"/>
+      <c r="AU157" s="1"/>
+      <c r="AV157" s="1"/>
+      <c r="AW157" s="1"/>
+      <c r="AX157" s="1"/>
+      <c r="AY157" s="1"/>
+      <c r="AZ157" s="1"/>
+      <c r="BA157" s="1"/>
+      <c r="BB157" s="1"/>
+      <c r="BC157" s="1"/>
+      <c r="BD157" s="1"/>
+      <c r="BE157" s="1"/>
+      <c r="BF157" s="1"/>
+      <c r="BG157" s="1"/>
+      <c r="BH157" s="1"/>
+      <c r="BI157" s="1"/>
+      <c r="BJ157" s="1"/>
+      <c r="BK157" s="1"/>
+      <c r="BL157" s="1"/>
+      <c r="BM157" s="1"/>
+      <c r="BN157" s="1"/>
+      <c r="BO157" s="1"/>
+      <c r="BP157" s="1"/>
+      <c r="BQ157" s="1"/>
+      <c r="BR157" s="1"/>
+      <c r="BS157" s="1"/>
+      <c r="BT157" s="1"/>
+      <c r="BU157" s="1"/>
+      <c r="BV157" s="1"/>
+      <c r="BW157" s="1"/>
+      <c r="BX157" s="1"/>
+      <c r="BY157" s="1"/>
+      <c r="BZ157" s="1"/>
+      <c r="CA157" s="1"/>
+      <c r="CB157" s="1"/>
+      <c r="CC157" s="1"/>
+      <c r="CD157" s="1"/>
+      <c r="CE157" s="1"/>
+      <c r="CF157" s="1"/>
+      <c r="CG157" s="1"/>
+      <c r="CH157" s="1"/>
+      <c r="CI157" s="1"/>
+      <c r="CJ157" s="1"/>
+      <c r="CK157" s="1"/>
+      <c r="CL157" s="1"/>
+      <c r="CM157" s="1"/>
+      <c r="CN157" s="1"/>
+      <c r="CO157" s="1"/>
+      <c r="CP157" s="1"/>
+      <c r="CQ157" s="1"/>
+      <c r="CR157" s="1"/>
+      <c r="CS157" s="1"/>
+      <c r="CT157" s="1"/>
+      <c r="CU157" s="1"/>
+      <c r="CV157" s="1"/>
+      <c r="CW157" s="1"/>
+      <c r="CX157" s="1"/>
+      <c r="CY157" s="1"/>
+      <c r="CZ157" s="1"/>
+      <c r="DA157" s="1"/>
+      <c r="DB157" s="1"/>
+      <c r="DC157" s="1"/>
+      <c r="DD157" s="1"/>
+      <c r="DE157" s="1"/>
+      <c r="DF157" s="1"/>
+      <c r="DG157" s="1"/>
+    </row>
+    <row r="158" spans="1:111">
+      <c r="A158" s="48" t="s">
+        <v>818</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D158" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E158" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F158" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="G158" s="48" t="s">
+        <v>822</v>
+      </c>
+      <c r="H158" s="1"/>
+      <c r="I158" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="1"/>
+      <c r="Z158" s="1"/>
+      <c r="AA158" s="1"/>
+      <c r="AB158" s="1"/>
+      <c r="AC158" s="1"/>
+      <c r="AD158" s="1"/>
+      <c r="AE158" s="1"/>
+      <c r="AF158" s="1"/>
+      <c r="AG158" s="1"/>
+      <c r="AH158" s="1"/>
+      <c r="AI158" s="1"/>
+      <c r="AJ158" s="1"/>
+      <c r="AK158" s="1"/>
+      <c r="AL158" s="1"/>
+      <c r="AM158" s="1"/>
+      <c r="AN158" s="1"/>
+      <c r="AO158" s="1"/>
+      <c r="AP158" s="1"/>
+      <c r="AQ158" s="1"/>
+      <c r="AR158" s="1"/>
+      <c r="AS158" s="1"/>
+      <c r="AT158" s="1"/>
+      <c r="AU158" s="1"/>
+      <c r="AV158" s="1"/>
+      <c r="AW158" s="1"/>
+      <c r="AX158" s="1"/>
+      <c r="AY158" s="1"/>
+      <c r="AZ158" s="1"/>
+      <c r="BA158" s="1"/>
+      <c r="BB158" s="1"/>
+      <c r="BC158" s="1"/>
+      <c r="BD158" s="1"/>
+      <c r="BE158" s="1"/>
+      <c r="BF158" s="1"/>
+      <c r="BG158" s="1"/>
+      <c r="BH158" s="1"/>
+      <c r="BI158" s="1"/>
+      <c r="BJ158" s="1"/>
+      <c r="BK158" s="1"/>
+      <c r="BL158" s="1"/>
+      <c r="BM158" s="1"/>
+      <c r="BN158" s="1"/>
+      <c r="BO158" s="1"/>
+      <c r="BP158" s="1"/>
+      <c r="BQ158" s="1"/>
+      <c r="BR158" s="1"/>
+      <c r="BS158" s="1"/>
+      <c r="BT158" s="1"/>
+      <c r="BU158" s="1"/>
+      <c r="BV158" s="1"/>
+      <c r="BW158" s="1"/>
+      <c r="BX158" s="1"/>
+      <c r="BY158" s="1"/>
+      <c r="BZ158" s="1"/>
+      <c r="CA158" s="1"/>
+      <c r="CB158" s="1"/>
+      <c r="CC158" s="1"/>
+      <c r="CD158" s="1"/>
+      <c r="CE158" s="1"/>
+      <c r="CF158" s="1"/>
+      <c r="CG158" s="1"/>
+      <c r="CH158" s="1"/>
+      <c r="CI158" s="1"/>
+      <c r="CJ158" s="1"/>
+      <c r="CK158" s="1"/>
+      <c r="CL158" s="1"/>
+      <c r="CM158" s="1"/>
+      <c r="CN158" s="1"/>
+      <c r="CO158" s="1"/>
+      <c r="CP158" s="1"/>
+      <c r="CQ158" s="1"/>
+      <c r="CR158" s="1"/>
+      <c r="CS158" s="1"/>
+      <c r="CT158" s="1"/>
+      <c r="CU158" s="1"/>
+      <c r="CV158" s="1"/>
+      <c r="CW158" s="1"/>
+      <c r="CX158" s="1"/>
+      <c r="CY158" s="1"/>
+      <c r="CZ158" s="1"/>
+      <c r="DA158" s="1"/>
+      <c r="DB158" s="1"/>
+      <c r="DC158" s="1"/>
+      <c r="DD158" s="1"/>
+      <c r="DE158" s="1"/>
+      <c r="DF158" s="1"/>
+      <c r="DG158" s="1"/>
+    </row>
+    <row r="159" spans="1:111">
+      <c r="A159" s="48" t="s">
+        <v>819</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D159" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E159" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F159" s="48" t="s">
+        <v>817</v>
+      </c>
+      <c r="G159" s="48" t="s">
+        <v>817</v>
+      </c>
+      <c r="H159" s="1"/>
+      <c r="I159" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
+      <c r="AA159" s="1"/>
+      <c r="AB159" s="1"/>
+      <c r="AC159" s="1"/>
+      <c r="AD159" s="1"/>
+      <c r="AE159" s="1"/>
+      <c r="AF159" s="1"/>
+      <c r="AG159" s="1"/>
+      <c r="AH159" s="1"/>
+      <c r="AI159" s="1"/>
+      <c r="AJ159" s="1"/>
+      <c r="AK159" s="1"/>
+      <c r="AL159" s="1"/>
+      <c r="AM159" s="1"/>
+      <c r="AN159" s="1"/>
+      <c r="AO159" s="1"/>
+      <c r="AP159" s="1"/>
+      <c r="AQ159" s="1"/>
+      <c r="AR159" s="1"/>
+      <c r="AS159" s="1"/>
+      <c r="AT159" s="1"/>
+      <c r="AU159" s="1"/>
+      <c r="AV159" s="1"/>
+      <c r="AW159" s="1"/>
+      <c r="AX159" s="1"/>
+      <c r="AY159" s="1"/>
+      <c r="AZ159" s="1"/>
+      <c r="BA159" s="1"/>
+      <c r="BB159" s="1"/>
+      <c r="BC159" s="1"/>
+      <c r="BD159" s="1"/>
+      <c r="BE159" s="1"/>
+      <c r="BF159" s="1"/>
+      <c r="BG159" s="1"/>
+      <c r="BH159" s="1"/>
+      <c r="BI159" s="1"/>
+      <c r="BJ159" s="1"/>
+      <c r="BK159" s="1"/>
+      <c r="BL159" s="1"/>
+      <c r="BM159" s="1"/>
+      <c r="BN159" s="1"/>
+      <c r="BO159" s="1"/>
+      <c r="BP159" s="1"/>
+      <c r="BQ159" s="1"/>
+      <c r="BR159" s="1"/>
+      <c r="BS159" s="1"/>
+      <c r="BT159" s="1"/>
+      <c r="BU159" s="1"/>
+      <c r="BV159" s="1"/>
+      <c r="BW159" s="1"/>
+      <c r="BX159" s="1"/>
+      <c r="BY159" s="1"/>
+      <c r="BZ159" s="1"/>
+      <c r="CA159" s="1"/>
+      <c r="CB159" s="1"/>
+      <c r="CC159" s="1"/>
+      <c r="CD159" s="1"/>
+      <c r="CE159" s="1"/>
+      <c r="CF159" s="1"/>
+      <c r="CG159" s="1"/>
+      <c r="CH159" s="1"/>
+      <c r="CI159" s="1"/>
+      <c r="CJ159" s="1"/>
+      <c r="CK159" s="1"/>
+      <c r="CL159" s="1"/>
+      <c r="CM159" s="1"/>
+      <c r="CN159" s="1"/>
+      <c r="CO159" s="1"/>
+      <c r="CP159" s="1"/>
+      <c r="CQ159" s="1"/>
+      <c r="CR159" s="1"/>
+      <c r="CS159" s="1"/>
+      <c r="CT159" s="1"/>
+      <c r="CU159" s="1"/>
+      <c r="CV159" s="1"/>
+      <c r="CW159" s="1"/>
+      <c r="CX159" s="1"/>
+      <c r="CY159" s="1"/>
+      <c r="CZ159" s="1"/>
+      <c r="DA159" s="1"/>
+      <c r="DB159" s="1"/>
+      <c r="DC159" s="1"/>
+      <c r="DD159" s="1"/>
+      <c r="DE159" s="1"/>
+      <c r="DF159" s="1"/>
+      <c r="DG159" s="1"/>
+    </row>
+    <row r="160" spans="1:111">
+      <c r="A160" s="48" t="s">
+        <v>820</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D160" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E160" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F160" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="G160" s="48" t="s">
+        <v>823</v>
+      </c>
+      <c r="H160" s="1"/>
+      <c r="I160" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="1"/>
+      <c r="Z160" s="1"/>
+      <c r="AA160" s="1"/>
+      <c r="AB160" s="1"/>
+      <c r="AC160" s="1"/>
+      <c r="AD160" s="1"/>
+      <c r="AE160" s="1"/>
+      <c r="AF160" s="1"/>
+      <c r="AG160" s="1"/>
+      <c r="AH160" s="1"/>
+      <c r="AI160" s="1"/>
+      <c r="AJ160" s="1"/>
+      <c r="AK160" s="1"/>
+      <c r="AL160" s="1"/>
+      <c r="AM160" s="1"/>
+      <c r="AN160" s="1"/>
+      <c r="AO160" s="1"/>
+      <c r="AP160" s="1"/>
+      <c r="AQ160" s="1"/>
+      <c r="AR160" s="1"/>
+      <c r="AS160" s="1"/>
+      <c r="AT160" s="1"/>
+      <c r="AU160" s="1"/>
+      <c r="AV160" s="1"/>
+      <c r="AW160" s="1"/>
+      <c r="AX160" s="1"/>
+      <c r="AY160" s="1"/>
+      <c r="AZ160" s="1"/>
+      <c r="BA160" s="1"/>
+      <c r="BB160" s="1"/>
+      <c r="BC160" s="1"/>
+      <c r="BD160" s="1"/>
+      <c r="BE160" s="1"/>
+      <c r="BF160" s="1"/>
+      <c r="BG160" s="1"/>
+      <c r="BH160" s="1"/>
+      <c r="BI160" s="1"/>
+      <c r="BJ160" s="1"/>
+      <c r="BK160" s="1"/>
+      <c r="BL160" s="1"/>
+      <c r="BM160" s="1"/>
+      <c r="BN160" s="1"/>
+      <c r="BO160" s="1"/>
+      <c r="BP160" s="1"/>
+      <c r="BQ160" s="1"/>
+      <c r="BR160" s="1"/>
+      <c r="BS160" s="1"/>
+      <c r="BT160" s="1"/>
+      <c r="BU160" s="1"/>
+      <c r="BV160" s="1"/>
+      <c r="BW160" s="1"/>
+      <c r="BX160" s="1"/>
+      <c r="BY160" s="1"/>
+      <c r="BZ160" s="1"/>
+      <c r="CA160" s="1"/>
+      <c r="CB160" s="1"/>
+      <c r="CC160" s="1"/>
+      <c r="CD160" s="1"/>
+      <c r="CE160" s="1"/>
+      <c r="CF160" s="1"/>
+      <c r="CG160" s="1"/>
+      <c r="CH160" s="1"/>
+      <c r="CI160" s="1"/>
+      <c r="CJ160" s="1"/>
+      <c r="CK160" s="1"/>
+      <c r="CL160" s="1"/>
+      <c r="CM160" s="1"/>
+      <c r="CN160" s="1"/>
+      <c r="CO160" s="1"/>
+      <c r="CP160" s="1"/>
+      <c r="CQ160" s="1"/>
+      <c r="CR160" s="1"/>
+      <c r="CS160" s="1"/>
+      <c r="CT160" s="1"/>
+      <c r="CU160" s="1"/>
+      <c r="CV160" s="1"/>
+      <c r="CW160" s="1"/>
+      <c r="CX160" s="1"/>
+      <c r="CY160" s="1"/>
+      <c r="CZ160" s="1"/>
+      <c r="DA160" s="1"/>
+      <c r="DB160" s="1"/>
+      <c r="DC160" s="1"/>
+      <c r="DD160" s="1"/>
+      <c r="DE160" s="1"/>
+      <c r="DF160" s="1"/>
+      <c r="DG160" s="1"/>
+    </row>
+    <row r="161" spans="1:111">
+      <c r="A161" s="48" t="s">
+        <v>821</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D161" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E161" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F161" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="G161" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="H161" s="1"/>
+      <c r="I161" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+      <c r="Y161" s="1"/>
+      <c r="Z161" s="1"/>
+      <c r="AA161" s="1"/>
+      <c r="AB161" s="1"/>
+      <c r="AC161" s="1"/>
+      <c r="AD161" s="1"/>
+      <c r="AE161" s="1"/>
+      <c r="AF161" s="1"/>
+      <c r="AG161" s="1"/>
+      <c r="AH161" s="1"/>
+      <c r="AI161" s="1"/>
+      <c r="AJ161" s="1"/>
+      <c r="AK161" s="1"/>
+      <c r="AL161" s="1"/>
+      <c r="AM161" s="1"/>
+      <c r="AN161" s="1"/>
+      <c r="AO161" s="1"/>
+      <c r="AP161" s="1"/>
+      <c r="AQ161" s="1"/>
+      <c r="AR161" s="1"/>
+      <c r="AS161" s="1"/>
+      <c r="AT161" s="1"/>
+      <c r="AU161" s="1"/>
+      <c r="AV161" s="1"/>
+      <c r="AW161" s="1"/>
+      <c r="AX161" s="1"/>
+      <c r="AY161" s="1"/>
+      <c r="AZ161" s="1"/>
+      <c r="BA161" s="1"/>
+      <c r="BB161" s="1"/>
+      <c r="BC161" s="1"/>
+      <c r="BD161" s="1"/>
+      <c r="BE161" s="1"/>
+      <c r="BF161" s="1"/>
+      <c r="BG161" s="1"/>
+      <c r="BH161" s="1"/>
+      <c r="BI161" s="1"/>
+      <c r="BJ161" s="1"/>
+      <c r="BK161" s="1"/>
+      <c r="BL161" s="1"/>
+      <c r="BM161" s="1"/>
+      <c r="BN161" s="1"/>
+      <c r="BO161" s="1"/>
+      <c r="BP161" s="1"/>
+      <c r="BQ161" s="1"/>
+      <c r="BR161" s="1"/>
+      <c r="BS161" s="1"/>
+      <c r="BT161" s="1"/>
+      <c r="BU161" s="1"/>
+      <c r="BV161" s="1"/>
+      <c r="BW161" s="1"/>
+      <c r="BX161" s="1"/>
+      <c r="BY161" s="1"/>
+      <c r="BZ161" s="1"/>
+      <c r="CA161" s="1"/>
+      <c r="CB161" s="1"/>
+      <c r="CC161" s="1"/>
+      <c r="CD161" s="1"/>
+      <c r="CE161" s="1"/>
+      <c r="CF161" s="1"/>
+      <c r="CG161" s="1"/>
+      <c r="CH161" s="1"/>
+      <c r="CI161" s="1"/>
+      <c r="CJ161" s="1"/>
+      <c r="CK161" s="1"/>
+      <c r="CL161" s="1"/>
+      <c r="CM161" s="1"/>
+      <c r="CN161" s="1"/>
+      <c r="CO161" s="1"/>
+      <c r="CP161" s="1"/>
+      <c r="CQ161" s="1"/>
+      <c r="CR161" s="1"/>
+      <c r="CS161" s="1"/>
+      <c r="CT161" s="1"/>
+      <c r="CU161" s="1"/>
+      <c r="CV161" s="1"/>
+      <c r="CW161" s="1"/>
+      <c r="CX161" s="1"/>
+      <c r="CY161" s="1"/>
+      <c r="CZ161" s="1"/>
+      <c r="DA161" s="1"/>
+      <c r="DB161" s="1"/>
+      <c r="DC161" s="1"/>
+      <c r="DD161" s="1"/>
+      <c r="DE161" s="1"/>
+      <c r="DF161" s="1"/>
+      <c r="DG161" s="1"/>
+    </row>
+    <row r="162" spans="1:111">
+      <c r="A162" s="48" t="s">
+        <v>825</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D162" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E162" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F162" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="G162" s="48" t="s">
+        <v>826</v>
+      </c>
+      <c r="H162" s="1"/>
+      <c r="I162" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+      <c r="Y162" s="1"/>
+      <c r="Z162" s="1"/>
+      <c r="AA162" s="1"/>
+      <c r="AB162" s="1"/>
+      <c r="AC162" s="1"/>
+      <c r="AD162" s="1"/>
+      <c r="AE162" s="1"/>
+      <c r="AF162" s="1"/>
+      <c r="AG162" s="1"/>
+      <c r="AH162" s="1"/>
+      <c r="AI162" s="1"/>
+      <c r="AJ162" s="1"/>
+      <c r="AK162" s="1"/>
+      <c r="AL162" s="1"/>
+      <c r="AM162" s="1"/>
+      <c r="AN162" s="1"/>
+      <c r="AO162" s="1"/>
+      <c r="AP162" s="1"/>
+      <c r="AQ162" s="1"/>
+      <c r="AR162" s="1"/>
+      <c r="AS162" s="1"/>
+      <c r="AT162" s="1"/>
+      <c r="AU162" s="1"/>
+      <c r="AV162" s="1"/>
+      <c r="AW162" s="1"/>
+      <c r="AX162" s="1"/>
+      <c r="AY162" s="1"/>
+      <c r="AZ162" s="1"/>
+      <c r="BA162" s="1"/>
+      <c r="BB162" s="1"/>
+      <c r="BC162" s="1"/>
+      <c r="BD162" s="1"/>
+      <c r="BE162" s="1"/>
+      <c r="BF162" s="1"/>
+      <c r="BG162" s="1"/>
+      <c r="BH162" s="1"/>
+      <c r="BI162" s="1"/>
+      <c r="BJ162" s="1"/>
+      <c r="BK162" s="1"/>
+      <c r="BL162" s="1"/>
+      <c r="BM162" s="1"/>
+      <c r="BN162" s="1"/>
+      <c r="BO162" s="1"/>
+      <c r="BP162" s="1"/>
+      <c r="BQ162" s="1"/>
+      <c r="BR162" s="1"/>
+      <c r="BS162" s="1"/>
+      <c r="BT162" s="1"/>
+      <c r="BU162" s="1"/>
+      <c r="BV162" s="1"/>
+      <c r="BW162" s="1"/>
+      <c r="BX162" s="1"/>
+      <c r="BY162" s="1"/>
+      <c r="BZ162" s="1"/>
+      <c r="CA162" s="1"/>
+      <c r="CB162" s="1"/>
+      <c r="CC162" s="1"/>
+      <c r="CD162" s="1"/>
+      <c r="CE162" s="1"/>
+      <c r="CF162" s="1"/>
+      <c r="CG162" s="1"/>
+      <c r="CH162" s="1"/>
+      <c r="CI162" s="1"/>
+      <c r="CJ162" s="1"/>
+      <c r="CK162" s="1"/>
+      <c r="CL162" s="1"/>
+      <c r="CM162" s="1"/>
+      <c r="CN162" s="1"/>
+      <c r="CO162" s="1"/>
+      <c r="CP162" s="1"/>
+      <c r="CQ162" s="1"/>
+      <c r="CR162" s="1"/>
+      <c r="CS162" s="1"/>
+      <c r="CT162" s="1"/>
+      <c r="CU162" s="1"/>
+      <c r="CV162" s="1"/>
+      <c r="CW162" s="1"/>
+      <c r="CX162" s="1"/>
+      <c r="CY162" s="1"/>
+      <c r="CZ162" s="1"/>
+      <c r="DA162" s="1"/>
+      <c r="DB162" s="1"/>
+      <c r="DC162" s="1"/>
+      <c r="DD162" s="1"/>
+      <c r="DE162" s="1"/>
+      <c r="DF162" s="1"/>
+      <c r="DG162" s="1"/>
+    </row>
+    <row r="163" spans="1:111">
+      <c r="A163" s="48" t="s">
+        <v>827</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D163" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E163" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F163" s="48" t="s">
+        <v>828</v>
+      </c>
+      <c r="G163" s="48" t="s">
+        <v>828</v>
+      </c>
+      <c r="H163" s="1"/>
+      <c r="I163" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+      <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="X163" s="1"/>
+      <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
+      <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
+      <c r="AC163" s="1"/>
+      <c r="AD163" s="1"/>
+      <c r="AE163" s="1"/>
+      <c r="AF163" s="1"/>
+      <c r="AG163" s="1"/>
+      <c r="AH163" s="1"/>
+      <c r="AI163" s="1"/>
+      <c r="AJ163" s="1"/>
+      <c r="AK163" s="1"/>
+      <c r="AL163" s="1"/>
+      <c r="AM163" s="1"/>
+      <c r="AN163" s="1"/>
+      <c r="AO163" s="1"/>
+      <c r="AP163" s="1"/>
+      <c r="AQ163" s="1"/>
+      <c r="AR163" s="1"/>
+      <c r="AS163" s="1"/>
+      <c r="AT163" s="1"/>
+      <c r="AU163" s="1"/>
+      <c r="AV163" s="1"/>
+      <c r="AW163" s="1"/>
+      <c r="AX163" s="1"/>
+      <c r="AY163" s="1"/>
+      <c r="AZ163" s="1"/>
+      <c r="BA163" s="1"/>
+      <c r="BB163" s="1"/>
+      <c r="BC163" s="1"/>
+      <c r="BD163" s="1"/>
+      <c r="BE163" s="1"/>
+      <c r="BF163" s="1"/>
+      <c r="BG163" s="1"/>
+      <c r="BH163" s="1"/>
+      <c r="BI163" s="1"/>
+      <c r="BJ163" s="1"/>
+      <c r="BK163" s="1"/>
+      <c r="BL163" s="1"/>
+      <c r="BM163" s="1"/>
+      <c r="BN163" s="1"/>
+      <c r="BO163" s="1"/>
+      <c r="BP163" s="1"/>
+      <c r="BQ163" s="1"/>
+      <c r="BR163" s="1"/>
+      <c r="BS163" s="1"/>
+      <c r="BT163" s="1"/>
+      <c r="BU163" s="1"/>
+      <c r="BV163" s="1"/>
+      <c r="BW163" s="1"/>
+      <c r="BX163" s="1"/>
+      <c r="BY163" s="1"/>
+      <c r="BZ163" s="1"/>
+      <c r="CA163" s="1"/>
+      <c r="CB163" s="1"/>
+      <c r="CC163" s="1"/>
+      <c r="CD163" s="1"/>
+      <c r="CE163" s="1"/>
+      <c r="CF163" s="1"/>
+      <c r="CG163" s="1"/>
+      <c r="CH163" s="1"/>
+      <c r="CI163" s="1"/>
+      <c r="CJ163" s="1"/>
+      <c r="CK163" s="1"/>
+      <c r="CL163" s="1"/>
+      <c r="CM163" s="1"/>
+      <c r="CN163" s="1"/>
+      <c r="CO163" s="1"/>
+      <c r="CP163" s="1"/>
+      <c r="CQ163" s="1"/>
+      <c r="CR163" s="1"/>
+      <c r="CS163" s="1"/>
+      <c r="CT163" s="1"/>
+      <c r="CU163" s="1"/>
+      <c r="CV163" s="1"/>
+      <c r="CW163" s="1"/>
+      <c r="CX163" s="1"/>
+      <c r="CY163" s="1"/>
+      <c r="CZ163" s="1"/>
+      <c r="DA163" s="1"/>
+      <c r="DB163" s="1"/>
+      <c r="DC163" s="1"/>
+      <c r="DD163" s="1"/>
+      <c r="DE163" s="1"/>
+      <c r="DF163" s="1"/>
+      <c r="DG163" s="1"/>
+    </row>
+    <row r="164" spans="1:111">
+      <c r="A164" s="48" t="s">
+        <v>829</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D164" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E164" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F164" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="G164" s="48" t="s">
+        <v>830</v>
+      </c>
+      <c r="H164" s="1"/>
+      <c r="I164" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+      <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="X164" s="1"/>
+      <c r="Y164" s="1"/>
+      <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1"/>
+      <c r="AE164" s="1"/>
+      <c r="AF164" s="1"/>
+      <c r="AG164" s="1"/>
+      <c r="AH164" s="1"/>
+      <c r="AI164" s="1"/>
+      <c r="AJ164" s="1"/>
+      <c r="AK164" s="1"/>
+      <c r="AL164" s="1"/>
+      <c r="AM164" s="1"/>
+      <c r="AN164" s="1"/>
+      <c r="AO164" s="1"/>
+      <c r="AP164" s="1"/>
+      <c r="AQ164" s="1"/>
+      <c r="AR164" s="1"/>
+      <c r="AS164" s="1"/>
+      <c r="AT164" s="1"/>
+      <c r="AU164" s="1"/>
+      <c r="AV164" s="1"/>
+      <c r="AW164" s="1"/>
+      <c r="AX164" s="1"/>
+      <c r="AY164" s="1"/>
+      <c r="AZ164" s="1"/>
+      <c r="BA164" s="1"/>
+      <c r="BB164" s="1"/>
+      <c r="BC164" s="1"/>
+      <c r="BD164" s="1"/>
+      <c r="BE164" s="1"/>
+      <c r="BF164" s="1"/>
+      <c r="BG164" s="1"/>
+      <c r="BH164" s="1"/>
+      <c r="BI164" s="1"/>
+      <c r="BJ164" s="1"/>
+      <c r="BK164" s="1"/>
+      <c r="BL164" s="1"/>
+      <c r="BM164" s="1"/>
+      <c r="BN164" s="1"/>
+      <c r="BO164" s="1"/>
+      <c r="BP164" s="1"/>
+      <c r="BQ164" s="1"/>
+      <c r="BR164" s="1"/>
+      <c r="BS164" s="1"/>
+      <c r="BT164" s="1"/>
+      <c r="BU164" s="1"/>
+      <c r="BV164" s="1"/>
+      <c r="BW164" s="1"/>
+      <c r="BX164" s="1"/>
+      <c r="BY164" s="1"/>
+      <c r="BZ164" s="1"/>
+      <c r="CA164" s="1"/>
+      <c r="CB164" s="1"/>
+      <c r="CC164" s="1"/>
+      <c r="CD164" s="1"/>
+      <c r="CE164" s="1"/>
+      <c r="CF164" s="1"/>
+      <c r="CG164" s="1"/>
+      <c r="CH164" s="1"/>
+      <c r="CI164" s="1"/>
+      <c r="CJ164" s="1"/>
+      <c r="CK164" s="1"/>
+      <c r="CL164" s="1"/>
+      <c r="CM164" s="1"/>
+      <c r="CN164" s="1"/>
+      <c r="CO164" s="1"/>
+      <c r="CP164" s="1"/>
+      <c r="CQ164" s="1"/>
+      <c r="CR164" s="1"/>
+      <c r="CS164" s="1"/>
+      <c r="CT164" s="1"/>
+      <c r="CU164" s="1"/>
+      <c r="CV164" s="1"/>
+      <c r="CW164" s="1"/>
+      <c r="CX164" s="1"/>
+      <c r="CY164" s="1"/>
+      <c r="CZ164" s="1"/>
+      <c r="DA164" s="1"/>
+      <c r="DB164" s="1"/>
+      <c r="DC164" s="1"/>
+      <c r="DD164" s="1"/>
+      <c r="DE164" s="1"/>
+      <c r="DF164" s="1"/>
+      <c r="DG164" s="1"/>
+    </row>
+    <row r="165" spans="1:111">
+      <c r="A165" s="48" t="s">
+        <v>833</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D165" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E165" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F165" s="48" t="s">
+        <v>835</v>
+      </c>
+      <c r="G165" s="48" t="s">
+        <v>835</v>
+      </c>
+      <c r="H165" s="1"/>
+      <c r="I165" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
+      <c r="X165" s="1"/>
+      <c r="Y165" s="1"/>
+      <c r="Z165" s="1"/>
+      <c r="AA165" s="1"/>
+      <c r="AB165" s="1"/>
+      <c r="AC165" s="1"/>
+      <c r="AD165" s="1"/>
+      <c r="AE165" s="1"/>
+      <c r="AF165" s="1"/>
+      <c r="AG165" s="1"/>
+      <c r="AH165" s="1"/>
+      <c r="AI165" s="1"/>
+      <c r="AJ165" s="1"/>
+      <c r="AK165" s="1"/>
+      <c r="AL165" s="1"/>
+      <c r="AM165" s="1"/>
+      <c r="AN165" s="1"/>
+      <c r="AO165" s="1"/>
+      <c r="AP165" s="1"/>
+      <c r="AQ165" s="1"/>
+      <c r="AR165" s="1"/>
+      <c r="AS165" s="1"/>
+      <c r="AT165" s="1"/>
+      <c r="AU165" s="1"/>
+      <c r="AV165" s="1"/>
+      <c r="AW165" s="1"/>
+      <c r="AX165" s="1"/>
+      <c r="AY165" s="1"/>
+      <c r="AZ165" s="1"/>
+      <c r="BA165" s="1"/>
+      <c r="BB165" s="1"/>
+      <c r="BC165" s="1"/>
+      <c r="BD165" s="1"/>
+      <c r="BE165" s="1"/>
+      <c r="BF165" s="1"/>
+      <c r="BG165" s="1"/>
+      <c r="BH165" s="1"/>
+      <c r="BI165" s="1"/>
+      <c r="BJ165" s="1"/>
+      <c r="BK165" s="1"/>
+      <c r="BL165" s="1"/>
+      <c r="BM165" s="1"/>
+      <c r="BN165" s="1"/>
+      <c r="BO165" s="1"/>
+      <c r="BP165" s="1"/>
+      <c r="BQ165" s="1"/>
+      <c r="BR165" s="1"/>
+      <c r="BS165" s="1"/>
+      <c r="BT165" s="1"/>
+      <c r="BU165" s="1"/>
+      <c r="BV165" s="1"/>
+      <c r="BW165" s="1"/>
+      <c r="BX165" s="1"/>
+      <c r="BY165" s="1"/>
+      <c r="BZ165" s="1"/>
+      <c r="CA165" s="1"/>
+      <c r="CB165" s="1"/>
+      <c r="CC165" s="1"/>
+      <c r="CD165" s="1"/>
+      <c r="CE165" s="1"/>
+      <c r="CF165" s="1"/>
+      <c r="CG165" s="1"/>
+      <c r="CH165" s="1"/>
+      <c r="CI165" s="1"/>
+      <c r="CJ165" s="1"/>
+      <c r="CK165" s="1"/>
+      <c r="CL165" s="1"/>
+      <c r="CM165" s="1"/>
+      <c r="CN165" s="1"/>
+      <c r="CO165" s="1"/>
+      <c r="CP165" s="1"/>
+      <c r="CQ165" s="1"/>
+      <c r="CR165" s="1"/>
+      <c r="CS165" s="1"/>
+      <c r="CT165" s="1"/>
+      <c r="CU165" s="1"/>
+      <c r="CV165" s="1"/>
+      <c r="CW165" s="1"/>
+      <c r="CX165" s="1"/>
+      <c r="CY165" s="1"/>
+      <c r="CZ165" s="1"/>
+      <c r="DA165" s="1"/>
+      <c r="DB165" s="1"/>
+      <c r="DC165" s="1"/>
+      <c r="DD165" s="1"/>
+      <c r="DE165" s="1"/>
+      <c r="DF165" s="1"/>
+      <c r="DG165" s="1"/>
+    </row>
+    <row r="166" spans="1:111">
+      <c r="A166" s="48" t="s">
+        <v>834</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D166" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E166" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F166" s="48" t="s">
+        <v>836</v>
+      </c>
+      <c r="G166" s="48" t="s">
+        <v>836</v>
+      </c>
+      <c r="H166" s="1"/>
+      <c r="I166" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
+      <c r="Y166" s="1"/>
+      <c r="Z166" s="1"/>
+      <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
+      <c r="AC166" s="1"/>
+      <c r="AD166" s="1"/>
+      <c r="AE166" s="1"/>
+      <c r="AF166" s="1"/>
+      <c r="AG166" s="1"/>
+      <c r="AH166" s="1"/>
+      <c r="AI166" s="1"/>
+      <c r="AJ166" s="1"/>
+      <c r="AK166" s="1"/>
+      <c r="AL166" s="1"/>
+      <c r="AM166" s="1"/>
+      <c r="AN166" s="1"/>
+      <c r="AO166" s="1"/>
+      <c r="AP166" s="1"/>
+      <c r="AQ166" s="1"/>
+      <c r="AR166" s="1"/>
+      <c r="AS166" s="1"/>
+      <c r="AT166" s="1"/>
+      <c r="AU166" s="1"/>
+      <c r="AV166" s="1"/>
+      <c r="AW166" s="1"/>
+      <c r="AX166" s="1"/>
+      <c r="AY166" s="1"/>
+      <c r="AZ166" s="1"/>
+      <c r="BA166" s="1"/>
+      <c r="BB166" s="1"/>
+      <c r="BC166" s="1"/>
+      <c r="BD166" s="1"/>
+      <c r="BE166" s="1"/>
+      <c r="BF166" s="1"/>
+      <c r="BG166" s="1"/>
+      <c r="BH166" s="1"/>
+      <c r="BI166" s="1"/>
+      <c r="BJ166" s="1"/>
+      <c r="BK166" s="1"/>
+      <c r="BL166" s="1"/>
+      <c r="BM166" s="1"/>
+      <c r="BN166" s="1"/>
+      <c r="BO166" s="1"/>
+      <c r="BP166" s="1"/>
+      <c r="BQ166" s="1"/>
+      <c r="BR166" s="1"/>
+      <c r="BS166" s="1"/>
+      <c r="BT166" s="1"/>
+      <c r="BU166" s="1"/>
+      <c r="BV166" s="1"/>
+      <c r="BW166" s="1"/>
+      <c r="BX166" s="1"/>
+      <c r="BY166" s="1"/>
+      <c r="BZ166" s="1"/>
+      <c r="CA166" s="1"/>
+      <c r="CB166" s="1"/>
+      <c r="CC166" s="1"/>
+      <c r="CD166" s="1"/>
+      <c r="CE166" s="1"/>
+      <c r="CF166" s="1"/>
+      <c r="CG166" s="1"/>
+      <c r="CH166" s="1"/>
+      <c r="CI166" s="1"/>
+      <c r="CJ166" s="1"/>
+      <c r="CK166" s="1"/>
+      <c r="CL166" s="1"/>
+      <c r="CM166" s="1"/>
+      <c r="CN166" s="1"/>
+      <c r="CO166" s="1"/>
+      <c r="CP166" s="1"/>
+      <c r="CQ166" s="1"/>
+      <c r="CR166" s="1"/>
+      <c r="CS166" s="1"/>
+      <c r="CT166" s="1"/>
+      <c r="CU166" s="1"/>
+      <c r="CV166" s="1"/>
+      <c r="CW166" s="1"/>
+      <c r="CX166" s="1"/>
+      <c r="CY166" s="1"/>
+      <c r="CZ166" s="1"/>
+      <c r="DA166" s="1"/>
+      <c r="DB166" s="1"/>
+      <c r="DC166" s="1"/>
+      <c r="DD166" s="1"/>
+      <c r="DE166" s="1"/>
+      <c r="DF166" s="1"/>
+      <c r="DG166" s="1"/>
+    </row>
+    <row r="167" spans="1:111">
+      <c r="A167" s="48" t="s">
+        <v>837</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D167" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E167" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F167" s="48" t="s">
+        <v>838</v>
+      </c>
+      <c r="G167" s="48" t="s">
+        <v>838</v>
+      </c>
+      <c r="H167" s="1"/>
+      <c r="I167" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+      <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
+      <c r="Y167" s="1"/>
+      <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
+      <c r="AD167" s="1"/>
+      <c r="AE167" s="1"/>
+      <c r="AF167" s="1"/>
+      <c r="AG167" s="1"/>
+      <c r="AH167" s="1"/>
+      <c r="AI167" s="1"/>
+      <c r="AJ167" s="1"/>
+      <c r="AK167" s="1"/>
+      <c r="AL167" s="1"/>
+      <c r="AM167" s="1"/>
+      <c r="AN167" s="1"/>
+      <c r="AO167" s="1"/>
+      <c r="AP167" s="1"/>
+      <c r="AQ167" s="1"/>
+      <c r="AR167" s="1"/>
+      <c r="AS167" s="1"/>
+      <c r="AT167" s="1"/>
+      <c r="AU167" s="1"/>
+      <c r="AV167" s="1"/>
+      <c r="AW167" s="1"/>
+      <c r="AX167" s="1"/>
+      <c r="AY167" s="1"/>
+      <c r="AZ167" s="1"/>
+      <c r="BA167" s="1"/>
+      <c r="BB167" s="1"/>
+      <c r="BC167" s="1"/>
+      <c r="BD167" s="1"/>
+      <c r="BE167" s="1"/>
+      <c r="BF167" s="1"/>
+      <c r="BG167" s="1"/>
+      <c r="BH167" s="1"/>
+      <c r="BI167" s="1"/>
+      <c r="BJ167" s="1"/>
+      <c r="BK167" s="1"/>
+      <c r="BL167" s="1"/>
+      <c r="BM167" s="1"/>
+      <c r="BN167" s="1"/>
+      <c r="BO167" s="1"/>
+      <c r="BP167" s="1"/>
+      <c r="BQ167" s="1"/>
+      <c r="BR167" s="1"/>
+      <c r="BS167" s="1"/>
+      <c r="BT167" s="1"/>
+      <c r="BU167" s="1"/>
+      <c r="BV167" s="1"/>
+      <c r="BW167" s="1"/>
+      <c r="BX167" s="1"/>
+      <c r="BY167" s="1"/>
+      <c r="BZ167" s="1"/>
+      <c r="CA167" s="1"/>
+      <c r="CB167" s="1"/>
+      <c r="CC167" s="1"/>
+      <c r="CD167" s="1"/>
+      <c r="CE167" s="1"/>
+      <c r="CF167" s="1"/>
+      <c r="CG167" s="1"/>
+      <c r="CH167" s="1"/>
+      <c r="CI167" s="1"/>
+      <c r="CJ167" s="1"/>
+      <c r="CK167" s="1"/>
+      <c r="CL167" s="1"/>
+      <c r="CM167" s="1"/>
+      <c r="CN167" s="1"/>
+      <c r="CO167" s="1"/>
+      <c r="CP167" s="1"/>
+      <c r="CQ167" s="1"/>
+      <c r="CR167" s="1"/>
+      <c r="CS167" s="1"/>
+      <c r="CT167" s="1"/>
+      <c r="CU167" s="1"/>
+      <c r="CV167" s="1"/>
+      <c r="CW167" s="1"/>
+      <c r="CX167" s="1"/>
+      <c r="CY167" s="1"/>
+      <c r="CZ167" s="1"/>
+      <c r="DA167" s="1"/>
+      <c r="DB167" s="1"/>
+      <c r="DC167" s="1"/>
+      <c r="DD167" s="1"/>
+      <c r="DE167" s="1"/>
+      <c r="DF167" s="1"/>
+      <c r="DG167" s="1"/>
+    </row>
+    <row r="168" spans="1:111">
+      <c r="A168" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D168" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E168" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F168" s="48" t="s">
+        <v>841</v>
+      </c>
+      <c r="G168" s="48" t="s">
+        <v>841</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+      <c r="W168" s="1"/>
+      <c r="X168" s="1"/>
+      <c r="Y168" s="1"/>
+      <c r="Z168" s="1"/>
+      <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
+      <c r="AC168" s="1"/>
+      <c r="AD168" s="1"/>
+      <c r="AE168" s="1"/>
+      <c r="AF168" s="1"/>
+      <c r="AG168" s="1"/>
+      <c r="AH168" s="1"/>
+      <c r="AI168" s="1"/>
+      <c r="AJ168" s="1"/>
+      <c r="AK168" s="1"/>
+      <c r="AL168" s="1"/>
+      <c r="AM168" s="1"/>
+      <c r="AN168" s="1"/>
+      <c r="AO168" s="1"/>
+      <c r="AP168" s="1"/>
+      <c r="AQ168" s="1"/>
+      <c r="AR168" s="1"/>
+      <c r="AS168" s="1"/>
+      <c r="AT168" s="1"/>
+      <c r="AU168" s="1"/>
+      <c r="AV168" s="1"/>
+      <c r="AW168" s="1"/>
+      <c r="AX168" s="1"/>
+      <c r="AY168" s="1"/>
+      <c r="AZ168" s="1"/>
+      <c r="BA168" s="1"/>
+      <c r="BB168" s="1"/>
+      <c r="BC168" s="1"/>
+      <c r="BD168" s="1"/>
+      <c r="BE168" s="1"/>
+      <c r="BF168" s="1"/>
+      <c r="BG168" s="1"/>
+      <c r="BH168" s="1"/>
+      <c r="BI168" s="1"/>
+      <c r="BJ168" s="1"/>
+      <c r="BK168" s="1"/>
+      <c r="BL168" s="1"/>
+      <c r="BM168" s="1"/>
+      <c r="BN168" s="1"/>
+      <c r="BO168" s="1"/>
+      <c r="BP168" s="1"/>
+      <c r="BQ168" s="1"/>
+      <c r="BR168" s="1"/>
+      <c r="BS168" s="1"/>
+      <c r="BT168" s="1"/>
+      <c r="BU168" s="1"/>
+      <c r="BV168" s="1"/>
+      <c r="BW168" s="1"/>
+      <c r="BX168" s="1"/>
+      <c r="BY168" s="1"/>
+      <c r="BZ168" s="1"/>
+      <c r="CA168" s="1"/>
+      <c r="CB168" s="1"/>
+      <c r="CC168" s="1"/>
+      <c r="CD168" s="1"/>
+      <c r="CE168" s="1"/>
+      <c r="CF168" s="1"/>
+      <c r="CG168" s="1"/>
+      <c r="CH168" s="1"/>
+      <c r="CI168" s="1"/>
+      <c r="CJ168" s="1"/>
+      <c r="CK168" s="1"/>
+      <c r="CL168" s="1"/>
+      <c r="CM168" s="1"/>
+      <c r="CN168" s="1"/>
+      <c r="CO168" s="1"/>
+      <c r="CP168" s="1"/>
+      <c r="CQ168" s="1"/>
+      <c r="CR168" s="1"/>
+      <c r="CS168" s="1"/>
+      <c r="CT168" s="1"/>
+      <c r="CU168" s="1"/>
+      <c r="CV168" s="1"/>
+      <c r="CW168" s="1"/>
+      <c r="CX168" s="1"/>
+      <c r="CY168" s="1"/>
+      <c r="CZ168" s="1"/>
+      <c r="DA168" s="1"/>
+      <c r="DB168" s="1"/>
+      <c r="DC168" s="1"/>
+      <c r="DD168" s="1"/>
+      <c r="DE168" s="1"/>
+      <c r="DF168" s="1"/>
+      <c r="DG168" s="1"/>
+    </row>
+    <row r="169" spans="1:111">
+      <c r="A169" s="48" t="s">
+        <v>840</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D169" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E169" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F169" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="G169" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="H169" s="1"/>
+      <c r="I169" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+      <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
+      <c r="Y169" s="1"/>
+      <c r="Z169" s="1"/>
+      <c r="AA169" s="1"/>
+      <c r="AB169" s="1"/>
+      <c r="AC169" s="1"/>
+      <c r="AD169" s="1"/>
+      <c r="AE169" s="1"/>
+      <c r="AF169" s="1"/>
+      <c r="AG169" s="1"/>
+      <c r="AH169" s="1"/>
+      <c r="AI169" s="1"/>
+      <c r="AJ169" s="1"/>
+      <c r="AK169" s="1"/>
+      <c r="AL169" s="1"/>
+      <c r="AM169" s="1"/>
+      <c r="AN169" s="1"/>
+      <c r="AO169" s="1"/>
+      <c r="AP169" s="1"/>
+      <c r="AQ169" s="1"/>
+      <c r="AR169" s="1"/>
+      <c r="AS169" s="1"/>
+      <c r="AT169" s="1"/>
+      <c r="AU169" s="1"/>
+      <c r="AV169" s="1"/>
+      <c r="AW169" s="1"/>
+      <c r="AX169" s="1"/>
+      <c r="AY169" s="1"/>
+      <c r="AZ169" s="1"/>
+      <c r="BA169" s="1"/>
+      <c r="BB169" s="1"/>
+      <c r="BC169" s="1"/>
+      <c r="BD169" s="1"/>
+      <c r="BE169" s="1"/>
+      <c r="BF169" s="1"/>
+      <c r="BG169" s="1"/>
+      <c r="BH169" s="1"/>
+      <c r="BI169" s="1"/>
+      <c r="BJ169" s="1"/>
+      <c r="BK169" s="1"/>
+      <c r="BL169" s="1"/>
+      <c r="BM169" s="1"/>
+      <c r="BN169" s="1"/>
+      <c r="BO169" s="1"/>
+      <c r="BP169" s="1"/>
+      <c r="BQ169" s="1"/>
+      <c r="BR169" s="1"/>
+      <c r="BS169" s="1"/>
+      <c r="BT169" s="1"/>
+      <c r="BU169" s="1"/>
+      <c r="BV169" s="1"/>
+      <c r="BW169" s="1"/>
+      <c r="BX169" s="1"/>
+      <c r="BY169" s="1"/>
+      <c r="BZ169" s="1"/>
+      <c r="CA169" s="1"/>
+      <c r="CB169" s="1"/>
+      <c r="CC169" s="1"/>
+      <c r="CD169" s="1"/>
+      <c r="CE169" s="1"/>
+      <c r="CF169" s="1"/>
+      <c r="CG169" s="1"/>
+      <c r="CH169" s="1"/>
+      <c r="CI169" s="1"/>
+      <c r="CJ169" s="1"/>
+      <c r="CK169" s="1"/>
+      <c r="CL169" s="1"/>
+      <c r="CM169" s="1"/>
+      <c r="CN169" s="1"/>
+      <c r="CO169" s="1"/>
+      <c r="CP169" s="1"/>
+      <c r="CQ169" s="1"/>
+      <c r="CR169" s="1"/>
+      <c r="CS169" s="1"/>
+      <c r="CT169" s="1"/>
+      <c r="CU169" s="1"/>
+      <c r="CV169" s="1"/>
+      <c r="CW169" s="1"/>
+      <c r="CX169" s="1"/>
+      <c r="CY169" s="1"/>
+      <c r="CZ169" s="1"/>
+      <c r="DA169" s="1"/>
+      <c r="DB169" s="1"/>
+      <c r="DC169" s="1"/>
+      <c r="DD169" s="1"/>
+      <c r="DE169" s="1"/>
+      <c r="DF169" s="1"/>
+      <c r="DG169" s="1"/>
+    </row>
+    <row r="170" spans="1:111">
+      <c r="A170" s="48" t="s">
+        <v>843</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D170" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E170" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F170" s="48" t="s">
+        <v>844</v>
+      </c>
+      <c r="G170" s="48" t="s">
+        <v>844</v>
+      </c>
+      <c r="H170" s="1"/>
+      <c r="I170" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
+      <c r="Y170" s="1"/>
+      <c r="Z170" s="1"/>
+      <c r="AA170" s="1"/>
+      <c r="AB170" s="1"/>
+      <c r="AC170" s="1"/>
+      <c r="AD170" s="1"/>
+      <c r="AE170" s="1"/>
+      <c r="AF170" s="1"/>
+      <c r="AG170" s="1"/>
+      <c r="AH170" s="1"/>
+      <c r="AI170" s="1"/>
+      <c r="AJ170" s="1"/>
+      <c r="AK170" s="1"/>
+      <c r="AL170" s="1"/>
+      <c r="AM170" s="1"/>
+      <c r="AN170" s="1"/>
+      <c r="AO170" s="1"/>
+      <c r="AP170" s="1"/>
+      <c r="AQ170" s="1"/>
+      <c r="AR170" s="1"/>
+      <c r="AS170" s="1"/>
+      <c r="AT170" s="1"/>
+      <c r="AU170" s="1"/>
+      <c r="AV170" s="1"/>
+      <c r="AW170" s="1"/>
+      <c r="AX170" s="1"/>
+      <c r="AY170" s="1"/>
+      <c r="AZ170" s="1"/>
+      <c r="BA170" s="1"/>
+      <c r="BB170" s="1"/>
+      <c r="BC170" s="1"/>
+      <c r="BD170" s="1"/>
+      <c r="BE170" s="1"/>
+      <c r="BF170" s="1"/>
+      <c r="BG170" s="1"/>
+      <c r="BH170" s="1"/>
+      <c r="BI170" s="1"/>
+      <c r="BJ170" s="1"/>
+      <c r="BK170" s="1"/>
+      <c r="BL170" s="1"/>
+      <c r="BM170" s="1"/>
+      <c r="BN170" s="1"/>
+      <c r="BO170" s="1"/>
+      <c r="BP170" s="1"/>
+      <c r="BQ170" s="1"/>
+      <c r="BR170" s="1"/>
+      <c r="BS170" s="1"/>
+      <c r="BT170" s="1"/>
+      <c r="BU170" s="1"/>
+      <c r="BV170" s="1"/>
+      <c r="BW170" s="1"/>
+      <c r="BX170" s="1"/>
+      <c r="BY170" s="1"/>
+      <c r="BZ170" s="1"/>
+      <c r="CA170" s="1"/>
+      <c r="CB170" s="1"/>
+      <c r="CC170" s="1"/>
+      <c r="CD170" s="1"/>
+      <c r="CE170" s="1"/>
+      <c r="CF170" s="1"/>
+      <c r="CG170" s="1"/>
+      <c r="CH170" s="1"/>
+      <c r="CI170" s="1"/>
+      <c r="CJ170" s="1"/>
+      <c r="CK170" s="1"/>
+      <c r="CL170" s="1"/>
+      <c r="CM170" s="1"/>
+      <c r="CN170" s="1"/>
+      <c r="CO170" s="1"/>
+      <c r="CP170" s="1"/>
+      <c r="CQ170" s="1"/>
+      <c r="CR170" s="1"/>
+      <c r="CS170" s="1"/>
+      <c r="CT170" s="1"/>
+      <c r="CU170" s="1"/>
+      <c r="CV170" s="1"/>
+      <c r="CW170" s="1"/>
+      <c r="CX170" s="1"/>
+      <c r="CY170" s="1"/>
+      <c r="CZ170" s="1"/>
+      <c r="DA170" s="1"/>
+      <c r="DB170" s="1"/>
+      <c r="DC170" s="1"/>
+      <c r="DD170" s="1"/>
+      <c r="DE170" s="1"/>
+      <c r="DF170" s="1"/>
+      <c r="DG170" s="1"/>
+    </row>
+    <row r="171" spans="1:111">
+      <c r="A171" s="48" t="s">
+        <v>845</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="D171" s="48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E171" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="F171" s="48" t="s">
+        <v>846</v>
+      </c>
+      <c r="G171" s="48" t="s">
+        <v>846</v>
+      </c>
+      <c r="H171" s="1"/>
+      <c r="I171" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
+      <c r="X171" s="1"/>
+      <c r="Y171" s="1"/>
+      <c r="Z171" s="1"/>
+      <c r="AA171" s="1"/>
+      <c r="AB171" s="1"/>
+      <c r="AC171" s="1"/>
+      <c r="AD171" s="1"/>
+      <c r="AE171" s="1"/>
+      <c r="AF171" s="1"/>
+      <c r="AG171" s="1"/>
+      <c r="AH171" s="1"/>
+      <c r="AI171" s="1"/>
+      <c r="AJ171" s="1"/>
+      <c r="AK171" s="1"/>
+      <c r="AL171" s="1"/>
+      <c r="AM171" s="1"/>
+      <c r="AN171" s="1"/>
+      <c r="AO171" s="1"/>
+      <c r="AP171" s="1"/>
+      <c r="AQ171" s="1"/>
+      <c r="AR171" s="1"/>
+      <c r="AS171" s="1"/>
+      <c r="AT171" s="1"/>
+      <c r="AU171" s="1"/>
+      <c r="AV171" s="1"/>
+      <c r="AW171" s="1"/>
+      <c r="AX171" s="1"/>
+      <c r="AY171" s="1"/>
+      <c r="AZ171" s="1"/>
+      <c r="BA171" s="1"/>
+      <c r="BB171" s="1"/>
+      <c r="BC171" s="1"/>
+      <c r="BD171" s="1"/>
+      <c r="BE171" s="1"/>
+      <c r="BF171" s="1"/>
+      <c r="BG171" s="1"/>
+      <c r="BH171" s="1"/>
+      <c r="BI171" s="1"/>
+      <c r="BJ171" s="1"/>
+      <c r="BK171" s="1"/>
+      <c r="BL171" s="1"/>
+      <c r="BM171" s="1"/>
+      <c r="BN171" s="1"/>
+      <c r="BO171" s="1"/>
+      <c r="BP171" s="1"/>
+      <c r="BQ171" s="1"/>
+      <c r="BR171" s="1"/>
+      <c r="BS171" s="1"/>
+      <c r="BT171" s="1"/>
+      <c r="BU171" s="1"/>
+      <c r="BV171" s="1"/>
+      <c r="BW171" s="1"/>
+      <c r="BX171" s="1"/>
+      <c r="BY171" s="1"/>
+      <c r="BZ171" s="1"/>
+      <c r="CA171" s="1"/>
+      <c r="CB171" s="1"/>
+      <c r="CC171" s="1"/>
+      <c r="CD171" s="1"/>
+      <c r="CE171" s="1"/>
+      <c r="CF171" s="1"/>
+      <c r="CG171" s="1"/>
+      <c r="CH171" s="1"/>
+      <c r="CI171" s="1"/>
+      <c r="CJ171" s="1"/>
+      <c r="CK171" s="1"/>
+      <c r="CL171" s="1"/>
+      <c r="CM171" s="1"/>
+      <c r="CN171" s="1"/>
+      <c r="CO171" s="1"/>
+      <c r="CP171" s="1"/>
+      <c r="CQ171" s="1"/>
+      <c r="CR171" s="1"/>
+      <c r="CS171" s="1"/>
+      <c r="CT171" s="1"/>
+      <c r="CU171" s="1"/>
+      <c r="CV171" s="1"/>
+      <c r="CW171" s="1"/>
+      <c r="CX171" s="1"/>
+      <c r="CY171" s="1"/>
+      <c r="CZ171" s="1"/>
+      <c r="DA171" s="1"/>
+      <c r="DB171" s="1"/>
+      <c r="DC171" s="1"/>
+      <c r="DD171" s="1"/>
+      <c r="DE171" s="1"/>
+      <c r="DF171" s="1"/>
+      <c r="DG171" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
+++ b/Engage/Sogo-Smoke/src/main/resources/excelfiles/Sogo_Smoke.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B133B0A-80E5-45C1-8DD1-D1D887513299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F87457-EFC7-491C-AE36-C22E5B229653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="848">
   <si>
     <t>Environment</t>
   </si>
@@ -2461,9 +2461,6 @@
     <t>aplhabet_number</t>
   </si>
   <si>
-    <t>Failure Reason</t>
-  </si>
-  <si>
     <t>//img[@src='/AllImages/ProductImages/Product_specifics/error-symbol-login.png']</t>
   </si>
   <si>
@@ -2693,13 +2690,20 @@
   </si>
   <si>
     <t>Incorrect Date</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to click on null element.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <numFmts count="0"/>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2777,12 +2781,45 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2827,8 +2864,133 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -2936,7 +3098,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2975,25 +3137,40 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="6" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId=